--- a/Cases.xlsx
+++ b/Cases.xlsx
@@ -38,7 +38,9 @@
   <si>
     <t>Статус</t>
   </si>
-  <si/>
+  <si>
+    <t>Автоматизация</t>
+  </si>
   <si>
     <t>Раздел Авторизация. Проверка правописания. Ввод валидных значений в поле Login и Password</t>
   </si>
@@ -80,6 +82,18 @@
     <t>Приложение успешно запустилось. Появилась страница с авторизацией</t>
   </si>
   <si>
+    <t>Проверено</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="XO Thames"/>
+        <sz val="12"/>
+      </rPr>
+      <t>Подлежит автоматизации</t>
+    </r>
+  </si>
+  <si>
     <t>Проверить правописание Authorization, Login, Password</t>
   </si>
   <si>
@@ -98,10 +112,40 @@
     </r>
   </si>
   <si>
+    <r>
+      <rPr>
+        <rFont val="XO Thames"/>
+        <sz val="12"/>
+      </rPr>
+      <t>Проверено</t>
+    </r>
+  </si>
+  <si>
+    <t>Подлежит автоматизации</t>
+  </si>
+  <si>
     <t>Кликнуть на поле Login</t>
   </si>
   <si>
     <t>Края поля Login подсветятся цветом.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <sz val="12"/>
+      </rPr>
+      <t>Не подлежит автоматизации. В Text Input Layout не обнаружена стро</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <i val="false"/>
+        <color rgb="000000" tint="0"/>
+        <sz val="12"/>
+      </rPr>
+      <t>ка отвечающее за изменения цвета рамки при активации.</t>
+    </r>
   </si>
   <si>
     <t>Кликнуть на поле Password</t>
@@ -447,7 +491,7 @@
     <t>Клик произошел успешно. Комментарий в сообщении закрылся</t>
   </si>
   <si>
-    <t>5. В разделе News кликнуть на all news</t>
+    <t>В разделе News кликнуть на all news</t>
   </si>
   <si>
     <r>
@@ -885,7 +929,14 @@
         <rFont val="XO Thames"/>
         <sz val="12"/>
       </rPr>
-      <t>Шаг 1. В разделе Claims кликнуть на стрелку вниз находящейся в сообщениях</t>
+      <t>Шаг 1</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="XO Thames"/>
+        <sz val="12"/>
+      </rPr>
+      <t>. В разделе Claims кликнуть на стрелку вниз находящейся в сообщениях</t>
     </r>
     <r>
       <t xml:space="preserve">
@@ -898,7 +949,14 @@
         <rFont val="XO Thames"/>
         <sz val="12"/>
       </rPr>
-      <t>Шаг 2. Кликнуть на шестеренку в квадрате. Находящейся в правом нижнем углу</t>
+      <t>Шаг 2</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="XO Thames"/>
+        <sz val="12"/>
+      </rPr>
+      <t>. Кликнуть на шестеренку в квадрате. Находящейся в правом нижнем углу</t>
     </r>
   </si>
   <si>
@@ -917,7 +975,13 @@
     <t>Сообщение перешло в статус Canceled. Надпись о статусе расположена под строкой Plan date и выделена красным цветом</t>
   </si>
   <si>
-    <t>Повторить Шаг 1 и Шаг 2</t>
+    <r>
+      <rPr>
+        <rFont val="XO Thames"/>
+        <sz val="12"/>
+      </rPr>
+      <t>Повторить Шаг 1 и Шаг 2</t>
+    </r>
   </si>
   <si>
     <r>
@@ -960,15 +1024,6 @@
         <rFont val="XO Thames"/>
         <sz val="12"/>
       </rPr>
-      <t>Повторить Шаг 1 и Шаг 2</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <rFont val="XO Thames"/>
-        <sz val="12"/>
-      </rPr>
       <t>Кликнуть на Trow off</t>
     </r>
   </si>
@@ -1447,123 +1502,226 @@
     <t>Откроется всплывающее меню со списком категорий</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <rFont val="Courier"/>
+        <sz val="11"/>
+      </rPr>
+      <t>В поле Category проверить каждую предоставленную категорию. Покликать все категории</t>
+    </r>
+  </si>
+  <si>
+    <t>Каждая категория успешно выбирается и визуально видна</t>
+  </si>
+  <si>
+    <t>Проверить поле календарь. По левой стороне</t>
+  </si>
+  <si>
+    <t>Календарь успешно проверен. Дата успешно изменяется и визуально отображается</t>
+  </si>
+  <si>
+    <t>Проверить поле календарь. По правой стороне</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="XO Thames"/>
+        <sz val="12"/>
+      </rPr>
+      <t>Календарь успешно проверен. Дата успешно изменяется и визуально отображается</t>
+    </r>
+  </si>
+  <si>
+    <t>Нажать кнопку Cancel</t>
+  </si>
+  <si>
+    <t>Возвращение в раздел News</t>
+  </si>
+  <si>
+    <t>Нажать на кнопку Filter</t>
+  </si>
+  <si>
+    <t>Введенные данные для поиска в Filter News применились и отобразились. Произошел возврат в раздел News</t>
+  </si>
+  <si>
+    <t>Проверка раздела Control Panel</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="XO Thames"/>
+        <sz val="12"/>
+      </rPr>
+      <t xml:space="preserve">Кликнуть на карандаш в квадрате, перейти в Control Panel. </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="XO Thames"/>
+        <sz val="12"/>
+      </rPr>
+      <t>Расположенная на против надписи News, справой стороны</t>
+    </r>
+  </si>
+  <si>
+    <t>Открылся раздел Control Panel</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="XO Thames"/>
+        <sz val="12"/>
+      </rPr>
+      <t xml:space="preserve">Кликнуть на на две вертикальные стрелки указывающие вверх и вниз. </t>
+    </r>
+  </si>
+  <si>
+    <t>Сообщения от фильтруются по дате добавления</t>
+  </si>
+  <si>
+    <t>Кликнуть на три горизонтальные полоски, расположенные в строке Control Panel по правой стороне</t>
+  </si>
+  <si>
+    <t>Открылся раздел Filter News</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="XO Thames"/>
+        <sz val="12"/>
+      </rPr>
+      <t xml:space="preserve">Кликнуть на + в круге, </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="XO Thames"/>
+        <sz val="12"/>
+      </rPr>
+      <t>расположенные в строке Control Panel по правой стороне</t>
+    </r>
+  </si>
+  <si>
+    <t>Открылся раздел Creating News</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="XO Thames"/>
+        <sz val="12"/>
+      </rPr>
+      <t xml:space="preserve">Раздел с сообщениями. Кликнуть на сообщение. </t>
+    </r>
+  </si>
+  <si>
+    <t>Открылось всплывающее меню с дополнительной информацией</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Раздел с сообщениями. Кликнуть на иконку с изображением мусорного ведра. </t>
+  </si>
+  <si>
+    <t>Появится сообщение с предупреждением.</t>
+  </si>
+  <si>
+    <t>Раздел с сообщениями. Кликнуть на иконку с карандашом в квадрате</t>
+  </si>
+  <si>
+    <t>Открылся раздел Editing News</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="XO Thames"/>
+        <sz val="12"/>
+      </rPr>
+      <t xml:space="preserve">Раздел News. Переход в раздел </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="XO Thames"/>
+        <sz val="12"/>
+      </rPr>
+      <t>Control Panel. Проверка раздела Filter News.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="XO Thames"/>
+        <sz val="12"/>
+      </rPr>
+      <t>Кликнуть на три горизонтальные полоски, расположенные в строке Control Panel по правой стороне</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="XO Thames"/>
+        <sz val="12"/>
+      </rPr>
+      <t>Открылся раздел Filter News</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="XO Thames"/>
+        <sz val="12"/>
+      </rPr>
+      <t>Проверить поле Category. Кликнуть на поле или на стрелку указывающее вниз, находящейся по правом краю поля</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="XO Thames"/>
+        <sz val="12"/>
+      </rPr>
+      <t>Откроется всплывающее меню со списком категорий</t>
+    </r>
+  </si>
+  <si>
     <t>В поле Category проверить каждую предоставленную категорию. Покликать все категории</t>
   </si>
   <si>
-    <t>Каждая категория успешно выбирается и визуально видна</t>
-  </si>
-  <si>
-    <t>Проверить поле календарь. По левой стороне</t>
-  </si>
-  <si>
-    <t>Календарь успешно проверен. Дата успешно изменяется и визуально отображается</t>
-  </si>
-  <si>
-    <t>Проверить поле календарь. По правой стороне</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <rFont val="XO Thames"/>
-        <sz val="12"/>
-      </rPr>
-      <t>Календарь успешно проверен. Дата успешно изменяется и визуально отображается</t>
-    </r>
-  </si>
-  <si>
-    <t>Нажать кнопку Cancel</t>
-  </si>
-  <si>
-    <t>Возвращение в раздел News</t>
-  </si>
-  <si>
-    <t>Нажать на кнопку Filter</t>
-  </si>
-  <si>
-    <t>Введенные данные для поиска в Filter News применились и отобразились. Произошел возврат в раздел News</t>
-  </si>
-  <si>
-    <t>Проверка раздела Control Panel</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <rFont val="XO Thames"/>
-        <sz val="12"/>
-      </rPr>
-      <t xml:space="preserve">Кликнуть на карандаш в квадрате, перейти в Control Panel. </t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="XO Thames"/>
-        <sz val="12"/>
-      </rPr>
-      <t>Расположенная на против надписи News, справой стороны</t>
-    </r>
-  </si>
-  <si>
-    <t>Открылся раздел Control Panel</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <rFont val="XO Thames"/>
-        <sz val="12"/>
-      </rPr>
-      <t xml:space="preserve">Кликнуть на на две вертикальные стрелки указывающие вверх и вниз. </t>
-    </r>
-  </si>
-  <si>
-    <t>Сообщения от фильтруются по дате добавления</t>
-  </si>
-  <si>
-    <t>Кликнуть на три горизонтальные полоски, расположенные в строке Control Panel по правой стороне</t>
-  </si>
-  <si>
-    <t>Открылся раздел Filter News</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <rFont val="XO Thames"/>
-        <sz val="12"/>
-      </rPr>
-      <t xml:space="preserve">Кликнуть на + в круге, </t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="XO Thames"/>
-        <sz val="12"/>
-      </rPr>
-      <t>расположенные в строке Control Panel по правой стороне</t>
-    </r>
-  </si>
-  <si>
-    <t>Открылся раздел Creating News</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <rFont val="XO Thames"/>
-        <sz val="12"/>
-      </rPr>
-      <t xml:space="preserve">Раздел с сообщениями. Кликнуть на сообщение. </t>
-    </r>
-  </si>
-  <si>
-    <t>Открылось всплывающее меню с дополнительной информацией</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Раздел с сообщениями. Кликнуть на иконку с изображением мусорного ведра. </t>
-  </si>
-  <si>
-    <t>Появится сообщение с предупреждением.</t>
-  </si>
-  <si>
-    <t>Раздел с сообщениями. Кликнуть на иконку с карандашом в квадрате</t>
-  </si>
-  <si>
-    <t>Открылся раздел Editing News</t>
+    <r>
+      <rPr>
+        <rFont val="XO Thames"/>
+        <sz val="12"/>
+      </rPr>
+      <t>Каждая категория успешно выбирается и визуально видна</t>
+    </r>
+  </si>
+  <si>
+    <t>Проверить чек бокс Active. Поставить галку и убрать галку</t>
+  </si>
+  <si>
+    <t>Галка в чек боксе Active активируется и деактивируется</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="XO Thames"/>
+        <sz val="12"/>
+      </rPr>
+      <t>Проверить чек бокс Not Active. Поставить галку и убрать галку</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="XO Thames"/>
+        <sz val="12"/>
+      </rPr>
+      <t>Галка в чек боксе Not Active активируется и деактивируется</t>
+    </r>
+  </si>
+  <si>
+    <t>Кнопка функционирует. Возврат в раздел Control Panel</t>
+  </si>
+  <si>
+    <t>Кликнуть на кнопку Filter</t>
+  </si>
+  <si>
+    <t>Кнопка функционирует. Возврат в раздел Control Panel. Результат фильтра успешно применилась и визуально отображается</t>
   </si>
   <si>
     <r>
@@ -1578,86 +1736,80 @@
         <rFont val="XO Thames"/>
         <sz val="12"/>
       </rPr>
-      <t>Control Panel. Проверка раздела Filter News.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <rFont val="XO Thames"/>
-        <sz val="12"/>
-      </rPr>
-      <t>Кликнуть на три горизонтальные полоски, расположенные в строке Control Panel по правой стороне</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <rFont val="XO Thames"/>
-        <sz val="12"/>
-      </rPr>
-      <t>Открылся раздел Filter News</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <rFont val="XO Thames"/>
-        <sz val="12"/>
-      </rPr>
-      <t>Проверить поле Category. Кликнуть на поле или на стрелку указывающее вниз, находящейся по правом краю поля</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <rFont val="XO Thames"/>
-        <sz val="12"/>
-      </rPr>
-      <t>Откроется всплывающее меню со списком категорий</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <rFont val="XO Thames"/>
-        <sz val="12"/>
-      </rPr>
-      <t>Каждая категория успешно выбирается и визуально видна</t>
-    </r>
-  </si>
-  <si>
-    <t>Проверить чек бокс Active. Поставить галку и убрать галку</t>
-  </si>
-  <si>
-    <t>Галка в чек боксе Active активируется и деактивируется</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <rFont val="XO Thames"/>
-        <sz val="12"/>
-      </rPr>
-      <t>Проверить чек бокс Not Active. Поставить галку и убрать галку</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <rFont val="XO Thames"/>
-        <sz val="12"/>
-      </rPr>
-      <t>Галка в чек боксе Not Active активируется и деактивируется</t>
-    </r>
-  </si>
-  <si>
-    <t>Кнопка функционирует. Возврат в раздел Control Panel</t>
-  </si>
-  <si>
-    <t>Кликнуть на кнопку Filter</t>
-  </si>
-  <si>
-    <t>Кнопка функционирует. Возврат в раздел Control Panel. Результат фильтра успешно применилась и визуально отображается</t>
+      <t>Control Panel. Проверка раздела Creating News</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="XO Thames"/>
+        <sz val="12"/>
+      </rPr>
+      <t>Открылся раздел Creating News</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="XO Thames"/>
+        <sz val="12"/>
+      </rPr>
+      <t>В поле Category проверить каждую предоставленную категорию. Покликать все категории</t>
+    </r>
+  </si>
+  <si>
+    <t>Проверить поле Tittle на валидные значения. Ввести поле символы на латинице, цифры, специальные символы</t>
+  </si>
+  <si>
+    <t>Символы вводятся и визуально отображаются</t>
+  </si>
+  <si>
+    <t>Проверить поле Publication Date</t>
+  </si>
+  <si>
+    <t>Поле Time успешно проверенно. Время успешно изменяется и визуально отображается</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Проверить поле Description </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="XO Thames"/>
+        <sz val="12"/>
+      </rPr>
+      <t>на валидные значения. Ввести поле символы на латинице, цифры, специальные символы</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="XO Thames"/>
+        <sz val="12"/>
+      </rPr>
+      <t>Символы вводятся и визуально отображаются</t>
+    </r>
+  </si>
+  <si>
+    <t>Проверить ползунок Active</t>
+  </si>
+  <si>
+    <t>Ползунок переключается</t>
+  </si>
+  <si>
+    <t>Ползунок не работает</t>
+  </si>
+  <si>
+    <t>Не подлежит автоматизации. Функция не активна.</t>
+  </si>
+  <si>
+    <t>Появится предупреждающее сообщение</t>
+  </si>
+  <si>
+    <t>Нажать на кнопку Save</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Переход в раздел Control Panel. Сохранение результата </t>
   </si>
   <si>
     <r>
@@ -1672,77 +1824,35 @@
         <rFont val="XO Thames"/>
         <sz val="12"/>
       </rPr>
-      <t>Control Panel. Проверка раздела Creating News</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <rFont val="XO Thames"/>
-        <sz val="12"/>
-      </rPr>
-      <t>Открылся раздел Creating News</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <rFont val="XO Thames"/>
-        <sz val="12"/>
-      </rPr>
-      <t>В поле Category проверить каждую предоставленную категорию. Покликать все категории</t>
-    </r>
-  </si>
-  <si>
-    <t>Проверить поле Tittle на валидные значения. Ввести поле символы на латинице, цифры, специальные символы</t>
-  </si>
-  <si>
-    <t>Символы вводятся и визуально отображаются</t>
-  </si>
-  <si>
-    <t>Проверить поле Publication Date</t>
-  </si>
-  <si>
-    <t>Поле Time успешно проверенно. Время успешно изменяется и визуально отображается</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Проверить поле Description </t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="XO Thames"/>
-        <sz val="12"/>
-      </rPr>
-      <t>на валидные значения. Ввести поле символы на латинице, цифры, специальные символы</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <rFont val="XO Thames"/>
-        <sz val="12"/>
-      </rPr>
-      <t>Символы вводятся и визуально отображаются</t>
-    </r>
-  </si>
-  <si>
-    <t>Проверить ползунок Active</t>
-  </si>
-  <si>
-    <t>Ползунок переключается</t>
-  </si>
-  <si>
-    <t>Ползунок не работает</t>
-  </si>
-  <si>
-    <t>Появится предупреждающее сообщение</t>
-  </si>
-  <si>
-    <t>Нажать на кнопку Save</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Переход в раздел Control Panel. Сохранение результата </t>
+      <t>Control Panel. Проверка Раздел с сообщениями</t>
+    </r>
+  </si>
+  <si>
+    <t>В разделе Control Panel кликнуть на любое сообщение</t>
+  </si>
+  <si>
+    <t>В сообщении раскрылось дополнительная информация</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="XO Thames"/>
+        <sz val="12"/>
+      </rPr>
+      <t>В разделе Control Panel кликнуть на раскрывшееся с дополнительно информации сообщение</t>
+    </r>
+  </si>
+  <si>
+    <t>Дополнительная информация в сообщении закрылась</t>
+  </si>
+  <si>
+    <t>В разделе сообщения кликнуть на иконку с мусорным ведром</t>
+  </si>
+  <si>
+    <t>В разделе сообщения кликнуть на карандаш в квадрате</t>
+  </si>
+  <si>
+    <t>Переход в раздел Editing News</t>
   </si>
   <si>
     <r>
@@ -1757,35 +1867,26 @@
         <rFont val="XO Thames"/>
         <sz val="12"/>
       </rPr>
-      <t>Control Panel. Проверка Раздел с сообщениями</t>
-    </r>
-  </si>
-  <si>
-    <t>В разделе Control Panel кликнуть на любое сообщение</t>
-  </si>
-  <si>
-    <t>В сообщении раскрылось дополнительная информация</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <rFont val="XO Thames"/>
-        <sz val="12"/>
-      </rPr>
-      <t>В разделе Control Panel кликнуть на раскрывшееся с дополнительно информации сообщение</t>
-    </r>
-  </si>
-  <si>
-    <t>Дополнительная информация в сообщении закрылась</t>
-  </si>
-  <si>
-    <t>В разделе сообщения кликнуть на иконку с мусорным ведром</t>
-  </si>
-  <si>
-    <t>В разделе сообщения кликнуть на карандаш в квадрате</t>
-  </si>
-  <si>
-    <t>Переход в раздел Editing News</t>
+      <t>Control Panel. Раздел с сообщениями. Проверка раздела Editing News</t>
+    </r>
+  </si>
+  <si>
+    <t>В разделе Control Panel выбрать любое сообщение и кликнуть на карандаш в квадрате, расположенная в правом нижнем углу в выбранном сообщении</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="XO Thames"/>
+        <sz val="12"/>
+      </rPr>
+      <t>Переход в раздел Editing News</t>
+    </r>
+  </si>
+  <si>
+    <t>Проверить ползунок Active. Кликнуть на ползунок</t>
+  </si>
+  <si>
+    <t>Ползунок переключается в Active и Not Active</t>
   </si>
   <si>
     <r>
@@ -1800,26 +1901,44 @@
         <rFont val="XO Thames"/>
         <sz val="12"/>
       </rPr>
-      <t>Control Panel. Раздел с сообщениями. Проверка раздела Editing News</t>
-    </r>
-  </si>
-  <si>
-    <t>В разделе Control Panel выбрать любое сообщение и кликнуть на карандаш в квадрате, расположенная в правом нижнем углу в выбранном сообщении</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <rFont val="XO Thames"/>
-        <sz val="12"/>
-      </rPr>
-      <t>Переход в раздел Editing News</t>
-    </r>
-  </si>
-  <si>
-    <t>Проверить ползунок Active. Кликнуть на ползунок</t>
-  </si>
-  <si>
-    <t>Ползунок переключается в Active и Not Active</t>
+      <t>Control Panel. Проверка раздела Creating News на не валидные значения</t>
+    </r>
+  </si>
+  <si>
+    <t>Не заполнять поля. Нажать кнопку Save</t>
+  </si>
+  <si>
+    <t>Заполнит поле Category не  валидыными значениями. Ввести в поле символы на других языках. Более 50 символов</t>
+  </si>
+  <si>
+    <t>Ввод в поле не возможен. Только выбор из списка</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="XO Thames"/>
+        <sz val="12"/>
+      </rPr>
+      <t>Заполнит поле Title не  валидыными значениями. Ввести в поле символы на других языках. Более 50 символов</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="XO Thames"/>
+        <sz val="12"/>
+      </rPr>
+      <t>Ввод символов на другом языке не возможен. Ввод более 50 символов не возможен</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="XO Thames"/>
+        <sz val="12"/>
+      </rPr>
+      <t>Заполнит поле Description не  валидыными значениями. Ввести в поле символы на других языках. Более 50 символов</t>
+    </r>
   </si>
   <si>
     <r>
@@ -1834,43 +1953,7 @@
         <rFont val="XO Thames"/>
         <sz val="12"/>
       </rPr>
-      <t>Control Panel. Проверка раздела Creating News на не валидные значения</t>
-    </r>
-  </si>
-  <si>
-    <t>Не заполнять поля. Нажать кнопку Save</t>
-  </si>
-  <si>
-    <t>Заполнит поле Category не  валидыными значениями. Ввести в поле символы на других языках. Более 50 символов</t>
-  </si>
-  <si>
-    <t>Ввод в поле не возможен. Только выбор из списка</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <rFont val="XO Thames"/>
-        <sz val="12"/>
-      </rPr>
-      <t>Заполнит поле Title не  валидыными значениями. Ввести в поле символы на других языках. Более 50 символов</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <rFont val="XO Thames"/>
-        <sz val="12"/>
-      </rPr>
-      <t>Ввод символов на другом языке не возможен. Ввод более 50 символов не возможен</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <rFont val="XO Thames"/>
-        <sz val="12"/>
-      </rPr>
-      <t>Заполнит поле Description не  валидыными значениями. Ввести в поле символы на других языках. Более 50 символов</t>
+      <t>Control Panel. Раздел с сообщениями. Проверка раздела Editing News на не валидные значения</t>
     </r>
   </si>
   <si>
@@ -1886,22 +1969,6 @@
         <rFont val="XO Thames"/>
         <sz val="12"/>
       </rPr>
-      <t>Control Panel. Раздел с сообщениями. Проверка раздела Editing News на не валидные знаяения</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <rFont val="XO Thames"/>
-        <sz val="12"/>
-      </rPr>
-      <t xml:space="preserve">Раздел News. Переход в раздел </t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="XO Thames"/>
-        <sz val="12"/>
-      </rPr>
       <t>Control Panel. Раздел с сообщениями. Проверить иконку с мусорным ведром</t>
     </r>
   </si>
@@ -1936,31 +2003,85 @@
     </r>
   </si>
   <si>
-    <t>Проверка Календарей в разделах</t>
-  </si>
-  <si>
-    <t>Нажать на поле с календарем</t>
-  </si>
-  <si>
-    <t>Календарь успешно открылся</t>
-  </si>
-  <si>
-    <t>Прокликать каждое число (День). Относящейся к сегодняшнему числу и завтрашним числам</t>
-  </si>
-  <si>
-    <t>Число (День) выделяется и выбирается</t>
-  </si>
-  <si>
-    <t>Число которое можно выбрать, выделено черным цветом</t>
-  </si>
-  <si>
-    <t>Прокликать каждое число (День). Относящейся к вчерашним числам</t>
-  </si>
-  <si>
-    <t>Число (День) не выделяется и не выбирается</t>
-  </si>
-  <si>
-    <t>Число которое нельзя выбрать, выделено серым цветом</t>
+    <r>
+      <rPr>
+        <rFont val="Comic Sans MS"/>
+        <sz val="11"/>
+      </rPr>
+      <t>Проверка Календарей в разделах</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Courier"/>
+        <sz val="11"/>
+      </rPr>
+      <t>Нажать на поле с календарем</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Courier"/>
+        <sz val="11"/>
+      </rPr>
+      <t>Календарь успешно открылся</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Courier"/>
+        <sz val="11"/>
+      </rPr>
+      <t>Прокликать каждое число (День). Относящейся к сегодняшнему числу и завтрашним числам</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Courier"/>
+        <sz val="11"/>
+      </rPr>
+      <t>Число (День) выделяется и выбирается</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Courier"/>
+        <sz val="11"/>
+      </rPr>
+      <t>Число которое можно выбрать, выделено черным цветом</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Courier"/>
+        <sz val="11"/>
+      </rPr>
+      <t>Прокликать каждое число (День). Относящейся к вчерашним числам</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Courier"/>
+        <sz val="11"/>
+      </rPr>
+      <t>Число (День) не выделяется и не выбирается</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Courier"/>
+        <sz val="11"/>
+      </rPr>
+      <t>Число которое нельзя выбрать, выделено серым цветом</t>
+    </r>
   </si>
   <si>
     <t>Проверить смену месяца. Нажать на стрелку указывающее в право</t>
@@ -1999,7 +2120,13 @@
     <t>Кнопка Ok функционирует. Внесенные изменения сохраняются в поле календаря</t>
   </si>
   <si>
-    <t>Проверка Времени в разделах</t>
+    <r>
+      <rPr>
+        <rFont val="Comic Sans MS"/>
+        <sz val="12"/>
+      </rPr>
+      <t>Проверка Времени в разделах</t>
+    </r>
   </si>
   <si>
     <t>Нажать на поле с часами</t>
@@ -2062,7 +2189,13 @@
     <t>Смена облика часов</t>
   </si>
   <si>
-    <t>Проверка смены облика часов</t>
+    <r>
+      <rPr>
+        <rFont val="XO Thames"/>
+        <sz val="12"/>
+      </rPr>
+      <t>Проверка смены облика часов</t>
+    </r>
   </si>
   <si>
     <t>В разделе часов. Кликнуть на иконку с клавиатурой. Расположенная с лева от кнопки Cancel</t>
@@ -2167,7 +2300,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:a15="http://schemas.microsoft.com/office/drawing/2012/main" xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:co="http://ncloudtech.com" xmlns:co-ooxml="http://ncloudtech.com/ooxml" xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:o="urn:schemas-microsoft-com:office:office" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:pic="http://schemas.openxmlformats.org/drawingml/2006/picture" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:s="http://schemas.openxmlformats.org/officeDocument/2006/sharedTypes" xmlns:sl="http://schemas.openxmlformats.org/schemaLibrary/2006/main" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:w="http://schemas.openxmlformats.org/wordprocessingml/2006/main" xmlns:w10="urn:schemas-microsoft-com:office:word" xmlns:w14="http://schemas.microsoft.com/office/word/2010/wordml" xmlns:w15="http://schemas.microsoft.com/office/word/2012/wordml" xmlns:wp="http://schemas.openxmlformats.org/drawingml/2006/wordprocessingDrawing" xmlns:wpg="http://schemas.microsoft.com/office/word/2010/wordprocessingGroup" xmlns:wps="http://schemas.microsoft.com/office/word/2010/wordprocessingShape" xmlns:x="urn:schemas-microsoft-com:office:excel" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" mc:Ignorable="co co-ooxml w14 x14 w15">
-  <fonts count="2">
+  <fonts count="7">
     <font>
       <name val="Calibri"/>
       <sz val="11"/>
@@ -2176,8 +2309,28 @@
       <name val="XO Thames"/>
       <sz val="12"/>
     </font>
+    <font>
+      <name val="XO Thames"/>
+      <sz val="12"/>
+    </font>
+    <font>
+      <name val="Courier"/>
+      <sz val="11"/>
+    </font>
+    <font>
+      <name val="Comic Sans MS"/>
+      <sz val="11"/>
+    </font>
+    <font>
+      <name val="Comic Sans MS"/>
+      <sz val="12"/>
+    </font>
+    <font>
+      <name val="XO Thames"/>
+      <sz val="12"/>
+    </font>
   </fonts>
-  <fills count="14">
+  <fills count="19">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2226,7 +2379,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF" tint="0"/>
+        <fgColor theme="4" tint="0.6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="-0.25"/>
       </patternFill>
     </fill>
     <fill>
@@ -2236,12 +2394,32 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="-0.25"/>
+        <fgColor rgb="619FFF" tint="0"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="CAA4FF" tint="0"/>
       </patternFill>
     </fill>
   </fills>
@@ -2536,7 +2714,7 @@
   <cellStyleXfs count="1">
     <xf applyFont="true" borderId="0" fillId="0" fontId="1" quotePrefix="false"/>
   </cellStyleXfs>
-  <cellXfs count="88">
+  <cellXfs count="106">
     <xf applyFont="true" borderId="0" fillId="0" fontId="1" quotePrefix="false"/>
     <xf applyAlignment="true" applyFill="true" applyFont="true" borderId="0" fillId="2" fontId="1" quotePrefix="false">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
@@ -2579,13 +2757,15 @@
       <alignment wrapText="true"/>
     </xf>
     <xf applyBorder="true" applyFont="true" borderId="4" fillId="0" fontId="1" quotePrefix="false"/>
+    <xf applyAlignment="true" applyBorder="true" applyFont="true" borderId="4" fillId="0" fontId="1" quotePrefix="false">
+      <alignment wrapText="true"/>
+    </xf>
     <xf applyAlignment="true" applyBorder="true" applyFont="true" borderId="5" fillId="0" fontId="1" quotePrefix="false">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf applyAlignment="true" applyBorder="true" applyFont="true" borderId="5" fillId="0" fontId="1" quotePrefix="false">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf applyFont="true" borderId="0" fillId="0" fontId="1" quotePrefix="false"/>
     <xf applyAlignment="true" applyFont="true" borderId="0" fillId="0" fontId="1" quotePrefix="false">
       <alignment horizontal="left" vertical="center" wrapText="true"/>
     </xf>
@@ -2593,6 +2773,15 @@
       <alignment wrapText="true"/>
     </xf>
     <xf applyBorder="true" applyFont="true" borderId="6" fillId="0" fontId="1" quotePrefix="false"/>
+    <xf applyAlignment="true" applyBorder="true" applyFont="true" borderId="6" fillId="0" fontId="1" quotePrefix="false">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFill="true" applyFont="true" borderId="6" fillId="11" fontId="1" quotePrefix="false">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFill="true" applyFont="true" borderId="6" fillId="11" fontId="1" quotePrefix="false">
+      <alignment horizontal="left" vertical="center" wrapText="true"/>
+    </xf>
     <xf applyAlignment="true" applyBorder="true" applyFont="true" borderId="7" fillId="0" fontId="1" quotePrefix="false">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2607,13 +2796,11 @@
       <alignment wrapText="true"/>
     </xf>
     <xf applyBorder="true" applyFont="true" borderId="9" fillId="0" fontId="1" quotePrefix="false"/>
+    <xf applyAlignment="true" applyBorder="true" applyFont="true" borderId="9" fillId="0" fontId="1" quotePrefix="false">
+      <alignment wrapText="true"/>
+    </xf>
     <xf applyBorder="true" applyFont="true" borderId="3" fillId="0" fontId="1" quotePrefix="false"/>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" borderId="4" fillId="0" fontId="1" quotePrefix="false">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" borderId="6" fillId="0" fontId="1" quotePrefix="false">
-      <alignment wrapText="true"/>
-    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="1" quotePrefix="false"/>
     <xf applyAlignment="true" applyBorder="true" applyFont="true" borderId="1" fillId="0" fontId="1" quotePrefix="false">
       <alignment vertical="center" wrapText="true"/>
     </xf>
@@ -2679,60 +2866,72 @@
     <xf applyAlignment="true" applyBorder="true" applyFont="true" borderId="8" fillId="0" fontId="1" quotePrefix="false">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" borderId="9" fillId="0" fontId="1" quotePrefix="false">
-      <alignment wrapText="true"/>
-    </xf>
     <xf applyAlignment="true" applyFont="true" borderId="0" fillId="0" fontId="1" quotePrefix="false">
       <alignment vertical="bottom" wrapText="true"/>
     </xf>
-    <xf applyFill="true" applyFont="true" borderId="0" fillId="11" fontId="1" quotePrefix="false"/>
-    <xf applyAlignment="true" applyFill="true" applyFont="true" borderId="0" fillId="11" fontId="1" quotePrefix="false">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="12" fontId="1" quotePrefix="false"/>
+    <xf applyAlignment="true" applyFill="true" applyFont="true" borderId="0" fillId="12" fontId="1" quotePrefix="false">
       <alignment wrapText="true"/>
     </xf>
     <xf applyAlignment="true" applyBorder="true" applyFont="true" borderId="20" fillId="0" fontId="1" quotePrefix="false">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFill="true" applyFont="true" borderId="11" fillId="13" fontId="2" quotePrefix="false">
+      <alignment vertical="bottom" wrapText="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFont="true" borderId="11" fillId="0" fontId="1" quotePrefix="false">
+      <alignment vertical="top" wrapText="true"/>
+    </xf>
+    <xf applyAlignment="true" applyFill="true" applyFont="true" borderId="0" fillId="13" fontId="2" quotePrefix="false">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFont="true" borderId="15" fillId="0" fontId="1" quotePrefix="false">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="0" quotePrefix="false"/>
+    <xf applyBorder="true" applyFont="true" borderId="15" fillId="0" fontId="0" quotePrefix="false"/>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="13" fontId="2" quotePrefix="false"/>
+    <xf applyAlignment="true" applyBorder="true" applyFont="true" borderId="21" fillId="0" fontId="1" quotePrefix="false">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFont="true" borderId="22" fillId="0" fontId="0" quotePrefix="false"/>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="14" fontId="1" quotePrefix="false"/>
+    <xf applyAlignment="true" applyBorder="true" applyFont="true" borderId="23" fillId="0" fontId="1" quotePrefix="false">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyAlignment="true" applyFill="true" applyFont="true" borderId="0" fillId="15" fontId="0" quotePrefix="false">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="15" fillId="15" fontId="1" quotePrefix="false"/>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="15" fontId="1" quotePrefix="false"/>
+    <xf applyAlignment="true" applyBorder="true" applyFill="true" applyFont="true" borderId="6" fillId="15" fontId="1" quotePrefix="false">
+      <alignment wrapText="true"/>
+    </xf>
     <xf applyAlignment="true" applyBorder="true" applyFont="true" borderId="11" fillId="0" fontId="1" quotePrefix="false">
       <alignment vertical="bottom" wrapText="true"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" borderId="11" fillId="0" fontId="1" quotePrefix="false">
-      <alignment vertical="top" wrapText="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" borderId="15" fillId="0" fontId="1" quotePrefix="false">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf applyFont="true" borderId="0" fillId="0" fontId="0" quotePrefix="false"/>
-    <xf applyBorder="true" applyFont="true" borderId="15" fillId="0" fontId="0" quotePrefix="false"/>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" borderId="21" fillId="0" fontId="1" quotePrefix="false">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf applyBorder="true" applyFont="true" borderId="22" fillId="0" fontId="0" quotePrefix="false"/>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" borderId="23" fillId="0" fontId="1" quotePrefix="false">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf applyAlignment="true" applyFill="true" applyFont="true" borderId="0" fillId="12" fontId="0" quotePrefix="false">
-      <alignment wrapText="true"/>
-    </xf>
     <xf applyAlignment="true" applyBorder="true" applyFont="true" borderId="24" fillId="0" fontId="1" quotePrefix="false">
       <alignment wrapText="true"/>
     </xf>
-    <xf applyAlignment="true" applyFill="true" applyFont="true" borderId="0" fillId="13" fontId="0" quotePrefix="false">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="6" fillId="15" fontId="1" quotePrefix="false"/>
+    <xf applyAlignment="true" applyBorder="true" applyFill="true" applyFont="true" borderId="17" fillId="12" fontId="1" quotePrefix="false">
       <alignment wrapText="true"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFill="true" applyFont="true" borderId="17" fillId="11" fontId="1" quotePrefix="false">
+    <xf applyAlignment="true" applyFont="true" borderId="0" fillId="0" fontId="3" quotePrefix="false">
       <alignment wrapText="true"/>
     </xf>
-    <xf applyAlignment="true" applyFont="true" borderId="0" fillId="0" fontId="0" quotePrefix="false">
+    <xf applyAlignment="true" applyFill="true" applyFont="true" borderId="0" fillId="16" fontId="1" quotePrefix="false">
       <alignment wrapText="true"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFill="true" applyFont="true" borderId="8" fillId="11" fontId="1" quotePrefix="false">
+    <xf applyAlignment="true" applyBorder="true" applyFill="true" applyFont="true" borderId="8" fillId="12" fontId="1" quotePrefix="false">
       <alignment wrapText="true"/>
     </xf>
-    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="8" fillId="11" fontId="1" quotePrefix="false"/>
-    <xf applyFill="true" applyFont="true" borderId="0" fillId="13" fontId="1" quotePrefix="false"/>
-    <xf applyAlignment="true" applyBorder="true" applyFill="true" applyFont="true" borderId="6" fillId="13" fontId="1" quotePrefix="false">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="8" fillId="12" fontId="1" quotePrefix="false"/>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="17" fontId="1" quotePrefix="false"/>
+    <xf applyAlignment="true" applyBorder="true" applyFill="true" applyFont="true" borderId="6" fillId="17" fontId="1" quotePrefix="false">
       <alignment wrapText="true"/>
     </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="16" fontId="1" quotePrefix="false"/>
     <xf applyAlignment="true" applyBorder="true" applyFont="true" borderId="1" fillId="0" fontId="1" quotePrefix="false">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
@@ -2742,21 +2941,40 @@
     <xf applyAlignment="true" applyBorder="true" applyFont="true" borderId="2" fillId="0" fontId="0" quotePrefix="false">
       <alignment wrapText="true"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" borderId="1" fillId="0" fontId="0" quotePrefix="false">
+    <xf applyAlignment="true" applyBorder="true" applyFill="true" applyFont="true" borderId="1" fillId="16" fontId="4" quotePrefix="false">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf applyBorder="true" applyFont="true" borderId="2" fillId="0" fontId="0" quotePrefix="false"/>
-    <xf applyBorder="true" applyFont="true" borderId="4" fillId="0" fontId="0" quotePrefix="false"/>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" borderId="5" fillId="0" fontId="0" quotePrefix="false">
+    <xf applyBorder="true" applyFont="true" borderId="2" fillId="0" fontId="3" quotePrefix="false"/>
+    <xf applyBorder="true" applyFont="true" borderId="4" fillId="0" fontId="3" quotePrefix="false"/>
+    <xf applyAlignment="true" applyBorder="true" applyFill="true" applyFont="true" borderId="5" fillId="16" fontId="4" quotePrefix="false">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf applyAlignment="true" applyFont="true" borderId="0" fillId="0" fontId="0" quotePrefix="false">
+    <xf applyAlignment="true" applyFont="true" borderId="0" fillId="0" fontId="3" quotePrefix="false">
       <alignment horizontal="left" wrapText="true"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" borderId="6" fillId="0" fontId="0" quotePrefix="false">
+    <xf applyAlignment="true" applyBorder="true" applyFont="true" borderId="6" fillId="0" fontId="3" quotePrefix="false">
       <alignment wrapText="true"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" borderId="7" fillId="0" fontId="0" quotePrefix="false">
+    <xf applyAlignment="true" applyBorder="true" applyFill="true" applyFont="true" borderId="7" fillId="16" fontId="4" quotePrefix="false">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFill="true" applyFont="true" borderId="1" fillId="14" fontId="5" quotePrefix="false">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFill="true" applyFont="true" borderId="5" fillId="14" fontId="5" quotePrefix="false">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFill="true" applyFont="true" borderId="7" fillId="14" fontId="5" quotePrefix="false">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFill="true" applyFont="true" borderId="1" fillId="18" fontId="6" quotePrefix="false">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFill="true" applyFont="true" borderId="5" fillId="18" fontId="6" quotePrefix="false">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFill="true" applyFont="true" borderId="7" fillId="18" fontId="6" quotePrefix="false">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
   </cellXfs>
@@ -3047,3771 +3265,4213 @@
         <v>13</v>
       </c>
       <c r="H2" s="15" t="n"/>
-      <c r="I2" s="12" t="n"/>
-      <c r="J2" s="15" t="n"/>
+      <c r="I2" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="J2" s="16" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row outlineLevel="0" r="3">
-      <c r="A3" s="16" t="s"/>
-      <c r="B3" s="17" t="s"/>
-      <c r="C3" s="18" t="n"/>
-      <c r="D3" s="18" t="n"/>
+      <c r="A3" s="17" t="s"/>
+      <c r="B3" s="18" t="s"/>
+      <c r="C3" s="0" t="n"/>
+      <c r="D3" s="0" t="n"/>
       <c r="E3" s="19" t="s"/>
       <c r="F3" s="20" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="G3" s="20" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="H3" s="21" t="n"/>
-      <c r="I3" s="18" t="n"/>
-      <c r="J3" s="21" t="n"/>
+      <c r="I3" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="J3" s="22" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row outlineLevel="0" r="4">
-      <c r="A4" s="16" t="s"/>
-      <c r="B4" s="17" t="s"/>
-      <c r="C4" s="18" t="n"/>
-      <c r="D4" s="18" t="n"/>
+      <c r="A4" s="17" t="s"/>
+      <c r="B4" s="18" t="s"/>
+      <c r="C4" s="0" t="n"/>
+      <c r="D4" s="0" t="n"/>
       <c r="E4" s="19" t="s"/>
-      <c r="F4" s="18" t="s">
-        <v>16</v>
-      </c>
-      <c r="G4" s="18" t="s">
-        <v>17</v>
+      <c r="F4" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="G4" s="0" t="s">
+        <v>21</v>
       </c>
       <c r="H4" s="21" t="n"/>
-      <c r="I4" s="18" t="n"/>
-      <c r="J4" s="21" t="n"/>
+      <c r="I4" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="J4" s="23" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row outlineLevel="0" r="5">
-      <c r="A5" s="16" t="s"/>
-      <c r="B5" s="17" t="s"/>
-      <c r="C5" s="18" t="n"/>
-      <c r="D5" s="18" t="n"/>
+      <c r="A5" s="17" t="s"/>
+      <c r="B5" s="18" t="s"/>
+      <c r="C5" s="0" t="n"/>
+      <c r="D5" s="0" t="n"/>
       <c r="E5" s="19" t="s"/>
-      <c r="F5" s="18" t="s">
+      <c r="F5" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="G5" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="H5" s="21" t="n"/>
+      <c r="I5" s="0" t="s">
         <v>18</v>
       </c>
-      <c r="G5" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="H5" s="21" t="n"/>
-      <c r="I5" s="18" t="n"/>
-      <c r="J5" s="21" t="n"/>
+      <c r="J5" s="24" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row outlineLevel="0" r="6">
-      <c r="A6" s="16" t="s"/>
-      <c r="B6" s="17" t="s"/>
-      <c r="C6" s="18" t="n"/>
-      <c r="D6" s="18" t="n"/>
+      <c r="A6" s="17" t="s"/>
+      <c r="B6" s="18" t="s"/>
+      <c r="C6" s="0" t="n"/>
+      <c r="D6" s="0" t="n"/>
       <c r="E6" s="19" t="s"/>
-      <c r="F6" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="G6" s="18" t="s">
-        <v>21</v>
+      <c r="F6" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="G6" s="0" t="s">
+        <v>26</v>
       </c>
       <c r="H6" s="21" t="n"/>
-      <c r="I6" s="18" t="n"/>
-      <c r="J6" s="21" t="n"/>
+      <c r="I6" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="J6" s="22" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row outlineLevel="0" r="7">
-      <c r="A7" s="16" t="s"/>
-      <c r="B7" s="17" t="s"/>
-      <c r="C7" s="18" t="n"/>
-      <c r="D7" s="18" t="n"/>
+      <c r="A7" s="17" t="s"/>
+      <c r="B7" s="18" t="s"/>
+      <c r="C7" s="0" t="n"/>
+      <c r="D7" s="0" t="n"/>
       <c r="E7" s="19" t="s"/>
       <c r="F7" s="20" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="G7" s="20" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="H7" s="21" t="n"/>
-      <c r="I7" s="18" t="n"/>
-      <c r="J7" s="21" t="n"/>
+      <c r="I7" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="J7" s="22" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row outlineLevel="0" r="8">
-      <c r="A8" s="22" t="s"/>
-      <c r="B8" s="23" t="s"/>
-      <c r="C8" s="24" t="n"/>
-      <c r="D8" s="24" t="n"/>
-      <c r="E8" s="25" t="s"/>
-      <c r="F8" s="24" t="s">
-        <v>24</v>
-      </c>
-      <c r="G8" s="26" t="s">
-        <v>25</v>
-      </c>
-      <c r="H8" s="27" t="n"/>
-      <c r="I8" s="24" t="n"/>
-      <c r="J8" s="27" t="n"/>
+      <c r="A8" s="25" t="s"/>
+      <c r="B8" s="26" t="s"/>
+      <c r="C8" s="27" t="n"/>
+      <c r="D8" s="27" t="n"/>
+      <c r="E8" s="28" t="s"/>
+      <c r="F8" s="27" t="s">
+        <v>29</v>
+      </c>
+      <c r="G8" s="29" t="s">
+        <v>30</v>
+      </c>
+      <c r="H8" s="30" t="n"/>
+      <c r="I8" s="27" t="s">
+        <v>14</v>
+      </c>
+      <c r="J8" s="31" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row outlineLevel="0" r="9">
       <c r="A9" s="11" t="n">
         <v>2</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="C9" s="12" t="n"/>
       <c r="D9" s="12" t="n"/>
-      <c r="E9" s="28" t="n"/>
+      <c r="E9" s="32" t="n"/>
       <c r="F9" s="14" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="G9" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="H9" s="29" t="s">
-        <v>29</v>
+        <v>33</v>
+      </c>
+      <c r="H9" s="16" t="s">
+        <v>34</v>
       </c>
       <c r="I9" s="12" t="n"/>
-      <c r="J9" s="15" t="n"/>
+      <c r="J9" s="16" t="n"/>
     </row>
     <row outlineLevel="0" r="10">
-      <c r="A10" s="17" t="s"/>
-      <c r="B10" s="17" t="s"/>
-      <c r="C10" s="18" t="n"/>
-      <c r="D10" s="18" t="n"/>
-      <c r="E10" s="18" t="s"/>
-      <c r="F10" s="18" t="s">
-        <v>30</v>
-      </c>
-      <c r="G10" s="18" t="s">
-        <v>31</v>
+      <c r="A10" s="18" t="s"/>
+      <c r="B10" s="18" t="s"/>
+      <c r="C10" s="0" t="n"/>
+      <c r="D10" s="0" t="n"/>
+      <c r="E10" s="33" t="s"/>
+      <c r="F10" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="G10" s="0" t="s">
+        <v>36</v>
       </c>
       <c r="H10" s="21" t="n"/>
-      <c r="I10" s="18" t="n"/>
-      <c r="J10" s="21" t="n"/>
+      <c r="I10" s="0" t="n"/>
+      <c r="J10" s="22" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row outlineLevel="0" r="11">
-      <c r="A11" s="17" t="s"/>
-      <c r="B11" s="17" t="s"/>
-      <c r="C11" s="18" t="n"/>
-      <c r="D11" s="18" t="n"/>
-      <c r="E11" s="18" t="s"/>
+      <c r="A11" s="18" t="s"/>
+      <c r="B11" s="18" t="s"/>
+      <c r="C11" s="0" t="n"/>
+      <c r="D11" s="0" t="n"/>
+      <c r="E11" s="33" t="s"/>
       <c r="F11" s="20" t="s">
-        <v>32</v>
-      </c>
-      <c r="G11" s="18" t="s">
-        <v>33</v>
+        <v>37</v>
+      </c>
+      <c r="G11" s="0" t="s">
+        <v>38</v>
       </c>
       <c r="H11" s="21" t="n"/>
-      <c r="I11" s="18" t="n"/>
-      <c r="J11" s="21" t="n"/>
+      <c r="I11" s="0" t="n"/>
+      <c r="J11" s="22" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row outlineLevel="0" r="12">
-      <c r="A12" s="17" t="s"/>
-      <c r="B12" s="17" t="s"/>
-      <c r="C12" s="18" t="n"/>
-      <c r="D12" s="18" t="n"/>
-      <c r="E12" s="18" t="s"/>
+      <c r="A12" s="18" t="s"/>
+      <c r="B12" s="18" t="s"/>
+      <c r="C12" s="0" t="n"/>
+      <c r="D12" s="0" t="n"/>
+      <c r="E12" s="33" t="s"/>
       <c r="F12" s="20" t="s">
-        <v>34</v>
-      </c>
-      <c r="G12" s="18" t="s">
-        <v>35</v>
-      </c>
-      <c r="H12" s="30" t="s">
-        <v>36</v>
-      </c>
-      <c r="I12" s="18" t="n"/>
-      <c r="J12" s="21" t="n"/>
+        <v>39</v>
+      </c>
+      <c r="G12" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="H12" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="I12" s="0" t="n"/>
+      <c r="J12" s="22" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row outlineLevel="0" r="13">
-      <c r="A13" s="17" t="s"/>
-      <c r="B13" s="17" t="s"/>
-      <c r="C13" s="18" t="n"/>
-      <c r="D13" s="18" t="n"/>
-      <c r="E13" s="18" t="s"/>
+      <c r="A13" s="18" t="s"/>
+      <c r="B13" s="18" t="s"/>
+      <c r="C13" s="0" t="n"/>
+      <c r="D13" s="0" t="n"/>
+      <c r="E13" s="33" t="s"/>
       <c r="F13" s="20" t="s">
-        <v>37</v>
-      </c>
-      <c r="G13" s="18" t="s">
-        <v>35</v>
+        <v>42</v>
+      </c>
+      <c r="G13" s="0" t="s">
+        <v>40</v>
       </c>
       <c r="H13" s="21" t="n"/>
-      <c r="I13" s="18" t="n"/>
-      <c r="J13" s="21" t="n"/>
+      <c r="I13" s="0" t="n"/>
+      <c r="J13" s="22" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row outlineLevel="0" r="14">
-      <c r="A14" s="17" t="s"/>
-      <c r="B14" s="17" t="s"/>
-      <c r="C14" s="18" t="n"/>
-      <c r="D14" s="18" t="n"/>
-      <c r="E14" s="18" t="s"/>
+      <c r="A14" s="18" t="s"/>
+      <c r="B14" s="18" t="s"/>
+      <c r="C14" s="0" t="n"/>
+      <c r="D14" s="0" t="n"/>
+      <c r="E14" s="33" t="s"/>
       <c r="F14" s="20" t="s">
-        <v>38</v>
-      </c>
-      <c r="G14" s="18" t="s">
-        <v>35</v>
-      </c>
-      <c r="H14" s="30" t="s">
-        <v>39</v>
-      </c>
-      <c r="I14" s="18" t="n"/>
-      <c r="J14" s="21" t="n"/>
+        <v>43</v>
+      </c>
+      <c r="G14" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="H14" s="22" t="s">
+        <v>44</v>
+      </c>
+      <c r="I14" s="0" t="n"/>
+      <c r="J14" s="22" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row outlineLevel="0" r="15">
-      <c r="A15" s="17" t="s"/>
-      <c r="B15" s="17" t="s"/>
-      <c r="C15" s="18" t="n"/>
-      <c r="D15" s="18" t="n"/>
-      <c r="E15" s="18" t="s"/>
+      <c r="A15" s="18" t="s"/>
+      <c r="B15" s="18" t="s"/>
+      <c r="C15" s="0" t="n"/>
+      <c r="D15" s="0" t="n"/>
+      <c r="E15" s="33" t="s"/>
       <c r="F15" s="20" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="G15" s="20" t="s">
-        <v>41</v>
-      </c>
-      <c r="H15" s="30" t="s">
-        <v>42</v>
-      </c>
-      <c r="I15" s="18" t="n"/>
-      <c r="J15" s="21" t="n"/>
+        <v>46</v>
+      </c>
+      <c r="H15" s="22" t="s">
+        <v>47</v>
+      </c>
+      <c r="I15" s="0" t="n"/>
+      <c r="J15" s="22" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row outlineLevel="0" r="16">
-      <c r="A16" s="17" t="s"/>
-      <c r="B16" s="17" t="s"/>
-      <c r="C16" s="18" t="n"/>
-      <c r="D16" s="18" t="n"/>
-      <c r="E16" s="18" t="s"/>
+      <c r="A16" s="18" t="s"/>
+      <c r="B16" s="18" t="s"/>
+      <c r="C16" s="0" t="n"/>
+      <c r="D16" s="0" t="n"/>
+      <c r="E16" s="33" t="s"/>
       <c r="F16" s="20" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="G16" s="20" t="s">
-        <v>44</v>
-      </c>
-      <c r="H16" s="30" t="s">
-        <v>45</v>
-      </c>
-      <c r="I16" s="18" t="n"/>
-      <c r="J16" s="21" t="n"/>
+        <v>49</v>
+      </c>
+      <c r="H16" s="22" t="s">
+        <v>50</v>
+      </c>
+      <c r="I16" s="0" t="n"/>
+      <c r="J16" s="22" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row outlineLevel="0" r="17">
-      <c r="A17" s="23" t="s"/>
-      <c r="B17" s="23" t="s"/>
-      <c r="C17" s="24" t="n"/>
-      <c r="D17" s="24" t="n"/>
-      <c r="E17" s="24" t="s"/>
-      <c r="F17" s="26" t="s">
-        <v>46</v>
-      </c>
-      <c r="G17" s="26" t="s">
-        <v>47</v>
-      </c>
-      <c r="H17" s="27" t="n"/>
-      <c r="I17" s="24" t="n"/>
-      <c r="J17" s="27" t="n"/>
+      <c r="A17" s="26" t="s"/>
+      <c r="B17" s="26" t="s"/>
+      <c r="C17" s="27" t="n"/>
+      <c r="D17" s="27" t="n"/>
+      <c r="E17" s="27" t="s"/>
+      <c r="F17" s="29" t="s">
+        <v>51</v>
+      </c>
+      <c r="G17" s="29" t="s">
+        <v>52</v>
+      </c>
+      <c r="H17" s="30" t="n"/>
+      <c r="I17" s="27" t="n"/>
+      <c r="J17" s="31" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row outlineLevel="0" r="18">
-      <c r="A18" s="31" t="n">
+      <c r="A18" s="34" t="n">
         <v>3</v>
       </c>
-      <c r="B18" s="32" t="s">
-        <v>48</v>
-      </c>
-      <c r="C18" s="33" t="n"/>
-      <c r="D18" s="33" t="n"/>
-      <c r="E18" s="34" t="s">
-        <v>49</v>
-      </c>
-      <c r="F18" s="35" t="s">
-        <v>50</v>
-      </c>
-      <c r="G18" s="35" t="s">
-        <v>51</v>
-      </c>
-      <c r="H18" s="36" t="n"/>
+      <c r="B18" s="35" t="s">
+        <v>53</v>
+      </c>
+      <c r="C18" s="36" t="n"/>
+      <c r="D18" s="36" t="n"/>
+      <c r="E18" s="37" t="s">
+        <v>54</v>
+      </c>
+      <c r="F18" s="38" t="s">
+        <v>55</v>
+      </c>
+      <c r="G18" s="38" t="s">
+        <v>56</v>
+      </c>
+      <c r="H18" s="39" t="n"/>
       <c r="I18" s="12" t="n"/>
-      <c r="J18" s="15" t="n"/>
+      <c r="J18" s="16" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row outlineLevel="0" r="19">
-      <c r="A19" s="37" t="s"/>
-      <c r="B19" s="38" t="s"/>
-      <c r="C19" s="18" t="n"/>
-      <c r="D19" s="18" t="n"/>
-      <c r="E19" s="39" t="s"/>
-      <c r="F19" s="18" t="s">
-        <v>52</v>
+      <c r="A19" s="40" t="s"/>
+      <c r="B19" s="41" t="s"/>
+      <c r="C19" s="0" t="n"/>
+      <c r="D19" s="0" t="n"/>
+      <c r="E19" s="42" t="s"/>
+      <c r="F19" s="0" t="s">
+        <v>57</v>
       </c>
       <c r="G19" s="20" t="s">
-        <v>53</v>
-      </c>
-      <c r="H19" s="40" t="n"/>
-      <c r="I19" s="18" t="n"/>
-      <c r="J19" s="21" t="n"/>
+        <v>58</v>
+      </c>
+      <c r="H19" s="43" t="n"/>
+      <c r="I19" s="0" t="n"/>
+      <c r="J19" s="22" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row outlineLevel="0" r="20">
-      <c r="A20" s="41" t="s"/>
-      <c r="B20" s="42" t="s"/>
-      <c r="C20" s="43" t="n"/>
-      <c r="D20" s="43" t="n"/>
-      <c r="E20" s="44" t="s"/>
-      <c r="F20" s="43" t="s">
-        <v>54</v>
-      </c>
-      <c r="G20" s="45" t="s">
-        <v>55</v>
-      </c>
-      <c r="H20" s="46" t="n"/>
-      <c r="I20" s="24" t="n"/>
-      <c r="J20" s="27" t="n"/>
+      <c r="A20" s="44" t="s"/>
+      <c r="B20" s="45" t="s"/>
+      <c r="C20" s="46" t="n"/>
+      <c r="D20" s="46" t="n"/>
+      <c r="E20" s="47" t="s"/>
+      <c r="F20" s="46" t="s">
+        <v>59</v>
+      </c>
+      <c r="G20" s="48" t="s">
+        <v>60</v>
+      </c>
+      <c r="H20" s="49" t="n"/>
+      <c r="I20" s="27" t="n"/>
+      <c r="J20" s="31" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row outlineLevel="0" r="21">
-      <c r="A21" s="31" t="n">
+      <c r="A21" s="34" t="n">
         <v>4</v>
       </c>
-      <c r="B21" s="32" t="s">
-        <v>56</v>
-      </c>
-      <c r="C21" s="33" t="n"/>
-      <c r="D21" s="33" t="n"/>
-      <c r="E21" s="34" t="s">
+      <c r="B21" s="35" t="s">
+        <v>61</v>
+      </c>
+      <c r="C21" s="36" t="n"/>
+      <c r="D21" s="36" t="n"/>
+      <c r="E21" s="37" t="s">
+        <v>62</v>
+      </c>
+      <c r="F21" s="38" t="s">
+        <v>63</v>
+      </c>
+      <c r="G21" s="38" t="s">
+        <v>64</v>
+      </c>
+      <c r="H21" s="39" t="n"/>
+      <c r="I21" s="12" t="n"/>
+      <c r="J21" s="16" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="22">
+      <c r="A22" s="40" t="s"/>
+      <c r="B22" s="41" t="s"/>
+      <c r="C22" s="0" t="n"/>
+      <c r="D22" s="0" t="n"/>
+      <c r="E22" s="42" t="s"/>
+      <c r="F22" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="G22" s="0" t="s">
+        <v>66</v>
+      </c>
+      <c r="H22" s="43" t="n"/>
+      <c r="I22" s="0" t="n"/>
+      <c r="J22" s="22" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="23">
+      <c r="A23" s="40" t="s"/>
+      <c r="B23" s="41" t="s"/>
+      <c r="C23" s="0" t="n"/>
+      <c r="D23" s="0" t="n"/>
+      <c r="E23" s="42" t="s"/>
+      <c r="F23" s="0" t="s">
+        <v>67</v>
+      </c>
+      <c r="G23" s="0" t="s">
+        <v>68</v>
+      </c>
+      <c r="H23" s="43" t="n"/>
+      <c r="I23" s="0" t="n"/>
+      <c r="J23" s="22" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="24">
+      <c r="A24" s="40" t="s"/>
+      <c r="B24" s="41" t="s"/>
+      <c r="C24" s="0" t="n"/>
+      <c r="D24" s="0" t="n"/>
+      <c r="E24" s="42" t="s"/>
+      <c r="F24" s="0" t="s">
+        <v>69</v>
+      </c>
+      <c r="G24" s="0" t="s">
+        <v>70</v>
+      </c>
+      <c r="H24" s="43" t="n"/>
+      <c r="I24" s="0" t="n"/>
+      <c r="J24" s="22" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="25">
+      <c r="A25" s="44" t="s"/>
+      <c r="B25" s="45" t="s"/>
+      <c r="C25" s="46" t="n"/>
+      <c r="D25" s="46" t="n"/>
+      <c r="E25" s="47" t="s"/>
+      <c r="F25" s="46" t="s">
+        <v>71</v>
+      </c>
+      <c r="G25" s="46" t="s">
+        <v>72</v>
+      </c>
+      <c r="H25" s="49" t="n"/>
+      <c r="I25" s="27" t="n"/>
+      <c r="J25" s="31" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="26">
+      <c r="A26" s="50" t="n">
+        <v>5</v>
+      </c>
+      <c r="B26" s="35" t="s">
+        <v>73</v>
+      </c>
+      <c r="C26" s="36" t="n"/>
+      <c r="D26" s="36" t="n"/>
+      <c r="E26" s="51" t="s">
+        <v>62</v>
+      </c>
+      <c r="F26" s="36" t="s">
         <v>57</v>
       </c>
-      <c r="F21" s="35" t="s">
-        <v>58</v>
-      </c>
-      <c r="G21" s="35" t="s">
-        <v>59</v>
-      </c>
-      <c r="H21" s="36" t="n"/>
-      <c r="I21" s="12" t="n"/>
-      <c r="J21" s="15" t="n"/>
-    </row>
-    <row outlineLevel="0" r="22">
-      <c r="A22" s="37" t="s"/>
-      <c r="B22" s="38" t="s"/>
-      <c r="C22" s="18" t="n"/>
-      <c r="D22" s="18" t="n"/>
-      <c r="E22" s="39" t="s"/>
-      <c r="F22" s="18" t="s">
-        <v>60</v>
-      </c>
-      <c r="G22" s="18" t="s">
-        <v>61</v>
-      </c>
-      <c r="H22" s="40" t="n"/>
-      <c r="I22" s="18" t="n"/>
-      <c r="J22" s="21" t="n"/>
-    </row>
-    <row outlineLevel="0" r="23">
-      <c r="A23" s="37" t="s"/>
-      <c r="B23" s="38" t="s"/>
-      <c r="C23" s="18" t="n"/>
-      <c r="D23" s="18" t="n"/>
-      <c r="E23" s="39" t="s"/>
-      <c r="F23" s="18" t="s">
-        <v>62</v>
-      </c>
-      <c r="G23" s="18" t="s">
-        <v>63</v>
-      </c>
-      <c r="H23" s="40" t="n"/>
-      <c r="I23" s="18" t="n"/>
-      <c r="J23" s="21" t="n"/>
-    </row>
-    <row outlineLevel="0" r="24">
-      <c r="A24" s="37" t="s"/>
-      <c r="B24" s="38" t="s"/>
-      <c r="C24" s="18" t="n"/>
-      <c r="D24" s="18" t="n"/>
-      <c r="E24" s="39" t="s"/>
-      <c r="F24" s="18" t="s">
-        <v>64</v>
-      </c>
-      <c r="G24" s="18" t="s">
-        <v>65</v>
-      </c>
-      <c r="H24" s="40" t="n"/>
-      <c r="I24" s="18" t="n"/>
-      <c r="J24" s="21" t="n"/>
-    </row>
-    <row outlineLevel="0" r="25">
-      <c r="A25" s="41" t="s"/>
-      <c r="B25" s="42" t="s"/>
-      <c r="C25" s="43" t="n"/>
-      <c r="D25" s="43" t="n"/>
-      <c r="E25" s="44" t="s"/>
-      <c r="F25" s="43" t="s">
-        <v>66</v>
-      </c>
-      <c r="G25" s="43" t="s">
-        <v>67</v>
-      </c>
-      <c r="H25" s="46" t="n"/>
-      <c r="I25" s="24" t="n"/>
-      <c r="J25" s="27" t="n"/>
-    </row>
-    <row outlineLevel="0" r="26">
-      <c r="A26" s="47" t="n">
-        <v>5</v>
-      </c>
-      <c r="B26" s="32" t="s">
-        <v>68</v>
-      </c>
-      <c r="C26" s="33" t="n"/>
-      <c r="D26" s="33" t="n"/>
-      <c r="E26" s="48" t="s">
-        <v>57</v>
-      </c>
-      <c r="F26" s="33" t="s">
-        <v>52</v>
-      </c>
-      <c r="G26" s="35" t="s">
-        <v>69</v>
-      </c>
-      <c r="H26" s="36" t="n"/>
+      <c r="G26" s="38" t="s">
+        <v>74</v>
+      </c>
+      <c r="H26" s="39" t="n"/>
       <c r="I26" s="12" t="n"/>
-      <c r="J26" s="15" t="n"/>
+      <c r="J26" s="16" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row outlineLevel="0" r="27">
-      <c r="A27" s="49" t="s"/>
-      <c r="B27" s="38" t="s"/>
-      <c r="C27" s="18" t="n"/>
-      <c r="D27" s="18" t="n"/>
-      <c r="E27" s="50" t="s"/>
-      <c r="F27" s="18" t="s">
-        <v>70</v>
+      <c r="A27" s="52" t="s"/>
+      <c r="B27" s="41" t="s"/>
+      <c r="C27" s="0" t="n"/>
+      <c r="D27" s="0" t="n"/>
+      <c r="E27" s="53" t="s"/>
+      <c r="F27" s="0" t="s">
+        <v>75</v>
       </c>
       <c r="G27" s="20" t="s">
-        <v>71</v>
-      </c>
-      <c r="H27" s="40" t="n"/>
-      <c r="I27" s="18" t="n"/>
-      <c r="J27" s="21" t="n"/>
+        <v>76</v>
+      </c>
+      <c r="H27" s="43" t="n"/>
+      <c r="I27" s="0" t="n"/>
+      <c r="J27" s="22" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row outlineLevel="0" r="28">
-      <c r="A28" s="51" t="s"/>
-      <c r="B28" s="42" t="s"/>
-      <c r="C28" s="43" t="n"/>
-      <c r="D28" s="43" t="n"/>
-      <c r="E28" s="52" t="s"/>
-      <c r="F28" s="45" t="s">
-        <v>72</v>
-      </c>
-      <c r="G28" s="45" t="s">
-        <v>73</v>
-      </c>
-      <c r="H28" s="46" t="n"/>
-      <c r="I28" s="24" t="n"/>
-      <c r="J28" s="27" t="n"/>
+      <c r="A28" s="54" t="s"/>
+      <c r="B28" s="45" t="s"/>
+      <c r="C28" s="46" t="n"/>
+      <c r="D28" s="46" t="n"/>
+      <c r="E28" s="55" t="s"/>
+      <c r="F28" s="48" t="s">
+        <v>77</v>
+      </c>
+      <c r="G28" s="48" t="s">
+        <v>78</v>
+      </c>
+      <c r="H28" s="49" t="n"/>
+      <c r="I28" s="27" t="n"/>
+      <c r="J28" s="31" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row outlineLevel="0" r="29">
-      <c r="A29" s="47" t="n">
+      <c r="A29" s="50" t="n">
         <v>6</v>
       </c>
       <c r="B29" s="11" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="C29" s="12" t="n"/>
       <c r="D29" s="12" t="n"/>
-      <c r="E29" s="53" t="s">
-        <v>75</v>
+      <c r="E29" s="56" t="s">
+        <v>80</v>
       </c>
       <c r="F29" s="12" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="G29" s="14" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="H29" s="15" t="n"/>
       <c r="I29" s="12" t="n"/>
-      <c r="J29" s="15" t="n"/>
+      <c r="J29" s="16" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row outlineLevel="0" r="30">
-      <c r="A30" s="49" t="s"/>
-      <c r="B30" s="17" t="s"/>
-      <c r="C30" s="18" t="n"/>
-      <c r="D30" s="18" t="n"/>
-      <c r="E30" s="54" t="s"/>
-      <c r="F30" s="18" t="s">
-        <v>77</v>
+      <c r="A30" s="52" t="s"/>
+      <c r="B30" s="18" t="s"/>
+      <c r="C30" s="0" t="n"/>
+      <c r="D30" s="0" t="n"/>
+      <c r="E30" s="57" t="s"/>
+      <c r="F30" s="0" t="s">
+        <v>82</v>
       </c>
       <c r="G30" s="20" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="H30" s="21" t="n"/>
-      <c r="I30" s="18" t="n"/>
-      <c r="J30" s="21" t="n"/>
+      <c r="I30" s="0" t="n"/>
+      <c r="J30" s="22" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row outlineLevel="0" r="31">
-      <c r="A31" s="51" t="s"/>
-      <c r="B31" s="23" t="s"/>
-      <c r="C31" s="24" t="n"/>
-      <c r="D31" s="24" t="n"/>
-      <c r="E31" s="55" t="s"/>
-      <c r="F31" s="26" t="s">
-        <v>79</v>
-      </c>
-      <c r="G31" s="26" t="s">
-        <v>80</v>
-      </c>
-      <c r="H31" s="56" t="s">
-        <v>9</v>
-      </c>
-      <c r="I31" s="24" t="n"/>
-      <c r="J31" s="27" t="n"/>
+      <c r="A31" s="54" t="s"/>
+      <c r="B31" s="26" t="s"/>
+      <c r="C31" s="27" t="n"/>
+      <c r="D31" s="27" t="n"/>
+      <c r="E31" s="58" t="s"/>
+      <c r="F31" s="29" t="s">
+        <v>84</v>
+      </c>
+      <c r="G31" s="29" t="s">
+        <v>85</v>
+      </c>
+      <c r="H31" s="31" t="n"/>
+      <c r="I31" s="27" t="n"/>
+      <c r="J31" s="31" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row outlineLevel="0" r="32">
-      <c r="A32" s="47" t="n">
+      <c r="A32" s="50" t="n">
         <v>7</v>
       </c>
       <c r="B32" s="11" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="C32" s="12" t="n"/>
       <c r="D32" s="12" t="n"/>
-      <c r="E32" s="53" t="s">
-        <v>57</v>
+      <c r="E32" s="56" t="s">
+        <v>62</v>
       </c>
       <c r="F32" s="12" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="G32" s="12" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="H32" s="15" t="n"/>
       <c r="I32" s="12" t="n"/>
-      <c r="J32" s="15" t="n"/>
+      <c r="J32" s="16" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row outlineLevel="0" r="33">
-      <c r="A33" s="49" t="s"/>
-      <c r="B33" s="17" t="s"/>
-      <c r="C33" s="18" t="n"/>
-      <c r="D33" s="18" t="n"/>
-      <c r="E33" s="54" t="s"/>
+      <c r="A33" s="52" t="s"/>
+      <c r="B33" s="18" t="s"/>
+      <c r="C33" s="0" t="n"/>
+      <c r="D33" s="0" t="n"/>
+      <c r="E33" s="57" t="s"/>
       <c r="F33" s="20" t="s">
-        <v>83</v>
-      </c>
-      <c r="G33" s="57" t="s">
-        <v>84</v>
+        <v>88</v>
+      </c>
+      <c r="G33" s="59" t="s">
+        <v>89</v>
       </c>
       <c r="H33" s="21" t="n"/>
-      <c r="I33" s="18" t="n"/>
-      <c r="J33" s="21" t="n"/>
+      <c r="I33" s="0" t="n"/>
+      <c r="J33" s="22" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row outlineLevel="0" r="34">
-      <c r="A34" s="49" t="s"/>
-      <c r="B34" s="17" t="s"/>
-      <c r="C34" s="18" t="n"/>
-      <c r="D34" s="18" t="n"/>
-      <c r="E34" s="54" t="s"/>
+      <c r="A34" s="52" t="s"/>
+      <c r="B34" s="18" t="s"/>
+      <c r="C34" s="0" t="n"/>
+      <c r="D34" s="0" t="n"/>
+      <c r="E34" s="57" t="s"/>
       <c r="F34" s="20" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="G34" s="20" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="H34" s="21" t="n"/>
-      <c r="I34" s="18" t="n"/>
-      <c r="J34" s="21" t="n"/>
+      <c r="I34" s="0" t="n"/>
+      <c r="J34" s="22" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row outlineLevel="0" r="35">
-      <c r="A35" s="49" t="s"/>
-      <c r="B35" s="17" t="s"/>
-      <c r="C35" s="18" t="n"/>
-      <c r="D35" s="18" t="n"/>
-      <c r="E35" s="54" t="s"/>
+      <c r="A35" s="52" t="s"/>
+      <c r="B35" s="18" t="s"/>
+      <c r="C35" s="0" t="n"/>
+      <c r="D35" s="0" t="n"/>
+      <c r="E35" s="57" t="s"/>
       <c r="F35" s="20" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="G35" s="20" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="H35" s="21" t="n"/>
-      <c r="I35" s="18" t="n"/>
-      <c r="J35" s="21" t="n"/>
+      <c r="I35" s="0" t="n"/>
+      <c r="J35" s="22" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row outlineLevel="0" r="36">
-      <c r="A36" s="49" t="s"/>
-      <c r="B36" s="17" t="s"/>
-      <c r="C36" s="18" t="n"/>
-      <c r="D36" s="18" t="n"/>
-      <c r="E36" s="54" t="s"/>
-      <c r="F36" s="18" t="s">
-        <v>89</v>
-      </c>
-      <c r="G36" s="18" t="s">
-        <v>63</v>
+      <c r="A36" s="52" t="s"/>
+      <c r="B36" s="18" t="s"/>
+      <c r="C36" s="0" t="n"/>
+      <c r="D36" s="0" t="n"/>
+      <c r="E36" s="57" t="s"/>
+      <c r="F36" s="0" t="s">
+        <v>94</v>
+      </c>
+      <c r="G36" s="0" t="s">
+        <v>68</v>
       </c>
       <c r="H36" s="21" t="n"/>
-      <c r="I36" s="18" t="n"/>
-      <c r="J36" s="21" t="n"/>
+      <c r="I36" s="0" t="n"/>
+      <c r="J36" s="22" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row outlineLevel="0" r="37">
-      <c r="A37" s="49" t="s"/>
-      <c r="B37" s="17" t="s"/>
-      <c r="C37" s="18" t="n"/>
-      <c r="D37" s="18" t="n"/>
-      <c r="E37" s="54" t="s"/>
+      <c r="A37" s="52" t="s"/>
+      <c r="B37" s="18" t="s"/>
+      <c r="C37" s="0" t="n"/>
+      <c r="D37" s="0" t="n"/>
+      <c r="E37" s="57" t="s"/>
       <c r="F37" s="20" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="G37" s="20" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="H37" s="21" t="n"/>
-      <c r="I37" s="18" t="n"/>
-      <c r="J37" s="21" t="n"/>
+      <c r="I37" s="0" t="n"/>
+      <c r="J37" s="22" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row outlineLevel="0" r="38">
-      <c r="A38" s="49" t="s"/>
-      <c r="B38" s="17" t="s"/>
-      <c r="C38" s="18" t="n"/>
-      <c r="D38" s="18" t="n"/>
-      <c r="E38" s="54" t="s"/>
+      <c r="A38" s="52" t="s"/>
+      <c r="B38" s="18" t="s"/>
+      <c r="C38" s="0" t="n"/>
+      <c r="D38" s="0" t="n"/>
+      <c r="E38" s="57" t="s"/>
       <c r="F38" s="20" t="s">
-        <v>92</v>
-      </c>
-      <c r="G38" s="18" t="s">
-        <v>93</v>
+        <v>97</v>
+      </c>
+      <c r="G38" s="0" t="s">
+        <v>98</v>
       </c>
       <c r="H38" s="21" t="n"/>
-      <c r="I38" s="18" t="n"/>
-      <c r="J38" s="21" t="n"/>
+      <c r="I38" s="0" t="n"/>
+      <c r="J38" s="22" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row outlineLevel="0" r="39">
-      <c r="A39" s="49" t="s"/>
-      <c r="B39" s="17" t="s"/>
-      <c r="C39" s="18" t="n"/>
-      <c r="D39" s="18" t="n"/>
-      <c r="E39" s="54" t="s"/>
+      <c r="A39" s="52" t="s"/>
+      <c r="B39" s="18" t="s"/>
+      <c r="C39" s="0" t="n"/>
+      <c r="D39" s="0" t="n"/>
+      <c r="E39" s="57" t="s"/>
       <c r="F39" s="20" t="s">
-        <v>94</v>
-      </c>
-      <c r="G39" s="18" t="s">
-        <v>95</v>
+        <v>99</v>
+      </c>
+      <c r="G39" s="0" t="s">
+        <v>100</v>
       </c>
       <c r="H39" s="21" t="n"/>
-      <c r="I39" s="18" t="n"/>
-      <c r="J39" s="21" t="n"/>
+      <c r="I39" s="0" t="n"/>
+      <c r="J39" s="22" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row outlineLevel="0" r="40">
-      <c r="A40" s="51" t="s"/>
-      <c r="B40" s="23" t="s"/>
-      <c r="C40" s="24" t="n"/>
-      <c r="D40" s="24" t="n"/>
-      <c r="E40" s="55" t="s"/>
-      <c r="F40" s="26" t="s">
-        <v>96</v>
-      </c>
-      <c r="G40" s="24" t="s">
-        <v>97</v>
-      </c>
-      <c r="H40" s="27" t="n"/>
-      <c r="I40" s="24" t="n"/>
-      <c r="J40" s="27" t="n"/>
+      <c r="A40" s="54" t="s"/>
+      <c r="B40" s="26" t="s"/>
+      <c r="C40" s="27" t="n"/>
+      <c r="D40" s="27" t="n"/>
+      <c r="E40" s="58" t="s"/>
+      <c r="F40" s="29" t="s">
+        <v>101</v>
+      </c>
+      <c r="G40" s="27" t="s">
+        <v>102</v>
+      </c>
+      <c r="H40" s="30" t="n"/>
+      <c r="I40" s="27" t="n"/>
+      <c r="J40" s="31" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row outlineLevel="0" r="41">
-      <c r="A41" s="47" t="n">
+      <c r="A41" s="50" t="n">
         <v>8</v>
       </c>
       <c r="B41" s="11" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="C41" s="12" t="n"/>
       <c r="D41" s="12" t="n"/>
       <c r="E41" s="13" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="F41" s="14" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="G41" s="12" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="H41" s="15" t="n"/>
       <c r="I41" s="12" t="n"/>
-      <c r="J41" s="15" t="n"/>
+      <c r="J41" s="16" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row outlineLevel="0" r="42">
-      <c r="A42" s="49" t="s"/>
-      <c r="B42" s="17" t="s"/>
-      <c r="C42" s="18" t="n"/>
-      <c r="D42" s="18" t="n"/>
+      <c r="A42" s="52" t="s"/>
+      <c r="B42" s="18" t="s"/>
+      <c r="C42" s="0" t="n"/>
+      <c r="D42" s="0" t="n"/>
       <c r="E42" s="19" t="s"/>
       <c r="F42" s="20" t="s">
-        <v>100</v>
-      </c>
-      <c r="G42" s="18" t="s">
-        <v>101</v>
+        <v>105</v>
+      </c>
+      <c r="G42" s="0" t="s">
+        <v>106</v>
       </c>
       <c r="H42" s="21" t="n"/>
-      <c r="I42" s="18" t="n"/>
-      <c r="J42" s="21" t="n"/>
+      <c r="I42" s="0" t="n"/>
+      <c r="J42" s="22" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row outlineLevel="0" r="43">
-      <c r="A43" s="49" t="s"/>
-      <c r="B43" s="17" t="s"/>
-      <c r="C43" s="18" t="n"/>
-      <c r="D43" s="18" t="n"/>
+      <c r="A43" s="52" t="s"/>
+      <c r="B43" s="18" t="s"/>
+      <c r="C43" s="0" t="n"/>
+      <c r="D43" s="0" t="n"/>
       <c r="E43" s="19" t="s"/>
       <c r="F43" s="20" t="s">
-        <v>102</v>
-      </c>
-      <c r="G43" s="18" t="s">
-        <v>103</v>
+        <v>107</v>
+      </c>
+      <c r="G43" s="0" t="s">
+        <v>108</v>
       </c>
       <c r="H43" s="21" t="n"/>
-      <c r="I43" s="18" t="n"/>
-      <c r="J43" s="21" t="n"/>
+      <c r="I43" s="0" t="n"/>
+      <c r="J43" s="22" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row outlineLevel="0" r="44">
-      <c r="A44" s="51" t="s"/>
-      <c r="B44" s="23" t="s"/>
-      <c r="C44" s="24" t="n"/>
-      <c r="D44" s="24" t="n"/>
-      <c r="E44" s="25" t="s"/>
-      <c r="F44" s="26" t="s">
-        <v>104</v>
-      </c>
-      <c r="G44" s="26" t="s">
-        <v>105</v>
-      </c>
-      <c r="H44" s="27" t="n"/>
-      <c r="I44" s="24" t="n"/>
-      <c r="J44" s="27" t="n"/>
+      <c r="A44" s="54" t="s"/>
+      <c r="B44" s="26" t="s"/>
+      <c r="C44" s="27" t="n"/>
+      <c r="D44" s="27" t="n"/>
+      <c r="E44" s="28" t="s"/>
+      <c r="F44" s="29" t="s">
+        <v>109</v>
+      </c>
+      <c r="G44" s="29" t="s">
+        <v>110</v>
+      </c>
+      <c r="H44" s="30" t="n"/>
+      <c r="I44" s="27" t="n"/>
+      <c r="J44" s="31" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row outlineLevel="0" r="45">
-      <c r="A45" s="47" t="n">
+      <c r="A45" s="50" t="n">
         <v>9</v>
       </c>
-      <c r="B45" s="32" t="s">
-        <v>106</v>
-      </c>
-      <c r="C45" s="33" t="n"/>
-      <c r="D45" s="33" t="n"/>
-      <c r="E45" s="48" t="s">
-        <v>57</v>
-      </c>
-      <c r="F45" s="35" t="s">
-        <v>107</v>
-      </c>
-      <c r="G45" s="35" t="s">
-        <v>108</v>
-      </c>
-      <c r="H45" s="36" t="n"/>
+      <c r="B45" s="35" t="s">
+        <v>111</v>
+      </c>
+      <c r="C45" s="36" t="n"/>
+      <c r="D45" s="36" t="n"/>
+      <c r="E45" s="51" t="s">
+        <v>62</v>
+      </c>
+      <c r="F45" s="38" t="s">
+        <v>112</v>
+      </c>
+      <c r="G45" s="38" t="s">
+        <v>113</v>
+      </c>
+      <c r="H45" s="39" t="n"/>
       <c r="I45" s="12" t="n"/>
-      <c r="J45" s="15" t="n"/>
+      <c r="J45" s="16" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row outlineLevel="0" r="46">
-      <c r="A46" s="49" t="s"/>
-      <c r="B46" s="38" t="s"/>
-      <c r="C46" s="18" t="n"/>
-      <c r="D46" s="18" t="n"/>
-      <c r="E46" s="50" t="s"/>
-      <c r="F46" s="18" t="s">
-        <v>109</v>
-      </c>
-      <c r="G46" s="18" t="s">
-        <v>110</v>
-      </c>
-      <c r="H46" s="40" t="n"/>
-      <c r="I46" s="18" t="n"/>
-      <c r="J46" s="21" t="n"/>
+      <c r="A46" s="52" t="s"/>
+      <c r="B46" s="41" t="s"/>
+      <c r="C46" s="0" t="n"/>
+      <c r="D46" s="0" t="n"/>
+      <c r="E46" s="53" t="s"/>
+      <c r="F46" s="0" t="s">
+        <v>114</v>
+      </c>
+      <c r="G46" s="0" t="s">
+        <v>115</v>
+      </c>
+      <c r="H46" s="43" t="n"/>
+      <c r="I46" s="0" t="n"/>
+      <c r="J46" s="22" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row outlineLevel="0" r="47">
-      <c r="A47" s="49" t="s"/>
-      <c r="B47" s="38" t="s"/>
-      <c r="C47" s="18" t="n"/>
-      <c r="D47" s="18" t="n"/>
-      <c r="E47" s="50" t="s"/>
-      <c r="F47" s="18" t="s">
-        <v>111</v>
-      </c>
-      <c r="G47" s="18" t="s">
-        <v>112</v>
-      </c>
-      <c r="H47" s="40" t="n"/>
-      <c r="I47" s="18" t="n"/>
-      <c r="J47" s="21" t="n"/>
+      <c r="A47" s="52" t="s"/>
+      <c r="B47" s="41" t="s"/>
+      <c r="C47" s="0" t="n"/>
+      <c r="D47" s="0" t="n"/>
+      <c r="E47" s="53" t="s"/>
+      <c r="F47" s="0" t="s">
+        <v>116</v>
+      </c>
+      <c r="G47" s="0" t="s">
+        <v>117</v>
+      </c>
+      <c r="H47" s="43" t="n"/>
+      <c r="I47" s="0" t="n"/>
+      <c r="J47" s="22" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row outlineLevel="0" r="48">
-      <c r="A48" s="49" t="s"/>
-      <c r="B48" s="38" t="s"/>
-      <c r="C48" s="18" t="n"/>
-      <c r="D48" s="18" t="n"/>
-      <c r="E48" s="50" t="s"/>
+      <c r="A48" s="52" t="s"/>
+      <c r="B48" s="41" t="s"/>
+      <c r="C48" s="0" t="n"/>
+      <c r="D48" s="0" t="n"/>
+      <c r="E48" s="53" t="s"/>
       <c r="F48" s="20" t="s">
-        <v>113</v>
-      </c>
-      <c r="G48" s="18" t="s">
-        <v>114</v>
-      </c>
-      <c r="H48" s="40" t="n"/>
-      <c r="I48" s="18" t="n"/>
-      <c r="J48" s="21" t="n"/>
+        <v>118</v>
+      </c>
+      <c r="G48" s="0" t="s">
+        <v>119</v>
+      </c>
+      <c r="H48" s="43" t="n"/>
+      <c r="I48" s="0" t="n"/>
+      <c r="J48" s="22" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row outlineLevel="0" r="49">
-      <c r="A49" s="49" t="s"/>
-      <c r="B49" s="38" t="s"/>
-      <c r="C49" s="18" t="n"/>
-      <c r="D49" s="18" t="n"/>
-      <c r="E49" s="50" t="s"/>
-      <c r="F49" s="18" t="s">
-        <v>115</v>
-      </c>
-      <c r="G49" s="18" t="s">
+      <c r="A49" s="52" t="s"/>
+      <c r="B49" s="41" t="s"/>
+      <c r="C49" s="0" t="n"/>
+      <c r="D49" s="0" t="n"/>
+      <c r="E49" s="53" t="s"/>
+      <c r="F49" s="0" t="s">
+        <v>120</v>
+      </c>
+      <c r="G49" s="0" t="s">
+        <v>121</v>
+      </c>
+      <c r="H49" s="43" t="n"/>
+      <c r="I49" s="0" t="n"/>
+      <c r="J49" s="22" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="50">
+      <c r="A50" s="52" t="s"/>
+      <c r="B50" s="41" t="s"/>
+      <c r="C50" s="0" t="n"/>
+      <c r="D50" s="0" t="n"/>
+      <c r="E50" s="53" t="s"/>
+      <c r="F50" s="0" t="s">
         <v>116</v>
       </c>
-      <c r="H49" s="40" t="n"/>
-      <c r="I49" s="18" t="n"/>
-      <c r="J49" s="21" t="n"/>
-    </row>
-    <row outlineLevel="0" r="50">
-      <c r="A50" s="49" t="s"/>
-      <c r="B50" s="38" t="s"/>
-      <c r="C50" s="18" t="n"/>
-      <c r="D50" s="18" t="n"/>
-      <c r="E50" s="50" t="s"/>
-      <c r="F50" s="18" t="s">
-        <v>111</v>
-      </c>
-      <c r="G50" s="18" t="s">
-        <v>117</v>
-      </c>
-      <c r="H50" s="40" t="n"/>
-      <c r="I50" s="18" t="n"/>
-      <c r="J50" s="21" t="n"/>
+      <c r="G50" s="0" t="s">
+        <v>122</v>
+      </c>
+      <c r="H50" s="43" t="n"/>
+      <c r="I50" s="0" t="n"/>
+      <c r="J50" s="22" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row outlineLevel="0" r="51">
-      <c r="A51" s="49" t="s"/>
-      <c r="B51" s="38" t="s"/>
-      <c r="C51" s="18" t="n"/>
-      <c r="D51" s="18" t="n"/>
-      <c r="E51" s="50" t="s"/>
+      <c r="A51" s="52" t="s"/>
+      <c r="B51" s="41" t="s"/>
+      <c r="C51" s="0" t="n"/>
+      <c r="D51" s="0" t="n"/>
+      <c r="E51" s="53" t="s"/>
       <c r="F51" s="20" t="s">
-        <v>113</v>
-      </c>
-      <c r="G51" s="18" t="s">
-        <v>114</v>
-      </c>
-      <c r="H51" s="40" t="n"/>
-      <c r="I51" s="18" t="n"/>
-      <c r="J51" s="21" t="n"/>
+        <v>118</v>
+      </c>
+      <c r="G51" s="0" t="s">
+        <v>119</v>
+      </c>
+      <c r="H51" s="43" t="n"/>
+      <c r="I51" s="0" t="n"/>
+      <c r="J51" s="22" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row outlineLevel="0" r="52">
-      <c r="A52" s="51" t="s"/>
-      <c r="B52" s="42" t="s"/>
-      <c r="C52" s="43" t="n"/>
-      <c r="D52" s="43" t="n"/>
-      <c r="E52" s="52" t="s"/>
-      <c r="F52" s="43" t="s">
-        <v>118</v>
-      </c>
-      <c r="G52" s="45" t="s">
-        <v>119</v>
-      </c>
-      <c r="H52" s="46" t="n"/>
-      <c r="I52" s="24" t="n"/>
-      <c r="J52" s="27" t="n"/>
+      <c r="A52" s="54" t="s"/>
+      <c r="B52" s="45" t="s"/>
+      <c r="C52" s="46" t="n"/>
+      <c r="D52" s="46" t="n"/>
+      <c r="E52" s="55" t="s"/>
+      <c r="F52" s="46" t="s">
+        <v>123</v>
+      </c>
+      <c r="G52" s="48" t="s">
+        <v>124</v>
+      </c>
+      <c r="H52" s="49" t="n"/>
+      <c r="I52" s="27" t="n"/>
+      <c r="J52" s="31" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row outlineLevel="0" r="53">
-      <c r="A53" s="47" t="n">
+      <c r="A53" s="50" t="n">
         <v>10</v>
       </c>
       <c r="B53" s="11" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="C53" s="12" t="n"/>
       <c r="D53" s="12" t="n"/>
-      <c r="E53" s="53" t="s">
-        <v>57</v>
+      <c r="E53" s="56" t="s">
+        <v>62</v>
       </c>
       <c r="F53" s="14" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="G53" s="12" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="H53" s="15" t="n"/>
       <c r="I53" s="12" t="n"/>
-      <c r="J53" s="15" t="n"/>
+      <c r="J53" s="16" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row outlineLevel="0" r="54">
-      <c r="A54" s="49" t="s"/>
-      <c r="B54" s="17" t="s"/>
-      <c r="C54" s="18" t="n"/>
-      <c r="D54" s="18" t="n"/>
-      <c r="E54" s="54" t="s"/>
+      <c r="A54" s="52" t="s"/>
+      <c r="B54" s="18" t="s"/>
+      <c r="C54" s="0" t="n"/>
+      <c r="D54" s="0" t="n"/>
+      <c r="E54" s="57" t="s"/>
       <c r="F54" s="20" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="G54" s="20" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="H54" s="21" t="n"/>
-      <c r="I54" s="18" t="n"/>
-      <c r="J54" s="21" t="n"/>
+      <c r="I54" s="0" t="n"/>
+      <c r="J54" s="22" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row outlineLevel="0" r="55">
-      <c r="A55" s="49" t="s"/>
-      <c r="B55" s="17" t="s"/>
-      <c r="C55" s="18" t="n"/>
-      <c r="D55" s="18" t="n"/>
-      <c r="E55" s="54" t="s"/>
+      <c r="A55" s="52" t="s"/>
+      <c r="B55" s="18" t="s"/>
+      <c r="C55" s="0" t="n"/>
+      <c r="D55" s="0" t="n"/>
+      <c r="E55" s="57" t="s"/>
       <c r="F55" s="20" t="s">
-        <v>124</v>
-      </c>
-      <c r="G55" s="18" t="s">
-        <v>125</v>
+        <v>129</v>
+      </c>
+      <c r="G55" s="0" t="s">
+        <v>130</v>
       </c>
       <c r="H55" s="21" t="n"/>
-      <c r="I55" s="18" t="n"/>
-      <c r="J55" s="21" t="n"/>
+      <c r="I55" s="0" t="n"/>
+      <c r="J55" s="22" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row outlineLevel="0" r="56">
-      <c r="A56" s="49" t="s"/>
-      <c r="B56" s="17" t="s"/>
-      <c r="C56" s="18" t="n"/>
-      <c r="D56" s="18" t="n"/>
-      <c r="E56" s="54" t="s"/>
-      <c r="F56" s="58" t="s">
-        <v>126</v>
-      </c>
-      <c r="G56" s="18" t="s">
-        <v>127</v>
+      <c r="A56" s="52" t="s"/>
+      <c r="B56" s="18" t="s"/>
+      <c r="C56" s="0" t="n"/>
+      <c r="D56" s="0" t="n"/>
+      <c r="E56" s="57" t="s"/>
+      <c r="F56" s="60" t="s">
+        <v>131</v>
+      </c>
+      <c r="G56" s="0" t="s">
+        <v>132</v>
       </c>
       <c r="H56" s="21" t="n"/>
-      <c r="I56" s="18" t="n"/>
-      <c r="J56" s="21" t="n"/>
+      <c r="I56" s="0" t="n"/>
+      <c r="J56" s="22" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row outlineLevel="0" r="57">
-      <c r="A57" s="49" t="s"/>
-      <c r="B57" s="17" t="s"/>
-      <c r="C57" s="18" t="n"/>
-      <c r="D57" s="18" t="n"/>
-      <c r="E57" s="54" t="s"/>
-      <c r="F57" s="58" t="s">
+      <c r="A57" s="52" t="s"/>
+      <c r="B57" s="18" t="s"/>
+      <c r="C57" s="0" t="n"/>
+      <c r="D57" s="0" t="n"/>
+      <c r="E57" s="57" t="s"/>
+      <c r="F57" s="60" t="s">
+        <v>133</v>
+      </c>
+      <c r="G57" s="0" t="s">
+        <v>134</v>
+      </c>
+      <c r="H57" s="21" t="n"/>
+      <c r="I57" s="0" t="n"/>
+      <c r="J57" s="22" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="58">
+      <c r="A58" s="52" t="s"/>
+      <c r="B58" s="18" t="s"/>
+      <c r="C58" s="0" t="n"/>
+      <c r="D58" s="0" t="n"/>
+      <c r="E58" s="57" t="s"/>
+      <c r="F58" s="20" t="s">
+        <v>135</v>
+      </c>
+      <c r="G58" s="20" t="s">
         <v>128</v>
       </c>
-      <c r="G57" s="18" t="s">
-        <v>129</v>
-      </c>
-      <c r="H57" s="21" t="n"/>
-      <c r="I57" s="18" t="n"/>
-      <c r="J57" s="21" t="n"/>
-    </row>
-    <row outlineLevel="0" r="58">
-      <c r="A58" s="49" t="s"/>
-      <c r="B58" s="17" t="s"/>
-      <c r="C58" s="18" t="n"/>
-      <c r="D58" s="18" t="n"/>
-      <c r="E58" s="54" t="s"/>
-      <c r="F58" s="20" t="s">
-        <v>130</v>
-      </c>
-      <c r="G58" s="20" t="s">
-        <v>123</v>
-      </c>
       <c r="H58" s="21" t="n"/>
-      <c r="I58" s="18" t="n"/>
-      <c r="J58" s="21" t="n"/>
+      <c r="I58" s="0" t="n"/>
+      <c r="J58" s="22" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row outlineLevel="0" r="59">
-      <c r="A59" s="49" t="s"/>
-      <c r="B59" s="17" t="s"/>
-      <c r="C59" s="18" t="n"/>
-      <c r="D59" s="18" t="n"/>
-      <c r="E59" s="54" t="s"/>
-      <c r="F59" s="18" t="s">
-        <v>131</v>
+      <c r="A59" s="52" t="s"/>
+      <c r="B59" s="18" t="s"/>
+      <c r="C59" s="0" t="n"/>
+      <c r="D59" s="0" t="n"/>
+      <c r="E59" s="57" t="s"/>
+      <c r="F59" s="0" t="s">
+        <v>136</v>
       </c>
       <c r="G59" s="20" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="H59" s="21" t="n"/>
-      <c r="I59" s="18" t="n"/>
-      <c r="J59" s="21" t="n"/>
+      <c r="I59" s="0" t="n"/>
+      <c r="J59" s="22" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row outlineLevel="0" r="60">
-      <c r="A60" s="49" t="s"/>
-      <c r="B60" s="17" t="s"/>
-      <c r="C60" s="18" t="n"/>
-      <c r="D60" s="18" t="n"/>
-      <c r="E60" s="54" t="s"/>
+      <c r="A60" s="52" t="s"/>
+      <c r="B60" s="18" t="s"/>
+      <c r="C60" s="0" t="n"/>
+      <c r="D60" s="0" t="n"/>
+      <c r="E60" s="57" t="s"/>
       <c r="F60" s="20" t="s">
-        <v>133</v>
-      </c>
-      <c r="G60" s="18" t="s">
-        <v>134</v>
+        <v>138</v>
+      </c>
+      <c r="G60" s="0" t="s">
+        <v>139</v>
       </c>
       <c r="H60" s="21" t="n"/>
-      <c r="I60" s="18" t="n"/>
-      <c r="J60" s="21" t="n"/>
+      <c r="I60" s="0" t="n"/>
+      <c r="J60" s="22" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row outlineLevel="0" r="61">
-      <c r="A61" s="49" t="s"/>
-      <c r="B61" s="17" t="s"/>
-      <c r="C61" s="18" t="n"/>
-      <c r="D61" s="18" t="n"/>
-      <c r="E61" s="54" t="s"/>
-      <c r="F61" s="18" t="s">
-        <v>135</v>
+      <c r="A61" s="52" t="s"/>
+      <c r="B61" s="18" t="s"/>
+      <c r="C61" s="0" t="n"/>
+      <c r="D61" s="0" t="n"/>
+      <c r="E61" s="57" t="s"/>
+      <c r="F61" s="0" t="s">
+        <v>140</v>
       </c>
       <c r="G61" s="20" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="H61" s="21" t="n"/>
-      <c r="I61" s="18" t="n"/>
-      <c r="J61" s="21" t="n"/>
+      <c r="I61" s="0" t="n"/>
+      <c r="J61" s="22" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row outlineLevel="0" r="62">
-      <c r="A62" s="49" t="s"/>
-      <c r="B62" s="17" t="s"/>
-      <c r="C62" s="18" t="n"/>
-      <c r="D62" s="18" t="n"/>
-      <c r="E62" s="54" t="s"/>
+      <c r="A62" s="52" t="s"/>
+      <c r="B62" s="18" t="s"/>
+      <c r="C62" s="0" t="n"/>
+      <c r="D62" s="0" t="n"/>
+      <c r="E62" s="57" t="s"/>
       <c r="F62" s="20" t="s">
-        <v>137</v>
-      </c>
-      <c r="G62" s="18" t="s">
+        <v>142</v>
+      </c>
+      <c r="G62" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="H62" s="21" t="n"/>
+      <c r="I62" s="0" t="n"/>
+      <c r="J62" s="22" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="63">
+      <c r="A63" s="52" t="s"/>
+      <c r="B63" s="18" t="s"/>
+      <c r="C63" s="0" t="n"/>
+      <c r="D63" s="0" t="n"/>
+      <c r="E63" s="57" t="s"/>
+      <c r="F63" s="20" t="s">
         <v>138</v>
       </c>
-      <c r="H62" s="21" t="n"/>
-      <c r="I62" s="18" t="n"/>
-      <c r="J62" s="21" t="n"/>
-    </row>
-    <row outlineLevel="0" r="63">
-      <c r="A63" s="49" t="s"/>
-      <c r="B63" s="17" t="s"/>
-      <c r="C63" s="18" t="n"/>
-      <c r="D63" s="18" t="n"/>
-      <c r="E63" s="54" t="s"/>
-      <c r="F63" s="20" t="s">
-        <v>133</v>
-      </c>
-      <c r="G63" s="18" t="s">
-        <v>139</v>
+      <c r="G63" s="0" t="s">
+        <v>144</v>
       </c>
       <c r="H63" s="21" t="n"/>
-      <c r="I63" s="18" t="n"/>
-      <c r="J63" s="21" t="n"/>
+      <c r="I63" s="0" t="n"/>
+      <c r="J63" s="22" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row outlineLevel="0" r="64">
-      <c r="A64" s="49" t="s"/>
-      <c r="B64" s="17" t="s"/>
-      <c r="C64" s="18" t="n"/>
-      <c r="D64" s="18" t="n"/>
-      <c r="E64" s="54" t="s"/>
-      <c r="F64" s="18" t="s">
-        <v>140</v>
+      <c r="A64" s="52" t="s"/>
+      <c r="B64" s="18" t="s"/>
+      <c r="C64" s="0" t="n"/>
+      <c r="D64" s="0" t="n"/>
+      <c r="E64" s="57" t="s"/>
+      <c r="F64" s="0" t="s">
+        <v>145</v>
       </c>
       <c r="G64" s="20" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="H64" s="21" t="n"/>
-      <c r="I64" s="18" t="n"/>
-      <c r="J64" s="21" t="n"/>
+      <c r="I64" s="0" t="n"/>
+      <c r="J64" s="22" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row outlineLevel="0" r="65">
-      <c r="A65" s="51" t="s"/>
-      <c r="B65" s="23" t="s"/>
-      <c r="C65" s="24" t="n"/>
-      <c r="D65" s="24" t="n"/>
-      <c r="E65" s="55" t="s"/>
-      <c r="F65" s="26" t="s">
-        <v>142</v>
-      </c>
-      <c r="G65" s="26" t="s">
-        <v>143</v>
-      </c>
-      <c r="H65" s="27" t="n"/>
-      <c r="I65" s="24" t="n"/>
-      <c r="J65" s="27" t="n"/>
+      <c r="A65" s="54" t="s"/>
+      <c r="B65" s="26" t="s"/>
+      <c r="C65" s="27" t="n"/>
+      <c r="D65" s="27" t="n"/>
+      <c r="E65" s="58" t="s"/>
+      <c r="F65" s="29" t="s">
+        <v>147</v>
+      </c>
+      <c r="G65" s="29" t="s">
+        <v>148</v>
+      </c>
+      <c r="H65" s="30" t="n"/>
+      <c r="I65" s="27" t="n"/>
+      <c r="J65" s="31" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row outlineLevel="0" r="66">
-      <c r="A66" s="47" t="n">
+      <c r="A66" s="50" t="n">
         <v>11</v>
       </c>
       <c r="B66" s="11" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="C66" s="12" t="n"/>
       <c r="D66" s="12" t="n"/>
-      <c r="E66" s="53" t="s">
-        <v>57</v>
+      <c r="E66" s="56" t="s">
+        <v>62</v>
       </c>
       <c r="F66" s="14" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="G66" s="12" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="H66" s="15" t="n"/>
       <c r="I66" s="12" t="n"/>
-      <c r="J66" s="15" t="n"/>
+      <c r="J66" s="16" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row outlineLevel="0" r="67">
-      <c r="A67" s="49" t="s"/>
-      <c r="B67" s="17" t="s"/>
-      <c r="C67" s="18" t="n"/>
-      <c r="D67" s="18" t="n"/>
-      <c r="E67" s="54" t="s"/>
+      <c r="A67" s="52" t="s"/>
+      <c r="B67" s="18" t="s"/>
+      <c r="C67" s="0" t="n"/>
+      <c r="D67" s="0" t="n"/>
+      <c r="E67" s="57" t="s"/>
       <c r="F67" s="20" t="s">
-        <v>145</v>
-      </c>
-      <c r="G67" s="18" t="s">
-        <v>146</v>
+        <v>150</v>
+      </c>
+      <c r="G67" s="0" t="s">
+        <v>151</v>
       </c>
       <c r="H67" s="21" t="n"/>
-      <c r="I67" s="18" t="n"/>
-      <c r="J67" s="21" t="n"/>
+      <c r="I67" s="0" t="n"/>
+      <c r="J67" s="22" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row outlineLevel="0" r="68">
-      <c r="A68" s="49" t="s"/>
-      <c r="B68" s="17" t="s"/>
-      <c r="C68" s="18" t="n"/>
-      <c r="D68" s="18" t="n"/>
-      <c r="E68" s="54" t="s"/>
+      <c r="A68" s="52" t="s"/>
+      <c r="B68" s="18" t="s"/>
+      <c r="C68" s="0" t="n"/>
+      <c r="D68" s="0" t="n"/>
+      <c r="E68" s="57" t="s"/>
       <c r="F68" s="20" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="G68" s="20" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="H68" s="21" t="n"/>
-      <c r="I68" s="18" t="n"/>
-      <c r="J68" s="21" t="n"/>
+      <c r="I68" s="0" t="n"/>
+      <c r="J68" s="22" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row outlineLevel="0" r="69">
-      <c r="A69" s="51" t="s"/>
-      <c r="B69" s="23" t="s"/>
-      <c r="C69" s="24" t="n"/>
-      <c r="D69" s="24" t="n"/>
-      <c r="E69" s="55" t="s"/>
-      <c r="F69" s="26" t="s">
-        <v>149</v>
-      </c>
-      <c r="G69" s="26" t="s">
-        <v>150</v>
-      </c>
-      <c r="H69" s="27" t="n"/>
-      <c r="I69" s="24" t="n"/>
-      <c r="J69" s="27" t="n"/>
+      <c r="A69" s="54" t="s"/>
+      <c r="B69" s="26" t="s"/>
+      <c r="C69" s="27" t="n"/>
+      <c r="D69" s="27" t="n"/>
+      <c r="E69" s="58" t="s"/>
+      <c r="F69" s="29" t="s">
+        <v>154</v>
+      </c>
+      <c r="G69" s="29" t="s">
+        <v>155</v>
+      </c>
+      <c r="H69" s="30" t="n"/>
+      <c r="I69" s="27" t="n"/>
+      <c r="J69" s="31" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row outlineLevel="0" r="70">
-      <c r="A70" s="47" t="n">
+      <c r="A70" s="50" t="n">
         <v>12</v>
       </c>
       <c r="B70" s="11" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="C70" s="12" t="n"/>
       <c r="D70" s="12" t="n"/>
-      <c r="E70" s="53" t="s">
-        <v>57</v>
+      <c r="E70" s="56" t="s">
+        <v>62</v>
       </c>
       <c r="F70" s="14" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="G70" s="14" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="H70" s="15" t="n"/>
       <c r="I70" s="12" t="n"/>
-      <c r="J70" s="15" t="n"/>
+      <c r="J70" s="16" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row outlineLevel="0" r="71">
-      <c r="A71" s="49" t="s"/>
-      <c r="B71" s="17" t="s"/>
-      <c r="C71" s="18" t="n"/>
-      <c r="D71" s="18" t="n"/>
-      <c r="E71" s="54" t="s"/>
-      <c r="F71" s="59" t="s">
-        <v>153</v>
+      <c r="A71" s="52" t="s"/>
+      <c r="B71" s="18" t="s"/>
+      <c r="C71" s="0" t="n"/>
+      <c r="D71" s="0" t="n"/>
+      <c r="E71" s="57" t="s"/>
+      <c r="F71" s="61" t="s">
+        <v>158</v>
       </c>
       <c r="G71" s="20" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
       <c r="H71" s="21" t="n"/>
-      <c r="I71" s="18" t="n"/>
-      <c r="J71" s="21" t="n"/>
+      <c r="I71" s="0" t="n"/>
+      <c r="J71" s="22" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row outlineLevel="0" r="72">
-      <c r="A72" s="49" t="s"/>
-      <c r="B72" s="17" t="s"/>
-      <c r="C72" s="18" t="n"/>
-      <c r="D72" s="18" t="n"/>
-      <c r="E72" s="54" t="s"/>
+      <c r="A72" s="52" t="s"/>
+      <c r="B72" s="18" t="s"/>
+      <c r="C72" s="0" t="n"/>
+      <c r="D72" s="0" t="n"/>
+      <c r="E72" s="57" t="s"/>
       <c r="F72" s="20" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="G72" s="20" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="H72" s="21" t="n"/>
-      <c r="I72" s="18" t="n"/>
-      <c r="J72" s="21" t="n"/>
+      <c r="I72" s="0" t="n"/>
+      <c r="J72" s="22" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row outlineLevel="0" r="73">
-      <c r="A73" s="49" t="s"/>
-      <c r="B73" s="17" t="s"/>
-      <c r="C73" s="18" t="n"/>
-      <c r="D73" s="18" t="n"/>
-      <c r="E73" s="54" t="s"/>
-      <c r="F73" s="59" t="s">
-        <v>157</v>
+      <c r="A73" s="52" t="s"/>
+      <c r="B73" s="18" t="s"/>
+      <c r="C73" s="0" t="n"/>
+      <c r="D73" s="0" t="n"/>
+      <c r="E73" s="57" t="s"/>
+      <c r="F73" s="61" t="s">
+        <v>162</v>
       </c>
       <c r="G73" s="20" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="H73" s="21" t="n"/>
-      <c r="I73" s="18" t="n"/>
-      <c r="J73" s="21" t="n"/>
+      <c r="I73" s="0" t="n"/>
+      <c r="J73" s="22" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row outlineLevel="0" r="74">
-      <c r="A74" s="49" t="s"/>
-      <c r="B74" s="17" t="s"/>
-      <c r="C74" s="18" t="n"/>
-      <c r="D74" s="18" t="n"/>
-      <c r="E74" s="54" t="s"/>
+      <c r="A74" s="52" t="s"/>
+      <c r="B74" s="18" t="s"/>
+      <c r="C74" s="0" t="n"/>
+      <c r="D74" s="0" t="n"/>
+      <c r="E74" s="57" t="s"/>
       <c r="F74" s="20" t="s">
-        <v>159</v>
-      </c>
-      <c r="G74" s="18" t="s">
-        <v>160</v>
+        <v>164</v>
+      </c>
+      <c r="G74" s="0" t="s">
+        <v>165</v>
       </c>
       <c r="H74" s="21" t="n"/>
-      <c r="I74" s="18" t="n"/>
-      <c r="J74" s="21" t="n"/>
+      <c r="I74" s="0" t="n"/>
+      <c r="J74" s="22" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row outlineLevel="0" r="75">
-      <c r="A75" s="51" t="s"/>
-      <c r="B75" s="23" t="s"/>
-      <c r="C75" s="24" t="n"/>
-      <c r="D75" s="24" t="n"/>
-      <c r="E75" s="55" t="s"/>
-      <c r="F75" s="26" t="s">
-        <v>161</v>
-      </c>
-      <c r="G75" s="26" t="s">
-        <v>162</v>
-      </c>
-      <c r="H75" s="56" t="s">
-        <v>163</v>
-      </c>
-      <c r="I75" s="24" t="n"/>
-      <c r="J75" s="27" t="n"/>
+      <c r="A75" s="54" t="s"/>
+      <c r="B75" s="26" t="s"/>
+      <c r="C75" s="27" t="n"/>
+      <c r="D75" s="27" t="n"/>
+      <c r="E75" s="58" t="s"/>
+      <c r="F75" s="29" t="s">
+        <v>166</v>
+      </c>
+      <c r="G75" s="29" t="s">
+        <v>167</v>
+      </c>
+      <c r="H75" s="31" t="s">
+        <v>168</v>
+      </c>
+      <c r="I75" s="27" t="n"/>
+      <c r="J75" s="31" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row outlineLevel="0" r="76">
-      <c r="A76" s="47" t="n">
+      <c r="A76" s="50" t="n">
         <v>13</v>
       </c>
       <c r="B76" s="11" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="C76" s="12" t="n"/>
       <c r="D76" s="12" t="n"/>
-      <c r="E76" s="53" t="s">
-        <v>57</v>
+      <c r="E76" s="56" t="s">
+        <v>62</v>
       </c>
       <c r="F76" s="14" t="s">
-        <v>165</v>
+        <v>170</v>
       </c>
       <c r="G76" s="14" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="H76" s="15" t="n"/>
       <c r="I76" s="12" t="n"/>
-      <c r="J76" s="15" t="n"/>
+      <c r="J76" s="16" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row outlineLevel="0" r="77">
-      <c r="A77" s="49" t="s"/>
-      <c r="B77" s="17" t="s"/>
-      <c r="C77" s="18" t="n"/>
-      <c r="D77" s="18" t="n"/>
-      <c r="E77" s="54" t="s"/>
+      <c r="A77" s="52" t="s"/>
+      <c r="B77" s="18" t="s"/>
+      <c r="C77" s="0" t="n"/>
+      <c r="D77" s="0" t="n"/>
+      <c r="E77" s="57" t="s"/>
       <c r="F77" s="20" t="s">
+        <v>172</v>
+      </c>
+      <c r="G77" s="20" t="s">
         <v>167</v>
       </c>
-      <c r="G77" s="20" t="s">
-        <v>162</v>
-      </c>
       <c r="H77" s="21" t="n"/>
-      <c r="I77" s="18" t="n"/>
-      <c r="J77" s="21" t="n"/>
+      <c r="I77" s="0" t="n"/>
+      <c r="J77" s="22" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row outlineLevel="0" r="78">
-      <c r="A78" s="49" t="s"/>
-      <c r="B78" s="17" t="s"/>
-      <c r="C78" s="18" t="n"/>
-      <c r="D78" s="18" t="n"/>
-      <c r="E78" s="54" t="s"/>
+      <c r="A78" s="52" t="s"/>
+      <c r="B78" s="18" t="s"/>
+      <c r="C78" s="0" t="n"/>
+      <c r="D78" s="0" t="n"/>
+      <c r="E78" s="57" t="s"/>
       <c r="F78" s="20" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="G78" s="20" t="s">
-        <v>169</v>
-      </c>
-      <c r="H78" s="30" t="s">
-        <v>170</v>
-      </c>
-      <c r="I78" s="18" t="n"/>
-      <c r="J78" s="21" t="n"/>
+        <v>174</v>
+      </c>
+      <c r="H78" s="22" t="s">
+        <v>175</v>
+      </c>
+      <c r="I78" s="0" t="n"/>
+      <c r="J78" s="22" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row outlineLevel="0" r="79">
-      <c r="A79" s="49" t="s"/>
-      <c r="B79" s="17" t="s"/>
-      <c r="C79" s="18" t="n"/>
-      <c r="D79" s="18" t="n"/>
-      <c r="E79" s="54" t="s"/>
-      <c r="F79" s="18" t="s">
-        <v>131</v>
+      <c r="A79" s="52" t="s"/>
+      <c r="B79" s="18" t="s"/>
+      <c r="C79" s="0" t="n"/>
+      <c r="D79" s="0" t="n"/>
+      <c r="E79" s="57" t="s"/>
+      <c r="F79" s="0" t="s">
+        <v>136</v>
       </c>
       <c r="G79" s="20" t="s">
+        <v>176</v>
+      </c>
+      <c r="H79" s="21" t="n"/>
+      <c r="I79" s="0" t="n"/>
+      <c r="J79" s="22" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="80">
+      <c r="A80" s="54" t="s"/>
+      <c r="B80" s="26" t="s"/>
+      <c r="C80" s="27" t="n"/>
+      <c r="D80" s="27" t="n"/>
+      <c r="E80" s="58" t="s"/>
+      <c r="F80" s="27" t="s">
+        <v>177</v>
+      </c>
+      <c r="G80" s="29" t="s">
+        <v>178</v>
+      </c>
+      <c r="H80" s="30" t="n"/>
+      <c r="I80" s="27" t="n"/>
+      <c r="J80" s="31" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="81">
+      <c r="A81" s="50" t="n">
+        <v>14</v>
+      </c>
+      <c r="B81" s="62" t="s">
+        <v>179</v>
+      </c>
+      <c r="C81" s="36" t="n"/>
+      <c r="D81" s="36" t="n"/>
+      <c r="E81" s="51" t="s">
+        <v>62</v>
+      </c>
+      <c r="F81" s="63" t="s">
+        <v>180</v>
+      </c>
+      <c r="G81" s="64" t="s">
         <v>171</v>
       </c>
-      <c r="H79" s="21" t="n"/>
-      <c r="I79" s="18" t="n"/>
-      <c r="J79" s="21" t="n"/>
-    </row>
-    <row outlineLevel="0" r="80">
-      <c r="A80" s="51" t="s"/>
-      <c r="B80" s="23" t="s"/>
-      <c r="C80" s="24" t="n"/>
-      <c r="D80" s="24" t="n"/>
-      <c r="E80" s="55" t="s"/>
-      <c r="F80" s="24" t="s">
-        <v>172</v>
-      </c>
-      <c r="G80" s="26" t="s">
-        <v>173</v>
-      </c>
-      <c r="H80" s="27" t="n"/>
-      <c r="I80" s="24" t="n"/>
-      <c r="J80" s="27" t="n"/>
-    </row>
-    <row outlineLevel="0" r="81">
-      <c r="A81" s="47" t="n">
-        <v>14</v>
-      </c>
-      <c r="B81" s="60" t="s">
-        <v>174</v>
-      </c>
-      <c r="C81" s="33" t="n"/>
-      <c r="D81" s="33" t="n"/>
-      <c r="E81" s="48" t="s">
-        <v>57</v>
-      </c>
-      <c r="F81" s="61" t="s">
-        <v>175</v>
-      </c>
-      <c r="G81" s="62" t="s">
-        <v>166</v>
-      </c>
-      <c r="H81" s="36" t="n"/>
+      <c r="H81" s="39" t="n"/>
       <c r="I81" s="12" t="n"/>
-      <c r="J81" s="15" t="n"/>
+      <c r="J81" s="16" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row outlineLevel="0" r="82">
-      <c r="A82" s="49" t="s"/>
-      <c r="B82" s="38" t="s"/>
-      <c r="C82" s="18" t="n"/>
-      <c r="D82" s="18" t="n"/>
-      <c r="E82" s="50" t="s"/>
-      <c r="F82" s="20" t="s">
-        <v>176</v>
+      <c r="A82" s="52" t="s"/>
+      <c r="B82" s="41" t="s"/>
+      <c r="C82" s="0" t="n"/>
+      <c r="D82" s="0" t="n"/>
+      <c r="E82" s="53" t="s"/>
+      <c r="F82" s="65" t="s">
+        <v>181</v>
       </c>
       <c r="G82" s="20" t="s">
+        <v>182</v>
+      </c>
+      <c r="H82" s="43" t="n"/>
+      <c r="I82" s="0" t="n"/>
+      <c r="J82" s="22" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="83">
+      <c r="A83" s="52" t="s"/>
+      <c r="B83" s="41" t="s"/>
+      <c r="C83" s="0" t="n"/>
+      <c r="D83" s="0" t="n"/>
+      <c r="E83" s="53" t="s"/>
+      <c r="F83" s="0" t="s">
+        <v>183</v>
+      </c>
+      <c r="G83" s="20" t="s">
+        <v>184</v>
+      </c>
+      <c r="H83" s="43" t="n"/>
+      <c r="I83" s="0" t="n"/>
+      <c r="J83" s="22" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="84">
+      <c r="A84" s="52" t="s"/>
+      <c r="B84" s="41" t="s"/>
+      <c r="C84" s="0" t="n"/>
+      <c r="D84" s="0" t="n"/>
+      <c r="E84" s="53" t="s"/>
+      <c r="F84" s="65" t="s">
+        <v>185</v>
+      </c>
+      <c r="G84" s="20" t="s">
+        <v>186</v>
+      </c>
+      <c r="H84" s="43" t="n"/>
+      <c r="I84" s="0" t="n"/>
+      <c r="J84" s="22" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="85">
+      <c r="A85" s="52" t="s"/>
+      <c r="B85" s="41" t="s"/>
+      <c r="C85" s="0" t="n"/>
+      <c r="D85" s="0" t="n"/>
+      <c r="E85" s="53" t="s"/>
+      <c r="F85" s="20" t="s">
+        <v>187</v>
+      </c>
+      <c r="G85" s="20" t="s">
+        <v>188</v>
+      </c>
+      <c r="H85" s="43" t="n"/>
+      <c r="I85" s="0" t="n"/>
+      <c r="J85" s="22" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="86">
+      <c r="A86" s="52" t="s"/>
+      <c r="B86" s="41" t="s"/>
+      <c r="C86" s="0" t="n"/>
+      <c r="D86" s="0" t="n"/>
+      <c r="E86" s="53" t="s"/>
+      <c r="F86" s="65" t="s">
+        <v>185</v>
+      </c>
+      <c r="G86" s="20" t="s">
+        <v>186</v>
+      </c>
+      <c r="H86" s="43" t="n"/>
+      <c r="I86" s="0" t="n"/>
+      <c r="J86" s="22" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="87">
+      <c r="A87" s="52" t="s"/>
+      <c r="B87" s="41" t="s"/>
+      <c r="C87" s="0" t="n"/>
+      <c r="D87" s="0" t="n"/>
+      <c r="E87" s="53" t="s"/>
+      <c r="F87" s="0" t="s">
+        <v>189</v>
+      </c>
+      <c r="G87" s="20" t="s">
+        <v>190</v>
+      </c>
+      <c r="H87" s="66" t="s">
+        <v>191</v>
+      </c>
+      <c r="I87" s="0" t="n"/>
+      <c r="J87" s="22" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="88">
+      <c r="A88" s="52" t="s"/>
+      <c r="B88" s="41" t="s"/>
+      <c r="C88" s="0" t="n"/>
+      <c r="D88" s="0" t="n"/>
+      <c r="E88" s="53" t="s"/>
+      <c r="F88" s="20" t="s">
+        <v>192</v>
+      </c>
+      <c r="G88" s="0" t="s">
+        <v>193</v>
+      </c>
+      <c r="H88" s="66" t="s">
+        <v>194</v>
+      </c>
+      <c r="I88" s="0" t="n"/>
+      <c r="J88" s="22" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="89">
+      <c r="A89" s="52" t="s"/>
+      <c r="B89" s="41" t="s"/>
+      <c r="C89" s="0" t="n"/>
+      <c r="D89" s="0" t="n"/>
+      <c r="E89" s="53" t="s"/>
+      <c r="F89" s="0" t="s">
         <v>177</v>
       </c>
-      <c r="H82" s="40" t="n"/>
-      <c r="I82" s="18" t="n"/>
-      <c r="J82" s="21" t="n"/>
-    </row>
-    <row outlineLevel="0" r="83">
-      <c r="A83" s="49" t="s"/>
-      <c r="B83" s="38" t="s"/>
-      <c r="C83" s="18" t="n"/>
-      <c r="D83" s="18" t="n"/>
-      <c r="E83" s="50" t="s"/>
-      <c r="F83" s="18" t="s">
-        <v>178</v>
-      </c>
-      <c r="G83" s="20" t="s">
-        <v>179</v>
-      </c>
-      <c r="H83" s="40" t="n"/>
-      <c r="I83" s="18" t="n"/>
-      <c r="J83" s="21" t="n"/>
-    </row>
-    <row outlineLevel="0" r="84">
-      <c r="A84" s="49" t="s"/>
-      <c r="B84" s="38" t="s"/>
-      <c r="C84" s="18" t="n"/>
-      <c r="D84" s="18" t="n"/>
-      <c r="E84" s="50" t="s"/>
-      <c r="F84" s="20" t="s">
-        <v>180</v>
-      </c>
-      <c r="G84" s="20" t="s">
-        <v>181</v>
-      </c>
-      <c r="H84" s="40" t="n"/>
-      <c r="I84" s="18" t="n"/>
-      <c r="J84" s="21" t="n"/>
-    </row>
-    <row outlineLevel="0" r="85">
-      <c r="A85" s="49" t="s"/>
-      <c r="B85" s="38" t="s"/>
-      <c r="C85" s="18" t="n"/>
-      <c r="D85" s="18" t="n"/>
-      <c r="E85" s="50" t="s"/>
-      <c r="F85" s="20" t="s">
-        <v>182</v>
-      </c>
-      <c r="G85" s="20" t="s">
-        <v>183</v>
-      </c>
-      <c r="H85" s="40" t="n"/>
-      <c r="I85" s="18" t="n"/>
-      <c r="J85" s="21" t="n"/>
-    </row>
-    <row outlineLevel="0" r="86">
-      <c r="A86" s="49" t="s"/>
-      <c r="B86" s="38" t="s"/>
-      <c r="C86" s="18" t="n"/>
-      <c r="D86" s="18" t="n"/>
-      <c r="E86" s="50" t="s"/>
-      <c r="F86" s="20" t="s">
-        <v>184</v>
-      </c>
-      <c r="G86" s="20" t="s">
-        <v>181</v>
-      </c>
-      <c r="H86" s="40" t="n"/>
-      <c r="I86" s="18" t="n"/>
-      <c r="J86" s="21" t="n"/>
-    </row>
-    <row outlineLevel="0" r="87">
-      <c r="A87" s="49" t="s"/>
-      <c r="B87" s="38" t="s"/>
-      <c r="C87" s="18" t="n"/>
-      <c r="D87" s="18" t="n"/>
-      <c r="E87" s="50" t="s"/>
-      <c r="F87" s="18" t="s">
+      <c r="G89" s="20" t="s">
+        <v>195</v>
+      </c>
+      <c r="H89" s="43" t="n"/>
+      <c r="I89" s="0" t="n"/>
+      <c r="J89" s="22" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="90">
+      <c r="A90" s="52" t="s"/>
+      <c r="B90" s="41" t="s"/>
+      <c r="C90" s="0" t="n"/>
+      <c r="D90" s="0" t="n"/>
+      <c r="E90" s="53" t="s"/>
+      <c r="F90" s="0" t="s">
+        <v>196</v>
+      </c>
+      <c r="G90" s="20" t="s">
+        <v>197</v>
+      </c>
+      <c r="H90" s="43" t="n"/>
+      <c r="I90" s="0" t="n"/>
+      <c r="J90" s="22" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="91">
+      <c r="A91" s="52" t="s"/>
+      <c r="B91" s="41" t="s"/>
+      <c r="C91" s="0" t="n"/>
+      <c r="D91" s="0" t="n"/>
+      <c r="E91" s="53" t="s"/>
+      <c r="F91" s="0" t="s">
+        <v>198</v>
+      </c>
+      <c r="G91" s="20" t="s">
+        <v>199</v>
+      </c>
+      <c r="H91" s="43" t="n"/>
+      <c r="I91" s="0" t="n"/>
+      <c r="J91" s="22" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="92">
+      <c r="A92" s="52" t="s"/>
+      <c r="B92" s="41" t="s"/>
+      <c r="C92" s="67" t="n"/>
+      <c r="D92" s="67" t="n"/>
+      <c r="E92" s="53" t="s"/>
+      <c r="F92" s="20" t="s">
+        <v>200</v>
+      </c>
+      <c r="G92" s="0" t="s">
+        <v>201</v>
+      </c>
+      <c r="H92" s="68" t="n"/>
+      <c r="I92" s="0" t="n"/>
+      <c r="J92" s="22" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="93">
+      <c r="A93" s="52" t="s"/>
+      <c r="B93" s="41" t="s"/>
+      <c r="C93" s="67" t="n"/>
+      <c r="D93" s="67" t="n"/>
+      <c r="E93" s="53" t="s"/>
+      <c r="F93" s="20" t="s">
+        <v>202</v>
+      </c>
+      <c r="G93" s="20" t="s">
+        <v>203</v>
+      </c>
+      <c r="H93" s="66" t="s">
+        <v>204</v>
+      </c>
+      <c r="I93" s="0" t="n"/>
+      <c r="J93" s="22" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="94">
+      <c r="A94" s="52" t="s"/>
+      <c r="B94" s="41" t="s"/>
+      <c r="C94" s="0" t="n"/>
+      <c r="D94" s="0" t="n"/>
+      <c r="E94" s="53" t="s"/>
+      <c r="F94" s="69" t="s">
         <v>185</v>
       </c>
-      <c r="G87" s="20" t="s">
+      <c r="G94" s="20" t="s">
         <v>186</v>
       </c>
-      <c r="H87" s="63" t="s">
-        <v>187</v>
-      </c>
-      <c r="I87" s="18" t="n"/>
-      <c r="J87" s="21" t="n"/>
-    </row>
-    <row outlineLevel="0" r="88">
-      <c r="A88" s="49" t="s"/>
-      <c r="B88" s="38" t="s"/>
-      <c r="C88" s="18" t="n"/>
-      <c r="D88" s="18" t="n"/>
-      <c r="E88" s="50" t="s"/>
-      <c r="F88" s="20" t="s">
-        <v>188</v>
-      </c>
-      <c r="G88" s="18" t="s">
-        <v>189</v>
-      </c>
-      <c r="H88" s="63" t="s">
-        <v>190</v>
-      </c>
-      <c r="I88" s="18" t="n"/>
-      <c r="J88" s="21" t="n"/>
-    </row>
-    <row outlineLevel="0" r="89">
-      <c r="A89" s="49" t="s"/>
-      <c r="B89" s="38" t="s"/>
-      <c r="C89" s="18" t="n"/>
-      <c r="D89" s="18" t="n"/>
-      <c r="E89" s="50" t="s"/>
-      <c r="F89" s="18" t="s">
-        <v>172</v>
-      </c>
-      <c r="G89" s="20" t="s">
-        <v>191</v>
-      </c>
-      <c r="H89" s="40" t="n"/>
-      <c r="I89" s="18" t="n"/>
-      <c r="J89" s="21" t="n"/>
-    </row>
-    <row outlineLevel="0" r="90">
-      <c r="A90" s="49" t="s"/>
-      <c r="B90" s="38" t="s"/>
-      <c r="C90" s="18" t="n"/>
-      <c r="D90" s="18" t="n"/>
-      <c r="E90" s="50" t="s"/>
-      <c r="F90" s="18" t="s">
+      <c r="H94" s="43" t="n"/>
+      <c r="I94" s="0" t="n"/>
+      <c r="J94" s="22" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="95">
+      <c r="A95" s="52" t="s"/>
+      <c r="B95" s="41" t="s"/>
+      <c r="C95" s="0" t="n"/>
+      <c r="D95" s="0" t="n"/>
+      <c r="E95" s="53" t="s"/>
+      <c r="F95" s="0" t="s">
+        <v>205</v>
+      </c>
+      <c r="G95" s="20" t="s">
+        <v>206</v>
+      </c>
+      <c r="H95" s="66" t="n"/>
+      <c r="I95" s="0" t="n"/>
+      <c r="J95" s="22" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="96">
+      <c r="A96" s="52" t="s"/>
+      <c r="B96" s="41" t="s"/>
+      <c r="C96" s="67" t="n"/>
+      <c r="D96" s="67" t="n"/>
+      <c r="E96" s="53" t="s"/>
+      <c r="F96" s="20" t="s">
         <v>192</v>
       </c>
-      <c r="G90" s="20" t="s">
+      <c r="G96" s="0" t="s">
         <v>193</v>
       </c>
-      <c r="H90" s="40" t="n"/>
-      <c r="I90" s="18" t="n"/>
-      <c r="J90" s="21" t="n"/>
-    </row>
-    <row outlineLevel="0" r="91">
-      <c r="A91" s="49" t="s"/>
-      <c r="B91" s="38" t="s"/>
-      <c r="C91" s="18" t="n"/>
-      <c r="D91" s="18" t="n"/>
-      <c r="E91" s="50" t="s"/>
-      <c r="F91" s="18" t="s">
+      <c r="H96" s="66" t="s">
         <v>194</v>
       </c>
-      <c r="G91" s="20" t="s">
-        <v>195</v>
-      </c>
-      <c r="H91" s="40" t="n"/>
-      <c r="I91" s="18" t="n"/>
-      <c r="J91" s="21" t="n"/>
-    </row>
-    <row outlineLevel="0" r="92">
-      <c r="A92" s="49" t="s"/>
-      <c r="B92" s="38" t="s"/>
-      <c r="C92" s="64" t="n"/>
-      <c r="D92" s="64" t="n"/>
-      <c r="E92" s="50" t="s"/>
-      <c r="F92" s="20" t="s">
-        <v>196</v>
-      </c>
-      <c r="G92" s="18" t="s">
-        <v>197</v>
-      </c>
-      <c r="H92" s="65" t="n"/>
-      <c r="I92" s="18" t="n"/>
-      <c r="J92" s="21" t="n"/>
-    </row>
-    <row outlineLevel="0" r="93">
-      <c r="A93" s="49" t="s"/>
-      <c r="B93" s="38" t="s"/>
-      <c r="C93" s="64" t="n"/>
-      <c r="D93" s="64" t="n"/>
-      <c r="E93" s="50" t="s"/>
-      <c r="F93" s="20" t="s">
+      <c r="I96" s="0" t="n"/>
+      <c r="J96" s="22" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="97">
+      <c r="A97" s="52" t="s"/>
+      <c r="B97" s="41" t="s"/>
+      <c r="C97" s="0" t="n"/>
+      <c r="D97" s="0" t="n"/>
+      <c r="E97" s="53" t="s"/>
+      <c r="F97" s="0" t="s">
+        <v>207</v>
+      </c>
+      <c r="G97" s="20" t="s">
+        <v>208</v>
+      </c>
+      <c r="H97" s="43" t="n"/>
+      <c r="I97" s="0" t="n"/>
+      <c r="J97" s="22" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="98">
+      <c r="A98" s="52" t="s"/>
+      <c r="B98" s="70" t="s"/>
+      <c r="C98" s="0" t="n"/>
+      <c r="D98" s="0" t="n"/>
+      <c r="E98" s="53" t="s"/>
+      <c r="F98" s="0" t="s">
         <v>198</v>
       </c>
-      <c r="G93" s="20" t="s">
-        <v>199</v>
-      </c>
-      <c r="H93" s="63" t="s">
-        <v>200</v>
-      </c>
-      <c r="I93" s="18" t="n"/>
-      <c r="J93" s="21" t="n"/>
-    </row>
-    <row outlineLevel="0" r="94">
-      <c r="A94" s="49" t="s"/>
-      <c r="B94" s="38" t="s"/>
-      <c r="C94" s="18" t="n"/>
-      <c r="D94" s="18" t="n"/>
-      <c r="E94" s="50" t="s"/>
-      <c r="F94" s="18" t="s">
-        <v>184</v>
-      </c>
-      <c r="G94" s="20" t="s">
-        <v>181</v>
-      </c>
-      <c r="H94" s="40" t="n"/>
-      <c r="I94" s="18" t="n"/>
-      <c r="J94" s="21" t="n"/>
-    </row>
-    <row outlineLevel="0" r="95">
-      <c r="A95" s="49" t="s"/>
-      <c r="B95" s="38" t="s"/>
-      <c r="C95" s="18" t="n"/>
-      <c r="D95" s="18" t="n"/>
-      <c r="E95" s="50" t="s"/>
-      <c r="F95" s="18" t="s">
-        <v>201</v>
-      </c>
-      <c r="G95" s="20" t="s">
-        <v>202</v>
-      </c>
-      <c r="H95" s="63" t="n"/>
-      <c r="I95" s="18" t="n"/>
-      <c r="J95" s="21" t="n"/>
-    </row>
-    <row outlineLevel="0" r="96">
-      <c r="A96" s="49" t="s"/>
-      <c r="B96" s="38" t="s"/>
-      <c r="C96" s="64" t="n"/>
-      <c r="D96" s="64" t="n"/>
-      <c r="E96" s="50" t="s"/>
-      <c r="F96" s="20" t="s">
-        <v>188</v>
-      </c>
-      <c r="G96" s="18" t="s">
-        <v>189</v>
-      </c>
-      <c r="H96" s="63" t="s">
-        <v>190</v>
-      </c>
-      <c r="I96" s="18" t="n"/>
-      <c r="J96" s="21" t="n"/>
-    </row>
-    <row outlineLevel="0" r="97">
-      <c r="A97" s="49" t="s"/>
-      <c r="B97" s="38" t="s"/>
-      <c r="C97" s="18" t="n"/>
-      <c r="D97" s="18" t="n"/>
-      <c r="E97" s="50" t="s"/>
-      <c r="F97" s="18" t="s">
-        <v>203</v>
-      </c>
-      <c r="G97" s="20" t="s">
-        <v>204</v>
-      </c>
-      <c r="H97" s="40" t="n"/>
-      <c r="I97" s="18" t="n"/>
-      <c r="J97" s="21" t="n"/>
-    </row>
-    <row outlineLevel="0" r="98">
-      <c r="A98" s="49" t="s"/>
-      <c r="B98" s="66" t="s"/>
-      <c r="C98" s="18" t="n"/>
-      <c r="D98" s="18" t="n"/>
-      <c r="E98" s="50" t="s"/>
-      <c r="F98" s="18" t="s">
-        <v>194</v>
-      </c>
       <c r="G98" s="20" t="s">
-        <v>205</v>
-      </c>
-      <c r="H98" s="40" t="n"/>
-      <c r="I98" s="18" t="n"/>
-      <c r="J98" s="21" t="n"/>
+        <v>209</v>
+      </c>
+      <c r="H98" s="43" t="n"/>
+      <c r="I98" s="0" t="n"/>
+      <c r="J98" s="22" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row outlineLevel="0" r="99">
-      <c r="A99" s="51" t="s"/>
-      <c r="B99" s="67" t="n"/>
-      <c r="C99" s="43" t="n"/>
-      <c r="D99" s="43" t="n"/>
-      <c r="E99" s="52" t="s"/>
-      <c r="F99" s="43" t="s">
-        <v>194</v>
-      </c>
-      <c r="G99" s="45" t="s">
-        <v>206</v>
-      </c>
-      <c r="H99" s="46" t="n"/>
-      <c r="I99" s="24" t="n"/>
-      <c r="J99" s="27" t="n"/>
+      <c r="A99" s="54" t="s"/>
+      <c r="B99" s="71" t="n"/>
+      <c r="C99" s="46" t="n"/>
+      <c r="D99" s="46" t="n"/>
+      <c r="E99" s="55" t="s"/>
+      <c r="F99" s="46" t="s">
+        <v>198</v>
+      </c>
+      <c r="G99" s="48" t="s">
+        <v>210</v>
+      </c>
+      <c r="H99" s="49" t="n"/>
+      <c r="I99" s="27" t="n"/>
+      <c r="J99" s="31" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row outlineLevel="0" r="100">
-      <c r="A100" s="47" t="n">
+      <c r="A100" s="50" t="n">
         <v>15</v>
       </c>
       <c r="B100" s="11" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="C100" s="12" t="n"/>
       <c r="D100" s="12" t="n"/>
-      <c r="E100" s="53" t="s">
-        <v>57</v>
+      <c r="E100" s="56" t="s">
+        <v>62</v>
       </c>
       <c r="F100" s="14" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="G100" s="12" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="H100" s="15" t="n"/>
       <c r="I100" s="12" t="n"/>
-      <c r="J100" s="15" t="n"/>
+      <c r="J100" s="16" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row outlineLevel="0" r="101">
-      <c r="A101" s="49" t="s"/>
-      <c r="B101" s="17" t="s"/>
-      <c r="C101" s="18" t="n"/>
-      <c r="D101" s="18" t="n"/>
-      <c r="E101" s="54" t="s"/>
+      <c r="A101" s="52" t="s"/>
+      <c r="B101" s="18" t="s"/>
+      <c r="C101" s="0" t="n"/>
+      <c r="D101" s="0" t="n"/>
+      <c r="E101" s="57" t="s"/>
       <c r="F101" s="20" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="G101" s="20" t="s">
-        <v>210</v>
-      </c>
-      <c r="H101" s="30" t="s">
-        <v>211</v>
-      </c>
-      <c r="I101" s="18" t="n"/>
-      <c r="J101" s="21" t="n"/>
+        <v>214</v>
+      </c>
+      <c r="H101" s="22" t="s">
+        <v>215</v>
+      </c>
+      <c r="I101" s="0" t="n"/>
+      <c r="J101" s="22" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row outlineLevel="0" r="102">
-      <c r="A102" s="49" t="s"/>
-      <c r="B102" s="17" t="s"/>
-      <c r="C102" s="18" t="n"/>
-      <c r="D102" s="18" t="n"/>
-      <c r="E102" s="54" t="s"/>
+      <c r="A102" s="52" t="s"/>
+      <c r="B102" s="18" t="s"/>
+      <c r="C102" s="0" t="n"/>
+      <c r="D102" s="0" t="n"/>
+      <c r="E102" s="57" t="s"/>
       <c r="F102" s="20" t="s">
-        <v>165</v>
+        <v>170</v>
       </c>
       <c r="G102" s="20" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="H102" s="21" t="n"/>
-      <c r="I102" s="18" t="n"/>
-      <c r="J102" s="21" t="n"/>
+      <c r="I102" s="0" t="n"/>
+      <c r="J102" s="22" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row outlineLevel="0" r="103">
-      <c r="A103" s="49" t="s"/>
-      <c r="B103" s="17" t="s"/>
-      <c r="C103" s="18" t="n"/>
-      <c r="D103" s="18" t="n"/>
-      <c r="E103" s="54" t="s"/>
+      <c r="A103" s="52" t="s"/>
+      <c r="B103" s="18" t="s"/>
+      <c r="C103" s="0" t="n"/>
+      <c r="D103" s="0" t="n"/>
+      <c r="E103" s="57" t="s"/>
       <c r="F103" s="20" t="s">
-        <v>212</v>
-      </c>
-      <c r="G103" s="18" t="s">
-        <v>213</v>
+        <v>216</v>
+      </c>
+      <c r="G103" s="0" t="s">
+        <v>217</v>
       </c>
       <c r="H103" s="21" t="n"/>
-      <c r="I103" s="18" t="n"/>
-      <c r="J103" s="21" t="n"/>
+      <c r="I103" s="0" t="n"/>
+      <c r="J103" s="22" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row outlineLevel="0" r="104">
-      <c r="A104" s="49" t="s"/>
-      <c r="B104" s="17" t="s"/>
-      <c r="C104" s="18" t="n"/>
-      <c r="D104" s="18" t="n"/>
-      <c r="E104" s="54" t="s"/>
+      <c r="A104" s="52" t="s"/>
+      <c r="B104" s="18" t="s"/>
+      <c r="C104" s="0" t="n"/>
+      <c r="D104" s="0" t="n"/>
+      <c r="E104" s="57" t="s"/>
       <c r="F104" s="20" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="G104" s="20" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="H104" s="21" t="n"/>
-      <c r="I104" s="18" t="n"/>
-      <c r="J104" s="21" t="n"/>
+      <c r="I104" s="0" t="n"/>
+      <c r="J104" s="22" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row outlineLevel="0" r="105">
-      <c r="A105" s="49" t="s"/>
-      <c r="B105" s="17" t="s"/>
-      <c r="C105" s="18" t="n"/>
-      <c r="D105" s="18" t="n"/>
-      <c r="E105" s="54" t="s"/>
+      <c r="A105" s="52" t="s"/>
+      <c r="B105" s="18" t="s"/>
+      <c r="C105" s="0" t="n"/>
+      <c r="D105" s="0" t="n"/>
+      <c r="E105" s="57" t="s"/>
       <c r="F105" s="20" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="G105" s="20" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="H105" s="21" t="n"/>
-      <c r="I105" s="18" t="n"/>
-      <c r="J105" s="21" t="n"/>
+      <c r="I105" s="0" t="n"/>
+      <c r="J105" s="22" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row outlineLevel="0" r="106">
-      <c r="A106" s="49" t="s"/>
-      <c r="B106" s="17" t="s"/>
-      <c r="C106" s="18" t="n"/>
-      <c r="D106" s="18" t="n"/>
-      <c r="E106" s="54" t="s"/>
-      <c r="F106" s="18" t="s">
+      <c r="A106" s="52" t="s"/>
+      <c r="B106" s="18" t="s"/>
+      <c r="C106" s="0" t="n"/>
+      <c r="D106" s="0" t="n"/>
+      <c r="E106" s="57" t="s"/>
+      <c r="F106" s="72" t="s">
+        <v>131</v>
+      </c>
+      <c r="G106" s="0" t="s">
+        <v>132</v>
+      </c>
+      <c r="H106" s="21" t="n"/>
+      <c r="I106" s="0" t="n"/>
+      <c r="J106" s="22" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="107">
+      <c r="A107" s="52" t="s"/>
+      <c r="B107" s="18" t="s"/>
+      <c r="C107" s="0" t="n"/>
+      <c r="D107" s="0" t="n"/>
+      <c r="E107" s="57" t="s"/>
+      <c r="F107" s="72" t="s">
+        <v>133</v>
+      </c>
+      <c r="G107" s="0" t="s">
+        <v>134</v>
+      </c>
+      <c r="H107" s="21" t="n"/>
+      <c r="I107" s="0" t="n"/>
+      <c r="J107" s="22" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="108">
+      <c r="A108" s="52" t="s"/>
+      <c r="B108" s="18" t="s"/>
+      <c r="C108" s="0" t="n"/>
+      <c r="D108" s="0" t="n"/>
+      <c r="E108" s="57" t="s"/>
+      <c r="F108" s="20" t="s">
+        <v>222</v>
+      </c>
+      <c r="G108" s="20" t="s">
+        <v>223</v>
+      </c>
+      <c r="H108" s="22" t="s">
+        <v>194</v>
+      </c>
+      <c r="I108" s="0" t="n"/>
+      <c r="J108" s="22" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="109">
+      <c r="A109" s="52" t="s"/>
+      <c r="B109" s="18" t="s"/>
+      <c r="C109" s="0" t="n"/>
+      <c r="D109" s="0" t="n"/>
+      <c r="E109" s="57" t="s"/>
+      <c r="F109" s="0" t="s">
+        <v>136</v>
+      </c>
+      <c r="G109" s="20" t="s">
+        <v>224</v>
+      </c>
+      <c r="H109" s="21" t="n"/>
+      <c r="I109" s="0" t="n"/>
+      <c r="J109" s="22" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="110">
+      <c r="A110" s="52" t="s"/>
+      <c r="B110" s="18" t="s"/>
+      <c r="C110" s="0" t="n"/>
+      <c r="D110" s="0" t="n"/>
+      <c r="E110" s="57" t="s"/>
+      <c r="F110" s="0" t="s">
+        <v>177</v>
+      </c>
+      <c r="G110" s="20" t="s">
+        <v>225</v>
+      </c>
+      <c r="H110" s="21" t="n"/>
+      <c r="I110" s="0" t="n"/>
+      <c r="J110" s="22" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="111">
+      <c r="A111" s="52" t="s"/>
+      <c r="B111" s="18" t="s"/>
+      <c r="C111" s="0" t="n"/>
+      <c r="D111" s="0" t="n"/>
+      <c r="E111" s="57" t="s"/>
+      <c r="F111" s="20" t="s">
+        <v>226</v>
+      </c>
+      <c r="G111" s="0" t="s">
+        <v>227</v>
+      </c>
+      <c r="H111" s="21" t="n"/>
+      <c r="I111" s="0" t="n"/>
+      <c r="J111" s="22" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="112">
+      <c r="A112" s="54" t="s"/>
+      <c r="B112" s="26" t="s"/>
+      <c r="C112" s="27" t="n"/>
+      <c r="D112" s="27" t="n"/>
+      <c r="E112" s="58" t="s"/>
+      <c r="F112" s="29" t="s">
+        <v>228</v>
+      </c>
+      <c r="G112" s="29" t="s">
+        <v>229</v>
+      </c>
+      <c r="H112" s="30" t="n"/>
+      <c r="I112" s="27" t="n"/>
+      <c r="J112" s="31" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="113">
+      <c r="A113" s="50" t="n">
+        <v>16</v>
+      </c>
+      <c r="B113" s="73" t="s">
+        <v>149</v>
+      </c>
+      <c r="C113" s="36" t="n"/>
+      <c r="D113" s="36" t="n"/>
+      <c r="E113" s="51" t="s">
+        <v>62</v>
+      </c>
+      <c r="F113" s="38" t="s">
         <v>126</v>
       </c>
-      <c r="G106" s="18" t="s">
-        <v>127</v>
-      </c>
-      <c r="H106" s="21" t="n"/>
-      <c r="I106" s="18" t="n"/>
-      <c r="J106" s="21" t="n"/>
-    </row>
-    <row outlineLevel="0" r="107">
-      <c r="A107" s="49" t="s"/>
-      <c r="B107" s="17" t="s"/>
-      <c r="C107" s="18" t="n"/>
-      <c r="D107" s="18" t="n"/>
-      <c r="E107" s="54" t="s"/>
-      <c r="F107" s="18" t="s">
-        <v>128</v>
-      </c>
-      <c r="G107" s="18" t="s">
-        <v>129</v>
-      </c>
-      <c r="H107" s="21" t="n"/>
-      <c r="I107" s="18" t="n"/>
-      <c r="J107" s="21" t="n"/>
-    </row>
-    <row outlineLevel="0" r="108">
-      <c r="A108" s="49" t="s"/>
-      <c r="B108" s="17" t="s"/>
-      <c r="C108" s="18" t="n"/>
-      <c r="D108" s="18" t="n"/>
-      <c r="E108" s="54" t="s"/>
-      <c r="F108" s="20" t="s">
-        <v>218</v>
-      </c>
-      <c r="G108" s="20" t="s">
-        <v>219</v>
-      </c>
-      <c r="H108" s="30" t="s">
-        <v>190</v>
-      </c>
-      <c r="I108" s="18" t="n"/>
-      <c r="J108" s="21" t="n"/>
-    </row>
-    <row outlineLevel="0" r="109">
-      <c r="A109" s="49" t="s"/>
-      <c r="B109" s="17" t="s"/>
-      <c r="C109" s="18" t="n"/>
-      <c r="D109" s="18" t="n"/>
-      <c r="E109" s="54" t="s"/>
-      <c r="F109" s="18" t="s">
-        <v>131</v>
-      </c>
-      <c r="G109" s="20" t="s">
-        <v>220</v>
-      </c>
-      <c r="H109" s="21" t="n"/>
-      <c r="I109" s="18" t="n"/>
-      <c r="J109" s="21" t="n"/>
-    </row>
-    <row outlineLevel="0" r="110">
-      <c r="A110" s="49" t="s"/>
-      <c r="B110" s="17" t="s"/>
-      <c r="C110" s="18" t="n"/>
-      <c r="D110" s="18" t="n"/>
-      <c r="E110" s="54" t="s"/>
-      <c r="F110" s="18" t="s">
-        <v>172</v>
-      </c>
-      <c r="G110" s="20" t="s">
-        <v>221</v>
-      </c>
-      <c r="H110" s="21" t="n"/>
-      <c r="I110" s="18" t="n"/>
-      <c r="J110" s="21" t="n"/>
-    </row>
-    <row outlineLevel="0" r="111">
-      <c r="A111" s="49" t="s"/>
-      <c r="B111" s="17" t="s"/>
-      <c r="C111" s="18" t="n"/>
-      <c r="D111" s="18" t="n"/>
-      <c r="E111" s="54" t="s"/>
-      <c r="F111" s="20" t="s">
-        <v>222</v>
-      </c>
-      <c r="G111" s="18" t="s">
-        <v>223</v>
-      </c>
-      <c r="H111" s="21" t="n"/>
-      <c r="I111" s="18" t="n"/>
-      <c r="J111" s="21" t="n"/>
-    </row>
-    <row outlineLevel="0" r="112">
-      <c r="A112" s="51" t="s"/>
-      <c r="B112" s="23" t="s"/>
-      <c r="C112" s="24" t="n"/>
-      <c r="D112" s="24" t="n"/>
-      <c r="E112" s="55" t="s"/>
-      <c r="F112" s="26" t="s">
-        <v>224</v>
-      </c>
-      <c r="G112" s="26" t="s">
-        <v>225</v>
-      </c>
-      <c r="H112" s="27" t="n"/>
-      <c r="I112" s="24" t="n"/>
-      <c r="J112" s="27" t="n"/>
-    </row>
-    <row outlineLevel="0" r="113">
-      <c r="A113" s="47" t="n">
-        <v>16</v>
-      </c>
-      <c r="B113" s="68" t="s">
-        <v>144</v>
-      </c>
-      <c r="C113" s="33" t="n"/>
-      <c r="D113" s="33" t="n"/>
-      <c r="E113" s="48" t="s">
-        <v>57</v>
-      </c>
-      <c r="F113" s="35" t="s">
-        <v>121</v>
-      </c>
-      <c r="G113" s="33" t="s">
-        <v>93</v>
-      </c>
-      <c r="H113" s="36" t="n"/>
+      <c r="G113" s="36" t="s">
+        <v>98</v>
+      </c>
+      <c r="H113" s="39" t="n"/>
       <c r="I113" s="12" t="n"/>
-      <c r="J113" s="15" t="n"/>
+      <c r="J113" s="16" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row outlineLevel="0" r="114">
-      <c r="A114" s="49" t="s"/>
-      <c r="B114" s="17" t="s"/>
-      <c r="C114" s="18" t="n"/>
-      <c r="D114" s="18" t="n"/>
-      <c r="E114" s="50" t="s"/>
+      <c r="A114" s="52" t="s"/>
+      <c r="B114" s="18" t="s"/>
+      <c r="C114" s="0" t="n"/>
+      <c r="D114" s="0" t="n"/>
+      <c r="E114" s="53" t="s"/>
       <c r="F114" s="20" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="G114" s="20" t="s">
-        <v>227</v>
-      </c>
-      <c r="H114" s="40" t="n"/>
-      <c r="I114" s="18" t="n"/>
-      <c r="J114" s="21" t="n"/>
+        <v>231</v>
+      </c>
+      <c r="H114" s="43" t="n"/>
+      <c r="I114" s="0" t="n"/>
+      <c r="J114" s="22" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row outlineLevel="0" r="115">
-      <c r="A115" s="49" t="s"/>
-      <c r="B115" s="17" t="s"/>
-      <c r="C115" s="18" t="n"/>
-      <c r="D115" s="18" t="n"/>
-      <c r="E115" s="50" t="s"/>
-      <c r="F115" s="69" t="s">
-        <v>228</v>
-      </c>
-      <c r="G115" s="69" t="s">
-        <v>229</v>
-      </c>
-      <c r="H115" s="40" t="n"/>
-      <c r="I115" s="18" t="n"/>
-      <c r="J115" s="21" t="n"/>
+      <c r="A115" s="52" t="s"/>
+      <c r="B115" s="18" t="s"/>
+      <c r="C115" s="0" t="n"/>
+      <c r="D115" s="0" t="n"/>
+      <c r="E115" s="53" t="s"/>
+      <c r="F115" s="74" t="s">
+        <v>232</v>
+      </c>
+      <c r="G115" s="74" t="s">
+        <v>233</v>
+      </c>
+      <c r="H115" s="75" t="n"/>
+      <c r="I115" s="76" t="n"/>
+      <c r="J115" s="77" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row outlineLevel="0" r="116">
-      <c r="A116" s="51" t="s"/>
-      <c r="B116" s="23" t="s"/>
-      <c r="C116" s="43" t="n"/>
-      <c r="D116" s="43" t="n"/>
-      <c r="E116" s="52" t="s"/>
-      <c r="F116" s="45" t="s">
-        <v>230</v>
-      </c>
-      <c r="G116" s="45" t="s">
-        <v>231</v>
-      </c>
-      <c r="H116" s="46" t="n"/>
-      <c r="I116" s="24" t="n"/>
-      <c r="J116" s="27" t="n"/>
+      <c r="A116" s="54" t="s"/>
+      <c r="B116" s="26" t="s"/>
+      <c r="C116" s="46" t="n"/>
+      <c r="D116" s="46" t="n"/>
+      <c r="E116" s="55" t="s"/>
+      <c r="F116" s="48" t="s">
+        <v>234</v>
+      </c>
+      <c r="G116" s="48" t="s">
+        <v>235</v>
+      </c>
+      <c r="H116" s="49" t="n"/>
+      <c r="I116" s="27" t="n"/>
+      <c r="J116" s="31" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row outlineLevel="0" r="117">
-      <c r="A117" s="47" t="n">
+      <c r="A117" s="50" t="n">
         <v>17</v>
       </c>
       <c r="B117" s="11" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="C117" s="12" t="n"/>
       <c r="D117" s="12" t="n"/>
-      <c r="E117" s="53" t="s">
-        <v>57</v>
-      </c>
-      <c r="F117" s="61" t="s">
-        <v>233</v>
-      </c>
-      <c r="G117" s="62" t="s">
-        <v>166</v>
+      <c r="E117" s="56" t="s">
+        <v>62</v>
+      </c>
+      <c r="F117" s="78" t="s">
+        <v>237</v>
+      </c>
+      <c r="G117" s="64" t="s">
+        <v>171</v>
       </c>
       <c r="H117" s="15" t="n"/>
       <c r="I117" s="12" t="n"/>
-      <c r="J117" s="15" t="n"/>
+      <c r="J117" s="16" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row outlineLevel="0" r="118">
-      <c r="A118" s="49" t="s"/>
-      <c r="B118" s="17" t="s"/>
-      <c r="C118" s="18" t="n"/>
-      <c r="D118" s="18" t="n"/>
-      <c r="E118" s="54" t="s"/>
+      <c r="A118" s="52" t="s"/>
+      <c r="B118" s="18" t="s"/>
+      <c r="C118" s="0" t="n"/>
+      <c r="D118" s="0" t="n"/>
+      <c r="E118" s="57" t="s"/>
       <c r="F118" s="20" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="G118" s="20" t="s">
-        <v>177</v>
+        <v>182</v>
       </c>
       <c r="H118" s="21" t="n"/>
-      <c r="I118" s="18" t="n"/>
-      <c r="J118" s="21" t="n"/>
+      <c r="I118" s="0" t="n"/>
+      <c r="J118" s="22" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row outlineLevel="0" r="119">
-      <c r="A119" s="49" t="s"/>
-      <c r="B119" s="17" t="s"/>
-      <c r="C119" s="18" t="n"/>
-      <c r="D119" s="18" t="n"/>
-      <c r="E119" s="54" t="s"/>
-      <c r="F119" s="18" t="s">
-        <v>185</v>
+      <c r="A119" s="52" t="s"/>
+      <c r="B119" s="18" t="s"/>
+      <c r="C119" s="0" t="n"/>
+      <c r="D119" s="0" t="n"/>
+      <c r="E119" s="57" t="s"/>
+      <c r="F119" s="0" t="s">
+        <v>189</v>
       </c>
       <c r="G119" s="20" t="s">
-        <v>186</v>
-      </c>
-      <c r="H119" s="63" t="s">
-        <v>187</v>
-      </c>
-      <c r="I119" s="18" t="n"/>
-      <c r="J119" s="21" t="n"/>
+        <v>190</v>
+      </c>
+      <c r="H119" s="66" t="s">
+        <v>191</v>
+      </c>
+      <c r="I119" s="0" t="n"/>
+      <c r="J119" s="22" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row outlineLevel="0" r="120">
-      <c r="A120" s="49" t="s"/>
-      <c r="B120" s="17" t="s"/>
-      <c r="C120" s="18" t="n"/>
-      <c r="D120" s="18" t="n"/>
-      <c r="E120" s="54" t="s"/>
+      <c r="A120" s="52" t="s"/>
+      <c r="B120" s="18" t="s"/>
+      <c r="C120" s="0" t="n"/>
+      <c r="D120" s="0" t="n"/>
+      <c r="E120" s="57" t="s"/>
       <c r="F120" s="20" t="s">
+        <v>239</v>
+      </c>
+      <c r="G120" s="20" t="s">
         <v>235</v>
       </c>
-      <c r="G120" s="20" t="s">
-        <v>231</v>
-      </c>
       <c r="H120" s="21" t="n"/>
-      <c r="I120" s="18" t="n"/>
-      <c r="J120" s="21" t="n"/>
+      <c r="I120" s="0" t="n"/>
+      <c r="J120" s="22" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row outlineLevel="0" r="121">
-      <c r="A121" s="49" t="s"/>
-      <c r="B121" s="17" t="s"/>
-      <c r="C121" s="18" t="n"/>
-      <c r="D121" s="18" t="n"/>
-      <c r="E121" s="54" t="s"/>
-      <c r="F121" s="18" t="s">
-        <v>236</v>
+      <c r="A121" s="52" t="s"/>
+      <c r="B121" s="18" t="s"/>
+      <c r="C121" s="0" t="n"/>
+      <c r="D121" s="0" t="n"/>
+      <c r="E121" s="57" t="s"/>
+      <c r="F121" s="0" t="s">
+        <v>240</v>
       </c>
       <c r="G121" s="20" t="s">
-        <v>186</v>
-      </c>
-      <c r="H121" s="63" t="s">
-        <v>187</v>
-      </c>
-      <c r="I121" s="18" t="n"/>
-      <c r="J121" s="21" t="n"/>
+        <v>190</v>
+      </c>
+      <c r="H121" s="66" t="s">
+        <v>191</v>
+      </c>
+      <c r="I121" s="0" t="n"/>
+      <c r="J121" s="22" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row outlineLevel="0" r="122">
-      <c r="A122" s="51" t="s"/>
-      <c r="B122" s="23" t="s"/>
-      <c r="C122" s="24" t="n"/>
-      <c r="D122" s="24" t="n"/>
-      <c r="E122" s="55" t="s"/>
-      <c r="F122" s="70" t="s">
+      <c r="A122" s="54" t="s"/>
+      <c r="B122" s="26" t="s"/>
+      <c r="C122" s="27" t="n"/>
+      <c r="D122" s="27" t="n"/>
+      <c r="E122" s="58" t="s"/>
+      <c r="F122" s="79" t="s">
+        <v>239</v>
+      </c>
+      <c r="G122" s="79" t="s">
         <v>235</v>
       </c>
-      <c r="G122" s="70" t="s">
-        <v>231</v>
-      </c>
-      <c r="H122" s="27" t="n"/>
-      <c r="I122" s="24" t="n"/>
-      <c r="J122" s="27" t="n"/>
+      <c r="H122" s="30" t="n"/>
+      <c r="I122" s="27" t="n"/>
+      <c r="J122" s="31" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row outlineLevel="0" r="123">
-      <c r="A123" s="47" t="n">
+      <c r="A123" s="50" t="n">
         <v>18</v>
       </c>
       <c r="B123" s="11" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="C123" s="12" t="n"/>
       <c r="D123" s="12" t="n"/>
-      <c r="E123" s="53" t="s">
-        <v>57</v>
+      <c r="E123" s="56" t="s">
+        <v>62</v>
       </c>
       <c r="F123" s="14" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="G123" s="12" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="H123" s="15" t="n"/>
       <c r="I123" s="12" t="n"/>
-      <c r="J123" s="15" t="n"/>
+      <c r="J123" s="16" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row outlineLevel="0" r="124">
-      <c r="A124" s="49" t="s"/>
-      <c r="B124" s="17" t="s"/>
-      <c r="C124" s="18" t="n"/>
-      <c r="D124" s="18" t="n"/>
-      <c r="E124" s="54" t="s"/>
+      <c r="A124" s="52" t="s"/>
+      <c r="B124" s="18" t="s"/>
+      <c r="C124" s="0" t="n"/>
+      <c r="D124" s="0" t="n"/>
+      <c r="E124" s="57" t="s"/>
       <c r="F124" s="20" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="G124" s="20" t="s">
-        <v>210</v>
-      </c>
-      <c r="H124" s="30" t="s">
-        <v>211</v>
-      </c>
-      <c r="I124" s="18" t="n"/>
-      <c r="J124" s="21" t="n"/>
+        <v>214</v>
+      </c>
+      <c r="H124" s="22" t="s">
+        <v>215</v>
+      </c>
+      <c r="I124" s="0" t="n"/>
+      <c r="J124" s="22" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row outlineLevel="0" r="125">
-      <c r="A125" s="49" t="s"/>
-      <c r="B125" s="17" t="s"/>
-      <c r="C125" s="18" t="n"/>
-      <c r="D125" s="18" t="n"/>
-      <c r="E125" s="54" t="s"/>
+      <c r="A125" s="52" t="s"/>
+      <c r="B125" s="18" t="s"/>
+      <c r="C125" s="0" t="n"/>
+      <c r="D125" s="0" t="n"/>
+      <c r="E125" s="57" t="s"/>
       <c r="F125" s="20" t="s">
-        <v>165</v>
+        <v>170</v>
       </c>
       <c r="G125" s="20" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="H125" s="21" t="n"/>
-      <c r="I125" s="18" t="n"/>
-      <c r="J125" s="21" t="n"/>
+      <c r="I125" s="0" t="n"/>
+      <c r="J125" s="22" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row outlineLevel="0" r="126">
-      <c r="A126" s="49" t="s"/>
-      <c r="B126" s="17" t="s"/>
-      <c r="C126" s="18" t="n"/>
-      <c r="D126" s="18" t="n"/>
-      <c r="E126" s="54" t="s"/>
+      <c r="A126" s="52" t="s"/>
+      <c r="B126" s="18" t="s"/>
+      <c r="C126" s="0" t="n"/>
+      <c r="D126" s="0" t="n"/>
+      <c r="E126" s="57" t="s"/>
       <c r="F126" s="20" t="s">
-        <v>212</v>
-      </c>
-      <c r="G126" s="18" t="s">
-        <v>213</v>
+        <v>216</v>
+      </c>
+      <c r="G126" s="0" t="s">
+        <v>217</v>
       </c>
       <c r="H126" s="21" t="n"/>
-      <c r="I126" s="18" t="n"/>
-      <c r="J126" s="21" t="n"/>
+      <c r="I126" s="0" t="n"/>
+      <c r="J126" s="22" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row outlineLevel="0" r="127">
-      <c r="A127" s="49" t="s"/>
-      <c r="B127" s="17" t="s"/>
-      <c r="C127" s="18" t="n"/>
-      <c r="D127" s="18" t="n"/>
-      <c r="E127" s="54" t="s"/>
+      <c r="A127" s="52" t="s"/>
+      <c r="B127" s="18" t="s"/>
+      <c r="C127" s="0" t="n"/>
+      <c r="D127" s="0" t="n"/>
+      <c r="E127" s="57" t="s"/>
       <c r="F127" s="20" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="G127" s="20" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="H127" s="21" t="n"/>
-      <c r="I127" s="18" t="n"/>
-      <c r="J127" s="21" t="n"/>
+      <c r="I127" s="0" t="n"/>
+      <c r="J127" s="22" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row outlineLevel="0" r="128">
-      <c r="A128" s="49" t="s"/>
-      <c r="B128" s="17" t="s"/>
-      <c r="C128" s="18" t="n"/>
-      <c r="D128" s="18" t="n"/>
-      <c r="E128" s="54" t="s"/>
-      <c r="F128" s="71" t="s">
-        <v>228</v>
-      </c>
-      <c r="G128" s="71" t="s">
-        <v>229</v>
-      </c>
-      <c r="H128" s="21" t="n"/>
-      <c r="I128" s="18" t="n"/>
-      <c r="J128" s="21" t="n"/>
+      <c r="A128" s="52" t="s"/>
+      <c r="B128" s="18" t="s"/>
+      <c r="C128" s="0" t="n"/>
+      <c r="D128" s="0" t="n"/>
+      <c r="E128" s="57" t="s"/>
+      <c r="F128" s="74" t="s">
+        <v>232</v>
+      </c>
+      <c r="G128" s="74" t="s">
+        <v>233</v>
+      </c>
+      <c r="H128" s="80" t="n"/>
+      <c r="I128" s="76" t="n"/>
+      <c r="J128" s="77" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row outlineLevel="0" r="129">
-      <c r="A129" s="51" t="s"/>
-      <c r="B129" s="23" t="s"/>
-      <c r="C129" s="24" t="n"/>
-      <c r="D129" s="24" t="n"/>
-      <c r="E129" s="55" t="s"/>
-      <c r="F129" s="45" t="s">
-        <v>230</v>
-      </c>
-      <c r="G129" s="45" t="s">
-        <v>231</v>
-      </c>
-      <c r="H129" s="27" t="n"/>
-      <c r="I129" s="24" t="n"/>
-      <c r="J129" s="27" t="n"/>
+      <c r="A129" s="54" t="s"/>
+      <c r="B129" s="26" t="s"/>
+      <c r="C129" s="27" t="n"/>
+      <c r="D129" s="27" t="n"/>
+      <c r="E129" s="58" t="s"/>
+      <c r="F129" s="48" t="s">
+        <v>234</v>
+      </c>
+      <c r="G129" s="48" t="s">
+        <v>235</v>
+      </c>
+      <c r="H129" s="30" t="n"/>
+      <c r="I129" s="27" t="n"/>
+      <c r="J129" s="31" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row outlineLevel="0" r="130">
-      <c r="A130" s="47" t="n">
+      <c r="A130" s="50" t="n">
         <v>19</v>
       </c>
-      <c r="B130" s="32" t="s">
-        <v>239</v>
-      </c>
-      <c r="C130" s="33" t="n"/>
-      <c r="D130" s="33" t="n"/>
-      <c r="E130" s="48" t="s">
-        <v>57</v>
-      </c>
-      <c r="F130" s="35" t="s">
-        <v>240</v>
-      </c>
-      <c r="G130" s="35" t="s">
-        <v>241</v>
-      </c>
-      <c r="H130" s="36" t="n"/>
+      <c r="B130" s="35" t="s">
+        <v>243</v>
+      </c>
+      <c r="C130" s="36" t="n"/>
+      <c r="D130" s="36" t="n"/>
+      <c r="E130" s="51" t="s">
+        <v>62</v>
+      </c>
+      <c r="F130" s="38" t="s">
+        <v>244</v>
+      </c>
+      <c r="G130" s="38" t="s">
+        <v>245</v>
+      </c>
+      <c r="H130" s="39" t="n"/>
       <c r="I130" s="12" t="n"/>
-      <c r="J130" s="15" t="n"/>
+      <c r="J130" s="16" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row outlineLevel="0" r="131">
-      <c r="A131" s="49" t="s"/>
-      <c r="B131" s="38" t="s"/>
-      <c r="C131" s="18" t="n"/>
-      <c r="D131" s="18" t="n"/>
-      <c r="E131" s="50" t="s"/>
+      <c r="A131" s="52" t="s"/>
+      <c r="B131" s="41" t="s"/>
+      <c r="C131" s="0" t="n"/>
+      <c r="D131" s="0" t="n"/>
+      <c r="E131" s="53" t="s"/>
       <c r="F131" s="20" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="G131" s="20" t="s">
-        <v>243</v>
-      </c>
-      <c r="H131" s="40" t="n"/>
-      <c r="I131" s="18" t="n"/>
-      <c r="J131" s="21" t="n"/>
+        <v>247</v>
+      </c>
+      <c r="H131" s="43" t="n"/>
+      <c r="I131" s="0" t="n"/>
+      <c r="J131" s="22" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row outlineLevel="0" r="132">
-      <c r="A132" s="49" t="s"/>
-      <c r="B132" s="38" t="s"/>
-      <c r="C132" s="18" t="n"/>
-      <c r="D132" s="18" t="n"/>
-      <c r="E132" s="50" t="s"/>
+      <c r="A132" s="52" t="s"/>
+      <c r="B132" s="41" t="s"/>
+      <c r="C132" s="0" t="n"/>
+      <c r="D132" s="0" t="n"/>
+      <c r="E132" s="53" t="s"/>
       <c r="F132" s="20" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="G132" s="20" t="s">
-        <v>245</v>
-      </c>
-      <c r="H132" s="40" t="n"/>
-      <c r="I132" s="18" t="n"/>
-      <c r="J132" s="21" t="n"/>
+        <v>249</v>
+      </c>
+      <c r="H132" s="43" t="n"/>
+      <c r="I132" s="0" t="n"/>
+      <c r="J132" s="22" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row outlineLevel="0" r="133">
-      <c r="A133" s="49" t="s"/>
-      <c r="B133" s="38" t="s"/>
-      <c r="C133" s="18" t="n"/>
-      <c r="D133" s="18" t="n"/>
-      <c r="E133" s="50" t="s"/>
-      <c r="F133" s="59" t="s">
-        <v>246</v>
-      </c>
-      <c r="G133" s="59" t="s">
-        <v>247</v>
-      </c>
-      <c r="H133" s="40" t="n"/>
-      <c r="I133" s="18" t="n"/>
-      <c r="J133" s="21" t="n"/>
+      <c r="A133" s="52" t="s"/>
+      <c r="B133" s="41" t="s"/>
+      <c r="C133" s="0" t="n"/>
+      <c r="D133" s="0" t="n"/>
+      <c r="E133" s="53" t="s"/>
+      <c r="F133" s="61" t="s">
+        <v>250</v>
+      </c>
+      <c r="G133" s="61" t="s">
+        <v>251</v>
+      </c>
+      <c r="H133" s="43" t="n"/>
+      <c r="I133" s="0" t="n"/>
+      <c r="J133" s="22" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row outlineLevel="0" r="134">
-      <c r="A134" s="51" t="s"/>
-      <c r="B134" s="42" t="s"/>
-      <c r="C134" s="43" t="n"/>
-      <c r="D134" s="43" t="n"/>
-      <c r="E134" s="52" t="s"/>
-      <c r="F134" s="72" t="s">
-        <v>248</v>
-      </c>
-      <c r="G134" s="72" t="s">
-        <v>249</v>
-      </c>
-      <c r="H134" s="46" t="n"/>
-      <c r="I134" s="24" t="n"/>
-      <c r="J134" s="27" t="n"/>
+      <c r="A134" s="54" t="s"/>
+      <c r="B134" s="45" t="s"/>
+      <c r="C134" s="46" t="n"/>
+      <c r="D134" s="46" t="n"/>
+      <c r="E134" s="55" t="s"/>
+      <c r="F134" s="81" t="s">
+        <v>252</v>
+      </c>
+      <c r="G134" s="81" t="s">
+        <v>253</v>
+      </c>
+      <c r="H134" s="49" t="n"/>
+      <c r="I134" s="27" t="n"/>
+      <c r="J134" s="31" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row outlineLevel="0" r="135">
-      <c r="A135" s="47" t="n">
+      <c r="A135" s="50" t="n">
         <v>20</v>
       </c>
       <c r="B135" s="11" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="C135" s="12" t="n"/>
       <c r="D135" s="12" t="n"/>
-      <c r="E135" s="53" t="s">
-        <v>57</v>
+      <c r="E135" s="56" t="s">
+        <v>62</v>
       </c>
       <c r="F135" s="14" t="s">
+        <v>255</v>
+      </c>
+      <c r="G135" s="14" t="s">
         <v>251</v>
-      </c>
-      <c r="G135" s="14" t="s">
-        <v>247</v>
       </c>
       <c r="H135" s="15" t="n"/>
       <c r="I135" s="12" t="n"/>
-      <c r="J135" s="15" t="n"/>
+      <c r="J135" s="16" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row outlineLevel="0" r="136">
-      <c r="A136" s="49" t="s"/>
-      <c r="B136" s="17" t="s"/>
-      <c r="C136" s="18" t="n"/>
-      <c r="D136" s="18" t="n"/>
-      <c r="E136" s="54" t="s"/>
+      <c r="A136" s="52" t="s"/>
+      <c r="B136" s="18" t="s"/>
+      <c r="C136" s="0" t="n"/>
+      <c r="D136" s="0" t="n"/>
+      <c r="E136" s="57" t="s"/>
       <c r="F136" s="20" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="G136" s="20" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="H136" s="21" t="n"/>
-      <c r="I136" s="18" t="n"/>
-      <c r="J136" s="21" t="n"/>
+      <c r="I136" s="0" t="n"/>
+      <c r="J136" s="22" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row outlineLevel="0" r="137">
-      <c r="A137" s="49" t="s"/>
-      <c r="B137" s="17" t="s"/>
-      <c r="C137" s="18" t="n"/>
-      <c r="D137" s="18" t="n"/>
-      <c r="E137" s="54" t="s"/>
-      <c r="F137" s="73" t="s">
-        <v>254</v>
+      <c r="A137" s="52" t="s"/>
+      <c r="B137" s="18" t="s"/>
+      <c r="C137" s="0" t="n"/>
+      <c r="D137" s="0" t="n"/>
+      <c r="E137" s="57" t="s"/>
+      <c r="F137" s="82" t="s">
+        <v>258</v>
       </c>
       <c r="G137" s="20" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="H137" s="21" t="n"/>
-      <c r="I137" s="18" t="n"/>
-      <c r="J137" s="21" t="n"/>
+      <c r="I137" s="0" t="n"/>
+      <c r="J137" s="22" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row outlineLevel="0" r="138">
-      <c r="A138" s="49" t="s"/>
-      <c r="B138" s="17" t="s"/>
-      <c r="C138" s="18" t="n"/>
-      <c r="D138" s="18" t="n"/>
-      <c r="E138" s="54" t="s"/>
-      <c r="F138" s="59" t="s">
-        <v>256</v>
-      </c>
-      <c r="G138" s="59" t="s">
-        <v>257</v>
+      <c r="A138" s="52" t="s"/>
+      <c r="B138" s="18" t="s"/>
+      <c r="C138" s="0" t="n"/>
+      <c r="D138" s="0" t="n"/>
+      <c r="E138" s="57" t="s"/>
+      <c r="F138" s="83" t="s">
+        <v>260</v>
+      </c>
+      <c r="G138" s="61" t="s">
+        <v>261</v>
       </c>
       <c r="H138" s="21" t="n"/>
-      <c r="I138" s="18" t="n"/>
-      <c r="J138" s="21" t="n"/>
+      <c r="I138" s="0" t="n"/>
+      <c r="J138" s="22" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row outlineLevel="0" r="139">
-      <c r="A139" s="49" t="s"/>
-      <c r="B139" s="17" t="s"/>
-      <c r="C139" s="18" t="n"/>
-      <c r="D139" s="18" t="n"/>
-      <c r="E139" s="54" t="s"/>
-      <c r="F139" s="59" t="s">
-        <v>258</v>
-      </c>
-      <c r="G139" s="59" t="s">
-        <v>259</v>
+      <c r="A139" s="52" t="s"/>
+      <c r="B139" s="18" t="s"/>
+      <c r="C139" s="0" t="n"/>
+      <c r="D139" s="0" t="n"/>
+      <c r="E139" s="57" t="s"/>
+      <c r="F139" s="83" t="s">
+        <v>262</v>
+      </c>
+      <c r="G139" s="61" t="s">
+        <v>263</v>
       </c>
       <c r="H139" s="21" t="n"/>
-      <c r="I139" s="18" t="n"/>
-      <c r="J139" s="21" t="n"/>
+      <c r="I139" s="0" t="n"/>
+      <c r="J139" s="22" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row outlineLevel="0" r="140">
-      <c r="A140" s="49" t="s"/>
-      <c r="B140" s="17" t="s"/>
-      <c r="C140" s="18" t="n"/>
-      <c r="D140" s="18" t="n"/>
-      <c r="E140" s="54" t="s"/>
-      <c r="F140" s="18" t="s">
-        <v>260</v>
-      </c>
-      <c r="G140" s="18" t="s">
-        <v>261</v>
+      <c r="A140" s="52" t="s"/>
+      <c r="B140" s="18" t="s"/>
+      <c r="C140" s="0" t="n"/>
+      <c r="D140" s="0" t="n"/>
+      <c r="E140" s="57" t="s"/>
+      <c r="F140" s="0" t="s">
+        <v>264</v>
+      </c>
+      <c r="G140" s="0" t="s">
+        <v>265</v>
       </c>
       <c r="H140" s="21" t="n"/>
-      <c r="I140" s="18" t="n"/>
-      <c r="J140" s="21" t="n"/>
+      <c r="I140" s="0" t="n"/>
+      <c r="J140" s="22" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row outlineLevel="0" r="141">
-      <c r="A141" s="51" t="s"/>
-      <c r="B141" s="23" t="s"/>
-      <c r="C141" s="24" t="n"/>
-      <c r="D141" s="24" t="n"/>
-      <c r="E141" s="55" t="s"/>
-      <c r="F141" s="24" t="s">
-        <v>262</v>
-      </c>
-      <c r="G141" s="26" t="s">
-        <v>263</v>
-      </c>
-      <c r="H141" s="27" t="n"/>
-      <c r="I141" s="24" t="n"/>
-      <c r="J141" s="27" t="n"/>
+      <c r="A141" s="54" t="s"/>
+      <c r="B141" s="26" t="s"/>
+      <c r="C141" s="27" t="n"/>
+      <c r="D141" s="27" t="n"/>
+      <c r="E141" s="58" t="s"/>
+      <c r="F141" s="27" t="s">
+        <v>266</v>
+      </c>
+      <c r="G141" s="29" t="s">
+        <v>267</v>
+      </c>
+      <c r="H141" s="30" t="n"/>
+      <c r="I141" s="27" t="n"/>
+      <c r="J141" s="31" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row outlineLevel="0" r="142">
-      <c r="A142" s="47" t="n">
+      <c r="A142" s="50" t="n">
         <v>21</v>
       </c>
       <c r="B142" s="11" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="C142" s="12" t="n"/>
       <c r="D142" s="12" t="n"/>
-      <c r="E142" s="53" t="s">
-        <v>57</v>
+      <c r="E142" s="56" t="s">
+        <v>62</v>
       </c>
       <c r="F142" s="14" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="G142" s="12" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="H142" s="15" t="n"/>
       <c r="I142" s="12" t="n"/>
-      <c r="J142" s="15" t="n"/>
+      <c r="J142" s="16" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row outlineLevel="0" r="143">
-      <c r="A143" s="49" t="s"/>
-      <c r="B143" s="17" t="s"/>
-      <c r="C143" s="18" t="n"/>
-      <c r="D143" s="18" t="n"/>
-      <c r="E143" s="54" t="s"/>
+      <c r="A143" s="52" t="s"/>
+      <c r="B143" s="18" t="s"/>
+      <c r="C143" s="0" t="n"/>
+      <c r="D143" s="0" t="n"/>
+      <c r="E143" s="57" t="s"/>
       <c r="F143" s="20" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="G143" s="20" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="H143" s="21" t="n"/>
-      <c r="I143" s="18" t="n"/>
-      <c r="J143" s="21" t="n"/>
+      <c r="I143" s="0" t="n"/>
+      <c r="J143" s="22" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row outlineLevel="0" r="144">
-      <c r="A144" s="49" t="s"/>
-      <c r="B144" s="17" t="s"/>
-      <c r="C144" s="18" t="n"/>
-      <c r="D144" s="18" t="n"/>
-      <c r="E144" s="54" t="s"/>
-      <c r="F144" s="59" t="s">
-        <v>269</v>
-      </c>
-      <c r="G144" s="58" t="s">
-        <v>270</v>
+      <c r="A144" s="52" t="s"/>
+      <c r="B144" s="18" t="s"/>
+      <c r="C144" s="0" t="n"/>
+      <c r="D144" s="0" t="n"/>
+      <c r="E144" s="57" t="s"/>
+      <c r="F144" s="61" t="s">
+        <v>273</v>
+      </c>
+      <c r="G144" s="60" t="s">
+        <v>274</v>
       </c>
       <c r="H144" s="21" t="n"/>
-      <c r="I144" s="18" t="n"/>
-      <c r="J144" s="21" t="n"/>
+      <c r="I144" s="0" t="n"/>
+      <c r="J144" s="22" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row outlineLevel="0" r="145">
-      <c r="A145" s="49" t="s"/>
-      <c r="B145" s="17" t="s"/>
-      <c r="C145" s="18" t="n"/>
-      <c r="D145" s="18" t="n"/>
-      <c r="E145" s="54" t="s"/>
-      <c r="F145" s="59" t="s">
-        <v>271</v>
-      </c>
-      <c r="G145" s="58" t="s">
-        <v>272</v>
+      <c r="A145" s="52" t="s"/>
+      <c r="B145" s="18" t="s"/>
+      <c r="C145" s="0" t="n"/>
+      <c r="D145" s="0" t="n"/>
+      <c r="E145" s="57" t="s"/>
+      <c r="F145" s="61" t="s">
+        <v>275</v>
+      </c>
+      <c r="G145" s="60" t="s">
+        <v>276</v>
       </c>
       <c r="H145" s="21" t="n"/>
-      <c r="I145" s="18" t="n"/>
-      <c r="J145" s="21" t="n"/>
+      <c r="I145" s="0" t="n"/>
+      <c r="J145" s="22" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row outlineLevel="0" r="146">
-      <c r="A146" s="49" t="s"/>
-      <c r="B146" s="17" t="s"/>
-      <c r="C146" s="18" t="n"/>
-      <c r="D146" s="18" t="n"/>
-      <c r="E146" s="54" t="s"/>
+      <c r="A146" s="52" t="s"/>
+      <c r="B146" s="18" t="s"/>
+      <c r="C146" s="0" t="n"/>
+      <c r="D146" s="0" t="n"/>
+      <c r="E146" s="57" t="s"/>
       <c r="F146" s="20" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="G146" s="20" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="H146" s="21" t="n"/>
-      <c r="I146" s="18" t="n"/>
-      <c r="J146" s="21" t="n"/>
+      <c r="I146" s="0" t="n"/>
+      <c r="J146" s="22" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row outlineLevel="0" r="147">
-      <c r="A147" s="49" t="s"/>
-      <c r="B147" s="17" t="s"/>
-      <c r="C147" s="18" t="n"/>
-      <c r="D147" s="18" t="n"/>
-      <c r="E147" s="54" t="s"/>
-      <c r="F147" s="59" t="s">
-        <v>275</v>
-      </c>
-      <c r="G147" s="58" t="s">
-        <v>276</v>
+      <c r="A147" s="52" t="s"/>
+      <c r="B147" s="18" t="s"/>
+      <c r="C147" s="0" t="n"/>
+      <c r="D147" s="0" t="n"/>
+      <c r="E147" s="57" t="s"/>
+      <c r="F147" s="61" t="s">
+        <v>279</v>
+      </c>
+      <c r="G147" s="60" t="s">
+        <v>280</v>
       </c>
       <c r="H147" s="21" t="n"/>
-      <c r="I147" s="18" t="n"/>
-      <c r="J147" s="21" t="n"/>
+      <c r="I147" s="0" t="n"/>
+      <c r="J147" s="22" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row outlineLevel="0" r="148">
-      <c r="A148" s="51" t="s"/>
-      <c r="B148" s="23" t="s"/>
-      <c r="C148" s="24" t="n"/>
-      <c r="D148" s="24" t="n"/>
-      <c r="E148" s="55" t="s"/>
-      <c r="F148" s="74" t="s">
-        <v>277</v>
-      </c>
-      <c r="G148" s="75" t="s">
-        <v>278</v>
-      </c>
-      <c r="H148" s="27" t="n"/>
-      <c r="I148" s="24" t="n"/>
-      <c r="J148" s="27" t="n"/>
+      <c r="A148" s="54" t="s"/>
+      <c r="B148" s="26" t="s"/>
+      <c r="C148" s="27" t="n"/>
+      <c r="D148" s="27" t="n"/>
+      <c r="E148" s="58" t="s"/>
+      <c r="F148" s="84" t="s">
+        <v>281</v>
+      </c>
+      <c r="G148" s="85" t="s">
+        <v>282</v>
+      </c>
+      <c r="H148" s="30" t="n"/>
+      <c r="I148" s="27" t="n"/>
+      <c r="J148" s="31" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row outlineLevel="0" r="149">
-      <c r="A149" s="47" t="n">
+      <c r="A149" s="50" t="n">
         <v>22</v>
       </c>
       <c r="B149" s="11" t="s">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="C149" s="12" t="n"/>
       <c r="D149" s="12" t="n"/>
-      <c r="E149" s="53" t="s">
-        <v>57</v>
+      <c r="E149" s="56" t="s">
+        <v>62</v>
       </c>
       <c r="F149" s="14" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="G149" s="12" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="H149" s="15" t="n"/>
       <c r="I149" s="12" t="n"/>
-      <c r="J149" s="15" t="n"/>
+      <c r="J149" s="16" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row outlineLevel="0" r="150">
-      <c r="A150" s="49" t="s"/>
-      <c r="B150" s="17" t="s"/>
-      <c r="C150" s="18" t="n"/>
-      <c r="D150" s="18" t="n"/>
-      <c r="E150" s="54" t="s"/>
+      <c r="A150" s="52" t="s"/>
+      <c r="B150" s="18" t="s"/>
+      <c r="C150" s="0" t="n"/>
+      <c r="D150" s="0" t="n"/>
+      <c r="E150" s="57" t="s"/>
       <c r="F150" s="20" t="s">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="G150" s="20" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="H150" s="21" t="n"/>
-      <c r="I150" s="18" t="n"/>
-      <c r="J150" s="21" t="n"/>
+      <c r="I150" s="0" t="n"/>
+      <c r="J150" s="22" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row outlineLevel="0" r="151">
-      <c r="A151" s="49" t="s"/>
-      <c r="B151" s="17" t="s"/>
-      <c r="C151" s="18" t="n"/>
-      <c r="D151" s="18" t="n"/>
-      <c r="E151" s="54" t="s"/>
+      <c r="A151" s="52" t="s"/>
+      <c r="B151" s="18" t="s"/>
+      <c r="C151" s="0" t="n"/>
+      <c r="D151" s="0" t="n"/>
+      <c r="E151" s="57" t="s"/>
       <c r="F151" s="20" t="s">
-        <v>254</v>
+        <v>288</v>
       </c>
       <c r="G151" s="20" t="s">
-        <v>284</v>
+        <v>289</v>
       </c>
       <c r="H151" s="21" t="n"/>
-      <c r="I151" s="18" t="n"/>
-      <c r="J151" s="21" t="n"/>
+      <c r="I151" s="0" t="n"/>
+      <c r="J151" s="22" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row outlineLevel="0" r="152">
-      <c r="A152" s="49" t="s"/>
-      <c r="B152" s="17" t="s"/>
-      <c r="C152" s="18" t="n"/>
-      <c r="D152" s="18" t="n"/>
-      <c r="E152" s="54" t="s"/>
-      <c r="F152" s="59" t="s">
-        <v>256</v>
-      </c>
-      <c r="G152" s="59" t="s">
-        <v>257</v>
+      <c r="A152" s="52" t="s"/>
+      <c r="B152" s="18" t="s"/>
+      <c r="C152" s="0" t="n"/>
+      <c r="D152" s="0" t="n"/>
+      <c r="E152" s="57" t="s"/>
+      <c r="F152" s="83" t="s">
+        <v>260</v>
+      </c>
+      <c r="G152" s="61" t="s">
+        <v>261</v>
       </c>
       <c r="H152" s="21" t="n"/>
-      <c r="I152" s="18" t="n"/>
-      <c r="J152" s="21" t="n"/>
+      <c r="I152" s="0" t="n"/>
+      <c r="J152" s="22" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row outlineLevel="0" r="153">
-      <c r="A153" s="49" t="s"/>
-      <c r="B153" s="17" t="s"/>
-      <c r="C153" s="18" t="n"/>
-      <c r="D153" s="18" t="n"/>
-      <c r="E153" s="54" t="s"/>
-      <c r="F153" s="59" t="s">
-        <v>258</v>
-      </c>
-      <c r="G153" s="59" t="s">
-        <v>259</v>
+      <c r="A153" s="52" t="s"/>
+      <c r="B153" s="18" t="s"/>
+      <c r="C153" s="0" t="n"/>
+      <c r="D153" s="0" t="n"/>
+      <c r="E153" s="57" t="s"/>
+      <c r="F153" s="83" t="s">
+        <v>262</v>
+      </c>
+      <c r="G153" s="61" t="s">
+        <v>263</v>
       </c>
       <c r="H153" s="21" t="n"/>
-      <c r="I153" s="18" t="n"/>
-      <c r="J153" s="21" t="n"/>
+      <c r="I153" s="0" t="n"/>
+      <c r="J153" s="22" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row outlineLevel="0" r="154">
-      <c r="A154" s="49" t="s"/>
-      <c r="B154" s="17" t="s"/>
-      <c r="C154" s="18" t="n"/>
-      <c r="D154" s="18" t="n"/>
-      <c r="E154" s="54" t="s"/>
+      <c r="A154" s="52" t="s"/>
+      <c r="B154" s="18" t="s"/>
+      <c r="C154" s="0" t="n"/>
+      <c r="D154" s="0" t="n"/>
+      <c r="E154" s="57" t="s"/>
       <c r="F154" s="20" t="s">
-        <v>285</v>
+        <v>290</v>
       </c>
       <c r="G154" s="20" t="s">
-        <v>286</v>
+        <v>291</v>
       </c>
       <c r="H154" s="21" t="n"/>
-      <c r="I154" s="18" t="n"/>
-      <c r="J154" s="21" t="n"/>
+      <c r="I154" s="0" t="n"/>
+      <c r="J154" s="22" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row outlineLevel="0" r="155">
-      <c r="A155" s="49" t="s"/>
-      <c r="B155" s="17" t="s"/>
-      <c r="C155" s="18" t="n"/>
-      <c r="D155" s="18" t="n"/>
-      <c r="E155" s="54" t="s"/>
+      <c r="A155" s="52" t="s"/>
+      <c r="B155" s="18" t="s"/>
+      <c r="C155" s="0" t="n"/>
+      <c r="D155" s="0" t="n"/>
+      <c r="E155" s="57" t="s"/>
       <c r="F155" s="20" t="s">
-        <v>287</v>
+        <v>292</v>
       </c>
       <c r="G155" s="20" t="s">
-        <v>288</v>
+        <v>293</v>
       </c>
       <c r="H155" s="21" t="n"/>
-      <c r="I155" s="18" t="n"/>
-      <c r="J155" s="21" t="n"/>
+      <c r="I155" s="0" t="n"/>
+      <c r="J155" s="22" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row outlineLevel="0" r="156">
-      <c r="A156" s="49" t="s"/>
-      <c r="B156" s="17" t="s"/>
-      <c r="C156" s="18" t="n"/>
-      <c r="D156" s="18" t="n"/>
-      <c r="E156" s="54" t="s"/>
-      <c r="F156" s="18" t="s">
-        <v>135</v>
+      <c r="A156" s="52" t="s"/>
+      <c r="B156" s="18" t="s"/>
+      <c r="C156" s="0" t="n"/>
+      <c r="D156" s="0" t="n"/>
+      <c r="E156" s="57" t="s"/>
+      <c r="F156" s="0" t="s">
+        <v>140</v>
       </c>
       <c r="G156" s="20" t="s">
-        <v>289</v>
+        <v>294</v>
       </c>
       <c r="H156" s="21" t="n"/>
-      <c r="I156" s="18" t="n"/>
-      <c r="J156" s="21" t="n"/>
+      <c r="I156" s="0" t="n"/>
+      <c r="J156" s="22" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row outlineLevel="0" r="157">
-      <c r="A157" s="51" t="s"/>
-      <c r="B157" s="23" t="s"/>
-      <c r="C157" s="24" t="n"/>
-      <c r="D157" s="24" t="n"/>
-      <c r="E157" s="55" t="s"/>
-      <c r="F157" s="24" t="s">
-        <v>290</v>
-      </c>
-      <c r="G157" s="26" t="s">
-        <v>291</v>
-      </c>
-      <c r="H157" s="27" t="n"/>
-      <c r="I157" s="24" t="n"/>
-      <c r="J157" s="27" t="n"/>
+      <c r="A157" s="54" t="s"/>
+      <c r="B157" s="26" t="s"/>
+      <c r="C157" s="27" t="n"/>
+      <c r="D157" s="27" t="n"/>
+      <c r="E157" s="58" t="s"/>
+      <c r="F157" s="27" t="s">
+        <v>295</v>
+      </c>
+      <c r="G157" s="29" t="s">
+        <v>296</v>
+      </c>
+      <c r="H157" s="30" t="n"/>
+      <c r="I157" s="27" t="n"/>
+      <c r="J157" s="31" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row outlineLevel="0" r="158">
-      <c r="A158" s="47" t="n">
+      <c r="A158" s="50" t="n">
         <v>23</v>
       </c>
       <c r="B158" s="11" t="s">
-        <v>292</v>
+        <v>297</v>
       </c>
       <c r="C158" s="12" t="n"/>
       <c r="D158" s="12" t="n"/>
-      <c r="E158" s="53" t="s">
-        <v>57</v>
+      <c r="E158" s="56" t="s">
+        <v>62</v>
       </c>
       <c r="F158" s="14" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="G158" s="14" t="s">
-        <v>293</v>
+        <v>298</v>
       </c>
       <c r="H158" s="15" t="n"/>
       <c r="I158" s="12" t="n"/>
-      <c r="J158" s="15" t="n"/>
+      <c r="J158" s="16" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row outlineLevel="0" r="159">
-      <c r="A159" s="49" t="s"/>
-      <c r="B159" s="17" t="s"/>
-      <c r="C159" s="18" t="n"/>
-      <c r="D159" s="18" t="n"/>
-      <c r="E159" s="54" t="s"/>
+      <c r="A159" s="52" t="s"/>
+      <c r="B159" s="18" t="s"/>
+      <c r="C159" s="0" t="n"/>
+      <c r="D159" s="0" t="n"/>
+      <c r="E159" s="57" t="s"/>
       <c r="F159" s="20" t="s">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="G159" s="20" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="H159" s="21" t="n"/>
-      <c r="I159" s="18" t="n"/>
-      <c r="J159" s="21" t="n"/>
+      <c r="I159" s="0" t="n"/>
+      <c r="J159" s="22" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row outlineLevel="0" r="160">
-      <c r="A160" s="49" t="s"/>
-      <c r="B160" s="17" t="s"/>
-      <c r="C160" s="18" t="n"/>
-      <c r="D160" s="18" t="n"/>
-      <c r="E160" s="54" t="s"/>
+      <c r="A160" s="52" t="s"/>
+      <c r="B160" s="18" t="s"/>
+      <c r="C160" s="0" t="n"/>
+      <c r="D160" s="0" t="n"/>
+      <c r="E160" s="57" t="s"/>
       <c r="F160" s="20" t="s">
-        <v>294</v>
+        <v>299</v>
       </c>
       <c r="G160" s="20" t="s">
-        <v>284</v>
+        <v>289</v>
       </c>
       <c r="H160" s="21" t="n"/>
-      <c r="I160" s="18" t="n"/>
-      <c r="J160" s="21" t="n"/>
+      <c r="I160" s="0" t="n"/>
+      <c r="J160" s="22" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row outlineLevel="0" r="161">
-      <c r="A161" s="49" t="s"/>
-      <c r="B161" s="17" t="s"/>
-      <c r="C161" s="18" t="n"/>
-      <c r="D161" s="18" t="n"/>
-      <c r="E161" s="54" t="s"/>
-      <c r="F161" s="59" t="s">
-        <v>295</v>
-      </c>
-      <c r="G161" s="59" t="s">
-        <v>296</v>
+      <c r="A161" s="52" t="s"/>
+      <c r="B161" s="18" t="s"/>
+      <c r="C161" s="0" t="n"/>
+      <c r="D161" s="0" t="n"/>
+      <c r="E161" s="57" t="s"/>
+      <c r="F161" s="61" t="s">
+        <v>300</v>
+      </c>
+      <c r="G161" s="61" t="s">
+        <v>301</v>
       </c>
       <c r="H161" s="21" t="n"/>
-      <c r="I161" s="18" t="n"/>
-      <c r="J161" s="21" t="n"/>
+      <c r="I161" s="0" t="n"/>
+      <c r="J161" s="22" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row outlineLevel="0" r="162">
-      <c r="A162" s="49" t="s"/>
-      <c r="B162" s="17" t="s"/>
-      <c r="C162" s="18" t="n"/>
-      <c r="D162" s="18" t="n"/>
-      <c r="E162" s="54" t="s"/>
-      <c r="F162" s="18" t="s">
-        <v>297</v>
+      <c r="A162" s="52" t="s"/>
+      <c r="B162" s="18" t="s"/>
+      <c r="C162" s="0" t="n"/>
+      <c r="D162" s="0" t="n"/>
+      <c r="E162" s="57" t="s"/>
+      <c r="F162" s="0" t="s">
+        <v>302</v>
       </c>
       <c r="G162" s="20" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="H162" s="21" t="n"/>
-      <c r="I162" s="18" t="n"/>
-      <c r="J162" s="21" t="n"/>
+      <c r="I162" s="0" t="n"/>
+      <c r="J162" s="22" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row outlineLevel="0" r="163">
-      <c r="A163" s="49" t="s"/>
-      <c r="B163" s="17" t="s"/>
-      <c r="C163" s="18" t="n"/>
-      <c r="D163" s="18" t="n"/>
-      <c r="E163" s="54" t="s"/>
-      <c r="F163" s="18" t="s">
-        <v>128</v>
+      <c r="A163" s="52" t="s"/>
+      <c r="B163" s="18" t="s"/>
+      <c r="C163" s="0" t="n"/>
+      <c r="D163" s="0" t="n"/>
+      <c r="E163" s="57" t="s"/>
+      <c r="F163" s="0" t="s">
+        <v>133</v>
       </c>
       <c r="G163" s="20" t="s">
-        <v>298</v>
+        <v>303</v>
       </c>
       <c r="H163" s="21" t="n"/>
-      <c r="I163" s="18" t="n"/>
-      <c r="J163" s="21" t="n"/>
+      <c r="I163" s="0" t="n"/>
+      <c r="J163" s="22" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row outlineLevel="0" r="164">
-      <c r="A164" s="49" t="s"/>
-      <c r="B164" s="17" t="s"/>
-      <c r="C164" s="18" t="n"/>
-      <c r="D164" s="18" t="n"/>
-      <c r="E164" s="54" t="s"/>
-      <c r="F164" s="59" t="s">
-        <v>299</v>
-      </c>
-      <c r="G164" s="58" t="s">
-        <v>300</v>
+      <c r="A164" s="52" t="s"/>
+      <c r="B164" s="18" t="s"/>
+      <c r="C164" s="0" t="n"/>
+      <c r="D164" s="0" t="n"/>
+      <c r="E164" s="57" t="s"/>
+      <c r="F164" s="61" t="s">
+        <v>304</v>
+      </c>
+      <c r="G164" s="60" t="s">
+        <v>305</v>
       </c>
       <c r="H164" s="21" t="n"/>
-      <c r="I164" s="18" t="n"/>
-      <c r="J164" s="21" t="n"/>
+      <c r="I164" s="0" t="n"/>
+      <c r="J164" s="22" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row outlineLevel="0" r="165">
-      <c r="A165" s="49" t="s"/>
-      <c r="B165" s="17" t="s"/>
-      <c r="C165" s="18" t="n"/>
-      <c r="D165" s="18" t="n"/>
-      <c r="E165" s="54" t="s"/>
-      <c r="F165" s="76" t="s">
-        <v>301</v>
-      </c>
-      <c r="G165" s="76" t="s">
-        <v>302</v>
-      </c>
-      <c r="H165" s="77" t="s">
-        <v>303</v>
-      </c>
-      <c r="I165" s="18" t="n"/>
-      <c r="J165" s="21" t="n"/>
+      <c r="A165" s="52" t="s"/>
+      <c r="B165" s="18" t="s"/>
+      <c r="C165" s="0" t="n"/>
+      <c r="D165" s="0" t="n"/>
+      <c r="E165" s="57" t="s"/>
+      <c r="F165" s="86" t="s">
+        <v>306</v>
+      </c>
+      <c r="G165" s="86" t="s">
+        <v>307</v>
+      </c>
+      <c r="H165" s="87" t="s">
+        <v>308</v>
+      </c>
+      <c r="I165" s="0" t="n"/>
+      <c r="J165" s="22" t="s">
+        <v>309</v>
+      </c>
     </row>
     <row outlineLevel="0" r="166">
-      <c r="A166" s="49" t="s"/>
-      <c r="B166" s="17" t="s"/>
-      <c r="C166" s="18" t="n"/>
-      <c r="D166" s="18" t="n"/>
-      <c r="E166" s="54" t="s"/>
-      <c r="F166" s="18" t="s">
-        <v>118</v>
-      </c>
-      <c r="G166" s="18" t="s">
-        <v>304</v>
+      <c r="A166" s="52" t="s"/>
+      <c r="B166" s="18" t="s"/>
+      <c r="C166" s="0" t="n"/>
+      <c r="D166" s="0" t="n"/>
+      <c r="E166" s="57" t="s"/>
+      <c r="F166" s="0" t="s">
+        <v>123</v>
+      </c>
+      <c r="G166" s="0" t="s">
+        <v>310</v>
       </c>
       <c r="H166" s="21" t="n"/>
-      <c r="I166" s="18" t="n"/>
-      <c r="J166" s="21" t="n"/>
+      <c r="I166" s="0" t="n"/>
+      <c r="J166" s="22" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row outlineLevel="0" r="167">
-      <c r="A167" s="51" t="s"/>
-      <c r="B167" s="23" t="s"/>
-      <c r="C167" s="24" t="n"/>
-      <c r="D167" s="24" t="n"/>
-      <c r="E167" s="55" t="s"/>
-      <c r="F167" s="26" t="s">
-        <v>305</v>
-      </c>
-      <c r="G167" s="26" t="s">
-        <v>306</v>
-      </c>
-      <c r="H167" s="27" t="n"/>
-      <c r="I167" s="24" t="n"/>
-      <c r="J167" s="27" t="n"/>
+      <c r="A167" s="54" t="s"/>
+      <c r="B167" s="26" t="s"/>
+      <c r="C167" s="27" t="n"/>
+      <c r="D167" s="27" t="n"/>
+      <c r="E167" s="58" t="s"/>
+      <c r="F167" s="29" t="s">
+        <v>311</v>
+      </c>
+      <c r="G167" s="29" t="s">
+        <v>312</v>
+      </c>
+      <c r="H167" s="30" t="n"/>
+      <c r="I167" s="27" t="n"/>
+      <c r="J167" s="31" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row outlineLevel="0" r="168">
-      <c r="A168" s="47" t="n">
+      <c r="A168" s="50" t="n">
         <v>24</v>
       </c>
       <c r="B168" s="11" t="s">
-        <v>307</v>
+        <v>313</v>
       </c>
       <c r="C168" s="12" t="n"/>
       <c r="D168" s="12" t="n"/>
-      <c r="E168" s="53" t="s">
-        <v>57</v>
+      <c r="E168" s="56" t="s">
+        <v>62</v>
       </c>
       <c r="F168" s="14" t="s">
-        <v>308</v>
+        <v>314</v>
       </c>
       <c r="G168" s="14" t="s">
-        <v>309</v>
+        <v>315</v>
       </c>
       <c r="H168" s="15" t="n"/>
       <c r="I168" s="12" t="n"/>
-      <c r="J168" s="15" t="n"/>
+      <c r="J168" s="16" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row outlineLevel="0" r="169">
-      <c r="A169" s="49" t="s"/>
-      <c r="B169" s="17" t="s"/>
-      <c r="C169" s="18" t="n"/>
-      <c r="D169" s="18" t="n"/>
-      <c r="E169" s="54" t="s"/>
+      <c r="A169" s="52" t="s"/>
+      <c r="B169" s="18" t="s"/>
+      <c r="C169" s="0" t="n"/>
+      <c r="D169" s="0" t="n"/>
+      <c r="E169" s="57" t="s"/>
       <c r="F169" s="20" t="s">
-        <v>310</v>
+        <v>316</v>
       </c>
       <c r="G169" s="20" t="s">
-        <v>311</v>
+        <v>317</v>
       </c>
       <c r="H169" s="21" t="n"/>
-      <c r="I169" s="18" t="n"/>
-      <c r="J169" s="21" t="n"/>
+      <c r="I169" s="0" t="n"/>
+      <c r="J169" s="22" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row outlineLevel="0" r="170">
-      <c r="A170" s="49" t="s"/>
-      <c r="B170" s="17" t="s"/>
-      <c r="C170" s="18" t="n"/>
-      <c r="D170" s="18" t="n"/>
-      <c r="E170" s="54" t="s"/>
-      <c r="F170" s="59" t="s">
-        <v>312</v>
-      </c>
-      <c r="G170" s="59" t="s">
-        <v>136</v>
+      <c r="A170" s="52" t="s"/>
+      <c r="B170" s="18" t="s"/>
+      <c r="C170" s="0" t="n"/>
+      <c r="D170" s="0" t="n"/>
+      <c r="E170" s="57" t="s"/>
+      <c r="F170" s="61" t="s">
+        <v>318</v>
+      </c>
+      <c r="G170" s="61" t="s">
+        <v>141</v>
       </c>
       <c r="H170" s="21" t="n"/>
-      <c r="I170" s="18" t="n"/>
-      <c r="J170" s="21" t="n"/>
+      <c r="I170" s="0" t="n"/>
+      <c r="J170" s="22" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row outlineLevel="0" r="171">
-      <c r="A171" s="51" t="s"/>
-      <c r="B171" s="23" t="s"/>
-      <c r="C171" s="24" t="n"/>
-      <c r="D171" s="24" t="n"/>
-      <c r="E171" s="55" t="s"/>
-      <c r="F171" s="26" t="s">
-        <v>313</v>
-      </c>
-      <c r="G171" s="26" t="s">
-        <v>314</v>
-      </c>
-      <c r="H171" s="27" t="n"/>
-      <c r="I171" s="24" t="n"/>
-      <c r="J171" s="27" t="n"/>
+      <c r="A171" s="54" t="s"/>
+      <c r="B171" s="26" t="s"/>
+      <c r="C171" s="27" t="n"/>
+      <c r="D171" s="27" t="n"/>
+      <c r="E171" s="58" t="s"/>
+      <c r="F171" s="29" t="s">
+        <v>319</v>
+      </c>
+      <c r="G171" s="29" t="s">
+        <v>320</v>
+      </c>
+      <c r="H171" s="30" t="n"/>
+      <c r="I171" s="27" t="n"/>
+      <c r="J171" s="31" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row outlineLevel="0" r="172">
-      <c r="A172" s="47" t="n">
+      <c r="A172" s="50" t="n">
         <v>25</v>
       </c>
       <c r="B172" s="11" t="s">
-        <v>315</v>
+        <v>321</v>
       </c>
       <c r="C172" s="12" t="n"/>
       <c r="D172" s="12" t="n"/>
-      <c r="E172" s="53" t="s">
-        <v>57</v>
+      <c r="E172" s="56" t="s">
+        <v>62</v>
       </c>
       <c r="F172" s="14" t="s">
-        <v>316</v>
+        <v>322</v>
       </c>
       <c r="G172" s="12" t="s">
-        <v>317</v>
+        <v>323</v>
       </c>
       <c r="H172" s="15" t="n"/>
       <c r="I172" s="12" t="n"/>
-      <c r="J172" s="15" t="n"/>
+      <c r="J172" s="16" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row outlineLevel="0" r="173">
-      <c r="A173" s="49" t="s"/>
-      <c r="B173" s="17" t="s"/>
-      <c r="C173" s="18" t="n"/>
-      <c r="D173" s="18" t="n"/>
-      <c r="E173" s="54" t="s"/>
+      <c r="A173" s="52" t="s"/>
+      <c r="B173" s="18" t="s"/>
+      <c r="C173" s="0" t="n"/>
+      <c r="D173" s="0" t="n"/>
+      <c r="E173" s="57" t="s"/>
       <c r="F173" s="20" t="s">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="G173" s="20" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="H173" s="21" t="n"/>
-      <c r="I173" s="18" t="n"/>
-      <c r="J173" s="21" t="n"/>
+      <c r="I173" s="0" t="n"/>
+      <c r="J173" s="22" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row outlineLevel="0" r="174">
-      <c r="A174" s="49" t="s"/>
-      <c r="B174" s="17" t="s"/>
-      <c r="C174" s="18" t="n"/>
-      <c r="D174" s="18" t="n"/>
-      <c r="E174" s="54" t="s"/>
+      <c r="A174" s="52" t="s"/>
+      <c r="B174" s="18" t="s"/>
+      <c r="C174" s="0" t="n"/>
+      <c r="D174" s="0" t="n"/>
+      <c r="E174" s="57" t="s"/>
       <c r="F174" s="20" t="s">
-        <v>294</v>
+        <v>299</v>
       </c>
       <c r="G174" s="20" t="s">
-        <v>284</v>
+        <v>289</v>
       </c>
       <c r="H174" s="21" t="n"/>
-      <c r="I174" s="18" t="n"/>
-      <c r="J174" s="21" t="n"/>
+      <c r="I174" s="0" t="n"/>
+      <c r="J174" s="22" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row outlineLevel="0" r="175">
-      <c r="A175" s="49" t="s"/>
-      <c r="B175" s="17" t="s"/>
-      <c r="C175" s="18" t="n"/>
-      <c r="D175" s="18" t="n"/>
-      <c r="E175" s="54" t="s"/>
-      <c r="F175" s="59" t="s">
-        <v>295</v>
-      </c>
-      <c r="G175" s="59" t="s">
-        <v>296</v>
+      <c r="A175" s="52" t="s"/>
+      <c r="B175" s="18" t="s"/>
+      <c r="C175" s="0" t="n"/>
+      <c r="D175" s="0" t="n"/>
+      <c r="E175" s="57" t="s"/>
+      <c r="F175" s="61" t="s">
+        <v>300</v>
+      </c>
+      <c r="G175" s="61" t="s">
+        <v>301</v>
       </c>
       <c r="H175" s="21" t="n"/>
-      <c r="I175" s="18" t="n"/>
-      <c r="J175" s="21" t="n"/>
+      <c r="I175" s="0" t="n"/>
+      <c r="J175" s="22" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row outlineLevel="0" r="176">
-      <c r="A176" s="49" t="s"/>
-      <c r="B176" s="17" t="s"/>
-      <c r="C176" s="18" t="n"/>
-      <c r="D176" s="18" t="n"/>
-      <c r="E176" s="54" t="s"/>
-      <c r="F176" s="58" t="s">
-        <v>297</v>
-      </c>
-      <c r="G176" s="59" t="s">
-        <v>259</v>
+      <c r="A176" s="52" t="s"/>
+      <c r="B176" s="18" t="s"/>
+      <c r="C176" s="0" t="n"/>
+      <c r="D176" s="0" t="n"/>
+      <c r="E176" s="57" t="s"/>
+      <c r="F176" s="88" t="s">
+        <v>302</v>
+      </c>
+      <c r="G176" s="61" t="s">
+        <v>263</v>
       </c>
       <c r="H176" s="21" t="n"/>
-      <c r="I176" s="18" t="n"/>
-      <c r="J176" s="21" t="n"/>
+      <c r="I176" s="0" t="n"/>
+      <c r="J176" s="22" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row outlineLevel="0" r="177">
-      <c r="A177" s="49" t="s"/>
-      <c r="B177" s="17" t="s"/>
-      <c r="C177" s="18" t="n"/>
-      <c r="D177" s="18" t="n"/>
-      <c r="E177" s="54" t="s"/>
-      <c r="F177" s="58" t="s">
-        <v>128</v>
-      </c>
-      <c r="G177" s="59" t="s">
-        <v>298</v>
+      <c r="A177" s="52" t="s"/>
+      <c r="B177" s="18" t="s"/>
+      <c r="C177" s="0" t="n"/>
+      <c r="D177" s="0" t="n"/>
+      <c r="E177" s="57" t="s"/>
+      <c r="F177" s="72" t="s">
+        <v>133</v>
+      </c>
+      <c r="G177" s="61" t="s">
+        <v>303</v>
       </c>
       <c r="H177" s="21" t="n"/>
-      <c r="I177" s="18" t="n"/>
-      <c r="J177" s="21" t="n"/>
+      <c r="I177" s="0" t="n"/>
+      <c r="J177" s="22" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row outlineLevel="0" r="178">
-      <c r="A178" s="49" t="s"/>
-      <c r="B178" s="17" t="s"/>
-      <c r="C178" s="18" t="n"/>
-      <c r="D178" s="18" t="n"/>
-      <c r="E178" s="54" t="s"/>
-      <c r="F178" s="59" t="s">
-        <v>299</v>
-      </c>
-      <c r="G178" s="58" t="s">
-        <v>300</v>
+      <c r="A178" s="52" t="s"/>
+      <c r="B178" s="18" t="s"/>
+      <c r="C178" s="0" t="n"/>
+      <c r="D178" s="0" t="n"/>
+      <c r="E178" s="57" t="s"/>
+      <c r="F178" s="61" t="s">
+        <v>304</v>
+      </c>
+      <c r="G178" s="60" t="s">
+        <v>305</v>
       </c>
       <c r="H178" s="21" t="n"/>
-      <c r="I178" s="18" t="n"/>
-      <c r="J178" s="21" t="n"/>
+      <c r="I178" s="0" t="n"/>
+      <c r="J178" s="22" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row outlineLevel="0" r="179">
-      <c r="A179" s="49" t="s"/>
-      <c r="B179" s="17" t="s"/>
-      <c r="C179" s="18" t="n"/>
-      <c r="D179" s="18" t="n"/>
-      <c r="E179" s="54" t="s"/>
-      <c r="F179" s="59" t="s">
-        <v>318</v>
-      </c>
-      <c r="G179" s="58" t="s">
-        <v>319</v>
+      <c r="A179" s="52" t="s"/>
+      <c r="B179" s="18" t="s"/>
+      <c r="C179" s="0" t="n"/>
+      <c r="D179" s="0" t="n"/>
+      <c r="E179" s="57" t="s"/>
+      <c r="F179" s="61" t="s">
+        <v>324</v>
+      </c>
+      <c r="G179" s="60" t="s">
+        <v>325</v>
       </c>
       <c r="H179" s="21" t="n"/>
-      <c r="I179" s="18" t="n"/>
-      <c r="J179" s="21" t="n"/>
+      <c r="I179" s="0" t="n"/>
+      <c r="J179" s="22" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row outlineLevel="0" r="180">
-      <c r="A180" s="49" t="s"/>
-      <c r="B180" s="17" t="s"/>
-      <c r="C180" s="18" t="n"/>
-      <c r="D180" s="18" t="n"/>
-      <c r="E180" s="54" t="s"/>
-      <c r="F180" s="18" t="s">
-        <v>118</v>
-      </c>
-      <c r="G180" s="18" t="s">
-        <v>304</v>
+      <c r="A180" s="52" t="s"/>
+      <c r="B180" s="18" t="s"/>
+      <c r="C180" s="0" t="n"/>
+      <c r="D180" s="0" t="n"/>
+      <c r="E180" s="57" t="s"/>
+      <c r="F180" s="0" t="s">
+        <v>123</v>
+      </c>
+      <c r="G180" s="0" t="s">
+        <v>310</v>
       </c>
       <c r="H180" s="21" t="n"/>
-      <c r="I180" s="18" t="n"/>
-      <c r="J180" s="21" t="n"/>
+      <c r="I180" s="0" t="n"/>
+      <c r="J180" s="22" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row outlineLevel="0" r="181">
-      <c r="A181" s="51" t="s"/>
-      <c r="B181" s="23" t="s"/>
-      <c r="C181" s="24" t="n"/>
-      <c r="D181" s="24" t="n"/>
-      <c r="E181" s="55" t="s"/>
-      <c r="F181" s="26" t="s">
-        <v>305</v>
-      </c>
-      <c r="G181" s="26" t="s">
-        <v>306</v>
-      </c>
-      <c r="H181" s="27" t="n"/>
-      <c r="I181" s="24" t="n"/>
-      <c r="J181" s="27" t="n"/>
+      <c r="A181" s="54" t="s"/>
+      <c r="B181" s="26" t="s"/>
+      <c r="C181" s="27" t="n"/>
+      <c r="D181" s="27" t="n"/>
+      <c r="E181" s="58" t="s"/>
+      <c r="F181" s="29" t="s">
+        <v>311</v>
+      </c>
+      <c r="G181" s="29" t="s">
+        <v>312</v>
+      </c>
+      <c r="H181" s="30" t="n"/>
+      <c r="I181" s="27" t="n"/>
+      <c r="J181" s="31" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row outlineLevel="0" r="182">
-      <c r="A182" s="47" t="n">
+      <c r="A182" s="50" t="n">
         <v>26</v>
       </c>
       <c r="B182" s="11" t="s">
-        <v>320</v>
+        <v>326</v>
       </c>
       <c r="C182" s="12" t="n"/>
       <c r="D182" s="12" t="n"/>
-      <c r="E182" s="53" t="s">
-        <v>57</v>
+      <c r="E182" s="56" t="s">
+        <v>62</v>
       </c>
       <c r="F182" s="14" t="s">
-        <v>321</v>
+        <v>327</v>
       </c>
       <c r="G182" s="14" t="s">
-        <v>304</v>
+        <v>310</v>
       </c>
       <c r="H182" s="15" t="n"/>
       <c r="I182" s="12" t="n"/>
-      <c r="J182" s="15" t="n"/>
+      <c r="J182" s="16" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row outlineLevel="0" r="183">
-      <c r="A183" s="49" t="s"/>
-      <c r="B183" s="17" t="s"/>
-      <c r="C183" s="18" t="n"/>
-      <c r="D183" s="18" t="n"/>
-      <c r="E183" s="54" t="s"/>
+      <c r="A183" s="52" t="s"/>
+      <c r="B183" s="18" t="s"/>
+      <c r="C183" s="0" t="n"/>
+      <c r="D183" s="0" t="n"/>
+      <c r="E183" s="57" t="s"/>
       <c r="F183" s="20" t="s">
-        <v>322</v>
+        <v>328</v>
       </c>
       <c r="G183" s="20" t="s">
-        <v>323</v>
+        <v>329</v>
       </c>
       <c r="H183" s="21" t="n"/>
-      <c r="I183" s="18" t="n"/>
-      <c r="J183" s="21" t="n"/>
+      <c r="I183" s="0" t="n"/>
+      <c r="J183" s="22" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row outlineLevel="0" r="184">
-      <c r="A184" s="49" t="s"/>
-      <c r="B184" s="17" t="s"/>
-      <c r="C184" s="18" t="n"/>
-      <c r="D184" s="18" t="n"/>
-      <c r="E184" s="54" t="s"/>
+      <c r="A184" s="52" t="s"/>
+      <c r="B184" s="18" t="s"/>
+      <c r="C184" s="0" t="n"/>
+      <c r="D184" s="0" t="n"/>
+      <c r="E184" s="57" t="s"/>
       <c r="F184" s="20" t="s">
-        <v>324</v>
+        <v>330</v>
       </c>
       <c r="G184" s="20" t="s">
-        <v>325</v>
+        <v>331</v>
       </c>
       <c r="H184" s="21" t="n"/>
-      <c r="I184" s="18" t="n"/>
-      <c r="J184" s="21" t="n"/>
+      <c r="I184" s="0" t="n"/>
+      <c r="J184" s="22" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row outlineLevel="0" r="185">
-      <c r="A185" s="51" t="s"/>
-      <c r="B185" s="23" t="s"/>
-      <c r="C185" s="24" t="n"/>
-      <c r="D185" s="24" t="n"/>
-      <c r="E185" s="55" t="s"/>
-      <c r="F185" s="26" t="s">
-        <v>326</v>
-      </c>
-      <c r="G185" s="26" t="s">
-        <v>325</v>
-      </c>
-      <c r="H185" s="27" t="n"/>
-      <c r="I185" s="24" t="n"/>
-      <c r="J185" s="27" t="n"/>
+      <c r="A185" s="54" t="s"/>
+      <c r="B185" s="26" t="s"/>
+      <c r="C185" s="27" t="n"/>
+      <c r="D185" s="27" t="n"/>
+      <c r="E185" s="58" t="s"/>
+      <c r="F185" s="29" t="s">
+        <v>332</v>
+      </c>
+      <c r="G185" s="29" t="s">
+        <v>331</v>
+      </c>
+      <c r="H185" s="30" t="n"/>
+      <c r="I185" s="27" t="n"/>
+      <c r="J185" s="31" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row outlineLevel="0" r="186">
-      <c r="A186" s="47" t="n">
+      <c r="A186" s="50" t="n">
         <v>27</v>
       </c>
-      <c r="B186" s="78" t="s">
-        <v>327</v>
+      <c r="B186" s="89" t="s">
+        <v>333</v>
       </c>
       <c r="C186" s="12" t="n"/>
       <c r="D186" s="12" t="n"/>
-      <c r="E186" s="53" t="s">
-        <v>57</v>
+      <c r="E186" s="56" t="s">
+        <v>62</v>
       </c>
       <c r="F186" s="14" t="s">
-        <v>324</v>
+        <v>330</v>
       </c>
       <c r="G186" s="14" t="s">
-        <v>325</v>
+        <v>331</v>
       </c>
       <c r="H186" s="15" t="n"/>
       <c r="I186" s="12" t="n"/>
-      <c r="J186" s="15" t="n"/>
+      <c r="J186" s="16" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row outlineLevel="0" r="187">
-      <c r="A187" s="51" t="s"/>
-      <c r="B187" s="79" t="s"/>
-      <c r="C187" s="24" t="n"/>
-      <c r="D187" s="24" t="n"/>
-      <c r="E187" s="55" t="s"/>
-      <c r="F187" s="26" t="s">
-        <v>326</v>
-      </c>
-      <c r="G187" s="26" t="s">
-        <v>325</v>
-      </c>
-      <c r="H187" s="27" t="n"/>
-      <c r="I187" s="24" t="n"/>
-      <c r="J187" s="27" t="n"/>
+      <c r="A187" s="54" t="s"/>
+      <c r="B187" s="90" t="s"/>
+      <c r="C187" s="27" t="n"/>
+      <c r="D187" s="27" t="n"/>
+      <c r="E187" s="58" t="s"/>
+      <c r="F187" s="29" t="s">
+        <v>332</v>
+      </c>
+      <c r="G187" s="29" t="s">
+        <v>331</v>
+      </c>
+      <c r="H187" s="30" t="n"/>
+      <c r="I187" s="27" t="n"/>
+      <c r="J187" s="31" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row outlineLevel="0" r="188">
-      <c r="A188" s="47" t="n">
+      <c r="A188" s="50" t="n">
         <v>28</v>
       </c>
       <c r="B188" s="11" t="s">
-        <v>328</v>
+        <v>334</v>
       </c>
       <c r="C188" s="12" t="n"/>
       <c r="D188" s="12" t="n"/>
-      <c r="E188" s="53" t="s">
-        <v>57</v>
-      </c>
-      <c r="F188" s="80" t="s">
-        <v>329</v>
-      </c>
-      <c r="G188" s="80" t="s">
-        <v>330</v>
+      <c r="E188" s="56" t="s">
+        <v>62</v>
+      </c>
+      <c r="F188" s="91" t="s">
+        <v>335</v>
+      </c>
+      <c r="G188" s="91" t="s">
+        <v>336</v>
       </c>
       <c r="H188" s="15" t="n"/>
       <c r="I188" s="12" t="n"/>
-      <c r="J188" s="15" t="n"/>
+      <c r="J188" s="16" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row outlineLevel="0" r="189">
-      <c r="A189" s="49" t="s"/>
-      <c r="B189" s="17" t="s"/>
-      <c r="C189" s="18" t="n"/>
-      <c r="D189" s="18" t="n"/>
-      <c r="E189" s="54" t="s"/>
+      <c r="A189" s="52" t="s"/>
+      <c r="B189" s="18" t="s"/>
+      <c r="C189" s="0" t="n"/>
+      <c r="D189" s="0" t="n"/>
+      <c r="E189" s="57" t="s"/>
       <c r="F189" s="20" t="s">
-        <v>331</v>
+        <v>337</v>
       </c>
       <c r="G189" s="20" t="s">
-        <v>332</v>
+        <v>338</v>
       </c>
       <c r="H189" s="21" t="n"/>
-      <c r="I189" s="18" t="n"/>
-      <c r="J189" s="21" t="n"/>
+      <c r="I189" s="0" t="n"/>
+      <c r="J189" s="22" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row outlineLevel="0" r="190">
-      <c r="A190" s="51" t="s"/>
-      <c r="B190" s="23" t="s"/>
-      <c r="C190" s="24" t="n"/>
-      <c r="D190" s="24" t="n"/>
-      <c r="E190" s="55" t="s"/>
-      <c r="F190" s="26" t="s">
-        <v>333</v>
-      </c>
-      <c r="G190" s="26" t="s">
-        <v>334</v>
-      </c>
-      <c r="H190" s="27" t="n"/>
-      <c r="I190" s="24" t="n"/>
-      <c r="J190" s="27" t="n"/>
+      <c r="A190" s="54" t="s"/>
+      <c r="B190" s="26" t="s"/>
+      <c r="C190" s="27" t="n"/>
+      <c r="D190" s="27" t="n"/>
+      <c r="E190" s="58" t="s"/>
+      <c r="F190" s="29" t="s">
+        <v>339</v>
+      </c>
+      <c r="G190" s="29" t="s">
+        <v>340</v>
+      </c>
+      <c r="H190" s="30" t="n"/>
+      <c r="I190" s="27" t="n"/>
+      <c r="J190" s="31" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row outlineLevel="0" r="191">
-      <c r="A191" s="47" t="n">
+      <c r="A191" s="50" t="n">
         <v>29</v>
       </c>
-      <c r="B191" s="81" t="s">
-        <v>335</v>
-      </c>
-      <c r="C191" s="82" t="n"/>
-      <c r="D191" s="82" t="n"/>
-      <c r="E191" s="53" t="s">
-        <v>57</v>
-      </c>
-      <c r="F191" s="82" t="s">
-        <v>336</v>
-      </c>
-      <c r="G191" s="82" t="s">
-        <v>337</v>
-      </c>
-      <c r="H191" s="83" t="n"/>
+      <c r="B191" s="92" t="s">
+        <v>341</v>
+      </c>
+      <c r="C191" s="93" t="n"/>
+      <c r="D191" s="93" t="n"/>
+      <c r="E191" s="56" t="s">
+        <v>62</v>
+      </c>
+      <c r="F191" s="94" t="s">
+        <v>342</v>
+      </c>
+      <c r="G191" s="94" t="s">
+        <v>343</v>
+      </c>
+      <c r="H191" s="95" t="n"/>
       <c r="I191" s="12" t="n"/>
-      <c r="J191" s="15" t="n"/>
+      <c r="J191" s="16" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row outlineLevel="0" r="192">
-      <c r="A192" s="49" t="s"/>
-      <c r="B192" s="84" t="s"/>
-      <c r="C192" s="64" t="n"/>
-      <c r="D192" s="64" t="n"/>
-      <c r="E192" s="54" t="s"/>
-      <c r="F192" s="73" t="s">
-        <v>338</v>
-      </c>
-      <c r="G192" s="85" t="s">
-        <v>339</v>
-      </c>
-      <c r="H192" s="86" t="s">
-        <v>340</v>
-      </c>
-      <c r="I192" s="18" t="n"/>
-      <c r="J192" s="21" t="n"/>
+      <c r="A192" s="52" t="s"/>
+      <c r="B192" s="96" t="s"/>
+      <c r="C192" s="67" t="n"/>
+      <c r="D192" s="67" t="n"/>
+      <c r="E192" s="57" t="s"/>
+      <c r="F192" s="82" t="s">
+        <v>344</v>
+      </c>
+      <c r="G192" s="97" t="s">
+        <v>345</v>
+      </c>
+      <c r="H192" s="98" t="s">
+        <v>346</v>
+      </c>
+      <c r="I192" s="0" t="n"/>
+      <c r="J192" s="22" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row outlineLevel="0" r="193">
-      <c r="A193" s="49" t="s"/>
-      <c r="B193" s="84" t="s"/>
-      <c r="C193" s="64" t="n"/>
-      <c r="D193" s="64" t="n"/>
-      <c r="E193" s="54" t="s"/>
-      <c r="F193" s="73" t="s">
-        <v>341</v>
-      </c>
-      <c r="G193" s="73" t="s">
-        <v>342</v>
-      </c>
-      <c r="H193" s="86" t="s">
-        <v>343</v>
-      </c>
-      <c r="I193" s="18" t="n"/>
-      <c r="J193" s="21" t="n"/>
+      <c r="A193" s="52" t="s"/>
+      <c r="B193" s="96" t="s"/>
+      <c r="C193" s="67" t="n"/>
+      <c r="D193" s="67" t="n"/>
+      <c r="E193" s="57" t="s"/>
+      <c r="F193" s="82" t="s">
+        <v>347</v>
+      </c>
+      <c r="G193" s="82" t="s">
+        <v>348</v>
+      </c>
+      <c r="H193" s="98" t="s">
+        <v>349</v>
+      </c>
+      <c r="I193" s="0" t="n"/>
+      <c r="J193" s="22" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row outlineLevel="0" r="194">
-      <c r="A194" s="49" t="s"/>
-      <c r="B194" s="84" t="s"/>
-      <c r="C194" s="18" t="n"/>
-      <c r="D194" s="18" t="n"/>
-      <c r="E194" s="54" t="s"/>
+      <c r="A194" s="52" t="s"/>
+      <c r="B194" s="96" t="s"/>
+      <c r="C194" s="0" t="n"/>
+      <c r="D194" s="0" t="n"/>
+      <c r="E194" s="57" t="s"/>
       <c r="F194" s="20" t="s">
-        <v>344</v>
-      </c>
-      <c r="G194" s="18" t="s">
-        <v>345</v>
+        <v>350</v>
+      </c>
+      <c r="G194" s="0" t="s">
+        <v>351</v>
       </c>
       <c r="H194" s="21" t="n"/>
-      <c r="I194" s="18" t="n"/>
-      <c r="J194" s="21" t="n"/>
+      <c r="I194" s="0" t="n"/>
+      <c r="J194" s="22" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row outlineLevel="0" r="195">
-      <c r="A195" s="49" t="s"/>
-      <c r="B195" s="84" t="s"/>
-      <c r="C195" s="18" t="n"/>
-      <c r="D195" s="18" t="n"/>
-      <c r="E195" s="54" t="s"/>
+      <c r="A195" s="52" t="s"/>
+      <c r="B195" s="96" t="s"/>
+      <c r="C195" s="0" t="n"/>
+      <c r="D195" s="0" t="n"/>
+      <c r="E195" s="57" t="s"/>
       <c r="F195" s="20" t="s">
-        <v>346</v>
-      </c>
-      <c r="G195" s="18" t="s">
-        <v>347</v>
+        <v>352</v>
+      </c>
+      <c r="G195" s="0" t="s">
+        <v>353</v>
       </c>
       <c r="H195" s="21" t="n"/>
-      <c r="I195" s="18" t="n"/>
-      <c r="J195" s="21" t="n"/>
+      <c r="I195" s="0" t="n"/>
+      <c r="J195" s="22" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row outlineLevel="0" r="196">
-      <c r="A196" s="49" t="s"/>
-      <c r="B196" s="84" t="s"/>
-      <c r="C196" s="18" t="n"/>
-      <c r="D196" s="18" t="n"/>
-      <c r="E196" s="54" t="s"/>
+      <c r="A196" s="52" t="s"/>
+      <c r="B196" s="96" t="s"/>
+      <c r="C196" s="0" t="n"/>
+      <c r="D196" s="0" t="n"/>
+      <c r="E196" s="57" t="s"/>
       <c r="F196" s="20" t="s">
-        <v>348</v>
+        <v>354</v>
       </c>
       <c r="G196" s="20" t="s">
-        <v>349</v>
+        <v>355</v>
       </c>
       <c r="H196" s="21" t="n"/>
-      <c r="I196" s="18" t="n"/>
-      <c r="J196" s="21" t="n"/>
+      <c r="I196" s="0" t="n"/>
+      <c r="J196" s="22" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row outlineLevel="0" r="197">
-      <c r="A197" s="49" t="s"/>
-      <c r="B197" s="84" t="s"/>
-      <c r="C197" s="18" t="n"/>
-      <c r="D197" s="18" t="n"/>
-      <c r="E197" s="54" t="s"/>
-      <c r="F197" s="18" t="s">
-        <v>172</v>
+      <c r="A197" s="52" t="s"/>
+      <c r="B197" s="96" t="s"/>
+      <c r="C197" s="0" t="n"/>
+      <c r="D197" s="0" t="n"/>
+      <c r="E197" s="57" t="s"/>
+      <c r="F197" s="0" t="s">
+        <v>177</v>
       </c>
       <c r="G197" s="20" t="s">
-        <v>350</v>
+        <v>356</v>
       </c>
       <c r="H197" s="21" t="n"/>
-      <c r="I197" s="18" t="n"/>
-      <c r="J197" s="21" t="n"/>
+      <c r="I197" s="0" t="n"/>
+      <c r="J197" s="22" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row outlineLevel="0" r="198">
-      <c r="A198" s="51" t="s"/>
-      <c r="B198" s="87" t="s"/>
-      <c r="C198" s="24" t="n"/>
-      <c r="D198" s="24" t="n"/>
-      <c r="E198" s="55" t="s"/>
-      <c r="F198" s="24" t="s">
-        <v>192</v>
-      </c>
-      <c r="G198" s="26" t="s">
-        <v>351</v>
-      </c>
-      <c r="H198" s="27" t="n"/>
-      <c r="I198" s="24" t="n"/>
-      <c r="J198" s="27" t="n"/>
+      <c r="A198" s="54" t="s"/>
+      <c r="B198" s="99" t="s"/>
+      <c r="C198" s="27" t="n"/>
+      <c r="D198" s="27" t="n"/>
+      <c r="E198" s="58" t="s"/>
+      <c r="F198" s="27" t="s">
+        <v>196</v>
+      </c>
+      <c r="G198" s="29" t="s">
+        <v>357</v>
+      </c>
+      <c r="H198" s="30" t="n"/>
+      <c r="I198" s="27" t="n"/>
+      <c r="J198" s="31" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row outlineLevel="0" r="199">
-      <c r="A199" s="47" t="n">
+      <c r="A199" s="50" t="n">
         <v>30</v>
       </c>
-      <c r="B199" s="11" t="s">
-        <v>352</v>
+      <c r="B199" s="100" t="s">
+        <v>358</v>
       </c>
       <c r="C199" s="12" t="n"/>
       <c r="D199" s="12" t="n"/>
-      <c r="E199" s="53" t="s">
-        <v>57</v>
+      <c r="E199" s="56" t="s">
+        <v>62</v>
       </c>
       <c r="F199" s="12" t="s">
-        <v>353</v>
+        <v>359</v>
       </c>
       <c r="G199" s="14" t="s">
-        <v>354</v>
+        <v>360</v>
       </c>
       <c r="H199" s="15" t="n"/>
       <c r="I199" s="12" t="n"/>
-      <c r="J199" s="15" t="n"/>
+      <c r="J199" s="16" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row outlineLevel="0" r="200">
-      <c r="A200" s="49" t="s"/>
-      <c r="B200" s="17" t="s"/>
-      <c r="C200" s="18" t="n"/>
-      <c r="D200" s="18" t="n"/>
-      <c r="E200" s="54" t="s"/>
+      <c r="A200" s="52" t="s"/>
+      <c r="B200" s="101" t="s"/>
+      <c r="C200" s="0" t="n"/>
+      <c r="D200" s="0" t="n"/>
+      <c r="E200" s="57" t="s"/>
       <c r="F200" s="20" t="s">
-        <v>355</v>
-      </c>
-      <c r="G200" s="18" t="s">
-        <v>356</v>
+        <v>361</v>
+      </c>
+      <c r="G200" s="0" t="s">
+        <v>362</v>
       </c>
       <c r="H200" s="21" t="n"/>
-      <c r="I200" s="18" t="n"/>
-      <c r="J200" s="21" t="n"/>
+      <c r="I200" s="0" t="n"/>
+      <c r="J200" s="22" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row outlineLevel="0" r="201">
-      <c r="A201" s="49" t="s"/>
-      <c r="B201" s="17" t="s"/>
-      <c r="C201" s="18" t="n"/>
-      <c r="D201" s="18" t="n"/>
-      <c r="E201" s="54" t="s"/>
+      <c r="A201" s="52" t="s"/>
+      <c r="B201" s="101" t="s"/>
+      <c r="C201" s="0" t="n"/>
+      <c r="D201" s="0" t="n"/>
+      <c r="E201" s="57" t="s"/>
       <c r="F201" s="20" t="s">
-        <v>357</v>
+        <v>363</v>
       </c>
       <c r="G201" s="20" t="s">
-        <v>358</v>
+        <v>364</v>
       </c>
       <c r="H201" s="21" t="n"/>
-      <c r="I201" s="18" t="n"/>
-      <c r="J201" s="21" t="n"/>
+      <c r="I201" s="0" t="n"/>
+      <c r="J201" s="22" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row outlineLevel="0" r="202">
-      <c r="A202" s="49" t="s"/>
-      <c r="B202" s="17" t="s"/>
-      <c r="C202" s="18" t="n"/>
-      <c r="D202" s="18" t="n"/>
-      <c r="E202" s="54" t="s"/>
+      <c r="A202" s="52" t="s"/>
+      <c r="B202" s="101" t="s"/>
+      <c r="C202" s="0" t="n"/>
+      <c r="D202" s="0" t="n"/>
+      <c r="E202" s="57" t="s"/>
       <c r="F202" s="20" t="s">
-        <v>359</v>
+        <v>365</v>
       </c>
       <c r="G202" s="20" t="s">
-        <v>360</v>
+        <v>366</v>
       </c>
       <c r="H202" s="21" t="n"/>
-      <c r="I202" s="18" t="n"/>
-      <c r="J202" s="21" t="n"/>
+      <c r="I202" s="0" t="n"/>
+      <c r="J202" s="22" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row outlineLevel="0" r="203">
-      <c r="A203" s="49" t="s"/>
-      <c r="B203" s="17" t="s"/>
-      <c r="C203" s="18" t="n"/>
-      <c r="D203" s="18" t="n"/>
-      <c r="E203" s="54" t="s"/>
-      <c r="F203" s="18" t="s">
-        <v>118</v>
+      <c r="A203" s="52" t="s"/>
+      <c r="B203" s="101" t="s"/>
+      <c r="C203" s="0" t="n"/>
+      <c r="D203" s="0" t="n"/>
+      <c r="E203" s="57" t="s"/>
+      <c r="F203" s="0" t="s">
+        <v>123</v>
       </c>
       <c r="G203" s="20" t="s">
-        <v>361</v>
+        <v>367</v>
       </c>
       <c r="H203" s="21" t="n"/>
-      <c r="I203" s="18" t="n"/>
-      <c r="J203" s="21" t="n"/>
+      <c r="I203" s="0" t="n"/>
+      <c r="J203" s="22" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row outlineLevel="0" r="204">
-      <c r="A204" s="49" t="s"/>
-      <c r="B204" s="17" t="s"/>
-      <c r="C204" s="18" t="n"/>
-      <c r="D204" s="18" t="n"/>
-      <c r="E204" s="54" t="s"/>
-      <c r="F204" s="18" t="s">
-        <v>362</v>
+      <c r="A204" s="52" t="s"/>
+      <c r="B204" s="101" t="s"/>
+      <c r="C204" s="0" t="n"/>
+      <c r="D204" s="0" t="n"/>
+      <c r="E204" s="57" t="s"/>
+      <c r="F204" s="0" t="s">
+        <v>368</v>
       </c>
       <c r="G204" s="20" t="s">
-        <v>363</v>
+        <v>369</v>
       </c>
       <c r="H204" s="21" t="n"/>
-      <c r="I204" s="18" t="n"/>
-      <c r="J204" s="21" t="n"/>
+      <c r="I204" s="0" t="n"/>
+      <c r="J204" s="22" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row outlineLevel="0" r="205">
-      <c r="A205" s="51" t="s"/>
-      <c r="B205" s="23" t="s"/>
-      <c r="C205" s="24" t="n"/>
-      <c r="D205" s="24" t="n"/>
-      <c r="E205" s="55" t="s"/>
-      <c r="F205" s="26" t="s">
-        <v>364</v>
-      </c>
-      <c r="G205" s="26" t="s">
-        <v>365</v>
-      </c>
-      <c r="H205" s="27" t="n"/>
-      <c r="I205" s="24" t="n"/>
-      <c r="J205" s="27" t="n"/>
+      <c r="A205" s="54" t="s"/>
+      <c r="B205" s="102" t="s"/>
+      <c r="C205" s="27" t="n"/>
+      <c r="D205" s="27" t="n"/>
+      <c r="E205" s="58" t="s"/>
+      <c r="F205" s="29" t="s">
+        <v>370</v>
+      </c>
+      <c r="G205" s="29" t="s">
+        <v>371</v>
+      </c>
+      <c r="H205" s="30" t="n"/>
+      <c r="I205" s="27" t="n"/>
+      <c r="J205" s="31" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row outlineLevel="0" r="206">
-      <c r="A206" s="47" t="n">
+      <c r="A206" s="50" t="n">
         <v>31</v>
       </c>
-      <c r="B206" s="11" t="s">
-        <v>366</v>
+      <c r="B206" s="103" t="s">
+        <v>372</v>
       </c>
       <c r="C206" s="12" t="n"/>
       <c r="D206" s="12" t="n"/>
-      <c r="E206" s="53" t="s">
-        <v>57</v>
+      <c r="E206" s="56" t="s">
+        <v>62</v>
       </c>
       <c r="F206" s="14" t="s">
-        <v>367</v>
+        <v>373</v>
       </c>
       <c r="G206" s="12" t="s">
-        <v>368</v>
+        <v>374</v>
       </c>
       <c r="H206" s="15" t="n"/>
       <c r="I206" s="12" t="n"/>
-      <c r="J206" s="15" t="n"/>
+      <c r="J206" s="16" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row outlineLevel="0" r="207">
-      <c r="A207" s="49" t="s"/>
-      <c r="B207" s="17" t="s"/>
-      <c r="C207" s="18" t="n"/>
-      <c r="D207" s="18" t="n"/>
-      <c r="E207" s="54" t="s"/>
-      <c r="F207" s="18" t="s">
+      <c r="A207" s="52" t="s"/>
+      <c r="B207" s="104" t="s"/>
+      <c r="C207" s="0" t="n"/>
+      <c r="D207" s="0" t="n"/>
+      <c r="E207" s="57" t="s"/>
+      <c r="F207" s="0" t="s">
+        <v>375</v>
+      </c>
+      <c r="G207" s="0" t="s">
+        <v>376</v>
+      </c>
+      <c r="H207" s="21" t="n"/>
+      <c r="I207" s="0" t="n"/>
+      <c r="J207" s="22" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="208">
+      <c r="A208" s="52" t="s"/>
+      <c r="B208" s="104" t="s"/>
+      <c r="C208" s="0" t="n"/>
+      <c r="D208" s="0" t="n"/>
+      <c r="E208" s="57" t="s"/>
+      <c r="F208" s="20" t="s">
+        <v>377</v>
+      </c>
+      <c r="G208" s="0" t="s">
+        <v>378</v>
+      </c>
+      <c r="H208" s="21" t="n"/>
+      <c r="I208" s="0" t="n"/>
+      <c r="J208" s="22" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="209">
+      <c r="A209" s="52" t="s"/>
+      <c r="B209" s="104" t="s"/>
+      <c r="C209" s="0" t="n"/>
+      <c r="D209" s="0" t="n"/>
+      <c r="E209" s="57" t="s"/>
+      <c r="F209" s="0" t="s">
+        <v>379</v>
+      </c>
+      <c r="G209" s="20" t="s">
+        <v>380</v>
+      </c>
+      <c r="H209" s="21" t="n"/>
+      <c r="I209" s="0" t="n"/>
+      <c r="J209" s="22" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="210">
+      <c r="A210" s="52" t="s"/>
+      <c r="B210" s="104" t="s"/>
+      <c r="C210" s="0" t="n"/>
+      <c r="D210" s="0" t="n"/>
+      <c r="E210" s="57" t="s"/>
+      <c r="F210" s="20" t="s">
+        <v>381</v>
+      </c>
+      <c r="G210" s="0" t="s">
+        <v>382</v>
+      </c>
+      <c r="H210" s="21" t="n"/>
+      <c r="I210" s="0" t="n"/>
+      <c r="J210" s="22" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="211">
+      <c r="A211" s="52" t="s"/>
+      <c r="B211" s="104" t="s"/>
+      <c r="C211" s="0" t="n"/>
+      <c r="D211" s="0" t="n"/>
+      <c r="E211" s="57" t="s"/>
+      <c r="F211" s="0" t="s">
+        <v>123</v>
+      </c>
+      <c r="G211" s="20" t="s">
+        <v>367</v>
+      </c>
+      <c r="H211" s="21" t="n"/>
+      <c r="I211" s="0" t="n"/>
+      <c r="J211" s="22" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="212">
+      <c r="A212" s="54" t="s"/>
+      <c r="B212" s="105" t="s"/>
+      <c r="C212" s="27" t="n"/>
+      <c r="D212" s="27" t="n"/>
+      <c r="E212" s="58" t="s"/>
+      <c r="F212" s="27" t="s">
+        <v>368</v>
+      </c>
+      <c r="G212" s="29" t="s">
         <v>369</v>
       </c>
-      <c r="G207" s="18" t="s">
-        <v>370</v>
-      </c>
-      <c r="H207" s="21" t="n"/>
-      <c r="I207" s="18" t="n"/>
-      <c r="J207" s="21" t="n"/>
-    </row>
-    <row outlineLevel="0" r="208">
-      <c r="A208" s="49" t="s"/>
-      <c r="B208" s="17" t="s"/>
-      <c r="C208" s="18" t="n"/>
-      <c r="D208" s="18" t="n"/>
-      <c r="E208" s="54" t="s"/>
-      <c r="F208" s="20" t="s">
-        <v>371</v>
-      </c>
-      <c r="G208" s="18" t="s">
-        <v>372</v>
-      </c>
-      <c r="H208" s="21" t="n"/>
-      <c r="I208" s="18" t="n"/>
-      <c r="J208" s="21" t="n"/>
-    </row>
-    <row outlineLevel="0" r="209">
-      <c r="A209" s="49" t="s"/>
-      <c r="B209" s="17" t="s"/>
-      <c r="C209" s="18" t="n"/>
-      <c r="D209" s="18" t="n"/>
-      <c r="E209" s="54" t="s"/>
-      <c r="F209" s="18" t="s">
-        <v>373</v>
-      </c>
-      <c r="G209" s="20" t="s">
-        <v>374</v>
-      </c>
-      <c r="H209" s="21" t="n"/>
-      <c r="I209" s="18" t="n"/>
-      <c r="J209" s="21" t="n"/>
-    </row>
-    <row outlineLevel="0" r="210">
-      <c r="A210" s="49" t="s"/>
-      <c r="B210" s="17" t="s"/>
-      <c r="C210" s="18" t="n"/>
-      <c r="D210" s="18" t="n"/>
-      <c r="E210" s="54" t="s"/>
-      <c r="F210" s="20" t="s">
-        <v>375</v>
-      </c>
-      <c r="G210" s="18" t="s">
-        <v>376</v>
-      </c>
-      <c r="H210" s="21" t="n"/>
-      <c r="I210" s="18" t="n"/>
-      <c r="J210" s="21" t="n"/>
-    </row>
-    <row outlineLevel="0" r="211">
-      <c r="A211" s="49" t="s"/>
-      <c r="B211" s="17" t="s"/>
-      <c r="C211" s="18" t="n"/>
-      <c r="D211" s="18" t="n"/>
-      <c r="E211" s="54" t="s"/>
-      <c r="F211" s="18" t="s">
-        <v>118</v>
-      </c>
-      <c r="G211" s="20" t="s">
-        <v>361</v>
-      </c>
-      <c r="H211" s="21" t="n"/>
-      <c r="I211" s="18" t="n"/>
-      <c r="J211" s="21" t="n"/>
-    </row>
-    <row outlineLevel="0" r="212">
-      <c r="A212" s="51" t="s"/>
-      <c r="B212" s="23" t="s"/>
-      <c r="C212" s="24" t="n"/>
-      <c r="D212" s="24" t="n"/>
-      <c r="E212" s="55" t="s"/>
-      <c r="F212" s="24" t="s">
-        <v>362</v>
-      </c>
-      <c r="G212" s="26" t="s">
-        <v>363</v>
-      </c>
-      <c r="H212" s="27" t="n"/>
-      <c r="I212" s="24" t="n"/>
-      <c r="J212" s="27" t="n"/>
+      <c r="H212" s="30" t="n"/>
+      <c r="I212" s="27" t="n"/>
+      <c r="J212" s="31" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row outlineLevel="0" r="213">
-      <c r="A213" s="47" t="n">
+      <c r="A213" s="50" t="n">
         <v>32</v>
       </c>
-      <c r="B213" s="11" t="s">
-        <v>377</v>
+      <c r="B213" s="103" t="s">
+        <v>383</v>
       </c>
       <c r="C213" s="12" t="n"/>
       <c r="D213" s="12" t="n"/>
-      <c r="E213" s="53" t="s">
-        <v>57</v>
+      <c r="E213" s="56" t="s">
+        <v>62</v>
       </c>
       <c r="F213" s="14" t="s">
-        <v>367</v>
+        <v>373</v>
       </c>
       <c r="G213" s="12" t="s">
-        <v>368</v>
+        <v>374</v>
       </c>
       <c r="H213" s="15" t="n"/>
       <c r="I213" s="12" t="n"/>
-      <c r="J213" s="15" t="n"/>
+      <c r="J213" s="16" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row outlineLevel="0" r="214">
-      <c r="A214" s="49" t="s"/>
-      <c r="B214" s="17" t="s"/>
-      <c r="C214" s="18" t="n"/>
-      <c r="D214" s="18" t="n"/>
-      <c r="E214" s="54" t="s"/>
-      <c r="F214" s="18" t="s">
-        <v>369</v>
-      </c>
-      <c r="G214" s="18" t="s">
-        <v>370</v>
+      <c r="A214" s="52" t="s"/>
+      <c r="B214" s="104" t="s"/>
+      <c r="C214" s="0" t="n"/>
+      <c r="D214" s="0" t="n"/>
+      <c r="E214" s="57" t="s"/>
+      <c r="F214" s="0" t="s">
+        <v>375</v>
+      </c>
+      <c r="G214" s="0" t="s">
+        <v>376</v>
       </c>
       <c r="H214" s="21" t="n"/>
-      <c r="I214" s="18" t="n"/>
-      <c r="J214" s="21" t="n"/>
+      <c r="I214" s="0" t="n"/>
+      <c r="J214" s="22" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row outlineLevel="0" r="215">
-      <c r="A215" s="49" t="s"/>
-      <c r="B215" s="17" t="s"/>
-      <c r="C215" s="18" t="n"/>
-      <c r="D215" s="18" t="n"/>
-      <c r="E215" s="54" t="s"/>
+      <c r="A215" s="52" t="s"/>
+      <c r="B215" s="104" t="s"/>
+      <c r="C215" s="0" t="n"/>
+      <c r="D215" s="0" t="n"/>
+      <c r="E215" s="57" t="s"/>
       <c r="F215" s="20" t="s">
-        <v>378</v>
+        <v>384</v>
       </c>
       <c r="G215" s="20" t="s">
+        <v>385</v>
+      </c>
+      <c r="H215" s="21" t="n"/>
+      <c r="I215" s="0" t="n"/>
+      <c r="J215" s="22" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="216">
+      <c r="A216" s="52" t="s"/>
+      <c r="B216" s="104" t="s"/>
+      <c r="C216" s="0" t="n"/>
+      <c r="D216" s="0" t="n"/>
+      <c r="E216" s="57" t="s"/>
+      <c r="F216" s="0" t="s">
         <v>379</v>
       </c>
-      <c r="H215" s="21" t="n"/>
-      <c r="I215" s="18" t="n"/>
-      <c r="J215" s="21" t="n"/>
-    </row>
-    <row outlineLevel="0" r="216">
-      <c r="A216" s="49" t="s"/>
-      <c r="B216" s="17" t="s"/>
-      <c r="C216" s="18" t="n"/>
-      <c r="D216" s="18" t="n"/>
-      <c r="E216" s="54" t="s"/>
-      <c r="F216" s="18" t="s">
-        <v>373</v>
-      </c>
       <c r="G216" s="20" t="s">
-        <v>374</v>
+        <v>380</v>
       </c>
       <c r="H216" s="21" t="n"/>
-      <c r="I216" s="18" t="n"/>
-      <c r="J216" s="21" t="n"/>
+      <c r="I216" s="0" t="n"/>
+      <c r="J216" s="22" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row outlineLevel="0" r="217">
-      <c r="A217" s="51" t="s"/>
-      <c r="B217" s="23" t="s"/>
-      <c r="C217" s="24" t="n"/>
-      <c r="D217" s="24" t="n"/>
-      <c r="E217" s="55" t="s"/>
-      <c r="F217" s="26" t="s">
-        <v>380</v>
-      </c>
-      <c r="G217" s="26" t="s">
-        <v>381</v>
-      </c>
-      <c r="H217" s="27" t="n"/>
-      <c r="I217" s="24" t="n"/>
-      <c r="J217" s="27" t="n"/>
+      <c r="A217" s="54" t="s"/>
+      <c r="B217" s="105" t="s"/>
+      <c r="C217" s="27" t="n"/>
+      <c r="D217" s="27" t="n"/>
+      <c r="E217" s="58" t="s"/>
+      <c r="F217" s="29" t="s">
+        <v>386</v>
+      </c>
+      <c r="G217" s="29" t="s">
+        <v>387</v>
+      </c>
+      <c r="H217" s="30" t="n"/>
+      <c r="I217" s="27" t="n"/>
+      <c r="J217" s="31" t="s">
+        <v>15</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="96">
     <mergeCell ref="B2:B8"/>
+    <mergeCell ref="B158:B167"/>
+    <mergeCell ref="B188:B190"/>
+    <mergeCell ref="B81:B98"/>
+    <mergeCell ref="B191:B198"/>
+    <mergeCell ref="B70:B75"/>
+    <mergeCell ref="B117:B122"/>
+    <mergeCell ref="B76:B80"/>
+    <mergeCell ref="B123:B129"/>
+    <mergeCell ref="B172:B181"/>
+    <mergeCell ref="B45:B52"/>
     <mergeCell ref="B26:B28"/>
+    <mergeCell ref="B32:B40"/>
+    <mergeCell ref="B9:B17"/>
     <mergeCell ref="B149:B157"/>
+    <mergeCell ref="B135:B141"/>
+    <mergeCell ref="B142:B148"/>
+    <mergeCell ref="B18:B20"/>
+    <mergeCell ref="B100:B112"/>
+    <mergeCell ref="B213:B217"/>
+    <mergeCell ref="B113:B116"/>
+    <mergeCell ref="B206:B212"/>
+    <mergeCell ref="B29:B31"/>
+    <mergeCell ref="B21:B25"/>
+    <mergeCell ref="B199:B205"/>
+    <mergeCell ref="B186:B187"/>
     <mergeCell ref="B182:B185"/>
-    <mergeCell ref="B172:B181"/>
-    <mergeCell ref="B213:B217"/>
+    <mergeCell ref="B168:B171"/>
+    <mergeCell ref="B130:B134"/>
+    <mergeCell ref="B66:B69"/>
     <mergeCell ref="B41:B44"/>
-    <mergeCell ref="B32:B40"/>
-    <mergeCell ref="B18:B20"/>
-    <mergeCell ref="B66:B69"/>
-    <mergeCell ref="B113:B116"/>
-    <mergeCell ref="B158:B167"/>
-    <mergeCell ref="B45:B52"/>
-    <mergeCell ref="B100:B112"/>
-    <mergeCell ref="B188:B190"/>
-    <mergeCell ref="B130:B134"/>
-    <mergeCell ref="B199:B205"/>
-    <mergeCell ref="B191:B198"/>
-    <mergeCell ref="B142:B148"/>
-    <mergeCell ref="B123:B129"/>
-    <mergeCell ref="B76:B80"/>
-    <mergeCell ref="B70:B75"/>
-    <mergeCell ref="B29:B31"/>
-    <mergeCell ref="B9:B17"/>
     <mergeCell ref="B53:B65"/>
-    <mergeCell ref="B117:B122"/>
-    <mergeCell ref="B168:B171"/>
-    <mergeCell ref="B186:B187"/>
-    <mergeCell ref="B81:B98"/>
-    <mergeCell ref="B21:B25"/>
-    <mergeCell ref="B135:B141"/>
-    <mergeCell ref="B206:B212"/>
+    <mergeCell ref="A18:A20"/>
+    <mergeCell ref="A188:A190"/>
+    <mergeCell ref="A26:A28"/>
+    <mergeCell ref="A32:A40"/>
+    <mergeCell ref="A186:A187"/>
+    <mergeCell ref="A76:A80"/>
+    <mergeCell ref="A199:A205"/>
+    <mergeCell ref="A123:A129"/>
+    <mergeCell ref="A172:A181"/>
+    <mergeCell ref="A41:A44"/>
+    <mergeCell ref="A158:A167"/>
+    <mergeCell ref="A70:A75"/>
+    <mergeCell ref="A191:A198"/>
+    <mergeCell ref="A81:A99"/>
+    <mergeCell ref="A149:A157"/>
+    <mergeCell ref="A135:A141"/>
+    <mergeCell ref="A21:A25"/>
+    <mergeCell ref="A100:A112"/>
+    <mergeCell ref="A130:A134"/>
+    <mergeCell ref="A113:A116"/>
+    <mergeCell ref="A168:A171"/>
+    <mergeCell ref="A117:A122"/>
+    <mergeCell ref="A66:A69"/>
+    <mergeCell ref="A206:A212"/>
+    <mergeCell ref="A182:A185"/>
+    <mergeCell ref="A9:A17"/>
+    <mergeCell ref="A2:A8"/>
+    <mergeCell ref="A142:A148"/>
+    <mergeCell ref="A45:A52"/>
     <mergeCell ref="A213:A217"/>
-    <mergeCell ref="A76:A80"/>
-    <mergeCell ref="A142:A148"/>
-    <mergeCell ref="A188:A190"/>
-    <mergeCell ref="A172:A181"/>
-    <mergeCell ref="A113:A116"/>
-    <mergeCell ref="A21:A25"/>
-    <mergeCell ref="A18:A20"/>
-    <mergeCell ref="A9:A17"/>
     <mergeCell ref="A29:A31"/>
     <mergeCell ref="A53:A65"/>
-    <mergeCell ref="A81:A99"/>
-    <mergeCell ref="A45:A52"/>
-    <mergeCell ref="A130:A134"/>
-    <mergeCell ref="A186:A187"/>
-    <mergeCell ref="A100:A112"/>
-    <mergeCell ref="A191:A198"/>
-    <mergeCell ref="A32:A40"/>
-    <mergeCell ref="A123:A129"/>
-    <mergeCell ref="A149:A157"/>
-    <mergeCell ref="A41:A44"/>
-    <mergeCell ref="A2:A8"/>
-    <mergeCell ref="A117:A122"/>
-    <mergeCell ref="A26:A28"/>
-    <mergeCell ref="A66:A69"/>
-    <mergeCell ref="A158:A167"/>
-    <mergeCell ref="A182:A185"/>
-    <mergeCell ref="A199:A205"/>
-    <mergeCell ref="A168:A171"/>
-    <mergeCell ref="A70:A75"/>
-    <mergeCell ref="A135:A141"/>
-    <mergeCell ref="A206:A212"/>
+    <mergeCell ref="E21:E25"/>
+    <mergeCell ref="E130:E134"/>
+    <mergeCell ref="E70:E75"/>
+    <mergeCell ref="E81:E99"/>
+    <mergeCell ref="E206:E212"/>
+    <mergeCell ref="E100:E112"/>
+    <mergeCell ref="E123:E129"/>
+    <mergeCell ref="E168:E171"/>
+    <mergeCell ref="E191:E198"/>
     <mergeCell ref="E2:E8"/>
+    <mergeCell ref="E149:E157"/>
+    <mergeCell ref="E32:E40"/>
+    <mergeCell ref="E172:E181"/>
+    <mergeCell ref="E18:E20"/>
+    <mergeCell ref="E53:E65"/>
+    <mergeCell ref="E66:E69"/>
+    <mergeCell ref="E26:E28"/>
+    <mergeCell ref="E41:E44"/>
+    <mergeCell ref="E199:E205"/>
+    <mergeCell ref="E142:E148"/>
+    <mergeCell ref="E117:E122"/>
+    <mergeCell ref="E213:E217"/>
+    <mergeCell ref="E76:E80"/>
+    <mergeCell ref="E188:E190"/>
+    <mergeCell ref="E135:E141"/>
+    <mergeCell ref="E9:E17"/>
+    <mergeCell ref="E29:E31"/>
+    <mergeCell ref="E113:E116"/>
+    <mergeCell ref="E45:E52"/>
     <mergeCell ref="E158:E167"/>
-    <mergeCell ref="E142:E148"/>
-    <mergeCell ref="E130:E134"/>
-    <mergeCell ref="E113:E116"/>
-    <mergeCell ref="E26:E28"/>
-    <mergeCell ref="E45:E52"/>
-    <mergeCell ref="E76:E80"/>
-    <mergeCell ref="E168:E171"/>
     <mergeCell ref="E182:E185"/>
     <mergeCell ref="E186:E187"/>
-    <mergeCell ref="E188:E190"/>
-    <mergeCell ref="E191:E198"/>
-    <mergeCell ref="E199:E205"/>
-    <mergeCell ref="E206:E212"/>
-    <mergeCell ref="E213:E217"/>
-    <mergeCell ref="E9:E17"/>
-    <mergeCell ref="E81:E99"/>
-    <mergeCell ref="E70:E75"/>
-    <mergeCell ref="E53:E65"/>
-    <mergeCell ref="E41:E44"/>
-    <mergeCell ref="E29:E31"/>
-    <mergeCell ref="E21:E25"/>
-    <mergeCell ref="E117:E122"/>
-    <mergeCell ref="E100:E112"/>
-    <mergeCell ref="E149:E157"/>
-    <mergeCell ref="E135:E141"/>
-    <mergeCell ref="E123:E129"/>
-    <mergeCell ref="E18:E20"/>
-    <mergeCell ref="E32:E40"/>
-    <mergeCell ref="E66:E69"/>
-    <mergeCell ref="E172:E181"/>
   </mergeCells>
   <pageMargins bottom="0.790000021457672" footer="0.19680555164814" header="0.19680555164814" left="0.790000021457672" right="0.790000021457672" top="0.790000021457672"/>
 </worksheet>

--- a/Cases.xlsx
+++ b/Cases.xlsx
@@ -42,7 +42,20 @@
     <t>Автоматизация</t>
   </si>
   <si>
-    <t>Раздел Авторизация. Проверка правописания. Ввод валидных значений в поле Login и Password</t>
+    <r>
+      <t>Раздел Авторизация. Проверка правописания.</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="XO Thames"/>
+        <sz val="12"/>
+        <u val="single"/>
+      </rPr>
+      <t xml:space="preserve"> Ввод валидных значений</t>
+    </r>
+    <r>
+      <t xml:space="preserve"> в поле Login и Password</t>
+    </r>
   </si>
   <si>
     <r>
@@ -177,7 +190,23 @@
         <rFont val="XO Thames"/>
         <sz val="12"/>
       </rPr>
-      <t>Раздел Авторизация. Проверка заполнения полей. Ввод не валидных значений в поле Login и Password</t>
+      <t xml:space="preserve">Раздел Авторизация. Проверка заполнения полей. </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="XO Thames"/>
+        <color rgb="000000" tint="0"/>
+        <sz val="12"/>
+        <u val="single"/>
+      </rPr>
+      <t xml:space="preserve">Ввод не валидных значений </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="XO Thames"/>
+        <sz val="12"/>
+      </rPr>
+      <t>в поле Login и Password</t>
     </r>
   </si>
   <si>
@@ -212,6 +241,15 @@
     <t>Выйти из аккаунта. Log out</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <rFont val="XO Thames"/>
+        <sz val="12"/>
+      </rPr>
+      <t>Проверено. Выход из аккаунта.</t>
+    </r>
+  </si>
+  <si>
     <t>В поле Login ввести цифры</t>
   </si>
   <si>
@@ -296,6 +334,15 @@
         <sz val="12"/>
       </rPr>
       <t>Появилось сообщение с предупреждением. Вход в аккаунт не успешный</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="XO Thames"/>
+        <sz val="12"/>
+      </rPr>
+      <t>В поле Login и Password не вводить данные</t>
     </r>
   </si>
   <si>
@@ -2300,14 +2347,13 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:a15="http://schemas.microsoft.com/office/drawing/2012/main" xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:co="http://ncloudtech.com" xmlns:co-ooxml="http://ncloudtech.com/ooxml" xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:o="urn:schemas-microsoft-com:office:office" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:pic="http://schemas.openxmlformats.org/drawingml/2006/picture" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:s="http://schemas.openxmlformats.org/officeDocument/2006/sharedTypes" xmlns:sl="http://schemas.openxmlformats.org/schemaLibrary/2006/main" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:w="http://schemas.openxmlformats.org/wordprocessingml/2006/main" xmlns:w10="urn:schemas-microsoft-com:office:word" xmlns:w14="http://schemas.microsoft.com/office/word/2010/wordml" xmlns:w15="http://schemas.microsoft.com/office/word/2012/wordml" xmlns:wp="http://schemas.openxmlformats.org/drawingml/2006/wordprocessingDrawing" xmlns:wpg="http://schemas.microsoft.com/office/word/2010/wordprocessingGroup" xmlns:wps="http://schemas.microsoft.com/office/word/2010/wordprocessingShape" xmlns:x="urn:schemas-microsoft-com:office:excel" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" mc:Ignorable="co co-ooxml w14 x14 w15">
-  <fonts count="7">
+  <numFmts>
+    <numFmt co:extendedFormatCode="General" formatCode="General" numFmtId="1000"/>
+  </numFmts>
+  <fonts count="5">
     <font>
       <name val="Calibri"/>
       <sz val="11"/>
-    </font>
-    <font>
-      <name val="XO Thames"/>
-      <sz val="12"/>
     </font>
     <font>
       <name val="XO Thames"/>
@@ -2323,10 +2369,6 @@
     </font>
     <font>
       <name val="Comic Sans MS"/>
-      <sz val="12"/>
-    </font>
-    <font>
-      <name val="XO Thames"/>
       <sz val="12"/>
     </font>
   </fonts>
@@ -2423,7 +2465,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="25">
+  <borders count="47">
     <border>
       <left style="none"/>
       <right style="none"/>
@@ -2448,9 +2490,70 @@
       </top>
     </border>
     <border>
+      <right style="thin">
+        <color rgb="000000" tint="0"/>
+      </right>
       <top style="thin">
         <color rgb="000000" tint="0"/>
       </top>
+      <bottom style="thin">
+        <color rgb="000000" tint="0"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="000000" tint="0"/>
+      </left>
+      <top style="thin">
+        <color rgb="000000" tint="0"/>
+      </top>
+    </border>
+    <border>
+      <right style="thin">
+        <color rgb="000000" tint="0"/>
+      </right>
+      <top style="thin">
+        <color rgb="000000" tint="0"/>
+      </top>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="000000" tint="0"/>
+      </left>
+      <right style="thin">
+        <color rgb="000000" tint="0"/>
+      </right>
+      <top style="thin">
+        <color rgb="000000" tint="0"/>
+      </top>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="000000" tint="0"/>
+      </left>
+    </border>
+    <border>
+      <right style="thin">
+        <color rgb="000000" tint="0"/>
+      </right>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="000000" tint="0"/>
+      </left>
+      <right style="thin">
+        <color rgb="000000" tint="0"/>
+      </right>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="000000" tint="0"/>
+      </left>
+      <bottom style="thin">
+        <color rgb="000000" tint="0"/>
+      </bottom>
+    </border>
+    <border>
       <bottom style="thin">
         <color rgb="000000" tint="0"/>
       </bottom>
@@ -2459,29 +2562,510 @@
       <right style="thin">
         <color rgb="000000" tint="0"/>
       </right>
-      <top style="thin">
-        <color rgb="000000" tint="0"/>
-      </top>
+      <bottom style="thin">
+        <color rgb="000000" tint="0"/>
+      </bottom>
     </border>
     <border>
       <left style="thin">
         <color rgb="000000" tint="0"/>
       </left>
+      <right style="thin">
+        <color rgb="000000" tint="0"/>
+      </right>
+      <bottom style="thin">
+        <color rgb="000000" tint="0"/>
+      </bottom>
+    </border>
+    <border diagonalDown="true" diagonalUp="true">
+      <left style="thin">
+        <color rgb="000000" tint="0"/>
+      </left>
+      <right style="thin">
+        <color rgb="000000" tint="0"/>
+      </right>
+      <top style="thin">
+        <color rgb="000000" tint="0"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="000000" tint="0"/>
+      </bottom>
+      <diagonal style="none">
+        <color rgb="000000" tint="0"/>
+      </diagonal>
+    </border>
+    <border diagonalDown="true" diagonalUp="true">
+      <left style="thin">
+        <color rgb="000000" tint="0"/>
+      </left>
+      <right style="none">
+        <color rgb="000000" tint="0"/>
+      </right>
+      <top style="thin">
+        <color rgb="000000" tint="0"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="000000" tint="0"/>
+      </bottom>
+      <diagonal style="none">
+        <color rgb="000000" tint="0"/>
+      </diagonal>
+    </border>
+    <border diagonalDown="true" diagonalUp="true">
+      <left style="none">
+        <color rgb="000000" tint="0"/>
+      </left>
+      <right style="none">
+        <color rgb="000000" tint="0"/>
+      </right>
+      <top style="thin">
+        <color rgb="000000" tint="0"/>
+      </top>
+      <bottom style="none">
+        <color rgb="000000" tint="0"/>
+      </bottom>
+      <diagonal style="none">
+        <color rgb="000000" tint="0"/>
+      </diagonal>
+    </border>
+    <border diagonalDown="true" diagonalUp="true">
+      <left style="none">
+        <color rgb="000000" tint="0"/>
+      </left>
+      <right style="thin">
+        <color rgb="000000" tint="0"/>
+      </right>
+      <top style="thin">
+        <color rgb="000000" tint="0"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="000000" tint="0"/>
+      </bottom>
+      <diagonal style="none">
+        <color rgb="000000" tint="0"/>
+      </diagonal>
+    </border>
+    <border diagonalDown="true" diagonalUp="true">
+      <left style="thin">
+        <color rgb="000000" tint="0"/>
+      </left>
+      <right style="none">
+        <color rgb="000000" tint="0"/>
+      </right>
+      <top style="thin">
+        <color rgb="000000" tint="0"/>
+      </top>
+      <bottom style="none">
+        <color rgb="000000" tint="0"/>
+      </bottom>
+      <diagonal style="none">
+        <color rgb="000000" tint="0"/>
+      </diagonal>
+    </border>
+    <border diagonalDown="true" diagonalUp="true">
+      <left style="none">
+        <color rgb="000000" tint="0"/>
+      </left>
+      <right style="thin">
+        <color rgb="000000" tint="0"/>
+      </right>
+      <top style="thin">
+        <color rgb="000000" tint="0"/>
+      </top>
+      <bottom style="none">
+        <color rgb="000000" tint="0"/>
+      </bottom>
+      <diagonal style="none">
+        <color rgb="000000" tint="0"/>
+      </diagonal>
+    </border>
+    <border diagonalDown="true" diagonalUp="true">
+      <left style="thin">
+        <color rgb="000000" tint="0"/>
+      </left>
+      <right style="thin">
+        <color rgb="000000" tint="0"/>
+      </right>
+      <top style="thin">
+        <color rgb="000000" tint="0"/>
+      </top>
+      <bottom style="none">
+        <color rgb="000000" tint="0"/>
+      </bottom>
+      <diagonal style="none">
+        <color rgb="000000" tint="0"/>
+      </diagonal>
     </border>
     <border>
-      <right style="thin">
+      <left style="thin">
+        <color rgb="000000" tint="0"/>
+      </left>
+      <right style="none">
         <color rgb="000000" tint="0"/>
       </right>
     </border>
     <border>
+      <left style="none">
+        <color rgb="000000" tint="0"/>
+      </left>
+      <right style="thin">
+        <color rgb="000000" tint="0"/>
+      </right>
+    </border>
+    <border diagonalDown="true" diagonalUp="true">
       <left style="thin">
         <color rgb="000000" tint="0"/>
       </left>
+      <right style="none">
+        <color rgb="000000" tint="0"/>
+      </right>
+      <top style="none">
+        <color rgb="000000" tint="0"/>
+      </top>
+      <bottom style="none">
+        <color rgb="000000" tint="0"/>
+      </bottom>
+      <diagonal style="none">
+        <color rgb="000000" tint="0"/>
+      </diagonal>
+    </border>
+    <border diagonalDown="true" diagonalUp="true">
+      <left style="none">
+        <color rgb="000000" tint="0"/>
+      </left>
+      <right style="thin">
+        <color rgb="000000" tint="0"/>
+      </right>
+      <top style="none">
+        <color rgb="000000" tint="0"/>
+      </top>
+      <bottom style="none">
+        <color rgb="000000" tint="0"/>
+      </bottom>
+      <diagonal style="none">
+        <color rgb="000000" tint="0"/>
+      </diagonal>
+    </border>
+    <border diagonalDown="true" diagonalUp="true">
+      <left style="thin">
+        <color rgb="000000" tint="0"/>
+      </left>
+      <right style="thin">
+        <color rgb="000000" tint="0"/>
+      </right>
+      <top style="none">
+        <color rgb="000000" tint="0"/>
+      </top>
+      <bottom style="none">
+        <color rgb="000000" tint="0"/>
+      </bottom>
+      <diagonal style="none">
+        <color rgb="000000" tint="0"/>
+      </diagonal>
+    </border>
+    <border diagonalDown="true" diagonalUp="true">
+      <left style="none">
+        <color rgb="000000" tint="0"/>
+      </left>
+      <right style="none">
+        <color rgb="000000" tint="0"/>
+      </right>
+      <top style="none">
+        <color rgb="000000" tint="0"/>
+      </top>
       <bottom style="thin">
+        <color rgb="000000" tint="0"/>
+      </bottom>
+      <diagonal style="none">
+        <color rgb="000000" tint="0"/>
+      </diagonal>
+    </border>
+    <border diagonalDown="true" diagonalUp="true">
+      <left style="thin">
+        <color rgb="000000" tint="0"/>
+      </left>
+      <right style="none">
+        <color rgb="000000" tint="0"/>
+      </right>
+      <top style="none">
+        <color rgb="000000" tint="0"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="000000" tint="0"/>
+      </bottom>
+      <diagonal style="none">
+        <color rgb="000000" tint="0"/>
+      </diagonal>
+    </border>
+    <border diagonalDown="true" diagonalUp="true">
+      <left style="none">
+        <color rgb="000000" tint="0"/>
+      </left>
+      <right style="thin">
+        <color rgb="000000" tint="0"/>
+      </right>
+      <top style="none">
+        <color rgb="000000" tint="0"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="000000" tint="0"/>
+      </bottom>
+      <diagonal style="none">
+        <color rgb="000000" tint="0"/>
+      </diagonal>
+    </border>
+    <border diagonalDown="true" diagonalUp="true">
+      <left style="thin">
+        <color rgb="000000" tint="0"/>
+      </left>
+      <right style="thin">
+        <color rgb="000000" tint="0"/>
+      </right>
+      <top style="none">
+        <color rgb="000000" tint="0"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="000000" tint="0"/>
+      </bottom>
+      <diagonal style="none">
+        <color rgb="000000" tint="0"/>
+      </diagonal>
+    </border>
+    <border diagonalDown="true" diagonalUp="true">
+      <left style="thin">
+        <color rgb="000000" tint="0"/>
+      </left>
+      <right style="none">
+        <color rgb="000000" tint="0"/>
+      </right>
+      <top style="thin">
+        <color rgb="000000" tint="0"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="000000" tint="0"/>
+      </bottom>
+      <diagonal style="none">
+        <color rgb="000000" tint="0"/>
+      </diagonal>
+    </border>
+    <border diagonalDown="true" diagonalUp="true">
+      <left style="none">
+        <color rgb="000000" tint="0"/>
+      </left>
+      <right style="none">
+        <color rgb="000000" tint="0"/>
+      </right>
+      <top style="thin">
+        <color rgb="000000" tint="0"/>
+      </top>
+      <bottom style="none">
+        <color rgb="000000" tint="0"/>
+      </bottom>
+      <diagonal style="none">
+        <color rgb="000000" tint="0"/>
+      </diagonal>
+    </border>
+    <border diagonalDown="true" diagonalUp="true">
+      <left style="none">
+        <color rgb="000000" tint="0"/>
+      </left>
+      <right style="thin">
+        <color rgb="000000" tint="0"/>
+      </right>
+      <top style="thin">
+        <color rgb="000000" tint="0"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="000000" tint="0"/>
+      </bottom>
+      <diagonal style="none">
+        <color rgb="000000" tint="0"/>
+      </diagonal>
+    </border>
+    <border diagonalDown="true" diagonalUp="true">
+      <left style="thin">
+        <color rgb="000000" tint="0"/>
+      </left>
+      <right style="none">
+        <color rgb="000000" tint="0"/>
+      </right>
+      <top style="thin">
+        <color rgb="000000" tint="0"/>
+      </top>
+      <bottom style="none">
+        <color rgb="000000" tint="0"/>
+      </bottom>
+      <diagonal style="none">
+        <color rgb="000000" tint="0"/>
+      </diagonal>
+    </border>
+    <border diagonalDown="true" diagonalUp="true">
+      <left style="none">
+        <color rgb="000000" tint="0"/>
+      </left>
+      <right style="thin">
+        <color rgb="000000" tint="0"/>
+      </right>
+      <top style="thin">
+        <color rgb="000000" tint="0"/>
+      </top>
+      <bottom style="none">
+        <color rgb="000000" tint="0"/>
+      </bottom>
+      <diagonal style="none">
+        <color rgb="000000" tint="0"/>
+      </diagonal>
+    </border>
+    <border diagonalDown="true" diagonalUp="true">
+      <left style="thin">
+        <color rgb="000000" tint="0"/>
+      </left>
+      <right style="thin">
+        <color rgb="000000" tint="0"/>
+      </right>
+      <top style="thin">
+        <color rgb="000000" tint="0"/>
+      </top>
+      <bottom style="none">
+        <color rgb="000000" tint="0"/>
+      </bottom>
+      <diagonal style="none">
+        <color rgb="000000" tint="0"/>
+      </diagonal>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="000000" tint="0"/>
+      </left>
+      <right style="none">
+        <color rgb="000000" tint="0"/>
+      </right>
+    </border>
+    <border>
+      <left style="none">
+        <color rgb="000000" tint="0"/>
+      </left>
+      <right style="thin">
+        <color rgb="000000" tint="0"/>
+      </right>
+    </border>
+    <border diagonalDown="true" diagonalUp="true">
+      <left style="thin">
+        <color rgb="000000" tint="0"/>
+      </left>
+      <right style="thin">
+        <color rgb="000000" tint="0"/>
+      </right>
+      <top style="none">
+        <color rgb="000000" tint="0"/>
+      </top>
+      <bottom style="none">
+        <color rgb="000000" tint="0"/>
+      </bottom>
+      <diagonal style="none">
+        <color rgb="000000" tint="0"/>
+      </diagonal>
+    </border>
+    <border diagonalDown="true" diagonalUp="true">
+      <left style="none">
+        <color rgb="000000" tint="0"/>
+      </left>
+      <right style="none">
+        <color rgb="000000" tint="0"/>
+      </right>
+      <top style="none">
+        <color rgb="000000" tint="0"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="000000" tint="0"/>
+      </bottom>
+      <diagonal style="none">
+        <color rgb="000000" tint="0"/>
+      </diagonal>
+    </border>
+    <border diagonalDown="true" diagonalUp="true">
+      <left style="thin">
+        <color rgb="000000" tint="0"/>
+      </left>
+      <right style="none">
+        <color rgb="000000" tint="0"/>
+      </right>
+      <top style="none">
+        <color rgb="000000" tint="0"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="000000" tint="0"/>
+      </bottom>
+      <diagonal style="none">
+        <color rgb="000000" tint="0"/>
+      </diagonal>
+    </border>
+    <border diagonalDown="true" diagonalUp="true">
+      <left style="none">
+        <color rgb="000000" tint="0"/>
+      </left>
+      <right style="thin">
+        <color rgb="000000" tint="0"/>
+      </right>
+      <top style="none">
+        <color rgb="000000" tint="0"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="000000" tint="0"/>
+      </bottom>
+      <diagonal style="none">
+        <color rgb="000000" tint="0"/>
+      </diagonal>
+    </border>
+    <border diagonalDown="true" diagonalUp="true">
+      <left style="thin">
+        <color rgb="000000" tint="0"/>
+      </left>
+      <right style="thin">
+        <color rgb="000000" tint="0"/>
+      </right>
+      <top style="none">
+        <color rgb="000000" tint="0"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="000000" tint="0"/>
+      </bottom>
+      <diagonal style="none">
+        <color rgb="000000" tint="0"/>
+      </diagonal>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="000000" tint="0"/>
+      </left>
+      <right style="none">
+        <color rgb="000000" tint="0"/>
+      </right>
+      <bottom style="none">
         <color rgb="000000" tint="0"/>
       </bottom>
     </border>
+    <border diagonalDown="true" diagonalUp="true">
+      <left style="thin">
+        <color rgb="000000" tint="0"/>
+      </left>
+      <top style="thin">
+        <color rgb="000000" tint="0"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="000000" tint="0"/>
+      </bottom>
+      <diagonal style="none">
+        <color rgb="000000" tint="0"/>
+      </diagonal>
+    </border>
     <border>
+      <left style="thin">
+        <color rgb="000000" tint="0"/>
+      </left>
+      <top style="none">
+        <color rgb="000000" tint="0"/>
+      </top>
       <bottom style="thin">
         <color rgb="000000" tint="0"/>
       </bottom>
@@ -2490,219 +3074,6 @@
       <right style="thin">
         <color rgb="000000" tint="0"/>
       </right>
-      <bottom style="thin">
-        <color rgb="000000" tint="0"/>
-      </bottom>
-    </border>
-    <border diagonalDown="true" diagonalUp="true">
-      <left style="thin">
-        <color rgb="000000" tint="0"/>
-      </left>
-      <right style="none">
-        <color rgb="000000" tint="0"/>
-      </right>
-      <top style="thin">
-        <color rgb="000000" tint="0"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="000000" tint="0"/>
-      </bottom>
-      <diagonal style="none">
-        <color rgb="000000" tint="0"/>
-      </diagonal>
-    </border>
-    <border diagonalDown="true" diagonalUp="true">
-      <left style="none">
-        <color rgb="000000" tint="0"/>
-      </left>
-      <right style="none">
-        <color rgb="000000" tint="0"/>
-      </right>
-      <top style="thin">
-        <color rgb="000000" tint="0"/>
-      </top>
-      <bottom style="none">
-        <color rgb="000000" tint="0"/>
-      </bottom>
-      <diagonal style="none">
-        <color rgb="000000" tint="0"/>
-      </diagonal>
-    </border>
-    <border diagonalDown="true" diagonalUp="true">
-      <left style="none">
-        <color rgb="000000" tint="0"/>
-      </left>
-      <right style="none">
-        <color rgb="000000" tint="0"/>
-      </right>
-      <top style="thin">
-        <color rgb="000000" tint="0"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="000000" tint="0"/>
-      </bottom>
-      <diagonal style="none">
-        <color rgb="000000" tint="0"/>
-      </diagonal>
-    </border>
-    <border diagonalDown="true" diagonalUp="true">
-      <left style="none">
-        <color rgb="000000" tint="0"/>
-      </left>
-      <right style="thin">
-        <color rgb="000000" tint="0"/>
-      </right>
-      <top style="thin">
-        <color rgb="000000" tint="0"/>
-      </top>
-      <bottom style="none">
-        <color rgb="000000" tint="0"/>
-      </bottom>
-      <diagonal style="none">
-        <color rgb="000000" tint="0"/>
-      </diagonal>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="000000" tint="0"/>
-      </left>
-      <right style="none">
-        <color rgb="000000" tint="0"/>
-      </right>
-    </border>
-    <border diagonalDown="true" diagonalUp="true">
-      <left style="none">
-        <color rgb="000000" tint="0"/>
-      </left>
-      <right style="thin">
-        <color rgb="000000" tint="0"/>
-      </right>
-      <top style="none">
-        <color rgb="000000" tint="0"/>
-      </top>
-      <bottom style="none">
-        <color rgb="000000" tint="0"/>
-      </bottom>
-      <diagonal style="none">
-        <color rgb="000000" tint="0"/>
-      </diagonal>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="000000" tint="0"/>
-      </left>
-      <right style="none">
-        <color rgb="000000" tint="0"/>
-      </right>
-      <bottom style="thin">
-        <color rgb="000000" tint="0"/>
-      </bottom>
-    </border>
-    <border diagonalDown="true" diagonalUp="true">
-      <left style="none">
-        <color rgb="000000" tint="0"/>
-      </left>
-      <right style="none">
-        <color rgb="000000" tint="0"/>
-      </right>
-      <top style="none">
-        <color rgb="000000" tint="0"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="000000" tint="0"/>
-      </bottom>
-      <diagonal style="none">
-        <color rgb="000000" tint="0"/>
-      </diagonal>
-    </border>
-    <border>
-      <left style="none">
-        <color rgb="000000" tint="0"/>
-      </left>
-      <right style="none">
-        <color rgb="000000" tint="0"/>
-      </right>
-      <bottom style="thin">
-        <color rgb="000000" tint="0"/>
-      </bottom>
-    </border>
-    <border diagonalDown="true" diagonalUp="true">
-      <left style="none">
-        <color rgb="000000" tint="0"/>
-      </left>
-      <right style="thin">
-        <color rgb="000000" tint="0"/>
-      </right>
-      <top style="none">
-        <color rgb="000000" tint="0"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="000000" tint="0"/>
-      </bottom>
-      <diagonal style="none">
-        <color rgb="000000" tint="0"/>
-      </diagonal>
-    </border>
-    <border diagonalDown="true" diagonalUp="true">
-      <left style="thin">
-        <color rgb="000000" tint="0"/>
-      </left>
-      <right style="none">
-        <color rgb="000000" tint="0"/>
-      </right>
-      <top style="thin">
-        <color rgb="000000" tint="0"/>
-      </top>
-      <bottom style="none">
-        <color rgb="000000" tint="0"/>
-      </bottom>
-      <diagonal style="none">
-        <color rgb="000000" tint="0"/>
-      </diagonal>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="000000" tint="0"/>
-      </left>
-      <right style="none">
-        <color rgb="000000" tint="0"/>
-      </right>
-      <bottom style="none">
-        <color rgb="000000" tint="0"/>
-      </bottom>
-    </border>
-    <border diagonalDown="true" diagonalUp="true">
-      <left style="thin">
-        <color rgb="000000" tint="0"/>
-      </left>
-      <right style="none">
-        <color rgb="000000" tint="0"/>
-      </right>
-      <top style="none">
-        <color rgb="000000" tint="0"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="000000" tint="0"/>
-      </bottom>
-      <diagonal style="none">
-        <color rgb="000000" tint="0"/>
-      </diagonal>
-    </border>
-    <border diagonalDown="true" diagonalUp="true">
-      <left style="thin">
-        <color rgb="000000" tint="0"/>
-      </left>
-      <top style="thin">
-        <color rgb="000000" tint="0"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="000000" tint="0"/>
-      </bottom>
-      <diagonal style="none">
-        <color rgb="000000" tint="0"/>
-      </diagonal>
-    </border>
-    <border>
       <top style="none">
         <color rgb="000000" tint="0"/>
       </top>
@@ -2714,7 +3085,7 @@
   <cellStyleXfs count="1">
     <xf applyFont="true" borderId="0" fillId="0" fontId="1" quotePrefix="false"/>
   </cellStyleXfs>
-  <cellXfs count="106">
+  <cellXfs count="143">
     <xf applyFont="true" borderId="0" fillId="0" fontId="1" quotePrefix="false"/>
     <xf applyAlignment="true" applyFill="true" applyFont="true" borderId="0" fillId="2" fontId="1" quotePrefix="false">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
@@ -2753,56 +3124,39 @@
     <xf applyAlignment="true" applyBorder="true" applyFont="true" borderId="3" fillId="0" fontId="1" quotePrefix="false">
       <alignment horizontal="left" vertical="center" wrapText="true"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" borderId="2" fillId="0" fontId="1" quotePrefix="false">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf applyBorder="true" applyFont="true" borderId="4" fillId="0" fontId="1" quotePrefix="false"/>
     <xf applyAlignment="true" applyBorder="true" applyFont="true" borderId="4" fillId="0" fontId="1" quotePrefix="false">
       <alignment wrapText="true"/>
     </xf>
     <xf applyAlignment="true" applyBorder="true" applyFont="true" borderId="5" fillId="0" fontId="1" quotePrefix="false">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" borderId="5" fillId="0" fontId="1" quotePrefix="false">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf applyAlignment="true" applyFont="true" borderId="0" fillId="0" fontId="1" quotePrefix="false">
-      <alignment horizontal="left" vertical="center" wrapText="true"/>
-    </xf>
-    <xf applyAlignment="true" applyFont="true" borderId="0" fillId="0" fontId="1" quotePrefix="false">
       <alignment wrapText="true"/>
     </xf>
     <xf applyBorder="true" applyFont="true" borderId="6" fillId="0" fontId="1" quotePrefix="false"/>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" borderId="6" fillId="0" fontId="1" quotePrefix="false">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFill="true" applyFont="true" borderId="6" fillId="11" fontId="1" quotePrefix="false">
-      <alignment vertical="center" wrapText="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFill="true" applyFont="true" borderId="6" fillId="11" fontId="1" quotePrefix="false">
-      <alignment horizontal="left" vertical="center" wrapText="true"/>
-    </xf>
     <xf applyAlignment="true" applyBorder="true" applyFont="true" borderId="7" fillId="0" fontId="1" quotePrefix="false">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf applyAlignment="true" applyBorder="true" applyFont="true" borderId="7" fillId="0" fontId="1" quotePrefix="false">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf applyBorder="true" applyFont="true" borderId="8" fillId="0" fontId="1" quotePrefix="false"/>
     <xf applyAlignment="true" applyBorder="true" applyFont="true" borderId="8" fillId="0" fontId="1" quotePrefix="false">
       <alignment horizontal="left" vertical="center" wrapText="true"/>
     </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFont="true" borderId="7" fillId="0" fontId="1" quotePrefix="false">
+      <alignment wrapText="true"/>
+    </xf>
     <xf applyAlignment="true" applyBorder="true" applyFont="true" borderId="8" fillId="0" fontId="1" quotePrefix="false">
       <alignment wrapText="true"/>
     </xf>
     <xf applyBorder="true" applyFont="true" borderId="9" fillId="0" fontId="1" quotePrefix="false"/>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" borderId="9" fillId="0" fontId="1" quotePrefix="false">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf applyBorder="true" applyFont="true" borderId="3" fillId="0" fontId="1" quotePrefix="false"/>
-    <xf applyFont="true" borderId="0" fillId="0" fontId="1" quotePrefix="false"/>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" borderId="1" fillId="0" fontId="1" quotePrefix="false">
+    <xf applyBorder="true" applyFont="true" borderId="7" fillId="0" fontId="1" quotePrefix="false"/>
+    <xf applyBorder="true" applyFont="true" borderId="8" fillId="0" fontId="1" quotePrefix="false"/>
+    <xf applyAlignment="true" applyBorder="true" applyFill="true" applyFont="true" borderId="8" fillId="11" fontId="1" quotePrefix="false">
       <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFill="true" applyFont="true" borderId="8" fillId="11" fontId="1" quotePrefix="false">
+      <alignment horizontal="left" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFont="true" borderId="10" fillId="0" fontId="1" quotePrefix="false">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf applyAlignment="true" applyBorder="true" applyFont="true" borderId="10" fillId="0" fontId="1" quotePrefix="false">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
@@ -2811,171 +3165,255 @@
     <xf applyAlignment="true" applyBorder="true" applyFont="true" borderId="12" fillId="0" fontId="1" quotePrefix="false">
       <alignment horizontal="left" vertical="center" wrapText="true"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" borderId="11" fillId="0" fontId="1" quotePrefix="false">
+    <xf applyBorder="true" applyFont="true" borderId="10" fillId="0" fontId="1" quotePrefix="false"/>
+    <xf applyAlignment="true" applyBorder="true" applyFont="true" borderId="12" fillId="0" fontId="1" quotePrefix="false">
       <alignment wrapText="true"/>
     </xf>
     <xf applyBorder="true" applyFont="true" borderId="13" fillId="0" fontId="1" quotePrefix="false"/>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" borderId="5" fillId="0" fontId="1" quotePrefix="false">
-      <alignment vertical="center" wrapText="true"/>
-    </xf>
     <xf applyAlignment="true" applyBorder="true" applyFont="true" borderId="14" fillId="0" fontId="1" quotePrefix="false">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf applyAlignment="true" applyFont="true" borderId="0" fillId="0" fontId="1" quotePrefix="false">
+    <xf applyAlignment="true" applyBorder="true" applyFont="true" borderId="15" fillId="0" fontId="1" quotePrefix="false">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFont="true" borderId="16" fillId="0" fontId="1" quotePrefix="false"/>
+    <xf applyBorder="true" applyFont="true" borderId="17" fillId="0" fontId="1" quotePrefix="false"/>
+    <xf applyAlignment="true" applyBorder="true" applyFont="true" borderId="18" fillId="0" fontId="1" quotePrefix="false">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFont="true" borderId="19" fillId="0" fontId="1" quotePrefix="false">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFont="true" borderId="20" fillId="0" fontId="1" quotePrefix="false">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFont="true" borderId="9" fillId="0" fontId="1" quotePrefix="false">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFont="true" borderId="21" fillId="0" fontId="1" quotePrefix="false">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="1" quotePrefix="false"/>
+    <xf applyBorder="true" applyFont="true" borderId="22" fillId="0" fontId="1" quotePrefix="false"/>
+    <xf applyBorder="true" applyFont="true" borderId="23" fillId="0" fontId="1" quotePrefix="false"/>
+    <xf applyBorder="true" applyFont="true" borderId="24" fillId="0" fontId="1" quotePrefix="false"/>
+    <xf applyBorder="true" applyFont="true" borderId="25" fillId="0" fontId="1" quotePrefix="false"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="23" fillId="0" fontId="1" numFmtId="1000" quotePrefix="false"/>
+    <xf applyAlignment="true" applyBorder="true" applyFont="true" borderId="24" fillId="0" fontId="1" quotePrefix="false">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFont="true" borderId="23" fillId="0" fontId="1" quotePrefix="false">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFont="true" borderId="25" fillId="0" fontId="1" quotePrefix="false">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" borderId="26" fillId="0" fontId="0" quotePrefix="false"/>
+    <xf applyAlignment="true" applyBorder="true" applyFont="true" borderId="27" fillId="0" fontId="1" quotePrefix="false">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFont="true" borderId="28" fillId="0" fontId="1" quotePrefix="false">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" borderId="29" fillId="0" fontId="0" quotePrefix="false"/>
+    <xf applyBorder="true" borderId="27" fillId="0" fontId="0" quotePrefix="false"/>
+    <xf applyAlignment="true" applyBorder="true" applyFont="true" borderId="1" fillId="0" fontId="1" quotePrefix="false">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFont="true" borderId="30" fillId="0" fontId="1" quotePrefix="false">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFont="true" borderId="31" fillId="0" fontId="1" quotePrefix="false"/>
+    <xf applyAlignment="true" applyBorder="true" applyFont="true" borderId="32" fillId="0" fontId="1" quotePrefix="false">
       <alignment horizontal="left" vertical="center" wrapText="true"/>
     </xf>
-    <xf applyBorder="true" applyFont="true" borderId="15" fillId="0" fontId="1" quotePrefix="false"/>
+    <xf applyAlignment="true" applyBorder="true" applyFont="true" borderId="33" fillId="0" fontId="1" quotePrefix="false">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFont="true" borderId="34" fillId="0" fontId="1" quotePrefix="false">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFont="true" borderId="35" fillId="0" fontId="1" quotePrefix="false"/>
     <xf applyAlignment="true" applyBorder="true" applyFont="true" borderId="7" fillId="0" fontId="1" quotePrefix="false">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" borderId="16" fillId="0" fontId="1" quotePrefix="false">
+    <xf applyAlignment="true" applyBorder="true" applyFont="true" borderId="36" fillId="0" fontId="1" quotePrefix="false">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf applyBorder="true" applyFont="true" borderId="17" fillId="0" fontId="1" quotePrefix="false"/>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" borderId="18" fillId="0" fontId="1" quotePrefix="false">
+    <xf applyAlignment="true" applyBorder="true" applyFont="true" borderId="37" fillId="0" fontId="1" quotePrefix="false">
       <alignment horizontal="left" vertical="center" wrapText="true"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" borderId="17" fillId="0" fontId="1" quotePrefix="false">
+    <xf applyBorder="true" applyFont="true" borderId="38" fillId="0" fontId="1" quotePrefix="false"/>
+    <xf applyBorder="true" applyFont="true" borderId="39" fillId="0" fontId="1" quotePrefix="false"/>
+    <xf applyBorder="true" applyFont="true" borderId="40" fillId="0" fontId="1" quotePrefix="false"/>
+    <xf applyAlignment="true" applyBorder="true" applyFont="true" borderId="41" fillId="0" fontId="1" quotePrefix="false">
       <alignment wrapText="true"/>
     </xf>
-    <xf applyBorder="true" applyFont="true" borderId="19" fillId="0" fontId="1" quotePrefix="false"/>
+    <xf applyBorder="true" applyFont="true" borderId="42" fillId="0" fontId="1" quotePrefix="false"/>
+    <xf applyBorder="true" applyFont="true" borderId="41" fillId="0" fontId="1" quotePrefix="false"/>
     <xf applyAlignment="true" applyBorder="true" applyFont="true" borderId="1" fillId="0" fontId="1" quotePrefix="false">
       <alignment vertical="center"/>
     </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFont="true" borderId="32" fillId="0" fontId="1" quotePrefix="false">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFont="true" borderId="33" fillId="0" fontId="1" quotePrefix="false"/>
+    <xf applyAlignment="true" applyBorder="true" applyFont="true" borderId="7" fillId="0" fontId="1" quotePrefix="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFont="true" borderId="37" fillId="0" fontId="1" quotePrefix="false">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFont="true" borderId="40" fillId="0" fontId="1" quotePrefix="false">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFont="true" borderId="3" fillId="0" fontId="1" quotePrefix="false">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFont="true" borderId="4" fillId="0" fontId="1" quotePrefix="false"/>
+    <xf applyAlignment="true" applyBorder="true" applyFont="true" borderId="8" fillId="0" fontId="1" quotePrefix="false">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFont="true" borderId="10" fillId="0" fontId="1" quotePrefix="false">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFont="true" borderId="13" fillId="0" fontId="1" quotePrefix="false">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFont="true" borderId="5" fillId="0" fontId="1" quotePrefix="false"/>
+    <xf applyAlignment="true" applyBorder="true" applyFont="true" borderId="8" fillId="0" fontId="1" quotePrefix="false">
+      <alignment vertical="bottom" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFont="true" borderId="12" fillId="0" fontId="1" quotePrefix="false"/>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="7" fillId="12" fontId="1" quotePrefix="false"/>
+    <xf applyAlignment="true" applyBorder="true" applyFill="true" applyFont="true" borderId="7" fillId="12" fontId="1" quotePrefix="false">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFont="true" borderId="9" fillId="0" fontId="1" quotePrefix="false">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFont="true" borderId="33" fillId="0" fontId="1" quotePrefix="false">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFill="true" applyFont="true" borderId="33" fillId="13" fontId="1" quotePrefix="false">
+      <alignment vertical="bottom" wrapText="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFont="true" borderId="34" fillId="0" fontId="1" quotePrefix="false">
+      <alignment vertical="top" wrapText="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFill="true" applyFont="true" borderId="7" fillId="13" fontId="1" quotePrefix="false">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFont="true" borderId="38" fillId="0" fontId="1" quotePrefix="false">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="0" quotePrefix="false"/>
+    <xf applyBorder="true" applyFont="true" borderId="38" fillId="0" fontId="0" quotePrefix="false"/>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="7" fillId="13" fontId="1" quotePrefix="false"/>
+    <xf applyAlignment="true" applyBorder="true" applyFont="true" borderId="43" fillId="0" fontId="1" quotePrefix="false">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFont="true" borderId="40" fillId="0" fontId="0" quotePrefix="false"/>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="7" fillId="14" fontId="1" quotePrefix="false"/>
+    <xf applyAlignment="true" applyBorder="true" applyFont="true" borderId="44" fillId="0" fontId="1" quotePrefix="false">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFont="true" borderId="34" fillId="0" fontId="1" quotePrefix="false"/>
+    <xf applyAlignment="true" applyBorder="true" applyFill="true" applyFont="true" borderId="7" fillId="15" fontId="0" quotePrefix="false">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFill="true" applyFont="true" borderId="8" fillId="15" fontId="0" quotePrefix="false">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="38" fillId="15" fontId="1" quotePrefix="false"/>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="15" fontId="1" quotePrefix="false"/>
+    <xf applyAlignment="true" applyBorder="true" applyFill="true" applyFont="true" borderId="8" fillId="15" fontId="1" quotePrefix="false">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFont="true" borderId="33" fillId="0" fontId="1" quotePrefix="false">
+      <alignment vertical="bottom" wrapText="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFont="true" borderId="45" fillId="0" fontId="1" quotePrefix="false">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFont="true" borderId="46" fillId="0" fontId="1" quotePrefix="false">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="9" fillId="15" fontId="1" quotePrefix="false"/>
+    <xf applyAlignment="true" applyBorder="true" applyFill="true" applyFont="true" borderId="8" fillId="12" fontId="1" quotePrefix="false">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFill="true" applyFont="true" borderId="40" fillId="12" fontId="1" quotePrefix="false">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFill="true" applyFont="true" borderId="41" fillId="12" fontId="1" quotePrefix="false">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFont="true" borderId="7" fillId="0" fontId="2" quotePrefix="false">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFill="true" applyFont="true" borderId="7" fillId="16" fontId="1" quotePrefix="false">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="8" fillId="12" fontId="1" quotePrefix="false"/>
+    <xf applyAlignment="true" applyBorder="true" applyFill="true" applyFont="true" borderId="10" fillId="12" fontId="1" quotePrefix="false">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="12" fillId="12" fontId="1" quotePrefix="false"/>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="7" fillId="17" fontId="1" quotePrefix="false"/>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="8" fillId="17" fontId="1" quotePrefix="false"/>
+    <xf applyAlignment="true" applyBorder="true" applyFill="true" applyFont="true" borderId="9" fillId="17" fontId="1" quotePrefix="false">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="7" fillId="16" fontId="1" quotePrefix="false"/>
+    <xf applyAlignment="true" applyBorder="true" applyFont="true" borderId="1" fillId="0" fontId="1" quotePrefix="false">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFont="true" borderId="4" fillId="0" fontId="0" quotePrefix="false">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFont="true" borderId="5" fillId="0" fontId="0" quotePrefix="false">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFill="true" applyFont="true" borderId="1" fillId="16" fontId="3" quotePrefix="false">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFont="true" borderId="2" fillId="0" fontId="0" quotePrefix="false"/>
+    <xf applyBorder="true" applyFont="true" borderId="4" fillId="0" fontId="2" quotePrefix="false"/>
+    <xf applyBorder="true" applyFont="true" borderId="5" fillId="0" fontId="2" quotePrefix="false"/>
+    <xf applyBorder="true" applyFont="true" borderId="6" fillId="0" fontId="2" quotePrefix="false"/>
+    <xf applyAlignment="true" applyBorder="true" applyFill="true" applyFont="true" borderId="7" fillId="16" fontId="3" quotePrefix="false">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFont="true" borderId="8" fillId="0" fontId="2" quotePrefix="false">
+      <alignment horizontal="left" wrapText="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFont="true" borderId="9" fillId="0" fontId="2" quotePrefix="false">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFont="true" borderId="8" fillId="0" fontId="2" quotePrefix="false">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFill="true" applyFont="true" borderId="1" fillId="14" fontId="4" quotePrefix="false">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFill="true" applyFont="true" borderId="7" fillId="14" fontId="4" quotePrefix="false">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFill="true" applyFont="true" borderId="1" fillId="18" fontId="1" quotePrefix="false">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFill="true" applyFont="true" borderId="7" fillId="18" fontId="1" quotePrefix="false">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFont="true" borderId="10" fillId="0" fontId="1" quotePrefix="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFill="true" applyFont="true" borderId="10" fillId="18" fontId="1" quotePrefix="false">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
     <xf applyAlignment="true" applyBorder="true" applyFont="true" borderId="12" fillId="0" fontId="1" quotePrefix="false">
       <alignment vertical="center" wrapText="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" borderId="5" fillId="0" fontId="1" quotePrefix="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="true" applyFont="true" borderId="0" fillId="0" fontId="1" quotePrefix="false">
-      <alignment vertical="center" wrapText="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" borderId="7" fillId="0" fontId="1" quotePrefix="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" borderId="18" fillId="0" fontId="1" quotePrefix="false">
-      <alignment vertical="center" wrapText="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" borderId="3" fillId="0" fontId="1" quotePrefix="false">
-      <alignment vertical="center" wrapText="true"/>
-    </xf>
-    <xf applyAlignment="true" applyFont="true" borderId="0" fillId="0" fontId="1" quotePrefix="false">
-      <alignment vertical="center" wrapText="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" borderId="8" fillId="0" fontId="1" quotePrefix="false">
-      <alignment vertical="center" wrapText="true"/>
-    </xf>
-    <xf applyAlignment="true" applyFont="true" borderId="0" fillId="0" fontId="1" quotePrefix="false">
-      <alignment vertical="bottom" wrapText="true"/>
-    </xf>
-    <xf applyFill="true" applyFont="true" borderId="0" fillId="12" fontId="1" quotePrefix="false"/>
-    <xf applyAlignment="true" applyFill="true" applyFont="true" borderId="0" fillId="12" fontId="1" quotePrefix="false">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" borderId="20" fillId="0" fontId="1" quotePrefix="false">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFill="true" applyFont="true" borderId="11" fillId="13" fontId="2" quotePrefix="false">
-      <alignment vertical="bottom" wrapText="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" borderId="11" fillId="0" fontId="1" quotePrefix="false">
-      <alignment vertical="top" wrapText="true"/>
-    </xf>
-    <xf applyAlignment="true" applyFill="true" applyFont="true" borderId="0" fillId="13" fontId="2" quotePrefix="false">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" borderId="15" fillId="0" fontId="1" quotePrefix="false">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf applyFont="true" borderId="0" fillId="0" fontId="0" quotePrefix="false"/>
-    <xf applyBorder="true" applyFont="true" borderId="15" fillId="0" fontId="0" quotePrefix="false"/>
-    <xf applyFill="true" applyFont="true" borderId="0" fillId="13" fontId="2" quotePrefix="false"/>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" borderId="21" fillId="0" fontId="1" quotePrefix="false">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf applyBorder="true" applyFont="true" borderId="22" fillId="0" fontId="0" quotePrefix="false"/>
-    <xf applyFill="true" applyFont="true" borderId="0" fillId="14" fontId="1" quotePrefix="false"/>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" borderId="23" fillId="0" fontId="1" quotePrefix="false">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf applyAlignment="true" applyFill="true" applyFont="true" borderId="0" fillId="15" fontId="0" quotePrefix="false">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="15" fillId="15" fontId="1" quotePrefix="false"/>
-    <xf applyFill="true" applyFont="true" borderId="0" fillId="15" fontId="1" quotePrefix="false"/>
-    <xf applyAlignment="true" applyBorder="true" applyFill="true" applyFont="true" borderId="6" fillId="15" fontId="1" quotePrefix="false">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" borderId="11" fillId="0" fontId="1" quotePrefix="false">
-      <alignment vertical="bottom" wrapText="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" borderId="24" fillId="0" fontId="1" quotePrefix="false">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="6" fillId="15" fontId="1" quotePrefix="false"/>
-    <xf applyAlignment="true" applyBorder="true" applyFill="true" applyFont="true" borderId="17" fillId="12" fontId="1" quotePrefix="false">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf applyAlignment="true" applyFont="true" borderId="0" fillId="0" fontId="3" quotePrefix="false">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf applyAlignment="true" applyFill="true" applyFont="true" borderId="0" fillId="16" fontId="1" quotePrefix="false">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFill="true" applyFont="true" borderId="8" fillId="12" fontId="1" quotePrefix="false">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="8" fillId="12" fontId="1" quotePrefix="false"/>
-    <xf applyFill="true" applyFont="true" borderId="0" fillId="17" fontId="1" quotePrefix="false"/>
-    <xf applyAlignment="true" applyBorder="true" applyFill="true" applyFont="true" borderId="6" fillId="17" fontId="1" quotePrefix="false">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf applyFill="true" applyFont="true" borderId="0" fillId="16" fontId="1" quotePrefix="false"/>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" borderId="1" fillId="0" fontId="1" quotePrefix="false">
-      <alignment horizontal="center" wrapText="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" borderId="7" fillId="0" fontId="1" quotePrefix="false">
-      <alignment horizontal="center" wrapText="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" borderId="2" fillId="0" fontId="0" quotePrefix="false">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFill="true" applyFont="true" borderId="1" fillId="16" fontId="4" quotePrefix="false">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf applyBorder="true" applyFont="true" borderId="2" fillId="0" fontId="0" quotePrefix="false"/>
-    <xf applyBorder="true" applyFont="true" borderId="2" fillId="0" fontId="3" quotePrefix="false"/>
-    <xf applyBorder="true" applyFont="true" borderId="4" fillId="0" fontId="3" quotePrefix="false"/>
-    <xf applyAlignment="true" applyBorder="true" applyFill="true" applyFont="true" borderId="5" fillId="16" fontId="4" quotePrefix="false">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf applyAlignment="true" applyFont="true" borderId="0" fillId="0" fontId="3" quotePrefix="false">
-      <alignment horizontal="left" wrapText="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" borderId="6" fillId="0" fontId="3" quotePrefix="false">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFill="true" applyFont="true" borderId="7" fillId="16" fontId="4" quotePrefix="false">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFill="true" applyFont="true" borderId="1" fillId="14" fontId="5" quotePrefix="false">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFill="true" applyFont="true" borderId="5" fillId="14" fontId="5" quotePrefix="false">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFill="true" applyFont="true" borderId="7" fillId="14" fontId="5" quotePrefix="false">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFill="true" applyFont="true" borderId="1" fillId="18" fontId="6" quotePrefix="false">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFill="true" applyFont="true" borderId="5" fillId="18" fontId="6" quotePrefix="false">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFill="true" applyFont="true" borderId="7" fillId="18" fontId="6" quotePrefix="false">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3261,14 +3699,14 @@
       <c r="F2" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="G2" s="14" t="s">
+      <c r="G2" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="H2" s="15" t="n"/>
+      <c r="H2" s="16" t="n"/>
       <c r="I2" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="J2" s="16" t="s">
+      <c r="J2" s="15" t="s">
         <v>15</v>
       </c>
     </row>
@@ -3281,14 +3719,14 @@
       <c r="F3" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="G3" s="20" t="s">
+      <c r="G3" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="H3" s="21" t="n"/>
+      <c r="H3" s="22" t="n"/>
       <c r="I3" s="0" t="s">
         <v>18</v>
       </c>
-      <c r="J3" s="22" t="s">
+      <c r="J3" s="21" t="s">
         <v>19</v>
       </c>
     </row>
@@ -3298,17 +3736,17 @@
       <c r="C4" s="0" t="n"/>
       <c r="D4" s="0" t="n"/>
       <c r="E4" s="19" t="s"/>
-      <c r="F4" s="0" t="s">
+      <c r="F4" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="G4" s="0" t="s">
+      <c r="G4" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="H4" s="21" t="n"/>
+      <c r="H4" s="22" t="n"/>
       <c r="I4" s="0" t="s">
         <v>18</v>
       </c>
-      <c r="J4" s="23" t="s">
+      <c r="J4" s="25" t="s">
         <v>22</v>
       </c>
     </row>
@@ -3318,17 +3756,17 @@
       <c r="C5" s="0" t="n"/>
       <c r="D5" s="0" t="n"/>
       <c r="E5" s="19" t="s"/>
-      <c r="F5" s="0" t="s">
+      <c r="F5" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="G5" s="0" t="s">
+      <c r="G5" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="H5" s="21" t="n"/>
+      <c r="H5" s="22" t="n"/>
       <c r="I5" s="0" t="s">
         <v>18</v>
       </c>
-      <c r="J5" s="24" t="s">
+      <c r="J5" s="26" t="s">
         <v>22</v>
       </c>
     </row>
@@ -3338,17 +3776,17 @@
       <c r="C6" s="0" t="n"/>
       <c r="D6" s="0" t="n"/>
       <c r="E6" s="19" t="s"/>
-      <c r="F6" s="0" t="s">
+      <c r="F6" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="G6" s="0" t="s">
+      <c r="G6" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="H6" s="21" t="n"/>
+      <c r="H6" s="22" t="n"/>
       <c r="I6" s="0" t="s">
         <v>18</v>
       </c>
-      <c r="J6" s="22" t="s">
+      <c r="J6" s="21" t="s">
         <v>15</v>
       </c>
     </row>
@@ -3361,699 +3799,701 @@
       <c r="F7" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="G7" s="20" t="s">
+      <c r="G7" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="H7" s="21" t="n"/>
+      <c r="H7" s="22" t="n"/>
       <c r="I7" s="0" t="s">
         <v>18</v>
       </c>
-      <c r="J7" s="22" t="s">
+      <c r="J7" s="21" t="s">
         <v>15</v>
       </c>
     </row>
     <row outlineLevel="0" r="8">
-      <c r="A8" s="25" t="s"/>
-      <c r="B8" s="26" t="s"/>
-      <c r="C8" s="27" t="n"/>
-      <c r="D8" s="27" t="n"/>
-      <c r="E8" s="28" t="s"/>
-      <c r="F8" s="27" t="s">
+      <c r="A8" s="27" t="s"/>
+      <c r="B8" s="28" t="s"/>
+      <c r="C8" s="29" t="n"/>
+      <c r="D8" s="29" t="n"/>
+      <c r="E8" s="30" t="s"/>
+      <c r="F8" s="31" t="s">
         <v>29</v>
       </c>
-      <c r="G8" s="29" t="s">
+      <c r="G8" s="32" t="s">
         <v>30</v>
       </c>
-      <c r="H8" s="30" t="n"/>
-      <c r="I8" s="27" t="s">
+      <c r="H8" s="33" t="n"/>
+      <c r="I8" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="J8" s="31" t="s">
+      <c r="J8" s="32" t="s">
         <v>15</v>
       </c>
     </row>
     <row outlineLevel="0" r="9">
-      <c r="A9" s="11" t="n">
+      <c r="A9" s="34" t="n">
         <v>2</v>
       </c>
-      <c r="B9" s="11" t="s">
+      <c r="B9" s="35" t="s">
         <v>31</v>
       </c>
-      <c r="C9" s="12" t="n"/>
-      <c r="D9" s="12" t="n"/>
-      <c r="E9" s="32" t="n"/>
-      <c r="F9" s="14" t="s">
+      <c r="C9" s="36" t="n"/>
+      <c r="D9" s="36" t="n"/>
+      <c r="E9" s="37" t="n"/>
+      <c r="F9" s="38" t="s">
         <v>32</v>
       </c>
-      <c r="G9" s="14" t="s">
+      <c r="G9" s="39" t="s">
         <v>33</v>
       </c>
-      <c r="H9" s="16" t="s">
+      <c r="H9" s="40" t="s">
         <v>34</v>
       </c>
-      <c r="I9" s="12" t="n"/>
-      <c r="J9" s="16" t="n"/>
+      <c r="I9" s="38" t="s">
+        <v>35</v>
+      </c>
+      <c r="J9" s="39" t="n"/>
     </row>
     <row outlineLevel="0" r="10">
-      <c r="A10" s="18" t="s"/>
-      <c r="B10" s="18" t="s"/>
-      <c r="C10" s="0" t="n"/>
-      <c r="D10" s="0" t="n"/>
-      <c r="E10" s="33" t="s"/>
-      <c r="F10" s="0" t="s">
-        <v>35</v>
-      </c>
-      <c r="G10" s="0" t="s">
+      <c r="A10" s="41" t="s"/>
+      <c r="B10" s="42" t="s"/>
+      <c r="C10" s="43" t="n"/>
+      <c r="D10" s="43" t="n"/>
+      <c r="E10" s="44" t="s"/>
+      <c r="F10" s="45" t="s">
         <v>36</v>
       </c>
-      <c r="H10" s="21" t="n"/>
-      <c r="I10" s="0" t="n"/>
-      <c r="J10" s="22" t="s">
+      <c r="G10" s="46" t="s">
+        <v>37</v>
+      </c>
+      <c r="H10" s="47" t="n"/>
+      <c r="I10" s="48" t="n"/>
+      <c r="J10" s="49" t="s">
         <v>15</v>
       </c>
     </row>
     <row outlineLevel="0" r="11">
-      <c r="A11" s="18" t="s"/>
-      <c r="B11" s="18" t="s"/>
-      <c r="C11" s="0" t="n"/>
-      <c r="D11" s="0" t="n"/>
-      <c r="E11" s="33" t="s"/>
-      <c r="F11" s="20" t="s">
-        <v>37</v>
-      </c>
-      <c r="G11" s="0" t="s">
+      <c r="A11" s="41" t="s"/>
+      <c r="B11" s="42" t="s"/>
+      <c r="C11" s="43" t="n"/>
+      <c r="D11" s="43" t="n"/>
+      <c r="E11" s="44" t="s"/>
+      <c r="F11" s="50" t="s">
         <v>38</v>
       </c>
-      <c r="H11" s="21" t="n"/>
-      <c r="I11" s="0" t="n"/>
-      <c r="J11" s="22" t="s">
+      <c r="G11" s="46" t="s">
+        <v>39</v>
+      </c>
+      <c r="H11" s="47" t="n"/>
+      <c r="I11" s="45" t="n"/>
+      <c r="J11" s="49" t="s">
         <v>15</v>
       </c>
     </row>
     <row outlineLevel="0" r="12">
-      <c r="A12" s="18" t="s"/>
-      <c r="B12" s="18" t="s"/>
-      <c r="C12" s="0" t="n"/>
-      <c r="D12" s="0" t="n"/>
-      <c r="E12" s="33" t="s"/>
-      <c r="F12" s="20" t="s">
-        <v>39</v>
-      </c>
-      <c r="G12" s="0" t="s">
+      <c r="A12" s="41" t="s"/>
+      <c r="B12" s="42" t="s"/>
+      <c r="C12" s="43" t="n"/>
+      <c r="D12" s="43" t="n"/>
+      <c r="E12" s="44" t="s"/>
+      <c r="F12" s="50" t="s">
         <v>40</v>
       </c>
-      <c r="H12" s="22" t="s">
+      <c r="G12" s="46" t="s">
         <v>41</v>
       </c>
-      <c r="I12" s="0" t="n"/>
-      <c r="J12" s="22" t="s">
+      <c r="H12" s="51" t="s">
+        <v>42</v>
+      </c>
+      <c r="I12" s="45" t="n"/>
+      <c r="J12" s="49" t="s">
         <v>15</v>
       </c>
     </row>
     <row outlineLevel="0" r="13">
-      <c r="A13" s="18" t="s"/>
-      <c r="B13" s="18" t="s"/>
-      <c r="C13" s="0" t="n"/>
-      <c r="D13" s="0" t="n"/>
-      <c r="E13" s="33" t="s"/>
-      <c r="F13" s="20" t="s">
-        <v>42</v>
-      </c>
-      <c r="G13" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="H13" s="21" t="n"/>
-      <c r="I13" s="0" t="n"/>
-      <c r="J13" s="22" t="s">
+      <c r="A13" s="41" t="s"/>
+      <c r="B13" s="42" t="s"/>
+      <c r="C13" s="43" t="n"/>
+      <c r="D13" s="43" t="n"/>
+      <c r="E13" s="44" t="s"/>
+      <c r="F13" s="50" t="s">
+        <v>43</v>
+      </c>
+      <c r="G13" s="46" t="s">
+        <v>41</v>
+      </c>
+      <c r="H13" s="47" t="n"/>
+      <c r="I13" s="45" t="n"/>
+      <c r="J13" s="49" t="s">
         <v>15</v>
       </c>
     </row>
     <row outlineLevel="0" r="14">
-      <c r="A14" s="18" t="s"/>
-      <c r="B14" s="18" t="s"/>
-      <c r="C14" s="0" t="n"/>
-      <c r="D14" s="0" t="n"/>
-      <c r="E14" s="33" t="s"/>
-      <c r="F14" s="20" t="s">
-        <v>43</v>
-      </c>
-      <c r="G14" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="H14" s="22" t="s">
+      <c r="A14" s="41" t="s"/>
+      <c r="B14" s="42" t="s"/>
+      <c r="C14" s="43" t="n"/>
+      <c r="D14" s="43" t="n"/>
+      <c r="E14" s="44" t="s"/>
+      <c r="F14" s="50" t="s">
         <v>44</v>
       </c>
-      <c r="I14" s="0" t="n"/>
-      <c r="J14" s="22" t="s">
+      <c r="G14" s="46" t="s">
+        <v>41</v>
+      </c>
+      <c r="H14" s="51" t="s">
+        <v>45</v>
+      </c>
+      <c r="I14" s="45" t="n"/>
+      <c r="J14" s="49" t="s">
         <v>15</v>
       </c>
     </row>
     <row outlineLevel="0" r="15">
-      <c r="A15" s="18" t="s"/>
-      <c r="B15" s="18" t="s"/>
-      <c r="C15" s="0" t="n"/>
-      <c r="D15" s="0" t="n"/>
-      <c r="E15" s="33" t="s"/>
-      <c r="F15" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="G15" s="20" t="s">
+      <c r="A15" s="41" t="s"/>
+      <c r="B15" s="42" t="s"/>
+      <c r="C15" s="43" t="n"/>
+      <c r="D15" s="43" t="n"/>
+      <c r="E15" s="44" t="s"/>
+      <c r="F15" s="50" t="s">
         <v>46</v>
       </c>
-      <c r="H15" s="22" t="s">
+      <c r="G15" s="49" t="s">
         <v>47</v>
       </c>
-      <c r="I15" s="0" t="n"/>
-      <c r="J15" s="22" t="s">
+      <c r="H15" s="51" t="s">
+        <v>48</v>
+      </c>
+      <c r="I15" s="45" t="n"/>
+      <c r="J15" s="49" t="s">
         <v>15</v>
       </c>
     </row>
     <row outlineLevel="0" r="16">
-      <c r="A16" s="18" t="s"/>
-      <c r="B16" s="18" t="s"/>
-      <c r="C16" s="0" t="n"/>
-      <c r="D16" s="0" t="n"/>
-      <c r="E16" s="33" t="s"/>
-      <c r="F16" s="20" t="s">
-        <v>48</v>
-      </c>
-      <c r="G16" s="20" t="s">
+      <c r="A16" s="41" t="s"/>
+      <c r="B16" s="42" t="s"/>
+      <c r="C16" s="43" t="n"/>
+      <c r="D16" s="43" t="n"/>
+      <c r="E16" s="44" t="s"/>
+      <c r="F16" s="50" t="s">
         <v>49</v>
       </c>
-      <c r="H16" s="22" t="s">
+      <c r="G16" s="49" t="s">
         <v>50</v>
       </c>
-      <c r="I16" s="0" t="n"/>
-      <c r="J16" s="22" t="s">
+      <c r="H16" s="51" t="s">
+        <v>51</v>
+      </c>
+      <c r="I16" s="45" t="n"/>
+      <c r="J16" s="49" t="s">
         <v>15</v>
       </c>
     </row>
     <row outlineLevel="0" r="17">
-      <c r="A17" s="26" t="s"/>
-      <c r="B17" s="26" t="s"/>
-      <c r="C17" s="27" t="n"/>
-      <c r="D17" s="27" t="n"/>
-      <c r="E17" s="27" t="s"/>
-      <c r="F17" s="29" t="s">
-        <v>51</v>
-      </c>
-      <c r="G17" s="29" t="s">
+      <c r="A17" s="41" t="s"/>
+      <c r="B17" s="42" t="s"/>
+      <c r="C17" s="43" t="n"/>
+      <c r="D17" s="43" t="n"/>
+      <c r="E17" s="44" t="s"/>
+      <c r="F17" s="50" t="s">
         <v>52</v>
       </c>
-      <c r="H17" s="30" t="n"/>
-      <c r="I17" s="27" t="n"/>
-      <c r="J17" s="31" t="s">
+      <c r="G17" s="49" t="s">
+        <v>53</v>
+      </c>
+      <c r="H17" s="47" t="n"/>
+      <c r="I17" s="45" t="n"/>
+      <c r="J17" s="49" t="s">
         <v>15</v>
       </c>
     </row>
     <row outlineLevel="0" r="18">
-      <c r="A18" s="34" t="n">
+      <c r="A18" s="0" t="n"/>
+      <c r="B18" s="0" t="n"/>
+      <c r="C18" s="52" t="n"/>
+      <c r="D18" s="52" t="n"/>
+      <c r="E18" s="0" t="n"/>
+      <c r="F18" s="53" t="s">
+        <v>54</v>
+      </c>
+      <c r="G18" s="54" t="s">
+        <v>53</v>
+      </c>
+      <c r="H18" s="55" t="n"/>
+      <c r="I18" s="56" t="n"/>
+      <c r="J18" s="54" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="19">
+      <c r="A19" s="57" t="n">
         <v>3</v>
       </c>
-      <c r="B18" s="35" t="s">
-        <v>53</v>
-      </c>
-      <c r="C18" s="36" t="n"/>
-      <c r="D18" s="36" t="n"/>
-      <c r="E18" s="37" t="s">
-        <v>54</v>
-      </c>
-      <c r="F18" s="38" t="s">
+      <c r="B19" s="58" t="s">
         <v>55</v>
       </c>
-      <c r="G18" s="38" t="s">
+      <c r="C19" s="59" t="n"/>
+      <c r="D19" s="59" t="n"/>
+      <c r="E19" s="60" t="s">
         <v>56</v>
       </c>
-      <c r="H18" s="39" t="n"/>
-      <c r="I18" s="12" t="n"/>
-      <c r="J18" s="16" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row outlineLevel="0" r="19">
-      <c r="A19" s="40" t="s"/>
-      <c r="B19" s="41" t="s"/>
-      <c r="C19" s="0" t="n"/>
-      <c r="D19" s="0" t="n"/>
-      <c r="E19" s="42" t="s"/>
-      <c r="F19" s="0" t="s">
+      <c r="F19" s="61" t="s">
         <v>57</v>
       </c>
-      <c r="G19" s="20" t="s">
+      <c r="G19" s="62" t="s">
         <v>58</v>
       </c>
-      <c r="H19" s="43" t="n"/>
-      <c r="I19" s="0" t="n"/>
-      <c r="J19" s="22" t="s">
+      <c r="H19" s="63" t="n"/>
+      <c r="I19" s="12" t="n"/>
+      <c r="J19" s="15" t="s">
         <v>15</v>
       </c>
     </row>
     <row outlineLevel="0" r="20">
-      <c r="A20" s="44" t="s"/>
-      <c r="B20" s="45" t="s"/>
-      <c r="C20" s="46" t="n"/>
-      <c r="D20" s="46" t="n"/>
-      <c r="E20" s="47" t="s"/>
-      <c r="F20" s="46" t="s">
+      <c r="A20" s="64" t="s"/>
+      <c r="B20" s="65" t="s"/>
+      <c r="C20" s="0" t="n"/>
+      <c r="D20" s="0" t="n"/>
+      <c r="E20" s="66" t="s"/>
+      <c r="F20" s="23" t="s">
         <v>59</v>
       </c>
-      <c r="G20" s="48" t="s">
+      <c r="G20" s="21" t="s">
         <v>60</v>
       </c>
-      <c r="H20" s="49" t="n"/>
-      <c r="I20" s="27" t="n"/>
-      <c r="J20" s="31" t="s">
+      <c r="H20" s="67" t="n"/>
+      <c r="I20" s="0" t="n"/>
+      <c r="J20" s="21" t="s">
         <v>15</v>
       </c>
     </row>
     <row outlineLevel="0" r="21">
-      <c r="A21" s="34" t="n">
+      <c r="A21" s="0" t="n"/>
+      <c r="B21" s="0" t="n"/>
+      <c r="C21" s="68" t="n"/>
+      <c r="D21" s="68" t="n"/>
+      <c r="E21" s="0" t="n"/>
+      <c r="F21" s="69" t="s">
+        <v>61</v>
+      </c>
+      <c r="G21" s="70" t="s">
+        <v>62</v>
+      </c>
+      <c r="H21" s="71" t="n"/>
+      <c r="I21" s="29" t="n"/>
+      <c r="J21" s="32" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="22">
+      <c r="A22" s="57" t="n">
         <v>4</v>
       </c>
-      <c r="B21" s="35" t="s">
-        <v>61</v>
-      </c>
-      <c r="C21" s="36" t="n"/>
-      <c r="D21" s="36" t="n"/>
-      <c r="E21" s="37" t="s">
-        <v>62</v>
-      </c>
-      <c r="F21" s="38" t="s">
+      <c r="B22" s="58" t="s">
         <v>63</v>
       </c>
-      <c r="G21" s="38" t="s">
+      <c r="C22" s="59" t="n"/>
+      <c r="D22" s="59" t="n"/>
+      <c r="E22" s="60" t="s">
         <v>64</v>
       </c>
-      <c r="H21" s="39" t="n"/>
-      <c r="I21" s="12" t="n"/>
-      <c r="J21" s="16" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row outlineLevel="0" r="22">
-      <c r="A22" s="40" t="s"/>
-      <c r="B22" s="41" t="s"/>
-      <c r="C22" s="0" t="n"/>
-      <c r="D22" s="0" t="n"/>
-      <c r="E22" s="42" t="s"/>
-      <c r="F22" s="0" t="s">
+      <c r="F22" s="61" t="s">
         <v>65</v>
       </c>
-      <c r="G22" s="0" t="s">
+      <c r="G22" s="62" t="s">
         <v>66</v>
       </c>
-      <c r="H22" s="43" t="n"/>
-      <c r="I22" s="0" t="n"/>
-      <c r="J22" s="22" t="s">
+      <c r="H22" s="63" t="n"/>
+      <c r="I22" s="12" t="n"/>
+      <c r="J22" s="15" t="s">
         <v>15</v>
       </c>
     </row>
     <row outlineLevel="0" r="23">
-      <c r="A23" s="40" t="s"/>
-      <c r="B23" s="41" t="s"/>
+      <c r="A23" s="64" t="s"/>
+      <c r="B23" s="65" t="s"/>
       <c r="C23" s="0" t="n"/>
       <c r="D23" s="0" t="n"/>
-      <c r="E23" s="42" t="s"/>
-      <c r="F23" s="0" t="s">
+      <c r="E23" s="66" t="s"/>
+      <c r="F23" s="23" t="s">
         <v>67</v>
       </c>
-      <c r="G23" s="0" t="s">
+      <c r="G23" s="24" t="s">
         <v>68</v>
       </c>
-      <c r="H23" s="43" t="n"/>
+      <c r="H23" s="67" t="n"/>
       <c r="I23" s="0" t="n"/>
-      <c r="J23" s="22" t="s">
+      <c r="J23" s="21" t="s">
         <v>15</v>
       </c>
     </row>
     <row outlineLevel="0" r="24">
-      <c r="A24" s="40" t="s"/>
-      <c r="B24" s="41" t="s"/>
+      <c r="A24" s="64" t="s"/>
+      <c r="B24" s="65" t="s"/>
       <c r="C24" s="0" t="n"/>
       <c r="D24" s="0" t="n"/>
-      <c r="E24" s="42" t="s"/>
-      <c r="F24" s="0" t="s">
+      <c r="E24" s="66" t="s"/>
+      <c r="F24" s="23" t="s">
         <v>69</v>
       </c>
-      <c r="G24" s="0" t="s">
+      <c r="G24" s="24" t="s">
         <v>70</v>
       </c>
-      <c r="H24" s="43" t="n"/>
+      <c r="H24" s="67" t="n"/>
       <c r="I24" s="0" t="n"/>
-      <c r="J24" s="22" t="s">
+      <c r="J24" s="21" t="s">
         <v>15</v>
       </c>
     </row>
     <row outlineLevel="0" r="25">
-      <c r="A25" s="44" t="s"/>
-      <c r="B25" s="45" t="s"/>
-      <c r="C25" s="46" t="n"/>
-      <c r="D25" s="46" t="n"/>
-      <c r="E25" s="47" t="s"/>
-      <c r="F25" s="46" t="s">
+      <c r="A25" s="64" t="s"/>
+      <c r="B25" s="65" t="s"/>
+      <c r="C25" s="0" t="n"/>
+      <c r="D25" s="0" t="n"/>
+      <c r="E25" s="66" t="s"/>
+      <c r="F25" s="23" t="s">
         <v>71</v>
       </c>
-      <c r="G25" s="46" t="s">
+      <c r="G25" s="24" t="s">
         <v>72</v>
       </c>
-      <c r="H25" s="49" t="n"/>
-      <c r="I25" s="27" t="n"/>
-      <c r="J25" s="31" t="s">
+      <c r="H25" s="67" t="n"/>
+      <c r="I25" s="0" t="n"/>
+      <c r="J25" s="21" t="s">
         <v>15</v>
       </c>
     </row>
     <row outlineLevel="0" r="26">
-      <c r="A26" s="50" t="n">
+      <c r="A26" s="0" t="n"/>
+      <c r="B26" s="0" t="n"/>
+      <c r="C26" s="68" t="n"/>
+      <c r="D26" s="68" t="n"/>
+      <c r="E26" s="0" t="n"/>
+      <c r="F26" s="69" t="s">
+        <v>73</v>
+      </c>
+      <c r="G26" s="72" t="s">
+        <v>74</v>
+      </c>
+      <c r="H26" s="71" t="n"/>
+      <c r="I26" s="29" t="n"/>
+      <c r="J26" s="32" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="27">
+      <c r="A27" s="73" t="n">
         <v>5</v>
       </c>
-      <c r="B26" s="35" t="s">
-        <v>73</v>
-      </c>
-      <c r="C26" s="36" t="n"/>
-      <c r="D26" s="36" t="n"/>
-      <c r="E26" s="51" t="s">
-        <v>62</v>
-      </c>
-      <c r="F26" s="36" t="s">
-        <v>57</v>
-      </c>
-      <c r="G26" s="38" t="s">
+      <c r="B27" s="58" t="s">
+        <v>75</v>
+      </c>
+      <c r="C27" s="59" t="n"/>
+      <c r="D27" s="59" t="n"/>
+      <c r="E27" s="74" t="s">
+        <v>64</v>
+      </c>
+      <c r="F27" s="75" t="s">
+        <v>59</v>
+      </c>
+      <c r="G27" s="62" t="s">
+        <v>76</v>
+      </c>
+      <c r="H27" s="63" t="n"/>
+      <c r="I27" s="12" t="n"/>
+      <c r="J27" s="15" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="28">
+      <c r="A28" s="76" t="s"/>
+      <c r="B28" s="65" t="s"/>
+      <c r="C28" s="0" t="n"/>
+      <c r="D28" s="0" t="n"/>
+      <c r="E28" s="77" t="s"/>
+      <c r="F28" s="23" t="s">
+        <v>77</v>
+      </c>
+      <c r="G28" s="21" t="s">
+        <v>78</v>
+      </c>
+      <c r="H28" s="67" t="n"/>
+      <c r="I28" s="0" t="n"/>
+      <c r="J28" s="21" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="29">
+      <c r="A29" s="0" t="n"/>
+      <c r="B29" s="0" t="n"/>
+      <c r="C29" s="68" t="n"/>
+      <c r="D29" s="68" t="n"/>
+      <c r="E29" s="0" t="n"/>
+      <c r="F29" s="78" t="s">
+        <v>79</v>
+      </c>
+      <c r="G29" s="70" t="s">
+        <v>80</v>
+      </c>
+      <c r="H29" s="71" t="n"/>
+      <c r="I29" s="29" t="n"/>
+      <c r="J29" s="32" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="30">
+      <c r="A30" s="73" t="n">
+        <v>6</v>
+      </c>
+      <c r="B30" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="C30" s="12" t="n"/>
+      <c r="D30" s="12" t="n"/>
+      <c r="E30" s="79" t="s">
+        <v>82</v>
+      </c>
+      <c r="F30" s="80" t="s">
+        <v>61</v>
+      </c>
+      <c r="G30" s="15" t="s">
+        <v>83</v>
+      </c>
+      <c r="H30" s="16" t="n"/>
+      <c r="I30" s="12" t="n"/>
+      <c r="J30" s="15" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="31">
+      <c r="A31" s="76" t="s"/>
+      <c r="B31" s="18" t="s"/>
+      <c r="C31" s="0" t="n"/>
+      <c r="D31" s="0" t="n"/>
+      <c r="E31" s="81" t="s"/>
+      <c r="F31" s="23" t="s">
+        <v>84</v>
+      </c>
+      <c r="G31" s="21" t="s">
+        <v>85</v>
+      </c>
+      <c r="H31" s="22" t="n"/>
+      <c r="I31" s="0" t="n"/>
+      <c r="J31" s="21" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="32">
+      <c r="A32" s="0" t="n"/>
+      <c r="B32" s="0" t="n"/>
+      <c r="C32" s="29" t="n"/>
+      <c r="D32" s="29" t="n"/>
+      <c r="E32" s="0" t="n"/>
+      <c r="F32" s="82" t="s">
+        <v>86</v>
+      </c>
+      <c r="G32" s="32" t="s">
+        <v>87</v>
+      </c>
+      <c r="H32" s="83" t="n"/>
+      <c r="I32" s="29" t="n"/>
+      <c r="J32" s="32" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="33">
+      <c r="A33" s="73" t="n">
+        <v>7</v>
+      </c>
+      <c r="B33" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="C33" s="12" t="n"/>
+      <c r="D33" s="12" t="n"/>
+      <c r="E33" s="79" t="s">
+        <v>64</v>
+      </c>
+      <c r="F33" s="80" t="s">
+        <v>89</v>
+      </c>
+      <c r="G33" s="84" t="s">
         <v>74</v>
       </c>
-      <c r="H26" s="39" t="n"/>
-      <c r="I26" s="12" t="n"/>
-      <c r="J26" s="16" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row outlineLevel="0" r="27">
-      <c r="A27" s="52" t="s"/>
-      <c r="B27" s="41" t="s"/>
-      <c r="C27" s="0" t="n"/>
-      <c r="D27" s="0" t="n"/>
-      <c r="E27" s="53" t="s"/>
-      <c r="F27" s="0" t="s">
-        <v>75</v>
-      </c>
-      <c r="G27" s="20" t="s">
-        <v>76</v>
-      </c>
-      <c r="H27" s="43" t="n"/>
-      <c r="I27" s="0" t="n"/>
-      <c r="J27" s="22" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row outlineLevel="0" r="28">
-      <c r="A28" s="54" t="s"/>
-      <c r="B28" s="45" t="s"/>
-      <c r="C28" s="46" t="n"/>
-      <c r="D28" s="46" t="n"/>
-      <c r="E28" s="55" t="s"/>
-      <c r="F28" s="48" t="s">
-        <v>77</v>
-      </c>
-      <c r="G28" s="48" t="s">
-        <v>78</v>
-      </c>
-      <c r="H28" s="49" t="n"/>
-      <c r="I28" s="27" t="n"/>
-      <c r="J28" s="31" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row outlineLevel="0" r="29">
-      <c r="A29" s="50" t="n">
-        <v>6</v>
-      </c>
-      <c r="B29" s="11" t="s">
-        <v>79</v>
-      </c>
-      <c r="C29" s="12" t="n"/>
-      <c r="D29" s="12" t="n"/>
-      <c r="E29" s="56" t="s">
-        <v>80</v>
-      </c>
-      <c r="F29" s="12" t="s">
-        <v>59</v>
-      </c>
-      <c r="G29" s="14" t="s">
-        <v>81</v>
-      </c>
-      <c r="H29" s="15" t="n"/>
-      <c r="I29" s="12" t="n"/>
-      <c r="J29" s="16" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row outlineLevel="0" r="30">
-      <c r="A30" s="52" t="s"/>
-      <c r="B30" s="18" t="s"/>
-      <c r="C30" s="0" t="n"/>
-      <c r="D30" s="0" t="n"/>
-      <c r="E30" s="57" t="s"/>
-      <c r="F30" s="0" t="s">
-        <v>82</v>
-      </c>
-      <c r="G30" s="20" t="s">
-        <v>83</v>
-      </c>
-      <c r="H30" s="21" t="n"/>
-      <c r="I30" s="0" t="n"/>
-      <c r="J30" s="22" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row outlineLevel="0" r="31">
-      <c r="A31" s="54" t="s"/>
-      <c r="B31" s="26" t="s"/>
-      <c r="C31" s="27" t="n"/>
-      <c r="D31" s="27" t="n"/>
-      <c r="E31" s="58" t="s"/>
-      <c r="F31" s="29" t="s">
-        <v>84</v>
-      </c>
-      <c r="G31" s="29" t="s">
-        <v>85</v>
-      </c>
-      <c r="H31" s="31" t="n"/>
-      <c r="I31" s="27" t="n"/>
-      <c r="J31" s="31" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row outlineLevel="0" r="32">
-      <c r="A32" s="50" t="n">
-        <v>7</v>
-      </c>
-      <c r="B32" s="11" t="s">
-        <v>86</v>
-      </c>
-      <c r="C32" s="12" t="n"/>
-      <c r="D32" s="12" t="n"/>
-      <c r="E32" s="56" t="s">
-        <v>62</v>
-      </c>
-      <c r="F32" s="12" t="s">
-        <v>87</v>
-      </c>
-      <c r="G32" s="12" t="s">
-        <v>72</v>
-      </c>
-      <c r="H32" s="15" t="n"/>
-      <c r="I32" s="12" t="n"/>
-      <c r="J32" s="16" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row outlineLevel="0" r="33">
-      <c r="A33" s="52" t="s"/>
-      <c r="B33" s="18" t="s"/>
-      <c r="C33" s="0" t="n"/>
-      <c r="D33" s="0" t="n"/>
-      <c r="E33" s="57" t="s"/>
-      <c r="F33" s="20" t="s">
-        <v>88</v>
-      </c>
-      <c r="G33" s="59" t="s">
-        <v>89</v>
-      </c>
-      <c r="H33" s="21" t="n"/>
-      <c r="I33" s="0" t="n"/>
-      <c r="J33" s="22" t="s">
+      <c r="H33" s="16" t="n"/>
+      <c r="I33" s="12" t="n"/>
+      <c r="J33" s="15" t="s">
         <v>15</v>
       </c>
     </row>
     <row outlineLevel="0" r="34">
-      <c r="A34" s="52" t="s"/>
+      <c r="A34" s="76" t="s"/>
       <c r="B34" s="18" t="s"/>
       <c r="C34" s="0" t="n"/>
       <c r="D34" s="0" t="n"/>
-      <c r="E34" s="57" t="s"/>
+      <c r="E34" s="81" t="s"/>
       <c r="F34" s="20" t="s">
         <v>90</v>
       </c>
-      <c r="G34" s="20" t="s">
+      <c r="G34" s="85" t="s">
         <v>91</v>
       </c>
-      <c r="H34" s="21" t="n"/>
+      <c r="H34" s="22" t="n"/>
       <c r="I34" s="0" t="n"/>
-      <c r="J34" s="22" t="s">
+      <c r="J34" s="21" t="s">
         <v>15</v>
       </c>
     </row>
     <row outlineLevel="0" r="35">
-      <c r="A35" s="52" t="s"/>
+      <c r="A35" s="76" t="s"/>
       <c r="B35" s="18" t="s"/>
       <c r="C35" s="0" t="n"/>
       <c r="D35" s="0" t="n"/>
-      <c r="E35" s="57" t="s"/>
+      <c r="E35" s="81" t="s"/>
       <c r="F35" s="20" t="s">
         <v>92</v>
       </c>
-      <c r="G35" s="20" t="s">
+      <c r="G35" s="21" t="s">
         <v>93</v>
       </c>
-      <c r="H35" s="21" t="n"/>
+      <c r="H35" s="22" t="n"/>
       <c r="I35" s="0" t="n"/>
-      <c r="J35" s="22" t="s">
+      <c r="J35" s="21" t="s">
         <v>15</v>
       </c>
     </row>
     <row outlineLevel="0" r="36">
-      <c r="A36" s="52" t="s"/>
+      <c r="A36" s="76" t="s"/>
       <c r="B36" s="18" t="s"/>
       <c r="C36" s="0" t="n"/>
       <c r="D36" s="0" t="n"/>
-      <c r="E36" s="57" t="s"/>
-      <c r="F36" s="0" t="s">
+      <c r="E36" s="81" t="s"/>
+      <c r="F36" s="20" t="s">
         <v>94</v>
       </c>
-      <c r="G36" s="0" t="s">
-        <v>68</v>
-      </c>
-      <c r="H36" s="21" t="n"/>
+      <c r="G36" s="21" t="s">
+        <v>95</v>
+      </c>
+      <c r="H36" s="22" t="n"/>
       <c r="I36" s="0" t="n"/>
-      <c r="J36" s="22" t="s">
+      <c r="J36" s="21" t="s">
         <v>15</v>
       </c>
     </row>
     <row outlineLevel="0" r="37">
-      <c r="A37" s="52" t="s"/>
+      <c r="A37" s="76" t="s"/>
       <c r="B37" s="18" t="s"/>
       <c r="C37" s="0" t="n"/>
       <c r="D37" s="0" t="n"/>
-      <c r="E37" s="57" t="s"/>
-      <c r="F37" s="20" t="s">
-        <v>95</v>
-      </c>
-      <c r="G37" s="20" t="s">
+      <c r="E37" s="81" t="s"/>
+      <c r="F37" s="23" t="s">
         <v>96</v>
       </c>
-      <c r="H37" s="21" t="n"/>
+      <c r="G37" s="24" t="s">
+        <v>70</v>
+      </c>
+      <c r="H37" s="22" t="n"/>
       <c r="I37" s="0" t="n"/>
-      <c r="J37" s="22" t="s">
+      <c r="J37" s="21" t="s">
         <v>15</v>
       </c>
     </row>
     <row outlineLevel="0" r="38">
-      <c r="A38" s="52" t="s"/>
+      <c r="A38" s="76" t="s"/>
       <c r="B38" s="18" t="s"/>
       <c r="C38" s="0" t="n"/>
       <c r="D38" s="0" t="n"/>
-      <c r="E38" s="57" t="s"/>
+      <c r="E38" s="81" t="s"/>
       <c r="F38" s="20" t="s">
         <v>97</v>
       </c>
-      <c r="G38" s="0" t="s">
+      <c r="G38" s="21" t="s">
         <v>98</v>
       </c>
-      <c r="H38" s="21" t="n"/>
+      <c r="H38" s="22" t="n"/>
       <c r="I38" s="0" t="n"/>
-      <c r="J38" s="22" t="s">
+      <c r="J38" s="21" t="s">
         <v>15</v>
       </c>
     </row>
     <row outlineLevel="0" r="39">
-      <c r="A39" s="52" t="s"/>
+      <c r="A39" s="76" t="s"/>
       <c r="B39" s="18" t="s"/>
       <c r="C39" s="0" t="n"/>
       <c r="D39" s="0" t="n"/>
-      <c r="E39" s="57" t="s"/>
+      <c r="E39" s="81" t="s"/>
       <c r="F39" s="20" t="s">
         <v>99</v>
       </c>
-      <c r="G39" s="0" t="s">
+      <c r="G39" s="24" t="s">
         <v>100</v>
       </c>
-      <c r="H39" s="21" t="n"/>
+      <c r="H39" s="22" t="n"/>
       <c r="I39" s="0" t="n"/>
-      <c r="J39" s="22" t="s">
+      <c r="J39" s="21" t="s">
         <v>15</v>
       </c>
     </row>
     <row outlineLevel="0" r="40">
-      <c r="A40" s="54" t="s"/>
-      <c r="B40" s="26" t="s"/>
-      <c r="C40" s="27" t="n"/>
-      <c r="D40" s="27" t="n"/>
-      <c r="E40" s="58" t="s"/>
-      <c r="F40" s="29" t="s">
+      <c r="A40" s="76" t="s"/>
+      <c r="B40" s="18" t="s"/>
+      <c r="C40" s="0" t="n"/>
+      <c r="D40" s="0" t="n"/>
+      <c r="E40" s="81" t="s"/>
+      <c r="F40" s="20" t="s">
         <v>101</v>
       </c>
-      <c r="G40" s="27" t="s">
+      <c r="G40" s="24" t="s">
         <v>102</v>
       </c>
-      <c r="H40" s="30" t="n"/>
-      <c r="I40" s="27" t="n"/>
-      <c r="J40" s="31" t="s">
+      <c r="H40" s="22" t="n"/>
+      <c r="I40" s="0" t="n"/>
+      <c r="J40" s="21" t="s">
         <v>15</v>
       </c>
     </row>
     <row outlineLevel="0" r="41">
-      <c r="A41" s="50" t="n">
+      <c r="A41" s="0" t="n"/>
+      <c r="B41" s="0" t="n"/>
+      <c r="C41" s="29" t="n"/>
+      <c r="D41" s="29" t="n"/>
+      <c r="E41" s="0" t="n"/>
+      <c r="F41" s="82" t="s">
+        <v>103</v>
+      </c>
+      <c r="G41" s="86" t="s">
+        <v>104</v>
+      </c>
+      <c r="H41" s="33" t="n"/>
+      <c r="I41" s="29" t="n"/>
+      <c r="J41" s="32" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="42">
+      <c r="A42" s="73" t="n">
         <v>8</v>
       </c>
-      <c r="B41" s="11" t="s">
-        <v>103</v>
-      </c>
-      <c r="C41" s="12" t="n"/>
-      <c r="D41" s="12" t="n"/>
-      <c r="E41" s="13" t="s">
-        <v>62</v>
-      </c>
-      <c r="F41" s="14" t="s">
-        <v>104</v>
-      </c>
-      <c r="G41" s="12" t="s">
-        <v>70</v>
-      </c>
-      <c r="H41" s="15" t="n"/>
-      <c r="I41" s="12" t="n"/>
-      <c r="J41" s="16" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row outlineLevel="0" r="42">
-      <c r="A42" s="52" t="s"/>
-      <c r="B42" s="18" t="s"/>
-      <c r="C42" s="0" t="n"/>
-      <c r="D42" s="0" t="n"/>
-      <c r="E42" s="19" t="s"/>
-      <c r="F42" s="20" t="s">
+      <c r="B42" s="11" t="s">
         <v>105</v>
       </c>
-      <c r="G42" s="0" t="s">
+      <c r="C42" s="12" t="n"/>
+      <c r="D42" s="12" t="n"/>
+      <c r="E42" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="F42" s="14" t="s">
         <v>106</v>
       </c>
-      <c r="H42" s="21" t="n"/>
-      <c r="I42" s="0" t="n"/>
-      <c r="J42" s="22" t="s">
+      <c r="G42" s="84" t="s">
+        <v>72</v>
+      </c>
+      <c r="H42" s="16" t="n"/>
+      <c r="I42" s="12" t="n"/>
+      <c r="J42" s="15" t="s">
         <v>15</v>
       </c>
     </row>
     <row outlineLevel="0" r="43">
-      <c r="A43" s="52" t="s"/>
+      <c r="A43" s="76" t="s"/>
       <c r="B43" s="18" t="s"/>
       <c r="C43" s="0" t="n"/>
       <c r="D43" s="0" t="n"/>
@@ -4061,3417 +4501,3435 @@
       <c r="F43" s="20" t="s">
         <v>107</v>
       </c>
-      <c r="G43" s="0" t="s">
+      <c r="G43" s="24" t="s">
         <v>108</v>
       </c>
-      <c r="H43" s="21" t="n"/>
+      <c r="H43" s="22" t="n"/>
       <c r="I43" s="0" t="n"/>
-      <c r="J43" s="22" t="s">
+      <c r="J43" s="21" t="s">
         <v>15</v>
       </c>
     </row>
     <row outlineLevel="0" r="44">
-      <c r="A44" s="54" t="s"/>
-      <c r="B44" s="26" t="s"/>
-      <c r="C44" s="27" t="n"/>
-      <c r="D44" s="27" t="n"/>
-      <c r="E44" s="28" t="s"/>
-      <c r="F44" s="29" t="s">
+      <c r="A44" s="76" t="s"/>
+      <c r="B44" s="18" t="s"/>
+      <c r="C44" s="0" t="n"/>
+      <c r="D44" s="0" t="n"/>
+      <c r="E44" s="19" t="s"/>
+      <c r="F44" s="20" t="s">
         <v>109</v>
       </c>
-      <c r="G44" s="29" t="s">
+      <c r="G44" s="24" t="s">
         <v>110</v>
       </c>
-      <c r="H44" s="30" t="n"/>
-      <c r="I44" s="27" t="n"/>
-      <c r="J44" s="31" t="s">
+      <c r="H44" s="22" t="n"/>
+      <c r="I44" s="0" t="n"/>
+      <c r="J44" s="21" t="s">
         <v>15</v>
       </c>
     </row>
     <row outlineLevel="0" r="45">
-      <c r="A45" s="50" t="n">
+      <c r="A45" s="0" t="n"/>
+      <c r="B45" s="0" t="n"/>
+      <c r="C45" s="29" t="n"/>
+      <c r="D45" s="29" t="n"/>
+      <c r="E45" s="0" t="n"/>
+      <c r="F45" s="82" t="s">
+        <v>111</v>
+      </c>
+      <c r="G45" s="32" t="s">
+        <v>112</v>
+      </c>
+      <c r="H45" s="33" t="n"/>
+      <c r="I45" s="29" t="n"/>
+      <c r="J45" s="32" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="46">
+      <c r="A46" s="73" t="n">
         <v>9</v>
       </c>
-      <c r="B45" s="35" t="s">
-        <v>111</v>
-      </c>
-      <c r="C45" s="36" t="n"/>
-      <c r="D45" s="36" t="n"/>
-      <c r="E45" s="51" t="s">
-        <v>62</v>
-      </c>
-      <c r="F45" s="38" t="s">
-        <v>112</v>
-      </c>
-      <c r="G45" s="38" t="s">
+      <c r="B46" s="58" t="s">
         <v>113</v>
       </c>
-      <c r="H45" s="39" t="n"/>
-      <c r="I45" s="12" t="n"/>
-      <c r="J45" s="16" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row outlineLevel="0" r="46">
-      <c r="A46" s="52" t="s"/>
-      <c r="B46" s="41" t="s"/>
-      <c r="C46" s="0" t="n"/>
-      <c r="D46" s="0" t="n"/>
-      <c r="E46" s="53" t="s"/>
-      <c r="F46" s="0" t="s">
+      <c r="C46" s="59" t="n"/>
+      <c r="D46" s="59" t="n"/>
+      <c r="E46" s="74" t="s">
+        <v>64</v>
+      </c>
+      <c r="F46" s="61" t="s">
         <v>114</v>
       </c>
-      <c r="G46" s="0" t="s">
+      <c r="G46" s="62" t="s">
         <v>115</v>
       </c>
-      <c r="H46" s="43" t="n"/>
-      <c r="I46" s="0" t="n"/>
-      <c r="J46" s="22" t="s">
+      <c r="H46" s="63" t="n"/>
+      <c r="I46" s="12" t="n"/>
+      <c r="J46" s="15" t="s">
         <v>15</v>
       </c>
     </row>
     <row outlineLevel="0" r="47">
-      <c r="A47" s="52" t="s"/>
-      <c r="B47" s="41" t="s"/>
+      <c r="A47" s="76" t="s"/>
+      <c r="B47" s="65" t="s"/>
       <c r="C47" s="0" t="n"/>
       <c r="D47" s="0" t="n"/>
-      <c r="E47" s="53" t="s"/>
-      <c r="F47" s="0" t="s">
+      <c r="E47" s="77" t="s"/>
+      <c r="F47" s="23" t="s">
         <v>116</v>
       </c>
-      <c r="G47" s="0" t="s">
+      <c r="G47" s="24" t="s">
         <v>117</v>
       </c>
-      <c r="H47" s="43" t="n"/>
+      <c r="H47" s="67" t="n"/>
       <c r="I47" s="0" t="n"/>
-      <c r="J47" s="22" t="s">
+      <c r="J47" s="21" t="s">
         <v>15</v>
       </c>
     </row>
     <row outlineLevel="0" r="48">
-      <c r="A48" s="52" t="s"/>
-      <c r="B48" s="41" t="s"/>
+      <c r="A48" s="76" t="s"/>
+      <c r="B48" s="65" t="s"/>
       <c r="C48" s="0" t="n"/>
       <c r="D48" s="0" t="n"/>
-      <c r="E48" s="53" t="s"/>
-      <c r="F48" s="20" t="s">
+      <c r="E48" s="77" t="s"/>
+      <c r="F48" s="23" t="s">
         <v>118</v>
       </c>
-      <c r="G48" s="0" t="s">
+      <c r="G48" s="24" t="s">
         <v>119</v>
       </c>
-      <c r="H48" s="43" t="n"/>
+      <c r="H48" s="67" t="n"/>
       <c r="I48" s="0" t="n"/>
-      <c r="J48" s="22" t="s">
+      <c r="J48" s="21" t="s">
         <v>15</v>
       </c>
     </row>
     <row outlineLevel="0" r="49">
-      <c r="A49" s="52" t="s"/>
-      <c r="B49" s="41" t="s"/>
+      <c r="A49" s="76" t="s"/>
+      <c r="B49" s="65" t="s"/>
       <c r="C49" s="0" t="n"/>
       <c r="D49" s="0" t="n"/>
-      <c r="E49" s="53" t="s"/>
-      <c r="F49" s="0" t="s">
+      <c r="E49" s="77" t="s"/>
+      <c r="F49" s="20" t="s">
         <v>120</v>
       </c>
-      <c r="G49" s="0" t="s">
+      <c r="G49" s="24" t="s">
         <v>121</v>
       </c>
-      <c r="H49" s="43" t="n"/>
+      <c r="H49" s="67" t="n"/>
       <c r="I49" s="0" t="n"/>
-      <c r="J49" s="22" t="s">
+      <c r="J49" s="21" t="s">
         <v>15</v>
       </c>
     </row>
     <row outlineLevel="0" r="50">
-      <c r="A50" s="52" t="s"/>
-      <c r="B50" s="41" t="s"/>
+      <c r="A50" s="76" t="s"/>
+      <c r="B50" s="65" t="s"/>
       <c r="C50" s="0" t="n"/>
       <c r="D50" s="0" t="n"/>
-      <c r="E50" s="53" t="s"/>
-      <c r="F50" s="0" t="s">
-        <v>116</v>
-      </c>
-      <c r="G50" s="0" t="s">
+      <c r="E50" s="77" t="s"/>
+      <c r="F50" s="23" t="s">
         <v>122</v>
       </c>
-      <c r="H50" s="43" t="n"/>
+      <c r="G50" s="24" t="s">
+        <v>123</v>
+      </c>
+      <c r="H50" s="67" t="n"/>
       <c r="I50" s="0" t="n"/>
-      <c r="J50" s="22" t="s">
+      <c r="J50" s="21" t="s">
         <v>15</v>
       </c>
     </row>
     <row outlineLevel="0" r="51">
-      <c r="A51" s="52" t="s"/>
-      <c r="B51" s="41" t="s"/>
+      <c r="A51" s="76" t="s"/>
+      <c r="B51" s="65" t="s"/>
       <c r="C51" s="0" t="n"/>
       <c r="D51" s="0" t="n"/>
-      <c r="E51" s="53" t="s"/>
-      <c r="F51" s="20" t="s">
+      <c r="E51" s="77" t="s"/>
+      <c r="F51" s="23" t="s">
         <v>118</v>
       </c>
-      <c r="G51" s="0" t="s">
-        <v>119</v>
-      </c>
-      <c r="H51" s="43" t="n"/>
+      <c r="G51" s="24" t="s">
+        <v>124</v>
+      </c>
+      <c r="H51" s="67" t="n"/>
       <c r="I51" s="0" t="n"/>
-      <c r="J51" s="22" t="s">
+      <c r="J51" s="21" t="s">
         <v>15</v>
       </c>
     </row>
     <row outlineLevel="0" r="52">
-      <c r="A52" s="54" t="s"/>
-      <c r="B52" s="45" t="s"/>
-      <c r="C52" s="46" t="n"/>
-      <c r="D52" s="46" t="n"/>
-      <c r="E52" s="55" t="s"/>
-      <c r="F52" s="46" t="s">
-        <v>123</v>
-      </c>
-      <c r="G52" s="48" t="s">
-        <v>124</v>
-      </c>
-      <c r="H52" s="49" t="n"/>
-      <c r="I52" s="27" t="n"/>
-      <c r="J52" s="31" t="s">
+      <c r="A52" s="76" t="s"/>
+      <c r="B52" s="65" t="s"/>
+      <c r="C52" s="0" t="n"/>
+      <c r="D52" s="0" t="n"/>
+      <c r="E52" s="77" t="s"/>
+      <c r="F52" s="20" t="s">
+        <v>120</v>
+      </c>
+      <c r="G52" s="24" t="s">
+        <v>121</v>
+      </c>
+      <c r="H52" s="67" t="n"/>
+      <c r="I52" s="0" t="n"/>
+      <c r="J52" s="21" t="s">
         <v>15</v>
       </c>
     </row>
     <row outlineLevel="0" r="53">
-      <c r="A53" s="50" t="n">
+      <c r="A53" s="0" t="n"/>
+      <c r="B53" s="0" t="n"/>
+      <c r="C53" s="68" t="n"/>
+      <c r="D53" s="68" t="n"/>
+      <c r="E53" s="0" t="n"/>
+      <c r="F53" s="69" t="s">
+        <v>125</v>
+      </c>
+      <c r="G53" s="70" t="s">
+        <v>126</v>
+      </c>
+      <c r="H53" s="71" t="n"/>
+      <c r="I53" s="29" t="n"/>
+      <c r="J53" s="32" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="54">
+      <c r="A54" s="73" t="n">
         <v>10</v>
       </c>
-      <c r="B53" s="11" t="s">
-        <v>125</v>
-      </c>
-      <c r="C53" s="12" t="n"/>
-      <c r="D53" s="12" t="n"/>
-      <c r="E53" s="56" t="s">
-        <v>62</v>
-      </c>
-      <c r="F53" s="14" t="s">
-        <v>126</v>
-      </c>
-      <c r="G53" s="12" t="s">
-        <v>98</v>
-      </c>
-      <c r="H53" s="15" t="n"/>
-      <c r="I53" s="12" t="n"/>
-      <c r="J53" s="16" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row outlineLevel="0" r="54">
-      <c r="A54" s="52" t="s"/>
-      <c r="B54" s="18" t="s"/>
-      <c r="C54" s="0" t="n"/>
-      <c r="D54" s="0" t="n"/>
-      <c r="E54" s="57" t="s"/>
-      <c r="F54" s="20" t="s">
+      <c r="B54" s="11" t="s">
         <v>127</v>
       </c>
-      <c r="G54" s="20" t="s">
+      <c r="C54" s="12" t="n"/>
+      <c r="D54" s="12" t="n"/>
+      <c r="E54" s="79" t="s">
+        <v>64</v>
+      </c>
+      <c r="F54" s="14" t="s">
         <v>128</v>
       </c>
-      <c r="H54" s="21" t="n"/>
-      <c r="I54" s="0" t="n"/>
-      <c r="J54" s="22" t="s">
+      <c r="G54" s="84" t="s">
+        <v>100</v>
+      </c>
+      <c r="H54" s="16" t="n"/>
+      <c r="I54" s="12" t="n"/>
+      <c r="J54" s="15" t="s">
         <v>15</v>
       </c>
     </row>
     <row outlineLevel="0" r="55">
-      <c r="A55" s="52" t="s"/>
+      <c r="A55" s="76" t="s"/>
       <c r="B55" s="18" t="s"/>
       <c r="C55" s="0" t="n"/>
       <c r="D55" s="0" t="n"/>
-      <c r="E55" s="57" t="s"/>
+      <c r="E55" s="81" t="s"/>
       <c r="F55" s="20" t="s">
         <v>129</v>
       </c>
-      <c r="G55" s="0" t="s">
+      <c r="G55" s="21" t="s">
         <v>130</v>
       </c>
-      <c r="H55" s="21" t="n"/>
+      <c r="H55" s="22" t="n"/>
       <c r="I55" s="0" t="n"/>
-      <c r="J55" s="22" t="s">
+      <c r="J55" s="21" t="s">
         <v>15</v>
       </c>
     </row>
     <row outlineLevel="0" r="56">
-      <c r="A56" s="52" t="s"/>
+      <c r="A56" s="76" t="s"/>
       <c r="B56" s="18" t="s"/>
       <c r="C56" s="0" t="n"/>
       <c r="D56" s="0" t="n"/>
-      <c r="E56" s="57" t="s"/>
-      <c r="F56" s="60" t="s">
+      <c r="E56" s="81" t="s"/>
+      <c r="F56" s="20" t="s">
         <v>131</v>
       </c>
-      <c r="G56" s="0" t="s">
+      <c r="G56" s="24" t="s">
         <v>132</v>
       </c>
-      <c r="H56" s="21" t="n"/>
+      <c r="H56" s="22" t="n"/>
       <c r="I56" s="0" t="n"/>
-      <c r="J56" s="22" t="s">
+      <c r="J56" s="21" t="s">
         <v>15</v>
       </c>
     </row>
     <row outlineLevel="0" r="57">
-      <c r="A57" s="52" t="s"/>
+      <c r="A57" s="76" t="s"/>
       <c r="B57" s="18" t="s"/>
       <c r="C57" s="0" t="n"/>
       <c r="D57" s="0" t="n"/>
-      <c r="E57" s="57" t="s"/>
-      <c r="F57" s="60" t="s">
+      <c r="E57" s="81" t="s"/>
+      <c r="F57" s="87" t="s">
         <v>133</v>
       </c>
-      <c r="G57" s="0" t="s">
+      <c r="G57" s="24" t="s">
         <v>134</v>
       </c>
-      <c r="H57" s="21" t="n"/>
+      <c r="H57" s="22" t="n"/>
       <c r="I57" s="0" t="n"/>
-      <c r="J57" s="22" t="s">
+      <c r="J57" s="21" t="s">
         <v>15</v>
       </c>
     </row>
     <row outlineLevel="0" r="58">
-      <c r="A58" s="52" t="s"/>
+      <c r="A58" s="76" t="s"/>
       <c r="B58" s="18" t="s"/>
       <c r="C58" s="0" t="n"/>
       <c r="D58" s="0" t="n"/>
-      <c r="E58" s="57" t="s"/>
-      <c r="F58" s="20" t="s">
+      <c r="E58" s="81" t="s"/>
+      <c r="F58" s="87" t="s">
         <v>135</v>
       </c>
-      <c r="G58" s="20" t="s">
-        <v>128</v>
-      </c>
-      <c r="H58" s="21" t="n"/>
+      <c r="G58" s="24" t="s">
+        <v>136</v>
+      </c>
+      <c r="H58" s="22" t="n"/>
       <c r="I58" s="0" t="n"/>
-      <c r="J58" s="22" t="s">
+      <c r="J58" s="21" t="s">
         <v>15</v>
       </c>
     </row>
     <row outlineLevel="0" r="59">
-      <c r="A59" s="52" t="s"/>
+      <c r="A59" s="76" t="s"/>
       <c r="B59" s="18" t="s"/>
       <c r="C59" s="0" t="n"/>
       <c r="D59" s="0" t="n"/>
-      <c r="E59" s="57" t="s"/>
-      <c r="F59" s="0" t="s">
-        <v>136</v>
-      </c>
-      <c r="G59" s="20" t="s">
+      <c r="E59" s="81" t="s"/>
+      <c r="F59" s="20" t="s">
         <v>137</v>
       </c>
-      <c r="H59" s="21" t="n"/>
+      <c r="G59" s="21" t="s">
+        <v>130</v>
+      </c>
+      <c r="H59" s="22" t="n"/>
       <c r="I59" s="0" t="n"/>
-      <c r="J59" s="22" t="s">
+      <c r="J59" s="21" t="s">
         <v>15</v>
       </c>
     </row>
     <row outlineLevel="0" r="60">
-      <c r="A60" s="52" t="s"/>
+      <c r="A60" s="76" t="s"/>
       <c r="B60" s="18" t="s"/>
       <c r="C60" s="0" t="n"/>
       <c r="D60" s="0" t="n"/>
-      <c r="E60" s="57" t="s"/>
-      <c r="F60" s="20" t="s">
+      <c r="E60" s="81" t="s"/>
+      <c r="F60" s="23" t="s">
         <v>138</v>
       </c>
-      <c r="G60" s="0" t="s">
+      <c r="G60" s="21" t="s">
         <v>139</v>
       </c>
-      <c r="H60" s="21" t="n"/>
+      <c r="H60" s="22" t="n"/>
       <c r="I60" s="0" t="n"/>
-      <c r="J60" s="22" t="s">
+      <c r="J60" s="21" t="s">
         <v>15</v>
       </c>
     </row>
     <row outlineLevel="0" r="61">
-      <c r="A61" s="52" t="s"/>
+      <c r="A61" s="76" t="s"/>
       <c r="B61" s="18" t="s"/>
       <c r="C61" s="0" t="n"/>
       <c r="D61" s="0" t="n"/>
-      <c r="E61" s="57" t="s"/>
-      <c r="F61" s="0" t="s">
+      <c r="E61" s="81" t="s"/>
+      <c r="F61" s="20" t="s">
         <v>140</v>
       </c>
-      <c r="G61" s="20" t="s">
+      <c r="G61" s="24" t="s">
         <v>141</v>
       </c>
-      <c r="H61" s="21" t="n"/>
+      <c r="H61" s="22" t="n"/>
       <c r="I61" s="0" t="n"/>
-      <c r="J61" s="22" t="s">
+      <c r="J61" s="21" t="s">
         <v>15</v>
       </c>
     </row>
     <row outlineLevel="0" r="62">
-      <c r="A62" s="52" t="s"/>
+      <c r="A62" s="76" t="s"/>
       <c r="B62" s="18" t="s"/>
       <c r="C62" s="0" t="n"/>
       <c r="D62" s="0" t="n"/>
-      <c r="E62" s="57" t="s"/>
-      <c r="F62" s="20" t="s">
+      <c r="E62" s="81" t="s"/>
+      <c r="F62" s="23" t="s">
         <v>142</v>
       </c>
-      <c r="G62" s="0" t="s">
+      <c r="G62" s="21" t="s">
         <v>143</v>
       </c>
-      <c r="H62" s="21" t="n"/>
+      <c r="H62" s="22" t="n"/>
       <c r="I62" s="0" t="n"/>
-      <c r="J62" s="22" t="s">
+      <c r="J62" s="21" t="s">
         <v>15</v>
       </c>
     </row>
     <row outlineLevel="0" r="63">
-      <c r="A63" s="52" t="s"/>
+      <c r="A63" s="76" t="s"/>
       <c r="B63" s="18" t="s"/>
       <c r="C63" s="0" t="n"/>
       <c r="D63" s="0" t="n"/>
-      <c r="E63" s="57" t="s"/>
+      <c r="E63" s="81" t="s"/>
       <c r="F63" s="20" t="s">
-        <v>138</v>
-      </c>
-      <c r="G63" s="0" t="s">
         <v>144</v>
       </c>
-      <c r="H63" s="21" t="n"/>
+      <c r="G63" s="24" t="s">
+        <v>145</v>
+      </c>
+      <c r="H63" s="22" t="n"/>
       <c r="I63" s="0" t="n"/>
-      <c r="J63" s="22" t="s">
+      <c r="J63" s="21" t="s">
         <v>15</v>
       </c>
     </row>
     <row outlineLevel="0" r="64">
-      <c r="A64" s="52" t="s"/>
+      <c r="A64" s="76" t="s"/>
       <c r="B64" s="18" t="s"/>
       <c r="C64" s="0" t="n"/>
       <c r="D64" s="0" t="n"/>
-      <c r="E64" s="57" t="s"/>
-      <c r="F64" s="0" t="s">
-        <v>145</v>
-      </c>
-      <c r="G64" s="20" t="s">
+      <c r="E64" s="81" t="s"/>
+      <c r="F64" s="20" t="s">
+        <v>140</v>
+      </c>
+      <c r="G64" s="24" t="s">
         <v>146</v>
       </c>
-      <c r="H64" s="21" t="n"/>
+      <c r="H64" s="22" t="n"/>
       <c r="I64" s="0" t="n"/>
-      <c r="J64" s="22" t="s">
+      <c r="J64" s="21" t="s">
         <v>15</v>
       </c>
     </row>
     <row outlineLevel="0" r="65">
-      <c r="A65" s="54" t="s"/>
-      <c r="B65" s="26" t="s"/>
-      <c r="C65" s="27" t="n"/>
-      <c r="D65" s="27" t="n"/>
-      <c r="E65" s="58" t="s"/>
-      <c r="F65" s="29" t="s">
+      <c r="A65" s="76" t="s"/>
+      <c r="B65" s="18" t="s"/>
+      <c r="C65" s="0" t="n"/>
+      <c r="D65" s="0" t="n"/>
+      <c r="E65" s="81" t="s"/>
+      <c r="F65" s="23" t="s">
         <v>147</v>
       </c>
-      <c r="G65" s="29" t="s">
+      <c r="G65" s="21" t="s">
         <v>148</v>
       </c>
-      <c r="H65" s="30" t="n"/>
-      <c r="I65" s="27" t="n"/>
-      <c r="J65" s="31" t="s">
+      <c r="H65" s="22" t="n"/>
+      <c r="I65" s="0" t="n"/>
+      <c r="J65" s="21" t="s">
         <v>15</v>
       </c>
     </row>
     <row outlineLevel="0" r="66">
-      <c r="A66" s="50" t="n">
+      <c r="A66" s="0" t="n"/>
+      <c r="B66" s="0" t="n"/>
+      <c r="C66" s="29" t="n"/>
+      <c r="D66" s="29" t="n"/>
+      <c r="E66" s="0" t="n"/>
+      <c r="F66" s="82" t="s">
+        <v>149</v>
+      </c>
+      <c r="G66" s="32" t="s">
+        <v>150</v>
+      </c>
+      <c r="H66" s="33" t="n"/>
+      <c r="I66" s="29" t="n"/>
+      <c r="J66" s="32" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="67">
+      <c r="A67" s="73" t="n">
         <v>11</v>
       </c>
-      <c r="B66" s="11" t="s">
-        <v>149</v>
-      </c>
-      <c r="C66" s="12" t="n"/>
-      <c r="D66" s="12" t="n"/>
-      <c r="E66" s="56" t="s">
-        <v>62</v>
-      </c>
-      <c r="F66" s="14" t="s">
-        <v>138</v>
-      </c>
-      <c r="G66" s="12" t="s">
-        <v>139</v>
-      </c>
-      <c r="H66" s="15" t="n"/>
-      <c r="I66" s="12" t="n"/>
-      <c r="J66" s="16" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row outlineLevel="0" r="67">
-      <c r="A67" s="52" t="s"/>
-      <c r="B67" s="18" t="s"/>
-      <c r="C67" s="0" t="n"/>
-      <c r="D67" s="0" t="n"/>
-      <c r="E67" s="57" t="s"/>
-      <c r="F67" s="20" t="s">
-        <v>150</v>
-      </c>
-      <c r="G67" s="0" t="s">
+      <c r="B67" s="11" t="s">
         <v>151</v>
       </c>
-      <c r="H67" s="21" t="n"/>
-      <c r="I67" s="0" t="n"/>
-      <c r="J67" s="22" t="s">
+      <c r="C67" s="12" t="n"/>
+      <c r="D67" s="12" t="n"/>
+      <c r="E67" s="79" t="s">
+        <v>64</v>
+      </c>
+      <c r="F67" s="14" t="s">
+        <v>140</v>
+      </c>
+      <c r="G67" s="84" t="s">
+        <v>141</v>
+      </c>
+      <c r="H67" s="16" t="n"/>
+      <c r="I67" s="12" t="n"/>
+      <c r="J67" s="15" t="s">
         <v>15</v>
       </c>
     </row>
     <row outlineLevel="0" r="68">
-      <c r="A68" s="52" t="s"/>
+      <c r="A68" s="76" t="s"/>
       <c r="B68" s="18" t="s"/>
       <c r="C68" s="0" t="n"/>
       <c r="D68" s="0" t="n"/>
-      <c r="E68" s="57" t="s"/>
+      <c r="E68" s="81" t="s"/>
       <c r="F68" s="20" t="s">
         <v>152</v>
       </c>
-      <c r="G68" s="20" t="s">
+      <c r="G68" s="24" t="s">
         <v>153</v>
       </c>
-      <c r="H68" s="21" t="n"/>
+      <c r="H68" s="22" t="n"/>
       <c r="I68" s="0" t="n"/>
-      <c r="J68" s="22" t="s">
+      <c r="J68" s="21" t="s">
         <v>15</v>
       </c>
     </row>
     <row outlineLevel="0" r="69">
-      <c r="A69" s="54" t="s"/>
-      <c r="B69" s="26" t="s"/>
-      <c r="C69" s="27" t="n"/>
-      <c r="D69" s="27" t="n"/>
-      <c r="E69" s="58" t="s"/>
-      <c r="F69" s="29" t="s">
+      <c r="A69" s="76" t="s"/>
+      <c r="B69" s="18" t="s"/>
+      <c r="C69" s="0" t="n"/>
+      <c r="D69" s="0" t="n"/>
+      <c r="E69" s="81" t="s"/>
+      <c r="F69" s="20" t="s">
         <v>154</v>
       </c>
-      <c r="G69" s="29" t="s">
+      <c r="G69" s="21" t="s">
         <v>155</v>
       </c>
-      <c r="H69" s="30" t="n"/>
-      <c r="I69" s="27" t="n"/>
-      <c r="J69" s="31" t="s">
+      <c r="H69" s="22" t="n"/>
+      <c r="I69" s="0" t="n"/>
+      <c r="J69" s="21" t="s">
         <v>15</v>
       </c>
     </row>
     <row outlineLevel="0" r="70">
-      <c r="A70" s="50" t="n">
+      <c r="A70" s="0" t="n"/>
+      <c r="B70" s="0" t="n"/>
+      <c r="C70" s="29" t="n"/>
+      <c r="D70" s="29" t="n"/>
+      <c r="E70" s="0" t="n"/>
+      <c r="F70" s="82" t="s">
+        <v>156</v>
+      </c>
+      <c r="G70" s="32" t="s">
+        <v>157</v>
+      </c>
+      <c r="H70" s="33" t="n"/>
+      <c r="I70" s="29" t="n"/>
+      <c r="J70" s="32" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="71">
+      <c r="A71" s="73" t="n">
         <v>12</v>
       </c>
-      <c r="B70" s="11" t="s">
-        <v>156</v>
-      </c>
-      <c r="C70" s="12" t="n"/>
-      <c r="D70" s="12" t="n"/>
-      <c r="E70" s="56" t="s">
-        <v>62</v>
-      </c>
-      <c r="F70" s="14" t="s">
-        <v>157</v>
-      </c>
-      <c r="G70" s="14" t="s">
-        <v>110</v>
-      </c>
-      <c r="H70" s="15" t="n"/>
-      <c r="I70" s="12" t="n"/>
-      <c r="J70" s="16" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row outlineLevel="0" r="71">
-      <c r="A71" s="52" t="s"/>
-      <c r="B71" s="18" t="s"/>
-      <c r="C71" s="0" t="n"/>
-      <c r="D71" s="0" t="n"/>
-      <c r="E71" s="57" t="s"/>
-      <c r="F71" s="61" t="s">
+      <c r="B71" s="11" t="s">
         <v>158</v>
       </c>
-      <c r="G71" s="20" t="s">
+      <c r="C71" s="12" t="n"/>
+      <c r="D71" s="12" t="n"/>
+      <c r="E71" s="79" t="s">
+        <v>64</v>
+      </c>
+      <c r="F71" s="14" t="s">
         <v>159</v>
       </c>
-      <c r="H71" s="21" t="n"/>
-      <c r="I71" s="0" t="n"/>
-      <c r="J71" s="22" t="s">
+      <c r="G71" s="15" t="s">
+        <v>112</v>
+      </c>
+      <c r="H71" s="16" t="n"/>
+      <c r="I71" s="12" t="n"/>
+      <c r="J71" s="15" t="s">
         <v>15</v>
       </c>
     </row>
     <row outlineLevel="0" r="72">
-      <c r="A72" s="52" t="s"/>
+      <c r="A72" s="76" t="s"/>
       <c r="B72" s="18" t="s"/>
       <c r="C72" s="0" t="n"/>
       <c r="D72" s="0" t="n"/>
-      <c r="E72" s="57" t="s"/>
-      <c r="F72" s="20" t="s">
+      <c r="E72" s="81" t="s"/>
+      <c r="F72" s="88" t="s">
         <v>160</v>
       </c>
-      <c r="G72" s="20" t="s">
+      <c r="G72" s="21" t="s">
         <v>161</v>
       </c>
-      <c r="H72" s="21" t="n"/>
+      <c r="H72" s="22" t="n"/>
       <c r="I72" s="0" t="n"/>
-      <c r="J72" s="22" t="s">
+      <c r="J72" s="21" t="s">
         <v>15</v>
       </c>
     </row>
     <row outlineLevel="0" r="73">
-      <c r="A73" s="52" t="s"/>
+      <c r="A73" s="76" t="s"/>
       <c r="B73" s="18" t="s"/>
       <c r="C73" s="0" t="n"/>
       <c r="D73" s="0" t="n"/>
-      <c r="E73" s="57" t="s"/>
-      <c r="F73" s="61" t="s">
+      <c r="E73" s="81" t="s"/>
+      <c r="F73" s="20" t="s">
         <v>162</v>
       </c>
-      <c r="G73" s="20" t="s">
+      <c r="G73" s="21" t="s">
         <v>163</v>
       </c>
-      <c r="H73" s="21" t="n"/>
+      <c r="H73" s="22" t="n"/>
       <c r="I73" s="0" t="n"/>
-      <c r="J73" s="22" t="s">
+      <c r="J73" s="21" t="s">
         <v>15</v>
       </c>
     </row>
     <row outlineLevel="0" r="74">
-      <c r="A74" s="52" t="s"/>
+      <c r="A74" s="76" t="s"/>
       <c r="B74" s="18" t="s"/>
       <c r="C74" s="0" t="n"/>
       <c r="D74" s="0" t="n"/>
-      <c r="E74" s="57" t="s"/>
-      <c r="F74" s="20" t="s">
+      <c r="E74" s="81" t="s"/>
+      <c r="F74" s="88" t="s">
         <v>164</v>
       </c>
-      <c r="G74" s="0" t="s">
+      <c r="G74" s="21" t="s">
         <v>165</v>
       </c>
-      <c r="H74" s="21" t="n"/>
+      <c r="H74" s="22" t="n"/>
       <c r="I74" s="0" t="n"/>
-      <c r="J74" s="22" t="s">
+      <c r="J74" s="21" t="s">
         <v>15</v>
       </c>
     </row>
     <row outlineLevel="0" r="75">
-      <c r="A75" s="54" t="s"/>
-      <c r="B75" s="26" t="s"/>
-      <c r="C75" s="27" t="n"/>
-      <c r="D75" s="27" t="n"/>
-      <c r="E75" s="58" t="s"/>
-      <c r="F75" s="29" t="s">
+      <c r="A75" s="76" t="s"/>
+      <c r="B75" s="18" t="s"/>
+      <c r="C75" s="0" t="n"/>
+      <c r="D75" s="0" t="n"/>
+      <c r="E75" s="81" t="s"/>
+      <c r="F75" s="20" t="s">
         <v>166</v>
       </c>
-      <c r="G75" s="29" t="s">
+      <c r="G75" s="24" t="s">
         <v>167</v>
       </c>
-      <c r="H75" s="31" t="s">
+      <c r="H75" s="22" t="n"/>
+      <c r="I75" s="0" t="n"/>
+      <c r="J75" s="21" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="76">
+      <c r="A76" s="0" t="n"/>
+      <c r="B76" s="0" t="n"/>
+      <c r="C76" s="29" t="n"/>
+      <c r="D76" s="29" t="n"/>
+      <c r="E76" s="0" t="n"/>
+      <c r="F76" s="82" t="s">
         <v>168</v>
       </c>
-      <c r="I75" s="27" t="n"/>
-      <c r="J75" s="31" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row outlineLevel="0" r="76">
-      <c r="A76" s="50" t="n">
+      <c r="G76" s="32" t="s">
+        <v>169</v>
+      </c>
+      <c r="H76" s="83" t="s">
+        <v>170</v>
+      </c>
+      <c r="I76" s="29" t="n"/>
+      <c r="J76" s="32" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="77">
+      <c r="A77" s="73" t="n">
         <v>13</v>
       </c>
-      <c r="B76" s="11" t="s">
-        <v>169</v>
-      </c>
-      <c r="C76" s="12" t="n"/>
-      <c r="D76" s="12" t="n"/>
-      <c r="E76" s="56" t="s">
-        <v>62</v>
-      </c>
-      <c r="F76" s="14" t="s">
-        <v>170</v>
-      </c>
-      <c r="G76" s="14" t="s">
+      <c r="B77" s="11" t="s">
         <v>171</v>
       </c>
-      <c r="H76" s="15" t="n"/>
-      <c r="I76" s="12" t="n"/>
-      <c r="J76" s="16" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row outlineLevel="0" r="77">
-      <c r="A77" s="52" t="s"/>
-      <c r="B77" s="18" t="s"/>
-      <c r="C77" s="0" t="n"/>
-      <c r="D77" s="0" t="n"/>
-      <c r="E77" s="57" t="s"/>
-      <c r="F77" s="20" t="s">
+      <c r="C77" s="12" t="n"/>
+      <c r="D77" s="12" t="n"/>
+      <c r="E77" s="79" t="s">
+        <v>64</v>
+      </c>
+      <c r="F77" s="14" t="s">
         <v>172</v>
       </c>
-      <c r="G77" s="20" t="s">
-        <v>167</v>
-      </c>
-      <c r="H77" s="21" t="n"/>
-      <c r="I77" s="0" t="n"/>
-      <c r="J77" s="22" t="s">
+      <c r="G77" s="15" t="s">
+        <v>173</v>
+      </c>
+      <c r="H77" s="16" t="n"/>
+      <c r="I77" s="12" t="n"/>
+      <c r="J77" s="15" t="s">
         <v>15</v>
       </c>
     </row>
     <row outlineLevel="0" r="78">
-      <c r="A78" s="52" t="s"/>
+      <c r="A78" s="76" t="s"/>
       <c r="B78" s="18" t="s"/>
       <c r="C78" s="0" t="n"/>
       <c r="D78" s="0" t="n"/>
-      <c r="E78" s="57" t="s"/>
+      <c r="E78" s="81" t="s"/>
       <c r="F78" s="20" t="s">
-        <v>173</v>
-      </c>
-      <c r="G78" s="20" t="s">
         <v>174</v>
       </c>
-      <c r="H78" s="22" t="s">
-        <v>175</v>
-      </c>
+      <c r="G78" s="21" t="s">
+        <v>169</v>
+      </c>
+      <c r="H78" s="22" t="n"/>
       <c r="I78" s="0" t="n"/>
-      <c r="J78" s="22" t="s">
+      <c r="J78" s="21" t="s">
         <v>15</v>
       </c>
     </row>
     <row outlineLevel="0" r="79">
-      <c r="A79" s="52" t="s"/>
+      <c r="A79" s="76" t="s"/>
       <c r="B79" s="18" t="s"/>
       <c r="C79" s="0" t="n"/>
       <c r="D79" s="0" t="n"/>
-      <c r="E79" s="57" t="s"/>
-      <c r="F79" s="0" t="s">
-        <v>136</v>
-      </c>
-      <c r="G79" s="20" t="s">
+      <c r="E79" s="81" t="s"/>
+      <c r="F79" s="20" t="s">
+        <v>175</v>
+      </c>
+      <c r="G79" s="21" t="s">
         <v>176</v>
       </c>
-      <c r="H79" s="21" t="n"/>
+      <c r="H79" s="89" t="s">
+        <v>177</v>
+      </c>
       <c r="I79" s="0" t="n"/>
-      <c r="J79" s="22" t="s">
+      <c r="J79" s="21" t="s">
         <v>15</v>
       </c>
     </row>
     <row outlineLevel="0" r="80">
-      <c r="A80" s="54" t="s"/>
-      <c r="B80" s="26" t="s"/>
-      <c r="C80" s="27" t="n"/>
-      <c r="D80" s="27" t="n"/>
-      <c r="E80" s="58" t="s"/>
-      <c r="F80" s="27" t="s">
-        <v>177</v>
-      </c>
-      <c r="G80" s="29" t="s">
+      <c r="A80" s="76" t="s"/>
+      <c r="B80" s="18" t="s"/>
+      <c r="C80" s="0" t="n"/>
+      <c r="D80" s="0" t="n"/>
+      <c r="E80" s="81" t="s"/>
+      <c r="F80" s="23" t="s">
+        <v>138</v>
+      </c>
+      <c r="G80" s="21" t="s">
         <v>178</v>
       </c>
-      <c r="H80" s="30" t="n"/>
-      <c r="I80" s="27" t="n"/>
-      <c r="J80" s="31" t="s">
+      <c r="H80" s="22" t="n"/>
+      <c r="I80" s="0" t="n"/>
+      <c r="J80" s="21" t="s">
         <v>15</v>
       </c>
     </row>
     <row outlineLevel="0" r="81">
-      <c r="A81" s="50" t="n">
+      <c r="A81" s="0" t="n"/>
+      <c r="B81" s="0" t="n"/>
+      <c r="C81" s="29" t="n"/>
+      <c r="D81" s="29" t="n"/>
+      <c r="E81" s="0" t="n"/>
+      <c r="F81" s="31" t="s">
+        <v>179</v>
+      </c>
+      <c r="G81" s="32" t="s">
+        <v>180</v>
+      </c>
+      <c r="H81" s="33" t="n"/>
+      <c r="I81" s="29" t="n"/>
+      <c r="J81" s="32" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="82">
+      <c r="A82" s="73" t="n">
         <v>14</v>
       </c>
-      <c r="B81" s="62" t="s">
-        <v>179</v>
-      </c>
-      <c r="C81" s="36" t="n"/>
-      <c r="D81" s="36" t="n"/>
-      <c r="E81" s="51" t="s">
-        <v>62</v>
-      </c>
-      <c r="F81" s="63" t="s">
-        <v>180</v>
-      </c>
-      <c r="G81" s="64" t="s">
-        <v>171</v>
-      </c>
-      <c r="H81" s="39" t="n"/>
-      <c r="I81" s="12" t="n"/>
-      <c r="J81" s="16" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row outlineLevel="0" r="82">
-      <c r="A82" s="52" t="s"/>
-      <c r="B82" s="41" t="s"/>
-      <c r="C82" s="0" t="n"/>
-      <c r="D82" s="0" t="n"/>
-      <c r="E82" s="53" t="s"/>
-      <c r="F82" s="65" t="s">
+      <c r="B82" s="90" t="s">
         <v>181</v>
       </c>
-      <c r="G82" s="20" t="s">
+      <c r="C82" s="59" t="n"/>
+      <c r="D82" s="59" t="n"/>
+      <c r="E82" s="74" t="s">
+        <v>64</v>
+      </c>
+      <c r="F82" s="91" t="s">
         <v>182</v>
       </c>
-      <c r="H82" s="43" t="n"/>
-      <c r="I82" s="0" t="n"/>
-      <c r="J82" s="22" t="s">
+      <c r="G82" s="92" t="s">
+        <v>173</v>
+      </c>
+      <c r="H82" s="63" t="n"/>
+      <c r="I82" s="12" t="n"/>
+      <c r="J82" s="15" t="s">
         <v>15</v>
       </c>
     </row>
     <row outlineLevel="0" r="83">
-      <c r="A83" s="52" t="s"/>
-      <c r="B83" s="41" t="s"/>
+      <c r="A83" s="76" t="s"/>
+      <c r="B83" s="65" t="s"/>
       <c r="C83" s="0" t="n"/>
       <c r="D83" s="0" t="n"/>
-      <c r="E83" s="53" t="s"/>
-      <c r="F83" s="0" t="s">
+      <c r="E83" s="77" t="s"/>
+      <c r="F83" s="93" t="s">
         <v>183</v>
       </c>
-      <c r="G83" s="20" t="s">
+      <c r="G83" s="21" t="s">
         <v>184</v>
       </c>
-      <c r="H83" s="43" t="n"/>
+      <c r="H83" s="67" t="n"/>
       <c r="I83" s="0" t="n"/>
-      <c r="J83" s="22" t="s">
+      <c r="J83" s="21" t="s">
         <v>15</v>
       </c>
     </row>
     <row outlineLevel="0" r="84">
-      <c r="A84" s="52" t="s"/>
-      <c r="B84" s="41" t="s"/>
+      <c r="A84" s="76" t="s"/>
+      <c r="B84" s="65" t="s"/>
       <c r="C84" s="0" t="n"/>
       <c r="D84" s="0" t="n"/>
-      <c r="E84" s="53" t="s"/>
-      <c r="F84" s="65" t="s">
+      <c r="E84" s="77" t="s"/>
+      <c r="F84" s="23" t="s">
         <v>185</v>
       </c>
-      <c r="G84" s="20" t="s">
+      <c r="G84" s="21" t="s">
         <v>186</v>
       </c>
-      <c r="H84" s="43" t="n"/>
+      <c r="H84" s="67" t="n"/>
       <c r="I84" s="0" t="n"/>
-      <c r="J84" s="22" t="s">
+      <c r="J84" s="21" t="s">
         <v>15</v>
       </c>
     </row>
     <row outlineLevel="0" r="85">
-      <c r="A85" s="52" t="s"/>
-      <c r="B85" s="41" t="s"/>
+      <c r="A85" s="76" t="s"/>
+      <c r="B85" s="65" t="s"/>
       <c r="C85" s="0" t="n"/>
       <c r="D85" s="0" t="n"/>
-      <c r="E85" s="53" t="s"/>
-      <c r="F85" s="20" t="s">
+      <c r="E85" s="77" t="s"/>
+      <c r="F85" s="93" t="s">
         <v>187</v>
       </c>
-      <c r="G85" s="20" t="s">
+      <c r="G85" s="21" t="s">
         <v>188</v>
       </c>
-      <c r="H85" s="43" t="n"/>
+      <c r="H85" s="67" t="n"/>
       <c r="I85" s="0" t="n"/>
-      <c r="J85" s="22" t="s">
+      <c r="J85" s="21" t="s">
         <v>15</v>
       </c>
     </row>
     <row outlineLevel="0" r="86">
-      <c r="A86" s="52" t="s"/>
-      <c r="B86" s="41" t="s"/>
+      <c r="A86" s="76" t="s"/>
+      <c r="B86" s="65" t="s"/>
       <c r="C86" s="0" t="n"/>
       <c r="D86" s="0" t="n"/>
-      <c r="E86" s="53" t="s"/>
-      <c r="F86" s="65" t="s">
-        <v>185</v>
-      </c>
-      <c r="G86" s="20" t="s">
-        <v>186</v>
-      </c>
-      <c r="H86" s="43" t="n"/>
+      <c r="E86" s="77" t="s"/>
+      <c r="F86" s="20" t="s">
+        <v>189</v>
+      </c>
+      <c r="G86" s="21" t="s">
+        <v>190</v>
+      </c>
+      <c r="H86" s="67" t="n"/>
       <c r="I86" s="0" t="n"/>
-      <c r="J86" s="22" t="s">
+      <c r="J86" s="21" t="s">
         <v>15</v>
       </c>
     </row>
     <row outlineLevel="0" r="87">
-      <c r="A87" s="52" t="s"/>
-      <c r="B87" s="41" t="s"/>
+      <c r="A87" s="76" t="s"/>
+      <c r="B87" s="65" t="s"/>
       <c r="C87" s="0" t="n"/>
       <c r="D87" s="0" t="n"/>
-      <c r="E87" s="53" t="s"/>
-      <c r="F87" s="0" t="s">
-        <v>189</v>
-      </c>
-      <c r="G87" s="20" t="s">
-        <v>190</v>
-      </c>
-      <c r="H87" s="66" t="s">
-        <v>191</v>
-      </c>
+      <c r="E87" s="77" t="s"/>
+      <c r="F87" s="93" t="s">
+        <v>187</v>
+      </c>
+      <c r="G87" s="21" t="s">
+        <v>188</v>
+      </c>
+      <c r="H87" s="67" t="n"/>
       <c r="I87" s="0" t="n"/>
-      <c r="J87" s="22" t="s">
+      <c r="J87" s="21" t="s">
         <v>15</v>
       </c>
     </row>
     <row outlineLevel="0" r="88">
-      <c r="A88" s="52" t="s"/>
-      <c r="B88" s="41" t="s"/>
+      <c r="A88" s="76" t="s"/>
+      <c r="B88" s="65" t="s"/>
       <c r="C88" s="0" t="n"/>
       <c r="D88" s="0" t="n"/>
-      <c r="E88" s="53" t="s"/>
-      <c r="F88" s="20" t="s">
+      <c r="E88" s="77" t="s"/>
+      <c r="F88" s="23" t="s">
+        <v>191</v>
+      </c>
+      <c r="G88" s="21" t="s">
         <v>192</v>
       </c>
-      <c r="G88" s="0" t="s">
+      <c r="H88" s="94" t="s">
         <v>193</v>
       </c>
-      <c r="H88" s="66" t="s">
-        <v>194</v>
-      </c>
       <c r="I88" s="0" t="n"/>
-      <c r="J88" s="22" t="s">
+      <c r="J88" s="21" t="s">
         <v>15</v>
       </c>
     </row>
     <row outlineLevel="0" r="89">
-      <c r="A89" s="52" t="s"/>
-      <c r="B89" s="41" t="s"/>
+      <c r="A89" s="76" t="s"/>
+      <c r="B89" s="65" t="s"/>
       <c r="C89" s="0" t="n"/>
       <c r="D89" s="0" t="n"/>
-      <c r="E89" s="53" t="s"/>
-      <c r="F89" s="0" t="s">
-        <v>177</v>
-      </c>
-      <c r="G89" s="20" t="s">
+      <c r="E89" s="77" t="s"/>
+      <c r="F89" s="20" t="s">
+        <v>194</v>
+      </c>
+      <c r="G89" s="24" t="s">
         <v>195</v>
       </c>
-      <c r="H89" s="43" t="n"/>
+      <c r="H89" s="94" t="s">
+        <v>196</v>
+      </c>
       <c r="I89" s="0" t="n"/>
-      <c r="J89" s="22" t="s">
+      <c r="J89" s="21" t="s">
         <v>15</v>
       </c>
     </row>
     <row outlineLevel="0" r="90">
-      <c r="A90" s="52" t="s"/>
-      <c r="B90" s="41" t="s"/>
+      <c r="A90" s="76" t="s"/>
+      <c r="B90" s="65" t="s"/>
       <c r="C90" s="0" t="n"/>
       <c r="D90" s="0" t="n"/>
-      <c r="E90" s="53" t="s"/>
-      <c r="F90" s="0" t="s">
-        <v>196</v>
-      </c>
-      <c r="G90" s="20" t="s">
+      <c r="E90" s="77" t="s"/>
+      <c r="F90" s="23" t="s">
+        <v>179</v>
+      </c>
+      <c r="G90" s="21" t="s">
         <v>197</v>
       </c>
-      <c r="H90" s="43" t="n"/>
+      <c r="H90" s="67" t="n"/>
       <c r="I90" s="0" t="n"/>
-      <c r="J90" s="22" t="s">
+      <c r="J90" s="21" t="s">
         <v>15</v>
       </c>
     </row>
     <row outlineLevel="0" r="91">
-      <c r="A91" s="52" t="s"/>
-      <c r="B91" s="41" t="s"/>
+      <c r="A91" s="76" t="s"/>
+      <c r="B91" s="65" t="s"/>
       <c r="C91" s="0" t="n"/>
       <c r="D91" s="0" t="n"/>
-      <c r="E91" s="53" t="s"/>
-      <c r="F91" s="0" t="s">
+      <c r="E91" s="77" t="s"/>
+      <c r="F91" s="23" t="s">
         <v>198</v>
       </c>
-      <c r="G91" s="20" t="s">
+      <c r="G91" s="21" t="s">
         <v>199</v>
       </c>
-      <c r="H91" s="43" t="n"/>
+      <c r="H91" s="67" t="n"/>
       <c r="I91" s="0" t="n"/>
-      <c r="J91" s="22" t="s">
+      <c r="J91" s="21" t="s">
         <v>15</v>
       </c>
     </row>
     <row outlineLevel="0" r="92">
-      <c r="A92" s="52" t="s"/>
-      <c r="B92" s="41" t="s"/>
-      <c r="C92" s="67" t="n"/>
-      <c r="D92" s="67" t="n"/>
-      <c r="E92" s="53" t="s"/>
-      <c r="F92" s="20" t="s">
+      <c r="A92" s="76" t="s"/>
+      <c r="B92" s="65" t="s"/>
+      <c r="C92" s="0" t="n"/>
+      <c r="D92" s="0" t="n"/>
+      <c r="E92" s="77" t="s"/>
+      <c r="F92" s="23" t="s">
         <v>200</v>
       </c>
-      <c r="G92" s="0" t="s">
+      <c r="G92" s="21" t="s">
         <v>201</v>
       </c>
-      <c r="H92" s="68" t="n"/>
+      <c r="H92" s="67" t="n"/>
       <c r="I92" s="0" t="n"/>
-      <c r="J92" s="22" t="s">
+      <c r="J92" s="21" t="s">
         <v>15</v>
       </c>
     </row>
     <row outlineLevel="0" r="93">
-      <c r="A93" s="52" t="s"/>
-      <c r="B93" s="41" t="s"/>
-      <c r="C93" s="67" t="n"/>
-      <c r="D93" s="67" t="n"/>
-      <c r="E93" s="53" t="s"/>
+      <c r="A93" s="76" t="s"/>
+      <c r="B93" s="65" t="s"/>
+      <c r="C93" s="95" t="n"/>
+      <c r="D93" s="95" t="n"/>
+      <c r="E93" s="77" t="s"/>
       <c r="F93" s="20" t="s">
         <v>202</v>
       </c>
-      <c r="G93" s="20" t="s">
+      <c r="G93" s="24" t="s">
         <v>203</v>
       </c>
-      <c r="H93" s="66" t="s">
+      <c r="H93" s="96" t="n"/>
+      <c r="I93" s="0" t="n"/>
+      <c r="J93" s="21" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="94">
+      <c r="A94" s="76" t="s"/>
+      <c r="B94" s="65" t="s"/>
+      <c r="C94" s="95" t="n"/>
+      <c r="D94" s="95" t="n"/>
+      <c r="E94" s="77" t="s"/>
+      <c r="F94" s="20" t="s">
         <v>204</v>
       </c>
-      <c r="I93" s="0" t="n"/>
-      <c r="J93" s="22" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row outlineLevel="0" r="94">
-      <c r="A94" s="52" t="s"/>
-      <c r="B94" s="41" t="s"/>
-      <c r="C94" s="0" t="n"/>
-      <c r="D94" s="0" t="n"/>
-      <c r="E94" s="53" t="s"/>
-      <c r="F94" s="69" t="s">
-        <v>185</v>
-      </c>
-      <c r="G94" s="20" t="s">
-        <v>186</v>
-      </c>
-      <c r="H94" s="43" t="n"/>
+      <c r="G94" s="21" t="s">
+        <v>205</v>
+      </c>
+      <c r="H94" s="94" t="s">
+        <v>206</v>
+      </c>
       <c r="I94" s="0" t="n"/>
-      <c r="J94" s="22" t="s">
+      <c r="J94" s="21" t="s">
         <v>15</v>
       </c>
     </row>
     <row outlineLevel="0" r="95">
-      <c r="A95" s="52" t="s"/>
-      <c r="B95" s="41" t="s"/>
+      <c r="A95" s="76" t="s"/>
+      <c r="B95" s="65" t="s"/>
       <c r="C95" s="0" t="n"/>
       <c r="D95" s="0" t="n"/>
-      <c r="E95" s="53" t="s"/>
-      <c r="F95" s="0" t="s">
-        <v>205</v>
-      </c>
-      <c r="G95" s="20" t="s">
-        <v>206</v>
-      </c>
-      <c r="H95" s="66" t="n"/>
+      <c r="E95" s="77" t="s"/>
+      <c r="F95" s="97" t="s">
+        <v>187</v>
+      </c>
+      <c r="G95" s="21" t="s">
+        <v>188</v>
+      </c>
+      <c r="H95" s="67" t="n"/>
       <c r="I95" s="0" t="n"/>
-      <c r="J95" s="22" t="s">
+      <c r="J95" s="21" t="s">
         <v>15</v>
       </c>
     </row>
     <row outlineLevel="0" r="96">
-      <c r="A96" s="52" t="s"/>
-      <c r="B96" s="41" t="s"/>
-      <c r="C96" s="67" t="n"/>
-      <c r="D96" s="67" t="n"/>
-      <c r="E96" s="53" t="s"/>
-      <c r="F96" s="20" t="s">
-        <v>192</v>
-      </c>
-      <c r="G96" s="0" t="s">
-        <v>193</v>
-      </c>
-      <c r="H96" s="66" t="s">
+      <c r="A96" s="76" t="s"/>
+      <c r="B96" s="65" t="s"/>
+      <c r="C96" s="0" t="n"/>
+      <c r="D96" s="0" t="n"/>
+      <c r="E96" s="77" t="s"/>
+      <c r="F96" s="23" t="s">
+        <v>207</v>
+      </c>
+      <c r="G96" s="21" t="s">
+        <v>208</v>
+      </c>
+      <c r="H96" s="94" t="n"/>
+      <c r="I96" s="0" t="n"/>
+      <c r="J96" s="21" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="97">
+      <c r="A97" s="76" t="s"/>
+      <c r="B97" s="65" t="s"/>
+      <c r="C97" s="95" t="n"/>
+      <c r="D97" s="95" t="n"/>
+      <c r="E97" s="77" t="s"/>
+      <c r="F97" s="20" t="s">
         <v>194</v>
       </c>
-      <c r="I96" s="0" t="n"/>
-      <c r="J96" s="22" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row outlineLevel="0" r="97">
-      <c r="A97" s="52" t="s"/>
-      <c r="B97" s="41" t="s"/>
-      <c r="C97" s="0" t="n"/>
-      <c r="D97" s="0" t="n"/>
-      <c r="E97" s="53" t="s"/>
-      <c r="F97" s="0" t="s">
-        <v>207</v>
-      </c>
-      <c r="G97" s="20" t="s">
-        <v>208</v>
-      </c>
-      <c r="H97" s="43" t="n"/>
+      <c r="G97" s="24" t="s">
+        <v>195</v>
+      </c>
+      <c r="H97" s="94" t="s">
+        <v>196</v>
+      </c>
       <c r="I97" s="0" t="n"/>
-      <c r="J97" s="22" t="s">
+      <c r="J97" s="21" t="s">
         <v>15</v>
       </c>
     </row>
     <row outlineLevel="0" r="98">
-      <c r="A98" s="52" t="s"/>
-      <c r="B98" s="70" t="s"/>
+      <c r="A98" s="76" t="s"/>
+      <c r="B98" s="65" t="s"/>
       <c r="C98" s="0" t="n"/>
       <c r="D98" s="0" t="n"/>
-      <c r="E98" s="53" t="s"/>
-      <c r="F98" s="0" t="s">
-        <v>198</v>
-      </c>
-      <c r="G98" s="20" t="s">
+      <c r="E98" s="77" t="s"/>
+      <c r="F98" s="23" t="s">
         <v>209</v>
       </c>
-      <c r="H98" s="43" t="n"/>
+      <c r="G98" s="21" t="s">
+        <v>210</v>
+      </c>
+      <c r="H98" s="67" t="n"/>
       <c r="I98" s="0" t="n"/>
-      <c r="J98" s="22" t="s">
+      <c r="J98" s="21" t="s">
         <v>15</v>
       </c>
     </row>
     <row outlineLevel="0" r="99">
-      <c r="A99" s="54" t="s"/>
-      <c r="B99" s="71" t="n"/>
-      <c r="C99" s="46" t="n"/>
-      <c r="D99" s="46" t="n"/>
-      <c r="E99" s="55" t="s"/>
-      <c r="F99" s="46" t="s">
-        <v>198</v>
-      </c>
-      <c r="G99" s="48" t="s">
-        <v>210</v>
-      </c>
-      <c r="H99" s="49" t="n"/>
-      <c r="I99" s="27" t="n"/>
-      <c r="J99" s="31" t="s">
+      <c r="A99" s="76" t="s"/>
+      <c r="B99" s="98" t="s"/>
+      <c r="C99" s="0" t="n"/>
+      <c r="D99" s="0" t="n"/>
+      <c r="E99" s="77" t="s"/>
+      <c r="F99" s="23" t="s">
+        <v>200</v>
+      </c>
+      <c r="G99" s="21" t="s">
+        <v>211</v>
+      </c>
+      <c r="H99" s="67" t="n"/>
+      <c r="I99" s="0" t="n"/>
+      <c r="J99" s="21" t="s">
         <v>15</v>
       </c>
     </row>
     <row outlineLevel="0" r="100">
-      <c r="A100" s="50" t="n">
-        <v>15</v>
-      </c>
-      <c r="B100" s="11" t="s">
-        <v>211</v>
-      </c>
-      <c r="C100" s="12" t="n"/>
-      <c r="D100" s="12" t="n"/>
-      <c r="E100" s="56" t="s">
-        <v>62</v>
-      </c>
-      <c r="F100" s="14" t="s">
+      <c r="A100" s="0" t="n"/>
+      <c r="B100" s="99" t="n"/>
+      <c r="C100" s="68" t="n"/>
+      <c r="D100" s="68" t="n"/>
+      <c r="E100" s="0" t="n"/>
+      <c r="F100" s="69" t="s">
         <v>200</v>
       </c>
-      <c r="G100" s="12" t="s">
+      <c r="G100" s="70" t="s">
         <v>212</v>
       </c>
-      <c r="H100" s="15" t="n"/>
-      <c r="I100" s="12" t="n"/>
-      <c r="J100" s="16" t="s">
+      <c r="H100" s="71" t="n"/>
+      <c r="I100" s="29" t="n"/>
+      <c r="J100" s="32" t="s">
         <v>15</v>
       </c>
     </row>
     <row outlineLevel="0" r="101">
-      <c r="A101" s="52" t="s"/>
-      <c r="B101" s="18" t="s"/>
-      <c r="C101" s="0" t="n"/>
-      <c r="D101" s="0" t="n"/>
-      <c r="E101" s="57" t="s"/>
-      <c r="F101" s="20" t="s">
+      <c r="A101" s="73" t="n">
+        <v>15</v>
+      </c>
+      <c r="B101" s="11" t="s">
         <v>213</v>
       </c>
-      <c r="G101" s="20" t="s">
+      <c r="C101" s="12" t="n"/>
+      <c r="D101" s="12" t="n"/>
+      <c r="E101" s="79" t="s">
+        <v>64</v>
+      </c>
+      <c r="F101" s="14" t="s">
+        <v>202</v>
+      </c>
+      <c r="G101" s="84" t="s">
         <v>214</v>
       </c>
-      <c r="H101" s="22" t="s">
-        <v>215</v>
-      </c>
-      <c r="I101" s="0" t="n"/>
-      <c r="J101" s="22" t="s">
+      <c r="H101" s="16" t="n"/>
+      <c r="I101" s="12" t="n"/>
+      <c r="J101" s="15" t="s">
         <v>15</v>
       </c>
     </row>
     <row outlineLevel="0" r="102">
-      <c r="A102" s="52" t="s"/>
+      <c r="A102" s="76" t="s"/>
       <c r="B102" s="18" t="s"/>
       <c r="C102" s="0" t="n"/>
       <c r="D102" s="0" t="n"/>
-      <c r="E102" s="57" t="s"/>
+      <c r="E102" s="81" t="s"/>
       <c r="F102" s="20" t="s">
-        <v>170</v>
-      </c>
-      <c r="G102" s="20" t="s">
-        <v>171</v>
-      </c>
-      <c r="H102" s="21" t="n"/>
+        <v>215</v>
+      </c>
+      <c r="G102" s="21" t="s">
+        <v>216</v>
+      </c>
+      <c r="H102" s="89" t="s">
+        <v>217</v>
+      </c>
       <c r="I102" s="0" t="n"/>
-      <c r="J102" s="22" t="s">
+      <c r="J102" s="21" t="s">
         <v>15</v>
       </c>
     </row>
     <row outlineLevel="0" r="103">
-      <c r="A103" s="52" t="s"/>
+      <c r="A103" s="76" t="s"/>
       <c r="B103" s="18" t="s"/>
       <c r="C103" s="0" t="n"/>
       <c r="D103" s="0" t="n"/>
-      <c r="E103" s="57" t="s"/>
+      <c r="E103" s="81" t="s"/>
       <c r="F103" s="20" t="s">
-        <v>216</v>
-      </c>
-      <c r="G103" s="0" t="s">
-        <v>217</v>
-      </c>
-      <c r="H103" s="21" t="n"/>
+        <v>172</v>
+      </c>
+      <c r="G103" s="21" t="s">
+        <v>173</v>
+      </c>
+      <c r="H103" s="22" t="n"/>
       <c r="I103" s="0" t="n"/>
-      <c r="J103" s="22" t="s">
+      <c r="J103" s="21" t="s">
         <v>15</v>
       </c>
     </row>
     <row outlineLevel="0" r="104">
-      <c r="A104" s="52" t="s"/>
+      <c r="A104" s="76" t="s"/>
       <c r="B104" s="18" t="s"/>
       <c r="C104" s="0" t="n"/>
       <c r="D104" s="0" t="n"/>
-      <c r="E104" s="57" t="s"/>
+      <c r="E104" s="81" t="s"/>
       <c r="F104" s="20" t="s">
         <v>218</v>
       </c>
-      <c r="G104" s="20" t="s">
+      <c r="G104" s="24" t="s">
         <v>219</v>
       </c>
-      <c r="H104" s="21" t="n"/>
+      <c r="H104" s="22" t="n"/>
       <c r="I104" s="0" t="n"/>
-      <c r="J104" s="22" t="s">
+      <c r="J104" s="21" t="s">
         <v>15</v>
       </c>
     </row>
     <row outlineLevel="0" r="105">
-      <c r="A105" s="52" t="s"/>
+      <c r="A105" s="76" t="s"/>
       <c r="B105" s="18" t="s"/>
       <c r="C105" s="0" t="n"/>
       <c r="D105" s="0" t="n"/>
-      <c r="E105" s="57" t="s"/>
+      <c r="E105" s="81" t="s"/>
       <c r="F105" s="20" t="s">
         <v>220</v>
       </c>
-      <c r="G105" s="20" t="s">
+      <c r="G105" s="21" t="s">
         <v>221</v>
       </c>
-      <c r="H105" s="21" t="n"/>
+      <c r="H105" s="22" t="n"/>
       <c r="I105" s="0" t="n"/>
-      <c r="J105" s="22" t="s">
+      <c r="J105" s="21" t="s">
         <v>15</v>
       </c>
     </row>
     <row outlineLevel="0" r="106">
-      <c r="A106" s="52" t="s"/>
+      <c r="A106" s="76" t="s"/>
       <c r="B106" s="18" t="s"/>
       <c r="C106" s="0" t="n"/>
       <c r="D106" s="0" t="n"/>
-      <c r="E106" s="57" t="s"/>
-      <c r="F106" s="72" t="s">
-        <v>131</v>
-      </c>
-      <c r="G106" s="0" t="s">
-        <v>132</v>
-      </c>
-      <c r="H106" s="21" t="n"/>
+      <c r="E106" s="81" t="s"/>
+      <c r="F106" s="20" t="s">
+        <v>222</v>
+      </c>
+      <c r="G106" s="21" t="s">
+        <v>223</v>
+      </c>
+      <c r="H106" s="22" t="n"/>
       <c r="I106" s="0" t="n"/>
-      <c r="J106" s="22" t="s">
+      <c r="J106" s="21" t="s">
         <v>15</v>
       </c>
     </row>
     <row outlineLevel="0" r="107">
-      <c r="A107" s="52" t="s"/>
+      <c r="A107" s="76" t="s"/>
       <c r="B107" s="18" t="s"/>
       <c r="C107" s="0" t="n"/>
       <c r="D107" s="0" t="n"/>
-      <c r="E107" s="57" t="s"/>
-      <c r="F107" s="72" t="s">
+      <c r="E107" s="81" t="s"/>
+      <c r="F107" s="100" t="s">
         <v>133</v>
       </c>
-      <c r="G107" s="0" t="s">
+      <c r="G107" s="24" t="s">
         <v>134</v>
       </c>
-      <c r="H107" s="21" t="n"/>
+      <c r="H107" s="22" t="n"/>
       <c r="I107" s="0" t="n"/>
-      <c r="J107" s="22" t="s">
+      <c r="J107" s="21" t="s">
         <v>15</v>
       </c>
     </row>
     <row outlineLevel="0" r="108">
-      <c r="A108" s="52" t="s"/>
+      <c r="A108" s="76" t="s"/>
       <c r="B108" s="18" t="s"/>
       <c r="C108" s="0" t="n"/>
       <c r="D108" s="0" t="n"/>
-      <c r="E108" s="57" t="s"/>
-      <c r="F108" s="20" t="s">
-        <v>222</v>
-      </c>
-      <c r="G108" s="20" t="s">
-        <v>223</v>
-      </c>
-      <c r="H108" s="22" t="s">
-        <v>194</v>
-      </c>
+      <c r="E108" s="81" t="s"/>
+      <c r="F108" s="100" t="s">
+        <v>135</v>
+      </c>
+      <c r="G108" s="24" t="s">
+        <v>136</v>
+      </c>
+      <c r="H108" s="22" t="n"/>
       <c r="I108" s="0" t="n"/>
-      <c r="J108" s="22" t="s">
+      <c r="J108" s="21" t="s">
         <v>15</v>
       </c>
     </row>
     <row outlineLevel="0" r="109">
-      <c r="A109" s="52" t="s"/>
+      <c r="A109" s="76" t="s"/>
       <c r="B109" s="18" t="s"/>
       <c r="C109" s="0" t="n"/>
       <c r="D109" s="0" t="n"/>
-      <c r="E109" s="57" t="s"/>
-      <c r="F109" s="0" t="s">
-        <v>136</v>
-      </c>
-      <c r="G109" s="20" t="s">
+      <c r="E109" s="81" t="s"/>
+      <c r="F109" s="20" t="s">
         <v>224</v>
       </c>
-      <c r="H109" s="21" t="n"/>
+      <c r="G109" s="21" t="s">
+        <v>225</v>
+      </c>
+      <c r="H109" s="89" t="s">
+        <v>196</v>
+      </c>
       <c r="I109" s="0" t="n"/>
-      <c r="J109" s="22" t="s">
+      <c r="J109" s="21" t="s">
         <v>15</v>
       </c>
     </row>
     <row outlineLevel="0" r="110">
-      <c r="A110" s="52" t="s"/>
+      <c r="A110" s="76" t="s"/>
       <c r="B110" s="18" t="s"/>
       <c r="C110" s="0" t="n"/>
       <c r="D110" s="0" t="n"/>
-      <c r="E110" s="57" t="s"/>
-      <c r="F110" s="0" t="s">
-        <v>177</v>
-      </c>
-      <c r="G110" s="20" t="s">
-        <v>225</v>
-      </c>
-      <c r="H110" s="21" t="n"/>
+      <c r="E110" s="81" t="s"/>
+      <c r="F110" s="23" t="s">
+        <v>138</v>
+      </c>
+      <c r="G110" s="21" t="s">
+        <v>226</v>
+      </c>
+      <c r="H110" s="22" t="n"/>
       <c r="I110" s="0" t="n"/>
-      <c r="J110" s="22" t="s">
+      <c r="J110" s="21" t="s">
         <v>15</v>
       </c>
     </row>
     <row outlineLevel="0" r="111">
-      <c r="A111" s="52" t="s"/>
+      <c r="A111" s="76" t="s"/>
       <c r="B111" s="18" t="s"/>
       <c r="C111" s="0" t="n"/>
       <c r="D111" s="0" t="n"/>
-      <c r="E111" s="57" t="s"/>
-      <c r="F111" s="20" t="s">
-        <v>226</v>
-      </c>
-      <c r="G111" s="0" t="s">
+      <c r="E111" s="81" t="s"/>
+      <c r="F111" s="23" t="s">
+        <v>179</v>
+      </c>
+      <c r="G111" s="21" t="s">
         <v>227</v>
       </c>
-      <c r="H111" s="21" t="n"/>
+      <c r="H111" s="22" t="n"/>
       <c r="I111" s="0" t="n"/>
-      <c r="J111" s="22" t="s">
+      <c r="J111" s="21" t="s">
         <v>15</v>
       </c>
     </row>
     <row outlineLevel="0" r="112">
-      <c r="A112" s="54" t="s"/>
-      <c r="B112" s="26" t="s"/>
-      <c r="C112" s="27" t="n"/>
-      <c r="D112" s="27" t="n"/>
-      <c r="E112" s="58" t="s"/>
-      <c r="F112" s="29" t="s">
+      <c r="A112" s="76" t="s"/>
+      <c r="B112" s="18" t="s"/>
+      <c r="C112" s="0" t="n"/>
+      <c r="D112" s="0" t="n"/>
+      <c r="E112" s="81" t="s"/>
+      <c r="F112" s="20" t="s">
         <v>228</v>
       </c>
-      <c r="G112" s="29" t="s">
+      <c r="G112" s="24" t="s">
         <v>229</v>
       </c>
-      <c r="H112" s="30" t="n"/>
-      <c r="I112" s="27" t="n"/>
-      <c r="J112" s="31" t="s">
+      <c r="H112" s="22" t="n"/>
+      <c r="I112" s="0" t="n"/>
+      <c r="J112" s="21" t="s">
         <v>15</v>
       </c>
     </row>
     <row outlineLevel="0" r="113">
-      <c r="A113" s="50" t="n">
+      <c r="A113" s="0" t="n"/>
+      <c r="B113" s="0" t="n"/>
+      <c r="C113" s="29" t="n"/>
+      <c r="D113" s="29" t="n"/>
+      <c r="E113" s="0" t="n"/>
+      <c r="F113" s="82" t="s">
+        <v>230</v>
+      </c>
+      <c r="G113" s="32" t="s">
+        <v>231</v>
+      </c>
+      <c r="H113" s="33" t="n"/>
+      <c r="I113" s="29" t="n"/>
+      <c r="J113" s="32" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="114">
+      <c r="A114" s="73" t="n">
         <v>16</v>
       </c>
-      <c r="B113" s="73" t="s">
-        <v>149</v>
-      </c>
-      <c r="C113" s="36" t="n"/>
-      <c r="D113" s="36" t="n"/>
-      <c r="E113" s="51" t="s">
-        <v>62</v>
-      </c>
-      <c r="F113" s="38" t="s">
-        <v>126</v>
-      </c>
-      <c r="G113" s="36" t="s">
-        <v>98</v>
-      </c>
-      <c r="H113" s="39" t="n"/>
-      <c r="I113" s="12" t="n"/>
-      <c r="J113" s="16" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row outlineLevel="0" r="114">
-      <c r="A114" s="52" t="s"/>
-      <c r="B114" s="18" t="s"/>
-      <c r="C114" s="0" t="n"/>
-      <c r="D114" s="0" t="n"/>
-      <c r="E114" s="53" t="s"/>
-      <c r="F114" s="20" t="s">
-        <v>230</v>
-      </c>
-      <c r="G114" s="20" t="s">
-        <v>231</v>
-      </c>
-      <c r="H114" s="43" t="n"/>
-      <c r="I114" s="0" t="n"/>
-      <c r="J114" s="22" t="s">
+      <c r="B114" s="101" t="s">
+        <v>151</v>
+      </c>
+      <c r="C114" s="59" t="n"/>
+      <c r="D114" s="59" t="n"/>
+      <c r="E114" s="74" t="s">
+        <v>64</v>
+      </c>
+      <c r="F114" s="61" t="s">
+        <v>128</v>
+      </c>
+      <c r="G114" s="102" t="s">
+        <v>100</v>
+      </c>
+      <c r="H114" s="63" t="n"/>
+      <c r="I114" s="12" t="n"/>
+      <c r="J114" s="15" t="s">
         <v>15</v>
       </c>
     </row>
     <row outlineLevel="0" r="115">
-      <c r="A115" s="52" t="s"/>
+      <c r="A115" s="76" t="s"/>
       <c r="B115" s="18" t="s"/>
       <c r="C115" s="0" t="n"/>
       <c r="D115" s="0" t="n"/>
-      <c r="E115" s="53" t="s"/>
-      <c r="F115" s="74" t="s">
+      <c r="E115" s="77" t="s"/>
+      <c r="F115" s="20" t="s">
         <v>232</v>
       </c>
-      <c r="G115" s="74" t="s">
+      <c r="G115" s="21" t="s">
         <v>233</v>
       </c>
-      <c r="H115" s="75" t="n"/>
-      <c r="I115" s="76" t="n"/>
-      <c r="J115" s="77" t="s">
+      <c r="H115" s="67" t="n"/>
+      <c r="I115" s="0" t="n"/>
+      <c r="J115" s="21" t="s">
         <v>15</v>
       </c>
     </row>
     <row outlineLevel="0" r="116">
-      <c r="A116" s="54" t="s"/>
-      <c r="B116" s="26" t="s"/>
-      <c r="C116" s="46" t="n"/>
-      <c r="D116" s="46" t="n"/>
-      <c r="E116" s="55" t="s"/>
-      <c r="F116" s="48" t="s">
+      <c r="A116" s="76" t="s"/>
+      <c r="B116" s="18" t="s"/>
+      <c r="C116" s="0" t="n"/>
+      <c r="D116" s="0" t="n"/>
+      <c r="E116" s="77" t="s"/>
+      <c r="F116" s="103" t="s">
         <v>234</v>
       </c>
-      <c r="G116" s="48" t="s">
+      <c r="G116" s="104" t="s">
         <v>235</v>
       </c>
-      <c r="H116" s="49" t="n"/>
-      <c r="I116" s="27" t="n"/>
-      <c r="J116" s="31" t="s">
+      <c r="H116" s="105" t="n"/>
+      <c r="I116" s="106" t="n"/>
+      <c r="J116" s="107" t="s">
         <v>15</v>
       </c>
     </row>
     <row outlineLevel="0" r="117">
-      <c r="A117" s="50" t="n">
+      <c r="A117" s="0" t="n"/>
+      <c r="B117" s="0" t="n"/>
+      <c r="C117" s="68" t="n"/>
+      <c r="D117" s="68" t="n"/>
+      <c r="E117" s="0" t="n"/>
+      <c r="F117" s="78" t="s">
+        <v>236</v>
+      </c>
+      <c r="G117" s="70" t="s">
+        <v>237</v>
+      </c>
+      <c r="H117" s="71" t="n"/>
+      <c r="I117" s="29" t="n"/>
+      <c r="J117" s="32" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="118">
+      <c r="A118" s="73" t="n">
         <v>17</v>
       </c>
-      <c r="B117" s="11" t="s">
-        <v>236</v>
-      </c>
-      <c r="C117" s="12" t="n"/>
-      <c r="D117" s="12" t="n"/>
-      <c r="E117" s="56" t="s">
-        <v>62</v>
-      </c>
-      <c r="F117" s="78" t="s">
-        <v>237</v>
-      </c>
-      <c r="G117" s="64" t="s">
-        <v>171</v>
-      </c>
-      <c r="H117" s="15" t="n"/>
-      <c r="I117" s="12" t="n"/>
-      <c r="J117" s="16" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row outlineLevel="0" r="118">
-      <c r="A118" s="52" t="s"/>
-      <c r="B118" s="18" t="s"/>
-      <c r="C118" s="0" t="n"/>
-      <c r="D118" s="0" t="n"/>
-      <c r="E118" s="57" t="s"/>
-      <c r="F118" s="20" t="s">
+      <c r="B118" s="11" t="s">
         <v>238</v>
       </c>
-      <c r="G118" s="20" t="s">
-        <v>182</v>
-      </c>
-      <c r="H118" s="21" t="n"/>
-      <c r="I118" s="0" t="n"/>
-      <c r="J118" s="22" t="s">
+      <c r="C118" s="12" t="n"/>
+      <c r="D118" s="12" t="n"/>
+      <c r="E118" s="79" t="s">
+        <v>64</v>
+      </c>
+      <c r="F118" s="108" t="s">
+        <v>239</v>
+      </c>
+      <c r="G118" s="92" t="s">
+        <v>173</v>
+      </c>
+      <c r="H118" s="16" t="n"/>
+      <c r="I118" s="12" t="n"/>
+      <c r="J118" s="15" t="s">
         <v>15</v>
       </c>
     </row>
     <row outlineLevel="0" r="119">
-      <c r="A119" s="52" t="s"/>
+      <c r="A119" s="76" t="s"/>
       <c r="B119" s="18" t="s"/>
       <c r="C119" s="0" t="n"/>
       <c r="D119" s="0" t="n"/>
-      <c r="E119" s="57" t="s"/>
-      <c r="F119" s="0" t="s">
-        <v>189</v>
-      </c>
-      <c r="G119" s="20" t="s">
-        <v>190</v>
-      </c>
-      <c r="H119" s="66" t="s">
-        <v>191</v>
-      </c>
+      <c r="E119" s="81" t="s"/>
+      <c r="F119" s="20" t="s">
+        <v>240</v>
+      </c>
+      <c r="G119" s="21" t="s">
+        <v>184</v>
+      </c>
+      <c r="H119" s="22" t="n"/>
       <c r="I119" s="0" t="n"/>
-      <c r="J119" s="22" t="s">
+      <c r="J119" s="21" t="s">
         <v>15</v>
       </c>
     </row>
     <row outlineLevel="0" r="120">
-      <c r="A120" s="52" t="s"/>
+      <c r="A120" s="76" t="s"/>
       <c r="B120" s="18" t="s"/>
       <c r="C120" s="0" t="n"/>
       <c r="D120" s="0" t="n"/>
-      <c r="E120" s="57" t="s"/>
-      <c r="F120" s="20" t="s">
-        <v>239</v>
-      </c>
-      <c r="G120" s="20" t="s">
-        <v>235</v>
-      </c>
-      <c r="H120" s="21" t="n"/>
+      <c r="E120" s="81" t="s"/>
+      <c r="F120" s="23" t="s">
+        <v>191</v>
+      </c>
+      <c r="G120" s="21" t="s">
+        <v>192</v>
+      </c>
+      <c r="H120" s="94" t="s">
+        <v>193</v>
+      </c>
       <c r="I120" s="0" t="n"/>
-      <c r="J120" s="22" t="s">
+      <c r="J120" s="21" t="s">
         <v>15</v>
       </c>
     </row>
     <row outlineLevel="0" r="121">
-      <c r="A121" s="52" t="s"/>
+      <c r="A121" s="76" t="s"/>
       <c r="B121" s="18" t="s"/>
       <c r="C121" s="0" t="n"/>
       <c r="D121" s="0" t="n"/>
-      <c r="E121" s="57" t="s"/>
-      <c r="F121" s="0" t="s">
-        <v>240</v>
-      </c>
-      <c r="G121" s="20" t="s">
-        <v>190</v>
-      </c>
-      <c r="H121" s="66" t="s">
-        <v>191</v>
-      </c>
+      <c r="E121" s="81" t="s"/>
+      <c r="F121" s="20" t="s">
+        <v>241</v>
+      </c>
+      <c r="G121" s="21" t="s">
+        <v>237</v>
+      </c>
+      <c r="H121" s="22" t="n"/>
       <c r="I121" s="0" t="n"/>
-      <c r="J121" s="22" t="s">
+      <c r="J121" s="21" t="s">
         <v>15</v>
       </c>
     </row>
     <row outlineLevel="0" r="122">
-      <c r="A122" s="54" t="s"/>
-      <c r="B122" s="26" t="s"/>
-      <c r="C122" s="27" t="n"/>
-      <c r="D122" s="27" t="n"/>
-      <c r="E122" s="58" t="s"/>
-      <c r="F122" s="79" t="s">
-        <v>239</v>
-      </c>
-      <c r="G122" s="79" t="s">
-        <v>235</v>
-      </c>
-      <c r="H122" s="30" t="n"/>
-      <c r="I122" s="27" t="n"/>
-      <c r="J122" s="31" t="s">
+      <c r="A122" s="76" t="s"/>
+      <c r="B122" s="18" t="s"/>
+      <c r="C122" s="0" t="n"/>
+      <c r="D122" s="0" t="n"/>
+      <c r="E122" s="81" t="s"/>
+      <c r="F122" s="23" t="s">
+        <v>242</v>
+      </c>
+      <c r="G122" s="21" t="s">
+        <v>192</v>
+      </c>
+      <c r="H122" s="94" t="s">
+        <v>193</v>
+      </c>
+      <c r="I122" s="0" t="n"/>
+      <c r="J122" s="21" t="s">
         <v>15</v>
       </c>
     </row>
     <row outlineLevel="0" r="123">
-      <c r="A123" s="50" t="n">
+      <c r="A123" s="0" t="n"/>
+      <c r="B123" s="0" t="n"/>
+      <c r="C123" s="29" t="n"/>
+      <c r="D123" s="29" t="n"/>
+      <c r="E123" s="0" t="n"/>
+      <c r="F123" s="109" t="s">
+        <v>241</v>
+      </c>
+      <c r="G123" s="110" t="s">
+        <v>237</v>
+      </c>
+      <c r="H123" s="33" t="n"/>
+      <c r="I123" s="29" t="n"/>
+      <c r="J123" s="32" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="124">
+      <c r="A124" s="73" t="n">
         <v>18</v>
       </c>
-      <c r="B123" s="11" t="s">
-        <v>241</v>
-      </c>
-      <c r="C123" s="12" t="n"/>
-      <c r="D123" s="12" t="n"/>
-      <c r="E123" s="56" t="s">
-        <v>62</v>
-      </c>
-      <c r="F123" s="14" t="s">
-        <v>200</v>
-      </c>
-      <c r="G123" s="12" t="s">
-        <v>212</v>
-      </c>
-      <c r="H123" s="15" t="n"/>
-      <c r="I123" s="12" t="n"/>
-      <c r="J123" s="16" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row outlineLevel="0" r="124">
-      <c r="A124" s="52" t="s"/>
-      <c r="B124" s="18" t="s"/>
-      <c r="C124" s="0" t="n"/>
-      <c r="D124" s="0" t="n"/>
-      <c r="E124" s="57" t="s"/>
-      <c r="F124" s="20" t="s">
-        <v>213</v>
-      </c>
-      <c r="G124" s="20" t="s">
+      <c r="B124" s="11" t="s">
+        <v>243</v>
+      </c>
+      <c r="C124" s="12" t="n"/>
+      <c r="D124" s="12" t="n"/>
+      <c r="E124" s="79" t="s">
+        <v>64</v>
+      </c>
+      <c r="F124" s="14" t="s">
+        <v>202</v>
+      </c>
+      <c r="G124" s="84" t="s">
         <v>214</v>
       </c>
-      <c r="H124" s="22" t="s">
-        <v>215</v>
-      </c>
-      <c r="I124" s="0" t="n"/>
-      <c r="J124" s="22" t="s">
+      <c r="H124" s="16" t="n"/>
+      <c r="I124" s="12" t="n"/>
+      <c r="J124" s="15" t="s">
         <v>15</v>
       </c>
     </row>
     <row outlineLevel="0" r="125">
-      <c r="A125" s="52" t="s"/>
+      <c r="A125" s="76" t="s"/>
       <c r="B125" s="18" t="s"/>
       <c r="C125" s="0" t="n"/>
       <c r="D125" s="0" t="n"/>
-      <c r="E125" s="57" t="s"/>
+      <c r="E125" s="81" t="s"/>
       <c r="F125" s="20" t="s">
-        <v>170</v>
-      </c>
-      <c r="G125" s="20" t="s">
-        <v>171</v>
-      </c>
-      <c r="H125" s="21" t="n"/>
+        <v>215</v>
+      </c>
+      <c r="G125" s="21" t="s">
+        <v>216</v>
+      </c>
+      <c r="H125" s="89" t="s">
+        <v>217</v>
+      </c>
       <c r="I125" s="0" t="n"/>
-      <c r="J125" s="22" t="s">
+      <c r="J125" s="21" t="s">
         <v>15</v>
       </c>
     </row>
     <row outlineLevel="0" r="126">
-      <c r="A126" s="52" t="s"/>
+      <c r="A126" s="76" t="s"/>
       <c r="B126" s="18" t="s"/>
       <c r="C126" s="0" t="n"/>
       <c r="D126" s="0" t="n"/>
-      <c r="E126" s="57" t="s"/>
+      <c r="E126" s="81" t="s"/>
       <c r="F126" s="20" t="s">
-        <v>216</v>
-      </c>
-      <c r="G126" s="0" t="s">
-        <v>217</v>
-      </c>
-      <c r="H126" s="21" t="n"/>
+        <v>172</v>
+      </c>
+      <c r="G126" s="21" t="s">
+        <v>173</v>
+      </c>
+      <c r="H126" s="22" t="n"/>
       <c r="I126" s="0" t="n"/>
-      <c r="J126" s="22" t="s">
+      <c r="J126" s="21" t="s">
         <v>15</v>
       </c>
     </row>
     <row outlineLevel="0" r="127">
-      <c r="A127" s="52" t="s"/>
+      <c r="A127" s="76" t="s"/>
       <c r="B127" s="18" t="s"/>
       <c r="C127" s="0" t="n"/>
       <c r="D127" s="0" t="n"/>
-      <c r="E127" s="57" t="s"/>
+      <c r="E127" s="81" t="s"/>
       <c r="F127" s="20" t="s">
-        <v>242</v>
-      </c>
-      <c r="G127" s="20" t="s">
-        <v>235</v>
-      </c>
-      <c r="H127" s="21" t="n"/>
+        <v>218</v>
+      </c>
+      <c r="G127" s="24" t="s">
+        <v>219</v>
+      </c>
+      <c r="H127" s="22" t="n"/>
       <c r="I127" s="0" t="n"/>
-      <c r="J127" s="22" t="s">
+      <c r="J127" s="21" t="s">
         <v>15</v>
       </c>
     </row>
     <row outlineLevel="0" r="128">
-      <c r="A128" s="52" t="s"/>
+      <c r="A128" s="76" t="s"/>
       <c r="B128" s="18" t="s"/>
       <c r="C128" s="0" t="n"/>
       <c r="D128" s="0" t="n"/>
-      <c r="E128" s="57" t="s"/>
-      <c r="F128" s="74" t="s">
-        <v>232</v>
-      </c>
-      <c r="G128" s="74" t="s">
-        <v>233</v>
-      </c>
-      <c r="H128" s="80" t="n"/>
-      <c r="I128" s="76" t="n"/>
-      <c r="J128" s="77" t="s">
+      <c r="E128" s="81" t="s"/>
+      <c r="F128" s="20" t="s">
+        <v>244</v>
+      </c>
+      <c r="G128" s="21" t="s">
+        <v>237</v>
+      </c>
+      <c r="H128" s="22" t="n"/>
+      <c r="I128" s="0" t="n"/>
+      <c r="J128" s="21" t="s">
         <v>15</v>
       </c>
     </row>
     <row outlineLevel="0" r="129">
-      <c r="A129" s="54" t="s"/>
-      <c r="B129" s="26" t="s"/>
-      <c r="C129" s="27" t="n"/>
-      <c r="D129" s="27" t="n"/>
-      <c r="E129" s="58" t="s"/>
-      <c r="F129" s="48" t="s">
+      <c r="A129" s="76" t="s"/>
+      <c r="B129" s="18" t="s"/>
+      <c r="C129" s="0" t="n"/>
+      <c r="D129" s="0" t="n"/>
+      <c r="E129" s="81" t="s"/>
+      <c r="F129" s="103" t="s">
         <v>234</v>
       </c>
-      <c r="G129" s="48" t="s">
+      <c r="G129" s="104" t="s">
         <v>235</v>
       </c>
-      <c r="H129" s="30" t="n"/>
-      <c r="I129" s="27" t="n"/>
-      <c r="J129" s="31" t="s">
+      <c r="H129" s="111" t="n"/>
+      <c r="I129" s="106" t="n"/>
+      <c r="J129" s="107" t="s">
         <v>15</v>
       </c>
     </row>
     <row outlineLevel="0" r="130">
-      <c r="A130" s="50" t="n">
+      <c r="A130" s="0" t="n"/>
+      <c r="B130" s="0" t="n"/>
+      <c r="C130" s="29" t="n"/>
+      <c r="D130" s="29" t="n"/>
+      <c r="E130" s="0" t="n"/>
+      <c r="F130" s="78" t="s">
+        <v>236</v>
+      </c>
+      <c r="G130" s="70" t="s">
+        <v>237</v>
+      </c>
+      <c r="H130" s="33" t="n"/>
+      <c r="I130" s="29" t="n"/>
+      <c r="J130" s="32" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="131">
+      <c r="A131" s="73" t="n">
         <v>19</v>
       </c>
-      <c r="B130" s="35" t="s">
-        <v>243</v>
-      </c>
-      <c r="C130" s="36" t="n"/>
-      <c r="D130" s="36" t="n"/>
-      <c r="E130" s="51" t="s">
-        <v>62</v>
-      </c>
-      <c r="F130" s="38" t="s">
-        <v>244</v>
-      </c>
-      <c r="G130" s="38" t="s">
+      <c r="B131" s="58" t="s">
         <v>245</v>
       </c>
-      <c r="H130" s="39" t="n"/>
-      <c r="I130" s="12" t="n"/>
-      <c r="J130" s="16" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row outlineLevel="0" r="131">
-      <c r="A131" s="52" t="s"/>
-      <c r="B131" s="41" t="s"/>
-      <c r="C131" s="0" t="n"/>
-      <c r="D131" s="0" t="n"/>
-      <c r="E131" s="53" t="s"/>
-      <c r="F131" s="20" t="s">
+      <c r="C131" s="59" t="n"/>
+      <c r="D131" s="59" t="n"/>
+      <c r="E131" s="74" t="s">
+        <v>64</v>
+      </c>
+      <c r="F131" s="61" t="s">
         <v>246</v>
       </c>
-      <c r="G131" s="20" t="s">
+      <c r="G131" s="62" t="s">
         <v>247</v>
       </c>
-      <c r="H131" s="43" t="n"/>
-      <c r="I131" s="0" t="n"/>
-      <c r="J131" s="22" t="s">
+      <c r="H131" s="63" t="n"/>
+      <c r="I131" s="12" t="n"/>
+      <c r="J131" s="15" t="s">
         <v>15</v>
       </c>
     </row>
     <row outlineLevel="0" r="132">
-      <c r="A132" s="52" t="s"/>
-      <c r="B132" s="41" t="s"/>
+      <c r="A132" s="76" t="s"/>
+      <c r="B132" s="65" t="s"/>
       <c r="C132" s="0" t="n"/>
       <c r="D132" s="0" t="n"/>
-      <c r="E132" s="53" t="s"/>
+      <c r="E132" s="77" t="s"/>
       <c r="F132" s="20" t="s">
         <v>248</v>
       </c>
-      <c r="G132" s="20" t="s">
+      <c r="G132" s="21" t="s">
         <v>249</v>
       </c>
-      <c r="H132" s="43" t="n"/>
+      <c r="H132" s="67" t="n"/>
       <c r="I132" s="0" t="n"/>
-      <c r="J132" s="22" t="s">
+      <c r="J132" s="21" t="s">
         <v>15</v>
       </c>
     </row>
     <row outlineLevel="0" r="133">
-      <c r="A133" s="52" t="s"/>
-      <c r="B133" s="41" t="s"/>
+      <c r="A133" s="76" t="s"/>
+      <c r="B133" s="65" t="s"/>
       <c r="C133" s="0" t="n"/>
       <c r="D133" s="0" t="n"/>
-      <c r="E133" s="53" t="s"/>
-      <c r="F133" s="61" t="s">
+      <c r="E133" s="77" t="s"/>
+      <c r="F133" s="20" t="s">
         <v>250</v>
       </c>
-      <c r="G133" s="61" t="s">
+      <c r="G133" s="21" t="s">
         <v>251</v>
       </c>
-      <c r="H133" s="43" t="n"/>
+      <c r="H133" s="67" t="n"/>
       <c r="I133" s="0" t="n"/>
-      <c r="J133" s="22" t="s">
+      <c r="J133" s="21" t="s">
         <v>15</v>
       </c>
     </row>
     <row outlineLevel="0" r="134">
-      <c r="A134" s="54" t="s"/>
-      <c r="B134" s="45" t="s"/>
-      <c r="C134" s="46" t="n"/>
-      <c r="D134" s="46" t="n"/>
-      <c r="E134" s="55" t="s"/>
-      <c r="F134" s="81" t="s">
+      <c r="A134" s="76" t="s"/>
+      <c r="B134" s="65" t="s"/>
+      <c r="C134" s="0" t="n"/>
+      <c r="D134" s="0" t="n"/>
+      <c r="E134" s="77" t="s"/>
+      <c r="F134" s="88" t="s">
         <v>252</v>
       </c>
-      <c r="G134" s="81" t="s">
+      <c r="G134" s="112" t="s">
         <v>253</v>
       </c>
-      <c r="H134" s="49" t="n"/>
-      <c r="I134" s="27" t="n"/>
-      <c r="J134" s="31" t="s">
+      <c r="H134" s="67" t="n"/>
+      <c r="I134" s="0" t="n"/>
+      <c r="J134" s="21" t="s">
         <v>15</v>
       </c>
     </row>
     <row outlineLevel="0" r="135">
-      <c r="A135" s="50" t="n">
+      <c r="A135" s="0" t="n"/>
+      <c r="B135" s="0" t="n"/>
+      <c r="C135" s="68" t="n"/>
+      <c r="D135" s="68" t="n"/>
+      <c r="E135" s="0" t="n"/>
+      <c r="F135" s="113" t="s">
+        <v>254</v>
+      </c>
+      <c r="G135" s="114" t="s">
+        <v>255</v>
+      </c>
+      <c r="H135" s="71" t="n"/>
+      <c r="I135" s="29" t="n"/>
+      <c r="J135" s="32" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="136">
+      <c r="A136" s="73" t="n">
         <v>20</v>
       </c>
-      <c r="B135" s="11" t="s">
-        <v>254</v>
-      </c>
-      <c r="C135" s="12" t="n"/>
-      <c r="D135" s="12" t="n"/>
-      <c r="E135" s="56" t="s">
-        <v>62</v>
-      </c>
-      <c r="F135" s="14" t="s">
-        <v>255</v>
-      </c>
-      <c r="G135" s="14" t="s">
-        <v>251</v>
-      </c>
-      <c r="H135" s="15" t="n"/>
-      <c r="I135" s="12" t="n"/>
-      <c r="J135" s="16" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row outlineLevel="0" r="136">
-      <c r="A136" s="52" t="s"/>
-      <c r="B136" s="18" t="s"/>
-      <c r="C136" s="0" t="n"/>
-      <c r="D136" s="0" t="n"/>
-      <c r="E136" s="57" t="s"/>
-      <c r="F136" s="20" t="s">
+      <c r="B136" s="11" t="s">
         <v>256</v>
       </c>
-      <c r="G136" s="20" t="s">
+      <c r="C136" s="12" t="n"/>
+      <c r="D136" s="12" t="n"/>
+      <c r="E136" s="79" t="s">
+        <v>64</v>
+      </c>
+      <c r="F136" s="14" t="s">
         <v>257</v>
       </c>
-      <c r="H136" s="21" t="n"/>
-      <c r="I136" s="0" t="n"/>
-      <c r="J136" s="22" t="s">
+      <c r="G136" s="15" t="s">
+        <v>253</v>
+      </c>
+      <c r="H136" s="16" t="n"/>
+      <c r="I136" s="12" t="n"/>
+      <c r="J136" s="15" t="s">
         <v>15</v>
       </c>
     </row>
     <row outlineLevel="0" r="137">
-      <c r="A137" s="52" t="s"/>
+      <c r="A137" s="76" t="s"/>
       <c r="B137" s="18" t="s"/>
       <c r="C137" s="0" t="n"/>
       <c r="D137" s="0" t="n"/>
-      <c r="E137" s="57" t="s"/>
-      <c r="F137" s="82" t="s">
+      <c r="E137" s="81" t="s"/>
+      <c r="F137" s="20" t="s">
         <v>258</v>
       </c>
-      <c r="G137" s="20" t="s">
+      <c r="G137" s="21" t="s">
         <v>259</v>
       </c>
-      <c r="H137" s="21" t="n"/>
+      <c r="H137" s="22" t="n"/>
       <c r="I137" s="0" t="n"/>
-      <c r="J137" s="22" t="s">
+      <c r="J137" s="21" t="s">
         <v>15</v>
       </c>
     </row>
     <row outlineLevel="0" r="138">
-      <c r="A138" s="52" t="s"/>
+      <c r="A138" s="76" t="s"/>
       <c r="B138" s="18" t="s"/>
       <c r="C138" s="0" t="n"/>
       <c r="D138" s="0" t="n"/>
-      <c r="E138" s="57" t="s"/>
-      <c r="F138" s="83" t="s">
+      <c r="E138" s="81" t="s"/>
+      <c r="F138" s="115" t="s">
         <v>260</v>
       </c>
-      <c r="G138" s="61" t="s">
+      <c r="G138" s="21" t="s">
         <v>261</v>
       </c>
-      <c r="H138" s="21" t="n"/>
+      <c r="H138" s="22" t="n"/>
       <c r="I138" s="0" t="n"/>
-      <c r="J138" s="22" t="s">
+      <c r="J138" s="21" t="s">
         <v>15</v>
       </c>
     </row>
     <row outlineLevel="0" r="139">
-      <c r="A139" s="52" t="s"/>
+      <c r="A139" s="76" t="s"/>
       <c r="B139" s="18" t="s"/>
       <c r="C139" s="0" t="n"/>
       <c r="D139" s="0" t="n"/>
-      <c r="E139" s="57" t="s"/>
-      <c r="F139" s="83" t="s">
+      <c r="E139" s="81" t="s"/>
+      <c r="F139" s="116" t="s">
         <v>262</v>
       </c>
-      <c r="G139" s="61" t="s">
+      <c r="G139" s="112" t="s">
         <v>263</v>
       </c>
-      <c r="H139" s="21" t="n"/>
+      <c r="H139" s="22" t="n"/>
       <c r="I139" s="0" t="n"/>
-      <c r="J139" s="22" t="s">
+      <c r="J139" s="21" t="s">
         <v>15</v>
       </c>
     </row>
     <row outlineLevel="0" r="140">
-      <c r="A140" s="52" t="s"/>
+      <c r="A140" s="76" t="s"/>
       <c r="B140" s="18" t="s"/>
       <c r="C140" s="0" t="n"/>
       <c r="D140" s="0" t="n"/>
-      <c r="E140" s="57" t="s"/>
-      <c r="F140" s="0" t="s">
+      <c r="E140" s="81" t="s"/>
+      <c r="F140" s="116" t="s">
         <v>264</v>
       </c>
-      <c r="G140" s="0" t="s">
+      <c r="G140" s="112" t="s">
         <v>265</v>
       </c>
-      <c r="H140" s="21" t="n"/>
+      <c r="H140" s="22" t="n"/>
       <c r="I140" s="0" t="n"/>
-      <c r="J140" s="22" t="s">
+      <c r="J140" s="21" t="s">
         <v>15</v>
       </c>
     </row>
     <row outlineLevel="0" r="141">
-      <c r="A141" s="54" t="s"/>
-      <c r="B141" s="26" t="s"/>
-      <c r="C141" s="27" t="n"/>
-      <c r="D141" s="27" t="n"/>
-      <c r="E141" s="58" t="s"/>
-      <c r="F141" s="27" t="s">
+      <c r="A141" s="76" t="s"/>
+      <c r="B141" s="18" t="s"/>
+      <c r="C141" s="0" t="n"/>
+      <c r="D141" s="0" t="n"/>
+      <c r="E141" s="81" t="s"/>
+      <c r="F141" s="23" t="s">
         <v>266</v>
       </c>
-      <c r="G141" s="29" t="s">
+      <c r="G141" s="24" t="s">
         <v>267</v>
       </c>
-      <c r="H141" s="30" t="n"/>
-      <c r="I141" s="27" t="n"/>
-      <c r="J141" s="31" t="s">
+      <c r="H141" s="22" t="n"/>
+      <c r="I141" s="0" t="n"/>
+      <c r="J141" s="21" t="s">
         <v>15</v>
       </c>
     </row>
     <row outlineLevel="0" r="142">
-      <c r="A142" s="50" t="n">
+      <c r="A142" s="0" t="n"/>
+      <c r="B142" s="0" t="n"/>
+      <c r="C142" s="29" t="n"/>
+      <c r="D142" s="29" t="n"/>
+      <c r="E142" s="0" t="n"/>
+      <c r="F142" s="31" t="s">
+        <v>268</v>
+      </c>
+      <c r="G142" s="32" t="s">
+        <v>269</v>
+      </c>
+      <c r="H142" s="33" t="n"/>
+      <c r="I142" s="29" t="n"/>
+      <c r="J142" s="32" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="143">
+      <c r="A143" s="73" t="n">
         <v>21</v>
       </c>
-      <c r="B142" s="11" t="s">
-        <v>268</v>
-      </c>
-      <c r="C142" s="12" t="n"/>
-      <c r="D142" s="12" t="n"/>
-      <c r="E142" s="56" t="s">
-        <v>62</v>
-      </c>
-      <c r="F142" s="14" t="s">
-        <v>269</v>
-      </c>
-      <c r="G142" s="12" t="s">
+      <c r="B143" s="11" t="s">
         <v>270</v>
       </c>
-      <c r="H142" s="15" t="n"/>
-      <c r="I142" s="12" t="n"/>
-      <c r="J142" s="16" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row outlineLevel="0" r="143">
-      <c r="A143" s="52" t="s"/>
-      <c r="B143" s="18" t="s"/>
-      <c r="C143" s="0" t="n"/>
-      <c r="D143" s="0" t="n"/>
-      <c r="E143" s="57" t="s"/>
-      <c r="F143" s="20" t="s">
+      <c r="C143" s="12" t="n"/>
+      <c r="D143" s="12" t="n"/>
+      <c r="E143" s="79" t="s">
+        <v>64</v>
+      </c>
+      <c r="F143" s="14" t="s">
         <v>271</v>
       </c>
-      <c r="G143" s="20" t="s">
+      <c r="G143" s="84" t="s">
         <v>272</v>
       </c>
-      <c r="H143" s="21" t="n"/>
-      <c r="I143" s="0" t="n"/>
-      <c r="J143" s="22" t="s">
+      <c r="H143" s="16" t="n"/>
+      <c r="I143" s="12" t="n"/>
+      <c r="J143" s="15" t="s">
         <v>15</v>
       </c>
     </row>
     <row outlineLevel="0" r="144">
-      <c r="A144" s="52" t="s"/>
+      <c r="A144" s="76" t="s"/>
       <c r="B144" s="18" t="s"/>
       <c r="C144" s="0" t="n"/>
       <c r="D144" s="0" t="n"/>
-      <c r="E144" s="57" t="s"/>
-      <c r="F144" s="61" t="s">
+      <c r="E144" s="81" t="s"/>
+      <c r="F144" s="20" t="s">
         <v>273</v>
       </c>
-      <c r="G144" s="60" t="s">
+      <c r="G144" s="21" t="s">
         <v>274</v>
       </c>
-      <c r="H144" s="21" t="n"/>
+      <c r="H144" s="22" t="n"/>
       <c r="I144" s="0" t="n"/>
-      <c r="J144" s="22" t="s">
+      <c r="J144" s="21" t="s">
         <v>15</v>
       </c>
     </row>
     <row outlineLevel="0" r="145">
-      <c r="A145" s="52" t="s"/>
+      <c r="A145" s="76" t="s"/>
       <c r="B145" s="18" t="s"/>
       <c r="C145" s="0" t="n"/>
       <c r="D145" s="0" t="n"/>
-      <c r="E145" s="57" t="s"/>
-      <c r="F145" s="61" t="s">
+      <c r="E145" s="81" t="s"/>
+      <c r="F145" s="88" t="s">
         <v>275</v>
       </c>
-      <c r="G145" s="60" t="s">
+      <c r="G145" s="117" t="s">
         <v>276</v>
       </c>
-      <c r="H145" s="21" t="n"/>
+      <c r="H145" s="22" t="n"/>
       <c r="I145" s="0" t="n"/>
-      <c r="J145" s="22" t="s">
+      <c r="J145" s="21" t="s">
         <v>15</v>
       </c>
     </row>
     <row outlineLevel="0" r="146">
-      <c r="A146" s="52" t="s"/>
+      <c r="A146" s="76" t="s"/>
       <c r="B146" s="18" t="s"/>
       <c r="C146" s="0" t="n"/>
       <c r="D146" s="0" t="n"/>
-      <c r="E146" s="57" t="s"/>
-      <c r="F146" s="20" t="s">
+      <c r="E146" s="81" t="s"/>
+      <c r="F146" s="88" t="s">
         <v>277</v>
       </c>
-      <c r="G146" s="20" t="s">
+      <c r="G146" s="117" t="s">
         <v>278</v>
       </c>
-      <c r="H146" s="21" t="n"/>
+      <c r="H146" s="22" t="n"/>
       <c r="I146" s="0" t="n"/>
-      <c r="J146" s="22" t="s">
+      <c r="J146" s="21" t="s">
         <v>15</v>
       </c>
     </row>
     <row outlineLevel="0" r="147">
-      <c r="A147" s="52" t="s"/>
+      <c r="A147" s="76" t="s"/>
       <c r="B147" s="18" t="s"/>
       <c r="C147" s="0" t="n"/>
       <c r="D147" s="0" t="n"/>
-      <c r="E147" s="57" t="s"/>
-      <c r="F147" s="61" t="s">
+      <c r="E147" s="81" t="s"/>
+      <c r="F147" s="20" t="s">
         <v>279</v>
       </c>
-      <c r="G147" s="60" t="s">
+      <c r="G147" s="21" t="s">
         <v>280</v>
       </c>
-      <c r="H147" s="21" t="n"/>
+      <c r="H147" s="22" t="n"/>
       <c r="I147" s="0" t="n"/>
-      <c r="J147" s="22" t="s">
+      <c r="J147" s="21" t="s">
         <v>15</v>
       </c>
     </row>
     <row outlineLevel="0" r="148">
-      <c r="A148" s="54" t="s"/>
-      <c r="B148" s="26" t="s"/>
-      <c r="C148" s="27" t="n"/>
-      <c r="D148" s="27" t="n"/>
-      <c r="E148" s="58" t="s"/>
-      <c r="F148" s="84" t="s">
+      <c r="A148" s="76" t="s"/>
+      <c r="B148" s="18" t="s"/>
+      <c r="C148" s="0" t="n"/>
+      <c r="D148" s="0" t="n"/>
+      <c r="E148" s="81" t="s"/>
+      <c r="F148" s="88" t="s">
         <v>281</v>
       </c>
-      <c r="G148" s="85" t="s">
+      <c r="G148" s="117" t="s">
         <v>282</v>
       </c>
-      <c r="H148" s="30" t="n"/>
-      <c r="I148" s="27" t="n"/>
-      <c r="J148" s="31" t="s">
+      <c r="H148" s="22" t="n"/>
+      <c r="I148" s="0" t="n"/>
+      <c r="J148" s="21" t="s">
         <v>15</v>
       </c>
     </row>
     <row outlineLevel="0" r="149">
-      <c r="A149" s="50" t="n">
+      <c r="A149" s="0" t="n"/>
+      <c r="B149" s="0" t="n"/>
+      <c r="C149" s="29" t="n"/>
+      <c r="D149" s="29" t="n"/>
+      <c r="E149" s="0" t="n"/>
+      <c r="F149" s="118" t="s">
+        <v>283</v>
+      </c>
+      <c r="G149" s="119" t="s">
+        <v>284</v>
+      </c>
+      <c r="H149" s="33" t="n"/>
+      <c r="I149" s="29" t="n"/>
+      <c r="J149" s="32" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="150">
+      <c r="A150" s="73" t="n">
         <v>22</v>
       </c>
-      <c r="B149" s="11" t="s">
-        <v>283</v>
-      </c>
-      <c r="C149" s="12" t="n"/>
-      <c r="D149" s="12" t="n"/>
-      <c r="E149" s="56" t="s">
-        <v>62</v>
-      </c>
-      <c r="F149" s="14" t="s">
-        <v>284</v>
-      </c>
-      <c r="G149" s="12" t="s">
+      <c r="B150" s="11" t="s">
         <v>285</v>
       </c>
-      <c r="H149" s="15" t="n"/>
-      <c r="I149" s="12" t="n"/>
-      <c r="J149" s="16" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row outlineLevel="0" r="150">
-      <c r="A150" s="52" t="s"/>
-      <c r="B150" s="18" t="s"/>
-      <c r="C150" s="0" t="n"/>
-      <c r="D150" s="0" t="n"/>
-      <c r="E150" s="57" t="s"/>
-      <c r="F150" s="20" t="s">
+      <c r="C150" s="12" t="n"/>
+      <c r="D150" s="12" t="n"/>
+      <c r="E150" s="79" t="s">
+        <v>64</v>
+      </c>
+      <c r="F150" s="14" t="s">
         <v>286</v>
       </c>
-      <c r="G150" s="20" t="s">
+      <c r="G150" s="84" t="s">
         <v>287</v>
       </c>
-      <c r="H150" s="21" t="n"/>
-      <c r="I150" s="0" t="n"/>
-      <c r="J150" s="22" t="s">
+      <c r="H150" s="16" t="n"/>
+      <c r="I150" s="12" t="n"/>
+      <c r="J150" s="15" t="s">
         <v>15</v>
       </c>
     </row>
     <row outlineLevel="0" r="151">
-      <c r="A151" s="52" t="s"/>
+      <c r="A151" s="76" t="s"/>
       <c r="B151" s="18" t="s"/>
       <c r="C151" s="0" t="n"/>
       <c r="D151" s="0" t="n"/>
-      <c r="E151" s="57" t="s"/>
+      <c r="E151" s="81" t="s"/>
       <c r="F151" s="20" t="s">
         <v>288</v>
       </c>
-      <c r="G151" s="20" t="s">
+      <c r="G151" s="21" t="s">
         <v>289</v>
       </c>
-      <c r="H151" s="21" t="n"/>
+      <c r="H151" s="22" t="n"/>
       <c r="I151" s="0" t="n"/>
-      <c r="J151" s="22" t="s">
+      <c r="J151" s="21" t="s">
         <v>15</v>
       </c>
     </row>
     <row outlineLevel="0" r="152">
-      <c r="A152" s="52" t="s"/>
+      <c r="A152" s="76" t="s"/>
       <c r="B152" s="18" t="s"/>
       <c r="C152" s="0" t="n"/>
       <c r="D152" s="0" t="n"/>
-      <c r="E152" s="57" t="s"/>
-      <c r="F152" s="83" t="s">
-        <v>260</v>
-      </c>
-      <c r="G152" s="61" t="s">
-        <v>261</v>
-      </c>
-      <c r="H152" s="21" t="n"/>
+      <c r="E152" s="81" t="s"/>
+      <c r="F152" s="20" t="s">
+        <v>290</v>
+      </c>
+      <c r="G152" s="21" t="s">
+        <v>291</v>
+      </c>
+      <c r="H152" s="22" t="n"/>
       <c r="I152" s="0" t="n"/>
-      <c r="J152" s="22" t="s">
+      <c r="J152" s="21" t="s">
         <v>15</v>
       </c>
     </row>
     <row outlineLevel="0" r="153">
-      <c r="A153" s="52" t="s"/>
+      <c r="A153" s="76" t="s"/>
       <c r="B153" s="18" t="s"/>
       <c r="C153" s="0" t="n"/>
       <c r="D153" s="0" t="n"/>
-      <c r="E153" s="57" t="s"/>
-      <c r="F153" s="83" t="s">
+      <c r="E153" s="81" t="s"/>
+      <c r="F153" s="116" t="s">
         <v>262</v>
       </c>
-      <c r="G153" s="61" t="s">
+      <c r="G153" s="112" t="s">
         <v>263</v>
       </c>
-      <c r="H153" s="21" t="n"/>
+      <c r="H153" s="22" t="n"/>
       <c r="I153" s="0" t="n"/>
-      <c r="J153" s="22" t="s">
+      <c r="J153" s="21" t="s">
         <v>15</v>
       </c>
     </row>
     <row outlineLevel="0" r="154">
-      <c r="A154" s="52" t="s"/>
+      <c r="A154" s="76" t="s"/>
       <c r="B154" s="18" t="s"/>
       <c r="C154" s="0" t="n"/>
       <c r="D154" s="0" t="n"/>
-      <c r="E154" s="57" t="s"/>
-      <c r="F154" s="20" t="s">
-        <v>290</v>
-      </c>
-      <c r="G154" s="20" t="s">
-        <v>291</v>
-      </c>
-      <c r="H154" s="21" t="n"/>
+      <c r="E154" s="81" t="s"/>
+      <c r="F154" s="116" t="s">
+        <v>264</v>
+      </c>
+      <c r="G154" s="112" t="s">
+        <v>265</v>
+      </c>
+      <c r="H154" s="22" t="n"/>
       <c r="I154" s="0" t="n"/>
-      <c r="J154" s="22" t="s">
+      <c r="J154" s="21" t="s">
         <v>15</v>
       </c>
     </row>
     <row outlineLevel="0" r="155">
-      <c r="A155" s="52" t="s"/>
+      <c r="A155" s="76" t="s"/>
       <c r="B155" s="18" t="s"/>
       <c r="C155" s="0" t="n"/>
       <c r="D155" s="0" t="n"/>
-      <c r="E155" s="57" t="s"/>
+      <c r="E155" s="81" t="s"/>
       <c r="F155" s="20" t="s">
         <v>292</v>
       </c>
-      <c r="G155" s="20" t="s">
+      <c r="G155" s="21" t="s">
         <v>293</v>
       </c>
-      <c r="H155" s="21" t="n"/>
+      <c r="H155" s="22" t="n"/>
       <c r="I155" s="0" t="n"/>
-      <c r="J155" s="22" t="s">
+      <c r="J155" s="21" t="s">
         <v>15</v>
       </c>
     </row>
     <row outlineLevel="0" r="156">
-      <c r="A156" s="52" t="s"/>
+      <c r="A156" s="76" t="s"/>
       <c r="B156" s="18" t="s"/>
       <c r="C156" s="0" t="n"/>
       <c r="D156" s="0" t="n"/>
-      <c r="E156" s="57" t="s"/>
-      <c r="F156" s="0" t="s">
-        <v>140</v>
-      </c>
-      <c r="G156" s="20" t="s">
+      <c r="E156" s="81" t="s"/>
+      <c r="F156" s="20" t="s">
         <v>294</v>
       </c>
-      <c r="H156" s="21" t="n"/>
+      <c r="G156" s="21" t="s">
+        <v>295</v>
+      </c>
+      <c r="H156" s="22" t="n"/>
       <c r="I156" s="0" t="n"/>
-      <c r="J156" s="22" t="s">
+      <c r="J156" s="21" t="s">
         <v>15</v>
       </c>
     </row>
     <row outlineLevel="0" r="157">
-      <c r="A157" s="54" t="s"/>
-      <c r="B157" s="26" t="s"/>
-      <c r="C157" s="27" t="n"/>
-      <c r="D157" s="27" t="n"/>
-      <c r="E157" s="58" t="s"/>
-      <c r="F157" s="27" t="s">
-        <v>295</v>
-      </c>
-      <c r="G157" s="29" t="s">
+      <c r="A157" s="76" t="s"/>
+      <c r="B157" s="18" t="s"/>
+      <c r="C157" s="0" t="n"/>
+      <c r="D157" s="0" t="n"/>
+      <c r="E157" s="81" t="s"/>
+      <c r="F157" s="23" t="s">
+        <v>142</v>
+      </c>
+      <c r="G157" s="21" t="s">
         <v>296</v>
       </c>
-      <c r="H157" s="30" t="n"/>
-      <c r="I157" s="27" t="n"/>
-      <c r="J157" s="31" t="s">
+      <c r="H157" s="22" t="n"/>
+      <c r="I157" s="0" t="n"/>
+      <c r="J157" s="21" t="s">
         <v>15</v>
       </c>
     </row>
     <row outlineLevel="0" r="158">
-      <c r="A158" s="50" t="n">
+      <c r="A158" s="0" t="n"/>
+      <c r="B158" s="0" t="n"/>
+      <c r="C158" s="29" t="n"/>
+      <c r="D158" s="29" t="n"/>
+      <c r="E158" s="0" t="n"/>
+      <c r="F158" s="31" t="s">
+        <v>297</v>
+      </c>
+      <c r="G158" s="32" t="s">
+        <v>298</v>
+      </c>
+      <c r="H158" s="33" t="n"/>
+      <c r="I158" s="29" t="n"/>
+      <c r="J158" s="32" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="159">
+      <c r="A159" s="73" t="n">
         <v>23</v>
       </c>
-      <c r="B158" s="11" t="s">
-        <v>297</v>
-      </c>
-      <c r="C158" s="12" t="n"/>
-      <c r="D158" s="12" t="n"/>
-      <c r="E158" s="56" t="s">
-        <v>62</v>
-      </c>
-      <c r="F158" s="14" t="s">
-        <v>275</v>
-      </c>
-      <c r="G158" s="14" t="s">
-        <v>298</v>
-      </c>
-      <c r="H158" s="15" t="n"/>
-      <c r="I158" s="12" t="n"/>
-      <c r="J158" s="16" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row outlineLevel="0" r="159">
-      <c r="A159" s="52" t="s"/>
-      <c r="B159" s="18" t="s"/>
-      <c r="C159" s="0" t="n"/>
-      <c r="D159" s="0" t="n"/>
-      <c r="E159" s="57" t="s"/>
-      <c r="F159" s="20" t="s">
-        <v>286</v>
-      </c>
-      <c r="G159" s="20" t="s">
-        <v>287</v>
-      </c>
-      <c r="H159" s="21" t="n"/>
-      <c r="I159" s="0" t="n"/>
-      <c r="J159" s="22" t="s">
+      <c r="B159" s="11" t="s">
+        <v>299</v>
+      </c>
+      <c r="C159" s="12" t="n"/>
+      <c r="D159" s="12" t="n"/>
+      <c r="E159" s="79" t="s">
+        <v>64</v>
+      </c>
+      <c r="F159" s="14" t="s">
+        <v>277</v>
+      </c>
+      <c r="G159" s="15" t="s">
+        <v>300</v>
+      </c>
+      <c r="H159" s="16" t="n"/>
+      <c r="I159" s="12" t="n"/>
+      <c r="J159" s="15" t="s">
         <v>15</v>
       </c>
     </row>
     <row outlineLevel="0" r="160">
-      <c r="A160" s="52" t="s"/>
+      <c r="A160" s="76" t="s"/>
       <c r="B160" s="18" t="s"/>
       <c r="C160" s="0" t="n"/>
       <c r="D160" s="0" t="n"/>
-      <c r="E160" s="57" t="s"/>
+      <c r="E160" s="81" t="s"/>
       <c r="F160" s="20" t="s">
-        <v>299</v>
-      </c>
-      <c r="G160" s="20" t="s">
+        <v>288</v>
+      </c>
+      <c r="G160" s="21" t="s">
         <v>289</v>
       </c>
-      <c r="H160" s="21" t="n"/>
+      <c r="H160" s="22" t="n"/>
       <c r="I160" s="0" t="n"/>
-      <c r="J160" s="22" t="s">
+      <c r="J160" s="21" t="s">
         <v>15</v>
       </c>
     </row>
     <row outlineLevel="0" r="161">
-      <c r="A161" s="52" t="s"/>
+      <c r="A161" s="76" t="s"/>
       <c r="B161" s="18" t="s"/>
       <c r="C161" s="0" t="n"/>
       <c r="D161" s="0" t="n"/>
-      <c r="E161" s="57" t="s"/>
-      <c r="F161" s="61" t="s">
-        <v>300</v>
-      </c>
-      <c r="G161" s="61" t="s">
+      <c r="E161" s="81" t="s"/>
+      <c r="F161" s="20" t="s">
         <v>301</v>
       </c>
-      <c r="H161" s="21" t="n"/>
+      <c r="G161" s="21" t="s">
+        <v>291</v>
+      </c>
+      <c r="H161" s="22" t="n"/>
       <c r="I161" s="0" t="n"/>
-      <c r="J161" s="22" t="s">
+      <c r="J161" s="21" t="s">
         <v>15</v>
       </c>
     </row>
     <row outlineLevel="0" r="162">
-      <c r="A162" s="52" t="s"/>
+      <c r="A162" s="76" t="s"/>
       <c r="B162" s="18" t="s"/>
       <c r="C162" s="0" t="n"/>
       <c r="D162" s="0" t="n"/>
-      <c r="E162" s="57" t="s"/>
-      <c r="F162" s="0" t="s">
+      <c r="E162" s="81" t="s"/>
+      <c r="F162" s="88" t="s">
         <v>302</v>
       </c>
-      <c r="G162" s="20" t="s">
-        <v>263</v>
-      </c>
-      <c r="H162" s="21" t="n"/>
+      <c r="G162" s="112" t="s">
+        <v>303</v>
+      </c>
+      <c r="H162" s="22" t="n"/>
       <c r="I162" s="0" t="n"/>
-      <c r="J162" s="22" t="s">
+      <c r="J162" s="21" t="s">
         <v>15</v>
       </c>
     </row>
     <row outlineLevel="0" r="163">
-      <c r="A163" s="52" t="s"/>
+      <c r="A163" s="76" t="s"/>
       <c r="B163" s="18" t="s"/>
       <c r="C163" s="0" t="n"/>
       <c r="D163" s="0" t="n"/>
-      <c r="E163" s="57" t="s"/>
-      <c r="F163" s="0" t="s">
-        <v>133</v>
-      </c>
-      <c r="G163" s="20" t="s">
-        <v>303</v>
-      </c>
-      <c r="H163" s="21" t="n"/>
+      <c r="E163" s="81" t="s"/>
+      <c r="F163" s="23" t="s">
+        <v>304</v>
+      </c>
+      <c r="G163" s="21" t="s">
+        <v>265</v>
+      </c>
+      <c r="H163" s="22" t="n"/>
       <c r="I163" s="0" t="n"/>
-      <c r="J163" s="22" t="s">
+      <c r="J163" s="21" t="s">
         <v>15</v>
       </c>
     </row>
     <row outlineLevel="0" r="164">
-      <c r="A164" s="52" t="s"/>
+      <c r="A164" s="76" t="s"/>
       <c r="B164" s="18" t="s"/>
       <c r="C164" s="0" t="n"/>
       <c r="D164" s="0" t="n"/>
-      <c r="E164" s="57" t="s"/>
-      <c r="F164" s="61" t="s">
-        <v>304</v>
-      </c>
-      <c r="G164" s="60" t="s">
+      <c r="E164" s="81" t="s"/>
+      <c r="F164" s="23" t="s">
+        <v>135</v>
+      </c>
+      <c r="G164" s="21" t="s">
         <v>305</v>
       </c>
-      <c r="H164" s="21" t="n"/>
+      <c r="H164" s="22" t="n"/>
       <c r="I164" s="0" t="n"/>
-      <c r="J164" s="22" t="s">
+      <c r="J164" s="21" t="s">
         <v>15</v>
       </c>
     </row>
     <row outlineLevel="0" r="165">
-      <c r="A165" s="52" t="s"/>
+      <c r="A165" s="76" t="s"/>
       <c r="B165" s="18" t="s"/>
       <c r="C165" s="0" t="n"/>
       <c r="D165" s="0" t="n"/>
-      <c r="E165" s="57" t="s"/>
-      <c r="F165" s="86" t="s">
+      <c r="E165" s="81" t="s"/>
+      <c r="F165" s="88" t="s">
         <v>306</v>
       </c>
-      <c r="G165" s="86" t="s">
+      <c r="G165" s="117" t="s">
         <v>307</v>
       </c>
-      <c r="H165" s="87" t="s">
-        <v>308</v>
-      </c>
+      <c r="H165" s="22" t="n"/>
       <c r="I165" s="0" t="n"/>
-      <c r="J165" s="22" t="s">
-        <v>309</v>
+      <c r="J165" s="21" t="s">
+        <v>15</v>
       </c>
     </row>
     <row outlineLevel="0" r="166">
-      <c r="A166" s="52" t="s"/>
+      <c r="A166" s="76" t="s"/>
       <c r="B166" s="18" t="s"/>
       <c r="C166" s="0" t="n"/>
       <c r="D166" s="0" t="n"/>
-      <c r="E166" s="57" t="s"/>
-      <c r="F166" s="0" t="s">
-        <v>123</v>
-      </c>
-      <c r="G166" s="0" t="s">
+      <c r="E166" s="81" t="s"/>
+      <c r="F166" s="120" t="s">
+        <v>308</v>
+      </c>
+      <c r="G166" s="121" t="s">
+        <v>309</v>
+      </c>
+      <c r="H166" s="122" t="s">
         <v>310</v>
       </c>
-      <c r="H166" s="21" t="n"/>
       <c r="I166" s="0" t="n"/>
-      <c r="J166" s="22" t="s">
-        <v>15</v>
+      <c r="J166" s="21" t="s">
+        <v>311</v>
       </c>
     </row>
     <row outlineLevel="0" r="167">
-      <c r="A167" s="54" t="s"/>
-      <c r="B167" s="26" t="s"/>
-      <c r="C167" s="27" t="n"/>
-      <c r="D167" s="27" t="n"/>
-      <c r="E167" s="58" t="s"/>
-      <c r="F167" s="29" t="s">
-        <v>311</v>
-      </c>
-      <c r="G167" s="29" t="s">
+      <c r="A167" s="76" t="s"/>
+      <c r="B167" s="18" t="s"/>
+      <c r="C167" s="0" t="n"/>
+      <c r="D167" s="0" t="n"/>
+      <c r="E167" s="81" t="s"/>
+      <c r="F167" s="23" t="s">
+        <v>125</v>
+      </c>
+      <c r="G167" s="24" t="s">
         <v>312</v>
       </c>
-      <c r="H167" s="30" t="n"/>
-      <c r="I167" s="27" t="n"/>
-      <c r="J167" s="31" t="s">
+      <c r="H167" s="22" t="n"/>
+      <c r="I167" s="0" t="n"/>
+      <c r="J167" s="21" t="s">
         <v>15</v>
       </c>
     </row>
     <row outlineLevel="0" r="168">
-      <c r="A168" s="50" t="n">
+      <c r="A168" s="0" t="n"/>
+      <c r="B168" s="0" t="n"/>
+      <c r="C168" s="29" t="n"/>
+      <c r="D168" s="29" t="n"/>
+      <c r="E168" s="0" t="n"/>
+      <c r="F168" s="82" t="s">
+        <v>313</v>
+      </c>
+      <c r="G168" s="32" t="s">
+        <v>314</v>
+      </c>
+      <c r="H168" s="33" t="n"/>
+      <c r="I168" s="29" t="n"/>
+      <c r="J168" s="32" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="169">
+      <c r="A169" s="73" t="n">
         <v>24</v>
       </c>
-      <c r="B168" s="11" t="s">
-        <v>313</v>
-      </c>
-      <c r="C168" s="12" t="n"/>
-      <c r="D168" s="12" t="n"/>
-      <c r="E168" s="56" t="s">
-        <v>62</v>
-      </c>
-      <c r="F168" s="14" t="s">
-        <v>314</v>
-      </c>
-      <c r="G168" s="14" t="s">
+      <c r="B169" s="11" t="s">
         <v>315</v>
       </c>
-      <c r="H168" s="15" t="n"/>
-      <c r="I168" s="12" t="n"/>
-      <c r="J168" s="16" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row outlineLevel="0" r="169">
-      <c r="A169" s="52" t="s"/>
-      <c r="B169" s="18" t="s"/>
-      <c r="C169" s="0" t="n"/>
-      <c r="D169" s="0" t="n"/>
-      <c r="E169" s="57" t="s"/>
-      <c r="F169" s="20" t="s">
+      <c r="C169" s="12" t="n"/>
+      <c r="D169" s="12" t="n"/>
+      <c r="E169" s="79" t="s">
+        <v>64</v>
+      </c>
+      <c r="F169" s="14" t="s">
         <v>316</v>
       </c>
-      <c r="G169" s="20" t="s">
+      <c r="G169" s="15" t="s">
         <v>317</v>
       </c>
-      <c r="H169" s="21" t="n"/>
-      <c r="I169" s="0" t="n"/>
-      <c r="J169" s="22" t="s">
+      <c r="H169" s="16" t="n"/>
+      <c r="I169" s="12" t="n"/>
+      <c r="J169" s="15" t="s">
         <v>15</v>
       </c>
     </row>
     <row outlineLevel="0" r="170">
-      <c r="A170" s="52" t="s"/>
+      <c r="A170" s="76" t="s"/>
       <c r="B170" s="18" t="s"/>
       <c r="C170" s="0" t="n"/>
       <c r="D170" s="0" t="n"/>
-      <c r="E170" s="57" t="s"/>
-      <c r="F170" s="61" t="s">
+      <c r="E170" s="81" t="s"/>
+      <c r="F170" s="20" t="s">
         <v>318</v>
       </c>
-      <c r="G170" s="61" t="s">
-        <v>141</v>
-      </c>
-      <c r="H170" s="21" t="n"/>
+      <c r="G170" s="21" t="s">
+        <v>319</v>
+      </c>
+      <c r="H170" s="22" t="n"/>
       <c r="I170" s="0" t="n"/>
-      <c r="J170" s="22" t="s">
+      <c r="J170" s="21" t="s">
         <v>15</v>
       </c>
     </row>
     <row outlineLevel="0" r="171">
-      <c r="A171" s="54" t="s"/>
-      <c r="B171" s="26" t="s"/>
-      <c r="C171" s="27" t="n"/>
-      <c r="D171" s="27" t="n"/>
-      <c r="E171" s="58" t="s"/>
-      <c r="F171" s="29" t="s">
-        <v>319</v>
-      </c>
-      <c r="G171" s="29" t="s">
+      <c r="A171" s="76" t="s"/>
+      <c r="B171" s="18" t="s"/>
+      <c r="C171" s="0" t="n"/>
+      <c r="D171" s="0" t="n"/>
+      <c r="E171" s="81" t="s"/>
+      <c r="F171" s="88" t="s">
         <v>320</v>
       </c>
-      <c r="H171" s="30" t="n"/>
-      <c r="I171" s="27" t="n"/>
-      <c r="J171" s="31" t="s">
+      <c r="G171" s="112" t="s">
+        <v>143</v>
+      </c>
+      <c r="H171" s="22" t="n"/>
+      <c r="I171" s="0" t="n"/>
+      <c r="J171" s="21" t="s">
         <v>15</v>
       </c>
     </row>
     <row outlineLevel="0" r="172">
-      <c r="A172" s="50" t="n">
+      <c r="A172" s="0" t="n"/>
+      <c r="B172" s="0" t="n"/>
+      <c r="C172" s="29" t="n"/>
+      <c r="D172" s="29" t="n"/>
+      <c r="E172" s="0" t="n"/>
+      <c r="F172" s="82" t="s">
+        <v>321</v>
+      </c>
+      <c r="G172" s="32" t="s">
+        <v>322</v>
+      </c>
+      <c r="H172" s="33" t="n"/>
+      <c r="I172" s="29" t="n"/>
+      <c r="J172" s="32" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="173">
+      <c r="A173" s="73" t="n">
         <v>25</v>
       </c>
-      <c r="B172" s="11" t="s">
-        <v>321</v>
-      </c>
-      <c r="C172" s="12" t="n"/>
-      <c r="D172" s="12" t="n"/>
-      <c r="E172" s="56" t="s">
-        <v>62</v>
-      </c>
-      <c r="F172" s="14" t="s">
-        <v>322</v>
-      </c>
-      <c r="G172" s="12" t="s">
+      <c r="B173" s="11" t="s">
         <v>323</v>
       </c>
-      <c r="H172" s="15" t="n"/>
-      <c r="I172" s="12" t="n"/>
-      <c r="J172" s="16" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row outlineLevel="0" r="173">
-      <c r="A173" s="52" t="s"/>
-      <c r="B173" s="18" t="s"/>
-      <c r="C173" s="0" t="n"/>
-      <c r="D173" s="0" t="n"/>
-      <c r="E173" s="57" t="s"/>
-      <c r="F173" s="20" t="s">
-        <v>286</v>
-      </c>
-      <c r="G173" s="20" t="s">
-        <v>287</v>
-      </c>
-      <c r="H173" s="21" t="n"/>
-      <c r="I173" s="0" t="n"/>
-      <c r="J173" s="22" t="s">
+      <c r="C173" s="12" t="n"/>
+      <c r="D173" s="12" t="n"/>
+      <c r="E173" s="79" t="s">
+        <v>64</v>
+      </c>
+      <c r="F173" s="14" t="s">
+        <v>324</v>
+      </c>
+      <c r="G173" s="84" t="s">
+        <v>325</v>
+      </c>
+      <c r="H173" s="16" t="n"/>
+      <c r="I173" s="12" t="n"/>
+      <c r="J173" s="15" t="s">
         <v>15</v>
       </c>
     </row>
     <row outlineLevel="0" r="174">
-      <c r="A174" s="52" t="s"/>
+      <c r="A174" s="76" t="s"/>
       <c r="B174" s="18" t="s"/>
       <c r="C174" s="0" t="n"/>
       <c r="D174" s="0" t="n"/>
-      <c r="E174" s="57" t="s"/>
+      <c r="E174" s="81" t="s"/>
       <c r="F174" s="20" t="s">
-        <v>299</v>
-      </c>
-      <c r="G174" s="20" t="s">
+        <v>288</v>
+      </c>
+      <c r="G174" s="21" t="s">
         <v>289</v>
       </c>
-      <c r="H174" s="21" t="n"/>
+      <c r="H174" s="22" t="n"/>
       <c r="I174" s="0" t="n"/>
-      <c r="J174" s="22" t="s">
+      <c r="J174" s="21" t="s">
         <v>15</v>
       </c>
     </row>
     <row outlineLevel="0" r="175">
-      <c r="A175" s="52" t="s"/>
+      <c r="A175" s="76" t="s"/>
       <c r="B175" s="18" t="s"/>
       <c r="C175" s="0" t="n"/>
       <c r="D175" s="0" t="n"/>
-      <c r="E175" s="57" t="s"/>
-      <c r="F175" s="61" t="s">
-        <v>300</v>
-      </c>
-      <c r="G175" s="61" t="s">
+      <c r="E175" s="81" t="s"/>
+      <c r="F175" s="20" t="s">
         <v>301</v>
       </c>
-      <c r="H175" s="21" t="n"/>
+      <c r="G175" s="21" t="s">
+        <v>291</v>
+      </c>
+      <c r="H175" s="22" t="n"/>
       <c r="I175" s="0" t="n"/>
-      <c r="J175" s="22" t="s">
+      <c r="J175" s="21" t="s">
         <v>15</v>
       </c>
     </row>
     <row outlineLevel="0" r="176">
-      <c r="A176" s="52" t="s"/>
+      <c r="A176" s="76" t="s"/>
       <c r="B176" s="18" t="s"/>
       <c r="C176" s="0" t="n"/>
       <c r="D176" s="0" t="n"/>
-      <c r="E176" s="57" t="s"/>
+      <c r="E176" s="81" t="s"/>
       <c r="F176" s="88" t="s">
         <v>302</v>
       </c>
-      <c r="G176" s="61" t="s">
-        <v>263</v>
-      </c>
-      <c r="H176" s="21" t="n"/>
+      <c r="G176" s="112" t="s">
+        <v>303</v>
+      </c>
+      <c r="H176" s="22" t="n"/>
       <c r="I176" s="0" t="n"/>
-      <c r="J176" s="22" t="s">
+      <c r="J176" s="21" t="s">
         <v>15</v>
       </c>
     </row>
     <row outlineLevel="0" r="177">
-      <c r="A177" s="52" t="s"/>
+      <c r="A177" s="76" t="s"/>
       <c r="B177" s="18" t="s"/>
       <c r="C177" s="0" t="n"/>
       <c r="D177" s="0" t="n"/>
-      <c r="E177" s="57" t="s"/>
-      <c r="F177" s="72" t="s">
-        <v>133</v>
-      </c>
-      <c r="G177" s="61" t="s">
-        <v>303</v>
-      </c>
-      <c r="H177" s="21" t="n"/>
+      <c r="E177" s="81" t="s"/>
+      <c r="F177" s="123" t="s">
+        <v>304</v>
+      </c>
+      <c r="G177" s="112" t="s">
+        <v>265</v>
+      </c>
+      <c r="H177" s="22" t="n"/>
       <c r="I177" s="0" t="n"/>
-      <c r="J177" s="22" t="s">
+      <c r="J177" s="21" t="s">
         <v>15</v>
       </c>
     </row>
     <row outlineLevel="0" r="178">
-      <c r="A178" s="52" t="s"/>
+      <c r="A178" s="76" t="s"/>
       <c r="B178" s="18" t="s"/>
       <c r="C178" s="0" t="n"/>
       <c r="D178" s="0" t="n"/>
-      <c r="E178" s="57" t="s"/>
-      <c r="F178" s="61" t="s">
-        <v>304</v>
-      </c>
-      <c r="G178" s="60" t="s">
+      <c r="E178" s="81" t="s"/>
+      <c r="F178" s="100" t="s">
+        <v>135</v>
+      </c>
+      <c r="G178" s="112" t="s">
         <v>305</v>
       </c>
-      <c r="H178" s="21" t="n"/>
+      <c r="H178" s="22" t="n"/>
       <c r="I178" s="0" t="n"/>
-      <c r="J178" s="22" t="s">
+      <c r="J178" s="21" t="s">
         <v>15</v>
       </c>
     </row>
     <row outlineLevel="0" r="179">
-      <c r="A179" s="52" t="s"/>
+      <c r="A179" s="76" t="s"/>
       <c r="B179" s="18" t="s"/>
       <c r="C179" s="0" t="n"/>
       <c r="D179" s="0" t="n"/>
-      <c r="E179" s="57" t="s"/>
-      <c r="F179" s="61" t="s">
-        <v>324</v>
-      </c>
-      <c r="G179" s="60" t="s">
-        <v>325</v>
-      </c>
-      <c r="H179" s="21" t="n"/>
+      <c r="E179" s="81" t="s"/>
+      <c r="F179" s="88" t="s">
+        <v>306</v>
+      </c>
+      <c r="G179" s="117" t="s">
+        <v>307</v>
+      </c>
+      <c r="H179" s="22" t="n"/>
       <c r="I179" s="0" t="n"/>
-      <c r="J179" s="22" t="s">
+      <c r="J179" s="21" t="s">
         <v>15</v>
       </c>
     </row>
     <row outlineLevel="0" r="180">
-      <c r="A180" s="52" t="s"/>
+      <c r="A180" s="76" t="s"/>
       <c r="B180" s="18" t="s"/>
       <c r="C180" s="0" t="n"/>
       <c r="D180" s="0" t="n"/>
-      <c r="E180" s="57" t="s"/>
-      <c r="F180" s="0" t="s">
-        <v>123</v>
-      </c>
-      <c r="G180" s="0" t="s">
-        <v>310</v>
-      </c>
-      <c r="H180" s="21" t="n"/>
+      <c r="E180" s="81" t="s"/>
+      <c r="F180" s="88" t="s">
+        <v>326</v>
+      </c>
+      <c r="G180" s="117" t="s">
+        <v>327</v>
+      </c>
+      <c r="H180" s="22" t="n"/>
       <c r="I180" s="0" t="n"/>
-      <c r="J180" s="22" t="s">
+      <c r="J180" s="21" t="s">
         <v>15</v>
       </c>
     </row>
     <row outlineLevel="0" r="181">
-      <c r="A181" s="54" t="s"/>
-      <c r="B181" s="26" t="s"/>
-      <c r="C181" s="27" t="n"/>
-      <c r="D181" s="27" t="n"/>
-      <c r="E181" s="58" t="s"/>
-      <c r="F181" s="29" t="s">
-        <v>311</v>
-      </c>
-      <c r="G181" s="29" t="s">
+      <c r="A181" s="76" t="s"/>
+      <c r="B181" s="18" t="s"/>
+      <c r="C181" s="0" t="n"/>
+      <c r="D181" s="0" t="n"/>
+      <c r="E181" s="81" t="s"/>
+      <c r="F181" s="23" t="s">
+        <v>125</v>
+      </c>
+      <c r="G181" s="24" t="s">
         <v>312</v>
       </c>
-      <c r="H181" s="30" t="n"/>
-      <c r="I181" s="27" t="n"/>
-      <c r="J181" s="31" t="s">
+      <c r="H181" s="22" t="n"/>
+      <c r="I181" s="0" t="n"/>
+      <c r="J181" s="21" t="s">
         <v>15</v>
       </c>
     </row>
     <row outlineLevel="0" r="182">
-      <c r="A182" s="50" t="n">
+      <c r="A182" s="0" t="n"/>
+      <c r="B182" s="0" t="n"/>
+      <c r="C182" s="29" t="n"/>
+      <c r="D182" s="29" t="n"/>
+      <c r="E182" s="0" t="n"/>
+      <c r="F182" s="82" t="s">
+        <v>313</v>
+      </c>
+      <c r="G182" s="32" t="s">
+        <v>314</v>
+      </c>
+      <c r="H182" s="33" t="n"/>
+      <c r="I182" s="29" t="n"/>
+      <c r="J182" s="32" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="183">
+      <c r="A183" s="73" t="n">
         <v>26</v>
       </c>
-      <c r="B182" s="11" t="s">
-        <v>326</v>
-      </c>
-      <c r="C182" s="12" t="n"/>
-      <c r="D182" s="12" t="n"/>
-      <c r="E182" s="56" t="s">
-        <v>62</v>
-      </c>
-      <c r="F182" s="14" t="s">
-        <v>327</v>
-      </c>
-      <c r="G182" s="14" t="s">
-        <v>310</v>
-      </c>
-      <c r="H182" s="15" t="n"/>
-      <c r="I182" s="12" t="n"/>
-      <c r="J182" s="16" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row outlineLevel="0" r="183">
-      <c r="A183" s="52" t="s"/>
-      <c r="B183" s="18" t="s"/>
-      <c r="C183" s="0" t="n"/>
-      <c r="D183" s="0" t="n"/>
-      <c r="E183" s="57" t="s"/>
-      <c r="F183" s="20" t="s">
+      <c r="B183" s="11" t="s">
         <v>328</v>
       </c>
-      <c r="G183" s="20" t="s">
+      <c r="C183" s="12" t="n"/>
+      <c r="D183" s="12" t="n"/>
+      <c r="E183" s="79" t="s">
+        <v>64</v>
+      </c>
+      <c r="F183" s="14" t="s">
         <v>329</v>
       </c>
-      <c r="H183" s="21" t="n"/>
-      <c r="I183" s="0" t="n"/>
-      <c r="J183" s="22" t="s">
+      <c r="G183" s="15" t="s">
+        <v>312</v>
+      </c>
+      <c r="H183" s="16" t="n"/>
+      <c r="I183" s="12" t="n"/>
+      <c r="J183" s="15" t="s">
         <v>15</v>
       </c>
     </row>
     <row outlineLevel="0" r="184">
-      <c r="A184" s="52" t="s"/>
+      <c r="A184" s="76" t="s"/>
       <c r="B184" s="18" t="s"/>
       <c r="C184" s="0" t="n"/>
       <c r="D184" s="0" t="n"/>
-      <c r="E184" s="57" t="s"/>
+      <c r="E184" s="81" t="s"/>
       <c r="F184" s="20" t="s">
         <v>330</v>
       </c>
-      <c r="G184" s="20" t="s">
+      <c r="G184" s="21" t="s">
         <v>331</v>
       </c>
-      <c r="H184" s="21" t="n"/>
+      <c r="H184" s="22" t="n"/>
       <c r="I184" s="0" t="n"/>
-      <c r="J184" s="22" t="s">
+      <c r="J184" s="21" t="s">
         <v>15</v>
       </c>
     </row>
     <row outlineLevel="0" r="185">
-      <c r="A185" s="54" t="s"/>
-      <c r="B185" s="26" t="s"/>
-      <c r="C185" s="27" t="n"/>
-      <c r="D185" s="27" t="n"/>
-      <c r="E185" s="58" t="s"/>
-      <c r="F185" s="29" t="s">
+      <c r="A185" s="76" t="s"/>
+      <c r="B185" s="18" t="s"/>
+      <c r="C185" s="0" t="n"/>
+      <c r="D185" s="0" t="n"/>
+      <c r="E185" s="81" t="s"/>
+      <c r="F185" s="20" t="s">
         <v>332</v>
       </c>
-      <c r="G185" s="29" t="s">
-        <v>331</v>
-      </c>
-      <c r="H185" s="30" t="n"/>
-      <c r="I185" s="27" t="n"/>
-      <c r="J185" s="31" t="s">
+      <c r="G185" s="21" t="s">
+        <v>333</v>
+      </c>
+      <c r="H185" s="22" t="n"/>
+      <c r="I185" s="0" t="n"/>
+      <c r="J185" s="21" t="s">
         <v>15</v>
       </c>
     </row>
     <row outlineLevel="0" r="186">
-      <c r="A186" s="50" t="n">
+      <c r="A186" s="0" t="n"/>
+      <c r="B186" s="0" t="n"/>
+      <c r="C186" s="29" t="n"/>
+      <c r="D186" s="29" t="n"/>
+      <c r="E186" s="0" t="n"/>
+      <c r="F186" s="82" t="s">
+        <v>334</v>
+      </c>
+      <c r="G186" s="32" t="s">
+        <v>333</v>
+      </c>
+      <c r="H186" s="33" t="n"/>
+      <c r="I186" s="29" t="n"/>
+      <c r="J186" s="32" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="187">
+      <c r="A187" s="73" t="n">
         <v>27</v>
       </c>
-      <c r="B186" s="89" t="s">
+      <c r="B187" s="124" t="s">
+        <v>335</v>
+      </c>
+      <c r="C187" s="12" t="n"/>
+      <c r="D187" s="12" t="n"/>
+      <c r="E187" s="79" t="s">
+        <v>64</v>
+      </c>
+      <c r="F187" s="14" t="s">
+        <v>332</v>
+      </c>
+      <c r="G187" s="15" t="s">
         <v>333</v>
       </c>
-      <c r="C186" s="12" t="n"/>
-      <c r="D186" s="12" t="n"/>
-      <c r="E186" s="56" t="s">
-        <v>62</v>
-      </c>
-      <c r="F186" s="14" t="s">
-        <v>330</v>
-      </c>
-      <c r="G186" s="14" t="s">
-        <v>331</v>
-      </c>
-      <c r="H186" s="15" t="n"/>
-      <c r="I186" s="12" t="n"/>
-      <c r="J186" s="16" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row outlineLevel="0" r="187">
-      <c r="A187" s="54" t="s"/>
-      <c r="B187" s="90" t="s"/>
-      <c r="C187" s="27" t="n"/>
-      <c r="D187" s="27" t="n"/>
-      <c r="E187" s="58" t="s"/>
-      <c r="F187" s="29" t="s">
-        <v>332</v>
-      </c>
-      <c r="G187" s="29" t="s">
-        <v>331</v>
-      </c>
-      <c r="H187" s="30" t="n"/>
-      <c r="I187" s="27" t="n"/>
-      <c r="J187" s="31" t="s">
+      <c r="H187" s="16" t="n"/>
+      <c r="I187" s="12" t="n"/>
+      <c r="J187" s="15" t="s">
         <v>15</v>
       </c>
     </row>
     <row outlineLevel="0" r="188">
-      <c r="A188" s="50" t="n">
+      <c r="A188" s="0" t="n"/>
+      <c r="B188" s="0" t="n"/>
+      <c r="C188" s="29" t="n"/>
+      <c r="D188" s="29" t="n"/>
+      <c r="E188" s="0" t="n"/>
+      <c r="F188" s="82" t="s">
+        <v>334</v>
+      </c>
+      <c r="G188" s="32" t="s">
+        <v>333</v>
+      </c>
+      <c r="H188" s="33" t="n"/>
+      <c r="I188" s="29" t="n"/>
+      <c r="J188" s="32" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="189">
+      <c r="A189" s="73" t="n">
         <v>28</v>
       </c>
-      <c r="B188" s="11" t="s">
-        <v>334</v>
-      </c>
-      <c r="C188" s="12" t="n"/>
-      <c r="D188" s="12" t="n"/>
-      <c r="E188" s="56" t="s">
-        <v>62</v>
-      </c>
-      <c r="F188" s="91" t="s">
-        <v>335</v>
-      </c>
-      <c r="G188" s="91" t="s">
+      <c r="B189" s="11" t="s">
         <v>336</v>
       </c>
-      <c r="H188" s="15" t="n"/>
-      <c r="I188" s="12" t="n"/>
-      <c r="J188" s="16" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row outlineLevel="0" r="189">
-      <c r="A189" s="52" t="s"/>
-      <c r="B189" s="18" t="s"/>
-      <c r="C189" s="0" t="n"/>
-      <c r="D189" s="0" t="n"/>
-      <c r="E189" s="57" t="s"/>
-      <c r="F189" s="20" t="s">
+      <c r="C189" s="12" t="n"/>
+      <c r="D189" s="12" t="n"/>
+      <c r="E189" s="79" t="s">
+        <v>64</v>
+      </c>
+      <c r="F189" s="125" t="s">
         <v>337</v>
       </c>
-      <c r="G189" s="20" t="s">
+      <c r="G189" s="126" t="s">
         <v>338</v>
       </c>
-      <c r="H189" s="21" t="n"/>
-      <c r="I189" s="0" t="n"/>
-      <c r="J189" s="22" t="s">
+      <c r="H189" s="16" t="n"/>
+      <c r="I189" s="12" t="n"/>
+      <c r="J189" s="15" t="s">
         <v>15</v>
       </c>
     </row>
     <row outlineLevel="0" r="190">
-      <c r="A190" s="54" t="s"/>
-      <c r="B190" s="26" t="s"/>
-      <c r="C190" s="27" t="n"/>
-      <c r="D190" s="27" t="n"/>
-      <c r="E190" s="58" t="s"/>
-      <c r="F190" s="29" t="s">
+      <c r="A190" s="76" t="s"/>
+      <c r="B190" s="18" t="s"/>
+      <c r="C190" s="0" t="n"/>
+      <c r="D190" s="0" t="n"/>
+      <c r="E190" s="81" t="s"/>
+      <c r="F190" s="20" t="s">
         <v>339</v>
       </c>
-      <c r="G190" s="29" t="s">
+      <c r="G190" s="21" t="s">
         <v>340</v>
       </c>
-      <c r="H190" s="30" t="n"/>
-      <c r="I190" s="27" t="n"/>
-      <c r="J190" s="31" t="s">
+      <c r="H190" s="22" t="n"/>
+      <c r="I190" s="0" t="n"/>
+      <c r="J190" s="21" t="s">
         <v>15</v>
       </c>
     </row>
     <row outlineLevel="0" r="191">
-      <c r="A191" s="50" t="n">
+      <c r="A191" s="0" t="n"/>
+      <c r="B191" s="0" t="n"/>
+      <c r="C191" s="29" t="n"/>
+      <c r="D191" s="29" t="n"/>
+      <c r="E191" s="0" t="n"/>
+      <c r="F191" s="82" t="s">
+        <v>341</v>
+      </c>
+      <c r="G191" s="32" t="s">
+        <v>342</v>
+      </c>
+      <c r="H191" s="33" t="n"/>
+      <c r="I191" s="29" t="n"/>
+      <c r="J191" s="32" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="192">
+      <c r="A192" s="73" t="n">
         <v>29</v>
       </c>
-      <c r="B191" s="92" t="s">
-        <v>341</v>
-      </c>
-      <c r="C191" s="93" t="n"/>
-      <c r="D191" s="93" t="n"/>
-      <c r="E191" s="56" t="s">
-        <v>62</v>
-      </c>
-      <c r="F191" s="94" t="s">
-        <v>342</v>
-      </c>
-      <c r="G191" s="94" t="s">
+      <c r="B192" s="127" t="s">
         <v>343</v>
       </c>
-      <c r="H191" s="95" t="n"/>
-      <c r="I191" s="12" t="n"/>
-      <c r="J191" s="16" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row outlineLevel="0" r="192">
-      <c r="A192" s="52" t="s"/>
-      <c r="B192" s="96" t="s"/>
-      <c r="C192" s="67" t="n"/>
-      <c r="D192" s="67" t="n"/>
-      <c r="E192" s="57" t="s"/>
-      <c r="F192" s="82" t="s">
+      <c r="C192" s="128" t="n"/>
+      <c r="D192" s="128" t="n"/>
+      <c r="E192" s="79" t="s">
+        <v>64</v>
+      </c>
+      <c r="F192" s="129" t="s">
         <v>344</v>
       </c>
-      <c r="G192" s="97" t="s">
+      <c r="G192" s="130" t="s">
         <v>345</v>
       </c>
-      <c r="H192" s="98" t="s">
+      <c r="H192" s="131" t="n"/>
+      <c r="I192" s="12" t="n"/>
+      <c r="J192" s="15" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="193">
+      <c r="A193" s="76" t="s"/>
+      <c r="B193" s="132" t="s"/>
+      <c r="C193" s="95" t="n"/>
+      <c r="D193" s="95" t="n"/>
+      <c r="E193" s="81" t="s"/>
+      <c r="F193" s="115" t="s">
         <v>346</v>
       </c>
-      <c r="I192" s="0" t="n"/>
-      <c r="J192" s="22" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row outlineLevel="0" r="193">
-      <c r="A193" s="52" t="s"/>
-      <c r="B193" s="96" t="s"/>
-      <c r="C193" s="67" t="n"/>
-      <c r="D193" s="67" t="n"/>
-      <c r="E193" s="57" t="s"/>
-      <c r="F193" s="82" t="s">
+      <c r="G193" s="133" t="s">
         <v>347</v>
       </c>
-      <c r="G193" s="82" t="s">
+      <c r="H193" s="134" t="s">
         <v>348</v>
       </c>
-      <c r="H193" s="98" t="s">
+      <c r="I193" s="0" t="n"/>
+      <c r="J193" s="21" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="194">
+      <c r="A194" s="76" t="s"/>
+      <c r="B194" s="132" t="s"/>
+      <c r="C194" s="95" t="n"/>
+      <c r="D194" s="95" t="n"/>
+      <c r="E194" s="81" t="s"/>
+      <c r="F194" s="115" t="s">
         <v>349</v>
       </c>
-      <c r="I193" s="0" t="n"/>
-      <c r="J193" s="22" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row outlineLevel="0" r="194">
-      <c r="A194" s="52" t="s"/>
-      <c r="B194" s="96" t="s"/>
-      <c r="C194" s="0" t="n"/>
-      <c r="D194" s="0" t="n"/>
-      <c r="E194" s="57" t="s"/>
-      <c r="F194" s="20" t="s">
+      <c r="G194" s="135" t="s">
         <v>350</v>
       </c>
-      <c r="G194" s="0" t="s">
+      <c r="H194" s="134" t="s">
         <v>351</v>
       </c>
-      <c r="H194" s="21" t="n"/>
       <c r="I194" s="0" t="n"/>
-      <c r="J194" s="22" t="s">
+      <c r="J194" s="21" t="s">
         <v>15</v>
       </c>
     </row>
     <row outlineLevel="0" r="195">
-      <c r="A195" s="52" t="s"/>
-      <c r="B195" s="96" t="s"/>
+      <c r="A195" s="76" t="s"/>
+      <c r="B195" s="132" t="s"/>
       <c r="C195" s="0" t="n"/>
       <c r="D195" s="0" t="n"/>
-      <c r="E195" s="57" t="s"/>
+      <c r="E195" s="81" t="s"/>
       <c r="F195" s="20" t="s">
         <v>352</v>
       </c>
-      <c r="G195" s="0" t="s">
+      <c r="G195" s="24" t="s">
         <v>353</v>
       </c>
-      <c r="H195" s="21" t="n"/>
+      <c r="H195" s="22" t="n"/>
       <c r="I195" s="0" t="n"/>
-      <c r="J195" s="22" t="s">
+      <c r="J195" s="21" t="s">
         <v>15</v>
       </c>
     </row>
     <row outlineLevel="0" r="196">
-      <c r="A196" s="52" t="s"/>
-      <c r="B196" s="96" t="s"/>
+      <c r="A196" s="76" t="s"/>
+      <c r="B196" s="132" t="s"/>
       <c r="C196" s="0" t="n"/>
       <c r="D196" s="0" t="n"/>
-      <c r="E196" s="57" t="s"/>
+      <c r="E196" s="81" t="s"/>
       <c r="F196" s="20" t="s">
         <v>354</v>
       </c>
-      <c r="G196" s="20" t="s">
+      <c r="G196" s="24" t="s">
         <v>355</v>
       </c>
-      <c r="H196" s="21" t="n"/>
+      <c r="H196" s="22" t="n"/>
       <c r="I196" s="0" t="n"/>
-      <c r="J196" s="22" t="s">
+      <c r="J196" s="21" t="s">
         <v>15</v>
       </c>
     </row>
     <row outlineLevel="0" r="197">
-      <c r="A197" s="52" t="s"/>
-      <c r="B197" s="96" t="s"/>
+      <c r="A197" s="76" t="s"/>
+      <c r="B197" s="132" t="s"/>
       <c r="C197" s="0" t="n"/>
       <c r="D197" s="0" t="n"/>
-      <c r="E197" s="57" t="s"/>
-      <c r="F197" s="0" t="s">
-        <v>177</v>
-      </c>
-      <c r="G197" s="20" t="s">
+      <c r="E197" s="81" t="s"/>
+      <c r="F197" s="20" t="s">
         <v>356</v>
       </c>
-      <c r="H197" s="21" t="n"/>
+      <c r="G197" s="21" t="s">
+        <v>357</v>
+      </c>
+      <c r="H197" s="22" t="n"/>
       <c r="I197" s="0" t="n"/>
-      <c r="J197" s="22" t="s">
+      <c r="J197" s="21" t="s">
         <v>15</v>
       </c>
     </row>
     <row outlineLevel="0" r="198">
-      <c r="A198" s="54" t="s"/>
-      <c r="B198" s="99" t="s"/>
-      <c r="C198" s="27" t="n"/>
-      <c r="D198" s="27" t="n"/>
-      <c r="E198" s="58" t="s"/>
-      <c r="F198" s="27" t="s">
-        <v>196</v>
-      </c>
-      <c r="G198" s="29" t="s">
-        <v>357</v>
-      </c>
-      <c r="H198" s="30" t="n"/>
-      <c r="I198" s="27" t="n"/>
-      <c r="J198" s="31" t="s">
+      <c r="A198" s="76" t="s"/>
+      <c r="B198" s="132" t="s"/>
+      <c r="C198" s="0" t="n"/>
+      <c r="D198" s="0" t="n"/>
+      <c r="E198" s="81" t="s"/>
+      <c r="F198" s="23" t="s">
+        <v>179</v>
+      </c>
+      <c r="G198" s="21" t="s">
+        <v>358</v>
+      </c>
+      <c r="H198" s="22" t="n"/>
+      <c r="I198" s="0" t="n"/>
+      <c r="J198" s="21" t="s">
         <v>15</v>
       </c>
     </row>
     <row outlineLevel="0" r="199">
-      <c r="A199" s="50" t="n">
+      <c r="A199" s="0" t="n"/>
+      <c r="B199" s="0" t="n"/>
+      <c r="C199" s="29" t="n"/>
+      <c r="D199" s="29" t="n"/>
+      <c r="E199" s="0" t="n"/>
+      <c r="F199" s="31" t="s">
+        <v>198</v>
+      </c>
+      <c r="G199" s="32" t="s">
+        <v>359</v>
+      </c>
+      <c r="H199" s="33" t="n"/>
+      <c r="I199" s="29" t="n"/>
+      <c r="J199" s="32" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="200">
+      <c r="A200" s="73" t="n">
         <v>30</v>
       </c>
-      <c r="B199" s="100" t="s">
-        <v>358</v>
-      </c>
-      <c r="C199" s="12" t="n"/>
-      <c r="D199" s="12" t="n"/>
-      <c r="E199" s="56" t="s">
-        <v>62</v>
-      </c>
-      <c r="F199" s="12" t="s">
-        <v>359</v>
-      </c>
-      <c r="G199" s="14" t="s">
+      <c r="B200" s="136" t="s">
         <v>360</v>
       </c>
-      <c r="H199" s="15" t="n"/>
-      <c r="I199" s="12" t="n"/>
-      <c r="J199" s="16" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row outlineLevel="0" r="200">
-      <c r="A200" s="52" t="s"/>
-      <c r="B200" s="101" t="s"/>
-      <c r="C200" s="0" t="n"/>
-      <c r="D200" s="0" t="n"/>
-      <c r="E200" s="57" t="s"/>
-      <c r="F200" s="20" t="s">
+      <c r="C200" s="12" t="n"/>
+      <c r="D200" s="12" t="n"/>
+      <c r="E200" s="79" t="s">
+        <v>64</v>
+      </c>
+      <c r="F200" s="80" t="s">
         <v>361</v>
       </c>
-      <c r="G200" s="0" t="s">
+      <c r="G200" s="15" t="s">
         <v>362</v>
       </c>
-      <c r="H200" s="21" t="n"/>
-      <c r="I200" s="0" t="n"/>
-      <c r="J200" s="22" t="s">
+      <c r="H200" s="16" t="n"/>
+      <c r="I200" s="12" t="n"/>
+      <c r="J200" s="15" t="s">
         <v>15</v>
       </c>
     </row>
     <row outlineLevel="0" r="201">
-      <c r="A201" s="52" t="s"/>
-      <c r="B201" s="101" t="s"/>
+      <c r="A201" s="76" t="s"/>
+      <c r="B201" s="137" t="s"/>
       <c r="C201" s="0" t="n"/>
       <c r="D201" s="0" t="n"/>
-      <c r="E201" s="57" t="s"/>
+      <c r="E201" s="81" t="s"/>
       <c r="F201" s="20" t="s">
         <v>363</v>
       </c>
-      <c r="G201" s="20" t="s">
+      <c r="G201" s="24" t="s">
         <v>364</v>
       </c>
-      <c r="H201" s="21" t="n"/>
+      <c r="H201" s="22" t="n"/>
       <c r="I201" s="0" t="n"/>
-      <c r="J201" s="22" t="s">
+      <c r="J201" s="21" t="s">
         <v>15</v>
       </c>
     </row>
     <row outlineLevel="0" r="202">
-      <c r="A202" s="52" t="s"/>
-      <c r="B202" s="101" t="s"/>
+      <c r="A202" s="76" t="s"/>
+      <c r="B202" s="137" t="s"/>
       <c r="C202" s="0" t="n"/>
       <c r="D202" s="0" t="n"/>
-      <c r="E202" s="57" t="s"/>
+      <c r="E202" s="81" t="s"/>
       <c r="F202" s="20" t="s">
         <v>365</v>
       </c>
-      <c r="G202" s="20" t="s">
+      <c r="G202" s="21" t="s">
         <v>366</v>
       </c>
-      <c r="H202" s="21" t="n"/>
+      <c r="H202" s="22" t="n"/>
       <c r="I202" s="0" t="n"/>
-      <c r="J202" s="22" t="s">
+      <c r="J202" s="21" t="s">
         <v>15</v>
       </c>
     </row>
     <row outlineLevel="0" r="203">
-      <c r="A203" s="52" t="s"/>
-      <c r="B203" s="101" t="s"/>
+      <c r="A203" s="76" t="s"/>
+      <c r="B203" s="137" t="s"/>
       <c r="C203" s="0" t="n"/>
       <c r="D203" s="0" t="n"/>
-      <c r="E203" s="57" t="s"/>
-      <c r="F203" s="0" t="s">
-        <v>123</v>
-      </c>
-      <c r="G203" s="20" t="s">
+      <c r="E203" s="81" t="s"/>
+      <c r="F203" s="20" t="s">
         <v>367</v>
       </c>
-      <c r="H203" s="21" t="n"/>
+      <c r="G203" s="21" t="s">
+        <v>368</v>
+      </c>
+      <c r="H203" s="22" t="n"/>
       <c r="I203" s="0" t="n"/>
-      <c r="J203" s="22" t="s">
+      <c r="J203" s="21" t="s">
         <v>15</v>
       </c>
     </row>
     <row outlineLevel="0" r="204">
-      <c r="A204" s="52" t="s"/>
-      <c r="B204" s="101" t="s"/>
+      <c r="A204" s="76" t="s"/>
+      <c r="B204" s="137" t="s"/>
       <c r="C204" s="0" t="n"/>
       <c r="D204" s="0" t="n"/>
-      <c r="E204" s="57" t="s"/>
-      <c r="F204" s="0" t="s">
-        <v>368</v>
-      </c>
-      <c r="G204" s="20" t="s">
+      <c r="E204" s="81" t="s"/>
+      <c r="F204" s="23" t="s">
+        <v>125</v>
+      </c>
+      <c r="G204" s="21" t="s">
         <v>369</v>
       </c>
-      <c r="H204" s="21" t="n"/>
+      <c r="H204" s="22" t="n"/>
       <c r="I204" s="0" t="n"/>
-      <c r="J204" s="22" t="s">
+      <c r="J204" s="21" t="s">
         <v>15</v>
       </c>
     </row>
     <row outlineLevel="0" r="205">
-      <c r="A205" s="54" t="s"/>
-      <c r="B205" s="102" t="s"/>
-      <c r="C205" s="27" t="n"/>
-      <c r="D205" s="27" t="n"/>
-      <c r="E205" s="58" t="s"/>
-      <c r="F205" s="29" t="s">
+      <c r="A205" s="76" t="s"/>
+      <c r="B205" s="137" t="s"/>
+      <c r="C205" s="0" t="n"/>
+      <c r="D205" s="0" t="n"/>
+      <c r="E205" s="81" t="s"/>
+      <c r="F205" s="23" t="s">
         <v>370</v>
       </c>
-      <c r="G205" s="29" t="s">
+      <c r="G205" s="21" t="s">
         <v>371</v>
       </c>
-      <c r="H205" s="30" t="n"/>
-      <c r="I205" s="27" t="n"/>
-      <c r="J205" s="31" t="s">
+      <c r="H205" s="22" t="n"/>
+      <c r="I205" s="0" t="n"/>
+      <c r="J205" s="21" t="s">
         <v>15</v>
       </c>
     </row>
     <row outlineLevel="0" r="206">
-      <c r="A206" s="50" t="n">
+      <c r="A206" s="0" t="n"/>
+      <c r="B206" s="0" t="n"/>
+      <c r="C206" s="29" t="n"/>
+      <c r="D206" s="29" t="n"/>
+      <c r="E206" s="0" t="n"/>
+      <c r="F206" s="82" t="s">
+        <v>372</v>
+      </c>
+      <c r="G206" s="32" t="s">
+        <v>373</v>
+      </c>
+      <c r="H206" s="33" t="n"/>
+      <c r="I206" s="29" t="n"/>
+      <c r="J206" s="32" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="207">
+      <c r="A207" s="73" t="n">
         <v>31</v>
       </c>
-      <c r="B206" s="103" t="s">
-        <v>372</v>
-      </c>
-      <c r="C206" s="12" t="n"/>
-      <c r="D206" s="12" t="n"/>
-      <c r="E206" s="56" t="s">
-        <v>62</v>
-      </c>
-      <c r="F206" s="14" t="s">
-        <v>373</v>
-      </c>
-      <c r="G206" s="12" t="s">
+      <c r="B207" s="138" t="s">
         <v>374</v>
       </c>
-      <c r="H206" s="15" t="n"/>
-      <c r="I206" s="12" t="n"/>
-      <c r="J206" s="16" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row outlineLevel="0" r="207">
-      <c r="A207" s="52" t="s"/>
-      <c r="B207" s="104" t="s"/>
-      <c r="C207" s="0" t="n"/>
-      <c r="D207" s="0" t="n"/>
-      <c r="E207" s="57" t="s"/>
-      <c r="F207" s="0" t="s">
+      <c r="C207" s="12" t="n"/>
+      <c r="D207" s="12" t="n"/>
+      <c r="E207" s="79" t="s">
+        <v>64</v>
+      </c>
+      <c r="F207" s="14" t="s">
         <v>375</v>
       </c>
-      <c r="G207" s="0" t="s">
+      <c r="G207" s="84" t="s">
         <v>376</v>
       </c>
-      <c r="H207" s="21" t="n"/>
-      <c r="I207" s="0" t="n"/>
-      <c r="J207" s="22" t="s">
+      <c r="H207" s="16" t="n"/>
+      <c r="I207" s="12" t="n"/>
+      <c r="J207" s="15" t="s">
         <v>15</v>
       </c>
     </row>
     <row outlineLevel="0" r="208">
-      <c r="A208" s="52" t="s"/>
-      <c r="B208" s="104" t="s"/>
+      <c r="A208" s="76" t="s"/>
+      <c r="B208" s="139" t="s"/>
       <c r="C208" s="0" t="n"/>
       <c r="D208" s="0" t="n"/>
-      <c r="E208" s="57" t="s"/>
-      <c r="F208" s="20" t="s">
+      <c r="E208" s="81" t="s"/>
+      <c r="F208" s="23" t="s">
         <v>377</v>
       </c>
-      <c r="G208" s="0" t="s">
+      <c r="G208" s="24" t="s">
         <v>378</v>
       </c>
-      <c r="H208" s="21" t="n"/>
+      <c r="H208" s="22" t="n"/>
       <c r="I208" s="0" t="n"/>
-      <c r="J208" s="22" t="s">
+      <c r="J208" s="21" t="s">
         <v>15</v>
       </c>
     </row>
     <row outlineLevel="0" r="209">
-      <c r="A209" s="52" t="s"/>
-      <c r="B209" s="104" t="s"/>
+      <c r="A209" s="76" t="s"/>
+      <c r="B209" s="139" t="s"/>
       <c r="C209" s="0" t="n"/>
       <c r="D209" s="0" t="n"/>
-      <c r="E209" s="57" t="s"/>
-      <c r="F209" s="0" t="s">
+      <c r="E209" s="81" t="s"/>
+      <c r="F209" s="20" t="s">
         <v>379</v>
       </c>
-      <c r="G209" s="20" t="s">
+      <c r="G209" s="24" t="s">
         <v>380</v>
       </c>
-      <c r="H209" s="21" t="n"/>
+      <c r="H209" s="22" t="n"/>
       <c r="I209" s="0" t="n"/>
-      <c r="J209" s="22" t="s">
+      <c r="J209" s="21" t="s">
         <v>15</v>
       </c>
     </row>
     <row outlineLevel="0" r="210">
-      <c r="A210" s="52" t="s"/>
-      <c r="B210" s="104" t="s"/>
+      <c r="A210" s="76" t="s"/>
+      <c r="B210" s="139" t="s"/>
       <c r="C210" s="0" t="n"/>
       <c r="D210" s="0" t="n"/>
-      <c r="E210" s="57" t="s"/>
-      <c r="F210" s="20" t="s">
+      <c r="E210" s="81" t="s"/>
+      <c r="F210" s="23" t="s">
         <v>381</v>
       </c>
-      <c r="G210" s="0" t="s">
+      <c r="G210" s="21" t="s">
         <v>382</v>
       </c>
-      <c r="H210" s="21" t="n"/>
+      <c r="H210" s="22" t="n"/>
       <c r="I210" s="0" t="n"/>
-      <c r="J210" s="22" t="s">
+      <c r="J210" s="21" t="s">
         <v>15</v>
       </c>
     </row>
     <row outlineLevel="0" r="211">
-      <c r="A211" s="52" t="s"/>
-      <c r="B211" s="104" t="s"/>
+      <c r="A211" s="76" t="s"/>
+      <c r="B211" s="139" t="s"/>
       <c r="C211" s="0" t="n"/>
       <c r="D211" s="0" t="n"/>
-      <c r="E211" s="57" t="s"/>
-      <c r="F211" s="0" t="s">
-        <v>123</v>
-      </c>
-      <c r="G211" s="20" t="s">
-        <v>367</v>
-      </c>
-      <c r="H211" s="21" t="n"/>
+      <c r="E211" s="81" t="s"/>
+      <c r="F211" s="20" t="s">
+        <v>383</v>
+      </c>
+      <c r="G211" s="24" t="s">
+        <v>384</v>
+      </c>
+      <c r="H211" s="22" t="n"/>
       <c r="I211" s="0" t="n"/>
-      <c r="J211" s="22" t="s">
+      <c r="J211" s="21" t="s">
         <v>15</v>
       </c>
     </row>
     <row outlineLevel="0" r="212">
-      <c r="A212" s="54" t="s"/>
-      <c r="B212" s="105" t="s"/>
-      <c r="C212" s="27" t="n"/>
-      <c r="D212" s="27" t="n"/>
-      <c r="E212" s="58" t="s"/>
-      <c r="F212" s="27" t="s">
-        <v>368</v>
-      </c>
-      <c r="G212" s="29" t="s">
+      <c r="A212" s="76" t="s"/>
+      <c r="B212" s="139" t="s"/>
+      <c r="C212" s="0" t="n"/>
+      <c r="D212" s="0" t="n"/>
+      <c r="E212" s="81" t="s"/>
+      <c r="F212" s="23" t="s">
+        <v>125</v>
+      </c>
+      <c r="G212" s="21" t="s">
         <v>369</v>
       </c>
-      <c r="H212" s="30" t="n"/>
-      <c r="I212" s="27" t="n"/>
-      <c r="J212" s="31" t="s">
+      <c r="H212" s="22" t="n"/>
+      <c r="I212" s="0" t="n"/>
+      <c r="J212" s="21" t="s">
         <v>15</v>
       </c>
     </row>
     <row outlineLevel="0" r="213">
-      <c r="A213" s="50" t="n">
+      <c r="A213" s="0" t="n"/>
+      <c r="B213" s="0" t="n"/>
+      <c r="C213" s="29" t="n"/>
+      <c r="D213" s="29" t="n"/>
+      <c r="E213" s="0" t="n"/>
+      <c r="F213" s="31" t="s">
+        <v>370</v>
+      </c>
+      <c r="G213" s="32" t="s">
+        <v>371</v>
+      </c>
+      <c r="H213" s="33" t="n"/>
+      <c r="I213" s="29" t="n"/>
+      <c r="J213" s="32" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="214">
+      <c r="A214" s="73" t="n">
         <v>32</v>
       </c>
-      <c r="B213" s="103" t="s">
-        <v>383</v>
-      </c>
-      <c r="C213" s="12" t="n"/>
-      <c r="D213" s="12" t="n"/>
-      <c r="E213" s="56" t="s">
-        <v>62</v>
-      </c>
-      <c r="F213" s="14" t="s">
-        <v>373</v>
-      </c>
-      <c r="G213" s="12" t="s">
-        <v>374</v>
-      </c>
-      <c r="H213" s="15" t="n"/>
-      <c r="I213" s="12" t="n"/>
-      <c r="J213" s="16" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row outlineLevel="0" r="214">
-      <c r="A214" s="52" t="s"/>
-      <c r="B214" s="104" t="s"/>
-      <c r="C214" s="0" t="n"/>
-      <c r="D214" s="0" t="n"/>
-      <c r="E214" s="57" t="s"/>
-      <c r="F214" s="0" t="s">
+      <c r="B214" s="138" t="s">
+        <v>385</v>
+      </c>
+      <c r="C214" s="12" t="n"/>
+      <c r="D214" s="12" t="n"/>
+      <c r="E214" s="79" t="s">
+        <v>64</v>
+      </c>
+      <c r="F214" s="14" t="s">
         <v>375</v>
       </c>
-      <c r="G214" s="0" t="s">
+      <c r="G214" s="84" t="s">
         <v>376</v>
       </c>
-      <c r="H214" s="21" t="n"/>
-      <c r="I214" s="0" t="n"/>
-      <c r="J214" s="22" t="s">
+      <c r="H214" s="16" t="n"/>
+      <c r="I214" s="12" t="n"/>
+      <c r="J214" s="15" t="s">
         <v>15</v>
       </c>
     </row>
     <row outlineLevel="0" r="215">
-      <c r="A215" s="52" t="s"/>
-      <c r="B215" s="104" t="s"/>
+      <c r="A215" s="76" t="s"/>
+      <c r="B215" s="139" t="s"/>
       <c r="C215" s="0" t="n"/>
       <c r="D215" s="0" t="n"/>
-      <c r="E215" s="57" t="s"/>
-      <c r="F215" s="20" t="s">
-        <v>384</v>
-      </c>
-      <c r="G215" s="20" t="s">
-        <v>385</v>
-      </c>
-      <c r="H215" s="21" t="n"/>
+      <c r="E215" s="81" t="s"/>
+      <c r="F215" s="23" t="s">
+        <v>377</v>
+      </c>
+      <c r="G215" s="24" t="s">
+        <v>378</v>
+      </c>
+      <c r="H215" s="22" t="n"/>
       <c r="I215" s="0" t="n"/>
-      <c r="J215" s="22" t="s">
+      <c r="J215" s="21" t="s">
         <v>15</v>
       </c>
     </row>
     <row outlineLevel="0" r="216">
-      <c r="A216" s="52" t="s"/>
-      <c r="B216" s="104" t="s"/>
+      <c r="A216" s="76" t="s"/>
+      <c r="B216" s="139" t="s"/>
       <c r="C216" s="0" t="n"/>
       <c r="D216" s="0" t="n"/>
-      <c r="E216" s="57" t="s"/>
-      <c r="F216" s="0" t="s">
-        <v>379</v>
-      </c>
-      <c r="G216" s="20" t="s">
-        <v>380</v>
-      </c>
-      <c r="H216" s="21" t="n"/>
+      <c r="E216" s="81" t="s"/>
+      <c r="F216" s="20" t="s">
+        <v>386</v>
+      </c>
+      <c r="G216" s="21" t="s">
+        <v>387</v>
+      </c>
+      <c r="H216" s="22" t="n"/>
       <c r="I216" s="0" t="n"/>
-      <c r="J216" s="22" t="s">
+      <c r="J216" s="21" t="s">
         <v>15</v>
       </c>
     </row>
     <row outlineLevel="0" r="217">
-      <c r="A217" s="54" t="s"/>
-      <c r="B217" s="105" t="s"/>
-      <c r="C217" s="27" t="n"/>
-      <c r="D217" s="27" t="n"/>
-      <c r="E217" s="58" t="s"/>
-      <c r="F217" s="29" t="s">
-        <v>386</v>
-      </c>
-      <c r="G217" s="29" t="s">
-        <v>387</v>
-      </c>
-      <c r="H217" s="30" t="n"/>
-      <c r="I217" s="27" t="n"/>
-      <c r="J217" s="31" t="s">
+      <c r="A217" s="76" t="s"/>
+      <c r="B217" s="139" t="s"/>
+      <c r="C217" s="0" t="n"/>
+      <c r="D217" s="0" t="n"/>
+      <c r="E217" s="81" t="s"/>
+      <c r="F217" s="23" t="s">
+        <v>381</v>
+      </c>
+      <c r="G217" s="21" t="s">
+        <v>382</v>
+      </c>
+      <c r="H217" s="22" t="n"/>
+      <c r="I217" s="0" t="n"/>
+      <c r="J217" s="21" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="218">
+      <c r="A218" s="140" t="s"/>
+      <c r="B218" s="141" t="s"/>
+      <c r="C218" s="29" t="n"/>
+      <c r="D218" s="29" t="n"/>
+      <c r="E218" s="142" t="s"/>
+      <c r="F218" s="82" t="s">
+        <v>388</v>
+      </c>
+      <c r="G218" s="32" t="s">
+        <v>389</v>
+      </c>
+      <c r="H218" s="33" t="n"/>
+      <c r="I218" s="29" t="n"/>
+      <c r="J218" s="32" t="s">
         <v>15</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="96">
+    <mergeCell ref="A124:A130"/>
+    <mergeCell ref="A67:A70"/>
+    <mergeCell ref="A77:A81"/>
+    <mergeCell ref="A101:A113"/>
+    <mergeCell ref="A200:A206"/>
+    <mergeCell ref="A183:A186"/>
+    <mergeCell ref="A150:A158"/>
+    <mergeCell ref="A42:A45"/>
+    <mergeCell ref="A2:A8"/>
+    <mergeCell ref="A214:A218"/>
+    <mergeCell ref="A54:A66"/>
+    <mergeCell ref="A71:A76"/>
+    <mergeCell ref="A82:A100"/>
+    <mergeCell ref="A118:A123"/>
+    <mergeCell ref="A189:A191"/>
+    <mergeCell ref="A169:A172"/>
+    <mergeCell ref="A136:A142"/>
+    <mergeCell ref="A46:A53"/>
+    <mergeCell ref="A33:A41"/>
+    <mergeCell ref="A30:A32"/>
+    <mergeCell ref="A27:A29"/>
+    <mergeCell ref="A22:A26"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A9:A18"/>
+    <mergeCell ref="E187:E188"/>
+    <mergeCell ref="E54:E66"/>
+    <mergeCell ref="E71:E76"/>
+    <mergeCell ref="E82:E100"/>
+    <mergeCell ref="E118:E123"/>
+    <mergeCell ref="E207:E213"/>
+    <mergeCell ref="E169:E172"/>
+    <mergeCell ref="E136:E142"/>
+    <mergeCell ref="E46:E53"/>
+    <mergeCell ref="E33:E41"/>
+    <mergeCell ref="E30:E32"/>
+    <mergeCell ref="E27:E29"/>
+    <mergeCell ref="E22:E26"/>
+    <mergeCell ref="E19:E21"/>
+    <mergeCell ref="E2:E8"/>
+    <mergeCell ref="E9:E18"/>
+    <mergeCell ref="B169:B172"/>
+    <mergeCell ref="B54:B66"/>
+    <mergeCell ref="B71:B76"/>
+    <mergeCell ref="B82:B99"/>
+    <mergeCell ref="B118:B123"/>
+    <mergeCell ref="B189:B191"/>
+    <mergeCell ref="B214:B218"/>
+    <mergeCell ref="B136:B142"/>
+    <mergeCell ref="B46:B53"/>
+    <mergeCell ref="B33:B41"/>
+    <mergeCell ref="B30:B32"/>
+    <mergeCell ref="B27:B29"/>
+    <mergeCell ref="B22:B26"/>
+    <mergeCell ref="B19:B21"/>
+    <mergeCell ref="B9:B18"/>
     <mergeCell ref="B2:B8"/>
-    <mergeCell ref="B158:B167"/>
-    <mergeCell ref="B188:B190"/>
-    <mergeCell ref="B81:B98"/>
-    <mergeCell ref="B191:B198"/>
-    <mergeCell ref="B70:B75"/>
-    <mergeCell ref="B117:B122"/>
-    <mergeCell ref="B76:B80"/>
-    <mergeCell ref="B123:B129"/>
-    <mergeCell ref="B172:B181"/>
-    <mergeCell ref="B45:B52"/>
-    <mergeCell ref="B26:B28"/>
-    <mergeCell ref="B32:B40"/>
-    <mergeCell ref="B9:B17"/>
-    <mergeCell ref="B149:B157"/>
-    <mergeCell ref="B135:B141"/>
-    <mergeCell ref="B142:B148"/>
-    <mergeCell ref="B18:B20"/>
-    <mergeCell ref="B100:B112"/>
-    <mergeCell ref="B213:B217"/>
-    <mergeCell ref="B113:B116"/>
-    <mergeCell ref="B206:B212"/>
-    <mergeCell ref="B29:B31"/>
-    <mergeCell ref="B21:B25"/>
-    <mergeCell ref="B199:B205"/>
-    <mergeCell ref="B186:B187"/>
-    <mergeCell ref="B182:B185"/>
-    <mergeCell ref="B168:B171"/>
-    <mergeCell ref="B130:B134"/>
-    <mergeCell ref="B66:B69"/>
-    <mergeCell ref="B41:B44"/>
-    <mergeCell ref="B53:B65"/>
-    <mergeCell ref="A18:A20"/>
-    <mergeCell ref="A188:A190"/>
-    <mergeCell ref="A26:A28"/>
-    <mergeCell ref="A32:A40"/>
-    <mergeCell ref="A186:A187"/>
-    <mergeCell ref="A76:A80"/>
-    <mergeCell ref="A199:A205"/>
-    <mergeCell ref="A123:A129"/>
-    <mergeCell ref="A172:A181"/>
-    <mergeCell ref="A41:A44"/>
-    <mergeCell ref="A158:A167"/>
-    <mergeCell ref="A70:A75"/>
-    <mergeCell ref="A191:A198"/>
-    <mergeCell ref="A81:A99"/>
-    <mergeCell ref="A149:A157"/>
-    <mergeCell ref="A135:A141"/>
-    <mergeCell ref="A21:A25"/>
-    <mergeCell ref="A100:A112"/>
-    <mergeCell ref="A130:A134"/>
-    <mergeCell ref="A113:A116"/>
-    <mergeCell ref="A168:A171"/>
-    <mergeCell ref="A117:A122"/>
-    <mergeCell ref="A66:A69"/>
-    <mergeCell ref="A206:A212"/>
-    <mergeCell ref="A182:A185"/>
-    <mergeCell ref="A9:A17"/>
-    <mergeCell ref="A2:A8"/>
-    <mergeCell ref="A142:A148"/>
-    <mergeCell ref="A45:A52"/>
-    <mergeCell ref="A213:A217"/>
-    <mergeCell ref="A29:A31"/>
-    <mergeCell ref="A53:A65"/>
-    <mergeCell ref="E21:E25"/>
-    <mergeCell ref="E130:E134"/>
-    <mergeCell ref="E70:E75"/>
-    <mergeCell ref="E81:E99"/>
-    <mergeCell ref="E206:E212"/>
-    <mergeCell ref="E100:E112"/>
-    <mergeCell ref="E123:E129"/>
-    <mergeCell ref="E168:E171"/>
-    <mergeCell ref="E191:E198"/>
-    <mergeCell ref="E2:E8"/>
-    <mergeCell ref="E149:E157"/>
-    <mergeCell ref="E32:E40"/>
-    <mergeCell ref="E172:E181"/>
-    <mergeCell ref="E18:E20"/>
-    <mergeCell ref="E53:E65"/>
-    <mergeCell ref="E66:E69"/>
-    <mergeCell ref="E26:E28"/>
-    <mergeCell ref="E41:E44"/>
-    <mergeCell ref="E199:E205"/>
-    <mergeCell ref="E142:E148"/>
-    <mergeCell ref="E117:E122"/>
-    <mergeCell ref="E213:E217"/>
-    <mergeCell ref="E76:E80"/>
-    <mergeCell ref="E188:E190"/>
-    <mergeCell ref="E135:E141"/>
-    <mergeCell ref="E9:E17"/>
-    <mergeCell ref="E29:E31"/>
-    <mergeCell ref="E113:E116"/>
-    <mergeCell ref="E45:E52"/>
-    <mergeCell ref="E158:E167"/>
-    <mergeCell ref="E182:E185"/>
-    <mergeCell ref="E186:E187"/>
+    <mergeCell ref="E189:E191"/>
+    <mergeCell ref="E131:E135"/>
+    <mergeCell ref="E143:E149"/>
+    <mergeCell ref="E159:E168"/>
+    <mergeCell ref="E173:E182"/>
+    <mergeCell ref="E200:E206"/>
+    <mergeCell ref="E214:E218"/>
+    <mergeCell ref="E114:E117"/>
+    <mergeCell ref="B173:B182"/>
+    <mergeCell ref="B131:B135"/>
+    <mergeCell ref="B143:B149"/>
+    <mergeCell ref="B159:B168"/>
+    <mergeCell ref="B207:B213"/>
+    <mergeCell ref="B192:B199"/>
+    <mergeCell ref="B187:B188"/>
+    <mergeCell ref="B114:B117"/>
+    <mergeCell ref="A207:A213"/>
+    <mergeCell ref="A131:A135"/>
+    <mergeCell ref="A143:A149"/>
+    <mergeCell ref="A159:A168"/>
+    <mergeCell ref="A173:A182"/>
+    <mergeCell ref="A187:A188"/>
+    <mergeCell ref="A192:A199"/>
+    <mergeCell ref="A114:A117"/>
+    <mergeCell ref="E124:E130"/>
+    <mergeCell ref="E67:E70"/>
+    <mergeCell ref="E77:E81"/>
+    <mergeCell ref="E101:E113"/>
+    <mergeCell ref="E192:E199"/>
+    <mergeCell ref="E183:E186"/>
+    <mergeCell ref="E150:E158"/>
+    <mergeCell ref="E42:E45"/>
+    <mergeCell ref="B124:B130"/>
+    <mergeCell ref="B67:B70"/>
+    <mergeCell ref="B77:B81"/>
+    <mergeCell ref="B101:B113"/>
+    <mergeCell ref="B183:B186"/>
+    <mergeCell ref="B200:B206"/>
+    <mergeCell ref="B150:B158"/>
+    <mergeCell ref="B42:B45"/>
   </mergeCells>
   <pageMargins bottom="0.790000021457672" footer="0.19680555164814" header="0.19680555164814" left="0.790000021457672" right="0.790000021457672" top="0.790000021457672"/>
 </worksheet>

--- a/Cases.xlsx
+++ b/Cases.xlsx
@@ -12,7 +12,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:a15="http://schemas.microsoft.com/office/drawing/2012/main" xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:co="http://ncloudtech.com" xmlns:co-ooxml="http://ncloudtech.com/ooxml" xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:o="urn:schemas-microsoft-com:office:office" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:pic="http://schemas.openxmlformats.org/drawingml/2006/picture" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:s="http://schemas.openxmlformats.org/officeDocument/2006/sharedTypes" xmlns:sl="http://schemas.openxmlformats.org/schemaLibrary/2006/main" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:w="http://schemas.openxmlformats.org/wordprocessingml/2006/main" xmlns:w10="urn:schemas-microsoft-com:office:word" xmlns:w14="http://schemas.microsoft.com/office/word/2010/wordml" xmlns:w15="http://schemas.microsoft.com/office/word/2012/wordml" xmlns:wp="http://schemas.openxmlformats.org/drawingml/2006/wordprocessingDrawing" xmlns:wpg="http://schemas.microsoft.com/office/word/2010/wordprocessingGroup" xmlns:wps="http://schemas.microsoft.com/office/word/2010/wordprocessingShape" xmlns:x="urn:schemas-microsoft-com:office:excel" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" mc:Ignorable="co co-ooxml w14 x14 w15">
   <si>
-    <t>ID</t>
+    <t>у</t>
   </si>
   <si>
     <t>Название</t>
@@ -130,17 +130,26 @@
         <rFont val="XO Thames"/>
         <sz val="12"/>
       </rPr>
+      <t>В процессе</t>
+    </r>
+  </si>
+  <si>
+    <t>В процессе</t>
+  </si>
+  <si>
+    <t>Кликнуть на поле Login</t>
+  </si>
+  <si>
+    <t>Края поля Login подсветятся цветом.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="XO Thames"/>
+        <sz val="12"/>
+      </rPr>
       <t>Проверено</t>
     </r>
-  </si>
-  <si>
-    <t>Подлежит автоматизации</t>
-  </si>
-  <si>
-    <t>Кликнуть на поле Login</t>
-  </si>
-  <si>
-    <t>Края поля Login подсветятся цветом.</t>
   </si>
   <si>
     <r>
@@ -215,7 +224,7 @@
         <rFont val="XO Thames"/>
         <sz val="12"/>
       </rPr>
-      <t xml:space="preserve">Запустить приложение </t>
+      <t xml:space="preserve">1) Запустить приложение </t>
     </r>
     <r>
       <rPr>
@@ -250,19 +259,19 @@
     </r>
   </si>
   <si>
-    <t>В поле Login ввести цифры</t>
+    <t>2) В поле Login ввести цифры</t>
   </si>
   <si>
     <t>Цифры вводятся успешно</t>
   </si>
   <si>
-    <t>В поле Login ввести символы на латинице</t>
+    <t>3) В поле Login ввести символы на латинице</t>
   </si>
   <si>
     <t>Символы вводятся успешно</t>
   </si>
   <si>
-    <t>В поле Login ввести символы на кириллице</t>
+    <t>4) В поле Login ввести символы на кириллице</t>
   </si>
   <si>
     <r>
@@ -274,19 +283,19 @@
     </r>
   </si>
   <si>
-    <t>Символы на кириллице не принимаются</t>
-  </si>
-  <si>
-    <t>В поле Login ввести специальные символы</t>
-  </si>
-  <si>
-    <t>В поле Login ввести более 30 символов на латинице, цифры, специальные символы</t>
+    <t xml:space="preserve">Символы на кириллице не принимаются. </t>
+  </si>
+  <si>
+    <t>5) В поле Login ввести специальные символы</t>
+  </si>
+  <si>
+    <t>6) В поле Login ввести более 30 символов на латинице, цифры, специальные символы</t>
   </si>
   <si>
     <t>Бесконечный ввод символов.</t>
   </si>
   <si>
-    <t xml:space="preserve"> В поле Login ввести любое слово на латинице и нажать Sign In</t>
+    <t>7) В поле Login ввести любое слово на латинице и нажать Sign In</t>
   </si>
   <si>
     <t>Появилось сообщение с предупреждением</t>
@@ -679,7 +688,7 @@
     <t>Кликнуть на плюс в круге, справа от надписи Claims</t>
   </si>
   <si>
-    <t>В поле Tittle ввести валидыне значения - латиница, цифры, специальные символы, до 50 символов</t>
+    <t>В поле Tittle ввести валидные значения - латиница, цифры, специальные символы, до 50 символов</t>
   </si>
   <si>
     <t>Символы успешно вводятся и отображаются</t>
@@ -691,6 +700,15 @@
     <t>Индивидуум выбран и отображается</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <rFont val="XO Thames"/>
+        <sz val="12"/>
+      </rPr>
+      <t>Под вопросом</t>
+    </r>
+  </si>
+  <si>
     <t>Проверить поле Date</t>
   </si>
   <si>
@@ -819,6 +837,9 @@
   </si>
   <si>
     <t>Символы в поле не должны вводится без конечно</t>
+  </si>
+  <si>
+    <t>Вводится более 50 символов</t>
   </si>
   <si>
     <r>
@@ -877,13 +898,22 @@
     <t>Открылось всплывающее меню с выборами разделов</t>
   </si>
   <si>
-    <t>Кликнуть на карандаш с квадратом. Находящейся в правом нижнем углу</t>
+    <r>
+      <rPr>
+        <rFont val="XO Thames"/>
+        <sz val="12"/>
+      </rPr>
+      <t xml:space="preserve">Статус сообщения "Открытый". </t>
+    </r>
+    <r>
+      <t>Кликнуть на карандаш с квадратом. Находящейся в правом нижнем углу</t>
+    </r>
   </si>
   <si>
     <t>Откроется раздел Editing Claims</t>
   </si>
   <si>
-    <t>Кликнуть на карандаш с квадратом. Находящейся по право стороне экрана, в пункте Сreated</t>
+    <t>Статус сообщения "В процессе". Кликнуть на карандаш с квадратом. Находящейся по право стороне экрана, в пункте Сreated</t>
   </si>
   <si>
     <r>
@@ -893,9 +923,6 @@
       </rPr>
       <t>Открылся раздел с добавлением комментария</t>
     </r>
-  </si>
-  <si>
-    <t>Если нет квадрата с карандашом. Пункт Created появляется при создании комментария. Add comment</t>
   </si>
   <si>
     <r>
@@ -968,6 +995,39 @@
     <t>Кнопка Cancel функционирует. Переход в раздел редактирования сообщения</t>
   </si>
   <si>
+    <t>13_1</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="XO Thames"/>
+        <sz val="12"/>
+      </rPr>
+      <t>Проверка раздела Claims. Добавление комментария, add comment. Не валидные значения</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="XO Thames"/>
+        <sz val="12"/>
+      </rPr>
+      <t xml:space="preserve">Проверить поле Commet. Ввести в поле не валидные значения. </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="XO Thames"/>
+        <sz val="12"/>
+      </rPr>
+      <t xml:space="preserve">Не валидыные символы не вводятся </t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">При воде символов на кириллице тест падает. </t>
+  </si>
+  <si>
     <t>Проверка раздела Claims. Редактирование сообщения. Проверить иконку Документ с шестерней</t>
   </si>
   <si>
@@ -1019,7 +1079,16 @@
     <t>Кликнуть на Cancel</t>
   </si>
   <si>
-    <t>Сообщение перешло в статус Canceled. Надпись о статусе расположена под строкой Plan date и выделена красным цветом</t>
+    <t>Сообщение перешло в статус Canceled. Надпись о статусе расположена под строкой Plan date и выделена светло красным цветом</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="XO Thames"/>
+        <sz val="12"/>
+      </rPr>
+      <t>Сообщение должно быть в статусе Open</t>
+    </r>
   </si>
   <si>
     <r>
@@ -1058,7 +1127,7 @@
         <rFont val="XO Thames"/>
         <sz val="12"/>
       </rPr>
-      <t>Надпись о статусе расположена под строкой Plan date и выделена красным цветом</t>
+      <t>Надпись о статусе расположена под строкой Plan date и выделена светло красным цветом</t>
     </r>
     <r>
       <t xml:space="preserve">
@@ -1081,6 +1150,15 @@
     <t>Сообщение должно быть в статусе In progress</t>
   </si>
   <si>
+    <t>Возвращение в раздел редактирование сообщения</t>
+  </si>
+  <si>
+    <t>Проверить кнопку Ok</t>
+  </si>
+  <si>
+    <t>Поле Comment не заполнено. Комментарий не добавился. Появилось предупреждающее сообщение.</t>
+  </si>
+  <si>
     <t>Проверить поле Comment на валидные значения. Ввести в поле символы на латинице, цифры, специальные символы</t>
   </si>
   <si>
@@ -1102,15 +1180,6 @@
     </r>
   </si>
   <si>
-    <t>Возвращение в раздел редактирование сообщения</t>
-  </si>
-  <si>
-    <t>Проверить кнопку Ok</t>
-  </si>
-  <si>
-    <t>Поле Comment не заполнено. Комментарий не добавился. Появилось предупреждающее сообщение.</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <rFont val="XO Thames"/>
@@ -1120,7 +1189,7 @@
     </r>
   </si>
   <si>
-    <t>Поле Comment заполнено. Комментарий успешно добавился.</t>
+    <t>Поле Comment заполнено. Комментарий успешно добавился. Сообщение изменила статус с In Progress на статус Open</t>
   </si>
   <si>
     <r>
@@ -1368,6 +1437,9 @@
     </r>
   </si>
   <si>
+    <t>Возможность ввода более 50 символов.</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <rFont val="XO Thames"/>
@@ -1416,6 +1488,15 @@
         <rFont val="XO Thames"/>
         <sz val="12"/>
       </rPr>
+      <t>Возможность ввода более 50 символов.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="XO Thames"/>
+        <sz val="12"/>
+      </rPr>
       <t>Кликнуть на To execute</t>
     </r>
   </si>
@@ -1487,6 +1568,15 @@
         <rFont val="XO Thames"/>
         <sz val="12"/>
       </rPr>
+      <t>Проверено/Не работает</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="XO Thames"/>
+        <sz val="12"/>
+      </rPr>
       <t xml:space="preserve">Кликнуть на на две вертикальные стрелки указывающие вверх и вниз, </t>
     </r>
     <r>
@@ -1567,6 +1657,15 @@
     <t>Календарь успешно проверен. Дата успешно изменяется и визуально отображается</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <rFont val="XO Thames"/>
+        <sz val="12"/>
+      </rPr>
+      <t>Доделать/Переделать</t>
+    </r>
+  </si>
+  <si>
     <t>Проверить поле календарь. По правой стороне</t>
   </si>
   <si>
@@ -1668,6 +1767,9 @@
     <t>Появится сообщение с предупреждением.</t>
   </si>
   <si>
+    <t>Не проверяется</t>
+  </si>
+  <si>
     <t>Раздел с сообщениями. Кликнуть на иконку с карандашом в квадрате</t>
   </si>
   <si>
@@ -1838,6 +1940,35 @@
     </r>
   </si>
   <si>
+    <r>
+      <rPr>
+        <rFont val="JetBrains Mono"/>
+        <color rgb="000000" tint="0"/>
+        <sz val="12"/>
+      </rPr>
+      <t>T</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <b val="false"/>
+        <i val="false"/>
+        <color rgb="000000" tint="0"/>
+        <sz val="12"/>
+        <u val="none"/>
+      </rPr>
+      <t>extMultiLine</t>
+    </r>
+    <r>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <t xml:space="preserve">
+</t>
+    </r>
+  </si>
+  <si>
     <t>Проверить ползунок Active</t>
   </si>
   <si>
@@ -1847,6 +1978,9 @@
     <t>Ползунок не работает</t>
   </si>
   <si>
+    <t>Не проверенно</t>
+  </si>
+  <si>
     <t>Не подлежит автоматизации. Функция не активна.</t>
   </si>
   <si>
@@ -1896,6 +2030,9 @@
     <t>В разделе сообщения кликнуть на иконку с мусорным ведром</t>
   </si>
   <si>
+    <t>Под вопросом</t>
+  </si>
+  <si>
     <t>В разделе сообщения кликнуть на карандаш в квадрате</t>
   </si>
   <si>
@@ -1914,7 +2051,7 @@
         <rFont val="XO Thames"/>
         <sz val="12"/>
       </rPr>
-      <t>Control Panel. Раздел с сообщениями. Проверка раздела Editing News</t>
+      <t>Control Panel. Раздел с сообщениями. Проверка раздела Editing News и удаление сообщения.</t>
     </r>
   </si>
   <si>
@@ -1930,6 +2067,18 @@
     </r>
   </si>
   <si>
+    <t>Переделать</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="XO Thames"/>
+        <sz val="12"/>
+      </rPr>
+      <t>Переделать</t>
+    </r>
+  </si>
+  <si>
     <t>Проверить ползунок Active. Кликнуть на ползунок</t>
   </si>
   <si>
@@ -1941,6 +2090,18 @@
         <rFont val="XO Thames"/>
         <sz val="12"/>
       </rPr>
+      <t>В разделе сообщения кликнуть на иконку с мусорным ведром. Удалить сообщение.</t>
+    </r>
+  </si>
+  <si>
+    <t>Сообщение удалилось.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="XO Thames"/>
+        <sz val="12"/>
+      </rPr>
       <t xml:space="preserve">Раздел News. Переход в раздел </t>
     </r>
     <r>
@@ -1952,6 +2113,15 @@
     </r>
   </si>
   <si>
+    <r>
+      <rPr>
+        <rFont val="XO Thames"/>
+        <sz val="12"/>
+      </rPr>
+      <t>Пользователь авторизован.</t>
+    </r>
+  </si>
+  <si>
     <t>Не заполнять поля. Нажать кнопку Save</t>
   </si>
   <si>
@@ -1961,6 +2131,9 @@
     <t>Ввод в поле не возможен. Только выбор из списка</t>
   </si>
   <si>
+    <t>При поочередном вводе в поле символов на латинице и кириллице происходит сбой теста</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <rFont val="XO Thames"/>
@@ -1984,6 +2157,15 @@
         <rFont val="XO Thames"/>
         <sz val="12"/>
       </rPr>
+      <t>Вводится более 50 символов.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="XO Thames"/>
+        <sz val="12"/>
+      </rPr>
       <t>Заполнит поле Description не  валидыными значениями. Ввести в поле символы на других языках. Более 50 символов</t>
     </r>
   </si>
@@ -2000,8 +2182,29 @@
         <rFont val="XO Thames"/>
         <sz val="12"/>
       </rPr>
-      <t>Control Panel. Раздел с сообщениями. Проверка раздела Editing News на не валидные значения</t>
-    </r>
+      <t>Control Panel. Раздел с сообщениями. Проверка раздела Editing News(карандаш в квадрате) на не валидные значения</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="XO Thames"/>
+        <sz val="12"/>
+      </rPr>
+      <t>Заполнит поле Category не  валидыными значениями. Ввести в поле символы на других языках. Более 50 символов</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="XO Thames"/>
+        <sz val="12"/>
+      </rPr>
+      <t>При поочередном вводе в поле символов на латинице и кириллице происходит сбой теста</t>
+    </r>
+  </si>
+  <si>
+    <t>Вводится более 50 символов.</t>
   </si>
   <si>
     <r>
@@ -2341,6 +2544,39 @@
       </rPr>
       <t>Данные не принимаются. Появилось предупреждающее сообщение</t>
     </r>
+  </si>
+  <si>
+    <t>Проверка раздела About</t>
+  </si>
+  <si>
+    <t>Перейти в раздел About</t>
+  </si>
+  <si>
+    <t>Переход в раздел About успешный</t>
+  </si>
+  <si>
+    <t>Перейти по ссылке в Privace Policy</t>
+  </si>
+  <si>
+    <t>Переход на сторонний ресурс успешный. Информация отображается</t>
+  </si>
+  <si>
+    <t>Перейти по ссылке в Terms of use</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="XO Thames"/>
+        <sz val="12"/>
+      </rPr>
+      <t>Переход на сторонний ресурс успешный. Информация отображается</t>
+    </r>
+  </si>
+  <si>
+    <t>Проверить кнопку назад</t>
+  </si>
+  <si>
+    <t>Выход из раздела About успешный.</t>
   </si>
 </sst>
 </file>
@@ -2372,7 +2608,7 @@
       <sz val="12"/>
     </font>
   </fonts>
-  <fills count="19">
+  <fills count="21">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2431,6 +2667,21 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFF" tint="0"/>
       </patternFill>
     </fill>
@@ -2441,17 +2692,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0"/>
+        <fgColor theme="8" tint="0.8"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0"/>
+        <fgColor rgb="1F497D" tint="0"/>
       </patternFill>
     </fill>
     <fill>
@@ -2465,7 +2711,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="47">
+  <borders count="37">
     <border>
       <left style="none"/>
       <right style="none"/>
@@ -2581,15 +2827,37 @@
       <left style="thin">
         <color rgb="000000" tint="0"/>
       </left>
-      <right style="thin">
+      <top style="thin">
+        <color rgb="000000" tint="0"/>
+      </top>
+      <diagonal style="none">
+        <color rgb="000000" tint="0"/>
+      </diagonal>
+    </border>
+    <border diagonalDown="true" diagonalUp="true">
+      <left style="none">
+        <color rgb="000000" tint="0"/>
+      </left>
+      <right style="none">
         <color rgb="000000" tint="0"/>
       </right>
       <top style="thin">
         <color rgb="000000" tint="0"/>
       </top>
-      <bottom style="thin">
+      <bottom style="none">
         <color rgb="000000" tint="0"/>
       </bottom>
+      <diagonal style="none">
+        <color rgb="000000" tint="0"/>
+      </diagonal>
+    </border>
+    <border diagonalDown="true" diagonalUp="true">
+      <left style="none">
+        <color rgb="000000" tint="0"/>
+      </left>
+      <top style="thin">
+        <color rgb="000000" tint="0"/>
+      </top>
       <diagonal style="none">
         <color rgb="000000" tint="0"/>
       </diagonal>
@@ -2604,7 +2872,7 @@
       <top style="thin">
         <color rgb="000000" tint="0"/>
       </top>
-      <bottom style="thin">
+      <bottom style="none">
         <color rgb="000000" tint="0"/>
       </bottom>
       <diagonal style="none">
@@ -2615,10 +2883,44 @@
       <left style="none">
         <color rgb="000000" tint="0"/>
       </left>
-      <right style="none">
+      <right style="thin">
         <color rgb="000000" tint="0"/>
       </right>
       <top style="thin">
+        <color rgb="000000" tint="0"/>
+      </top>
+      <bottom style="none">
+        <color rgb="000000" tint="0"/>
+      </bottom>
+      <diagonal style="none">
+        <color rgb="000000" tint="0"/>
+      </diagonal>
+    </border>
+    <border diagonalDown="true" diagonalUp="true">
+      <left style="thin">
+        <color rgb="000000" tint="0"/>
+      </left>
+      <right style="thin">
+        <color rgb="000000" tint="0"/>
+      </right>
+      <top style="thin">
+        <color rgb="000000" tint="0"/>
+      </top>
+      <bottom style="none">
+        <color rgb="000000" tint="0"/>
+      </bottom>
+      <diagonal style="none">
+        <color rgb="000000" tint="0"/>
+      </diagonal>
+    </border>
+    <border diagonalDown="true" diagonalUp="true">
+      <left style="thin">
+        <color rgb="000000" tint="0"/>
+      </left>
+      <right style="none">
+        <color rgb="000000" tint="0"/>
+      </right>
+      <top style="none">
         <color rgb="000000" tint="0"/>
       </top>
       <bottom style="none">
@@ -2635,10 +2937,10 @@
       <right style="thin">
         <color rgb="000000" tint="0"/>
       </right>
-      <top style="thin">
+      <top style="none">
         <color rgb="000000" tint="0"/>
       </top>
-      <bottom style="thin">
+      <bottom style="none">
         <color rgb="000000" tint="0"/>
       </bottom>
       <diagonal style="none">
@@ -2649,10 +2951,10 @@
       <left style="thin">
         <color rgb="000000" tint="0"/>
       </left>
-      <right style="none">
+      <right style="thin">
         <color rgb="000000" tint="0"/>
       </right>
-      <top style="thin">
+      <top style="none">
         <color rgb="000000" tint="0"/>
       </top>
       <bottom style="none">
@@ -2666,13 +2968,13 @@
       <left style="none">
         <color rgb="000000" tint="0"/>
       </left>
-      <right style="thin">
+      <right style="none">
         <color rgb="000000" tint="0"/>
       </right>
-      <top style="thin">
+      <top style="none">
         <color rgb="000000" tint="0"/>
       </top>
-      <bottom style="none">
+      <bottom style="thin">
         <color rgb="000000" tint="0"/>
       </bottom>
       <diagonal style="none">
@@ -2683,13 +2985,81 @@
       <left style="thin">
         <color rgb="000000" tint="0"/>
       </left>
+      <right style="none">
+        <color rgb="000000" tint="0"/>
+      </right>
+      <top style="none">
+        <color rgb="000000" tint="0"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="000000" tint="0"/>
+      </bottom>
+      <diagonal style="none">
+        <color rgb="000000" tint="0"/>
+      </diagonal>
+    </border>
+    <border diagonalDown="true" diagonalUp="true">
+      <left style="none">
+        <color rgb="000000" tint="0"/>
+      </left>
       <right style="thin">
+        <color rgb="000000" tint="0"/>
+      </right>
+      <top style="none">
+        <color rgb="000000" tint="0"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="000000" tint="0"/>
+      </bottom>
+      <diagonal style="none">
+        <color rgb="000000" tint="0"/>
+      </diagonal>
+    </border>
+    <border diagonalDown="true" diagonalUp="true">
+      <left style="thin">
+        <color rgb="000000" tint="0"/>
+      </left>
+      <right style="thin">
+        <color rgb="000000" tint="0"/>
+      </right>
+      <top style="none">
+        <color rgb="000000" tint="0"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="000000" tint="0"/>
+      </bottom>
+      <diagonal style="none">
+        <color rgb="000000" tint="0"/>
+      </diagonal>
+    </border>
+    <border diagonalDown="true" diagonalUp="true">
+      <left style="thin">
+        <color rgb="000000" tint="0"/>
+      </left>
+      <right style="none">
         <color rgb="000000" tint="0"/>
       </right>
       <top style="thin">
         <color rgb="000000" tint="0"/>
       </top>
-      <bottom style="none">
+      <bottom style="thin">
+        <color rgb="000000" tint="0"/>
+      </bottom>
+      <diagonal style="none">
+        <color rgb="000000" tint="0"/>
+      </diagonal>
+    </border>
+    <border diagonalDown="true" diagonalUp="true">
+      <left style="none">
+        <color rgb="000000" tint="0"/>
+      </left>
+      <right style="thin">
+        <color rgb="000000" tint="0"/>
+      </right>
+      <top style="thin">
+        <color rgb="000000" tint="0"/>
+      </top>
+      <bottom style="thin">
         <color rgb="000000" tint="0"/>
       </bottom>
       <diagonal style="none">
@@ -2712,352 +3082,41 @@
         <color rgb="000000" tint="0"/>
       </right>
     </border>
-    <border diagonalDown="true" diagonalUp="true">
+    <border>
       <left style="thin">
         <color rgb="000000" tint="0"/>
       </left>
       <right style="none">
         <color rgb="000000" tint="0"/>
       </right>
-      <top style="none">
-        <color rgb="000000" tint="0"/>
-      </top>
-      <bottom style="none">
+      <bottom style="thin">
         <color rgb="000000" tint="0"/>
       </bottom>
-      <diagonal style="none">
-        <color rgb="000000" tint="0"/>
-      </diagonal>
     </border>
-    <border diagonalDown="true" diagonalUp="true">
+    <border>
       <left style="none">
         <color rgb="000000" tint="0"/>
       </left>
       <right style="thin">
         <color rgb="000000" tint="0"/>
       </right>
-      <top style="none">
-        <color rgb="000000" tint="0"/>
-      </top>
-      <bottom style="none">
+      <bottom style="thin">
         <color rgb="000000" tint="0"/>
       </bottom>
-      <diagonal style="none">
-        <color rgb="000000" tint="0"/>
-      </diagonal>
-    </border>
-    <border diagonalDown="true" diagonalUp="true">
-      <left style="thin">
-        <color rgb="000000" tint="0"/>
-      </left>
-      <right style="thin">
-        <color rgb="000000" tint="0"/>
-      </right>
-      <top style="none">
-        <color rgb="000000" tint="0"/>
-      </top>
-      <bottom style="none">
-        <color rgb="000000" tint="0"/>
-      </bottom>
-      <diagonal style="none">
-        <color rgb="000000" tint="0"/>
-      </diagonal>
-    </border>
-    <border diagonalDown="true" diagonalUp="true">
-      <left style="none">
-        <color rgb="000000" tint="0"/>
-      </left>
-      <right style="none">
-        <color rgb="000000" tint="0"/>
-      </right>
-      <top style="none">
-        <color rgb="000000" tint="0"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="000000" tint="0"/>
-      </bottom>
-      <diagonal style="none">
-        <color rgb="000000" tint="0"/>
-      </diagonal>
-    </border>
-    <border diagonalDown="true" diagonalUp="true">
-      <left style="thin">
-        <color rgb="000000" tint="0"/>
-      </left>
-      <right style="none">
-        <color rgb="000000" tint="0"/>
-      </right>
-      <top style="none">
-        <color rgb="000000" tint="0"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="000000" tint="0"/>
-      </bottom>
-      <diagonal style="none">
-        <color rgb="000000" tint="0"/>
-      </diagonal>
-    </border>
-    <border diagonalDown="true" diagonalUp="true">
-      <left style="none">
-        <color rgb="000000" tint="0"/>
-      </left>
-      <right style="thin">
-        <color rgb="000000" tint="0"/>
-      </right>
-      <top style="none">
-        <color rgb="000000" tint="0"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="000000" tint="0"/>
-      </bottom>
-      <diagonal style="none">
-        <color rgb="000000" tint="0"/>
-      </diagonal>
-    </border>
-    <border diagonalDown="true" diagonalUp="true">
-      <left style="thin">
-        <color rgb="000000" tint="0"/>
-      </left>
-      <right style="thin">
-        <color rgb="000000" tint="0"/>
-      </right>
-      <top style="none">
-        <color rgb="000000" tint="0"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="000000" tint="0"/>
-      </bottom>
-      <diagonal style="none">
-        <color rgb="000000" tint="0"/>
-      </diagonal>
-    </border>
-    <border diagonalDown="true" diagonalUp="true">
-      <left style="thin">
-        <color rgb="000000" tint="0"/>
-      </left>
-      <right style="none">
-        <color rgb="000000" tint="0"/>
-      </right>
-      <top style="thin">
-        <color rgb="000000" tint="0"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="000000" tint="0"/>
-      </bottom>
-      <diagonal style="none">
-        <color rgb="000000" tint="0"/>
-      </diagonal>
-    </border>
-    <border diagonalDown="true" diagonalUp="true">
-      <left style="none">
-        <color rgb="000000" tint="0"/>
-      </left>
-      <right style="none">
-        <color rgb="000000" tint="0"/>
-      </right>
-      <top style="thin">
-        <color rgb="000000" tint="0"/>
-      </top>
-      <bottom style="none">
-        <color rgb="000000" tint="0"/>
-      </bottom>
-      <diagonal style="none">
-        <color rgb="000000" tint="0"/>
-      </diagonal>
-    </border>
-    <border diagonalDown="true" diagonalUp="true">
-      <left style="none">
-        <color rgb="000000" tint="0"/>
-      </left>
-      <right style="thin">
-        <color rgb="000000" tint="0"/>
-      </right>
-      <top style="thin">
-        <color rgb="000000" tint="0"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="000000" tint="0"/>
-      </bottom>
-      <diagonal style="none">
-        <color rgb="000000" tint="0"/>
-      </diagonal>
-    </border>
-    <border diagonalDown="true" diagonalUp="true">
-      <left style="thin">
-        <color rgb="000000" tint="0"/>
-      </left>
-      <right style="none">
-        <color rgb="000000" tint="0"/>
-      </right>
-      <top style="thin">
-        <color rgb="000000" tint="0"/>
-      </top>
-      <bottom style="none">
-        <color rgb="000000" tint="0"/>
-      </bottom>
-      <diagonal style="none">
-        <color rgb="000000" tint="0"/>
-      </diagonal>
-    </border>
-    <border diagonalDown="true" diagonalUp="true">
-      <left style="none">
-        <color rgb="000000" tint="0"/>
-      </left>
-      <right style="thin">
-        <color rgb="000000" tint="0"/>
-      </right>
-      <top style="thin">
-        <color rgb="000000" tint="0"/>
-      </top>
-      <bottom style="none">
-        <color rgb="000000" tint="0"/>
-      </bottom>
-      <diagonal style="none">
-        <color rgb="000000" tint="0"/>
-      </diagonal>
-    </border>
-    <border diagonalDown="true" diagonalUp="true">
-      <left style="thin">
-        <color rgb="000000" tint="0"/>
-      </left>
-      <right style="thin">
-        <color rgb="000000" tint="0"/>
-      </right>
-      <top style="thin">
-        <color rgb="000000" tint="0"/>
-      </top>
-      <bottom style="none">
-        <color rgb="000000" tint="0"/>
-      </bottom>
-      <diagonal style="none">
-        <color rgb="000000" tint="0"/>
-      </diagonal>
     </border>
     <border>
       <left style="thin">
         <color rgb="000000" tint="0"/>
       </left>
-      <right style="none">
+      <right style="thin">
         <color rgb="000000" tint="0"/>
       </right>
-    </border>
-    <border>
-      <left style="none">
-        <color rgb="000000" tint="0"/>
-      </left>
-      <right style="thin">
-        <color rgb="000000" tint="0"/>
-      </right>
-    </border>
-    <border diagonalDown="true" diagonalUp="true">
-      <left style="thin">
-        <color rgb="000000" tint="0"/>
-      </left>
-      <right style="thin">
-        <color rgb="000000" tint="0"/>
-      </right>
-      <top style="none">
-        <color rgb="000000" tint="0"/>
-      </top>
-      <bottom style="none">
-        <color rgb="000000" tint="0"/>
-      </bottom>
-      <diagonal style="none">
-        <color rgb="000000" tint="0"/>
-      </diagonal>
-    </border>
-    <border diagonalDown="true" diagonalUp="true">
-      <left style="none">
-        <color rgb="000000" tint="0"/>
-      </left>
-      <right style="none">
-        <color rgb="000000" tint="0"/>
-      </right>
-      <top style="none">
+      <top style="thin">
         <color rgb="000000" tint="0"/>
       </top>
       <bottom style="thin">
         <color rgb="000000" tint="0"/>
       </bottom>
-      <diagonal style="none">
-        <color rgb="000000" tint="0"/>
-      </diagonal>
-    </border>
-    <border diagonalDown="true" diagonalUp="true">
-      <left style="thin">
-        <color rgb="000000" tint="0"/>
-      </left>
-      <right style="none">
-        <color rgb="000000" tint="0"/>
-      </right>
-      <top style="none">
-        <color rgb="000000" tint="0"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="000000" tint="0"/>
-      </bottom>
-      <diagonal style="none">
-        <color rgb="000000" tint="0"/>
-      </diagonal>
-    </border>
-    <border diagonalDown="true" diagonalUp="true">
-      <left style="none">
-        <color rgb="000000" tint="0"/>
-      </left>
-      <right style="thin">
-        <color rgb="000000" tint="0"/>
-      </right>
-      <top style="none">
-        <color rgb="000000" tint="0"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="000000" tint="0"/>
-      </bottom>
-      <diagonal style="none">
-        <color rgb="000000" tint="0"/>
-      </diagonal>
-    </border>
-    <border diagonalDown="true" diagonalUp="true">
-      <left style="thin">
-        <color rgb="000000" tint="0"/>
-      </left>
-      <right style="thin">
-        <color rgb="000000" tint="0"/>
-      </right>
-      <top style="none">
-        <color rgb="000000" tint="0"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="000000" tint="0"/>
-      </bottom>
-      <diagonal style="none">
-        <color rgb="000000" tint="0"/>
-      </diagonal>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="000000" tint="0"/>
-      </left>
-      <right style="none">
-        <color rgb="000000" tint="0"/>
-      </right>
-      <bottom style="none">
-        <color rgb="000000" tint="0"/>
-      </bottom>
-    </border>
-    <border diagonalDown="true" diagonalUp="true">
-      <left style="thin">
-        <color rgb="000000" tint="0"/>
-      </left>
-      <top style="thin">
-        <color rgb="000000" tint="0"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="000000" tint="0"/>
-      </bottom>
-      <diagonal style="none">
-        <color rgb="000000" tint="0"/>
-      </diagonal>
     </border>
     <border>
       <left style="thin">
@@ -3075,6 +3134,14 @@
         <color rgb="000000" tint="0"/>
       </right>
       <top style="none">
+        <color rgb="000000" tint="0"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="000000" tint="0"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin">
         <color rgb="000000" tint="0"/>
       </top>
       <bottom style="thin">
@@ -3085,7 +3152,7 @@
   <cellStyleXfs count="1">
     <xf applyFont="true" borderId="0" fillId="0" fontId="1" quotePrefix="false"/>
   </cellStyleXfs>
-  <cellXfs count="143">
+  <cellXfs count="202">
     <xf applyFont="true" borderId="0" fillId="0" fontId="1" quotePrefix="false"/>
     <xf applyAlignment="true" applyFill="true" applyFont="true" borderId="0" fillId="2" fontId="1" quotePrefix="false">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
@@ -3173,105 +3240,80 @@
     <xf applyAlignment="true" applyBorder="true" applyFont="true" borderId="14" fillId="0" fontId="1" quotePrefix="false">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" borderId="15" fillId="0" fontId="1" quotePrefix="false">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
+    <xf applyBorder="true" applyFont="true" borderId="15" fillId="0" fontId="1" quotePrefix="false"/>
     <xf applyBorder="true" applyFont="true" borderId="16" fillId="0" fontId="1" quotePrefix="false"/>
-    <xf applyBorder="true" applyFont="true" borderId="17" fillId="0" fontId="1" quotePrefix="false"/>
+    <xf applyAlignment="true" applyBorder="true" applyFont="true" borderId="17" fillId="0" fontId="1" quotePrefix="false">
+      <alignment wrapText="true"/>
+    </xf>
     <xf applyAlignment="true" applyBorder="true" applyFont="true" borderId="18" fillId="0" fontId="1" quotePrefix="false">
       <alignment wrapText="true"/>
     </xf>
     <xf applyAlignment="true" applyBorder="true" applyFont="true" borderId="19" fillId="0" fontId="1" quotePrefix="false">
       <alignment wrapText="true"/>
     </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="1" quotePrefix="false"/>
+    <xf applyBorder="true" applyFont="true" borderId="20" fillId="0" fontId="1" quotePrefix="false"/>
+    <xf applyBorder="true" applyFont="true" borderId="21" fillId="0" fontId="1" quotePrefix="false"/>
+    <xf applyBorder="true" applyFont="true" borderId="22" fillId="0" fontId="1" quotePrefix="false"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="20" fillId="0" fontId="1" numFmtId="1000" quotePrefix="false"/>
+    <xf applyAlignment="true" applyBorder="true" applyFont="true" borderId="21" fillId="0" fontId="1" quotePrefix="false">
+      <alignment wrapText="true"/>
+    </xf>
     <xf applyAlignment="true" applyBorder="true" applyFont="true" borderId="20" fillId="0" fontId="1" quotePrefix="false">
       <alignment wrapText="true"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" borderId="9" fillId="0" fontId="1" quotePrefix="false">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" borderId="21" fillId="0" fontId="1" quotePrefix="false">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf applyFont="true" borderId="0" fillId="0" fontId="1" quotePrefix="false"/>
-    <xf applyBorder="true" applyFont="true" borderId="22" fillId="0" fontId="1" quotePrefix="false"/>
+    <xf applyAlignment="true" applyBorder="true" applyFont="true" borderId="22" fillId="0" fontId="1" quotePrefix="false">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFont="true" borderId="23" fillId="0" fontId="0" quotePrefix="false"/>
+    <xf applyAlignment="true" applyBorder="true" applyFont="true" borderId="24" fillId="0" fontId="1" quotePrefix="false">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFont="true" borderId="25" fillId="0" fontId="1" quotePrefix="false">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFont="true" borderId="26" fillId="0" fontId="0" quotePrefix="false"/>
+    <xf applyBorder="true" applyFont="true" borderId="24" fillId="0" fontId="1" quotePrefix="false"/>
+    <xf applyAlignment="true" applyBorder="true" applyFont="true" borderId="4" fillId="0" fontId="1" quotePrefix="false">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFont="true" borderId="16" fillId="0" fontId="1" quotePrefix="false">
+      <alignment horizontal="left" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFont="true" borderId="19" fillId="0" fontId="1" quotePrefix="false"/>
+    <xf applyAlignment="true" applyBorder="true" applyFont="true" borderId="7" fillId="0" fontId="1" quotePrefix="false">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyAlignment="true" applyFont="true" borderId="0" fillId="0" fontId="1" quotePrefix="false">
+      <alignment horizontal="left" vertical="center" wrapText="true"/>
+    </xf>
     <xf applyBorder="true" applyFont="true" borderId="23" fillId="0" fontId="1" quotePrefix="false"/>
-    <xf applyBorder="true" applyFont="true" borderId="24" fillId="0" fontId="1" quotePrefix="false"/>
+    <xf applyBorder="true" applyFont="true" borderId="26" fillId="0" fontId="1" quotePrefix="false"/>
     <xf applyBorder="true" applyFont="true" borderId="25" fillId="0" fontId="1" quotePrefix="false"/>
-    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="23" fillId="0" fontId="1" numFmtId="1000" quotePrefix="false"/>
+    <xf applyAlignment="true" applyBorder="true" applyFont="true" borderId="4" fillId="0" fontId="1" quotePrefix="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFont="true" borderId="16" fillId="0" fontId="1" quotePrefix="false">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFont="true" borderId="17" fillId="0" fontId="1" quotePrefix="false"/>
+    <xf applyAlignment="true" applyBorder="true" applyFont="true" borderId="7" fillId="0" fontId="1" quotePrefix="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="true" applyFont="true" borderId="0" fillId="0" fontId="1" quotePrefix="false">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
     <xf applyAlignment="true" applyBorder="true" applyFont="true" borderId="24" fillId="0" fontId="1" quotePrefix="false">
       <alignment wrapText="true"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" borderId="23" fillId="0" fontId="1" quotePrefix="false">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" borderId="25" fillId="0" fontId="1" quotePrefix="false">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf applyBorder="true" borderId="26" fillId="0" fontId="0" quotePrefix="false"/>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" borderId="27" fillId="0" fontId="1" quotePrefix="false">
+    <xf applyAlignment="true" applyBorder="true" applyFont="true" borderId="4" fillId="0" fontId="1" quotePrefix="false">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFont="true" borderId="2" fillId="0" fontId="1" quotePrefix="false">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" borderId="28" fillId="0" fontId="1" quotePrefix="false">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf applyBorder="true" borderId="29" fillId="0" fontId="0" quotePrefix="false"/>
-    <xf applyBorder="true" borderId="27" fillId="0" fontId="0" quotePrefix="false"/>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" borderId="1" fillId="0" fontId="1" quotePrefix="false">
-      <alignment vertical="center" wrapText="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" borderId="30" fillId="0" fontId="1" quotePrefix="false">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf applyBorder="true" applyFont="true" borderId="31" fillId="0" fontId="1" quotePrefix="false"/>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" borderId="32" fillId="0" fontId="1" quotePrefix="false">
-      <alignment horizontal="left" vertical="center" wrapText="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" borderId="33" fillId="0" fontId="1" quotePrefix="false">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" borderId="34" fillId="0" fontId="1" quotePrefix="false">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf applyBorder="true" applyFont="true" borderId="35" fillId="0" fontId="1" quotePrefix="false"/>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" borderId="7" fillId="0" fontId="1" quotePrefix="false">
-      <alignment vertical="center" wrapText="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" borderId="36" fillId="0" fontId="1" quotePrefix="false">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" borderId="37" fillId="0" fontId="1" quotePrefix="false">
-      <alignment horizontal="left" vertical="center" wrapText="true"/>
-    </xf>
-    <xf applyBorder="true" applyFont="true" borderId="38" fillId="0" fontId="1" quotePrefix="false"/>
-    <xf applyBorder="true" applyFont="true" borderId="39" fillId="0" fontId="1" quotePrefix="false"/>
-    <xf applyBorder="true" applyFont="true" borderId="40" fillId="0" fontId="1" quotePrefix="false"/>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" borderId="41" fillId="0" fontId="1" quotePrefix="false">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf applyBorder="true" applyFont="true" borderId="42" fillId="0" fontId="1" quotePrefix="false"/>
-    <xf applyBorder="true" applyFont="true" borderId="41" fillId="0" fontId="1" quotePrefix="false"/>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" borderId="1" fillId="0" fontId="1" quotePrefix="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" borderId="32" fillId="0" fontId="1" quotePrefix="false">
-      <alignment vertical="center" wrapText="true"/>
-    </xf>
-    <xf applyBorder="true" applyFont="true" borderId="33" fillId="0" fontId="1" quotePrefix="false"/>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" borderId="7" fillId="0" fontId="1" quotePrefix="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" borderId="37" fillId="0" fontId="1" quotePrefix="false">
-      <alignment vertical="center" wrapText="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" borderId="40" fillId="0" fontId="1" quotePrefix="false">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" borderId="3" fillId="0" fontId="1" quotePrefix="false">
-      <alignment vertical="center" wrapText="true"/>
-    </xf>
     <xf applyBorder="true" applyFont="true" borderId="4" fillId="0" fontId="1" quotePrefix="false"/>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" borderId="8" fillId="0" fontId="1" quotePrefix="false">
+    <xf applyAlignment="true" applyFont="true" borderId="0" fillId="0" fontId="1" quotePrefix="false">
       <alignment vertical="center" wrapText="true"/>
     </xf>
     <xf applyAlignment="true" applyBorder="true" applyFont="true" borderId="10" fillId="0" fontId="1" quotePrefix="false">
@@ -3285,105 +3327,273 @@
       <alignment vertical="bottom" wrapText="true"/>
     </xf>
     <xf applyBorder="true" applyFont="true" borderId="12" fillId="0" fontId="1" quotePrefix="false"/>
-    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="7" fillId="12" fontId="1" quotePrefix="false"/>
+    <xf applyAlignment="true" applyBorder="true" applyFill="true" applyFont="true" borderId="4" fillId="3" fontId="1" quotePrefix="false">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFont="true" borderId="2" fillId="0" fontId="1" quotePrefix="false">
+      <alignment horizontal="left" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFill="true" applyFont="true" borderId="7" fillId="3" fontId="1" quotePrefix="false">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyAlignment="true" applyFont="true" borderId="0" fillId="0" fontId="1" quotePrefix="false">
+      <alignment horizontal="left" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFill="true" applyFont="true" borderId="14" fillId="3" fontId="1" quotePrefix="false">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
     <xf applyAlignment="true" applyBorder="true" applyFill="true" applyFont="true" borderId="7" fillId="12" fontId="1" quotePrefix="false">
       <alignment wrapText="true"/>
     </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="8" fillId="12" fontId="1" quotePrefix="false"/>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="9" fillId="12" fontId="1" quotePrefix="false"/>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="7" fillId="13" fontId="1" quotePrefix="false"/>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="7" fillId="14" fontId="1" quotePrefix="false"/>
     <xf applyAlignment="true" applyBorder="true" applyFont="true" borderId="9" fillId="0" fontId="1" quotePrefix="false">
       <alignment wrapText="true"/>
     </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFont="true" borderId="6" fillId="0" fontId="1" quotePrefix="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFill="true" applyFont="true" borderId="27" fillId="3" fontId="1" quotePrefix="false">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFont="true" borderId="28" fillId="0" fontId="1" quotePrefix="false">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFont="true" borderId="9" fillId="0" fontId="1" quotePrefix="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFill="true" applyFont="true" borderId="29" fillId="3" fontId="1" quotePrefix="false">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFont="true" borderId="30" fillId="0" fontId="1" quotePrefix="false">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFill="true" applyFont="true" borderId="20" fillId="15" fontId="1" quotePrefix="false">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFill="true" applyFont="true" borderId="31" fillId="3" fontId="1" quotePrefix="false">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFont="true" borderId="32" fillId="0" fontId="1" quotePrefix="false">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFont="true" borderId="26" fillId="0" fontId="1" quotePrefix="false">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="33" fillId="0" fontId="1" numFmtId="16" quotePrefix="false">
+      <alignment horizontal="right" shrinkToFit="false" vertical="center" wrapText="false"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFont="true" borderId="21" fillId="0" fontId="1" quotePrefix="false">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFill="true" applyFont="true" borderId="17" fillId="16" fontId="1" quotePrefix="false">
+      <alignment vertical="bottom" wrapText="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFont="true" borderId="18" fillId="0" fontId="1" quotePrefix="false">
+      <alignment vertical="top" wrapText="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="9" fillId="0" fontId="1" numFmtId="16" quotePrefix="false">
+      <alignment horizontal="right" shrinkToFit="false" vertical="center" wrapText="false"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFill="true" applyFont="true" borderId="20" fillId="16" fontId="1" quotePrefix="false">
+      <alignment vertical="bottom" wrapText="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFont="true" borderId="21" fillId="0" fontId="1" quotePrefix="false">
+      <alignment vertical="top" wrapText="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="13" fillId="0" fontId="1" numFmtId="16" quotePrefix="false">
+      <alignment horizontal="right" shrinkToFit="false" vertical="center" wrapText="false"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFill="true" applyFont="true" borderId="24" fillId="16" fontId="1" quotePrefix="false">
+      <alignment vertical="bottom" wrapText="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFont="true" borderId="25" fillId="0" fontId="1" quotePrefix="false">
+      <alignment vertical="top" wrapText="true"/>
+    </xf>
     <xf applyAlignment="true" applyBorder="true" applyFont="true" borderId="33" fillId="0" fontId="1" quotePrefix="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFont="true" borderId="25" fillId="0" fontId="1" quotePrefix="false">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFill="true" applyFont="true" borderId="7" fillId="16" fontId="1" quotePrefix="false">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFill="true" applyFont="true" borderId="22" fillId="3" fontId="1" quotePrefix="false">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="7" fillId="17" fontId="1" quotePrefix="false"/>
+    <xf applyAlignment="true" applyBorder="true" applyFill="true" applyFont="true" borderId="8" fillId="17" fontId="1" quotePrefix="false">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFill="true" applyFont="true" borderId="7" fillId="17" fontId="1" quotePrefix="false">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="8" fillId="17" fontId="1" quotePrefix="false"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="0" quotePrefix="false"/>
+    <xf applyBorder="true" applyFont="true" borderId="22" fillId="0" fontId="0" quotePrefix="false"/>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="7" fillId="16" fontId="1" quotePrefix="false"/>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="7" fillId="4" fontId="1" quotePrefix="false"/>
+    <xf applyAlignment="true" applyBorder="true" applyFill="true" applyFont="true" borderId="8" fillId="4" fontId="1" quotePrefix="false">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFill="true" applyFont="true" borderId="7" fillId="4" fontId="1" quotePrefix="false">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="8" fillId="4" fontId="1" quotePrefix="false"/>
+    <xf applyAlignment="true" applyBorder="true" applyFont="true" borderId="13" fillId="0" fontId="1" quotePrefix="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="24" fillId="4" fontId="1" quotePrefix="false"/>
+    <xf applyAlignment="true" applyBorder="true" applyFill="true" applyFont="true" borderId="25" fillId="4" fontId="1" quotePrefix="false">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFill="true" applyFont="true" borderId="8" fillId="12" fontId="1" quotePrefix="false">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFont="true" borderId="18" fillId="0" fontId="1" quotePrefix="false"/>
+    <xf applyAlignment="true" applyBorder="true" applyFill="true" applyFont="true" borderId="7" fillId="12" fontId="0" quotePrefix="false">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFill="true" applyFont="true" borderId="8" fillId="12" fontId="0" quotePrefix="false">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="22" fillId="12" fontId="1" quotePrefix="false"/>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="12" fontId="1" quotePrefix="false"/>
+    <xf applyAlignment="true" applyBorder="true" applyFont="true" borderId="17" fillId="0" fontId="1" quotePrefix="false">
+      <alignment vertical="bottom" wrapText="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFont="true" borderId="34" fillId="0" fontId="1" quotePrefix="false">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFont="true" borderId="35" fillId="0" fontId="1" quotePrefix="false">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFill="true" applyFont="true" borderId="14" fillId="18" fontId="1" quotePrefix="false">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFill="true" applyFont="true" borderId="33" fillId="13" fontId="1" quotePrefix="false">
-      <alignment vertical="bottom" wrapText="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" borderId="34" fillId="0" fontId="1" quotePrefix="false">
-      <alignment vertical="top" wrapText="true"/>
+    <xf applyAlignment="true" applyBorder="true" applyFill="true" applyFont="true" borderId="7" fillId="18" fontId="1" quotePrefix="false">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFill="true" applyFont="true" borderId="7" fillId="19" fontId="1" quotePrefix="false">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFill="true" applyFont="true" borderId="8" fillId="19" fontId="1" quotePrefix="false">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="22" fillId="19" fontId="1" quotePrefix="false"/>
+    <xf applyAlignment="true" applyFill="true" applyFont="true" borderId="0" fillId="19" fontId="1" quotePrefix="false">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFill="true" applyFont="true" borderId="7" fillId="15" fontId="1" quotePrefix="false">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFill="true" applyFont="true" borderId="8" fillId="15" fontId="1" quotePrefix="false">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFill="true" applyFont="true" borderId="24" fillId="15" fontId="1" quotePrefix="false">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFill="true" applyFont="true" borderId="25" fillId="15" fontId="1" quotePrefix="false">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFill="true" applyFont="true" borderId="4" fillId="18" fontId="1" quotePrefix="false">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFont="true" borderId="2" fillId="0" fontId="1" quotePrefix="false">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf applyAlignment="true" applyFont="true" borderId="0" fillId="0" fontId="1" quotePrefix="false">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFill="true" applyFont="true" borderId="7" fillId="12" fontId="2" quotePrefix="false">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf applyAlignment="true" applyFill="true" applyFont="true" borderId="0" fillId="15" fontId="1" quotePrefix="false">
+      <alignment wrapText="true"/>
     </xf>
     <xf applyAlignment="true" applyBorder="true" applyFill="true" applyFont="true" borderId="7" fillId="13" fontId="1" quotePrefix="false">
       <alignment wrapText="true"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" borderId="38" fillId="0" fontId="1" quotePrefix="false">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="9" fillId="19" fontId="1" quotePrefix="false"/>
+    <xf applyAlignment="true" applyBorder="true" applyFont="true" borderId="11" fillId="0" fontId="1" quotePrefix="false">
       <alignment wrapText="true"/>
     </xf>
-    <xf applyFont="true" borderId="0" fillId="0" fontId="0" quotePrefix="false"/>
-    <xf applyBorder="true" applyFont="true" borderId="38" fillId="0" fontId="0" quotePrefix="false"/>
-    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="7" fillId="13" fontId="1" quotePrefix="false"/>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" borderId="43" fillId="0" fontId="1" quotePrefix="false">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf applyBorder="true" applyFont="true" borderId="40" fillId="0" fontId="0" quotePrefix="false"/>
-    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="7" fillId="14" fontId="1" quotePrefix="false"/>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" borderId="44" fillId="0" fontId="1" quotePrefix="false">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf applyBorder="true" applyFont="true" borderId="34" fillId="0" fontId="1" quotePrefix="false"/>
-    <xf applyAlignment="true" applyBorder="true" applyFill="true" applyFont="true" borderId="7" fillId="15" fontId="0" quotePrefix="false">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="8" fillId="15" fontId="1" quotePrefix="false"/>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="8" fillId="19" fontId="1" quotePrefix="false"/>
+    <xf applyAlignment="true" applyBorder="true" applyFill="true" applyFont="true" borderId="10" fillId="15" fontId="1" quotePrefix="false">
       <alignment wrapText="true"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFill="true" applyFont="true" borderId="8" fillId="15" fontId="0" quotePrefix="false">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="12" fillId="19" fontId="1" quotePrefix="false"/>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="13" fillId="19" fontId="1" quotePrefix="false"/>
+    <xf applyAlignment="true" applyBorder="true" applyFill="true" applyFont="true" borderId="11" fillId="19" fontId="1" quotePrefix="false">
       <alignment wrapText="true"/>
     </xf>
-    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="38" fillId="15" fontId="1" quotePrefix="false"/>
-    <xf applyFill="true" applyFont="true" borderId="0" fillId="15" fontId="1" quotePrefix="false"/>
-    <xf applyAlignment="true" applyBorder="true" applyFill="true" applyFont="true" borderId="8" fillId="15" fontId="1" quotePrefix="false">
+    <xf applyAlignment="true" applyBorder="true" applyFont="true" borderId="9" fillId="0" fontId="1" quotePrefix="false">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="7" fillId="19" fontId="1" quotePrefix="false"/>
+    <xf applyAlignment="true" applyBorder="true" applyFill="true" applyFont="true" borderId="9" fillId="19" fontId="1" quotePrefix="false">
       <alignment wrapText="true"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" borderId="33" fillId="0" fontId="1" quotePrefix="false">
-      <alignment vertical="bottom" wrapText="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" borderId="45" fillId="0" fontId="1" quotePrefix="false">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" borderId="46" fillId="0" fontId="1" quotePrefix="false">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="9" fillId="15" fontId="1" quotePrefix="false"/>
-    <xf applyAlignment="true" applyBorder="true" applyFill="true" applyFont="true" borderId="8" fillId="12" fontId="1" quotePrefix="false">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFill="true" applyFont="true" borderId="40" fillId="12" fontId="1" quotePrefix="false">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFill="true" applyFont="true" borderId="41" fillId="12" fontId="1" quotePrefix="false">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" borderId="7" fillId="0" fontId="2" quotePrefix="false">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFill="true" applyFont="true" borderId="7" fillId="16" fontId="1" quotePrefix="false">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="8" fillId="12" fontId="1" quotePrefix="false"/>
     <xf applyAlignment="true" applyBorder="true" applyFill="true" applyFont="true" borderId="10" fillId="12" fontId="1" quotePrefix="false">
       <alignment wrapText="true"/>
     </xf>
-    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="12" fillId="12" fontId="1" quotePrefix="false"/>
-    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="7" fillId="17" fontId="1" quotePrefix="false"/>
-    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="8" fillId="17" fontId="1" quotePrefix="false"/>
-    <xf applyAlignment="true" applyBorder="true" applyFill="true" applyFont="true" borderId="9" fillId="17" fontId="1" quotePrefix="false">
+    <xf applyAlignment="true" applyBorder="true" applyFill="true" applyFont="true" borderId="12" fillId="12" fontId="1" quotePrefix="false">
       <alignment wrapText="true"/>
     </xf>
-    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="7" fillId="16" fontId="1" quotePrefix="false"/>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" borderId="1" fillId="0" fontId="1" quotePrefix="false">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="13" fillId="12" fontId="1" quotePrefix="false"/>
+    <xf applyAlignment="true" applyBorder="true" applyFont="true" borderId="5" fillId="0" fontId="1" quotePrefix="false">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFont="true" borderId="8" fillId="0" fontId="1" quotePrefix="false">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFill="true" applyFont="true" borderId="21" fillId="15" fontId="1" quotePrefix="false">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="20" fillId="13" fontId="1" quotePrefix="false"/>
+    <xf applyAlignment="true" applyBorder="true" applyFill="true" applyFont="true" borderId="21" fillId="19" fontId="1" quotePrefix="false">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="20" fillId="14" fontId="1" quotePrefix="false"/>
+    <xf applyAlignment="true" applyBorder="true" applyFont="true" borderId="6" fillId="0" fontId="1" quotePrefix="false">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFill="true" applyFont="true" borderId="9" fillId="12" fontId="1" quotePrefix="false">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFill="true" applyFont="true" borderId="4" fillId="18" fontId="1" quotePrefix="false">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
+    <xf applyBorder="true" applyFont="true" borderId="36" fillId="0" fontId="1" quotePrefix="false"/>
+    <xf applyAlignment="true" applyBorder="true" applyFill="true" applyFont="true" borderId="19" fillId="12" fontId="1" quotePrefix="false">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFill="true" applyFont="true" borderId="7" fillId="18" fontId="1" quotePrefix="false">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="1" quotePrefix="false"/>
     <xf applyAlignment="true" applyBorder="true" applyFont="true" borderId="4" fillId="0" fontId="0" quotePrefix="false">
       <alignment wrapText="true"/>
     </xf>
     <xf applyAlignment="true" applyBorder="true" applyFont="true" borderId="5" fillId="0" fontId="0" quotePrefix="false">
       <alignment wrapText="true"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFill="true" applyFont="true" borderId="1" fillId="16" fontId="3" quotePrefix="false">
+    <xf applyAlignment="true" applyBorder="true" applyFill="true" applyFont="true" borderId="4" fillId="13" fontId="3" quotePrefix="false">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf applyBorder="true" applyFont="true" borderId="2" fillId="0" fontId="0" quotePrefix="false"/>
     <xf applyBorder="true" applyFont="true" borderId="4" fillId="0" fontId="2" quotePrefix="false"/>
     <xf applyBorder="true" applyFont="true" borderId="5" fillId="0" fontId="2" quotePrefix="false"/>
     <xf applyBorder="true" applyFont="true" borderId="6" fillId="0" fontId="2" quotePrefix="false"/>
-    <xf applyAlignment="true" applyBorder="true" applyFill="true" applyFont="true" borderId="7" fillId="16" fontId="3" quotePrefix="false">
+    <xf applyAlignment="true" applyBorder="true" applyFill="true" applyFont="true" borderId="7" fillId="13" fontId="3" quotePrefix="false">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFont="true" borderId="7" fillId="0" fontId="2" quotePrefix="false">
+      <alignment wrapText="true"/>
     </xf>
     <xf applyAlignment="true" applyBorder="true" applyFont="true" borderId="8" fillId="0" fontId="2" quotePrefix="false">
       <alignment horizontal="left" wrapText="true"/>
@@ -3394,26 +3604,44 @@
     <xf applyAlignment="true" applyBorder="true" applyFont="true" borderId="8" fillId="0" fontId="2" quotePrefix="false">
       <alignment wrapText="true"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFill="true" applyFont="true" borderId="1" fillId="14" fontId="4" quotePrefix="false">
+    <xf applyAlignment="true" applyBorder="true" applyFill="true" applyFont="true" borderId="4" fillId="14" fontId="4" quotePrefix="false">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf applyAlignment="true" applyBorder="true" applyFill="true" applyFont="true" borderId="7" fillId="14" fontId="4" quotePrefix="false">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFill="true" applyFont="true" borderId="1" fillId="18" fontId="1" quotePrefix="false">
+    <xf applyAlignment="true" applyBorder="true" applyFill="true" applyFont="true" borderId="4" fillId="20" fontId="1" quotePrefix="false">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFill="true" applyFont="true" borderId="7" fillId="18" fontId="1" quotePrefix="false">
+    <xf applyAlignment="true" applyBorder="true" applyFill="true" applyFont="true" borderId="7" fillId="20" fontId="1" quotePrefix="false">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFont="true" borderId="1" fillId="0" fontId="1" quotePrefix="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFill="true" applyFont="true" borderId="1" fillId="20" fontId="1" quotePrefix="false">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFont="true" borderId="3" fillId="0" fontId="1" quotePrefix="false">
+      <alignment vertical="center" wrapText="true"/>
     </xf>
     <xf applyAlignment="true" applyBorder="true" applyFont="true" borderId="10" fillId="0" fontId="1" quotePrefix="false">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFill="true" applyFont="true" borderId="10" fillId="18" fontId="1" quotePrefix="false">
+    <xf applyAlignment="true" applyBorder="true" applyFill="true" applyFont="true" borderId="10" fillId="20" fontId="1" quotePrefix="false">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf applyAlignment="true" applyBorder="true" applyFont="true" borderId="12" fillId="0" fontId="1" quotePrefix="false">
       <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFont="true" borderId="33" fillId="0" fontId="1" quotePrefix="false">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFont="true" borderId="9" fillId="0" fontId="1" quotePrefix="false">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFont="true" borderId="13" fillId="0" fontId="1" quotePrefix="false">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3633,7 +3861,7 @@
   <sheetPr>
     <outlinePr summaryBelow="true" summaryRight="true"/>
   </sheetPr>
-  <dimension ref="A1:J220"/>
+  <dimension ref="A1:J227"/>
   <sheetViews>
     <sheetView showZeros="true" workbookViewId="0"/>
   </sheetViews>
@@ -3744,10 +3972,10 @@
       </c>
       <c r="H4" s="22" t="n"/>
       <c r="I4" s="0" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="J4" s="25" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row outlineLevel="0" r="5">
@@ -3757,17 +3985,17 @@
       <c r="D5" s="0" t="n"/>
       <c r="E5" s="19" t="s"/>
       <c r="F5" s="23" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G5" s="24" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H5" s="22" t="n"/>
       <c r="I5" s="0" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="J5" s="26" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row outlineLevel="0" r="6">
@@ -3777,14 +4005,14 @@
       <c r="D6" s="0" t="n"/>
       <c r="E6" s="19" t="s"/>
       <c r="F6" s="23" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G6" s="24" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H6" s="22" t="n"/>
       <c r="I6" s="0" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="J6" s="21" t="s">
         <v>15</v>
@@ -3797,14 +4025,14 @@
       <c r="D7" s="0" t="n"/>
       <c r="E7" s="19" t="s"/>
       <c r="F7" s="20" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G7" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H7" s="22" t="n"/>
       <c r="I7" s="0" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="J7" s="21" t="s">
         <v>15</v>
@@ -3817,10 +4045,10 @@
       <c r="D8" s="29" t="n"/>
       <c r="E8" s="30" t="s"/>
       <c r="F8" s="31" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G8" s="32" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H8" s="33" t="n"/>
       <c r="I8" s="29" t="s">
@@ -3834,3679 +4062,4087 @@
       <c r="A9" s="34" t="n">
         <v>2</v>
       </c>
-      <c r="B9" s="35" t="s">
-        <v>31</v>
-      </c>
-      <c r="C9" s="36" t="n"/>
-      <c r="D9" s="36" t="n"/>
-      <c r="E9" s="37" t="n"/>
-      <c r="F9" s="38" t="s">
+      <c r="B9" s="34" t="s">
         <v>32</v>
       </c>
-      <c r="G9" s="39" t="s">
+      <c r="C9" s="35" t="n"/>
+      <c r="D9" s="35" t="n"/>
+      <c r="E9" s="36" t="n"/>
+      <c r="F9" s="37" t="s">
         <v>33</v>
       </c>
-      <c r="H9" s="40" t="s">
+      <c r="G9" s="38" t="s">
         <v>34</v>
       </c>
-      <c r="I9" s="38" t="s">
+      <c r="H9" s="39" t="s">
         <v>35</v>
       </c>
-      <c r="J9" s="39" t="n"/>
+      <c r="I9" s="37" t="s">
+        <v>36</v>
+      </c>
+      <c r="J9" s="38" t="n"/>
     </row>
     <row outlineLevel="0" r="10">
-      <c r="A10" s="41" t="s"/>
-      <c r="B10" s="42" t="s"/>
-      <c r="C10" s="43" t="n"/>
-      <c r="D10" s="43" t="n"/>
-      <c r="E10" s="44" t="s"/>
-      <c r="F10" s="45" t="s">
-        <v>36</v>
-      </c>
-      <c r="G10" s="46" t="s">
+      <c r="A10" s="18" t="s"/>
+      <c r="B10" s="18" t="s"/>
+      <c r="C10" s="0" t="n"/>
+      <c r="D10" s="0" t="n"/>
+      <c r="E10" s="40" t="s"/>
+      <c r="F10" s="41" t="s">
         <v>37</v>
       </c>
-      <c r="H10" s="47" t="n"/>
-      <c r="I10" s="48" t="n"/>
-      <c r="J10" s="49" t="s">
+      <c r="G10" s="42" t="s">
+        <v>38</v>
+      </c>
+      <c r="H10" s="43" t="n"/>
+      <c r="I10" s="44" t="s">
+        <v>22</v>
+      </c>
+      <c r="J10" s="45" t="s">
         <v>15</v>
       </c>
     </row>
     <row outlineLevel="0" r="11">
-      <c r="A11" s="41" t="s"/>
-      <c r="B11" s="42" t="s"/>
-      <c r="C11" s="43" t="n"/>
-      <c r="D11" s="43" t="n"/>
-      <c r="E11" s="44" t="s"/>
-      <c r="F11" s="50" t="s">
-        <v>38</v>
-      </c>
-      <c r="G11" s="46" t="s">
+      <c r="A11" s="18" t="s"/>
+      <c r="B11" s="18" t="s"/>
+      <c r="C11" s="0" t="n"/>
+      <c r="D11" s="0" t="n"/>
+      <c r="E11" s="40" t="s"/>
+      <c r="F11" s="46" t="s">
         <v>39</v>
       </c>
-      <c r="H11" s="47" t="n"/>
-      <c r="I11" s="45" t="n"/>
-      <c r="J11" s="49" t="s">
+      <c r="G11" s="42" t="s">
+        <v>40</v>
+      </c>
+      <c r="H11" s="43" t="n"/>
+      <c r="I11" s="41" t="s">
+        <v>22</v>
+      </c>
+      <c r="J11" s="45" t="s">
         <v>15</v>
       </c>
     </row>
     <row outlineLevel="0" r="12">
-      <c r="A12" s="41" t="s"/>
-      <c r="B12" s="42" t="s"/>
-      <c r="C12" s="43" t="n"/>
-      <c r="D12" s="43" t="n"/>
-      <c r="E12" s="44" t="s"/>
-      <c r="F12" s="50" t="s">
-        <v>40</v>
-      </c>
-      <c r="G12" s="46" t="s">
+      <c r="A12" s="18" t="s"/>
+      <c r="B12" s="18" t="s"/>
+      <c r="C12" s="0" t="n"/>
+      <c r="D12" s="0" t="n"/>
+      <c r="E12" s="40" t="s"/>
+      <c r="F12" s="46" t="s">
         <v>41</v>
       </c>
-      <c r="H12" s="51" t="s">
+      <c r="G12" s="42" t="s">
         <v>42</v>
       </c>
-      <c r="I12" s="45" t="n"/>
-      <c r="J12" s="49" t="s">
+      <c r="H12" s="47" t="s">
+        <v>43</v>
+      </c>
+      <c r="I12" s="41" t="s">
+        <v>19</v>
+      </c>
+      <c r="J12" s="45" t="s">
         <v>15</v>
       </c>
     </row>
     <row outlineLevel="0" r="13">
-      <c r="A13" s="41" t="s"/>
-      <c r="B13" s="42" t="s"/>
-      <c r="C13" s="43" t="n"/>
-      <c r="D13" s="43" t="n"/>
-      <c r="E13" s="44" t="s"/>
-      <c r="F13" s="50" t="s">
-        <v>43</v>
-      </c>
-      <c r="G13" s="46" t="s">
-        <v>41</v>
-      </c>
-      <c r="H13" s="47" t="n"/>
-      <c r="I13" s="45" t="n"/>
-      <c r="J13" s="49" t="s">
+      <c r="A13" s="18" t="s"/>
+      <c r="B13" s="18" t="s"/>
+      <c r="C13" s="0" t="n"/>
+      <c r="D13" s="0" t="n"/>
+      <c r="E13" s="40" t="s"/>
+      <c r="F13" s="46" t="s">
+        <v>44</v>
+      </c>
+      <c r="G13" s="42" t="s">
+        <v>42</v>
+      </c>
+      <c r="H13" s="43" t="n"/>
+      <c r="I13" s="41" t="s">
+        <v>22</v>
+      </c>
+      <c r="J13" s="45" t="s">
         <v>15</v>
       </c>
     </row>
     <row outlineLevel="0" r="14">
-      <c r="A14" s="41" t="s"/>
-      <c r="B14" s="42" t="s"/>
-      <c r="C14" s="43" t="n"/>
-      <c r="D14" s="43" t="n"/>
-      <c r="E14" s="44" t="s"/>
-      <c r="F14" s="50" t="s">
-        <v>44</v>
-      </c>
-      <c r="G14" s="46" t="s">
-        <v>41</v>
-      </c>
-      <c r="H14" s="51" t="s">
+      <c r="A14" s="18" t="s"/>
+      <c r="B14" s="18" t="s"/>
+      <c r="C14" s="0" t="n"/>
+      <c r="D14" s="0" t="n"/>
+      <c r="E14" s="40" t="s"/>
+      <c r="F14" s="46" t="s">
         <v>45</v>
       </c>
-      <c r="I14" s="45" t="n"/>
-      <c r="J14" s="49" t="s">
+      <c r="G14" s="42" t="s">
+        <v>42</v>
+      </c>
+      <c r="H14" s="47" t="s">
+        <v>46</v>
+      </c>
+      <c r="I14" s="41" t="s">
+        <v>22</v>
+      </c>
+      <c r="J14" s="45" t="s">
         <v>15</v>
       </c>
     </row>
     <row outlineLevel="0" r="15">
-      <c r="A15" s="41" t="s"/>
-      <c r="B15" s="42" t="s"/>
-      <c r="C15" s="43" t="n"/>
-      <c r="D15" s="43" t="n"/>
-      <c r="E15" s="44" t="s"/>
-      <c r="F15" s="50" t="s">
-        <v>46</v>
-      </c>
-      <c r="G15" s="49" t="s">
+      <c r="A15" s="18" t="s"/>
+      <c r="B15" s="18" t="s"/>
+      <c r="C15" s="0" t="n"/>
+      <c r="D15" s="0" t="n"/>
+      <c r="E15" s="40" t="s"/>
+      <c r="F15" s="46" t="s">
         <v>47</v>
       </c>
-      <c r="H15" s="51" t="s">
+      <c r="G15" s="45" t="s">
         <v>48</v>
       </c>
-      <c r="I15" s="45" t="n"/>
-      <c r="J15" s="49" t="s">
+      <c r="H15" s="47" t="s">
+        <v>49</v>
+      </c>
+      <c r="I15" s="41" t="s">
+        <v>19</v>
+      </c>
+      <c r="J15" s="45" t="s">
         <v>15</v>
       </c>
     </row>
     <row outlineLevel="0" r="16">
-      <c r="A16" s="41" t="s"/>
-      <c r="B16" s="42" t="s"/>
-      <c r="C16" s="43" t="n"/>
-      <c r="D16" s="43" t="n"/>
-      <c r="E16" s="44" t="s"/>
-      <c r="F16" s="50" t="s">
-        <v>49</v>
-      </c>
-      <c r="G16" s="49" t="s">
+      <c r="A16" s="18" t="s"/>
+      <c r="B16" s="18" t="s"/>
+      <c r="C16" s="0" t="n"/>
+      <c r="D16" s="0" t="n"/>
+      <c r="E16" s="40" t="s"/>
+      <c r="F16" s="46" t="s">
         <v>50</v>
       </c>
-      <c r="H16" s="51" t="s">
+      <c r="G16" s="45" t="s">
         <v>51</v>
       </c>
-      <c r="I16" s="45" t="n"/>
-      <c r="J16" s="49" t="s">
+      <c r="H16" s="47" t="s">
+        <v>52</v>
+      </c>
+      <c r="I16" s="41" t="s">
+        <v>19</v>
+      </c>
+      <c r="J16" s="45" t="s">
         <v>15</v>
       </c>
     </row>
     <row outlineLevel="0" r="17">
-      <c r="A17" s="41" t="s"/>
-      <c r="B17" s="42" t="s"/>
-      <c r="C17" s="43" t="n"/>
-      <c r="D17" s="43" t="n"/>
-      <c r="E17" s="44" t="s"/>
-      <c r="F17" s="50" t="s">
-        <v>52</v>
-      </c>
-      <c r="G17" s="49" t="s">
+      <c r="A17" s="18" t="s"/>
+      <c r="B17" s="18" t="s"/>
+      <c r="C17" s="0" t="n"/>
+      <c r="D17" s="0" t="n"/>
+      <c r="E17" s="40" t="s"/>
+      <c r="F17" s="46" t="s">
         <v>53</v>
       </c>
-      <c r="H17" s="47" t="n"/>
-      <c r="I17" s="45" t="n"/>
-      <c r="J17" s="49" t="s">
+      <c r="G17" s="45" t="s">
+        <v>54</v>
+      </c>
+      <c r="H17" s="43" t="n"/>
+      <c r="I17" s="41" t="s">
+        <v>18</v>
+      </c>
+      <c r="J17" s="45" t="s">
         <v>15</v>
       </c>
     </row>
     <row outlineLevel="0" r="18">
-      <c r="A18" s="0" t="n"/>
-      <c r="B18" s="0" t="n"/>
-      <c r="C18" s="52" t="n"/>
-      <c r="D18" s="52" t="n"/>
-      <c r="E18" s="0" t="n"/>
-      <c r="F18" s="53" t="s">
+      <c r="A18" s="18" t="s"/>
+      <c r="B18" s="18" t="s"/>
+      <c r="C18" s="48" t="n"/>
+      <c r="D18" s="48" t="n"/>
+      <c r="E18" s="40" t="s"/>
+      <c r="F18" s="49" t="s">
+        <v>55</v>
+      </c>
+      <c r="G18" s="50" t="s">
         <v>54</v>
       </c>
-      <c r="G18" s="54" t="s">
-        <v>53</v>
-      </c>
-      <c r="H18" s="55" t="n"/>
-      <c r="I18" s="56" t="n"/>
-      <c r="J18" s="54" t="s">
+      <c r="H18" s="51" t="n"/>
+      <c r="I18" s="52" t="s">
+        <v>18</v>
+      </c>
+      <c r="J18" s="50" t="s">
         <v>15</v>
       </c>
     </row>
     <row outlineLevel="0" r="19">
-      <c r="A19" s="57" t="n">
+      <c r="A19" s="53" t="n">
         <v>3</v>
       </c>
-      <c r="B19" s="58" t="s">
-        <v>55</v>
-      </c>
-      <c r="C19" s="59" t="n"/>
-      <c r="D19" s="59" t="n"/>
-      <c r="E19" s="60" t="s">
+      <c r="B19" s="34" t="s">
         <v>56</v>
       </c>
-      <c r="F19" s="61" t="s">
+      <c r="C19" s="35" t="n"/>
+      <c r="D19" s="35" t="n"/>
+      <c r="E19" s="54" t="s">
         <v>57</v>
       </c>
-      <c r="G19" s="62" t="s">
+      <c r="F19" s="37" t="s">
         <v>58</v>
       </c>
-      <c r="H19" s="63" t="n"/>
-      <c r="I19" s="12" t="n"/>
+      <c r="G19" s="38" t="s">
+        <v>59</v>
+      </c>
+      <c r="H19" s="55" t="n"/>
+      <c r="I19" s="12" t="s">
+        <v>22</v>
+      </c>
       <c r="J19" s="15" t="s">
         <v>15</v>
       </c>
     </row>
     <row outlineLevel="0" r="20">
-      <c r="A20" s="64" t="s"/>
-      <c r="B20" s="65" t="s"/>
+      <c r="A20" s="56" t="s"/>
+      <c r="B20" s="18" t="s"/>
       <c r="C20" s="0" t="n"/>
       <c r="D20" s="0" t="n"/>
-      <c r="E20" s="66" t="s"/>
+      <c r="E20" s="57" t="s"/>
       <c r="F20" s="23" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G20" s="21" t="s">
-        <v>60</v>
-      </c>
-      <c r="H20" s="67" t="n"/>
-      <c r="I20" s="0" t="n"/>
+        <v>61</v>
+      </c>
+      <c r="H20" s="43" t="n"/>
+      <c r="I20" s="0" t="s">
+        <v>22</v>
+      </c>
       <c r="J20" s="21" t="s">
         <v>15</v>
       </c>
     </row>
     <row outlineLevel="0" r="21">
-      <c r="A21" s="0" t="n"/>
-      <c r="B21" s="0" t="n"/>
-      <c r="C21" s="68" t="n"/>
-      <c r="D21" s="68" t="n"/>
-      <c r="E21" s="0" t="n"/>
-      <c r="F21" s="69" t="s">
-        <v>61</v>
-      </c>
-      <c r="G21" s="70" t="s">
+      <c r="A21" s="56" t="s"/>
+      <c r="B21" s="18" t="s"/>
+      <c r="C21" s="58" t="n"/>
+      <c r="D21" s="58" t="n"/>
+      <c r="E21" s="57" t="s"/>
+      <c r="F21" s="52" t="s">
         <v>62</v>
       </c>
-      <c r="H21" s="71" t="n"/>
-      <c r="I21" s="29" t="n"/>
+      <c r="G21" s="50" t="s">
+        <v>63</v>
+      </c>
+      <c r="H21" s="59" t="n"/>
+      <c r="I21" s="29" t="s">
+        <v>22</v>
+      </c>
       <c r="J21" s="32" t="s">
         <v>15</v>
       </c>
     </row>
     <row outlineLevel="0" r="22">
-      <c r="A22" s="57" t="n">
+      <c r="A22" s="53" t="n">
         <v>4</v>
       </c>
-      <c r="B22" s="58" t="s">
-        <v>63</v>
-      </c>
-      <c r="C22" s="59" t="n"/>
-      <c r="D22" s="59" t="n"/>
-      <c r="E22" s="60" t="s">
+      <c r="B22" s="34" t="s">
         <v>64</v>
       </c>
-      <c r="F22" s="61" t="s">
+      <c r="C22" s="35" t="n"/>
+      <c r="D22" s="35" t="n"/>
+      <c r="E22" s="54" t="s">
         <v>65</v>
       </c>
-      <c r="G22" s="62" t="s">
+      <c r="F22" s="37" t="s">
         <v>66</v>
       </c>
-      <c r="H22" s="63" t="n"/>
-      <c r="I22" s="12" t="n"/>
+      <c r="G22" s="38" t="s">
+        <v>67</v>
+      </c>
+      <c r="H22" s="55" t="n"/>
+      <c r="I22" s="12" t="s">
+        <v>22</v>
+      </c>
       <c r="J22" s="15" t="s">
         <v>15</v>
       </c>
     </row>
     <row outlineLevel="0" r="23">
-      <c r="A23" s="64" t="s"/>
-      <c r="B23" s="65" t="s"/>
+      <c r="A23" s="56" t="s"/>
+      <c r="B23" s="18" t="s"/>
       <c r="C23" s="0" t="n"/>
       <c r="D23" s="0" t="n"/>
-      <c r="E23" s="66" t="s"/>
+      <c r="E23" s="57" t="s"/>
       <c r="F23" s="23" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="G23" s="24" t="s">
-        <v>68</v>
-      </c>
-      <c r="H23" s="67" t="n"/>
-      <c r="I23" s="0" t="n"/>
+        <v>69</v>
+      </c>
+      <c r="H23" s="43" t="n"/>
+      <c r="I23" s="0" t="s">
+        <v>22</v>
+      </c>
       <c r="J23" s="21" t="s">
         <v>15</v>
       </c>
     </row>
     <row outlineLevel="0" r="24">
-      <c r="A24" s="64" t="s"/>
-      <c r="B24" s="65" t="s"/>
+      <c r="A24" s="56" t="s"/>
+      <c r="B24" s="18" t="s"/>
       <c r="C24" s="0" t="n"/>
       <c r="D24" s="0" t="n"/>
-      <c r="E24" s="66" t="s"/>
+      <c r="E24" s="57" t="s"/>
       <c r="F24" s="23" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="G24" s="24" t="s">
-        <v>70</v>
-      </c>
-      <c r="H24" s="67" t="n"/>
-      <c r="I24" s="0" t="n"/>
+        <v>71</v>
+      </c>
+      <c r="H24" s="43" t="n"/>
+      <c r="I24" s="0" t="s">
+        <v>22</v>
+      </c>
       <c r="J24" s="21" t="s">
         <v>15</v>
       </c>
     </row>
     <row outlineLevel="0" r="25">
-      <c r="A25" s="64" t="s"/>
-      <c r="B25" s="65" t="s"/>
+      <c r="A25" s="56" t="s"/>
+      <c r="B25" s="18" t="s"/>
       <c r="C25" s="0" t="n"/>
       <c r="D25" s="0" t="n"/>
-      <c r="E25" s="66" t="s"/>
+      <c r="E25" s="57" t="s"/>
       <c r="F25" s="23" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G25" s="24" t="s">
-        <v>72</v>
-      </c>
-      <c r="H25" s="67" t="n"/>
-      <c r="I25" s="0" t="n"/>
+        <v>73</v>
+      </c>
+      <c r="H25" s="43" t="n"/>
+      <c r="I25" s="0" t="s">
+        <v>22</v>
+      </c>
       <c r="J25" s="21" t="s">
         <v>15</v>
       </c>
     </row>
     <row outlineLevel="0" r="26">
-      <c r="A26" s="0" t="n"/>
-      <c r="B26" s="0" t="n"/>
-      <c r="C26" s="68" t="n"/>
-      <c r="D26" s="68" t="n"/>
-      <c r="E26" s="0" t="n"/>
-      <c r="F26" s="69" t="s">
-        <v>73</v>
-      </c>
-      <c r="G26" s="72" t="s">
+      <c r="A26" s="56" t="s"/>
+      <c r="B26" s="18" t="s"/>
+      <c r="C26" s="58" t="n"/>
+      <c r="D26" s="58" t="n"/>
+      <c r="E26" s="57" t="s"/>
+      <c r="F26" s="52" t="s">
         <v>74</v>
       </c>
-      <c r="H26" s="71" t="n"/>
-      <c r="I26" s="29" t="n"/>
+      <c r="G26" s="60" t="s">
+        <v>75</v>
+      </c>
+      <c r="H26" s="59" t="n"/>
+      <c r="I26" s="29" t="s">
+        <v>22</v>
+      </c>
       <c r="J26" s="32" t="s">
         <v>15</v>
       </c>
     </row>
     <row outlineLevel="0" r="27">
-      <c r="A27" s="73" t="n">
+      <c r="A27" s="61" t="n">
         <v>5</v>
       </c>
-      <c r="B27" s="58" t="s">
-        <v>75</v>
-      </c>
-      <c r="C27" s="59" t="n"/>
-      <c r="D27" s="59" t="n"/>
-      <c r="E27" s="74" t="s">
-        <v>64</v>
-      </c>
-      <c r="F27" s="75" t="s">
-        <v>59</v>
-      </c>
-      <c r="G27" s="62" t="s">
+      <c r="B27" s="34" t="s">
         <v>76</v>
       </c>
-      <c r="H27" s="63" t="n"/>
-      <c r="I27" s="12" t="n"/>
+      <c r="C27" s="35" t="n"/>
+      <c r="D27" s="35" t="n"/>
+      <c r="E27" s="62" t="s">
+        <v>65</v>
+      </c>
+      <c r="F27" s="63" t="s">
+        <v>60</v>
+      </c>
+      <c r="G27" s="38" t="s">
+        <v>77</v>
+      </c>
+      <c r="H27" s="55" t="n"/>
+      <c r="I27" s="12" t="s">
+        <v>22</v>
+      </c>
       <c r="J27" s="15" t="s">
         <v>15</v>
       </c>
     </row>
     <row outlineLevel="0" r="28">
-      <c r="A28" s="76" t="s"/>
-      <c r="B28" s="65" t="s"/>
+      <c r="A28" s="64" t="s"/>
+      <c r="B28" s="18" t="s"/>
       <c r="C28" s="0" t="n"/>
       <c r="D28" s="0" t="n"/>
-      <c r="E28" s="77" t="s"/>
+      <c r="E28" s="65" t="s"/>
       <c r="F28" s="23" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G28" s="21" t="s">
-        <v>78</v>
-      </c>
-      <c r="H28" s="67" t="n"/>
-      <c r="I28" s="0" t="n"/>
+        <v>79</v>
+      </c>
+      <c r="H28" s="43" t="n"/>
+      <c r="I28" s="0" t="s">
+        <v>22</v>
+      </c>
       <c r="J28" s="21" t="s">
         <v>15</v>
       </c>
     </row>
     <row outlineLevel="0" r="29">
-      <c r="A29" s="0" t="n"/>
-      <c r="B29" s="0" t="n"/>
-      <c r="C29" s="68" t="n"/>
-      <c r="D29" s="68" t="n"/>
-      <c r="E29" s="0" t="n"/>
-      <c r="F29" s="78" t="s">
-        <v>79</v>
-      </c>
-      <c r="G29" s="70" t="s">
+      <c r="A29" s="64" t="s"/>
+      <c r="B29" s="18" t="s"/>
+      <c r="C29" s="58" t="n"/>
+      <c r="D29" s="58" t="n"/>
+      <c r="E29" s="65" t="s"/>
+      <c r="F29" s="66" t="s">
         <v>80</v>
       </c>
-      <c r="H29" s="71" t="n"/>
-      <c r="I29" s="29" t="n"/>
+      <c r="G29" s="50" t="s">
+        <v>81</v>
+      </c>
+      <c r="H29" s="59" t="n"/>
+      <c r="I29" s="29" t="s">
+        <v>22</v>
+      </c>
       <c r="J29" s="32" t="s">
         <v>15</v>
       </c>
     </row>
     <row outlineLevel="0" r="30">
-      <c r="A30" s="73" t="n">
+      <c r="A30" s="61" t="n">
         <v>6</v>
       </c>
-      <c r="B30" s="11" t="s">
-        <v>81</v>
+      <c r="B30" s="67" t="s">
+        <v>82</v>
       </c>
       <c r="C30" s="12" t="n"/>
       <c r="D30" s="12" t="n"/>
-      <c r="E30" s="79" t="s">
-        <v>82</v>
-      </c>
-      <c r="F30" s="80" t="s">
-        <v>61</v>
+      <c r="E30" s="68" t="s">
+        <v>83</v>
+      </c>
+      <c r="F30" s="69" t="s">
+        <v>62</v>
       </c>
       <c r="G30" s="15" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H30" s="16" t="n"/>
-      <c r="I30" s="12" t="n"/>
+      <c r="I30" s="12" t="s">
+        <v>22</v>
+      </c>
       <c r="J30" s="15" t="s">
         <v>15</v>
       </c>
     </row>
     <row outlineLevel="0" r="31">
-      <c r="A31" s="76" t="s"/>
+      <c r="A31" s="64" t="s"/>
       <c r="B31" s="18" t="s"/>
       <c r="C31" s="0" t="n"/>
       <c r="D31" s="0" t="n"/>
-      <c r="E31" s="81" t="s"/>
+      <c r="E31" s="70" t="s"/>
       <c r="F31" s="23" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G31" s="21" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H31" s="22" t="n"/>
-      <c r="I31" s="0" t="n"/>
+      <c r="I31" s="0" t="s">
+        <v>22</v>
+      </c>
       <c r="J31" s="21" t="s">
         <v>15</v>
       </c>
     </row>
     <row outlineLevel="0" r="32">
-      <c r="A32" s="0" t="n"/>
-      <c r="B32" s="0" t="n"/>
+      <c r="A32" s="64" t="s"/>
+      <c r="B32" s="18" t="s"/>
       <c r="C32" s="29" t="n"/>
       <c r="D32" s="29" t="n"/>
-      <c r="E32" s="0" t="n"/>
-      <c r="F32" s="82" t="s">
-        <v>86</v>
+      <c r="E32" s="70" t="s"/>
+      <c r="F32" s="71" t="s">
+        <v>87</v>
       </c>
       <c r="G32" s="32" t="s">
-        <v>87</v>
-      </c>
-      <c r="H32" s="83" t="n"/>
-      <c r="I32" s="29" t="n"/>
+        <v>88</v>
+      </c>
+      <c r="H32" s="72" t="n"/>
+      <c r="I32" s="29" t="s">
+        <v>22</v>
+      </c>
       <c r="J32" s="32" t="s">
         <v>15</v>
       </c>
     </row>
     <row outlineLevel="0" r="33">
-      <c r="A33" s="73" t="n">
+      <c r="A33" s="61" t="n">
         <v>7</v>
       </c>
-      <c r="B33" s="11" t="s">
-        <v>88</v>
+      <c r="B33" s="67" t="s">
+        <v>89</v>
       </c>
       <c r="C33" s="12" t="n"/>
       <c r="D33" s="12" t="n"/>
-      <c r="E33" s="79" t="s">
-        <v>64</v>
-      </c>
-      <c r="F33" s="80" t="s">
-        <v>89</v>
-      </c>
-      <c r="G33" s="84" t="s">
-        <v>74</v>
+      <c r="E33" s="68" t="s">
+        <v>65</v>
+      </c>
+      <c r="F33" s="69" t="s">
+        <v>90</v>
+      </c>
+      <c r="G33" s="73" t="s">
+        <v>75</v>
       </c>
       <c r="H33" s="16" t="n"/>
-      <c r="I33" s="12" t="n"/>
+      <c r="I33" s="12" t="s">
+        <v>22</v>
+      </c>
       <c r="J33" s="15" t="s">
         <v>15</v>
       </c>
     </row>
     <row outlineLevel="0" r="34">
-      <c r="A34" s="76" t="s"/>
+      <c r="A34" s="64" t="s"/>
       <c r="B34" s="18" t="s"/>
       <c r="C34" s="0" t="n"/>
       <c r="D34" s="0" t="n"/>
-      <c r="E34" s="81" t="s"/>
+      <c r="E34" s="70" t="s"/>
       <c r="F34" s="20" t="s">
-        <v>90</v>
-      </c>
-      <c r="G34" s="85" t="s">
         <v>91</v>
       </c>
+      <c r="G34" s="74" t="s">
+        <v>92</v>
+      </c>
       <c r="H34" s="22" t="n"/>
-      <c r="I34" s="0" t="n"/>
+      <c r="I34" s="0" t="s">
+        <v>22</v>
+      </c>
       <c r="J34" s="21" t="s">
         <v>15</v>
       </c>
     </row>
     <row outlineLevel="0" r="35">
-      <c r="A35" s="76" t="s"/>
+      <c r="A35" s="64" t="s"/>
       <c r="B35" s="18" t="s"/>
       <c r="C35" s="0" t="n"/>
       <c r="D35" s="0" t="n"/>
-      <c r="E35" s="81" t="s"/>
+      <c r="E35" s="70" t="s"/>
       <c r="F35" s="20" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="G35" s="21" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="H35" s="22" t="n"/>
-      <c r="I35" s="0" t="n"/>
+      <c r="I35" s="0" t="s">
+        <v>22</v>
+      </c>
       <c r="J35" s="21" t="s">
         <v>15</v>
       </c>
     </row>
     <row outlineLevel="0" r="36">
-      <c r="A36" s="76" t="s"/>
+      <c r="A36" s="64" t="s"/>
       <c r="B36" s="18" t="s"/>
       <c r="C36" s="0" t="n"/>
       <c r="D36" s="0" t="n"/>
-      <c r="E36" s="81" t="s"/>
+      <c r="E36" s="70" t="s"/>
       <c r="F36" s="20" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="G36" s="21" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="H36" s="22" t="n"/>
-      <c r="I36" s="0" t="n"/>
+      <c r="I36" s="0" t="s">
+        <v>22</v>
+      </c>
       <c r="J36" s="21" t="s">
         <v>15</v>
       </c>
     </row>
     <row outlineLevel="0" r="37">
-      <c r="A37" s="76" t="s"/>
+      <c r="A37" s="64" t="s"/>
       <c r="B37" s="18" t="s"/>
       <c r="C37" s="0" t="n"/>
       <c r="D37" s="0" t="n"/>
-      <c r="E37" s="81" t="s"/>
+      <c r="E37" s="70" t="s"/>
       <c r="F37" s="23" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="G37" s="24" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="H37" s="22" t="n"/>
-      <c r="I37" s="0" t="n"/>
+      <c r="I37" s="0" t="s">
+        <v>22</v>
+      </c>
       <c r="J37" s="21" t="s">
         <v>15</v>
       </c>
     </row>
     <row outlineLevel="0" r="38">
-      <c r="A38" s="76" t="s"/>
+      <c r="A38" s="64" t="s"/>
       <c r="B38" s="18" t="s"/>
       <c r="C38" s="0" t="n"/>
       <c r="D38" s="0" t="n"/>
-      <c r="E38" s="81" t="s"/>
+      <c r="E38" s="70" t="s"/>
       <c r="F38" s="20" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="G38" s="21" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="H38" s="22" t="n"/>
-      <c r="I38" s="0" t="n"/>
+      <c r="I38" s="0" t="s">
+        <v>22</v>
+      </c>
       <c r="J38" s="21" t="s">
         <v>15</v>
       </c>
     </row>
     <row outlineLevel="0" r="39">
-      <c r="A39" s="76" t="s"/>
+      <c r="A39" s="64" t="s"/>
       <c r="B39" s="18" t="s"/>
       <c r="C39" s="0" t="n"/>
       <c r="D39" s="0" t="n"/>
-      <c r="E39" s="81" t="s"/>
+      <c r="E39" s="70" t="s"/>
       <c r="F39" s="20" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="G39" s="24" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="H39" s="22" t="n"/>
-      <c r="I39" s="0" t="n"/>
+      <c r="I39" s="0" t="s">
+        <v>22</v>
+      </c>
       <c r="J39" s="21" t="s">
         <v>15</v>
       </c>
     </row>
     <row outlineLevel="0" r="40">
-      <c r="A40" s="76" t="s"/>
+      <c r="A40" s="64" t="s"/>
       <c r="B40" s="18" t="s"/>
       <c r="C40" s="0" t="n"/>
       <c r="D40" s="0" t="n"/>
-      <c r="E40" s="81" t="s"/>
+      <c r="E40" s="70" t="s"/>
       <c r="F40" s="20" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="G40" s="24" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="H40" s="22" t="n"/>
-      <c r="I40" s="0" t="n"/>
+      <c r="I40" s="0" t="s">
+        <v>22</v>
+      </c>
       <c r="J40" s="21" t="s">
         <v>15</v>
       </c>
     </row>
     <row outlineLevel="0" r="41">
-      <c r="A41" s="0" t="n"/>
-      <c r="B41" s="0" t="n"/>
+      <c r="A41" s="64" t="s"/>
+      <c r="B41" s="18" t="s"/>
       <c r="C41" s="29" t="n"/>
       <c r="D41" s="29" t="n"/>
-      <c r="E41" s="0" t="n"/>
-      <c r="F41" s="82" t="s">
-        <v>103</v>
-      </c>
-      <c r="G41" s="86" t="s">
+      <c r="E41" s="70" t="s"/>
+      <c r="F41" s="71" t="s">
         <v>104</v>
       </c>
+      <c r="G41" s="75" t="s">
+        <v>105</v>
+      </c>
       <c r="H41" s="33" t="n"/>
-      <c r="I41" s="29" t="n"/>
+      <c r="I41" s="29" t="s">
+        <v>22</v>
+      </c>
       <c r="J41" s="32" t="s">
         <v>15</v>
       </c>
     </row>
     <row outlineLevel="0" r="42">
-      <c r="A42" s="73" t="n">
+      <c r="A42" s="61" t="n">
         <v>8</v>
       </c>
-      <c r="B42" s="11" t="s">
-        <v>105</v>
+      <c r="B42" s="76" t="s">
+        <v>106</v>
       </c>
       <c r="C42" s="12" t="n"/>
       <c r="D42" s="12" t="n"/>
-      <c r="E42" s="13" t="s">
-        <v>64</v>
+      <c r="E42" s="77" t="s">
+        <v>65</v>
       </c>
       <c r="F42" s="14" t="s">
-        <v>106</v>
-      </c>
-      <c r="G42" s="84" t="s">
-        <v>72</v>
+        <v>107</v>
+      </c>
+      <c r="G42" s="73" t="s">
+        <v>73</v>
       </c>
       <c r="H42" s="16" t="n"/>
-      <c r="I42" s="12" t="n"/>
+      <c r="I42" s="12" t="s">
+        <v>22</v>
+      </c>
       <c r="J42" s="15" t="s">
         <v>15</v>
       </c>
     </row>
     <row outlineLevel="0" r="43">
-      <c r="A43" s="76" t="s"/>
-      <c r="B43" s="18" t="s"/>
+      <c r="A43" s="64" t="s"/>
+      <c r="B43" s="78" t="s"/>
       <c r="C43" s="0" t="n"/>
       <c r="D43" s="0" t="n"/>
-      <c r="E43" s="19" t="s"/>
+      <c r="E43" s="79" t="s"/>
       <c r="F43" s="20" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="G43" s="24" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="H43" s="22" t="n"/>
-      <c r="I43" s="0" t="n"/>
+      <c r="I43" s="0" t="s">
+        <v>22</v>
+      </c>
       <c r="J43" s="21" t="s">
         <v>15</v>
       </c>
     </row>
     <row outlineLevel="0" r="44">
-      <c r="A44" s="76" t="s"/>
-      <c r="B44" s="18" t="s"/>
+      <c r="A44" s="64" t="s"/>
+      <c r="B44" s="78" t="s"/>
       <c r="C44" s="0" t="n"/>
       <c r="D44" s="0" t="n"/>
-      <c r="E44" s="19" t="s"/>
+      <c r="E44" s="79" t="s"/>
       <c r="F44" s="20" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="G44" s="24" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="H44" s="22" t="n"/>
-      <c r="I44" s="0" t="n"/>
+      <c r="I44" s="0" t="s">
+        <v>22</v>
+      </c>
       <c r="J44" s="21" t="s">
         <v>15</v>
       </c>
     </row>
     <row outlineLevel="0" r="45">
-      <c r="A45" s="0" t="n"/>
-      <c r="B45" s="0" t="n"/>
+      <c r="A45" s="64" t="s"/>
+      <c r="B45" s="78" t="s"/>
       <c r="C45" s="29" t="n"/>
       <c r="D45" s="29" t="n"/>
-      <c r="E45" s="0" t="n"/>
-      <c r="F45" s="82" t="s">
-        <v>111</v>
+      <c r="E45" s="79" t="s"/>
+      <c r="F45" s="71" t="s">
+        <v>112</v>
       </c>
       <c r="G45" s="32" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="H45" s="33" t="n"/>
-      <c r="I45" s="29" t="n"/>
+      <c r="I45" s="29" t="s">
+        <v>22</v>
+      </c>
       <c r="J45" s="32" t="s">
         <v>15</v>
       </c>
     </row>
     <row outlineLevel="0" r="46">
-      <c r="A46" s="73" t="n">
+      <c r="A46" s="61" t="n">
         <v>9</v>
       </c>
-      <c r="B46" s="58" t="s">
-        <v>113</v>
-      </c>
-      <c r="C46" s="59" t="n"/>
-      <c r="D46" s="59" t="n"/>
-      <c r="E46" s="74" t="s">
-        <v>64</v>
-      </c>
-      <c r="F46" s="61" t="s">
+      <c r="B46" s="80" t="s">
         <v>114</v>
       </c>
-      <c r="G46" s="62" t="s">
+      <c r="C46" s="35" t="n"/>
+      <c r="D46" s="35" t="n"/>
+      <c r="E46" s="62" t="s">
+        <v>65</v>
+      </c>
+      <c r="F46" s="37" t="s">
         <v>115</v>
       </c>
-      <c r="H46" s="63" t="n"/>
-      <c r="I46" s="12" t="n"/>
+      <c r="G46" s="38" t="s">
+        <v>116</v>
+      </c>
+      <c r="H46" s="55" t="n"/>
+      <c r="I46" s="12" t="s">
+        <v>22</v>
+      </c>
       <c r="J46" s="15" t="s">
         <v>15</v>
       </c>
     </row>
     <row outlineLevel="0" r="47">
-      <c r="A47" s="76" t="s"/>
-      <c r="B47" s="65" t="s"/>
+      <c r="A47" s="64" t="s"/>
+      <c r="B47" s="78" t="s"/>
       <c r="C47" s="0" t="n"/>
       <c r="D47" s="0" t="n"/>
-      <c r="E47" s="77" t="s"/>
+      <c r="E47" s="65" t="s"/>
       <c r="F47" s="23" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="G47" s="24" t="s">
-        <v>117</v>
-      </c>
-      <c r="H47" s="67" t="n"/>
-      <c r="I47" s="0" t="n"/>
+        <v>118</v>
+      </c>
+      <c r="H47" s="43" t="n"/>
+      <c r="I47" s="0" t="s">
+        <v>22</v>
+      </c>
       <c r="J47" s="21" t="s">
         <v>15</v>
       </c>
     </row>
     <row outlineLevel="0" r="48">
-      <c r="A48" s="76" t="s"/>
-      <c r="B48" s="65" t="s"/>
+      <c r="A48" s="64" t="s"/>
+      <c r="B48" s="78" t="s"/>
       <c r="C48" s="0" t="n"/>
       <c r="D48" s="0" t="n"/>
-      <c r="E48" s="77" t="s"/>
+      <c r="E48" s="65" t="s"/>
       <c r="F48" s="23" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="G48" s="24" t="s">
-        <v>119</v>
-      </c>
-      <c r="H48" s="67" t="n"/>
-      <c r="I48" s="0" t="n"/>
+        <v>120</v>
+      </c>
+      <c r="H48" s="43" t="n"/>
+      <c r="I48" s="0" t="s">
+        <v>22</v>
+      </c>
       <c r="J48" s="21" t="s">
         <v>15</v>
       </c>
     </row>
     <row outlineLevel="0" r="49">
-      <c r="A49" s="76" t="s"/>
-      <c r="B49" s="65" t="s"/>
+      <c r="A49" s="64" t="s"/>
+      <c r="B49" s="78" t="s"/>
       <c r="C49" s="0" t="n"/>
       <c r="D49" s="0" t="n"/>
-      <c r="E49" s="77" t="s"/>
+      <c r="E49" s="65" t="s"/>
       <c r="F49" s="20" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="G49" s="24" t="s">
-        <v>121</v>
-      </c>
-      <c r="H49" s="67" t="n"/>
-      <c r="I49" s="0" t="n"/>
+        <v>122</v>
+      </c>
+      <c r="H49" s="43" t="n"/>
+      <c r="I49" s="0" t="s">
+        <v>22</v>
+      </c>
       <c r="J49" s="21" t="s">
         <v>15</v>
       </c>
     </row>
     <row outlineLevel="0" r="50">
-      <c r="A50" s="76" t="s"/>
-      <c r="B50" s="65" t="s"/>
+      <c r="A50" s="64" t="s"/>
+      <c r="B50" s="78" t="s"/>
       <c r="C50" s="0" t="n"/>
       <c r="D50" s="0" t="n"/>
-      <c r="E50" s="77" t="s"/>
+      <c r="E50" s="65" t="s"/>
       <c r="F50" s="23" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="G50" s="24" t="s">
-        <v>123</v>
-      </c>
-      <c r="H50" s="67" t="n"/>
-      <c r="I50" s="0" t="n"/>
+        <v>124</v>
+      </c>
+      <c r="H50" s="43" t="n"/>
+      <c r="I50" s="0" t="s">
+        <v>22</v>
+      </c>
       <c r="J50" s="21" t="s">
         <v>15</v>
       </c>
     </row>
     <row outlineLevel="0" r="51">
-      <c r="A51" s="76" t="s"/>
-      <c r="B51" s="65" t="s"/>
+      <c r="A51" s="64" t="s"/>
+      <c r="B51" s="78" t="s"/>
       <c r="C51" s="0" t="n"/>
       <c r="D51" s="0" t="n"/>
-      <c r="E51" s="77" t="s"/>
+      <c r="E51" s="65" t="s"/>
       <c r="F51" s="23" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="G51" s="24" t="s">
-        <v>124</v>
-      </c>
-      <c r="H51" s="67" t="n"/>
-      <c r="I51" s="0" t="n"/>
+        <v>125</v>
+      </c>
+      <c r="H51" s="43" t="n"/>
+      <c r="I51" s="0" t="s">
+        <v>22</v>
+      </c>
       <c r="J51" s="21" t="s">
         <v>15</v>
       </c>
     </row>
     <row outlineLevel="0" r="52">
-      <c r="A52" s="76" t="s"/>
-      <c r="B52" s="65" t="s"/>
+      <c r="A52" s="64" t="s"/>
+      <c r="B52" s="78" t="s"/>
       <c r="C52" s="0" t="n"/>
       <c r="D52" s="0" t="n"/>
-      <c r="E52" s="77" t="s"/>
+      <c r="E52" s="65" t="s"/>
       <c r="F52" s="20" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="G52" s="24" t="s">
-        <v>121</v>
-      </c>
-      <c r="H52" s="67" t="n"/>
-      <c r="I52" s="0" t="n"/>
+        <v>122</v>
+      </c>
+      <c r="H52" s="43" t="n"/>
+      <c r="I52" s="0" t="s">
+        <v>22</v>
+      </c>
       <c r="J52" s="21" t="s">
         <v>15</v>
       </c>
     </row>
     <row outlineLevel="0" r="53">
-      <c r="A53" s="0" t="n"/>
-      <c r="B53" s="0" t="n"/>
-      <c r="C53" s="68" t="n"/>
-      <c r="D53" s="68" t="n"/>
-      <c r="E53" s="0" t="n"/>
-      <c r="F53" s="69" t="s">
-        <v>125</v>
-      </c>
-      <c r="G53" s="70" t="s">
+      <c r="A53" s="64" t="s"/>
+      <c r="B53" s="78" t="s"/>
+      <c r="C53" s="58" t="n"/>
+      <c r="D53" s="58" t="n"/>
+      <c r="E53" s="65" t="s"/>
+      <c r="F53" s="52" t="s">
         <v>126</v>
       </c>
-      <c r="H53" s="71" t="n"/>
-      <c r="I53" s="29" t="n"/>
+      <c r="G53" s="50" t="s">
+        <v>127</v>
+      </c>
+      <c r="H53" s="59" t="n"/>
+      <c r="I53" s="29" t="s">
+        <v>22</v>
+      </c>
       <c r="J53" s="32" t="s">
         <v>15</v>
       </c>
     </row>
     <row outlineLevel="0" r="54">
-      <c r="A54" s="73" t="n">
+      <c r="A54" s="61" t="n">
         <v>10</v>
       </c>
-      <c r="B54" s="11" t="s">
-        <v>127</v>
+      <c r="B54" s="76" t="s">
+        <v>128</v>
       </c>
       <c r="C54" s="12" t="n"/>
       <c r="D54" s="12" t="n"/>
-      <c r="E54" s="79" t="s">
-        <v>64</v>
+      <c r="E54" s="68" t="s">
+        <v>65</v>
       </c>
       <c r="F54" s="14" t="s">
-        <v>128</v>
-      </c>
-      <c r="G54" s="84" t="s">
-        <v>100</v>
+        <v>129</v>
+      </c>
+      <c r="G54" s="73" t="s">
+        <v>101</v>
       </c>
       <c r="H54" s="16" t="n"/>
-      <c r="I54" s="12" t="n"/>
+      <c r="I54" s="12" t="s">
+        <v>22</v>
+      </c>
       <c r="J54" s="15" t="s">
         <v>15</v>
       </c>
     </row>
     <row outlineLevel="0" r="55">
-      <c r="A55" s="76" t="s"/>
-      <c r="B55" s="18" t="s"/>
+      <c r="A55" s="64" t="s"/>
+      <c r="B55" s="78" t="s"/>
       <c r="C55" s="0" t="n"/>
       <c r="D55" s="0" t="n"/>
-      <c r="E55" s="81" t="s"/>
+      <c r="E55" s="70" t="s"/>
       <c r="F55" s="20" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="G55" s="21" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="H55" s="22" t="n"/>
-      <c r="I55" s="0" t="n"/>
+      <c r="I55" s="0" t="s">
+        <v>22</v>
+      </c>
       <c r="J55" s="21" t="s">
         <v>15</v>
       </c>
     </row>
     <row outlineLevel="0" r="56">
-      <c r="A56" s="76" t="s"/>
-      <c r="B56" s="18" t="s"/>
+      <c r="A56" s="64" t="s"/>
+      <c r="B56" s="78" t="s"/>
       <c r="C56" s="0" t="n"/>
       <c r="D56" s="0" t="n"/>
-      <c r="E56" s="81" t="s"/>
-      <c r="F56" s="20" t="s">
-        <v>131</v>
-      </c>
-      <c r="G56" s="24" t="s">
+      <c r="E56" s="70" t="s"/>
+      <c r="F56" s="81" t="s">
         <v>132</v>
       </c>
-      <c r="H56" s="22" t="n"/>
-      <c r="I56" s="0" t="n"/>
+      <c r="G56" s="82" t="s">
+        <v>133</v>
+      </c>
+      <c r="H56" s="83" t="s">
+        <v>134</v>
+      </c>
+      <c r="I56" s="0" t="s">
+        <v>22</v>
+      </c>
       <c r="J56" s="21" t="s">
         <v>15</v>
       </c>
     </row>
     <row outlineLevel="0" r="57">
-      <c r="A57" s="76" t="s"/>
-      <c r="B57" s="18" t="s"/>
+      <c r="A57" s="64" t="s"/>
+      <c r="B57" s="78" t="s"/>
       <c r="C57" s="0" t="n"/>
       <c r="D57" s="0" t="n"/>
-      <c r="E57" s="81" t="s"/>
-      <c r="F57" s="87" t="s">
-        <v>133</v>
+      <c r="E57" s="70" t="s"/>
+      <c r="F57" s="84" t="s">
+        <v>135</v>
       </c>
       <c r="G57" s="24" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="H57" s="22" t="n"/>
-      <c r="I57" s="0" t="n"/>
+      <c r="I57" s="0" t="s">
+        <v>22</v>
+      </c>
       <c r="J57" s="21" t="s">
         <v>15</v>
       </c>
     </row>
     <row outlineLevel="0" r="58">
-      <c r="A58" s="76" t="s"/>
-      <c r="B58" s="18" t="s"/>
+      <c r="A58" s="64" t="s"/>
+      <c r="B58" s="78" t="s"/>
       <c r="C58" s="0" t="n"/>
       <c r="D58" s="0" t="n"/>
-      <c r="E58" s="81" t="s"/>
-      <c r="F58" s="87" t="s">
-        <v>135</v>
+      <c r="E58" s="70" t="s"/>
+      <c r="F58" s="85" t="s">
+        <v>137</v>
       </c>
       <c r="G58" s="24" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="H58" s="22" t="n"/>
-      <c r="I58" s="0" t="n"/>
+      <c r="I58" s="0" t="s">
+        <v>22</v>
+      </c>
       <c r="J58" s="21" t="s">
         <v>15</v>
       </c>
     </row>
     <row outlineLevel="0" r="59">
-      <c r="A59" s="76" t="s"/>
-      <c r="B59" s="18" t="s"/>
+      <c r="A59" s="64" t="s"/>
+      <c r="B59" s="78" t="s"/>
       <c r="C59" s="0" t="n"/>
       <c r="D59" s="0" t="n"/>
-      <c r="E59" s="81" t="s"/>
+      <c r="E59" s="70" t="s"/>
       <c r="F59" s="20" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="G59" s="21" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="H59" s="22" t="n"/>
-      <c r="I59" s="0" t="n"/>
+      <c r="I59" s="0" t="s">
+        <v>22</v>
+      </c>
       <c r="J59" s="21" t="s">
         <v>15</v>
       </c>
     </row>
     <row outlineLevel="0" r="60">
-      <c r="A60" s="76" t="s"/>
-      <c r="B60" s="18" t="s"/>
+      <c r="A60" s="64" t="s"/>
+      <c r="B60" s="78" t="s"/>
       <c r="C60" s="0" t="n"/>
       <c r="D60" s="0" t="n"/>
-      <c r="E60" s="81" t="s"/>
+      <c r="E60" s="70" t="s"/>
       <c r="F60" s="23" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="G60" s="21" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="H60" s="22" t="n"/>
-      <c r="I60" s="0" t="n"/>
+      <c r="I60" s="0" t="s">
+        <v>22</v>
+      </c>
       <c r="J60" s="21" t="s">
         <v>15</v>
       </c>
     </row>
     <row outlineLevel="0" r="61">
-      <c r="A61" s="76" t="s"/>
-      <c r="B61" s="18" t="s"/>
+      <c r="A61" s="64" t="s"/>
+      <c r="B61" s="78" t="s"/>
       <c r="C61" s="0" t="n"/>
       <c r="D61" s="0" t="n"/>
-      <c r="E61" s="81" t="s"/>
+      <c r="E61" s="70" t="s"/>
       <c r="F61" s="20" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="G61" s="24" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="H61" s="22" t="n"/>
-      <c r="I61" s="0" t="n"/>
+      <c r="I61" s="0" t="s">
+        <v>22</v>
+      </c>
       <c r="J61" s="21" t="s">
         <v>15</v>
       </c>
     </row>
     <row outlineLevel="0" r="62">
-      <c r="A62" s="76" t="s"/>
-      <c r="B62" s="18" t="s"/>
+      <c r="A62" s="64" t="s"/>
+      <c r="B62" s="78" t="s"/>
       <c r="C62" s="0" t="n"/>
       <c r="D62" s="0" t="n"/>
-      <c r="E62" s="81" t="s"/>
+      <c r="E62" s="70" t="s"/>
       <c r="F62" s="23" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="G62" s="21" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="H62" s="22" t="n"/>
-      <c r="I62" s="0" t="n"/>
+      <c r="I62" s="0" t="s">
+        <v>22</v>
+      </c>
       <c r="J62" s="21" t="s">
         <v>15</v>
       </c>
     </row>
     <row outlineLevel="0" r="63">
-      <c r="A63" s="76" t="s"/>
-      <c r="B63" s="18" t="s"/>
+      <c r="A63" s="64" t="s"/>
+      <c r="B63" s="78" t="s"/>
       <c r="C63" s="0" t="n"/>
       <c r="D63" s="0" t="n"/>
-      <c r="E63" s="81" t="s"/>
+      <c r="E63" s="70" t="s"/>
       <c r="F63" s="20" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="G63" s="24" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="H63" s="22" t="n"/>
-      <c r="I63" s="0" t="n"/>
+      <c r="I63" s="0" t="s">
+        <v>22</v>
+      </c>
       <c r="J63" s="21" t="s">
         <v>15</v>
       </c>
     </row>
     <row outlineLevel="0" r="64">
-      <c r="A64" s="76" t="s"/>
-      <c r="B64" s="18" t="s"/>
+      <c r="A64" s="64" t="s"/>
+      <c r="B64" s="78" t="s"/>
       <c r="C64" s="0" t="n"/>
       <c r="D64" s="0" t="n"/>
-      <c r="E64" s="81" t="s"/>
+      <c r="E64" s="70" t="s"/>
       <c r="F64" s="20" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="G64" s="24" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="H64" s="22" t="n"/>
-      <c r="I64" s="0" t="n"/>
+      <c r="I64" s="0" t="s">
+        <v>22</v>
+      </c>
       <c r="J64" s="21" t="s">
         <v>15</v>
       </c>
     </row>
     <row outlineLevel="0" r="65">
-      <c r="A65" s="76" t="s"/>
-      <c r="B65" s="18" t="s"/>
+      <c r="A65" s="64" t="s"/>
+      <c r="B65" s="78" t="s"/>
       <c r="C65" s="0" t="n"/>
       <c r="D65" s="0" t="n"/>
-      <c r="E65" s="81" t="s"/>
+      <c r="E65" s="70" t="s"/>
       <c r="F65" s="23" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="G65" s="21" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="H65" s="22" t="n"/>
-      <c r="I65" s="0" t="n"/>
+      <c r="I65" s="0" t="s">
+        <v>22</v>
+      </c>
       <c r="J65" s="21" t="s">
         <v>15</v>
       </c>
     </row>
     <row outlineLevel="0" r="66">
-      <c r="A66" s="0" t="n"/>
-      <c r="B66" s="0" t="n"/>
+      <c r="A66" s="64" t="s"/>
+      <c r="B66" s="78" t="s"/>
       <c r="C66" s="29" t="n"/>
       <c r="D66" s="29" t="n"/>
-      <c r="E66" s="0" t="n"/>
-      <c r="F66" s="82" t="s">
-        <v>149</v>
+      <c r="E66" s="70" t="s"/>
+      <c r="F66" s="71" t="s">
+        <v>151</v>
       </c>
       <c r="G66" s="32" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="H66" s="33" t="n"/>
-      <c r="I66" s="29" t="n"/>
+      <c r="I66" s="29" t="s">
+        <v>22</v>
+      </c>
       <c r="J66" s="32" t="s">
         <v>15</v>
       </c>
     </row>
     <row outlineLevel="0" r="67">
-      <c r="A67" s="73" t="n">
+      <c r="A67" s="61" t="n">
         <v>11</v>
       </c>
-      <c r="B67" s="11" t="s">
-        <v>151</v>
+      <c r="B67" s="76" t="s">
+        <v>153</v>
       </c>
       <c r="C67" s="12" t="n"/>
       <c r="D67" s="12" t="n"/>
-      <c r="E67" s="79" t="s">
-        <v>64</v>
+      <c r="E67" s="68" t="s">
+        <v>65</v>
       </c>
       <c r="F67" s="14" t="s">
-        <v>140</v>
-      </c>
-      <c r="G67" s="84" t="s">
-        <v>141</v>
+        <v>142</v>
+      </c>
+      <c r="G67" s="73" t="s">
+        <v>143</v>
       </c>
       <c r="H67" s="16" t="n"/>
-      <c r="I67" s="12" t="n"/>
+      <c r="I67" s="12" t="s">
+        <v>22</v>
+      </c>
       <c r="J67" s="15" t="s">
         <v>15</v>
       </c>
     </row>
     <row outlineLevel="0" r="68">
-      <c r="A68" s="76" t="s"/>
-      <c r="B68" s="18" t="s"/>
+      <c r="A68" s="64" t="s"/>
+      <c r="B68" s="78" t="s"/>
       <c r="C68" s="0" t="n"/>
       <c r="D68" s="0" t="n"/>
-      <c r="E68" s="81" t="s"/>
+      <c r="E68" s="70" t="s"/>
       <c r="F68" s="20" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="G68" s="24" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="H68" s="22" t="n"/>
-      <c r="I68" s="0" t="n"/>
+      <c r="I68" s="0" t="s">
+        <v>22</v>
+      </c>
       <c r="J68" s="21" t="s">
         <v>15</v>
       </c>
     </row>
     <row outlineLevel="0" r="69">
-      <c r="A69" s="76" t="s"/>
-      <c r="B69" s="18" t="s"/>
+      <c r="A69" s="64" t="s"/>
+      <c r="B69" s="78" t="s"/>
       <c r="C69" s="0" t="n"/>
       <c r="D69" s="0" t="n"/>
-      <c r="E69" s="81" t="s"/>
+      <c r="E69" s="70" t="s"/>
       <c r="F69" s="20" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="G69" s="21" t="s">
-        <v>155</v>
-      </c>
-      <c r="H69" s="22" t="n"/>
-      <c r="I69" s="0" t="n"/>
+        <v>157</v>
+      </c>
+      <c r="H69" s="86" t="s">
+        <v>158</v>
+      </c>
+      <c r="I69" s="0" t="s">
+        <v>22</v>
+      </c>
       <c r="J69" s="21" t="s">
         <v>15</v>
       </c>
     </row>
     <row outlineLevel="0" r="70">
-      <c r="A70" s="0" t="n"/>
-      <c r="B70" s="0" t="n"/>
+      <c r="A70" s="64" t="s"/>
+      <c r="B70" s="78" t="s"/>
       <c r="C70" s="29" t="n"/>
       <c r="D70" s="29" t="n"/>
-      <c r="E70" s="0" t="n"/>
-      <c r="F70" s="82" t="s">
-        <v>156</v>
+      <c r="E70" s="70" t="s"/>
+      <c r="F70" s="71" t="s">
+        <v>159</v>
       </c>
       <c r="G70" s="32" t="s">
-        <v>157</v>
-      </c>
-      <c r="H70" s="33" t="n"/>
-      <c r="I70" s="29" t="n"/>
+        <v>160</v>
+      </c>
+      <c r="H70" s="72" t="s">
+        <v>158</v>
+      </c>
+      <c r="I70" s="29" t="s">
+        <v>22</v>
+      </c>
       <c r="J70" s="32" t="s">
         <v>15</v>
       </c>
     </row>
     <row outlineLevel="0" r="71">
-      <c r="A71" s="73" t="n">
+      <c r="A71" s="87" t="n">
         <v>12</v>
       </c>
-      <c r="B71" s="11" t="s">
-        <v>158</v>
-      </c>
-      <c r="C71" s="12" t="n"/>
-      <c r="D71" s="12" t="n"/>
-      <c r="E71" s="79" t="s">
-        <v>64</v>
-      </c>
-      <c r="F71" s="14" t="s">
-        <v>159</v>
-      </c>
-      <c r="G71" s="15" t="s">
-        <v>112</v>
-      </c>
-      <c r="H71" s="16" t="n"/>
-      <c r="I71" s="12" t="n"/>
-      <c r="J71" s="15" t="s">
+      <c r="B71" s="88" t="s">
+        <v>161</v>
+      </c>
+      <c r="C71" s="35" t="n"/>
+      <c r="D71" s="35" t="n"/>
+      <c r="E71" s="89" t="s">
+        <v>65</v>
+      </c>
+      <c r="F71" s="37" t="s">
+        <v>162</v>
+      </c>
+      <c r="G71" s="38" t="s">
+        <v>113</v>
+      </c>
+      <c r="H71" s="55" t="n"/>
+      <c r="I71" s="63" t="s">
+        <v>22</v>
+      </c>
+      <c r="J71" s="38" t="s">
         <v>15</v>
       </c>
     </row>
     <row outlineLevel="0" r="72">
-      <c r="A72" s="76" t="s"/>
-      <c r="B72" s="18" t="s"/>
+      <c r="A72" s="90" t="s"/>
+      <c r="B72" s="91" t="s"/>
       <c r="C72" s="0" t="n"/>
       <c r="D72" s="0" t="n"/>
-      <c r="E72" s="81" t="s"/>
-      <c r="F72" s="88" t="s">
-        <v>160</v>
-      </c>
-      <c r="G72" s="21" t="s">
-        <v>161</v>
-      </c>
-      <c r="H72" s="22" t="n"/>
-      <c r="I72" s="0" t="n"/>
-      <c r="J72" s="21" t="s">
+      <c r="E72" s="92" t="s"/>
+      <c r="F72" s="93" t="s">
+        <v>163</v>
+      </c>
+      <c r="G72" s="45" t="s">
+        <v>164</v>
+      </c>
+      <c r="H72" s="43" t="n"/>
+      <c r="I72" s="41" t="s">
+        <v>22</v>
+      </c>
+      <c r="J72" s="45" t="s">
         <v>15</v>
       </c>
     </row>
     <row outlineLevel="0" r="73">
-      <c r="A73" s="76" t="s"/>
-      <c r="B73" s="18" t="s"/>
+      <c r="A73" s="90" t="s"/>
+      <c r="B73" s="91" t="s"/>
       <c r="C73" s="0" t="n"/>
       <c r="D73" s="0" t="n"/>
-      <c r="E73" s="81" t="s"/>
-      <c r="F73" s="20" t="s">
-        <v>162</v>
-      </c>
-      <c r="G73" s="21" t="s">
-        <v>163</v>
-      </c>
-      <c r="H73" s="22" t="n"/>
-      <c r="I73" s="0" t="n"/>
-      <c r="J73" s="21" t="s">
+      <c r="E73" s="92" t="s"/>
+      <c r="F73" s="46" t="s">
+        <v>165</v>
+      </c>
+      <c r="G73" s="45" t="s">
+        <v>166</v>
+      </c>
+      <c r="H73" s="43" t="n"/>
+      <c r="I73" s="41" t="s">
+        <v>22</v>
+      </c>
+      <c r="J73" s="45" t="s">
         <v>15</v>
       </c>
     </row>
     <row outlineLevel="0" r="74">
-      <c r="A74" s="76" t="s"/>
-      <c r="B74" s="18" t="s"/>
+      <c r="A74" s="90" t="s"/>
+      <c r="B74" s="91" t="s"/>
       <c r="C74" s="0" t="n"/>
       <c r="D74" s="0" t="n"/>
-      <c r="E74" s="81" t="s"/>
-      <c r="F74" s="88" t="s">
-        <v>164</v>
-      </c>
-      <c r="G74" s="21" t="s">
-        <v>165</v>
-      </c>
-      <c r="H74" s="22" t="n"/>
-      <c r="I74" s="0" t="n"/>
-      <c r="J74" s="21" t="s">
+      <c r="E74" s="92" t="s"/>
+      <c r="F74" s="93" t="s">
+        <v>167</v>
+      </c>
+      <c r="G74" s="45" t="s">
+        <v>168</v>
+      </c>
+      <c r="H74" s="43" t="n"/>
+      <c r="I74" s="41" t="s">
+        <v>22</v>
+      </c>
+      <c r="J74" s="45" t="s">
         <v>15</v>
       </c>
     </row>
     <row outlineLevel="0" r="75">
-      <c r="A75" s="76" t="s"/>
-      <c r="B75" s="18" t="s"/>
+      <c r="A75" s="90" t="s"/>
+      <c r="B75" s="91" t="s"/>
       <c r="C75" s="0" t="n"/>
       <c r="D75" s="0" t="n"/>
-      <c r="E75" s="81" t="s"/>
-      <c r="F75" s="20" t="s">
-        <v>166</v>
-      </c>
-      <c r="G75" s="24" t="s">
-        <v>167</v>
-      </c>
-      <c r="H75" s="22" t="n"/>
-      <c r="I75" s="0" t="n"/>
-      <c r="J75" s="21" t="s">
+      <c r="E75" s="92" t="s"/>
+      <c r="F75" s="46" t="s">
+        <v>169</v>
+      </c>
+      <c r="G75" s="42" t="s">
+        <v>170</v>
+      </c>
+      <c r="H75" s="47" t="n"/>
+      <c r="I75" s="41" t="s">
+        <v>22</v>
+      </c>
+      <c r="J75" s="45" t="s">
         <v>15</v>
       </c>
     </row>
     <row outlineLevel="0" r="76">
-      <c r="A76" s="0" t="n"/>
-      <c r="B76" s="0" t="n"/>
-      <c r="C76" s="29" t="n"/>
-      <c r="D76" s="29" t="n"/>
-      <c r="E76" s="0" t="n"/>
-      <c r="F76" s="82" t="s">
-        <v>168</v>
-      </c>
-      <c r="G76" s="32" t="s">
-        <v>169</v>
-      </c>
-      <c r="H76" s="83" t="s">
-        <v>170</v>
-      </c>
-      <c r="I76" s="29" t="n"/>
-      <c r="J76" s="32" t="s">
+      <c r="A76" s="90" t="s"/>
+      <c r="B76" s="94" t="s"/>
+      <c r="C76" s="58" t="n"/>
+      <c r="D76" s="58" t="n"/>
+      <c r="E76" s="95" t="s"/>
+      <c r="F76" s="66" t="s">
+        <v>171</v>
+      </c>
+      <c r="G76" s="50" t="s">
+        <v>172</v>
+      </c>
+      <c r="H76" s="96" t="n"/>
+      <c r="I76" s="52" t="s">
+        <v>22</v>
+      </c>
+      <c r="J76" s="50" t="s">
         <v>15</v>
       </c>
     </row>
     <row outlineLevel="0" r="77">
-      <c r="A77" s="73" t="n">
+      <c r="A77" s="61" t="n">
         <v>13</v>
       </c>
-      <c r="B77" s="11" t="s">
-        <v>171</v>
+      <c r="B77" s="76" t="s">
+        <v>173</v>
       </c>
       <c r="C77" s="12" t="n"/>
       <c r="D77" s="12" t="n"/>
-      <c r="E77" s="79" t="s">
-        <v>64</v>
+      <c r="E77" s="68" t="s">
+        <v>65</v>
       </c>
       <c r="F77" s="14" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="G77" s="15" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="H77" s="16" t="n"/>
-      <c r="I77" s="12" t="n"/>
+      <c r="I77" s="12" t="s">
+        <v>22</v>
+      </c>
       <c r="J77" s="15" t="s">
         <v>15</v>
       </c>
     </row>
     <row outlineLevel="0" r="78">
-      <c r="A78" s="76" t="s"/>
-      <c r="B78" s="18" t="s"/>
+      <c r="A78" s="64" t="s"/>
+      <c r="B78" s="78" t="s"/>
       <c r="C78" s="0" t="n"/>
       <c r="D78" s="0" t="n"/>
-      <c r="E78" s="81" t="s"/>
+      <c r="E78" s="70" t="s"/>
       <c r="F78" s="20" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="G78" s="21" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="H78" s="22" t="n"/>
-      <c r="I78" s="0" t="n"/>
+      <c r="I78" s="0" t="s">
+        <v>22</v>
+      </c>
       <c r="J78" s="21" t="s">
         <v>15</v>
       </c>
     </row>
     <row outlineLevel="0" r="79">
-      <c r="A79" s="76" t="s"/>
-      <c r="B79" s="18" t="s"/>
+      <c r="A79" s="64" t="s"/>
+      <c r="B79" s="78" t="s"/>
       <c r="C79" s="0" t="n"/>
       <c r="D79" s="0" t="n"/>
-      <c r="E79" s="81" t="s"/>
+      <c r="E79" s="70" t="s"/>
       <c r="F79" s="20" t="s">
-        <v>175</v>
-      </c>
-      <c r="G79" s="21" t="s">
-        <v>176</v>
-      </c>
-      <c r="H79" s="89" t="s">
         <v>177</v>
       </c>
-      <c r="I79" s="0" t="n"/>
+      <c r="G79" s="19" t="s">
+        <v>178</v>
+      </c>
+      <c r="H79" s="86" t="s">
+        <v>179</v>
+      </c>
+      <c r="I79" s="0" t="s">
+        <v>22</v>
+      </c>
       <c r="J79" s="21" t="s">
         <v>15</v>
       </c>
     </row>
     <row outlineLevel="0" r="80">
-      <c r="A80" s="76" t="s"/>
-      <c r="B80" s="18" t="s"/>
+      <c r="A80" s="64" t="s"/>
+      <c r="B80" s="78" t="s"/>
       <c r="C80" s="0" t="n"/>
       <c r="D80" s="0" t="n"/>
-      <c r="E80" s="81" t="s"/>
+      <c r="E80" s="70" t="s"/>
       <c r="F80" s="23" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="G80" s="21" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="H80" s="22" t="n"/>
-      <c r="I80" s="0" t="n"/>
+      <c r="I80" s="0" t="s">
+        <v>22</v>
+      </c>
       <c r="J80" s="21" t="s">
         <v>15</v>
       </c>
     </row>
     <row outlineLevel="0" r="81">
-      <c r="A81" s="0" t="n"/>
-      <c r="B81" s="0" t="n"/>
-      <c r="C81" s="29" t="n"/>
-      <c r="D81" s="29" t="n"/>
-      <c r="E81" s="0" t="n"/>
+      <c r="A81" s="64" t="s"/>
+      <c r="B81" s="78" t="s"/>
+      <c r="C81" s="0" t="n"/>
+      <c r="D81" s="0" t="n"/>
+      <c r="E81" s="70" t="s"/>
       <c r="F81" s="31" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="G81" s="32" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="H81" s="33" t="n"/>
-      <c r="I81" s="29" t="n"/>
+      <c r="I81" s="29" t="s">
+        <v>22</v>
+      </c>
       <c r="J81" s="32" t="s">
         <v>15</v>
       </c>
     </row>
     <row outlineLevel="0" r="82">
-      <c r="A82" s="73" t="n">
-        <v>14</v>
-      </c>
-      <c r="B82" s="90" t="s">
-        <v>181</v>
-      </c>
-      <c r="C82" s="59" t="n"/>
-      <c r="D82" s="59" t="n"/>
-      <c r="E82" s="74" t="s">
-        <v>64</v>
-      </c>
-      <c r="F82" s="91" t="s">
-        <v>182</v>
-      </c>
-      <c r="G82" s="92" t="s">
-        <v>173</v>
-      </c>
-      <c r="H82" s="63" t="n"/>
-      <c r="I82" s="12" t="n"/>
-      <c r="J82" s="15" t="s">
-        <v>15</v>
-      </c>
+      <c r="A82" s="97" t="s">
+        <v>183</v>
+      </c>
+      <c r="B82" s="88" t="s">
+        <v>184</v>
+      </c>
+      <c r="C82" s="0" t="n"/>
+      <c r="D82" s="0" t="n"/>
+      <c r="E82" s="98" t="s">
+        <v>65</v>
+      </c>
+      <c r="F82" s="99" t="s">
+        <v>174</v>
+      </c>
+      <c r="G82" s="100" t="s">
+        <v>175</v>
+      </c>
+      <c r="H82" s="55" t="n"/>
+      <c r="I82" s="63" t="s">
+        <v>22</v>
+      </c>
+      <c r="J82" s="38" t="n"/>
     </row>
     <row outlineLevel="0" r="83">
-      <c r="A83" s="76" t="s"/>
-      <c r="B83" s="65" t="s"/>
+      <c r="A83" s="101" t="s"/>
+      <c r="B83" s="91" t="s"/>
       <c r="C83" s="0" t="n"/>
       <c r="D83" s="0" t="n"/>
-      <c r="E83" s="77" t="s"/>
-      <c r="F83" s="93" t="s">
-        <v>183</v>
-      </c>
-      <c r="G83" s="21" t="s">
-        <v>184</v>
-      </c>
-      <c r="H83" s="67" t="n"/>
-      <c r="I83" s="0" t="n"/>
-      <c r="J83" s="21" t="s">
-        <v>15</v>
-      </c>
+      <c r="E83" s="98" t="n"/>
+      <c r="F83" s="102" t="s">
+        <v>176</v>
+      </c>
+      <c r="G83" s="103" t="s">
+        <v>172</v>
+      </c>
+      <c r="H83" s="43" t="n"/>
+      <c r="I83" s="41" t="s">
+        <v>22</v>
+      </c>
+      <c r="J83" s="45" t="n"/>
     </row>
     <row outlineLevel="0" r="84">
-      <c r="A84" s="76" t="s"/>
-      <c r="B84" s="65" t="s"/>
+      <c r="A84" s="104" t="s"/>
+      <c r="B84" s="94" t="s"/>
       <c r="C84" s="0" t="n"/>
       <c r="D84" s="0" t="n"/>
-      <c r="E84" s="77" t="s"/>
-      <c r="F84" s="23" t="s">
+      <c r="E84" s="98" t="n"/>
+      <c r="F84" s="105" t="s">
         <v>185</v>
       </c>
-      <c r="G84" s="21" t="s">
+      <c r="G84" s="106" t="s">
         <v>186</v>
       </c>
-      <c r="H84" s="67" t="n"/>
-      <c r="I84" s="0" t="n"/>
-      <c r="J84" s="21" t="s">
-        <v>15</v>
-      </c>
+      <c r="H84" s="96" t="s">
+        <v>187</v>
+      </c>
+      <c r="I84" s="52" t="s">
+        <v>22</v>
+      </c>
+      <c r="J84" s="50" t="n"/>
     </row>
     <row outlineLevel="0" r="85">
-      <c r="A85" s="76" t="s"/>
-      <c r="B85" s="65" t="s"/>
+      <c r="A85" s="107" t="n">
+        <v>14</v>
+      </c>
+      <c r="B85" s="88" t="s">
+        <v>188</v>
+      </c>
       <c r="C85" s="0" t="n"/>
       <c r="D85" s="0" t="n"/>
-      <c r="E85" s="77" t="s"/>
-      <c r="F85" s="93" t="s">
-        <v>187</v>
-      </c>
-      <c r="G85" s="21" t="s">
-        <v>188</v>
-      </c>
-      <c r="H85" s="67" t="n"/>
-      <c r="I85" s="0" t="n"/>
-      <c r="J85" s="21" t="s">
+      <c r="E85" s="108" t="s">
+        <v>65</v>
+      </c>
+      <c r="F85" s="99" t="s">
+        <v>189</v>
+      </c>
+      <c r="G85" s="100" t="s">
+        <v>175</v>
+      </c>
+      <c r="H85" s="55" t="n"/>
+      <c r="I85" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="J85" s="15" t="s">
         <v>15</v>
       </c>
     </row>
     <row outlineLevel="0" r="86">
-      <c r="A86" s="76" t="s"/>
-      <c r="B86" s="65" t="s"/>
+      <c r="A86" s="90" t="s"/>
+      <c r="B86" s="91" t="s"/>
       <c r="C86" s="0" t="n"/>
       <c r="D86" s="0" t="n"/>
-      <c r="E86" s="77" t="s"/>
-      <c r="F86" s="20" t="s">
-        <v>189</v>
+      <c r="E86" s="92" t="s"/>
+      <c r="F86" s="109" t="s">
+        <v>190</v>
       </c>
       <c r="G86" s="21" t="s">
-        <v>190</v>
-      </c>
-      <c r="H86" s="67" t="n"/>
-      <c r="I86" s="0" t="n"/>
+        <v>191</v>
+      </c>
+      <c r="H86" s="43" t="n"/>
+      <c r="I86" s="0" t="s">
+        <v>22</v>
+      </c>
       <c r="J86" s="21" t="s">
         <v>15</v>
       </c>
     </row>
     <row outlineLevel="0" r="87">
-      <c r="A87" s="76" t="s"/>
-      <c r="B87" s="65" t="s"/>
+      <c r="A87" s="90" t="s"/>
+      <c r="B87" s="91" t="s"/>
       <c r="C87" s="0" t="n"/>
       <c r="D87" s="0" t="n"/>
-      <c r="E87" s="77" t="s"/>
-      <c r="F87" s="93" t="s">
-        <v>187</v>
+      <c r="E87" s="92" t="s"/>
+      <c r="F87" s="23" t="s">
+        <v>192</v>
       </c>
       <c r="G87" s="21" t="s">
-        <v>188</v>
-      </c>
-      <c r="H87" s="67" t="n"/>
-      <c r="I87" s="0" t="n"/>
+        <v>193</v>
+      </c>
+      <c r="H87" s="110" t="s">
+        <v>194</v>
+      </c>
+      <c r="I87" s="0" t="s">
+        <v>22</v>
+      </c>
       <c r="J87" s="21" t="s">
         <v>15</v>
       </c>
     </row>
     <row outlineLevel="0" r="88">
-      <c r="A88" s="76" t="s"/>
-      <c r="B88" s="65" t="s"/>
+      <c r="A88" s="90" t="s"/>
+      <c r="B88" s="91" t="s"/>
       <c r="C88" s="0" t="n"/>
       <c r="D88" s="0" t="n"/>
-      <c r="E88" s="77" t="s"/>
-      <c r="F88" s="23" t="s">
-        <v>191</v>
+      <c r="E88" s="92" t="s"/>
+      <c r="F88" s="109" t="s">
+        <v>195</v>
       </c>
       <c r="G88" s="21" t="s">
-        <v>192</v>
-      </c>
-      <c r="H88" s="94" t="s">
-        <v>193</v>
-      </c>
-      <c r="I88" s="0" t="n"/>
+        <v>196</v>
+      </c>
+      <c r="H88" s="43" t="n"/>
+      <c r="I88" s="0" t="s">
+        <v>22</v>
+      </c>
       <c r="J88" s="21" t="s">
         <v>15</v>
       </c>
     </row>
     <row outlineLevel="0" r="89">
-      <c r="A89" s="76" t="s"/>
-      <c r="B89" s="65" t="s"/>
+      <c r="A89" s="90" t="s"/>
+      <c r="B89" s="91" t="s"/>
       <c r="C89" s="0" t="n"/>
       <c r="D89" s="0" t="n"/>
-      <c r="E89" s="77" t="s"/>
+      <c r="E89" s="92" t="s"/>
       <c r="F89" s="20" t="s">
+        <v>197</v>
+      </c>
+      <c r="G89" s="21" t="s">
+        <v>198</v>
+      </c>
+      <c r="H89" s="110" t="s">
         <v>194</v>
       </c>
-      <c r="G89" s="24" t="s">
-        <v>195</v>
-      </c>
-      <c r="H89" s="94" t="s">
-        <v>196</v>
-      </c>
-      <c r="I89" s="0" t="n"/>
+      <c r="I89" s="0" t="s">
+        <v>22</v>
+      </c>
       <c r="J89" s="21" t="s">
         <v>15</v>
       </c>
     </row>
     <row outlineLevel="0" r="90">
-      <c r="A90" s="76" t="s"/>
-      <c r="B90" s="65" t="s"/>
+      <c r="A90" s="90" t="s"/>
+      <c r="B90" s="91" t="s"/>
       <c r="C90" s="0" t="n"/>
       <c r="D90" s="0" t="n"/>
-      <c r="E90" s="77" t="s"/>
-      <c r="F90" s="23" t="s">
-        <v>179</v>
+      <c r="E90" s="92" t="s"/>
+      <c r="F90" s="109" t="s">
+        <v>195</v>
       </c>
       <c r="G90" s="21" t="s">
-        <v>197</v>
-      </c>
-      <c r="H90" s="67" t="n"/>
-      <c r="I90" s="0" t="n"/>
+        <v>196</v>
+      </c>
+      <c r="H90" s="43" t="n"/>
+      <c r="I90" s="0" t="s">
+        <v>22</v>
+      </c>
       <c r="J90" s="21" t="s">
         <v>15</v>
       </c>
     </row>
     <row outlineLevel="0" r="91">
-      <c r="A91" s="76" t="s"/>
-      <c r="B91" s="65" t="s"/>
+      <c r="A91" s="90" t="s"/>
+      <c r="B91" s="91" t="s"/>
       <c r="C91" s="0" t="n"/>
       <c r="D91" s="0" t="n"/>
-      <c r="E91" s="77" t="s"/>
-      <c r="F91" s="23" t="s">
-        <v>198</v>
-      </c>
-      <c r="G91" s="21" t="s">
+      <c r="E91" s="92" t="s"/>
+      <c r="F91" s="111" t="s">
         <v>199</v>
       </c>
-      <c r="H91" s="67" t="n"/>
-      <c r="I91" s="0" t="n"/>
+      <c r="G91" s="112" t="s">
+        <v>200</v>
+      </c>
+      <c r="H91" s="110" t="s">
+        <v>201</v>
+      </c>
+      <c r="I91" s="0" t="s">
+        <v>22</v>
+      </c>
       <c r="J91" s="21" t="s">
         <v>15</v>
       </c>
     </row>
     <row outlineLevel="0" r="92">
-      <c r="A92" s="76" t="s"/>
-      <c r="B92" s="65" t="s"/>
+      <c r="A92" s="90" t="s"/>
+      <c r="B92" s="91" t="s"/>
       <c r="C92" s="0" t="n"/>
       <c r="D92" s="0" t="n"/>
-      <c r="E92" s="77" t="s"/>
-      <c r="F92" s="23" t="s">
-        <v>200</v>
-      </c>
-      <c r="G92" s="21" t="s">
-        <v>201</v>
-      </c>
-      <c r="H92" s="67" t="n"/>
-      <c r="I92" s="0" t="n"/>
+      <c r="E92" s="92" t="s"/>
+      <c r="F92" s="111" t="s">
+        <v>181</v>
+      </c>
+      <c r="G92" s="112" t="s">
+        <v>202</v>
+      </c>
+      <c r="H92" s="43" t="n"/>
+      <c r="I92" s="0" t="s">
+        <v>22</v>
+      </c>
       <c r="J92" s="21" t="s">
         <v>15</v>
       </c>
     </row>
     <row outlineLevel="0" r="93">
-      <c r="A93" s="76" t="s"/>
-      <c r="B93" s="65" t="s"/>
-      <c r="C93" s="95" t="n"/>
-      <c r="D93" s="95" t="n"/>
-      <c r="E93" s="77" t="s"/>
-      <c r="F93" s="20" t="s">
-        <v>202</v>
-      </c>
-      <c r="G93" s="24" t="s">
+      <c r="A93" s="90" t="s"/>
+      <c r="B93" s="91" t="s"/>
+      <c r="C93" s="0" t="n"/>
+      <c r="D93" s="0" t="n"/>
+      <c r="E93" s="92" t="s"/>
+      <c r="F93" s="111" t="s">
         <v>203</v>
       </c>
-      <c r="H93" s="96" t="n"/>
-      <c r="I93" s="0" t="n"/>
+      <c r="G93" s="112" t="s">
+        <v>204</v>
+      </c>
+      <c r="H93" s="43" t="n"/>
+      <c r="I93" s="0" t="s">
+        <v>22</v>
+      </c>
       <c r="J93" s="21" t="s">
         <v>15</v>
       </c>
     </row>
     <row outlineLevel="0" r="94">
-      <c r="A94" s="76" t="s"/>
-      <c r="B94" s="65" t="s"/>
-      <c r="C94" s="95" t="n"/>
-      <c r="D94" s="95" t="n"/>
-      <c r="E94" s="77" t="s"/>
-      <c r="F94" s="20" t="s">
-        <v>204</v>
-      </c>
-      <c r="G94" s="21" t="s">
+      <c r="A94" s="90" t="s"/>
+      <c r="B94" s="91" t="s"/>
+      <c r="C94" s="0" t="n"/>
+      <c r="D94" s="0" t="n"/>
+      <c r="E94" s="92" t="s"/>
+      <c r="F94" s="113" t="s">
         <v>205</v>
       </c>
-      <c r="H94" s="94" t="s">
+      <c r="G94" s="114" t="s">
         <v>206</v>
       </c>
-      <c r="I94" s="0" t="n"/>
+      <c r="H94" s="47" t="s">
+        <v>207</v>
+      </c>
+      <c r="I94" s="0" t="s">
+        <v>22</v>
+      </c>
       <c r="J94" s="21" t="s">
         <v>15</v>
       </c>
     </row>
     <row outlineLevel="0" r="95">
-      <c r="A95" s="76" t="s"/>
-      <c r="B95" s="65" t="s"/>
+      <c r="A95" s="90" t="s"/>
+      <c r="B95" s="91" t="s"/>
       <c r="C95" s="0" t="n"/>
       <c r="D95" s="0" t="n"/>
-      <c r="E95" s="77" t="s"/>
-      <c r="F95" s="97" t="s">
-        <v>187</v>
-      </c>
-      <c r="G95" s="21" t="s">
-        <v>188</v>
-      </c>
-      <c r="H95" s="67" t="n"/>
-      <c r="I95" s="0" t="n"/>
+      <c r="E95" s="92" t="s"/>
+      <c r="F95" s="111" t="s">
+        <v>208</v>
+      </c>
+      <c r="G95" s="112" t="s">
+        <v>209</v>
+      </c>
+      <c r="H95" s="43" t="n"/>
+      <c r="I95" s="0" t="s">
+        <v>22</v>
+      </c>
       <c r="J95" s="21" t="s">
         <v>15</v>
       </c>
     </row>
     <row outlineLevel="0" r="96">
-      <c r="A96" s="76" t="s"/>
-      <c r="B96" s="65" t="s"/>
-      <c r="C96" s="0" t="n"/>
-      <c r="D96" s="0" t="n"/>
-      <c r="E96" s="77" t="s"/>
-      <c r="F96" s="23" t="s">
-        <v>207</v>
-      </c>
-      <c r="G96" s="21" t="s">
-        <v>208</v>
-      </c>
-      <c r="H96" s="94" t="n"/>
-      <c r="I96" s="0" t="n"/>
+      <c r="A96" s="90" t="s"/>
+      <c r="B96" s="91" t="s"/>
+      <c r="C96" s="115" t="n"/>
+      <c r="D96" s="115" t="n"/>
+      <c r="E96" s="92" t="s"/>
+      <c r="F96" s="113" t="s">
+        <v>210</v>
+      </c>
+      <c r="G96" s="114" t="s">
+        <v>211</v>
+      </c>
+      <c r="H96" s="116" t="n"/>
+      <c r="I96" s="0" t="s">
+        <v>22</v>
+      </c>
       <c r="J96" s="21" t="s">
         <v>15</v>
       </c>
     </row>
     <row outlineLevel="0" r="97">
-      <c r="A97" s="76" t="s"/>
-      <c r="B97" s="65" t="s"/>
-      <c r="C97" s="95" t="n"/>
-      <c r="D97" s="95" t="n"/>
-      <c r="E97" s="77" t="s"/>
-      <c r="F97" s="20" t="s">
-        <v>194</v>
-      </c>
-      <c r="G97" s="24" t="s">
-        <v>195</v>
-      </c>
-      <c r="H97" s="94" t="s">
-        <v>196</v>
-      </c>
-      <c r="I97" s="0" t="n"/>
+      <c r="A97" s="90" t="s"/>
+      <c r="B97" s="91" t="s"/>
+      <c r="C97" s="115" t="n"/>
+      <c r="D97" s="115" t="n"/>
+      <c r="E97" s="92" t="s"/>
+      <c r="F97" s="113" t="s">
+        <v>212</v>
+      </c>
+      <c r="G97" s="112" t="s">
+        <v>213</v>
+      </c>
+      <c r="H97" s="110" t="s">
+        <v>214</v>
+      </c>
+      <c r="I97" s="0" t="s">
+        <v>22</v>
+      </c>
       <c r="J97" s="21" t="s">
         <v>15</v>
       </c>
     </row>
     <row outlineLevel="0" r="98">
-      <c r="A98" s="76" t="s"/>
-      <c r="B98" s="65" t="s"/>
+      <c r="A98" s="90" t="s"/>
+      <c r="B98" s="91" t="s"/>
       <c r="C98" s="0" t="n"/>
       <c r="D98" s="0" t="n"/>
-      <c r="E98" s="77" t="s"/>
-      <c r="F98" s="23" t="s">
-        <v>209</v>
+      <c r="E98" s="92" t="s"/>
+      <c r="F98" s="117" t="s">
+        <v>195</v>
       </c>
       <c r="G98" s="21" t="s">
-        <v>210</v>
-      </c>
-      <c r="H98" s="67" t="n"/>
-      <c r="I98" s="0" t="n"/>
+        <v>196</v>
+      </c>
+      <c r="H98" s="43" t="n"/>
+      <c r="I98" s="0" t="s">
+        <v>22</v>
+      </c>
       <c r="J98" s="21" t="s">
         <v>15</v>
       </c>
     </row>
     <row outlineLevel="0" r="99">
-      <c r="A99" s="76" t="s"/>
-      <c r="B99" s="98" t="s"/>
+      <c r="A99" s="90" t="s"/>
+      <c r="B99" s="91" t="s"/>
       <c r="C99" s="0" t="n"/>
       <c r="D99" s="0" t="n"/>
-      <c r="E99" s="77" t="s"/>
-      <c r="F99" s="23" t="s">
-        <v>200</v>
-      </c>
-      <c r="G99" s="21" t="s">
-        <v>211</v>
-      </c>
-      <c r="H99" s="67" t="n"/>
-      <c r="I99" s="0" t="n"/>
+      <c r="E99" s="92" t="s"/>
+      <c r="F99" s="118" t="s">
+        <v>215</v>
+      </c>
+      <c r="G99" s="119" t="s">
+        <v>216</v>
+      </c>
+      <c r="H99" s="110" t="s">
+        <v>214</v>
+      </c>
+      <c r="I99" s="0" t="s">
+        <v>22</v>
+      </c>
       <c r="J99" s="21" t="s">
         <v>15</v>
       </c>
     </row>
     <row outlineLevel="0" r="100">
-      <c r="A100" s="0" t="n"/>
-      <c r="B100" s="99" t="n"/>
-      <c r="C100" s="68" t="n"/>
-      <c r="D100" s="68" t="n"/>
-      <c r="E100" s="0" t="n"/>
-      <c r="F100" s="69" t="s">
-        <v>200</v>
-      </c>
-      <c r="G100" s="70" t="s">
-        <v>212</v>
-      </c>
-      <c r="H100" s="71" t="n"/>
-      <c r="I100" s="29" t="n"/>
-      <c r="J100" s="32" t="s">
+      <c r="A100" s="90" t="s"/>
+      <c r="B100" s="91" t="s"/>
+      <c r="C100" s="0" t="n"/>
+      <c r="D100" s="0" t="n"/>
+      <c r="E100" s="92" t="s"/>
+      <c r="F100" s="118" t="s">
+        <v>217</v>
+      </c>
+      <c r="G100" s="119" t="s">
+        <v>218</v>
+      </c>
+      <c r="H100" s="43" t="n"/>
+      <c r="I100" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="J100" s="21" t="s">
         <v>15</v>
       </c>
     </row>
     <row outlineLevel="0" r="101">
-      <c r="A101" s="73" t="n">
-        <v>15</v>
-      </c>
-      <c r="B101" s="11" t="s">
-        <v>213</v>
-      </c>
-      <c r="C101" s="12" t="n"/>
-      <c r="D101" s="12" t="n"/>
-      <c r="E101" s="79" t="s">
-        <v>64</v>
-      </c>
-      <c r="F101" s="14" t="s">
-        <v>202</v>
-      </c>
-      <c r="G101" s="84" t="s">
-        <v>214</v>
-      </c>
-      <c r="H101" s="16" t="n"/>
-      <c r="I101" s="12" t="n"/>
-      <c r="J101" s="15" t="s">
+      <c r="A101" s="90" t="s"/>
+      <c r="B101" s="91" t="s"/>
+      <c r="C101" s="0" t="n"/>
+      <c r="D101" s="0" t="n"/>
+      <c r="E101" s="92" t="s"/>
+      <c r="F101" s="118" t="s">
+        <v>208</v>
+      </c>
+      <c r="G101" s="119" t="s">
+        <v>219</v>
+      </c>
+      <c r="H101" s="43" t="n"/>
+      <c r="I101" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="J101" s="21" t="s">
         <v>15</v>
       </c>
     </row>
     <row outlineLevel="0" r="102">
-      <c r="A102" s="76" t="s"/>
-      <c r="B102" s="18" t="s"/>
+      <c r="A102" s="90" t="s"/>
+      <c r="B102" s="91" t="s"/>
       <c r="C102" s="0" t="n"/>
       <c r="D102" s="0" t="n"/>
-      <c r="E102" s="81" t="s"/>
-      <c r="F102" s="20" t="s">
-        <v>215</v>
-      </c>
-      <c r="G102" s="21" t="s">
-        <v>216</v>
-      </c>
-      <c r="H102" s="89" t="s">
-        <v>217</v>
-      </c>
-      <c r="I102" s="0" t="n"/>
+      <c r="E102" s="92" t="s"/>
+      <c r="F102" s="120" t="s">
+        <v>205</v>
+      </c>
+      <c r="G102" s="121" t="s">
+        <v>206</v>
+      </c>
+      <c r="H102" s="47" t="s">
+        <v>207</v>
+      </c>
+      <c r="I102" s="0" t="s">
+        <v>22</v>
+      </c>
       <c r="J102" s="21" t="s">
         <v>15</v>
       </c>
     </row>
     <row outlineLevel="0" r="103">
-      <c r="A103" s="76" t="s"/>
-      <c r="B103" s="18" t="s"/>
-      <c r="C103" s="0" t="n"/>
-      <c r="D103" s="0" t="n"/>
-      <c r="E103" s="81" t="s"/>
-      <c r="F103" s="20" t="s">
-        <v>172</v>
-      </c>
-      <c r="G103" s="21" t="s">
-        <v>173</v>
-      </c>
-      <c r="H103" s="22" t="n"/>
-      <c r="I103" s="0" t="n"/>
-      <c r="J103" s="21" t="s">
+      <c r="A103" s="122" t="s"/>
+      <c r="B103" s="94" t="s"/>
+      <c r="C103" s="58" t="n"/>
+      <c r="D103" s="58" t="n"/>
+      <c r="E103" s="95" t="s"/>
+      <c r="F103" s="123" t="s">
+        <v>208</v>
+      </c>
+      <c r="G103" s="124" t="s">
+        <v>220</v>
+      </c>
+      <c r="H103" s="59" t="n"/>
+      <c r="I103" s="29" t="s">
+        <v>22</v>
+      </c>
+      <c r="J103" s="32" t="s">
         <v>15</v>
       </c>
     </row>
     <row outlineLevel="0" r="104">
-      <c r="A104" s="76" t="s"/>
-      <c r="B104" s="18" t="s"/>
-      <c r="C104" s="0" t="n"/>
-      <c r="D104" s="0" t="n"/>
-      <c r="E104" s="81" t="s"/>
-      <c r="F104" s="20" t="s">
-        <v>218</v>
-      </c>
-      <c r="G104" s="24" t="s">
-        <v>219</v>
-      </c>
-      <c r="H104" s="22" t="n"/>
-      <c r="I104" s="0" t="n"/>
-      <c r="J104" s="21" t="s">
+      <c r="A104" s="61" t="n">
+        <v>15</v>
+      </c>
+      <c r="B104" s="76" t="s">
+        <v>221</v>
+      </c>
+      <c r="C104" s="12" t="n"/>
+      <c r="D104" s="12" t="n"/>
+      <c r="E104" s="68" t="s">
+        <v>65</v>
+      </c>
+      <c r="F104" s="14" t="s">
+        <v>210</v>
+      </c>
+      <c r="G104" s="73" t="s">
+        <v>222</v>
+      </c>
+      <c r="H104" s="16" t="n"/>
+      <c r="I104" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="J104" s="15" t="s">
         <v>15</v>
       </c>
     </row>
     <row outlineLevel="0" r="105">
-      <c r="A105" s="76" t="s"/>
-      <c r="B105" s="18" t="s"/>
+      <c r="A105" s="64" t="s"/>
+      <c r="B105" s="78" t="s"/>
       <c r="C105" s="0" t="n"/>
       <c r="D105" s="0" t="n"/>
-      <c r="E105" s="81" t="s"/>
+      <c r="E105" s="70" t="s"/>
       <c r="F105" s="20" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="G105" s="21" t="s">
-        <v>221</v>
-      </c>
-      <c r="H105" s="22" t="n"/>
-      <c r="I105" s="0" t="n"/>
+        <v>224</v>
+      </c>
+      <c r="H105" s="86" t="s">
+        <v>225</v>
+      </c>
+      <c r="I105" s="0" t="s">
+        <v>22</v>
+      </c>
       <c r="J105" s="21" t="s">
         <v>15</v>
       </c>
     </row>
     <row outlineLevel="0" r="106">
-      <c r="A106" s="76" t="s"/>
-      <c r="B106" s="18" t="s"/>
+      <c r="A106" s="64" t="s"/>
+      <c r="B106" s="78" t="s"/>
       <c r="C106" s="0" t="n"/>
       <c r="D106" s="0" t="n"/>
-      <c r="E106" s="81" t="s"/>
+      <c r="E106" s="70" t="s"/>
       <c r="F106" s="20" t="s">
-        <v>222</v>
+        <v>174</v>
       </c>
       <c r="G106" s="21" t="s">
-        <v>223</v>
+        <v>175</v>
       </c>
       <c r="H106" s="22" t="n"/>
-      <c r="I106" s="0" t="n"/>
+      <c r="I106" s="0" t="s">
+        <v>22</v>
+      </c>
       <c r="J106" s="21" t="s">
         <v>15</v>
       </c>
     </row>
     <row outlineLevel="0" r="107">
-      <c r="A107" s="76" t="s"/>
-      <c r="B107" s="18" t="s"/>
+      <c r="A107" s="64" t="s"/>
+      <c r="B107" s="78" t="s"/>
       <c r="C107" s="0" t="n"/>
       <c r="D107" s="0" t="n"/>
-      <c r="E107" s="81" t="s"/>
-      <c r="F107" s="100" t="s">
-        <v>133</v>
+      <c r="E107" s="70" t="s"/>
+      <c r="F107" s="20" t="s">
+        <v>226</v>
       </c>
       <c r="G107" s="24" t="s">
-        <v>134</v>
+        <v>227</v>
       </c>
       <c r="H107" s="22" t="n"/>
-      <c r="I107" s="0" t="n"/>
+      <c r="I107" s="0" t="s">
+        <v>22</v>
+      </c>
       <c r="J107" s="21" t="s">
         <v>15</v>
       </c>
     </row>
     <row outlineLevel="0" r="108">
-      <c r="A108" s="76" t="s"/>
-      <c r="B108" s="18" t="s"/>
+      <c r="A108" s="64" t="s"/>
+      <c r="B108" s="78" t="s"/>
       <c r="C108" s="0" t="n"/>
       <c r="D108" s="0" t="n"/>
-      <c r="E108" s="81" t="s"/>
-      <c r="F108" s="100" t="s">
-        <v>135</v>
-      </c>
-      <c r="G108" s="24" t="s">
-        <v>136</v>
+      <c r="E108" s="70" t="s"/>
+      <c r="F108" s="20" t="s">
+        <v>228</v>
+      </c>
+      <c r="G108" s="21" t="s">
+        <v>229</v>
       </c>
       <c r="H108" s="22" t="n"/>
-      <c r="I108" s="0" t="n"/>
+      <c r="I108" s="0" t="s">
+        <v>22</v>
+      </c>
       <c r="J108" s="21" t="s">
         <v>15</v>
       </c>
     </row>
     <row outlineLevel="0" r="109">
-      <c r="A109" s="76" t="s"/>
-      <c r="B109" s="18" t="s"/>
+      <c r="A109" s="64" t="s"/>
+      <c r="B109" s="78" t="s"/>
       <c r="C109" s="0" t="n"/>
       <c r="D109" s="0" t="n"/>
-      <c r="E109" s="81" t="s"/>
-      <c r="F109" s="20" t="s">
-        <v>224</v>
-      </c>
-      <c r="G109" s="21" t="s">
-        <v>225</v>
-      </c>
-      <c r="H109" s="89" t="s">
-        <v>196</v>
-      </c>
-      <c r="I109" s="0" t="n"/>
+      <c r="E109" s="70" t="s"/>
+      <c r="F109" s="81" t="s">
+        <v>230</v>
+      </c>
+      <c r="G109" s="125" t="s">
+        <v>231</v>
+      </c>
+      <c r="H109" s="83" t="s">
+        <v>134</v>
+      </c>
+      <c r="I109" s="0" t="s">
+        <v>22</v>
+      </c>
       <c r="J109" s="21" t="s">
         <v>15</v>
       </c>
     </row>
     <row outlineLevel="0" r="110">
-      <c r="A110" s="76" t="s"/>
-      <c r="B110" s="18" t="s"/>
+      <c r="A110" s="64" t="s"/>
+      <c r="B110" s="78" t="s"/>
       <c r="C110" s="0" t="n"/>
       <c r="D110" s="0" t="n"/>
-      <c r="E110" s="81" t="s"/>
-      <c r="F110" s="23" t="s">
-        <v>138</v>
-      </c>
-      <c r="G110" s="21" t="s">
-        <v>226</v>
+      <c r="E110" s="70" t="s"/>
+      <c r="F110" s="84" t="s">
+        <v>135</v>
+      </c>
+      <c r="G110" s="24" t="s">
+        <v>136</v>
       </c>
       <c r="H110" s="22" t="n"/>
-      <c r="I110" s="0" t="n"/>
+      <c r="I110" s="0" t="s">
+        <v>22</v>
+      </c>
       <c r="J110" s="21" t="s">
         <v>15</v>
       </c>
     </row>
     <row outlineLevel="0" r="111">
-      <c r="A111" s="76" t="s"/>
-      <c r="B111" s="18" t="s"/>
+      <c r="A111" s="64" t="s"/>
+      <c r="B111" s="78" t="s"/>
       <c r="C111" s="0" t="n"/>
       <c r="D111" s="0" t="n"/>
-      <c r="E111" s="81" t="s"/>
-      <c r="F111" s="23" t="s">
-        <v>179</v>
-      </c>
-      <c r="G111" s="21" t="s">
-        <v>227</v>
+      <c r="E111" s="70" t="s"/>
+      <c r="F111" s="85" t="s">
+        <v>137</v>
+      </c>
+      <c r="G111" s="24" t="s">
+        <v>138</v>
       </c>
       <c r="H111" s="22" t="n"/>
-      <c r="I111" s="0" t="n"/>
+      <c r="I111" s="0" t="s">
+        <v>22</v>
+      </c>
       <c r="J111" s="21" t="s">
         <v>15</v>
       </c>
     </row>
     <row outlineLevel="0" r="112">
-      <c r="A112" s="76" t="s"/>
-      <c r="B112" s="18" t="s"/>
+      <c r="A112" s="64" t="s"/>
+      <c r="B112" s="78" t="s"/>
       <c r="C112" s="0" t="n"/>
       <c r="D112" s="0" t="n"/>
-      <c r="E112" s="81" t="s"/>
+      <c r="E112" s="70" t="s"/>
       <c r="F112" s="20" t="s">
-        <v>228</v>
-      </c>
-      <c r="G112" s="24" t="s">
-        <v>229</v>
-      </c>
-      <c r="H112" s="22" t="n"/>
-      <c r="I112" s="0" t="n"/>
+        <v>232</v>
+      </c>
+      <c r="G112" s="21" t="s">
+        <v>233</v>
+      </c>
+      <c r="H112" s="86" t="s">
+        <v>207</v>
+      </c>
+      <c r="I112" s="0" t="s">
+        <v>22</v>
+      </c>
       <c r="J112" s="21" t="s">
         <v>15</v>
       </c>
     </row>
     <row outlineLevel="0" r="113">
-      <c r="A113" s="0" t="n"/>
-      <c r="B113" s="0" t="n"/>
-      <c r="C113" s="29" t="n"/>
-      <c r="D113" s="29" t="n"/>
-      <c r="E113" s="0" t="n"/>
-      <c r="F113" s="82" t="s">
-        <v>230</v>
-      </c>
-      <c r="G113" s="32" t="s">
-        <v>231</v>
-      </c>
-      <c r="H113" s="33" t="n"/>
-      <c r="I113" s="29" t="n"/>
-      <c r="J113" s="32" t="s">
+      <c r="A113" s="64" t="s"/>
+      <c r="B113" s="78" t="s"/>
+      <c r="C113" s="0" t="n"/>
+      <c r="D113" s="0" t="n"/>
+      <c r="E113" s="70" t="s"/>
+      <c r="F113" s="23" t="s">
+        <v>140</v>
+      </c>
+      <c r="G113" s="21" t="s">
+        <v>234</v>
+      </c>
+      <c r="H113" s="22" t="n"/>
+      <c r="I113" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="J113" s="21" t="s">
         <v>15</v>
       </c>
     </row>
     <row outlineLevel="0" r="114">
-      <c r="A114" s="73" t="n">
-        <v>16</v>
-      </c>
-      <c r="B114" s="101" t="s">
-        <v>151</v>
-      </c>
-      <c r="C114" s="59" t="n"/>
-      <c r="D114" s="59" t="n"/>
-      <c r="E114" s="74" t="s">
-        <v>64</v>
-      </c>
-      <c r="F114" s="61" t="s">
-        <v>128</v>
-      </c>
-      <c r="G114" s="102" t="s">
-        <v>100</v>
-      </c>
-      <c r="H114" s="63" t="n"/>
-      <c r="I114" s="12" t="n"/>
-      <c r="J114" s="15" t="s">
+      <c r="A114" s="64" t="s"/>
+      <c r="B114" s="78" t="s"/>
+      <c r="C114" s="0" t="n"/>
+      <c r="D114" s="0" t="n"/>
+      <c r="E114" s="70" t="s"/>
+      <c r="F114" s="23" t="s">
+        <v>181</v>
+      </c>
+      <c r="G114" s="21" t="s">
+        <v>235</v>
+      </c>
+      <c r="H114" s="22" t="n"/>
+      <c r="I114" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="J114" s="21" t="s">
         <v>15</v>
       </c>
     </row>
     <row outlineLevel="0" r="115">
-      <c r="A115" s="76" t="s"/>
-      <c r="B115" s="18" t="s"/>
+      <c r="A115" s="64" t="s"/>
+      <c r="B115" s="78" t="s"/>
       <c r="C115" s="0" t="n"/>
       <c r="D115" s="0" t="n"/>
-      <c r="E115" s="77" t="s"/>
+      <c r="E115" s="70" t="s"/>
       <c r="F115" s="20" t="s">
-        <v>232</v>
-      </c>
-      <c r="G115" s="21" t="s">
-        <v>233</v>
-      </c>
-      <c r="H115" s="67" t="n"/>
-      <c r="I115" s="0" t="n"/>
+        <v>236</v>
+      </c>
+      <c r="G115" s="24" t="s">
+        <v>237</v>
+      </c>
+      <c r="H115" s="22" t="n"/>
+      <c r="I115" s="0" t="s">
+        <v>22</v>
+      </c>
       <c r="J115" s="21" t="s">
         <v>15</v>
       </c>
     </row>
     <row outlineLevel="0" r="116">
-      <c r="A116" s="76" t="s"/>
-      <c r="B116" s="18" t="s"/>
-      <c r="C116" s="0" t="n"/>
-      <c r="D116" s="0" t="n"/>
-      <c r="E116" s="77" t="s"/>
-      <c r="F116" s="103" t="s">
-        <v>234</v>
-      </c>
-      <c r="G116" s="104" t="s">
-        <v>235</v>
-      </c>
-      <c r="H116" s="105" t="n"/>
-      <c r="I116" s="106" t="n"/>
-      <c r="J116" s="107" t="s">
+      <c r="A116" s="64" t="s"/>
+      <c r="B116" s="78" t="s"/>
+      <c r="C116" s="29" t="n"/>
+      <c r="D116" s="29" t="n"/>
+      <c r="E116" s="70" t="s"/>
+      <c r="F116" s="71" t="s">
+        <v>238</v>
+      </c>
+      <c r="G116" s="32" t="s">
+        <v>239</v>
+      </c>
+      <c r="H116" s="33" t="n"/>
+      <c r="I116" s="29" t="s">
+        <v>22</v>
+      </c>
+      <c r="J116" s="32" t="s">
         <v>15</v>
       </c>
     </row>
     <row outlineLevel="0" r="117">
-      <c r="A117" s="0" t="n"/>
-      <c r="B117" s="0" t="n"/>
-      <c r="C117" s="68" t="n"/>
-      <c r="D117" s="68" t="n"/>
-      <c r="E117" s="0" t="n"/>
-      <c r="F117" s="78" t="s">
-        <v>236</v>
-      </c>
-      <c r="G117" s="70" t="s">
-        <v>237</v>
-      </c>
-      <c r="H117" s="71" t="n"/>
-      <c r="I117" s="29" t="n"/>
-      <c r="J117" s="32" t="s">
+      <c r="A117" s="61" t="n">
+        <v>16</v>
+      </c>
+      <c r="B117" s="80" t="s">
+        <v>153</v>
+      </c>
+      <c r="C117" s="35" t="n"/>
+      <c r="D117" s="35" t="n"/>
+      <c r="E117" s="62" t="s">
+        <v>65</v>
+      </c>
+      <c r="F117" s="37" t="s">
+        <v>129</v>
+      </c>
+      <c r="G117" s="126" t="s">
+        <v>101</v>
+      </c>
+      <c r="H117" s="55" t="n"/>
+      <c r="I117" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="J117" s="15" t="s">
         <v>15</v>
       </c>
     </row>
     <row outlineLevel="0" r="118">
-      <c r="A118" s="73" t="n">
-        <v>17</v>
-      </c>
-      <c r="B118" s="11" t="s">
-        <v>238</v>
-      </c>
-      <c r="C118" s="12" t="n"/>
-      <c r="D118" s="12" t="n"/>
-      <c r="E118" s="79" t="s">
-        <v>64</v>
-      </c>
-      <c r="F118" s="108" t="s">
-        <v>239</v>
-      </c>
-      <c r="G118" s="92" t="s">
-        <v>173</v>
-      </c>
-      <c r="H118" s="16" t="n"/>
-      <c r="I118" s="12" t="n"/>
-      <c r="J118" s="15" t="s">
+      <c r="A118" s="64" t="s"/>
+      <c r="B118" s="78" t="s"/>
+      <c r="C118" s="0" t="n"/>
+      <c r="D118" s="0" t="n"/>
+      <c r="E118" s="65" t="s"/>
+      <c r="F118" s="20" t="s">
+        <v>240</v>
+      </c>
+      <c r="G118" s="21" t="s">
+        <v>241</v>
+      </c>
+      <c r="H118" s="43" t="n"/>
+      <c r="I118" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="J118" s="21" t="s">
         <v>15</v>
       </c>
     </row>
     <row outlineLevel="0" r="119">
-      <c r="A119" s="76" t="s"/>
-      <c r="B119" s="18" t="s"/>
+      <c r="A119" s="64" t="s"/>
+      <c r="B119" s="78" t="s"/>
       <c r="C119" s="0" t="n"/>
       <c r="D119" s="0" t="n"/>
-      <c r="E119" s="81" t="s"/>
-      <c r="F119" s="20" t="s">
-        <v>240</v>
-      </c>
-      <c r="G119" s="21" t="s">
-        <v>184</v>
-      </c>
-      <c r="H119" s="22" t="n"/>
-      <c r="I119" s="0" t="n"/>
-      <c r="J119" s="21" t="s">
+      <c r="E119" s="65" t="s"/>
+      <c r="F119" s="127" t="s">
+        <v>242</v>
+      </c>
+      <c r="G119" s="128" t="s">
+        <v>243</v>
+      </c>
+      <c r="H119" s="129" t="n"/>
+      <c r="I119" s="130" t="s">
+        <v>22</v>
+      </c>
+      <c r="J119" s="125" t="s">
         <v>15</v>
       </c>
     </row>
     <row outlineLevel="0" r="120">
-      <c r="A120" s="76" t="s"/>
-      <c r="B120" s="18" t="s"/>
-      <c r="C120" s="0" t="n"/>
-      <c r="D120" s="0" t="n"/>
-      <c r="E120" s="81" t="s"/>
-      <c r="F120" s="23" t="s">
-        <v>191</v>
-      </c>
-      <c r="G120" s="21" t="s">
-        <v>192</v>
-      </c>
-      <c r="H120" s="94" t="s">
-        <v>193</v>
-      </c>
-      <c r="I120" s="0" t="n"/>
-      <c r="J120" s="21" t="s">
+      <c r="A120" s="64" t="s"/>
+      <c r="B120" s="78" t="s"/>
+      <c r="C120" s="58" t="n"/>
+      <c r="D120" s="58" t="n"/>
+      <c r="E120" s="65" t="s"/>
+      <c r="F120" s="66" t="s">
+        <v>244</v>
+      </c>
+      <c r="G120" s="50" t="s">
+        <v>245</v>
+      </c>
+      <c r="H120" s="96" t="s">
+        <v>246</v>
+      </c>
+      <c r="I120" s="29" t="s">
+        <v>22</v>
+      </c>
+      <c r="J120" s="32" t="s">
         <v>15</v>
       </c>
     </row>
     <row outlineLevel="0" r="121">
-      <c r="A121" s="76" t="s"/>
-      <c r="B121" s="18" t="s"/>
-      <c r="C121" s="0" t="n"/>
-      <c r="D121" s="0" t="n"/>
-      <c r="E121" s="81" t="s"/>
-      <c r="F121" s="20" t="s">
-        <v>241</v>
-      </c>
-      <c r="G121" s="21" t="s">
-        <v>237</v>
-      </c>
-      <c r="H121" s="22" t="n"/>
-      <c r="I121" s="0" t="n"/>
-      <c r="J121" s="21" t="s">
+      <c r="A121" s="61" t="n">
+        <v>17</v>
+      </c>
+      <c r="B121" s="76" t="s">
+        <v>247</v>
+      </c>
+      <c r="C121" s="12" t="n"/>
+      <c r="D121" s="12" t="n"/>
+      <c r="E121" s="68" t="s">
+        <v>65</v>
+      </c>
+      <c r="F121" s="131" t="s">
+        <v>248</v>
+      </c>
+      <c r="G121" s="100" t="s">
+        <v>175</v>
+      </c>
+      <c r="H121" s="16" t="n"/>
+      <c r="I121" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="J121" s="15" t="s">
         <v>15</v>
       </c>
     </row>
     <row outlineLevel="0" r="122">
-      <c r="A122" s="76" t="s"/>
-      <c r="B122" s="18" t="s"/>
+      <c r="A122" s="64" t="s"/>
+      <c r="B122" s="78" t="s"/>
       <c r="C122" s="0" t="n"/>
       <c r="D122" s="0" t="n"/>
-      <c r="E122" s="81" t="s"/>
-      <c r="F122" s="23" t="s">
-        <v>242</v>
+      <c r="E122" s="70" t="s"/>
+      <c r="F122" s="20" t="s">
+        <v>249</v>
       </c>
       <c r="G122" s="21" t="s">
-        <v>192</v>
-      </c>
-      <c r="H122" s="94" t="s">
-        <v>193</v>
-      </c>
-      <c r="I122" s="0" t="n"/>
+        <v>191</v>
+      </c>
+      <c r="H122" s="22" t="n"/>
+      <c r="I122" s="0" t="s">
+        <v>22</v>
+      </c>
       <c r="J122" s="21" t="s">
         <v>15</v>
       </c>
     </row>
     <row outlineLevel="0" r="123">
-      <c r="A123" s="0" t="n"/>
-      <c r="B123" s="0" t="n"/>
-      <c r="C123" s="29" t="n"/>
-      <c r="D123" s="29" t="n"/>
-      <c r="E123" s="0" t="n"/>
-      <c r="F123" s="109" t="s">
-        <v>241</v>
-      </c>
-      <c r="G123" s="110" t="s">
-        <v>237</v>
-      </c>
-      <c r="H123" s="33" t="n"/>
-      <c r="I123" s="29" t="n"/>
-      <c r="J123" s="32" t="s">
+      <c r="A123" s="64" t="s"/>
+      <c r="B123" s="78" t="s"/>
+      <c r="C123" s="0" t="n"/>
+      <c r="D123" s="0" t="n"/>
+      <c r="E123" s="70" t="s"/>
+      <c r="F123" s="23" t="s">
+        <v>199</v>
+      </c>
+      <c r="G123" s="21" t="s">
+        <v>200</v>
+      </c>
+      <c r="H123" s="47" t="s">
+        <v>201</v>
+      </c>
+      <c r="I123" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="J123" s="21" t="s">
         <v>15</v>
       </c>
     </row>
     <row outlineLevel="0" r="124">
-      <c r="A124" s="73" t="n">
-        <v>18</v>
-      </c>
-      <c r="B124" s="11" t="s">
-        <v>243</v>
-      </c>
-      <c r="C124" s="12" t="n"/>
-      <c r="D124" s="12" t="n"/>
-      <c r="E124" s="79" t="s">
-        <v>64</v>
-      </c>
-      <c r="F124" s="14" t="s">
-        <v>202</v>
-      </c>
-      <c r="G124" s="84" t="s">
-        <v>214</v>
-      </c>
-      <c r="H124" s="16" t="n"/>
-      <c r="I124" s="12" t="n"/>
-      <c r="J124" s="15" t="s">
+      <c r="A124" s="64" t="s"/>
+      <c r="B124" s="78" t="s"/>
+      <c r="C124" s="0" t="n"/>
+      <c r="D124" s="0" t="n"/>
+      <c r="E124" s="70" t="s"/>
+      <c r="F124" s="20" t="s">
+        <v>250</v>
+      </c>
+      <c r="G124" s="21" t="s">
+        <v>245</v>
+      </c>
+      <c r="H124" s="86" t="s">
+        <v>251</v>
+      </c>
+      <c r="I124" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="J124" s="21" t="s">
         <v>15</v>
       </c>
     </row>
     <row outlineLevel="0" r="125">
-      <c r="A125" s="76" t="s"/>
-      <c r="B125" s="18" t="s"/>
+      <c r="A125" s="64" t="s"/>
+      <c r="B125" s="78" t="s"/>
       <c r="C125" s="0" t="n"/>
       <c r="D125" s="0" t="n"/>
-      <c r="E125" s="81" t="s"/>
-      <c r="F125" s="20" t="s">
-        <v>215</v>
+      <c r="E125" s="70" t="s"/>
+      <c r="F125" s="23" t="s">
+        <v>252</v>
       </c>
       <c r="G125" s="21" t="s">
-        <v>216</v>
-      </c>
-      <c r="H125" s="89" t="s">
-        <v>217</v>
-      </c>
-      <c r="I125" s="0" t="n"/>
+        <v>200</v>
+      </c>
+      <c r="H125" s="47" t="s">
+        <v>201</v>
+      </c>
+      <c r="I125" s="0" t="s">
+        <v>22</v>
+      </c>
       <c r="J125" s="21" t="s">
         <v>15</v>
       </c>
     </row>
     <row outlineLevel="0" r="126">
-      <c r="A126" s="76" t="s"/>
-      <c r="B126" s="18" t="s"/>
-      <c r="C126" s="0" t="n"/>
-      <c r="D126" s="0" t="n"/>
-      <c r="E126" s="81" t="s"/>
-      <c r="F126" s="20" t="s">
-        <v>172</v>
-      </c>
-      <c r="G126" s="21" t="s">
-        <v>173</v>
-      </c>
-      <c r="H126" s="22" t="n"/>
-      <c r="I126" s="0" t="n"/>
-      <c r="J126" s="21" t="s">
+      <c r="A126" s="64" t="s"/>
+      <c r="B126" s="78" t="s"/>
+      <c r="C126" s="29" t="n"/>
+      <c r="D126" s="29" t="n"/>
+      <c r="E126" s="70" t="s"/>
+      <c r="F126" s="132" t="s">
+        <v>250</v>
+      </c>
+      <c r="G126" s="133" t="s">
+        <v>245</v>
+      </c>
+      <c r="H126" s="72" t="s">
+        <v>251</v>
+      </c>
+      <c r="I126" s="29" t="s">
+        <v>22</v>
+      </c>
+      <c r="J126" s="32" t="s">
         <v>15</v>
       </c>
     </row>
     <row outlineLevel="0" r="127">
-      <c r="A127" s="76" t="s"/>
-      <c r="B127" s="18" t="s"/>
-      <c r="C127" s="0" t="n"/>
-      <c r="D127" s="0" t="n"/>
-      <c r="E127" s="81" t="s"/>
-      <c r="F127" s="20" t="s">
-        <v>218</v>
-      </c>
-      <c r="G127" s="24" t="s">
-        <v>219</v>
-      </c>
-      <c r="H127" s="22" t="n"/>
-      <c r="I127" s="0" t="n"/>
-      <c r="J127" s="21" t="s">
+      <c r="A127" s="61" t="n">
+        <v>18</v>
+      </c>
+      <c r="B127" s="76" t="s">
+        <v>253</v>
+      </c>
+      <c r="C127" s="12" t="n"/>
+      <c r="D127" s="12" t="n"/>
+      <c r="E127" s="68" t="s">
+        <v>65</v>
+      </c>
+      <c r="F127" s="14" t="s">
+        <v>210</v>
+      </c>
+      <c r="G127" s="73" t="s">
+        <v>222</v>
+      </c>
+      <c r="H127" s="16" t="n"/>
+      <c r="I127" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="J127" s="15" t="s">
         <v>15</v>
       </c>
     </row>
     <row outlineLevel="0" r="128">
-      <c r="A128" s="76" t="s"/>
-      <c r="B128" s="18" t="s"/>
+      <c r="A128" s="64" t="s"/>
+      <c r="B128" s="78" t="s"/>
       <c r="C128" s="0" t="n"/>
       <c r="D128" s="0" t="n"/>
-      <c r="E128" s="81" t="s"/>
+      <c r="E128" s="70" t="s"/>
       <c r="F128" s="20" t="s">
-        <v>244</v>
+        <v>223</v>
       </c>
       <c r="G128" s="21" t="s">
-        <v>237</v>
-      </c>
-      <c r="H128" s="22" t="n"/>
-      <c r="I128" s="0" t="n"/>
+        <v>224</v>
+      </c>
+      <c r="H128" s="86" t="s">
+        <v>225</v>
+      </c>
+      <c r="I128" s="0" t="s">
+        <v>22</v>
+      </c>
       <c r="J128" s="21" t="s">
         <v>15</v>
       </c>
     </row>
     <row outlineLevel="0" r="129">
-      <c r="A129" s="76" t="s"/>
-      <c r="B129" s="18" t="s"/>
+      <c r="A129" s="64" t="s"/>
+      <c r="B129" s="78" t="s"/>
       <c r="C129" s="0" t="n"/>
       <c r="D129" s="0" t="n"/>
-      <c r="E129" s="81" t="s"/>
-      <c r="F129" s="103" t="s">
-        <v>234</v>
-      </c>
-      <c r="G129" s="104" t="s">
-        <v>235</v>
-      </c>
-      <c r="H129" s="111" t="n"/>
-      <c r="I129" s="106" t="n"/>
-      <c r="J129" s="107" t="s">
+      <c r="E129" s="70" t="s"/>
+      <c r="F129" s="20" t="s">
+        <v>174</v>
+      </c>
+      <c r="G129" s="21" t="s">
+        <v>175</v>
+      </c>
+      <c r="H129" s="22" t="n"/>
+      <c r="I129" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="J129" s="21" t="s">
         <v>15</v>
       </c>
     </row>
     <row outlineLevel="0" r="130">
-      <c r="A130" s="0" t="n"/>
-      <c r="B130" s="0" t="n"/>
-      <c r="C130" s="29" t="n"/>
-      <c r="D130" s="29" t="n"/>
-      <c r="E130" s="0" t="n"/>
-      <c r="F130" s="78" t="s">
-        <v>236</v>
-      </c>
-      <c r="G130" s="70" t="s">
-        <v>237</v>
-      </c>
-      <c r="H130" s="33" t="n"/>
-      <c r="I130" s="29" t="n"/>
-      <c r="J130" s="32" t="s">
+      <c r="A130" s="64" t="s"/>
+      <c r="B130" s="78" t="s"/>
+      <c r="C130" s="0" t="n"/>
+      <c r="D130" s="0" t="n"/>
+      <c r="E130" s="70" t="s"/>
+      <c r="F130" s="20" t="s">
+        <v>226</v>
+      </c>
+      <c r="G130" s="24" t="s">
+        <v>227</v>
+      </c>
+      <c r="H130" s="22" t="n"/>
+      <c r="I130" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="J130" s="21" t="s">
         <v>15</v>
       </c>
     </row>
     <row outlineLevel="0" r="131">
-      <c r="A131" s="73" t="n">
-        <v>19</v>
-      </c>
-      <c r="B131" s="58" t="s">
+      <c r="A131" s="64" t="s"/>
+      <c r="B131" s="78" t="s"/>
+      <c r="C131" s="0" t="n"/>
+      <c r="D131" s="0" t="n"/>
+      <c r="E131" s="70" t="s"/>
+      <c r="F131" s="20" t="s">
+        <v>254</v>
+      </c>
+      <c r="G131" s="21" t="s">
         <v>245</v>
       </c>
-      <c r="C131" s="59" t="n"/>
-      <c r="D131" s="59" t="n"/>
-      <c r="E131" s="74" t="s">
-        <v>64</v>
-      </c>
-      <c r="F131" s="61" t="s">
-        <v>246</v>
-      </c>
-      <c r="G131" s="62" t="s">
-        <v>247</v>
-      </c>
-      <c r="H131" s="63" t="n"/>
-      <c r="I131" s="12" t="n"/>
-      <c r="J131" s="15" t="s">
+      <c r="H131" s="22" t="n"/>
+      <c r="I131" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="J131" s="21" t="s">
         <v>15</v>
       </c>
     </row>
     <row outlineLevel="0" r="132">
-      <c r="A132" s="76" t="s"/>
-      <c r="B132" s="65" t="s"/>
+      <c r="A132" s="64" t="s"/>
+      <c r="B132" s="78" t="s"/>
       <c r="C132" s="0" t="n"/>
       <c r="D132" s="0" t="n"/>
-      <c r="E132" s="77" t="s"/>
-      <c r="F132" s="20" t="s">
-        <v>248</v>
-      </c>
-      <c r="G132" s="21" t="s">
-        <v>249</v>
-      </c>
-      <c r="H132" s="67" t="n"/>
-      <c r="I132" s="0" t="n"/>
-      <c r="J132" s="21" t="s">
+      <c r="E132" s="70" t="s"/>
+      <c r="F132" s="127" t="s">
+        <v>242</v>
+      </c>
+      <c r="G132" s="128" t="s">
+        <v>243</v>
+      </c>
+      <c r="H132" s="83" t="n"/>
+      <c r="I132" s="130" t="s">
+        <v>22</v>
+      </c>
+      <c r="J132" s="125" t="s">
         <v>15</v>
       </c>
     </row>
     <row outlineLevel="0" r="133">
-      <c r="A133" s="76" t="s"/>
-      <c r="B133" s="65" t="s"/>
-      <c r="C133" s="0" t="n"/>
-      <c r="D133" s="0" t="n"/>
-      <c r="E133" s="77" t="s"/>
-      <c r="F133" s="20" t="s">
-        <v>250</v>
-      </c>
-      <c r="G133" s="21" t="s">
-        <v>251</v>
-      </c>
-      <c r="H133" s="67" t="n"/>
-      <c r="I133" s="0" t="n"/>
-      <c r="J133" s="21" t="s">
+      <c r="A133" s="64" t="s"/>
+      <c r="B133" s="78" t="s"/>
+      <c r="C133" s="29" t="n"/>
+      <c r="D133" s="29" t="n"/>
+      <c r="E133" s="70" t="s"/>
+      <c r="F133" s="66" t="s">
+        <v>244</v>
+      </c>
+      <c r="G133" s="50" t="s">
+        <v>245</v>
+      </c>
+      <c r="H133" s="33" t="n"/>
+      <c r="I133" s="29" t="s">
+        <v>22</v>
+      </c>
+      <c r="J133" s="32" t="s">
         <v>15</v>
       </c>
     </row>
     <row outlineLevel="0" r="134">
-      <c r="A134" s="76" t="s"/>
-      <c r="B134" s="65" t="s"/>
-      <c r="C134" s="0" t="n"/>
-      <c r="D134" s="0" t="n"/>
-      <c r="E134" s="77" t="s"/>
-      <c r="F134" s="88" t="s">
-        <v>252</v>
-      </c>
-      <c r="G134" s="112" t="s">
-        <v>253</v>
-      </c>
-      <c r="H134" s="67" t="n"/>
-      <c r="I134" s="0" t="n"/>
-      <c r="J134" s="21" t="s">
+      <c r="A134" s="61" t="n">
+        <v>19</v>
+      </c>
+      <c r="B134" s="134" t="s">
+        <v>255</v>
+      </c>
+      <c r="C134" s="35" t="n"/>
+      <c r="D134" s="35" t="n"/>
+      <c r="E134" s="62" t="s">
+        <v>65</v>
+      </c>
+      <c r="F134" s="37" t="s">
+        <v>256</v>
+      </c>
+      <c r="G134" s="38" t="s">
+        <v>257</v>
+      </c>
+      <c r="H134" s="55" t="n"/>
+      <c r="I134" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="J134" s="15" t="s">
         <v>15</v>
       </c>
     </row>
     <row outlineLevel="0" r="135">
-      <c r="A135" s="0" t="n"/>
-      <c r="B135" s="0" t="n"/>
-      <c r="C135" s="68" t="n"/>
-      <c r="D135" s="68" t="n"/>
-      <c r="E135" s="0" t="n"/>
-      <c r="F135" s="113" t="s">
-        <v>254</v>
-      </c>
-      <c r="G135" s="114" t="s">
-        <v>255</v>
-      </c>
-      <c r="H135" s="71" t="n"/>
-      <c r="I135" s="29" t="n"/>
-      <c r="J135" s="32" t="s">
+      <c r="A135" s="64" t="s"/>
+      <c r="B135" s="135" t="s"/>
+      <c r="C135" s="0" t="n"/>
+      <c r="D135" s="0" t="n"/>
+      <c r="E135" s="65" t="s"/>
+      <c r="F135" s="136" t="s">
+        <v>258</v>
+      </c>
+      <c r="G135" s="137" t="s">
+        <v>259</v>
+      </c>
+      <c r="H135" s="138" t="n"/>
+      <c r="I135" s="139" t="s">
+        <v>260</v>
+      </c>
+      <c r="J135" s="21" t="s">
         <v>15</v>
       </c>
     </row>
     <row outlineLevel="0" r="136">
-      <c r="A136" s="73" t="n">
-        <v>20</v>
-      </c>
-      <c r="B136" s="11" t="s">
-        <v>256</v>
-      </c>
-      <c r="C136" s="12" t="n"/>
-      <c r="D136" s="12" t="n"/>
-      <c r="E136" s="79" t="s">
-        <v>64</v>
-      </c>
-      <c r="F136" s="14" t="s">
-        <v>257</v>
-      </c>
-      <c r="G136" s="15" t="s">
-        <v>253</v>
-      </c>
-      <c r="H136" s="16" t="n"/>
-      <c r="I136" s="12" t="n"/>
-      <c r="J136" s="15" t="s">
+      <c r="A136" s="64" t="s"/>
+      <c r="B136" s="135" t="s"/>
+      <c r="C136" s="0" t="n"/>
+      <c r="D136" s="0" t="n"/>
+      <c r="E136" s="65" t="s"/>
+      <c r="F136" s="20" t="s">
+        <v>261</v>
+      </c>
+      <c r="G136" s="21" t="s">
+        <v>262</v>
+      </c>
+      <c r="H136" s="43" t="n"/>
+      <c r="I136" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="J136" s="21" t="s">
         <v>15</v>
       </c>
     </row>
     <row outlineLevel="0" r="137">
-      <c r="A137" s="76" t="s"/>
-      <c r="B137" s="18" t="s"/>
+      <c r="A137" s="64" t="s"/>
+      <c r="B137" s="135" t="s"/>
       <c r="C137" s="0" t="n"/>
       <c r="D137" s="0" t="n"/>
-      <c r="E137" s="81" t="s"/>
-      <c r="F137" s="20" t="s">
-        <v>258</v>
-      </c>
-      <c r="G137" s="21" t="s">
-        <v>259</v>
-      </c>
-      <c r="H137" s="22" t="n"/>
-      <c r="I137" s="0" t="n"/>
+      <c r="E137" s="65" t="s"/>
+      <c r="F137" s="140" t="s">
+        <v>263</v>
+      </c>
+      <c r="G137" s="141" t="s">
+        <v>264</v>
+      </c>
+      <c r="H137" s="43" t="n"/>
+      <c r="I137" s="0" t="s">
+        <v>22</v>
+      </c>
       <c r="J137" s="21" t="s">
         <v>15</v>
       </c>
     </row>
     <row outlineLevel="0" r="138">
-      <c r="A138" s="76" t="s"/>
-      <c r="B138" s="18" t="s"/>
-      <c r="C138" s="0" t="n"/>
-      <c r="D138" s="0" t="n"/>
-      <c r="E138" s="81" t="s"/>
-      <c r="F138" s="115" t="s">
-        <v>260</v>
-      </c>
-      <c r="G138" s="21" t="s">
-        <v>261</v>
-      </c>
-      <c r="H138" s="22" t="n"/>
-      <c r="I138" s="0" t="n"/>
-      <c r="J138" s="21" t="s">
+      <c r="A138" s="64" t="s"/>
+      <c r="B138" s="135" t="s"/>
+      <c r="C138" s="58" t="n"/>
+      <c r="D138" s="58" t="n"/>
+      <c r="E138" s="65" t="s"/>
+      <c r="F138" s="142" t="s">
+        <v>265</v>
+      </c>
+      <c r="G138" s="143" t="s">
+        <v>266</v>
+      </c>
+      <c r="H138" s="59" t="n"/>
+      <c r="I138" s="29" t="s">
+        <v>22</v>
+      </c>
+      <c r="J138" s="32" t="s">
         <v>15</v>
       </c>
     </row>
     <row outlineLevel="0" r="139">
-      <c r="A139" s="76" t="s"/>
-      <c r="B139" s="18" t="s"/>
-      <c r="C139" s="0" t="n"/>
-      <c r="D139" s="0" t="n"/>
-      <c r="E139" s="81" t="s"/>
-      <c r="F139" s="116" t="s">
-        <v>262</v>
-      </c>
-      <c r="G139" s="112" t="s">
-        <v>263</v>
-      </c>
-      <c r="H139" s="22" t="n"/>
-      <c r="I139" s="0" t="n"/>
-      <c r="J139" s="21" t="s">
+      <c r="A139" s="61" t="n">
+        <v>20</v>
+      </c>
+      <c r="B139" s="144" t="s">
+        <v>267</v>
+      </c>
+      <c r="C139" s="12" t="n"/>
+      <c r="D139" s="12" t="n"/>
+      <c r="E139" s="68" t="s">
+        <v>65</v>
+      </c>
+      <c r="F139" s="14" t="s">
+        <v>268</v>
+      </c>
+      <c r="G139" s="15" t="s">
+        <v>264</v>
+      </c>
+      <c r="H139" s="16" t="n"/>
+      <c r="I139" s="145" t="s">
+        <v>14</v>
+      </c>
+      <c r="J139" s="15" t="s">
         <v>15</v>
       </c>
     </row>
     <row outlineLevel="0" r="140">
-      <c r="A140" s="76" t="s"/>
-      <c r="B140" s="18" t="s"/>
+      <c r="A140" s="64" t="s"/>
+      <c r="B140" s="135" t="s"/>
       <c r="C140" s="0" t="n"/>
       <c r="D140" s="0" t="n"/>
-      <c r="E140" s="81" t="s"/>
-      <c r="F140" s="116" t="s">
-        <v>264</v>
-      </c>
-      <c r="G140" s="112" t="s">
-        <v>265</v>
+      <c r="E140" s="70" t="s"/>
+      <c r="F140" s="20" t="s">
+        <v>269</v>
+      </c>
+      <c r="G140" s="21" t="s">
+        <v>270</v>
       </c>
       <c r="H140" s="22" t="n"/>
-      <c r="I140" s="0" t="n"/>
+      <c r="I140" s="146" t="s">
+        <v>22</v>
+      </c>
       <c r="J140" s="21" t="s">
         <v>15</v>
       </c>
     </row>
     <row outlineLevel="0" r="141">
-      <c r="A141" s="76" t="s"/>
-      <c r="B141" s="18" t="s"/>
+      <c r="A141" s="64" t="s"/>
+      <c r="B141" s="135" t="s"/>
       <c r="C141" s="0" t="n"/>
       <c r="D141" s="0" t="n"/>
-      <c r="E141" s="81" t="s"/>
-      <c r="F141" s="23" t="s">
-        <v>266</v>
-      </c>
-      <c r="G141" s="24" t="s">
-        <v>267</v>
-      </c>
-      <c r="H141" s="22" t="n"/>
-      <c r="I141" s="0" t="n"/>
+      <c r="E141" s="70" t="s"/>
+      <c r="F141" s="147" t="s">
+        <v>271</v>
+      </c>
+      <c r="G141" s="125" t="s">
+        <v>272</v>
+      </c>
+      <c r="H141" s="83" t="s">
+        <v>134</v>
+      </c>
+      <c r="I141" s="148" t="s">
+        <v>22</v>
+      </c>
       <c r="J141" s="21" t="s">
         <v>15</v>
       </c>
     </row>
     <row outlineLevel="0" r="142">
-      <c r="A142" s="0" t="n"/>
-      <c r="B142" s="0" t="n"/>
-      <c r="C142" s="29" t="n"/>
-      <c r="D142" s="29" t="n"/>
-      <c r="E142" s="0" t="n"/>
-      <c r="F142" s="31" t="s">
-        <v>268</v>
-      </c>
-      <c r="G142" s="32" t="s">
-        <v>269</v>
-      </c>
-      <c r="H142" s="33" t="n"/>
-      <c r="I142" s="29" t="n"/>
-      <c r="J142" s="32" t="s">
+      <c r="A142" s="64" t="s"/>
+      <c r="B142" s="135" t="s"/>
+      <c r="C142" s="0" t="n"/>
+      <c r="D142" s="0" t="n"/>
+      <c r="E142" s="70" t="s"/>
+      <c r="F142" s="149" t="s">
+        <v>273</v>
+      </c>
+      <c r="G142" s="137" t="s">
+        <v>274</v>
+      </c>
+      <c r="H142" s="150" t="n"/>
+      <c r="I142" s="139" t="s">
+        <v>275</v>
+      </c>
+      <c r="J142" s="21" t="s">
         <v>15</v>
       </c>
     </row>
     <row outlineLevel="0" r="143">
-      <c r="A143" s="73" t="n">
-        <v>21</v>
-      </c>
-      <c r="B143" s="11" t="s">
-        <v>270</v>
-      </c>
-      <c r="C143" s="12" t="n"/>
-      <c r="D143" s="12" t="n"/>
-      <c r="E143" s="79" t="s">
-        <v>64</v>
-      </c>
-      <c r="F143" s="14" t="s">
-        <v>271</v>
-      </c>
-      <c r="G143" s="84" t="s">
-        <v>272</v>
-      </c>
-      <c r="H143" s="16" t="n"/>
-      <c r="I143" s="12" t="n"/>
-      <c r="J143" s="15" t="s">
+      <c r="A143" s="64" t="s"/>
+      <c r="B143" s="135" t="s"/>
+      <c r="C143" s="0" t="n"/>
+      <c r="D143" s="0" t="n"/>
+      <c r="E143" s="70" t="s"/>
+      <c r="F143" s="149" t="s">
+        <v>276</v>
+      </c>
+      <c r="G143" s="137" t="s">
+        <v>277</v>
+      </c>
+      <c r="H143" s="150" t="n"/>
+      <c r="I143" s="139" t="s">
+        <v>275</v>
+      </c>
+      <c r="J143" s="21" t="s">
         <v>15</v>
       </c>
     </row>
     <row outlineLevel="0" r="144">
-      <c r="A144" s="76" t="s"/>
-      <c r="B144" s="18" t="s"/>
+      <c r="A144" s="64" t="s"/>
+      <c r="B144" s="135" t="s"/>
       <c r="C144" s="0" t="n"/>
       <c r="D144" s="0" t="n"/>
-      <c r="E144" s="81" t="s"/>
-      <c r="F144" s="20" t="s">
-        <v>273</v>
-      </c>
-      <c r="G144" s="21" t="s">
-        <v>274</v>
+      <c r="E144" s="70" t="s"/>
+      <c r="F144" s="23" t="s">
+        <v>278</v>
+      </c>
+      <c r="G144" s="24" t="s">
+        <v>279</v>
       </c>
       <c r="H144" s="22" t="n"/>
-      <c r="I144" s="0" t="n"/>
+      <c r="I144" s="146" t="s">
+        <v>22</v>
+      </c>
       <c r="J144" s="21" t="s">
         <v>15</v>
       </c>
     </row>
     <row outlineLevel="0" r="145">
-      <c r="A145" s="76" t="s"/>
-      <c r="B145" s="18" t="s"/>
-      <c r="C145" s="0" t="n"/>
-      <c r="D145" s="0" t="n"/>
-      <c r="E145" s="81" t="s"/>
-      <c r="F145" s="88" t="s">
-        <v>275</v>
-      </c>
-      <c r="G145" s="117" t="s">
-        <v>276</v>
-      </c>
-      <c r="H145" s="22" t="n"/>
-      <c r="I145" s="0" t="n"/>
-      <c r="J145" s="21" t="s">
+      <c r="A145" s="64" t="s"/>
+      <c r="B145" s="135" t="s"/>
+      <c r="C145" s="29" t="n"/>
+      <c r="D145" s="29" t="n"/>
+      <c r="E145" s="70" t="s"/>
+      <c r="F145" s="31" t="s">
+        <v>280</v>
+      </c>
+      <c r="G145" s="32" t="s">
+        <v>281</v>
+      </c>
+      <c r="H145" s="33" t="n"/>
+      <c r="I145" s="151" t="s">
+        <v>22</v>
+      </c>
+      <c r="J145" s="32" t="s">
         <v>15</v>
       </c>
     </row>
     <row outlineLevel="0" r="146">
-      <c r="A146" s="76" t="s"/>
-      <c r="B146" s="18" t="s"/>
-      <c r="C146" s="0" t="n"/>
-      <c r="D146" s="0" t="n"/>
-      <c r="E146" s="81" t="s"/>
-      <c r="F146" s="88" t="s">
-        <v>277</v>
-      </c>
-      <c r="G146" s="117" t="s">
-        <v>278</v>
-      </c>
-      <c r="H146" s="22" t="n"/>
-      <c r="I146" s="0" t="n"/>
-      <c r="J146" s="21" t="s">
+      <c r="A146" s="61" t="n">
+        <v>21</v>
+      </c>
+      <c r="B146" s="144" t="s">
+        <v>282</v>
+      </c>
+      <c r="C146" s="12" t="n"/>
+      <c r="D146" s="12" t="n"/>
+      <c r="E146" s="68" t="s">
+        <v>65</v>
+      </c>
+      <c r="F146" s="14" t="s">
+        <v>283</v>
+      </c>
+      <c r="G146" s="73" t="s">
+        <v>284</v>
+      </c>
+      <c r="H146" s="16" t="n"/>
+      <c r="I146" s="145" t="s">
+        <v>22</v>
+      </c>
+      <c r="J146" s="15" t="s">
         <v>15</v>
       </c>
     </row>
     <row outlineLevel="0" r="147">
-      <c r="A147" s="76" t="s"/>
-      <c r="B147" s="18" t="s"/>
+      <c r="A147" s="64" t="s"/>
+      <c r="B147" s="135" t="s"/>
       <c r="C147" s="0" t="n"/>
       <c r="D147" s="0" t="n"/>
-      <c r="E147" s="81" t="s"/>
+      <c r="E147" s="70" t="s"/>
       <c r="F147" s="20" t="s">
-        <v>279</v>
+        <v>285</v>
       </c>
       <c r="G147" s="21" t="s">
-        <v>280</v>
+        <v>286</v>
       </c>
       <c r="H147" s="22" t="n"/>
-      <c r="I147" s="0" t="n"/>
+      <c r="I147" s="146" t="s">
+        <v>22</v>
+      </c>
       <c r="J147" s="21" t="s">
         <v>15</v>
       </c>
     </row>
     <row outlineLevel="0" r="148">
-      <c r="A148" s="76" t="s"/>
-      <c r="B148" s="18" t="s"/>
+      <c r="A148" s="64" t="s"/>
+      <c r="B148" s="135" t="s"/>
       <c r="C148" s="0" t="n"/>
       <c r="D148" s="0" t="n"/>
-      <c r="E148" s="81" t="s"/>
-      <c r="F148" s="88" t="s">
-        <v>281</v>
-      </c>
-      <c r="G148" s="117" t="s">
-        <v>282</v>
+      <c r="E148" s="70" t="s"/>
+      <c r="F148" s="140" t="s">
+        <v>287</v>
+      </c>
+      <c r="G148" s="152" t="s">
+        <v>288</v>
       </c>
       <c r="H148" s="22" t="n"/>
-      <c r="I148" s="0" t="n"/>
+      <c r="I148" s="146" t="s">
+        <v>22</v>
+      </c>
       <c r="J148" s="21" t="s">
         <v>15</v>
       </c>
     </row>
     <row outlineLevel="0" r="149">
-      <c r="A149" s="0" t="n"/>
-      <c r="B149" s="0" t="n"/>
-      <c r="C149" s="29" t="n"/>
-      <c r="D149" s="29" t="n"/>
-      <c r="E149" s="0" t="n"/>
-      <c r="F149" s="118" t="s">
-        <v>283</v>
-      </c>
-      <c r="G149" s="119" t="s">
-        <v>284</v>
-      </c>
-      <c r="H149" s="33" t="n"/>
-      <c r="I149" s="29" t="n"/>
-      <c r="J149" s="32" t="s">
+      <c r="A149" s="64" t="s"/>
+      <c r="B149" s="135" t="s"/>
+      <c r="C149" s="0" t="n"/>
+      <c r="D149" s="0" t="n"/>
+      <c r="E149" s="70" t="s"/>
+      <c r="F149" s="140" t="s">
+        <v>289</v>
+      </c>
+      <c r="G149" s="152" t="s">
+        <v>290</v>
+      </c>
+      <c r="H149" s="22" t="n"/>
+      <c r="I149" s="146" t="s">
+        <v>22</v>
+      </c>
+      <c r="J149" s="21" t="s">
         <v>15</v>
       </c>
     </row>
     <row outlineLevel="0" r="150">
-      <c r="A150" s="73" t="n">
-        <v>22</v>
-      </c>
-      <c r="B150" s="11" t="s">
-        <v>285</v>
-      </c>
-      <c r="C150" s="12" t="n"/>
-      <c r="D150" s="12" t="n"/>
-      <c r="E150" s="79" t="s">
-        <v>64</v>
-      </c>
-      <c r="F150" s="14" t="s">
-        <v>286</v>
-      </c>
-      <c r="G150" s="84" t="s">
-        <v>287</v>
-      </c>
-      <c r="H150" s="16" t="n"/>
-      <c r="I150" s="12" t="n"/>
-      <c r="J150" s="15" t="s">
+      <c r="A150" s="64" t="s"/>
+      <c r="B150" s="135" t="s"/>
+      <c r="C150" s="0" t="n"/>
+      <c r="D150" s="0" t="n"/>
+      <c r="E150" s="70" t="s"/>
+      <c r="F150" s="20" t="s">
+        <v>291</v>
+      </c>
+      <c r="G150" s="21" t="s">
+        <v>292</v>
+      </c>
+      <c r="H150" s="22" t="n"/>
+      <c r="I150" s="146" t="s">
+        <v>22</v>
+      </c>
+      <c r="J150" s="21" t="s">
         <v>15</v>
       </c>
     </row>
     <row outlineLevel="0" r="151">
-      <c r="A151" s="76" t="s"/>
-      <c r="B151" s="18" t="s"/>
+      <c r="A151" s="64" t="s"/>
+      <c r="B151" s="135" t="s"/>
       <c r="C151" s="0" t="n"/>
       <c r="D151" s="0" t="n"/>
-      <c r="E151" s="81" t="s"/>
-      <c r="F151" s="20" t="s">
-        <v>288</v>
-      </c>
-      <c r="G151" s="21" t="s">
-        <v>289</v>
-      </c>
-      <c r="H151" s="22" t="n"/>
-      <c r="I151" s="0" t="n"/>
+      <c r="E151" s="70" t="s"/>
+      <c r="F151" s="140" t="s">
+        <v>293</v>
+      </c>
+      <c r="G151" s="153" t="s">
+        <v>294</v>
+      </c>
+      <c r="H151" s="150" t="n"/>
+      <c r="I151" s="139" t="s">
+        <v>295</v>
+      </c>
       <c r="J151" s="21" t="s">
         <v>15</v>
       </c>
     </row>
     <row outlineLevel="0" r="152">
-      <c r="A152" s="76" t="s"/>
-      <c r="B152" s="18" t="s"/>
-      <c r="C152" s="0" t="n"/>
-      <c r="D152" s="0" t="n"/>
-      <c r="E152" s="81" t="s"/>
-      <c r="F152" s="20" t="s">
-        <v>290</v>
-      </c>
-      <c r="G152" s="21" t="s">
-        <v>291</v>
-      </c>
-      <c r="H152" s="22" t="n"/>
-      <c r="I152" s="0" t="n"/>
-      <c r="J152" s="21" t="s">
+      <c r="A152" s="64" t="s"/>
+      <c r="B152" s="135" t="s"/>
+      <c r="C152" s="29" t="n"/>
+      <c r="D152" s="29" t="n"/>
+      <c r="E152" s="70" t="s"/>
+      <c r="F152" s="154" t="s">
+        <v>296</v>
+      </c>
+      <c r="G152" s="155" t="s">
+        <v>297</v>
+      </c>
+      <c r="H152" s="156" t="n"/>
+      <c r="I152" s="157" t="s">
+        <v>295</v>
+      </c>
+      <c r="J152" s="32" t="s">
         <v>15</v>
       </c>
     </row>
     <row outlineLevel="0" r="153">
-      <c r="A153" s="76" t="s"/>
-      <c r="B153" s="18" t="s"/>
-      <c r="C153" s="0" t="n"/>
-      <c r="D153" s="0" t="n"/>
-      <c r="E153" s="81" t="s"/>
-      <c r="F153" s="116" t="s">
-        <v>262</v>
-      </c>
-      <c r="G153" s="112" t="s">
-        <v>263</v>
-      </c>
-      <c r="H153" s="22" t="n"/>
-      <c r="I153" s="0" t="n"/>
-      <c r="J153" s="21" t="s">
+      <c r="A153" s="61" t="n">
+        <v>22</v>
+      </c>
+      <c r="B153" s="144" t="s">
+        <v>298</v>
+      </c>
+      <c r="C153" s="12" t="n"/>
+      <c r="D153" s="12" t="n"/>
+      <c r="E153" s="68" t="s">
+        <v>65</v>
+      </c>
+      <c r="F153" s="14" t="s">
+        <v>299</v>
+      </c>
+      <c r="G153" s="73" t="s">
+        <v>300</v>
+      </c>
+      <c r="H153" s="16" t="n"/>
+      <c r="I153" s="145" t="s">
+        <v>22</v>
+      </c>
+      <c r="J153" s="15" t="s">
         <v>15</v>
       </c>
     </row>
     <row outlineLevel="0" r="154">
-      <c r="A154" s="76" t="s"/>
-      <c r="B154" s="18" t="s"/>
+      <c r="A154" s="64" t="s"/>
+      <c r="B154" s="135" t="s"/>
       <c r="C154" s="0" t="n"/>
       <c r="D154" s="0" t="n"/>
-      <c r="E154" s="81" t="s"/>
-      <c r="F154" s="116" t="s">
-        <v>264</v>
-      </c>
-      <c r="G154" s="112" t="s">
-        <v>265</v>
+      <c r="E154" s="70" t="s"/>
+      <c r="F154" s="20" t="s">
+        <v>301</v>
+      </c>
+      <c r="G154" s="21" t="s">
+        <v>302</v>
       </c>
       <c r="H154" s="22" t="n"/>
-      <c r="I154" s="0" t="n"/>
+      <c r="I154" s="146" t="s">
+        <v>22</v>
+      </c>
       <c r="J154" s="21" t="s">
         <v>15</v>
       </c>
     </row>
     <row outlineLevel="0" r="155">
-      <c r="A155" s="76" t="s"/>
-      <c r="B155" s="18" t="s"/>
+      <c r="A155" s="64" t="s"/>
+      <c r="B155" s="135" t="s"/>
       <c r="C155" s="0" t="n"/>
       <c r="D155" s="0" t="n"/>
-      <c r="E155" s="81" t="s"/>
-      <c r="F155" s="20" t="s">
-        <v>292</v>
-      </c>
-      <c r="G155" s="21" t="s">
-        <v>293</v>
-      </c>
-      <c r="H155" s="22" t="n"/>
-      <c r="I155" s="0" t="n"/>
+      <c r="E155" s="70" t="s"/>
+      <c r="F155" s="81" t="s">
+        <v>303</v>
+      </c>
+      <c r="G155" s="125" t="s">
+        <v>304</v>
+      </c>
+      <c r="H155" s="83" t="s">
+        <v>134</v>
+      </c>
+      <c r="I155" s="148" t="s">
+        <v>22</v>
+      </c>
       <c r="J155" s="21" t="s">
         <v>15</v>
       </c>
     </row>
     <row outlineLevel="0" r="156">
-      <c r="A156" s="76" t="s"/>
-      <c r="B156" s="18" t="s"/>
+      <c r="A156" s="64" t="s"/>
+      <c r="B156" s="135" t="s"/>
       <c r="C156" s="0" t="n"/>
       <c r="D156" s="0" t="n"/>
-      <c r="E156" s="81" t="s"/>
-      <c r="F156" s="20" t="s">
-        <v>294</v>
-      </c>
-      <c r="G156" s="21" t="s">
-        <v>295</v>
-      </c>
-      <c r="H156" s="22" t="n"/>
-      <c r="I156" s="0" t="n"/>
+      <c r="E156" s="70" t="s"/>
+      <c r="F156" s="149" t="s">
+        <v>273</v>
+      </c>
+      <c r="G156" s="137" t="s">
+        <v>274</v>
+      </c>
+      <c r="H156" s="150" t="n"/>
+      <c r="I156" s="139" t="s">
+        <v>275</v>
+      </c>
       <c r="J156" s="21" t="s">
         <v>15</v>
       </c>
     </row>
     <row outlineLevel="0" r="157">
-      <c r="A157" s="76" t="s"/>
-      <c r="B157" s="18" t="s"/>
+      <c r="A157" s="64" t="s"/>
+      <c r="B157" s="135" t="s"/>
       <c r="C157" s="0" t="n"/>
       <c r="D157" s="0" t="n"/>
-      <c r="E157" s="81" t="s"/>
-      <c r="F157" s="23" t="s">
-        <v>142</v>
-      </c>
-      <c r="G157" s="21" t="s">
-        <v>296</v>
-      </c>
-      <c r="H157" s="22" t="n"/>
-      <c r="I157" s="0" t="n"/>
+      <c r="E157" s="70" t="s"/>
+      <c r="F157" s="149" t="s">
+        <v>276</v>
+      </c>
+      <c r="G157" s="137" t="s">
+        <v>277</v>
+      </c>
+      <c r="H157" s="150" t="n"/>
+      <c r="I157" s="139" t="s">
+        <v>275</v>
+      </c>
       <c r="J157" s="21" t="s">
         <v>15</v>
       </c>
     </row>
     <row outlineLevel="0" r="158">
-      <c r="A158" s="0" t="n"/>
-      <c r="B158" s="0" t="n"/>
-      <c r="C158" s="29" t="n"/>
-      <c r="D158" s="29" t="n"/>
-      <c r="E158" s="0" t="n"/>
-      <c r="F158" s="31" t="s">
-        <v>297</v>
-      </c>
-      <c r="G158" s="32" t="s">
-        <v>298</v>
-      </c>
-      <c r="H158" s="33" t="n"/>
-      <c r="I158" s="29" t="n"/>
-      <c r="J158" s="32" t="s">
+      <c r="A158" s="64" t="s"/>
+      <c r="B158" s="135" t="s"/>
+      <c r="C158" s="0" t="n"/>
+      <c r="D158" s="0" t="n"/>
+      <c r="E158" s="70" t="s"/>
+      <c r="F158" s="20" t="s">
+        <v>305</v>
+      </c>
+      <c r="G158" s="21" t="s">
+        <v>306</v>
+      </c>
+      <c r="H158" s="22" t="n"/>
+      <c r="I158" s="146" t="s">
+        <v>22</v>
+      </c>
+      <c r="J158" s="21" t="s">
         <v>15</v>
       </c>
     </row>
     <row outlineLevel="0" r="159">
-      <c r="A159" s="73" t="n">
-        <v>23</v>
-      </c>
-      <c r="B159" s="11" t="s">
-        <v>299</v>
-      </c>
-      <c r="C159" s="12" t="n"/>
-      <c r="D159" s="12" t="n"/>
-      <c r="E159" s="79" t="s">
-        <v>64</v>
-      </c>
-      <c r="F159" s="14" t="s">
-        <v>277</v>
-      </c>
-      <c r="G159" s="15" t="s">
-        <v>300</v>
-      </c>
-      <c r="H159" s="16" t="n"/>
-      <c r="I159" s="12" t="n"/>
-      <c r="J159" s="15" t="s">
+      <c r="A159" s="64" t="s"/>
+      <c r="B159" s="135" t="s"/>
+      <c r="C159" s="0" t="n"/>
+      <c r="D159" s="0" t="n"/>
+      <c r="E159" s="70" t="s"/>
+      <c r="F159" s="20" t="s">
+        <v>307</v>
+      </c>
+      <c r="G159" s="21" t="s">
+        <v>308</v>
+      </c>
+      <c r="H159" s="22" t="n"/>
+      <c r="I159" s="146" t="s">
+        <v>22</v>
+      </c>
+      <c r="J159" s="21" t="s">
         <v>15</v>
       </c>
     </row>
     <row outlineLevel="0" r="160">
-      <c r="A160" s="76" t="s"/>
-      <c r="B160" s="18" t="s"/>
+      <c r="A160" s="64" t="s"/>
+      <c r="B160" s="135" t="s"/>
       <c r="C160" s="0" t="n"/>
       <c r="D160" s="0" t="n"/>
-      <c r="E160" s="81" t="s"/>
-      <c r="F160" s="20" t="s">
-        <v>288</v>
+      <c r="E160" s="70" t="s"/>
+      <c r="F160" s="23" t="s">
+        <v>144</v>
       </c>
       <c r="G160" s="21" t="s">
+        <v>309</v>
+      </c>
+      <c r="H160" s="22" t="n"/>
+      <c r="I160" s="146" t="s">
+        <v>22</v>
+      </c>
+      <c r="J160" s="21" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="161">
+      <c r="A161" s="64" t="s"/>
+      <c r="B161" s="135" t="s"/>
+      <c r="C161" s="29" t="n"/>
+      <c r="D161" s="29" t="n"/>
+      <c r="E161" s="70" t="s"/>
+      <c r="F161" s="31" t="s">
+        <v>310</v>
+      </c>
+      <c r="G161" s="32" t="s">
+        <v>311</v>
+      </c>
+      <c r="H161" s="33" t="n"/>
+      <c r="I161" s="151" t="s">
+        <v>22</v>
+      </c>
+      <c r="J161" s="32" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="162">
+      <c r="A162" s="61" t="n">
+        <v>23</v>
+      </c>
+      <c r="B162" s="144" t="s">
+        <v>312</v>
+      </c>
+      <c r="C162" s="12" t="n"/>
+      <c r="D162" s="12" t="n"/>
+      <c r="E162" s="68" t="s">
+        <v>65</v>
+      </c>
+      <c r="F162" s="14" t="s">
         <v>289</v>
       </c>
-      <c r="H160" s="22" t="n"/>
-      <c r="I160" s="0" t="n"/>
-      <c r="J160" s="21" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row outlineLevel="0" r="161">
-      <c r="A161" s="76" t="s"/>
-      <c r="B161" s="18" t="s"/>
-      <c r="C161" s="0" t="n"/>
-      <c r="D161" s="0" t="n"/>
-      <c r="E161" s="81" t="s"/>
-      <c r="F161" s="20" t="s">
-        <v>301</v>
-      </c>
-      <c r="G161" s="21" t="s">
-        <v>291</v>
-      </c>
-      <c r="H161" s="22" t="n"/>
-      <c r="I161" s="0" t="n"/>
-      <c r="J161" s="21" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row outlineLevel="0" r="162">
-      <c r="A162" s="76" t="s"/>
-      <c r="B162" s="18" t="s"/>
-      <c r="C162" s="0" t="n"/>
-      <c r="D162" s="0" t="n"/>
-      <c r="E162" s="81" t="s"/>
-      <c r="F162" s="88" t="s">
-        <v>302</v>
-      </c>
-      <c r="G162" s="112" t="s">
-        <v>303</v>
-      </c>
-      <c r="H162" s="22" t="n"/>
-      <c r="I162" s="0" t="n"/>
-      <c r="J162" s="21" t="s">
+      <c r="G162" s="15" t="s">
+        <v>313</v>
+      </c>
+      <c r="H162" s="16" t="n"/>
+      <c r="I162" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="J162" s="15" t="s">
         <v>15</v>
       </c>
     </row>
     <row outlineLevel="0" r="163">
-      <c r="A163" s="76" t="s"/>
-      <c r="B163" s="18" t="s"/>
+      <c r="A163" s="64" t="s"/>
+      <c r="B163" s="135" t="s"/>
       <c r="C163" s="0" t="n"/>
       <c r="D163" s="0" t="n"/>
-      <c r="E163" s="81" t="s"/>
-      <c r="F163" s="23" t="s">
-        <v>304</v>
+      <c r="E163" s="70" t="s"/>
+      <c r="F163" s="20" t="s">
+        <v>301</v>
       </c>
       <c r="G163" s="21" t="s">
-        <v>265</v>
+        <v>302</v>
       </c>
       <c r="H163" s="22" t="n"/>
-      <c r="I163" s="0" t="n"/>
+      <c r="I163" s="0" t="s">
+        <v>22</v>
+      </c>
       <c r="J163" s="21" t="s">
         <v>15</v>
       </c>
     </row>
     <row outlineLevel="0" r="164">
-      <c r="A164" s="76" t="s"/>
-      <c r="B164" s="18" t="s"/>
+      <c r="A164" s="64" t="s"/>
+      <c r="B164" s="135" t="s"/>
       <c r="C164" s="0" t="n"/>
       <c r="D164" s="0" t="n"/>
-      <c r="E164" s="81" t="s"/>
-      <c r="F164" s="23" t="s">
-        <v>135</v>
-      </c>
-      <c r="G164" s="21" t="s">
-        <v>305</v>
-      </c>
-      <c r="H164" s="22" t="n"/>
-      <c r="I164" s="0" t="n"/>
+      <c r="E164" s="70" t="s"/>
+      <c r="F164" s="81" t="s">
+        <v>314</v>
+      </c>
+      <c r="G164" s="125" t="s">
+        <v>304</v>
+      </c>
+      <c r="H164" s="83" t="s">
+        <v>134</v>
+      </c>
+      <c r="I164" s="0" t="s">
+        <v>22</v>
+      </c>
       <c r="J164" s="21" t="s">
         <v>15</v>
       </c>
     </row>
     <row outlineLevel="0" r="165">
-      <c r="A165" s="76" t="s"/>
-      <c r="B165" s="18" t="s"/>
+      <c r="A165" s="64" t="s"/>
+      <c r="B165" s="135" t="s"/>
       <c r="C165" s="0" t="n"/>
       <c r="D165" s="0" t="n"/>
-      <c r="E165" s="81" t="s"/>
-      <c r="F165" s="88" t="s">
-        <v>306</v>
-      </c>
-      <c r="G165" s="117" t="s">
-        <v>307</v>
+      <c r="E165" s="70" t="s"/>
+      <c r="F165" s="140" t="s">
+        <v>315</v>
+      </c>
+      <c r="G165" s="141" t="s">
+        <v>316</v>
       </c>
       <c r="H165" s="22" t="n"/>
-      <c r="I165" s="0" t="n"/>
+      <c r="I165" s="0" t="s">
+        <v>22</v>
+      </c>
       <c r="J165" s="21" t="s">
         <v>15</v>
       </c>
     </row>
     <row outlineLevel="0" r="166">
-      <c r="A166" s="76" t="s"/>
-      <c r="B166" s="18" t="s"/>
+      <c r="A166" s="64" t="s"/>
+      <c r="B166" s="135" t="s"/>
       <c r="C166" s="0" t="n"/>
       <c r="D166" s="0" t="n"/>
-      <c r="E166" s="81" t="s"/>
-      <c r="F166" s="120" t="s">
-        <v>308</v>
-      </c>
-      <c r="G166" s="121" t="s">
-        <v>309</v>
-      </c>
-      <c r="H166" s="122" t="s">
-        <v>310</v>
-      </c>
-      <c r="I166" s="0" t="n"/>
+      <c r="E166" s="70" t="s"/>
+      <c r="F166" s="23" t="s">
+        <v>317</v>
+      </c>
+      <c r="G166" s="21" t="s">
+        <v>277</v>
+      </c>
+      <c r="H166" s="22" t="n"/>
+      <c r="I166" s="0" t="s">
+        <v>275</v>
+      </c>
       <c r="J166" s="21" t="s">
-        <v>311</v>
+        <v>15</v>
       </c>
     </row>
     <row outlineLevel="0" r="167">
-      <c r="A167" s="76" t="s"/>
-      <c r="B167" s="18" t="s"/>
+      <c r="A167" s="64" t="s"/>
+      <c r="B167" s="135" t="s"/>
       <c r="C167" s="0" t="n"/>
       <c r="D167" s="0" t="n"/>
-      <c r="E167" s="81" t="s"/>
+      <c r="E167" s="70" t="s"/>
       <c r="F167" s="23" t="s">
-        <v>125</v>
-      </c>
-      <c r="G167" s="24" t="s">
-        <v>312</v>
+        <v>137</v>
+      </c>
+      <c r="G167" s="21" t="s">
+        <v>318</v>
       </c>
       <c r="H167" s="22" t="n"/>
-      <c r="I167" s="0" t="n"/>
+      <c r="I167" s="146" t="s">
+        <v>275</v>
+      </c>
       <c r="J167" s="21" t="s">
         <v>15</v>
       </c>
     </row>
     <row outlineLevel="0" r="168">
-      <c r="A168" s="0" t="n"/>
-      <c r="B168" s="0" t="n"/>
-      <c r="C168" s="29" t="n"/>
-      <c r="D168" s="29" t="n"/>
-      <c r="E168" s="0" t="n"/>
-      <c r="F168" s="82" t="s">
-        <v>313</v>
-      </c>
-      <c r="G168" s="32" t="s">
-        <v>314</v>
-      </c>
-      <c r="H168" s="33" t="n"/>
-      <c r="I168" s="29" t="n"/>
-      <c r="J168" s="32" t="s">
+      <c r="A168" s="64" t="s"/>
+      <c r="B168" s="135" t="s"/>
+      <c r="C168" s="0" t="n"/>
+      <c r="D168" s="0" t="n"/>
+      <c r="E168" s="70" t="s"/>
+      <c r="F168" s="140" t="s">
+        <v>319</v>
+      </c>
+      <c r="G168" s="141" t="s">
+        <v>320</v>
+      </c>
+      <c r="H168" s="158" t="s">
+        <v>321</v>
+      </c>
+      <c r="I168" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="J168" s="21" t="s">
         <v>15</v>
       </c>
     </row>
     <row outlineLevel="0" r="169">
-      <c r="A169" s="73" t="n">
-        <v>24</v>
-      </c>
-      <c r="B169" s="11" t="s">
-        <v>315</v>
-      </c>
-      <c r="C169" s="12" t="n"/>
-      <c r="D169" s="12" t="n"/>
-      <c r="E169" s="79" t="s">
-        <v>64</v>
-      </c>
-      <c r="F169" s="14" t="s">
-        <v>316</v>
-      </c>
-      <c r="G169" s="15" t="s">
-        <v>317</v>
-      </c>
-      <c r="H169" s="16" t="n"/>
-      <c r="I169" s="12" t="n"/>
-      <c r="J169" s="15" t="s">
-        <v>15</v>
+      <c r="A169" s="64" t="s"/>
+      <c r="B169" s="135" t="s"/>
+      <c r="C169" s="0" t="n"/>
+      <c r="D169" s="0" t="n"/>
+      <c r="E169" s="70" t="s"/>
+      <c r="F169" s="159" t="s">
+        <v>322</v>
+      </c>
+      <c r="G169" s="153" t="s">
+        <v>323</v>
+      </c>
+      <c r="H169" s="160" t="s">
+        <v>324</v>
+      </c>
+      <c r="I169" s="146" t="s">
+        <v>325</v>
+      </c>
+      <c r="J169" s="21" t="s">
+        <v>326</v>
       </c>
     </row>
     <row outlineLevel="0" r="170">
-      <c r="A170" s="76" t="s"/>
-      <c r="B170" s="18" t="s"/>
+      <c r="A170" s="64" t="s"/>
+      <c r="B170" s="135" t="s"/>
       <c r="C170" s="0" t="n"/>
       <c r="D170" s="0" t="n"/>
-      <c r="E170" s="81" t="s"/>
-      <c r="F170" s="20" t="s">
-        <v>318</v>
-      </c>
-      <c r="G170" s="21" t="s">
-        <v>319</v>
+      <c r="E170" s="70" t="s"/>
+      <c r="F170" s="23" t="s">
+        <v>126</v>
+      </c>
+      <c r="G170" s="24" t="s">
+        <v>327</v>
       </c>
       <c r="H170" s="22" t="n"/>
-      <c r="I170" s="0" t="n"/>
+      <c r="I170" s="0" t="s">
+        <v>22</v>
+      </c>
       <c r="J170" s="21" t="s">
         <v>15</v>
       </c>
     </row>
     <row outlineLevel="0" r="171">
-      <c r="A171" s="76" t="s"/>
-      <c r="B171" s="18" t="s"/>
-      <c r="C171" s="0" t="n"/>
-      <c r="D171" s="0" t="n"/>
-      <c r="E171" s="81" t="s"/>
-      <c r="F171" s="88" t="s">
-        <v>320</v>
-      </c>
-      <c r="G171" s="112" t="s">
-        <v>143</v>
-      </c>
-      <c r="H171" s="22" t="n"/>
-      <c r="I171" s="0" t="n"/>
-      <c r="J171" s="21" t="s">
+      <c r="A171" s="64" t="s"/>
+      <c r="B171" s="135" t="s"/>
+      <c r="C171" s="29" t="n"/>
+      <c r="D171" s="29" t="n"/>
+      <c r="E171" s="70" t="s"/>
+      <c r="F171" s="71" t="s">
+        <v>328</v>
+      </c>
+      <c r="G171" s="32" t="s">
+        <v>329</v>
+      </c>
+      <c r="H171" s="33" t="n"/>
+      <c r="I171" s="29" t="s">
+        <v>22</v>
+      </c>
+      <c r="J171" s="32" t="s">
         <v>15</v>
       </c>
     </row>
     <row outlineLevel="0" r="172">
-      <c r="A172" s="0" t="n"/>
-      <c r="B172" s="0" t="n"/>
-      <c r="C172" s="29" t="n"/>
-      <c r="D172" s="29" t="n"/>
-      <c r="E172" s="0" t="n"/>
-      <c r="F172" s="82" t="s">
-        <v>321</v>
-      </c>
-      <c r="G172" s="32" t="s">
-        <v>322</v>
-      </c>
-      <c r="H172" s="33" t="n"/>
-      <c r="I172" s="29" t="n"/>
-      <c r="J172" s="32" t="s">
+      <c r="A172" s="61" t="n">
+        <v>24</v>
+      </c>
+      <c r="B172" s="144" t="s">
+        <v>330</v>
+      </c>
+      <c r="C172" s="12" t="n"/>
+      <c r="D172" s="12" t="n"/>
+      <c r="E172" s="68" t="s">
+        <v>65</v>
+      </c>
+      <c r="F172" s="14" t="s">
+        <v>331</v>
+      </c>
+      <c r="G172" s="15" t="s">
+        <v>332</v>
+      </c>
+      <c r="H172" s="16" t="n"/>
+      <c r="I172" s="145" t="s">
+        <v>22</v>
+      </c>
+      <c r="J172" s="15" t="s">
         <v>15</v>
       </c>
     </row>
     <row outlineLevel="0" r="173">
-      <c r="A173" s="73" t="n">
-        <v>25</v>
-      </c>
-      <c r="B173" s="11" t="s">
-        <v>323</v>
-      </c>
-      <c r="C173" s="12" t="n"/>
-      <c r="D173" s="12" t="n"/>
-      <c r="E173" s="79" t="s">
-        <v>64</v>
-      </c>
-      <c r="F173" s="14" t="s">
-        <v>324</v>
-      </c>
-      <c r="G173" s="84" t="s">
-        <v>325</v>
-      </c>
-      <c r="H173" s="16" t="n"/>
-      <c r="I173" s="12" t="n"/>
-      <c r="J173" s="15" t="s">
+      <c r="A173" s="64" t="s"/>
+      <c r="B173" s="135" t="s"/>
+      <c r="C173" s="0" t="n"/>
+      <c r="D173" s="0" t="n"/>
+      <c r="E173" s="70" t="s"/>
+      <c r="F173" s="20" t="s">
+        <v>333</v>
+      </c>
+      <c r="G173" s="21" t="s">
+        <v>334</v>
+      </c>
+      <c r="H173" s="22" t="n"/>
+      <c r="I173" s="146" t="s">
+        <v>22</v>
+      </c>
+      <c r="J173" s="21" t="s">
         <v>15</v>
       </c>
     </row>
     <row outlineLevel="0" r="174">
-      <c r="A174" s="76" t="s"/>
-      <c r="B174" s="18" t="s"/>
+      <c r="A174" s="64" t="s"/>
+      <c r="B174" s="135" t="s"/>
       <c r="C174" s="0" t="n"/>
       <c r="D174" s="0" t="n"/>
-      <c r="E174" s="81" t="s"/>
-      <c r="F174" s="20" t="s">
-        <v>288</v>
-      </c>
-      <c r="G174" s="21" t="s">
-        <v>289</v>
-      </c>
-      <c r="H174" s="22" t="n"/>
-      <c r="I174" s="0" t="n"/>
+      <c r="E174" s="70" t="s"/>
+      <c r="F174" s="81" t="s">
+        <v>335</v>
+      </c>
+      <c r="G174" s="125" t="s">
+        <v>145</v>
+      </c>
+      <c r="H174" s="83" t="s">
+        <v>336</v>
+      </c>
+      <c r="I174" s="146" t="s">
+        <v>22</v>
+      </c>
       <c r="J174" s="21" t="s">
         <v>15</v>
       </c>
     </row>
     <row outlineLevel="0" r="175">
-      <c r="A175" s="76" t="s"/>
-      <c r="B175" s="18" t="s"/>
-      <c r="C175" s="0" t="n"/>
-      <c r="D175" s="0" t="n"/>
-      <c r="E175" s="81" t="s"/>
-      <c r="F175" s="20" t="s">
-        <v>301</v>
-      </c>
-      <c r="G175" s="21" t="s">
-        <v>291</v>
-      </c>
-      <c r="H175" s="22" t="n"/>
-      <c r="I175" s="0" t="n"/>
-      <c r="J175" s="21" t="s">
+      <c r="A175" s="64" t="s"/>
+      <c r="B175" s="135" t="s"/>
+      <c r="C175" s="29" t="n"/>
+      <c r="D175" s="29" t="n"/>
+      <c r="E175" s="70" t="s"/>
+      <c r="F175" s="161" t="s">
+        <v>337</v>
+      </c>
+      <c r="G175" s="162" t="s">
+        <v>338</v>
+      </c>
+      <c r="H175" s="163" t="s">
+        <v>134</v>
+      </c>
+      <c r="I175" s="151" t="s">
+        <v>22</v>
+      </c>
+      <c r="J175" s="32" t="s">
         <v>15</v>
       </c>
     </row>
     <row outlineLevel="0" r="176">
-      <c r="A176" s="76" t="s"/>
-      <c r="B176" s="18" t="s"/>
-      <c r="C176" s="0" t="n"/>
-      <c r="D176" s="0" t="n"/>
-      <c r="E176" s="81" t="s"/>
-      <c r="F176" s="88" t="s">
-        <v>302</v>
-      </c>
-      <c r="G176" s="112" t="s">
-        <v>303</v>
-      </c>
-      <c r="H176" s="22" t="n"/>
-      <c r="I176" s="0" t="n"/>
-      <c r="J176" s="21" t="s">
+      <c r="A176" s="107" t="n">
+        <v>25</v>
+      </c>
+      <c r="B176" s="144" t="s">
+        <v>339</v>
+      </c>
+      <c r="C176" s="12" t="n"/>
+      <c r="D176" s="12" t="n"/>
+      <c r="E176" s="164" t="s">
+        <v>65</v>
+      </c>
+      <c r="F176" s="37" t="s">
+        <v>340</v>
+      </c>
+      <c r="G176" s="126" t="s">
+        <v>341</v>
+      </c>
+      <c r="H176" s="55" t="n"/>
+      <c r="I176" s="55" t="s">
+        <v>22</v>
+      </c>
+      <c r="J176" s="39" t="s">
         <v>15</v>
       </c>
     </row>
     <row outlineLevel="0" r="177">
-      <c r="A177" s="76" t="s"/>
-      <c r="B177" s="18" t="s"/>
+      <c r="A177" s="90" t="s"/>
+      <c r="B177" s="135" t="s"/>
       <c r="C177" s="0" t="n"/>
       <c r="D177" s="0" t="n"/>
-      <c r="E177" s="81" t="s"/>
-      <c r="F177" s="123" t="s">
-        <v>304</v>
-      </c>
-      <c r="G177" s="112" t="s">
-        <v>265</v>
-      </c>
-      <c r="H177" s="22" t="n"/>
-      <c r="I177" s="0" t="n"/>
-      <c r="J177" s="21" t="s">
+      <c r="E177" s="165" t="s"/>
+      <c r="F177" s="46" t="s">
+        <v>301</v>
+      </c>
+      <c r="G177" s="45" t="s">
+        <v>302</v>
+      </c>
+      <c r="H177" s="43" t="n"/>
+      <c r="I177" s="43" t="s">
+        <v>22</v>
+      </c>
+      <c r="J177" s="47" t="s">
         <v>15</v>
       </c>
     </row>
     <row outlineLevel="0" r="178">
-      <c r="A178" s="76" t="s"/>
-      <c r="B178" s="18" t="s"/>
+      <c r="A178" s="90" t="s"/>
+      <c r="B178" s="135" t="s"/>
       <c r="C178" s="0" t="n"/>
       <c r="D178" s="0" t="n"/>
-      <c r="E178" s="81" t="s"/>
-      <c r="F178" s="100" t="s">
-        <v>135</v>
-      </c>
-      <c r="G178" s="112" t="s">
-        <v>305</v>
-      </c>
-      <c r="H178" s="22" t="n"/>
-      <c r="I178" s="0" t="n"/>
-      <c r="J178" s="21" t="s">
+      <c r="E178" s="165" t="s"/>
+      <c r="F178" s="46" t="s">
+        <v>314</v>
+      </c>
+      <c r="G178" s="45" t="s">
+        <v>304</v>
+      </c>
+      <c r="H178" s="43" t="n"/>
+      <c r="I178" s="43" t="s">
+        <v>22</v>
+      </c>
+      <c r="J178" s="47" t="s">
         <v>15</v>
       </c>
     </row>
     <row outlineLevel="0" r="179">
-      <c r="A179" s="76" t="s"/>
-      <c r="B179" s="18" t="s"/>
+      <c r="A179" s="90" t="s"/>
+      <c r="B179" s="135" t="s"/>
       <c r="C179" s="0" t="n"/>
       <c r="D179" s="0" t="n"/>
-      <c r="E179" s="81" t="s"/>
-      <c r="F179" s="88" t="s">
-        <v>306</v>
-      </c>
-      <c r="G179" s="117" t="s">
-        <v>307</v>
-      </c>
-      <c r="H179" s="22" t="n"/>
-      <c r="I179" s="0" t="n"/>
-      <c r="J179" s="21" t="s">
+      <c r="E179" s="165" t="s"/>
+      <c r="F179" s="93" t="s">
+        <v>315</v>
+      </c>
+      <c r="G179" s="166" t="s">
+        <v>316</v>
+      </c>
+      <c r="H179" s="43" t="n"/>
+      <c r="I179" s="43" t="s">
+        <v>22</v>
+      </c>
+      <c r="J179" s="47" t="s">
         <v>15</v>
       </c>
     </row>
     <row outlineLevel="0" r="180">
-      <c r="A180" s="76" t="s"/>
-      <c r="B180" s="18" t="s"/>
+      <c r="A180" s="90" t="s"/>
+      <c r="B180" s="135" t="s"/>
       <c r="C180" s="0" t="n"/>
       <c r="D180" s="0" t="n"/>
-      <c r="E180" s="81" t="s"/>
-      <c r="F180" s="88" t="s">
-        <v>326</v>
-      </c>
-      <c r="G180" s="117" t="s">
-        <v>327</v>
-      </c>
-      <c r="H180" s="22" t="n"/>
-      <c r="I180" s="0" t="n"/>
-      <c r="J180" s="21" t="s">
+      <c r="E180" s="165" t="s"/>
+      <c r="F180" s="167" t="s">
+        <v>317</v>
+      </c>
+      <c r="G180" s="168" t="s">
+        <v>277</v>
+      </c>
+      <c r="H180" s="138" t="n"/>
+      <c r="I180" s="138" t="s">
+        <v>342</v>
+      </c>
+      <c r="J180" s="47" t="s">
         <v>15</v>
       </c>
     </row>
     <row outlineLevel="0" r="181">
-      <c r="A181" s="76" t="s"/>
-      <c r="B181" s="18" t="s"/>
+      <c r="A181" s="90" t="s"/>
+      <c r="B181" s="135" t="s"/>
       <c r="C181" s="0" t="n"/>
       <c r="D181" s="0" t="n"/>
-      <c r="E181" s="81" t="s"/>
-      <c r="F181" s="23" t="s">
-        <v>125</v>
-      </c>
-      <c r="G181" s="24" t="s">
-        <v>312</v>
-      </c>
-      <c r="H181" s="22" t="n"/>
-      <c r="I181" s="0" t="n"/>
-      <c r="J181" s="21" t="s">
+      <c r="E181" s="165" t="s"/>
+      <c r="F181" s="169" t="s">
+        <v>137</v>
+      </c>
+      <c r="G181" s="168" t="s">
+        <v>318</v>
+      </c>
+      <c r="H181" s="138" t="n"/>
+      <c r="I181" s="138" t="s">
+        <v>343</v>
+      </c>
+      <c r="J181" s="47" t="s">
         <v>15</v>
       </c>
     </row>
     <row outlineLevel="0" r="182">
-      <c r="A182" s="0" t="n"/>
-      <c r="B182" s="0" t="n"/>
-      <c r="C182" s="29" t="n"/>
-      <c r="D182" s="29" t="n"/>
-      <c r="E182" s="0" t="n"/>
-      <c r="F182" s="82" t="s">
-        <v>313</v>
-      </c>
-      <c r="G182" s="32" t="s">
-        <v>314</v>
-      </c>
-      <c r="H182" s="33" t="n"/>
-      <c r="I182" s="29" t="n"/>
-      <c r="J182" s="32" t="s">
+      <c r="A182" s="90" t="s"/>
+      <c r="B182" s="135" t="s"/>
+      <c r="C182" s="0" t="n"/>
+      <c r="D182" s="0" t="n"/>
+      <c r="E182" s="165" t="s"/>
+      <c r="F182" s="93" t="s">
+        <v>319</v>
+      </c>
+      <c r="G182" s="166" t="s">
+        <v>320</v>
+      </c>
+      <c r="H182" s="43" t="n"/>
+      <c r="I182" s="43" t="s">
+        <v>22</v>
+      </c>
+      <c r="J182" s="47" t="s">
         <v>15</v>
       </c>
     </row>
     <row outlineLevel="0" r="183">
-      <c r="A183" s="73" t="n">
-        <v>26</v>
-      </c>
-      <c r="B183" s="11" t="s">
-        <v>328</v>
-      </c>
-      <c r="C183" s="12" t="n"/>
-      <c r="D183" s="12" t="n"/>
-      <c r="E183" s="79" t="s">
-        <v>64</v>
-      </c>
-      <c r="F183" s="14" t="s">
-        <v>329</v>
-      </c>
-      <c r="G183" s="15" t="s">
-        <v>312</v>
-      </c>
-      <c r="H183" s="16" t="n"/>
-      <c r="I183" s="12" t="n"/>
-      <c r="J183" s="15" t="s">
+      <c r="A183" s="90" t="s"/>
+      <c r="B183" s="135" t="s"/>
+      <c r="C183" s="0" t="n"/>
+      <c r="D183" s="0" t="n"/>
+      <c r="E183" s="165" t="s"/>
+      <c r="F183" s="93" t="s">
+        <v>344</v>
+      </c>
+      <c r="G183" s="166" t="s">
+        <v>345</v>
+      </c>
+      <c r="H183" s="43" t="n"/>
+      <c r="I183" s="43" t="s">
+        <v>22</v>
+      </c>
+      <c r="J183" s="47" t="s">
         <v>15</v>
       </c>
     </row>
     <row outlineLevel="0" r="184">
-      <c r="A184" s="76" t="s"/>
-      <c r="B184" s="18" t="s"/>
+      <c r="A184" s="90" t="s"/>
+      <c r="B184" s="135" t="s"/>
       <c r="C184" s="0" t="n"/>
       <c r="D184" s="0" t="n"/>
-      <c r="E184" s="81" t="s"/>
-      <c r="F184" s="20" t="s">
-        <v>330</v>
-      </c>
-      <c r="G184" s="21" t="s">
-        <v>331</v>
-      </c>
-      <c r="H184" s="22" t="n"/>
-      <c r="I184" s="0" t="n"/>
-      <c r="J184" s="21" t="s">
+      <c r="E184" s="165" t="s"/>
+      <c r="F184" s="41" t="s">
+        <v>126</v>
+      </c>
+      <c r="G184" s="42" t="s">
+        <v>327</v>
+      </c>
+      <c r="H184" s="43" t="n"/>
+      <c r="I184" s="43" t="s">
+        <v>22</v>
+      </c>
+      <c r="J184" s="47" t="s">
         <v>15</v>
       </c>
     </row>
     <row outlineLevel="0" r="185">
-      <c r="A185" s="76" t="s"/>
-      <c r="B185" s="18" t="s"/>
-      <c r="C185" s="0" t="n"/>
-      <c r="D185" s="0" t="n"/>
-      <c r="E185" s="81" t="s"/>
-      <c r="F185" s="20" t="s">
-        <v>332</v>
-      </c>
-      <c r="G185" s="21" t="s">
-        <v>333</v>
-      </c>
-      <c r="H185" s="22" t="n"/>
-      <c r="I185" s="0" t="n"/>
-      <c r="J185" s="21" t="s">
+      <c r="A185" s="90" t="s"/>
+      <c r="B185" s="135" t="s"/>
+      <c r="C185" s="29" t="n"/>
+      <c r="D185" s="29" t="n"/>
+      <c r="E185" s="165" t="s"/>
+      <c r="F185" s="46" t="s">
+        <v>328</v>
+      </c>
+      <c r="G185" s="45" t="s">
+        <v>329</v>
+      </c>
+      <c r="H185" s="43" t="n"/>
+      <c r="I185" s="43" t="s">
+        <v>22</v>
+      </c>
+      <c r="J185" s="47" t="s">
         <v>15</v>
       </c>
     </row>
     <row outlineLevel="0" r="186">
-      <c r="A186" s="0" t="n"/>
-      <c r="B186" s="0" t="n"/>
-      <c r="C186" s="29" t="n"/>
-      <c r="D186" s="29" t="n"/>
-      <c r="E186" s="0" t="n"/>
-      <c r="F186" s="82" t="s">
-        <v>334</v>
-      </c>
-      <c r="G186" s="32" t="s">
-        <v>333</v>
-      </c>
-      <c r="H186" s="33" t="n"/>
-      <c r="I186" s="29" t="n"/>
-      <c r="J186" s="32" t="s">
-        <v>15</v>
-      </c>
+      <c r="A186" s="122" t="s"/>
+      <c r="B186" s="135" t="s"/>
+      <c r="C186" s="29" t="s"/>
+      <c r="D186" s="29" t="s"/>
+      <c r="E186" s="165" t="s"/>
+      <c r="F186" s="66" t="s">
+        <v>346</v>
+      </c>
+      <c r="G186" s="50" t="s">
+        <v>347</v>
+      </c>
+      <c r="H186" s="59" t="n"/>
+      <c r="I186" s="59" t="s">
+        <v>22</v>
+      </c>
+      <c r="J186" s="96" t="n"/>
     </row>
     <row outlineLevel="0" r="187">
-      <c r="A187" s="73" t="n">
-        <v>27</v>
-      </c>
-      <c r="B187" s="124" t="s">
-        <v>335</v>
+      <c r="A187" s="61" t="n">
+        <v>26</v>
+      </c>
+      <c r="B187" s="144" t="s">
+        <v>348</v>
       </c>
       <c r="C187" s="12" t="n"/>
       <c r="D187" s="12" t="n"/>
-      <c r="E187" s="79" t="s">
-        <v>64</v>
+      <c r="E187" s="68" t="s">
+        <v>349</v>
       </c>
       <c r="F187" s="14" t="s">
-        <v>332</v>
+        <v>350</v>
       </c>
       <c r="G187" s="15" t="s">
-        <v>333</v>
-      </c>
-      <c r="H187" s="16" t="n"/>
-      <c r="I187" s="12" t="n"/>
+        <v>327</v>
+      </c>
+      <c r="H187" s="170" t="n"/>
+      <c r="I187" s="12" t="s">
+        <v>22</v>
+      </c>
       <c r="J187" s="15" t="s">
         <v>15</v>
       </c>
     </row>
     <row outlineLevel="0" r="188">
-      <c r="A188" s="0" t="n"/>
-      <c r="B188" s="0" t="n"/>
-      <c r="C188" s="29" t="n"/>
-      <c r="D188" s="29" t="n"/>
-      <c r="E188" s="0" t="n"/>
-      <c r="F188" s="82" t="s">
-        <v>334</v>
-      </c>
-      <c r="G188" s="32" t="s">
-        <v>333</v>
-      </c>
-      <c r="H188" s="33" t="n"/>
-      <c r="I188" s="29" t="n"/>
-      <c r="J188" s="32" t="s">
+      <c r="A188" s="64" t="s"/>
+      <c r="B188" s="135" t="s"/>
+      <c r="C188" s="0" t="n"/>
+      <c r="D188" s="0" t="n"/>
+      <c r="E188" s="70" t="s"/>
+      <c r="F188" s="20" t="s">
+        <v>351</v>
+      </c>
+      <c r="G188" s="21" t="s">
+        <v>352</v>
+      </c>
+      <c r="H188" s="171" t="s">
+        <v>353</v>
+      </c>
+      <c r="I188" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="J188" s="21" t="s">
         <v>15</v>
       </c>
     </row>
     <row outlineLevel="0" r="189">
-      <c r="A189" s="73" t="n">
+      <c r="A189" s="64" t="s"/>
+      <c r="B189" s="135" t="s"/>
+      <c r="C189" s="0" t="n"/>
+      <c r="D189" s="0" t="n"/>
+      <c r="E189" s="70" t="s"/>
+      <c r="F189" s="20" t="s">
+        <v>354</v>
+      </c>
+      <c r="G189" s="21" t="s">
+        <v>355</v>
+      </c>
+      <c r="H189" s="86" t="s">
+        <v>356</v>
+      </c>
+      <c r="I189" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="J189" s="21" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="190">
+      <c r="A190" s="64" t="s"/>
+      <c r="B190" s="135" t="s"/>
+      <c r="C190" s="29" t="n"/>
+      <c r="D190" s="29" t="n"/>
+      <c r="E190" s="70" t="s"/>
+      <c r="F190" s="71" t="s">
+        <v>357</v>
+      </c>
+      <c r="G190" s="32" t="s">
+        <v>355</v>
+      </c>
+      <c r="H190" s="72" t="s">
+        <v>356</v>
+      </c>
+      <c r="I190" s="29" t="s">
+        <v>22</v>
+      </c>
+      <c r="J190" s="32" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="191">
+      <c r="A191" s="61" t="n">
+        <v>27</v>
+      </c>
+      <c r="B191" s="172" t="s">
+        <v>358</v>
+      </c>
+      <c r="C191" s="173" t="n"/>
+      <c r="D191" s="12" t="s"/>
+      <c r="E191" s="164" t="s">
+        <v>65</v>
+      </c>
+      <c r="F191" s="37" t="s">
+        <v>359</v>
+      </c>
+      <c r="G191" s="38" t="s">
+        <v>355</v>
+      </c>
+      <c r="H191" s="174" t="s">
+        <v>360</v>
+      </c>
+      <c r="I191" s="63" t="s">
+        <v>22</v>
+      </c>
+      <c r="J191" s="38" t="n"/>
+    </row>
+    <row outlineLevel="0" r="192">
+      <c r="A192" s="64" t="s"/>
+      <c r="B192" s="175" t="s"/>
+      <c r="C192" s="176" t="s"/>
+      <c r="D192" s="176" t="s"/>
+      <c r="E192" s="165" t="s"/>
+      <c r="F192" s="46" t="s">
+        <v>354</v>
+      </c>
+      <c r="G192" s="45" t="s">
+        <v>355</v>
+      </c>
+      <c r="H192" s="47" t="s">
+        <v>361</v>
+      </c>
+      <c r="I192" s="41" t="s">
+        <v>22</v>
+      </c>
+      <c r="J192" s="45" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="193">
+      <c r="A193" s="64" t="s"/>
+      <c r="B193" s="175" t="s"/>
+      <c r="C193" s="29" t="s"/>
+      <c r="D193" s="29" t="s"/>
+      <c r="E193" s="165" t="s"/>
+      <c r="F193" s="66" t="s">
+        <v>357</v>
+      </c>
+      <c r="G193" s="50" t="s">
+        <v>355</v>
+      </c>
+      <c r="H193" s="96" t="s">
+        <v>356</v>
+      </c>
+      <c r="I193" s="52" t="s">
+        <v>22</v>
+      </c>
+      <c r="J193" s="50" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="194">
+      <c r="A194" s="61" t="n">
         <v>28</v>
       </c>
-      <c r="B189" s="11" t="s">
-        <v>336</v>
-      </c>
-      <c r="C189" s="12" t="n"/>
-      <c r="D189" s="12" t="n"/>
-      <c r="E189" s="79" t="s">
-        <v>64</v>
-      </c>
-      <c r="F189" s="125" t="s">
-        <v>337</v>
-      </c>
-      <c r="G189" s="126" t="s">
-        <v>338</v>
-      </c>
-      <c r="H189" s="16" t="n"/>
-      <c r="I189" s="12" t="n"/>
-      <c r="J189" s="15" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row outlineLevel="0" r="190">
-      <c r="A190" s="76" t="s"/>
-      <c r="B190" s="18" t="s"/>
-      <c r="C190" s="0" t="n"/>
-      <c r="D190" s="0" t="n"/>
-      <c r="E190" s="81" t="s"/>
-      <c r="F190" s="20" t="s">
-        <v>339</v>
-      </c>
-      <c r="G190" s="21" t="s">
-        <v>340</v>
-      </c>
-      <c r="H190" s="22" t="n"/>
-      <c r="I190" s="0" t="n"/>
-      <c r="J190" s="21" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row outlineLevel="0" r="191">
-      <c r="A191" s="0" t="n"/>
-      <c r="B191" s="0" t="n"/>
-      <c r="C191" s="29" t="n"/>
-      <c r="D191" s="29" t="n"/>
-      <c r="E191" s="0" t="n"/>
-      <c r="F191" s="82" t="s">
-        <v>341</v>
-      </c>
-      <c r="G191" s="32" t="s">
-        <v>342</v>
-      </c>
-      <c r="H191" s="33" t="n"/>
-      <c r="I191" s="29" t="n"/>
-      <c r="J191" s="32" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row outlineLevel="0" r="192">
-      <c r="A192" s="73" t="n">
-        <v>29</v>
-      </c>
-      <c r="B192" s="127" t="s">
-        <v>343</v>
-      </c>
-      <c r="C192" s="128" t="n"/>
-      <c r="D192" s="128" t="n"/>
-      <c r="E192" s="79" t="s">
-        <v>64</v>
-      </c>
-      <c r="F192" s="129" t="s">
-        <v>344</v>
-      </c>
-      <c r="G192" s="130" t="s">
-        <v>345</v>
-      </c>
-      <c r="H192" s="131" t="n"/>
-      <c r="I192" s="12" t="n"/>
-      <c r="J192" s="15" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row outlineLevel="0" r="193">
-      <c r="A193" s="76" t="s"/>
-      <c r="B193" s="132" t="s"/>
-      <c r="C193" s="95" t="n"/>
-      <c r="D193" s="95" t="n"/>
-      <c r="E193" s="81" t="s"/>
-      <c r="F193" s="115" t="s">
-        <v>346</v>
-      </c>
-      <c r="G193" s="133" t="s">
-        <v>347</v>
-      </c>
-      <c r="H193" s="134" t="s">
-        <v>348</v>
-      </c>
-      <c r="I193" s="0" t="n"/>
-      <c r="J193" s="21" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row outlineLevel="0" r="194">
-      <c r="A194" s="76" t="s"/>
-      <c r="B194" s="132" t="s"/>
-      <c r="C194" s="95" t="n"/>
-      <c r="D194" s="95" t="n"/>
-      <c r="E194" s="81" t="s"/>
-      <c r="F194" s="115" t="s">
-        <v>349</v>
-      </c>
-      <c r="G194" s="135" t="s">
-        <v>350</v>
-      </c>
-      <c r="H194" s="134" t="s">
-        <v>351</v>
-      </c>
-      <c r="I194" s="0" t="n"/>
-      <c r="J194" s="21" t="s">
+      <c r="B194" s="144" t="s">
+        <v>362</v>
+      </c>
+      <c r="C194" s="12" t="n"/>
+      <c r="D194" s="12" t="n"/>
+      <c r="E194" s="68" t="s">
+        <v>65</v>
+      </c>
+      <c r="F194" s="177" t="s">
+        <v>363</v>
+      </c>
+      <c r="G194" s="178" t="s">
+        <v>364</v>
+      </c>
+      <c r="H194" s="16" t="n"/>
+      <c r="I194" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="J194" s="15" t="s">
         <v>15</v>
       </c>
     </row>
     <row outlineLevel="0" r="195">
-      <c r="A195" s="76" t="s"/>
-      <c r="B195" s="132" t="s"/>
+      <c r="A195" s="64" t="s"/>
+      <c r="B195" s="135" t="s"/>
       <c r="C195" s="0" t="n"/>
       <c r="D195" s="0" t="n"/>
-      <c r="E195" s="81" t="s"/>
+      <c r="E195" s="70" t="s"/>
       <c r="F195" s="20" t="s">
-        <v>352</v>
-      </c>
-      <c r="G195" s="24" t="s">
-        <v>353</v>
+        <v>365</v>
+      </c>
+      <c r="G195" s="21" t="s">
+        <v>366</v>
       </c>
       <c r="H195" s="22" t="n"/>
-      <c r="I195" s="0" t="n"/>
+      <c r="I195" s="0" t="s">
+        <v>22</v>
+      </c>
       <c r="J195" s="21" t="s">
         <v>15</v>
       </c>
     </row>
     <row outlineLevel="0" r="196">
-      <c r="A196" s="76" t="s"/>
-      <c r="B196" s="132" t="s"/>
-      <c r="C196" s="0" t="n"/>
-      <c r="D196" s="0" t="n"/>
-      <c r="E196" s="81" t="s"/>
-      <c r="F196" s="20" t="s">
-        <v>354</v>
-      </c>
-      <c r="G196" s="24" t="s">
-        <v>355</v>
-      </c>
-      <c r="H196" s="22" t="n"/>
-      <c r="I196" s="0" t="n"/>
-      <c r="J196" s="21" t="s">
+      <c r="A196" s="64" t="s"/>
+      <c r="B196" s="135" t="s"/>
+      <c r="C196" s="29" t="n"/>
+      <c r="D196" s="29" t="n"/>
+      <c r="E196" s="70" t="s"/>
+      <c r="F196" s="71" t="s">
+        <v>367</v>
+      </c>
+      <c r="G196" s="32" t="s">
+        <v>368</v>
+      </c>
+      <c r="H196" s="33" t="n"/>
+      <c r="I196" s="29" t="s">
+        <v>22</v>
+      </c>
+      <c r="J196" s="32" t="s">
         <v>15</v>
       </c>
     </row>
     <row outlineLevel="0" r="197">
-      <c r="A197" s="76" t="s"/>
-      <c r="B197" s="132" t="s"/>
-      <c r="C197" s="0" t="n"/>
-      <c r="D197" s="0" t="n"/>
-      <c r="E197" s="81" t="s"/>
-      <c r="F197" s="20" t="s">
-        <v>356</v>
-      </c>
-      <c r="G197" s="21" t="s">
-        <v>357</v>
-      </c>
-      <c r="H197" s="22" t="n"/>
-      <c r="I197" s="0" t="n"/>
-      <c r="J197" s="21" t="s">
+      <c r="A197" s="61" t="n">
+        <v>29</v>
+      </c>
+      <c r="B197" s="179" t="s">
+        <v>369</v>
+      </c>
+      <c r="C197" s="180" t="n"/>
+      <c r="D197" s="180" t="n"/>
+      <c r="E197" s="68" t="s">
+        <v>65</v>
+      </c>
+      <c r="F197" s="181" t="s">
+        <v>370</v>
+      </c>
+      <c r="G197" s="182" t="s">
+        <v>371</v>
+      </c>
+      <c r="H197" s="183" t="n"/>
+      <c r="I197" s="12" t="n"/>
+      <c r="J197" s="15" t="s">
         <v>15</v>
       </c>
     </row>
     <row outlineLevel="0" r="198">
-      <c r="A198" s="76" t="s"/>
-      <c r="B198" s="132" t="s"/>
-      <c r="C198" s="0" t="n"/>
-      <c r="D198" s="0" t="n"/>
-      <c r="E198" s="81" t="s"/>
-      <c r="F198" s="23" t="s">
-        <v>179</v>
-      </c>
-      <c r="G198" s="21" t="s">
-        <v>358</v>
-      </c>
-      <c r="H198" s="22" t="n"/>
+      <c r="A198" s="64" t="s"/>
+      <c r="B198" s="184" t="s"/>
+      <c r="C198" s="115" t="n"/>
+      <c r="D198" s="115" t="n"/>
+      <c r="E198" s="70" t="s"/>
+      <c r="F198" s="185" t="s">
+        <v>372</v>
+      </c>
+      <c r="G198" s="186" t="s">
+        <v>373</v>
+      </c>
+      <c r="H198" s="187" t="s">
+        <v>374</v>
+      </c>
       <c r="I198" s="0" t="n"/>
       <c r="J198" s="21" t="s">
         <v>15</v>
       </c>
     </row>
     <row outlineLevel="0" r="199">
-      <c r="A199" s="0" t="n"/>
-      <c r="B199" s="0" t="n"/>
-      <c r="C199" s="29" t="n"/>
-      <c r="D199" s="29" t="n"/>
-      <c r="E199" s="0" t="n"/>
-      <c r="F199" s="31" t="s">
-        <v>198</v>
-      </c>
-      <c r="G199" s="32" t="s">
-        <v>359</v>
-      </c>
-      <c r="H199" s="33" t="n"/>
-      <c r="I199" s="29" t="n"/>
-      <c r="J199" s="32" t="s">
+      <c r="A199" s="64" t="s"/>
+      <c r="B199" s="184" t="s"/>
+      <c r="C199" s="115" t="n"/>
+      <c r="D199" s="115" t="n"/>
+      <c r="E199" s="70" t="s"/>
+      <c r="F199" s="185" t="s">
+        <v>375</v>
+      </c>
+      <c r="G199" s="188" t="s">
+        <v>376</v>
+      </c>
+      <c r="H199" s="187" t="s">
+        <v>377</v>
+      </c>
+      <c r="I199" s="0" t="n"/>
+      <c r="J199" s="21" t="s">
         <v>15</v>
       </c>
     </row>
     <row outlineLevel="0" r="200">
-      <c r="A200" s="73" t="n">
-        <v>30</v>
-      </c>
-      <c r="B200" s="136" t="s">
-        <v>360</v>
-      </c>
-      <c r="C200" s="12" t="n"/>
-      <c r="D200" s="12" t="n"/>
-      <c r="E200" s="79" t="s">
-        <v>64</v>
-      </c>
-      <c r="F200" s="80" t="s">
-        <v>361</v>
-      </c>
-      <c r="G200" s="15" t="s">
-        <v>362</v>
-      </c>
-      <c r="H200" s="16" t="n"/>
-      <c r="I200" s="12" t="n"/>
-      <c r="J200" s="15" t="s">
+      <c r="A200" s="64" t="s"/>
+      <c r="B200" s="184" t="s"/>
+      <c r="C200" s="0" t="n"/>
+      <c r="D200" s="0" t="n"/>
+      <c r="E200" s="70" t="s"/>
+      <c r="F200" s="20" t="s">
+        <v>378</v>
+      </c>
+      <c r="G200" s="24" t="s">
+        <v>379</v>
+      </c>
+      <c r="H200" s="22" t="n"/>
+      <c r="I200" s="0" t="n"/>
+      <c r="J200" s="21" t="s">
         <v>15</v>
       </c>
     </row>
     <row outlineLevel="0" r="201">
-      <c r="A201" s="76" t="s"/>
-      <c r="B201" s="137" t="s"/>
+      <c r="A201" s="64" t="s"/>
+      <c r="B201" s="184" t="s"/>
       <c r="C201" s="0" t="n"/>
       <c r="D201" s="0" t="n"/>
-      <c r="E201" s="81" t="s"/>
+      <c r="E201" s="70" t="s"/>
       <c r="F201" s="20" t="s">
-        <v>363</v>
+        <v>380</v>
       </c>
       <c r="G201" s="24" t="s">
-        <v>364</v>
+        <v>381</v>
       </c>
       <c r="H201" s="22" t="n"/>
       <c r="I201" s="0" t="n"/>
@@ -7515,16 +8151,16 @@
       </c>
     </row>
     <row outlineLevel="0" r="202">
-      <c r="A202" s="76" t="s"/>
-      <c r="B202" s="137" t="s"/>
+      <c r="A202" s="64" t="s"/>
+      <c r="B202" s="184" t="s"/>
       <c r="C202" s="0" t="n"/>
       <c r="D202" s="0" t="n"/>
-      <c r="E202" s="81" t="s"/>
+      <c r="E202" s="70" t="s"/>
       <c r="F202" s="20" t="s">
-        <v>365</v>
+        <v>382</v>
       </c>
       <c r="G202" s="21" t="s">
-        <v>366</v>
+        <v>383</v>
       </c>
       <c r="H202" s="22" t="n"/>
       <c r="I202" s="0" t="n"/>
@@ -7533,16 +8169,16 @@
       </c>
     </row>
     <row outlineLevel="0" r="203">
-      <c r="A203" s="76" t="s"/>
-      <c r="B203" s="137" t="s"/>
+      <c r="A203" s="64" t="s"/>
+      <c r="B203" s="184" t="s"/>
       <c r="C203" s="0" t="n"/>
       <c r="D203" s="0" t="n"/>
-      <c r="E203" s="81" t="s"/>
-      <c r="F203" s="20" t="s">
-        <v>367</v>
+      <c r="E203" s="70" t="s"/>
+      <c r="F203" s="23" t="s">
+        <v>181</v>
       </c>
       <c r="G203" s="21" t="s">
-        <v>368</v>
+        <v>384</v>
       </c>
       <c r="H203" s="22" t="n"/>
       <c r="I203" s="0" t="n"/>
@@ -7551,94 +8187,94 @@
       </c>
     </row>
     <row outlineLevel="0" r="204">
-      <c r="A204" s="76" t="s"/>
-      <c r="B204" s="137" t="s"/>
-      <c r="C204" s="0" t="n"/>
-      <c r="D204" s="0" t="n"/>
-      <c r="E204" s="81" t="s"/>
-      <c r="F204" s="23" t="s">
-        <v>125</v>
-      </c>
-      <c r="G204" s="21" t="s">
-        <v>369</v>
-      </c>
-      <c r="H204" s="22" t="n"/>
-      <c r="I204" s="0" t="n"/>
-      <c r="J204" s="21" t="s">
+      <c r="A204" s="64" t="s"/>
+      <c r="B204" s="184" t="s"/>
+      <c r="C204" s="29" t="n"/>
+      <c r="D204" s="29" t="n"/>
+      <c r="E204" s="70" t="s"/>
+      <c r="F204" s="31" t="s">
+        <v>203</v>
+      </c>
+      <c r="G204" s="32" t="s">
+        <v>385</v>
+      </c>
+      <c r="H204" s="33" t="n"/>
+      <c r="I204" s="29" t="n"/>
+      <c r="J204" s="32" t="s">
         <v>15</v>
       </c>
     </row>
     <row outlineLevel="0" r="205">
-      <c r="A205" s="76" t="s"/>
-      <c r="B205" s="137" t="s"/>
-      <c r="C205" s="0" t="n"/>
-      <c r="D205" s="0" t="n"/>
-      <c r="E205" s="81" t="s"/>
-      <c r="F205" s="23" t="s">
-        <v>370</v>
-      </c>
-      <c r="G205" s="21" t="s">
-        <v>371</v>
-      </c>
-      <c r="H205" s="22" t="n"/>
-      <c r="I205" s="0" t="n"/>
-      <c r="J205" s="21" t="s">
+      <c r="A205" s="61" t="n">
+        <v>30</v>
+      </c>
+      <c r="B205" s="189" t="s">
+        <v>386</v>
+      </c>
+      <c r="C205" s="12" t="n"/>
+      <c r="D205" s="12" t="n"/>
+      <c r="E205" s="68" t="s">
+        <v>65</v>
+      </c>
+      <c r="F205" s="69" t="s">
+        <v>387</v>
+      </c>
+      <c r="G205" s="15" t="s">
+        <v>388</v>
+      </c>
+      <c r="H205" s="16" t="n"/>
+      <c r="I205" s="12" t="n"/>
+      <c r="J205" s="15" t="s">
         <v>15</v>
       </c>
     </row>
     <row outlineLevel="0" r="206">
-      <c r="A206" s="0" t="n"/>
-      <c r="B206" s="0" t="n"/>
-      <c r="C206" s="29" t="n"/>
-      <c r="D206" s="29" t="n"/>
-      <c r="E206" s="0" t="n"/>
-      <c r="F206" s="82" t="s">
-        <v>372</v>
-      </c>
-      <c r="G206" s="32" t="s">
-        <v>373</v>
-      </c>
-      <c r="H206" s="33" t="n"/>
-      <c r="I206" s="29" t="n"/>
-      <c r="J206" s="32" t="s">
+      <c r="A206" s="64" t="s"/>
+      <c r="B206" s="190" t="s"/>
+      <c r="C206" s="0" t="n"/>
+      <c r="D206" s="0" t="n"/>
+      <c r="E206" s="70" t="s"/>
+      <c r="F206" s="20" t="s">
+        <v>389</v>
+      </c>
+      <c r="G206" s="24" t="s">
+        <v>390</v>
+      </c>
+      <c r="H206" s="22" t="n"/>
+      <c r="I206" s="0" t="n"/>
+      <c r="J206" s="21" t="s">
         <v>15</v>
       </c>
     </row>
     <row outlineLevel="0" r="207">
-      <c r="A207" s="73" t="n">
-        <v>31</v>
-      </c>
-      <c r="B207" s="138" t="s">
-        <v>374</v>
-      </c>
-      <c r="C207" s="12" t="n"/>
-      <c r="D207" s="12" t="n"/>
-      <c r="E207" s="79" t="s">
-        <v>64</v>
-      </c>
-      <c r="F207" s="14" t="s">
-        <v>375</v>
-      </c>
-      <c r="G207" s="84" t="s">
-        <v>376</v>
-      </c>
-      <c r="H207" s="16" t="n"/>
-      <c r="I207" s="12" t="n"/>
-      <c r="J207" s="15" t="s">
+      <c r="A207" s="64" t="s"/>
+      <c r="B207" s="190" t="s"/>
+      <c r="C207" s="0" t="n"/>
+      <c r="D207" s="0" t="n"/>
+      <c r="E207" s="70" t="s"/>
+      <c r="F207" s="20" t="s">
+        <v>391</v>
+      </c>
+      <c r="G207" s="21" t="s">
+        <v>392</v>
+      </c>
+      <c r="H207" s="22" t="n"/>
+      <c r="I207" s="0" t="n"/>
+      <c r="J207" s="21" t="s">
         <v>15</v>
       </c>
     </row>
     <row outlineLevel="0" r="208">
-      <c r="A208" s="76" t="s"/>
-      <c r="B208" s="139" t="s"/>
+      <c r="A208" s="64" t="s"/>
+      <c r="B208" s="190" t="s"/>
       <c r="C208" s="0" t="n"/>
       <c r="D208" s="0" t="n"/>
-      <c r="E208" s="81" t="s"/>
-      <c r="F208" s="23" t="s">
-        <v>377</v>
-      </c>
-      <c r="G208" s="24" t="s">
-        <v>378</v>
+      <c r="E208" s="70" t="s"/>
+      <c r="F208" s="20" t="s">
+        <v>393</v>
+      </c>
+      <c r="G208" s="21" t="s">
+        <v>394</v>
       </c>
       <c r="H208" s="22" t="n"/>
       <c r="I208" s="0" t="n"/>
@@ -7647,16 +8283,16 @@
       </c>
     </row>
     <row outlineLevel="0" r="209">
-      <c r="A209" s="76" t="s"/>
-      <c r="B209" s="139" t="s"/>
+      <c r="A209" s="64" t="s"/>
+      <c r="B209" s="190" t="s"/>
       <c r="C209" s="0" t="n"/>
       <c r="D209" s="0" t="n"/>
-      <c r="E209" s="81" t="s"/>
-      <c r="F209" s="20" t="s">
-        <v>379</v>
-      </c>
-      <c r="G209" s="24" t="s">
-        <v>380</v>
+      <c r="E209" s="70" t="s"/>
+      <c r="F209" s="23" t="s">
+        <v>126</v>
+      </c>
+      <c r="G209" s="21" t="s">
+        <v>395</v>
       </c>
       <c r="H209" s="22" t="n"/>
       <c r="I209" s="0" t="n"/>
@@ -7665,16 +8301,16 @@
       </c>
     </row>
     <row outlineLevel="0" r="210">
-      <c r="A210" s="76" t="s"/>
-      <c r="B210" s="139" t="s"/>
+      <c r="A210" s="64" t="s"/>
+      <c r="B210" s="190" t="s"/>
       <c r="C210" s="0" t="n"/>
       <c r="D210" s="0" t="n"/>
-      <c r="E210" s="81" t="s"/>
+      <c r="E210" s="70" t="s"/>
       <c r="F210" s="23" t="s">
-        <v>381</v>
+        <v>396</v>
       </c>
       <c r="G210" s="21" t="s">
-        <v>382</v>
+        <v>397</v>
       </c>
       <c r="H210" s="22" t="n"/>
       <c r="I210" s="0" t="n"/>
@@ -7683,94 +8319,94 @@
       </c>
     </row>
     <row outlineLevel="0" r="211">
-      <c r="A211" s="76" t="s"/>
-      <c r="B211" s="139" t="s"/>
-      <c r="C211" s="0" t="n"/>
-      <c r="D211" s="0" t="n"/>
-      <c r="E211" s="81" t="s"/>
-      <c r="F211" s="20" t="s">
-        <v>383</v>
-      </c>
-      <c r="G211" s="24" t="s">
-        <v>384</v>
-      </c>
-      <c r="H211" s="22" t="n"/>
-      <c r="I211" s="0" t="n"/>
-      <c r="J211" s="21" t="s">
+      <c r="A211" s="64" t="s"/>
+      <c r="B211" s="190" t="s"/>
+      <c r="C211" s="29" t="n"/>
+      <c r="D211" s="29" t="n"/>
+      <c r="E211" s="70" t="s"/>
+      <c r="F211" s="71" t="s">
+        <v>398</v>
+      </c>
+      <c r="G211" s="32" t="s">
+        <v>399</v>
+      </c>
+      <c r="H211" s="33" t="n"/>
+      <c r="I211" s="29" t="n"/>
+      <c r="J211" s="32" t="s">
         <v>15</v>
       </c>
     </row>
     <row outlineLevel="0" r="212">
-      <c r="A212" s="76" t="s"/>
-      <c r="B212" s="139" t="s"/>
-      <c r="C212" s="0" t="n"/>
-      <c r="D212" s="0" t="n"/>
-      <c r="E212" s="81" t="s"/>
-      <c r="F212" s="23" t="s">
-        <v>125</v>
-      </c>
-      <c r="G212" s="21" t="s">
-        <v>369</v>
-      </c>
-      <c r="H212" s="22" t="n"/>
-      <c r="I212" s="0" t="n"/>
-      <c r="J212" s="21" t="s">
+      <c r="A212" s="61" t="n">
+        <v>31</v>
+      </c>
+      <c r="B212" s="191" t="s">
+        <v>400</v>
+      </c>
+      <c r="C212" s="12" t="n"/>
+      <c r="D212" s="12" t="n"/>
+      <c r="E212" s="68" t="s">
+        <v>65</v>
+      </c>
+      <c r="F212" s="14" t="s">
+        <v>401</v>
+      </c>
+      <c r="G212" s="73" t="s">
+        <v>402</v>
+      </c>
+      <c r="H212" s="16" t="n"/>
+      <c r="I212" s="12" t="n"/>
+      <c r="J212" s="15" t="s">
         <v>15</v>
       </c>
     </row>
     <row outlineLevel="0" r="213">
-      <c r="A213" s="0" t="n"/>
-      <c r="B213" s="0" t="n"/>
-      <c r="C213" s="29" t="n"/>
-      <c r="D213" s="29" t="n"/>
-      <c r="E213" s="0" t="n"/>
-      <c r="F213" s="31" t="s">
-        <v>370</v>
-      </c>
-      <c r="G213" s="32" t="s">
-        <v>371</v>
-      </c>
-      <c r="H213" s="33" t="n"/>
-      <c r="I213" s="29" t="n"/>
-      <c r="J213" s="32" t="s">
+      <c r="A213" s="64" t="s"/>
+      <c r="B213" s="192" t="s"/>
+      <c r="C213" s="0" t="n"/>
+      <c r="D213" s="0" t="n"/>
+      <c r="E213" s="70" t="s"/>
+      <c r="F213" s="23" t="s">
+        <v>403</v>
+      </c>
+      <c r="G213" s="24" t="s">
+        <v>404</v>
+      </c>
+      <c r="H213" s="22" t="n"/>
+      <c r="I213" s="0" t="n"/>
+      <c r="J213" s="21" t="s">
         <v>15</v>
       </c>
     </row>
     <row outlineLevel="0" r="214">
-      <c r="A214" s="73" t="n">
-        <v>32</v>
-      </c>
-      <c r="B214" s="138" t="s">
-        <v>385</v>
-      </c>
-      <c r="C214" s="12" t="n"/>
-      <c r="D214" s="12" t="n"/>
-      <c r="E214" s="79" t="s">
-        <v>64</v>
-      </c>
-      <c r="F214" s="14" t="s">
-        <v>375</v>
-      </c>
-      <c r="G214" s="84" t="s">
-        <v>376</v>
-      </c>
-      <c r="H214" s="16" t="n"/>
-      <c r="I214" s="12" t="n"/>
-      <c r="J214" s="15" t="s">
+      <c r="A214" s="64" t="s"/>
+      <c r="B214" s="192" t="s"/>
+      <c r="C214" s="0" t="n"/>
+      <c r="D214" s="0" t="n"/>
+      <c r="E214" s="70" t="s"/>
+      <c r="F214" s="20" t="s">
+        <v>405</v>
+      </c>
+      <c r="G214" s="24" t="s">
+        <v>406</v>
+      </c>
+      <c r="H214" s="22" t="n"/>
+      <c r="I214" s="0" t="n"/>
+      <c r="J214" s="21" t="s">
         <v>15</v>
       </c>
     </row>
     <row outlineLevel="0" r="215">
-      <c r="A215" s="76" t="s"/>
-      <c r="B215" s="139" t="s"/>
+      <c r="A215" s="64" t="s"/>
+      <c r="B215" s="192" t="s"/>
       <c r="C215" s="0" t="n"/>
       <c r="D215" s="0" t="n"/>
-      <c r="E215" s="81" t="s"/>
+      <c r="E215" s="70" t="s"/>
       <c r="F215" s="23" t="s">
-        <v>377</v>
-      </c>
-      <c r="G215" s="24" t="s">
-        <v>378</v>
+        <v>407</v>
+      </c>
+      <c r="G215" s="21" t="s">
+        <v>408</v>
       </c>
       <c r="H215" s="22" t="n"/>
       <c r="I215" s="0" t="n"/>
@@ -7779,16 +8415,16 @@
       </c>
     </row>
     <row outlineLevel="0" r="216">
-      <c r="A216" s="76" t="s"/>
-      <c r="B216" s="139" t="s"/>
+      <c r="A216" s="64" t="s"/>
+      <c r="B216" s="192" t="s"/>
       <c r="C216" s="0" t="n"/>
       <c r="D216" s="0" t="n"/>
-      <c r="E216" s="81" t="s"/>
+      <c r="E216" s="70" t="s"/>
       <c r="F216" s="20" t="s">
-        <v>386</v>
-      </c>
-      <c r="G216" s="21" t="s">
-        <v>387</v>
+        <v>409</v>
+      </c>
+      <c r="G216" s="24" t="s">
+        <v>410</v>
       </c>
       <c r="H216" s="22" t="n"/>
       <c r="I216" s="0" t="n"/>
@@ -7797,16 +8433,16 @@
       </c>
     </row>
     <row outlineLevel="0" r="217">
-      <c r="A217" s="76" t="s"/>
-      <c r="B217" s="139" t="s"/>
+      <c r="A217" s="64" t="s"/>
+      <c r="B217" s="192" t="s"/>
       <c r="C217" s="0" t="n"/>
       <c r="D217" s="0" t="n"/>
-      <c r="E217" s="81" t="s"/>
+      <c r="E217" s="70" t="s"/>
       <c r="F217" s="23" t="s">
-        <v>381</v>
+        <v>126</v>
       </c>
       <c r="G217" s="21" t="s">
-        <v>382</v>
+        <v>395</v>
       </c>
       <c r="H217" s="22" t="n"/>
       <c r="I217" s="0" t="n"/>
@@ -7815,16 +8451,16 @@
       </c>
     </row>
     <row outlineLevel="0" r="218">
-      <c r="A218" s="140" t="s"/>
-      <c r="B218" s="141" t="s"/>
+      <c r="A218" s="64" t="s"/>
+      <c r="B218" s="192" t="s"/>
       <c r="C218" s="29" t="n"/>
       <c r="D218" s="29" t="n"/>
-      <c r="E218" s="142" t="s"/>
-      <c r="F218" s="82" t="s">
-        <v>388</v>
+      <c r="E218" s="70" t="s"/>
+      <c r="F218" s="31" t="s">
+        <v>396</v>
       </c>
       <c r="G218" s="32" t="s">
-        <v>389</v>
+        <v>397</v>
       </c>
       <c r="H218" s="33" t="n"/>
       <c r="I218" s="29" t="n"/>
@@ -7832,104 +8468,281 @@
         <v>15</v>
       </c>
     </row>
+    <row outlineLevel="0" r="219">
+      <c r="A219" s="193" t="n">
+        <v>32</v>
+      </c>
+      <c r="B219" s="194" t="s">
+        <v>411</v>
+      </c>
+      <c r="C219" s="12" t="n"/>
+      <c r="D219" s="12" t="n"/>
+      <c r="E219" s="195" t="s">
+        <v>65</v>
+      </c>
+      <c r="F219" s="14" t="s">
+        <v>401</v>
+      </c>
+      <c r="G219" s="73" t="s">
+        <v>402</v>
+      </c>
+      <c r="H219" s="16" t="n"/>
+      <c r="I219" s="12" t="n"/>
+      <c r="J219" s="15" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="220">
+      <c r="A220" s="64" t="s"/>
+      <c r="B220" s="192" t="s"/>
+      <c r="C220" s="0" t="n"/>
+      <c r="D220" s="0" t="n"/>
+      <c r="E220" s="165" t="s"/>
+      <c r="F220" s="23" t="s">
+        <v>403</v>
+      </c>
+      <c r="G220" s="24" t="s">
+        <v>404</v>
+      </c>
+      <c r="H220" s="22" t="n"/>
+      <c r="I220" s="0" t="n"/>
+      <c r="J220" s="21" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="221">
+      <c r="A221" s="64" t="s"/>
+      <c r="B221" s="192" t="s"/>
+      <c r="C221" s="0" t="n"/>
+      <c r="D221" s="0" t="n"/>
+      <c r="E221" s="165" t="s"/>
+      <c r="F221" s="20" t="s">
+        <v>412</v>
+      </c>
+      <c r="G221" s="21" t="s">
+        <v>413</v>
+      </c>
+      <c r="H221" s="22" t="n"/>
+      <c r="I221" s="0" t="n"/>
+      <c r="J221" s="21" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="222">
+      <c r="A222" s="64" t="s"/>
+      <c r="B222" s="192" t="s"/>
+      <c r="C222" s="0" t="n"/>
+      <c r="D222" s="0" t="n"/>
+      <c r="E222" s="165" t="s"/>
+      <c r="F222" s="23" t="s">
+        <v>407</v>
+      </c>
+      <c r="G222" s="21" t="s">
+        <v>408</v>
+      </c>
+      <c r="H222" s="22" t="n"/>
+      <c r="I222" s="0" t="n"/>
+      <c r="J222" s="21" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="223">
+      <c r="A223" s="196" t="s"/>
+      <c r="B223" s="197" t="s"/>
+      <c r="C223" s="29" t="n"/>
+      <c r="D223" s="29" t="n"/>
+      <c r="E223" s="198" t="s"/>
+      <c r="F223" s="71" t="s">
+        <v>414</v>
+      </c>
+      <c r="G223" s="32" t="s">
+        <v>415</v>
+      </c>
+      <c r="H223" s="33" t="n"/>
+      <c r="I223" s="29" t="n"/>
+      <c r="J223" s="32" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="224">
+      <c r="A224" s="199" t="n">
+        <v>33</v>
+      </c>
+      <c r="B224" s="10" t="s">
+        <v>416</v>
+      </c>
+      <c r="C224" s="12" t="n"/>
+      <c r="D224" s="12" t="n"/>
+      <c r="E224" s="73" t="n"/>
+      <c r="F224" s="69" t="s">
+        <v>417</v>
+      </c>
+      <c r="G224" s="73" t="s">
+        <v>418</v>
+      </c>
+      <c r="H224" s="170" t="n"/>
+      <c r="I224" s="14" t="n"/>
+      <c r="J224" s="15" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="225">
+      <c r="A225" s="200" t="s"/>
+      <c r="B225" s="17" t="s"/>
+      <c r="C225" s="0" t="n"/>
+      <c r="D225" s="0" t="n"/>
+      <c r="E225" s="24" t="n"/>
+      <c r="F225" s="23" t="s">
+        <v>419</v>
+      </c>
+      <c r="G225" s="21" t="s">
+        <v>420</v>
+      </c>
+      <c r="H225" s="86" t="n"/>
+      <c r="I225" s="20" t="n"/>
+      <c r="J225" s="21" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="226">
+      <c r="A226" s="200" t="s"/>
+      <c r="B226" s="17" t="s"/>
+      <c r="C226" s="0" t="n"/>
+      <c r="D226" s="0" t="n"/>
+      <c r="E226" s="24" t="n"/>
+      <c r="F226" s="23" t="s">
+        <v>421</v>
+      </c>
+      <c r="G226" s="21" t="s">
+        <v>422</v>
+      </c>
+      <c r="H226" s="86" t="n"/>
+      <c r="I226" s="20" t="n"/>
+      <c r="J226" s="21" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="227">
+      <c r="A227" s="201" t="s"/>
+      <c r="B227" s="27" t="s"/>
+      <c r="C227" s="29" t="n"/>
+      <c r="D227" s="29" t="n"/>
+      <c r="E227" s="75" t="n"/>
+      <c r="F227" s="31" t="s">
+        <v>423</v>
+      </c>
+      <c r="G227" s="75" t="s">
+        <v>424</v>
+      </c>
+      <c r="H227" s="72" t="n"/>
+      <c r="I227" s="71" t="n"/>
+      <c r="J227" s="75" t="n"/>
+    </row>
   </sheetData>
-  <mergeCells count="96">
-    <mergeCell ref="A124:A130"/>
+  <mergeCells count="103">
+    <mergeCell ref="E2:E8"/>
+    <mergeCell ref="E205:E211"/>
+    <mergeCell ref="E139:E145"/>
+    <mergeCell ref="E67:E70"/>
+    <mergeCell ref="E162:E171"/>
+    <mergeCell ref="E54:E66"/>
+    <mergeCell ref="E146:E152"/>
+    <mergeCell ref="E194:E196"/>
+    <mergeCell ref="E33:E41"/>
+    <mergeCell ref="E27:E29"/>
+    <mergeCell ref="E71:E76"/>
+    <mergeCell ref="E153:E161"/>
+    <mergeCell ref="E127:E133"/>
+    <mergeCell ref="B224:B227"/>
+    <mergeCell ref="B46:B53"/>
+    <mergeCell ref="B162:B171"/>
+    <mergeCell ref="B30:B32"/>
+    <mergeCell ref="B85:B103"/>
+    <mergeCell ref="B22:B26"/>
+    <mergeCell ref="B104:B116"/>
+    <mergeCell ref="B194:B196"/>
+    <mergeCell ref="B139:B145"/>
+    <mergeCell ref="B127:B133"/>
+    <mergeCell ref="A9:A18"/>
+    <mergeCell ref="A54:A66"/>
+    <mergeCell ref="A146:A152"/>
+    <mergeCell ref="A121:A126"/>
+    <mergeCell ref="A134:A138"/>
+    <mergeCell ref="A212:A218"/>
+    <mergeCell ref="A176:A186"/>
+    <mergeCell ref="A194:A196"/>
+    <mergeCell ref="A127:A133"/>
+    <mergeCell ref="A197:A204"/>
+    <mergeCell ref="D185:D186"/>
+    <mergeCell ref="E176:E186"/>
+    <mergeCell ref="E187:E190"/>
+    <mergeCell ref="E191:E193"/>
+    <mergeCell ref="C191:D193"/>
+    <mergeCell ref="C185:C186"/>
+    <mergeCell ref="A27:A29"/>
     <mergeCell ref="A67:A70"/>
+    <mergeCell ref="A42:A45"/>
+    <mergeCell ref="A82:A84"/>
+    <mergeCell ref="A162:A171"/>
+    <mergeCell ref="A224:A227"/>
+    <mergeCell ref="A219:A223"/>
+    <mergeCell ref="A139:A145"/>
+    <mergeCell ref="B191:B193"/>
+    <mergeCell ref="B67:B70"/>
+    <mergeCell ref="B19:B21"/>
+    <mergeCell ref="B82:B84"/>
+    <mergeCell ref="B9:B18"/>
+    <mergeCell ref="B77:B81"/>
+    <mergeCell ref="B146:B152"/>
+    <mergeCell ref="B205:B211"/>
+    <mergeCell ref="B54:B66"/>
+    <mergeCell ref="B197:B204"/>
+    <mergeCell ref="B172:B175"/>
+    <mergeCell ref="B33:B41"/>
+    <mergeCell ref="B153:B161"/>
+    <mergeCell ref="B71:B76"/>
+    <mergeCell ref="B219:B223"/>
+    <mergeCell ref="B2:B8"/>
+    <mergeCell ref="A187:A190"/>
+    <mergeCell ref="A2:A8"/>
+    <mergeCell ref="A205:A211"/>
+    <mergeCell ref="A22:A26"/>
+    <mergeCell ref="A46:A53"/>
+    <mergeCell ref="A172:A175"/>
+    <mergeCell ref="A85:A103"/>
+    <mergeCell ref="A71:A76"/>
+    <mergeCell ref="E9:E18"/>
+    <mergeCell ref="E19:E21"/>
+    <mergeCell ref="E172:E175"/>
+    <mergeCell ref="E212:E218"/>
+    <mergeCell ref="E134:E138"/>
+    <mergeCell ref="E85:E103"/>
+    <mergeCell ref="E46:E53"/>
+    <mergeCell ref="E219:E223"/>
+    <mergeCell ref="E30:E32"/>
+    <mergeCell ref="E104:E116"/>
+    <mergeCell ref="E42:E45"/>
+    <mergeCell ref="E77:E81"/>
+    <mergeCell ref="E22:E26"/>
+    <mergeCell ref="E117:E120"/>
+    <mergeCell ref="E197:E204"/>
+    <mergeCell ref="E121:E126"/>
+    <mergeCell ref="A191:A193"/>
+    <mergeCell ref="A117:A120"/>
+    <mergeCell ref="A104:A116"/>
+    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A77:A81"/>
-    <mergeCell ref="A101:A113"/>
-    <mergeCell ref="A200:A206"/>
-    <mergeCell ref="A183:A186"/>
-    <mergeCell ref="A150:A158"/>
-    <mergeCell ref="A42:A45"/>
-    <mergeCell ref="A2:A8"/>
-    <mergeCell ref="A214:A218"/>
-    <mergeCell ref="A54:A66"/>
-    <mergeCell ref="A71:A76"/>
-    <mergeCell ref="A82:A100"/>
-    <mergeCell ref="A118:A123"/>
-    <mergeCell ref="A189:A191"/>
-    <mergeCell ref="A169:A172"/>
-    <mergeCell ref="A136:A142"/>
-    <mergeCell ref="A46:A53"/>
+    <mergeCell ref="A153:A161"/>
+    <mergeCell ref="A30:A32"/>
     <mergeCell ref="A33:A41"/>
-    <mergeCell ref="A30:A32"/>
-    <mergeCell ref="A27:A29"/>
-    <mergeCell ref="A22:A26"/>
-    <mergeCell ref="A19:A21"/>
-    <mergeCell ref="A9:A18"/>
-    <mergeCell ref="E187:E188"/>
-    <mergeCell ref="E54:E66"/>
-    <mergeCell ref="E71:E76"/>
-    <mergeCell ref="E82:E100"/>
-    <mergeCell ref="E118:E123"/>
-    <mergeCell ref="E207:E213"/>
-    <mergeCell ref="E169:E172"/>
-    <mergeCell ref="E136:E142"/>
-    <mergeCell ref="E46:E53"/>
-    <mergeCell ref="E33:E41"/>
-    <mergeCell ref="E30:E32"/>
-    <mergeCell ref="E27:E29"/>
-    <mergeCell ref="E22:E26"/>
-    <mergeCell ref="E19:E21"/>
-    <mergeCell ref="E2:E8"/>
-    <mergeCell ref="E9:E18"/>
-    <mergeCell ref="B169:B172"/>
-    <mergeCell ref="B54:B66"/>
-    <mergeCell ref="B71:B76"/>
-    <mergeCell ref="B82:B99"/>
-    <mergeCell ref="B118:B123"/>
-    <mergeCell ref="B189:B191"/>
-    <mergeCell ref="B214:B218"/>
-    <mergeCell ref="B136:B142"/>
-    <mergeCell ref="B46:B53"/>
-    <mergeCell ref="B33:B41"/>
-    <mergeCell ref="B30:B32"/>
+    <mergeCell ref="B212:B218"/>
+    <mergeCell ref="B121:B126"/>
+    <mergeCell ref="B187:B190"/>
     <mergeCell ref="B27:B29"/>
-    <mergeCell ref="B22:B26"/>
-    <mergeCell ref="B19:B21"/>
-    <mergeCell ref="B9:B18"/>
-    <mergeCell ref="B2:B8"/>
-    <mergeCell ref="E189:E191"/>
-    <mergeCell ref="E131:E135"/>
-    <mergeCell ref="E143:E149"/>
-    <mergeCell ref="E159:E168"/>
-    <mergeCell ref="E173:E182"/>
-    <mergeCell ref="E200:E206"/>
-    <mergeCell ref="E214:E218"/>
-    <mergeCell ref="E114:E117"/>
-    <mergeCell ref="B173:B182"/>
-    <mergeCell ref="B131:B135"/>
-    <mergeCell ref="B143:B149"/>
-    <mergeCell ref="B159:B168"/>
-    <mergeCell ref="B207:B213"/>
-    <mergeCell ref="B192:B199"/>
-    <mergeCell ref="B187:B188"/>
-    <mergeCell ref="B114:B117"/>
-    <mergeCell ref="A207:A213"/>
-    <mergeCell ref="A131:A135"/>
-    <mergeCell ref="A143:A149"/>
-    <mergeCell ref="A159:A168"/>
-    <mergeCell ref="A173:A182"/>
-    <mergeCell ref="A187:A188"/>
-    <mergeCell ref="A192:A199"/>
-    <mergeCell ref="A114:A117"/>
-    <mergeCell ref="E124:E130"/>
-    <mergeCell ref="E67:E70"/>
-    <mergeCell ref="E77:E81"/>
-    <mergeCell ref="E101:E113"/>
-    <mergeCell ref="E192:E199"/>
-    <mergeCell ref="E183:E186"/>
-    <mergeCell ref="E150:E158"/>
-    <mergeCell ref="E42:E45"/>
-    <mergeCell ref="B124:B130"/>
-    <mergeCell ref="B67:B70"/>
-    <mergeCell ref="B77:B81"/>
-    <mergeCell ref="B101:B113"/>
-    <mergeCell ref="B183:B186"/>
-    <mergeCell ref="B200:B206"/>
-    <mergeCell ref="B150:B158"/>
+    <mergeCell ref="B176:B186"/>
+    <mergeCell ref="B117:B120"/>
     <mergeCell ref="B42:B45"/>
+    <mergeCell ref="B134:B138"/>
   </mergeCells>
   <pageMargins bottom="0.790000021457672" footer="0.19680555164814" header="0.19680555164814" left="0.790000021457672" right="0.790000021457672" top="0.790000021457672"/>
 </worksheet>

--- a/Cases.xlsx
+++ b/Cases.xlsx
@@ -1533,6 +1533,18 @@
     </r>
     <r>
       <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <t>Слово HelloWorld вводится как Hello world</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="XO Thames"/>
+        <sz val="12"/>
+      </rPr>
+      <t>Слово HelloWorld вводится как Hello world</t>
     </r>
   </si>
   <si>
@@ -2697,12 +2709,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="1F497D" tint="0"/>
+        <fgColor theme="5" tint="0"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0"/>
+        <fgColor rgb="1F497D" tint="0"/>
       </patternFill>
     </fill>
     <fill>
@@ -3152,7 +3164,7 @@
   <cellStyleXfs count="1">
     <xf applyFont="true" borderId="0" fillId="0" fontId="1" quotePrefix="false"/>
   </cellStyleXfs>
-  <cellXfs count="202">
+  <cellXfs count="205">
     <xf applyFont="true" borderId="0" fillId="0" fontId="1" quotePrefix="false"/>
     <xf applyAlignment="true" applyFill="true" applyFont="true" borderId="0" fillId="2" fontId="1" quotePrefix="false">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
@@ -3471,20 +3483,32 @@
     <xf applyAlignment="true" applyBorder="true" applyFont="true" borderId="35" fillId="0" fontId="1" quotePrefix="false">
       <alignment wrapText="true"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFill="true" applyFont="true" borderId="14" fillId="18" fontId="1" quotePrefix="false">
+    <xf applyAlignment="true" applyBorder="true" applyFill="true" applyFont="true" borderId="7" fillId="18" fontId="1" quotePrefix="false">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFill="true" applyFont="true" borderId="8" fillId="18" fontId="1" quotePrefix="false">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFill="true" applyFont="true" borderId="9" fillId="18" fontId="1" quotePrefix="false">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFill="true" applyFont="true" borderId="24" fillId="18" fontId="1" quotePrefix="false">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFill="true" applyFont="true" borderId="25" fillId="18" fontId="1" quotePrefix="false">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFill="true" applyFont="true" borderId="13" fillId="18" fontId="1" quotePrefix="false">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFill="true" applyFont="true" borderId="14" fillId="19" fontId="1" quotePrefix="false">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFill="true" applyFont="true" borderId="7" fillId="18" fontId="1" quotePrefix="false">
+    <xf applyAlignment="true" applyBorder="true" applyFill="true" applyFont="true" borderId="7" fillId="19" fontId="1" quotePrefix="false">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFill="true" applyFont="true" borderId="7" fillId="19" fontId="1" quotePrefix="false">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFill="true" applyFont="true" borderId="8" fillId="19" fontId="1" quotePrefix="false">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="22" fillId="19" fontId="1" quotePrefix="false"/>
-    <xf applyAlignment="true" applyFill="true" applyFont="true" borderId="0" fillId="19" fontId="1" quotePrefix="false">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="22" fillId="18" fontId="1" quotePrefix="false"/>
+    <xf applyAlignment="true" applyFill="true" applyFont="true" borderId="0" fillId="18" fontId="1" quotePrefix="false">
       <alignment wrapText="true"/>
     </xf>
     <xf applyAlignment="true" applyBorder="true" applyFill="true" applyFont="true" borderId="7" fillId="15" fontId="1" quotePrefix="false">
@@ -3499,7 +3523,7 @@
     <xf applyAlignment="true" applyBorder="true" applyFill="true" applyFont="true" borderId="25" fillId="15" fontId="1" quotePrefix="false">
       <alignment wrapText="true"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFill="true" applyFont="true" borderId="4" fillId="18" fontId="1" quotePrefix="false">
+    <xf applyAlignment="true" applyBorder="true" applyFill="true" applyFont="true" borderId="4" fillId="19" fontId="1" quotePrefix="false">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf applyAlignment="true" applyBorder="true" applyFont="true" borderId="2" fillId="0" fontId="1" quotePrefix="false">
@@ -3517,27 +3541,24 @@
     <xf applyAlignment="true" applyBorder="true" applyFill="true" applyFont="true" borderId="7" fillId="13" fontId="1" quotePrefix="false">
       <alignment wrapText="true"/>
     </xf>
-    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="9" fillId="19" fontId="1" quotePrefix="false"/>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="9" fillId="18" fontId="1" quotePrefix="false"/>
     <xf applyAlignment="true" applyBorder="true" applyFont="true" borderId="11" fillId="0" fontId="1" quotePrefix="false">
       <alignment wrapText="true"/>
     </xf>
     <xf applyBorder="true" applyFill="true" applyFont="true" borderId="8" fillId="15" fontId="1" quotePrefix="false"/>
-    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="8" fillId="19" fontId="1" quotePrefix="false"/>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="8" fillId="18" fontId="1" quotePrefix="false"/>
     <xf applyAlignment="true" applyBorder="true" applyFill="true" applyFont="true" borderId="10" fillId="15" fontId="1" quotePrefix="false">
       <alignment wrapText="true"/>
     </xf>
-    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="12" fillId="19" fontId="1" quotePrefix="false"/>
-    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="13" fillId="19" fontId="1" quotePrefix="false"/>
-    <xf applyAlignment="true" applyBorder="true" applyFill="true" applyFont="true" borderId="11" fillId="19" fontId="1" quotePrefix="false">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="12" fillId="18" fontId="1" quotePrefix="false"/>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="13" fillId="18" fontId="1" quotePrefix="false"/>
+    <xf applyAlignment="true" applyBorder="true" applyFill="true" applyFont="true" borderId="11" fillId="18" fontId="1" quotePrefix="false">
       <alignment wrapText="true"/>
     </xf>
     <xf applyAlignment="true" applyBorder="true" applyFont="true" borderId="9" fillId="0" fontId="1" quotePrefix="false">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="7" fillId="19" fontId="1" quotePrefix="false"/>
-    <xf applyAlignment="true" applyBorder="true" applyFill="true" applyFont="true" borderId="9" fillId="19" fontId="1" quotePrefix="false">
-      <alignment wrapText="true"/>
-    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="7" fillId="18" fontId="1" quotePrefix="false"/>
     <xf applyAlignment="true" applyBorder="true" applyFill="true" applyFont="true" borderId="10" fillId="12" fontId="1" quotePrefix="false">
       <alignment wrapText="true"/>
     </xf>
@@ -3555,7 +3576,7 @@
       <alignment wrapText="true"/>
     </xf>
     <xf applyBorder="true" applyFill="true" applyFont="true" borderId="20" fillId="13" fontId="1" quotePrefix="false"/>
-    <xf applyAlignment="true" applyBorder="true" applyFill="true" applyFont="true" borderId="21" fillId="19" fontId="1" quotePrefix="false">
+    <xf applyAlignment="true" applyBorder="true" applyFill="true" applyFont="true" borderId="21" fillId="18" fontId="1" quotePrefix="false">
       <alignment wrapText="true"/>
     </xf>
     <xf applyBorder="true" applyFill="true" applyFont="true" borderId="20" fillId="14" fontId="1" quotePrefix="false"/>
@@ -3565,14 +3586,14 @@
     <xf applyAlignment="true" applyBorder="true" applyFill="true" applyFont="true" borderId="9" fillId="12" fontId="1" quotePrefix="false">
       <alignment wrapText="true"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFill="true" applyFont="true" borderId="4" fillId="18" fontId="1" quotePrefix="false">
+    <xf applyAlignment="true" applyBorder="true" applyFill="true" applyFont="true" borderId="4" fillId="19" fontId="1" quotePrefix="false">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
     <xf applyBorder="true" applyFont="true" borderId="36" fillId="0" fontId="1" quotePrefix="false"/>
     <xf applyAlignment="true" applyBorder="true" applyFill="true" applyFont="true" borderId="19" fillId="12" fontId="1" quotePrefix="false">
       <alignment wrapText="true"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFill="true" applyFont="true" borderId="7" fillId="18" fontId="1" quotePrefix="false">
+    <xf applyAlignment="true" applyBorder="true" applyFill="true" applyFont="true" borderId="7" fillId="19" fontId="1" quotePrefix="false">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
     <xf applyFont="true" borderId="0" fillId="0" fontId="1" quotePrefix="false"/>
@@ -6654,13 +6675,15 @@
       <c r="C131" s="0" t="n"/>
       <c r="D131" s="0" t="n"/>
       <c r="E131" s="70" t="s"/>
-      <c r="F131" s="20" t="s">
+      <c r="F131" s="134" t="s">
         <v>254</v>
       </c>
-      <c r="G131" s="21" t="s">
+      <c r="G131" s="135" t="s">
         <v>245</v>
       </c>
-      <c r="H131" s="22" t="n"/>
+      <c r="H131" s="136" t="s">
+        <v>255</v>
+      </c>
       <c r="I131" s="0" t="s">
         <v>22</v>
       </c>
@@ -6694,13 +6717,15 @@
       <c r="C133" s="29" t="n"/>
       <c r="D133" s="29" t="n"/>
       <c r="E133" s="70" t="s"/>
-      <c r="F133" s="66" t="s">
+      <c r="F133" s="137" t="s">
         <v>244</v>
       </c>
-      <c r="G133" s="50" t="s">
+      <c r="G133" s="138" t="s">
         <v>245</v>
       </c>
-      <c r="H133" s="33" t="n"/>
+      <c r="H133" s="139" t="s">
+        <v>256</v>
+      </c>
       <c r="I133" s="29" t="s">
         <v>22</v>
       </c>
@@ -6712,8 +6737,8 @@
       <c r="A134" s="61" t="n">
         <v>19</v>
       </c>
-      <c r="B134" s="134" t="s">
-        <v>255</v>
+      <c r="B134" s="140" t="s">
+        <v>257</v>
       </c>
       <c r="C134" s="35" t="n"/>
       <c r="D134" s="35" t="n"/>
@@ -6721,10 +6746,10 @@
         <v>65</v>
       </c>
       <c r="F134" s="37" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="G134" s="38" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="H134" s="55" t="n"/>
       <c r="I134" s="12" t="s">
@@ -6736,19 +6761,19 @@
     </row>
     <row outlineLevel="0" r="135">
       <c r="A135" s="64" t="s"/>
-      <c r="B135" s="135" t="s"/>
+      <c r="B135" s="141" t="s"/>
       <c r="C135" s="0" t="n"/>
       <c r="D135" s="0" t="n"/>
       <c r="E135" s="65" t="s"/>
-      <c r="F135" s="136" t="s">
-        <v>258</v>
-      </c>
-      <c r="G135" s="137" t="s">
-        <v>259</v>
-      </c>
-      <c r="H135" s="138" t="n"/>
-      <c r="I135" s="139" t="s">
+      <c r="F135" s="134" t="s">
         <v>260</v>
+      </c>
+      <c r="G135" s="135" t="s">
+        <v>261</v>
+      </c>
+      <c r="H135" s="142" t="n"/>
+      <c r="I135" s="143" t="s">
+        <v>262</v>
       </c>
       <c r="J135" s="21" t="s">
         <v>15</v>
@@ -6756,15 +6781,15 @@
     </row>
     <row outlineLevel="0" r="136">
       <c r="A136" s="64" t="s"/>
-      <c r="B136" s="135" t="s"/>
+      <c r="B136" s="141" t="s"/>
       <c r="C136" s="0" t="n"/>
       <c r="D136" s="0" t="n"/>
       <c r="E136" s="65" t="s"/>
       <c r="F136" s="20" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="G136" s="21" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="H136" s="43" t="n"/>
       <c r="I136" s="0" t="s">
@@ -6776,15 +6801,15 @@
     </row>
     <row outlineLevel="0" r="137">
       <c r="A137" s="64" t="s"/>
-      <c r="B137" s="135" t="s"/>
+      <c r="B137" s="141" t="s"/>
       <c r="C137" s="0" t="n"/>
       <c r="D137" s="0" t="n"/>
       <c r="E137" s="65" t="s"/>
-      <c r="F137" s="140" t="s">
-        <v>263</v>
-      </c>
-      <c r="G137" s="141" t="s">
-        <v>264</v>
+      <c r="F137" s="144" t="s">
+        <v>265</v>
+      </c>
+      <c r="G137" s="145" t="s">
+        <v>266</v>
       </c>
       <c r="H137" s="43" t="n"/>
       <c r="I137" s="0" t="s">
@@ -6796,15 +6821,15 @@
     </row>
     <row outlineLevel="0" r="138">
       <c r="A138" s="64" t="s"/>
-      <c r="B138" s="135" t="s"/>
+      <c r="B138" s="141" t="s"/>
       <c r="C138" s="58" t="n"/>
       <c r="D138" s="58" t="n"/>
       <c r="E138" s="65" t="s"/>
-      <c r="F138" s="142" t="s">
-        <v>265</v>
-      </c>
-      <c r="G138" s="143" t="s">
-        <v>266</v>
+      <c r="F138" s="146" t="s">
+        <v>267</v>
+      </c>
+      <c r="G138" s="147" t="s">
+        <v>268</v>
       </c>
       <c r="H138" s="59" t="n"/>
       <c r="I138" s="29" t="s">
@@ -6818,8 +6843,8 @@
       <c r="A139" s="61" t="n">
         <v>20</v>
       </c>
-      <c r="B139" s="144" t="s">
-        <v>267</v>
+      <c r="B139" s="148" t="s">
+        <v>269</v>
       </c>
       <c r="C139" s="12" t="n"/>
       <c r="D139" s="12" t="n"/>
@@ -6827,13 +6852,13 @@
         <v>65</v>
       </c>
       <c r="F139" s="14" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="G139" s="15" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="H139" s="16" t="n"/>
-      <c r="I139" s="145" t="s">
+      <c r="I139" s="149" t="s">
         <v>14</v>
       </c>
       <c r="J139" s="15" t="s">
@@ -6842,18 +6867,18 @@
     </row>
     <row outlineLevel="0" r="140">
       <c r="A140" s="64" t="s"/>
-      <c r="B140" s="135" t="s"/>
+      <c r="B140" s="141" t="s"/>
       <c r="C140" s="0" t="n"/>
       <c r="D140" s="0" t="n"/>
       <c r="E140" s="70" t="s"/>
       <c r="F140" s="20" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="G140" s="21" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="H140" s="22" t="n"/>
-      <c r="I140" s="146" t="s">
+      <c r="I140" s="150" t="s">
         <v>22</v>
       </c>
       <c r="J140" s="21" t="s">
@@ -6862,20 +6887,20 @@
     </row>
     <row outlineLevel="0" r="141">
       <c r="A141" s="64" t="s"/>
-      <c r="B141" s="135" t="s"/>
+      <c r="B141" s="141" t="s"/>
       <c r="C141" s="0" t="n"/>
       <c r="D141" s="0" t="n"/>
       <c r="E141" s="70" t="s"/>
-      <c r="F141" s="147" t="s">
-        <v>271</v>
+      <c r="F141" s="151" t="s">
+        <v>273</v>
       </c>
       <c r="G141" s="125" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="H141" s="83" t="s">
         <v>134</v>
       </c>
-      <c r="I141" s="148" t="s">
+      <c r="I141" s="152" t="s">
         <v>22</v>
       </c>
       <c r="J141" s="21" t="s">
@@ -6884,19 +6909,19 @@
     </row>
     <row outlineLevel="0" r="142">
       <c r="A142" s="64" t="s"/>
-      <c r="B142" s="135" t="s"/>
+      <c r="B142" s="141" t="s"/>
       <c r="C142" s="0" t="n"/>
       <c r="D142" s="0" t="n"/>
       <c r="E142" s="70" t="s"/>
-      <c r="F142" s="149" t="s">
-        <v>273</v>
-      </c>
-      <c r="G142" s="137" t="s">
-        <v>274</v>
-      </c>
-      <c r="H142" s="150" t="n"/>
-      <c r="I142" s="139" t="s">
+      <c r="F142" s="153" t="s">
         <v>275</v>
+      </c>
+      <c r="G142" s="135" t="s">
+        <v>276</v>
+      </c>
+      <c r="H142" s="154" t="n"/>
+      <c r="I142" s="143" t="s">
+        <v>277</v>
       </c>
       <c r="J142" s="21" t="s">
         <v>15</v>
@@ -6904,19 +6929,19 @@
     </row>
     <row outlineLevel="0" r="143">
       <c r="A143" s="64" t="s"/>
-      <c r="B143" s="135" t="s"/>
+      <c r="B143" s="141" t="s"/>
       <c r="C143" s="0" t="n"/>
       <c r="D143" s="0" t="n"/>
       <c r="E143" s="70" t="s"/>
-      <c r="F143" s="149" t="s">
-        <v>276</v>
-      </c>
-      <c r="G143" s="137" t="s">
+      <c r="F143" s="153" t="s">
+        <v>278</v>
+      </c>
+      <c r="G143" s="135" t="s">
+        <v>279</v>
+      </c>
+      <c r="H143" s="154" t="n"/>
+      <c r="I143" s="143" t="s">
         <v>277</v>
-      </c>
-      <c r="H143" s="150" t="n"/>
-      <c r="I143" s="139" t="s">
-        <v>275</v>
       </c>
       <c r="J143" s="21" t="s">
         <v>15</v>
@@ -6924,18 +6949,18 @@
     </row>
     <row outlineLevel="0" r="144">
       <c r="A144" s="64" t="s"/>
-      <c r="B144" s="135" t="s"/>
+      <c r="B144" s="141" t="s"/>
       <c r="C144" s="0" t="n"/>
       <c r="D144" s="0" t="n"/>
       <c r="E144" s="70" t="s"/>
       <c r="F144" s="23" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="G144" s="24" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="H144" s="22" t="n"/>
-      <c r="I144" s="146" t="s">
+      <c r="I144" s="150" t="s">
         <v>22</v>
       </c>
       <c r="J144" s="21" t="s">
@@ -6944,18 +6969,18 @@
     </row>
     <row outlineLevel="0" r="145">
       <c r="A145" s="64" t="s"/>
-      <c r="B145" s="135" t="s"/>
+      <c r="B145" s="141" t="s"/>
       <c r="C145" s="29" t="n"/>
       <c r="D145" s="29" t="n"/>
       <c r="E145" s="70" t="s"/>
       <c r="F145" s="31" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="G145" s="32" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="H145" s="33" t="n"/>
-      <c r="I145" s="151" t="s">
+      <c r="I145" s="155" t="s">
         <v>22</v>
       </c>
       <c r="J145" s="32" t="s">
@@ -6966,8 +6991,8 @@
       <c r="A146" s="61" t="n">
         <v>21</v>
       </c>
-      <c r="B146" s="144" t="s">
-        <v>282</v>
+      <c r="B146" s="148" t="s">
+        <v>284</v>
       </c>
       <c r="C146" s="12" t="n"/>
       <c r="D146" s="12" t="n"/>
@@ -6975,13 +7000,13 @@
         <v>65</v>
       </c>
       <c r="F146" s="14" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="G146" s="73" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="H146" s="16" t="n"/>
-      <c r="I146" s="145" t="s">
+      <c r="I146" s="149" t="s">
         <v>22</v>
       </c>
       <c r="J146" s="15" t="s">
@@ -6990,18 +7015,18 @@
     </row>
     <row outlineLevel="0" r="147">
       <c r="A147" s="64" t="s"/>
-      <c r="B147" s="135" t="s"/>
+      <c r="B147" s="141" t="s"/>
       <c r="C147" s="0" t="n"/>
       <c r="D147" s="0" t="n"/>
       <c r="E147" s="70" t="s"/>
       <c r="F147" s="20" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="G147" s="21" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="H147" s="22" t="n"/>
-      <c r="I147" s="146" t="s">
+      <c r="I147" s="150" t="s">
         <v>22</v>
       </c>
       <c r="J147" s="21" t="s">
@@ -7010,18 +7035,18 @@
     </row>
     <row outlineLevel="0" r="148">
       <c r="A148" s="64" t="s"/>
-      <c r="B148" s="135" t="s"/>
+      <c r="B148" s="141" t="s"/>
       <c r="C148" s="0" t="n"/>
       <c r="D148" s="0" t="n"/>
       <c r="E148" s="70" t="s"/>
-      <c r="F148" s="140" t="s">
-        <v>287</v>
-      </c>
-      <c r="G148" s="152" t="s">
-        <v>288</v>
+      <c r="F148" s="144" t="s">
+        <v>289</v>
+      </c>
+      <c r="G148" s="156" t="s">
+        <v>290</v>
       </c>
       <c r="H148" s="22" t="n"/>
-      <c r="I148" s="146" t="s">
+      <c r="I148" s="150" t="s">
         <v>22</v>
       </c>
       <c r="J148" s="21" t="s">
@@ -7030,18 +7055,18 @@
     </row>
     <row outlineLevel="0" r="149">
       <c r="A149" s="64" t="s"/>
-      <c r="B149" s="135" t="s"/>
+      <c r="B149" s="141" t="s"/>
       <c r="C149" s="0" t="n"/>
       <c r="D149" s="0" t="n"/>
       <c r="E149" s="70" t="s"/>
-      <c r="F149" s="140" t="s">
-        <v>289</v>
-      </c>
-      <c r="G149" s="152" t="s">
-        <v>290</v>
+      <c r="F149" s="144" t="s">
+        <v>291</v>
+      </c>
+      <c r="G149" s="156" t="s">
+        <v>292</v>
       </c>
       <c r="H149" s="22" t="n"/>
-      <c r="I149" s="146" t="s">
+      <c r="I149" s="150" t="s">
         <v>22</v>
       </c>
       <c r="J149" s="21" t="s">
@@ -7050,18 +7075,18 @@
     </row>
     <row outlineLevel="0" r="150">
       <c r="A150" s="64" t="s"/>
-      <c r="B150" s="135" t="s"/>
+      <c r="B150" s="141" t="s"/>
       <c r="C150" s="0" t="n"/>
       <c r="D150" s="0" t="n"/>
       <c r="E150" s="70" t="s"/>
       <c r="F150" s="20" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="G150" s="21" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="H150" s="22" t="n"/>
-      <c r="I150" s="146" t="s">
+      <c r="I150" s="150" t="s">
         <v>22</v>
       </c>
       <c r="J150" s="21" t="s">
@@ -7070,19 +7095,19 @@
     </row>
     <row outlineLevel="0" r="151">
       <c r="A151" s="64" t="s"/>
-      <c r="B151" s="135" t="s"/>
+      <c r="B151" s="141" t="s"/>
       <c r="C151" s="0" t="n"/>
       <c r="D151" s="0" t="n"/>
       <c r="E151" s="70" t="s"/>
-      <c r="F151" s="140" t="s">
-        <v>293</v>
-      </c>
-      <c r="G151" s="153" t="s">
-        <v>294</v>
-      </c>
-      <c r="H151" s="150" t="n"/>
-      <c r="I151" s="139" t="s">
+      <c r="F151" s="144" t="s">
         <v>295</v>
+      </c>
+      <c r="G151" s="157" t="s">
+        <v>296</v>
+      </c>
+      <c r="H151" s="154" t="n"/>
+      <c r="I151" s="143" t="s">
+        <v>297</v>
       </c>
       <c r="J151" s="21" t="s">
         <v>15</v>
@@ -7090,19 +7115,19 @@
     </row>
     <row outlineLevel="0" r="152">
       <c r="A152" s="64" t="s"/>
-      <c r="B152" s="135" t="s"/>
+      <c r="B152" s="141" t="s"/>
       <c r="C152" s="29" t="n"/>
       <c r="D152" s="29" t="n"/>
       <c r="E152" s="70" t="s"/>
-      <c r="F152" s="154" t="s">
-        <v>296</v>
-      </c>
-      <c r="G152" s="155" t="s">
+      <c r="F152" s="158" t="s">
+        <v>298</v>
+      </c>
+      <c r="G152" s="159" t="s">
+        <v>299</v>
+      </c>
+      <c r="H152" s="160" t="n"/>
+      <c r="I152" s="161" t="s">
         <v>297</v>
-      </c>
-      <c r="H152" s="156" t="n"/>
-      <c r="I152" s="157" t="s">
-        <v>295</v>
       </c>
       <c r="J152" s="32" t="s">
         <v>15</v>
@@ -7112,8 +7137,8 @@
       <c r="A153" s="61" t="n">
         <v>22</v>
       </c>
-      <c r="B153" s="144" t="s">
-        <v>298</v>
+      <c r="B153" s="148" t="s">
+        <v>300</v>
       </c>
       <c r="C153" s="12" t="n"/>
       <c r="D153" s="12" t="n"/>
@@ -7121,13 +7146,13 @@
         <v>65</v>
       </c>
       <c r="F153" s="14" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="G153" s="73" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="H153" s="16" t="n"/>
-      <c r="I153" s="145" t="s">
+      <c r="I153" s="149" t="s">
         <v>22</v>
       </c>
       <c r="J153" s="15" t="s">
@@ -7136,18 +7161,18 @@
     </row>
     <row outlineLevel="0" r="154">
       <c r="A154" s="64" t="s"/>
-      <c r="B154" s="135" t="s"/>
+      <c r="B154" s="141" t="s"/>
       <c r="C154" s="0" t="n"/>
       <c r="D154" s="0" t="n"/>
       <c r="E154" s="70" t="s"/>
       <c r="F154" s="20" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="G154" s="21" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="H154" s="22" t="n"/>
-      <c r="I154" s="146" t="s">
+      <c r="I154" s="150" t="s">
         <v>22</v>
       </c>
       <c r="J154" s="21" t="s">
@@ -7156,20 +7181,20 @@
     </row>
     <row outlineLevel="0" r="155">
       <c r="A155" s="64" t="s"/>
-      <c r="B155" s="135" t="s"/>
+      <c r="B155" s="141" t="s"/>
       <c r="C155" s="0" t="n"/>
       <c r="D155" s="0" t="n"/>
       <c r="E155" s="70" t="s"/>
       <c r="F155" s="81" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="G155" s="125" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="H155" s="83" t="s">
         <v>134</v>
       </c>
-      <c r="I155" s="148" t="s">
+      <c r="I155" s="152" t="s">
         <v>22</v>
       </c>
       <c r="J155" s="21" t="s">
@@ -7178,19 +7203,19 @@
     </row>
     <row outlineLevel="0" r="156">
       <c r="A156" s="64" t="s"/>
-      <c r="B156" s="135" t="s"/>
+      <c r="B156" s="141" t="s"/>
       <c r="C156" s="0" t="n"/>
       <c r="D156" s="0" t="n"/>
       <c r="E156" s="70" t="s"/>
-      <c r="F156" s="149" t="s">
-        <v>273</v>
-      </c>
-      <c r="G156" s="137" t="s">
-        <v>274</v>
-      </c>
-      <c r="H156" s="150" t="n"/>
-      <c r="I156" s="139" t="s">
+      <c r="F156" s="153" t="s">
         <v>275</v>
+      </c>
+      <c r="G156" s="135" t="s">
+        <v>276</v>
+      </c>
+      <c r="H156" s="154" t="n"/>
+      <c r="I156" s="143" t="s">
+        <v>277</v>
       </c>
       <c r="J156" s="21" t="s">
         <v>15</v>
@@ -7198,19 +7223,19 @@
     </row>
     <row outlineLevel="0" r="157">
       <c r="A157" s="64" t="s"/>
-      <c r="B157" s="135" t="s"/>
+      <c r="B157" s="141" t="s"/>
       <c r="C157" s="0" t="n"/>
       <c r="D157" s="0" t="n"/>
       <c r="E157" s="70" t="s"/>
-      <c r="F157" s="149" t="s">
-        <v>276</v>
-      </c>
-      <c r="G157" s="137" t="s">
+      <c r="F157" s="153" t="s">
+        <v>278</v>
+      </c>
+      <c r="G157" s="135" t="s">
+        <v>279</v>
+      </c>
+      <c r="H157" s="154" t="n"/>
+      <c r="I157" s="143" t="s">
         <v>277</v>
-      </c>
-      <c r="H157" s="150" t="n"/>
-      <c r="I157" s="139" t="s">
-        <v>275</v>
       </c>
       <c r="J157" s="21" t="s">
         <v>15</v>
@@ -7218,18 +7243,18 @@
     </row>
     <row outlineLevel="0" r="158">
       <c r="A158" s="64" t="s"/>
-      <c r="B158" s="135" t="s"/>
+      <c r="B158" s="141" t="s"/>
       <c r="C158" s="0" t="n"/>
       <c r="D158" s="0" t="n"/>
       <c r="E158" s="70" t="s"/>
       <c r="F158" s="20" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="G158" s="21" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="H158" s="22" t="n"/>
-      <c r="I158" s="146" t="s">
+      <c r="I158" s="150" t="s">
         <v>22</v>
       </c>
       <c r="J158" s="21" t="s">
@@ -7238,18 +7263,18 @@
     </row>
     <row outlineLevel="0" r="159">
       <c r="A159" s="64" t="s"/>
-      <c r="B159" s="135" t="s"/>
+      <c r="B159" s="141" t="s"/>
       <c r="C159" s="0" t="n"/>
       <c r="D159" s="0" t="n"/>
       <c r="E159" s="70" t="s"/>
       <c r="F159" s="20" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="G159" s="21" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="H159" s="22" t="n"/>
-      <c r="I159" s="146" t="s">
+      <c r="I159" s="150" t="s">
         <v>22</v>
       </c>
       <c r="J159" s="21" t="s">
@@ -7258,7 +7283,7 @@
     </row>
     <row outlineLevel="0" r="160">
       <c r="A160" s="64" t="s"/>
-      <c r="B160" s="135" t="s"/>
+      <c r="B160" s="141" t="s"/>
       <c r="C160" s="0" t="n"/>
       <c r="D160" s="0" t="n"/>
       <c r="E160" s="70" t="s"/>
@@ -7266,10 +7291,10 @@
         <v>144</v>
       </c>
       <c r="G160" s="21" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="H160" s="22" t="n"/>
-      <c r="I160" s="146" t="s">
+      <c r="I160" s="150" t="s">
         <v>22</v>
       </c>
       <c r="J160" s="21" t="s">
@@ -7278,18 +7303,18 @@
     </row>
     <row outlineLevel="0" r="161">
       <c r="A161" s="64" t="s"/>
-      <c r="B161" s="135" t="s"/>
+      <c r="B161" s="141" t="s"/>
       <c r="C161" s="29" t="n"/>
       <c r="D161" s="29" t="n"/>
       <c r="E161" s="70" t="s"/>
       <c r="F161" s="31" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="G161" s="32" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="H161" s="33" t="n"/>
-      <c r="I161" s="151" t="s">
+      <c r="I161" s="155" t="s">
         <v>22</v>
       </c>
       <c r="J161" s="32" t="s">
@@ -7300,8 +7325,8 @@
       <c r="A162" s="61" t="n">
         <v>23</v>
       </c>
-      <c r="B162" s="144" t="s">
-        <v>312</v>
+      <c r="B162" s="148" t="s">
+        <v>314</v>
       </c>
       <c r="C162" s="12" t="n"/>
       <c r="D162" s="12" t="n"/>
@@ -7309,10 +7334,10 @@
         <v>65</v>
       </c>
       <c r="F162" s="14" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="G162" s="15" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="H162" s="16" t="n"/>
       <c r="I162" s="12" t="s">
@@ -7324,15 +7349,15 @@
     </row>
     <row outlineLevel="0" r="163">
       <c r="A163" s="64" t="s"/>
-      <c r="B163" s="135" t="s"/>
+      <c r="B163" s="141" t="s"/>
       <c r="C163" s="0" t="n"/>
       <c r="D163" s="0" t="n"/>
       <c r="E163" s="70" t="s"/>
       <c r="F163" s="20" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="G163" s="21" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="H163" s="22" t="n"/>
       <c r="I163" s="0" t="s">
@@ -7344,15 +7369,15 @@
     </row>
     <row outlineLevel="0" r="164">
       <c r="A164" s="64" t="s"/>
-      <c r="B164" s="135" t="s"/>
+      <c r="B164" s="141" t="s"/>
       <c r="C164" s="0" t="n"/>
       <c r="D164" s="0" t="n"/>
       <c r="E164" s="70" t="s"/>
       <c r="F164" s="81" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="G164" s="125" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="H164" s="83" t="s">
         <v>134</v>
@@ -7366,15 +7391,15 @@
     </row>
     <row outlineLevel="0" r="165">
       <c r="A165" s="64" t="s"/>
-      <c r="B165" s="135" t="s"/>
+      <c r="B165" s="141" t="s"/>
       <c r="C165" s="0" t="n"/>
       <c r="D165" s="0" t="n"/>
       <c r="E165" s="70" t="s"/>
-      <c r="F165" s="140" t="s">
-        <v>315</v>
-      </c>
-      <c r="G165" s="141" t="s">
-        <v>316</v>
+      <c r="F165" s="144" t="s">
+        <v>317</v>
+      </c>
+      <c r="G165" s="145" t="s">
+        <v>318</v>
       </c>
       <c r="H165" s="22" t="n"/>
       <c r="I165" s="0" t="s">
@@ -7386,19 +7411,19 @@
     </row>
     <row outlineLevel="0" r="166">
       <c r="A166" s="64" t="s"/>
-      <c r="B166" s="135" t="s"/>
+      <c r="B166" s="141" t="s"/>
       <c r="C166" s="0" t="n"/>
       <c r="D166" s="0" t="n"/>
       <c r="E166" s="70" t="s"/>
       <c r="F166" s="23" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="G166" s="21" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="H166" s="22" t="n"/>
       <c r="I166" s="0" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="J166" s="21" t="s">
         <v>15</v>
@@ -7406,7 +7431,7 @@
     </row>
     <row outlineLevel="0" r="167">
       <c r="A167" s="64" t="s"/>
-      <c r="B167" s="135" t="s"/>
+      <c r="B167" s="141" t="s"/>
       <c r="C167" s="0" t="n"/>
       <c r="D167" s="0" t="n"/>
       <c r="E167" s="70" t="s"/>
@@ -7414,11 +7439,11 @@
         <v>137</v>
       </c>
       <c r="G167" s="21" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="H167" s="22" t="n"/>
-      <c r="I167" s="146" t="s">
-        <v>275</v>
+      <c r="I167" s="150" t="s">
+        <v>277</v>
       </c>
       <c r="J167" s="21" t="s">
         <v>15</v>
@@ -7426,18 +7451,18 @@
     </row>
     <row outlineLevel="0" r="168">
       <c r="A168" s="64" t="s"/>
-      <c r="B168" s="135" t="s"/>
+      <c r="B168" s="141" t="s"/>
       <c r="C168" s="0" t="n"/>
       <c r="D168" s="0" t="n"/>
       <c r="E168" s="70" t="s"/>
-      <c r="F168" s="140" t="s">
-        <v>319</v>
-      </c>
-      <c r="G168" s="141" t="s">
-        <v>320</v>
-      </c>
-      <c r="H168" s="158" t="s">
+      <c r="F168" s="144" t="s">
         <v>321</v>
+      </c>
+      <c r="G168" s="145" t="s">
+        <v>322</v>
+      </c>
+      <c r="H168" s="162" t="s">
+        <v>323</v>
       </c>
       <c r="I168" s="0" t="s">
         <v>22</v>
@@ -7448,29 +7473,29 @@
     </row>
     <row outlineLevel="0" r="169">
       <c r="A169" s="64" t="s"/>
-      <c r="B169" s="135" t="s"/>
+      <c r="B169" s="141" t="s"/>
       <c r="C169" s="0" t="n"/>
       <c r="D169" s="0" t="n"/>
       <c r="E169" s="70" t="s"/>
-      <c r="F169" s="159" t="s">
-        <v>322</v>
-      </c>
-      <c r="G169" s="153" t="s">
-        <v>323</v>
-      </c>
-      <c r="H169" s="160" t="s">
+      <c r="F169" s="163" t="s">
         <v>324</v>
       </c>
-      <c r="I169" s="146" t="s">
+      <c r="G169" s="157" t="s">
         <v>325</v>
       </c>
+      <c r="H169" s="136" t="s">
+        <v>326</v>
+      </c>
+      <c r="I169" s="150" t="s">
+        <v>327</v>
+      </c>
       <c r="J169" s="21" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
     </row>
     <row outlineLevel="0" r="170">
       <c r="A170" s="64" t="s"/>
-      <c r="B170" s="135" t="s"/>
+      <c r="B170" s="141" t="s"/>
       <c r="C170" s="0" t="n"/>
       <c r="D170" s="0" t="n"/>
       <c r="E170" s="70" t="s"/>
@@ -7478,7 +7503,7 @@
         <v>126</v>
       </c>
       <c r="G170" s="24" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="H170" s="22" t="n"/>
       <c r="I170" s="0" t="s">
@@ -7490,15 +7515,15 @@
     </row>
     <row outlineLevel="0" r="171">
       <c r="A171" s="64" t="s"/>
-      <c r="B171" s="135" t="s"/>
+      <c r="B171" s="141" t="s"/>
       <c r="C171" s="29" t="n"/>
       <c r="D171" s="29" t="n"/>
       <c r="E171" s="70" t="s"/>
       <c r="F171" s="71" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="G171" s="32" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="H171" s="33" t="n"/>
       <c r="I171" s="29" t="s">
@@ -7512,8 +7537,8 @@
       <c r="A172" s="61" t="n">
         <v>24</v>
       </c>
-      <c r="B172" s="144" t="s">
-        <v>330</v>
+      <c r="B172" s="148" t="s">
+        <v>332</v>
       </c>
       <c r="C172" s="12" t="n"/>
       <c r="D172" s="12" t="n"/>
@@ -7521,13 +7546,13 @@
         <v>65</v>
       </c>
       <c r="F172" s="14" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="G172" s="15" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="H172" s="16" t="n"/>
-      <c r="I172" s="145" t="s">
+      <c r="I172" s="149" t="s">
         <v>22</v>
       </c>
       <c r="J172" s="15" t="s">
@@ -7536,18 +7561,18 @@
     </row>
     <row outlineLevel="0" r="173">
       <c r="A173" s="64" t="s"/>
-      <c r="B173" s="135" t="s"/>
+      <c r="B173" s="141" t="s"/>
       <c r="C173" s="0" t="n"/>
       <c r="D173" s="0" t="n"/>
       <c r="E173" s="70" t="s"/>
       <c r="F173" s="20" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="G173" s="21" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="H173" s="22" t="n"/>
-      <c r="I173" s="146" t="s">
+      <c r="I173" s="150" t="s">
         <v>22</v>
       </c>
       <c r="J173" s="21" t="s">
@@ -7556,20 +7581,20 @@
     </row>
     <row outlineLevel="0" r="174">
       <c r="A174" s="64" t="s"/>
-      <c r="B174" s="135" t="s"/>
+      <c r="B174" s="141" t="s"/>
       <c r="C174" s="0" t="n"/>
       <c r="D174" s="0" t="n"/>
       <c r="E174" s="70" t="s"/>
       <c r="F174" s="81" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="G174" s="125" t="s">
         <v>145</v>
       </c>
       <c r="H174" s="83" t="s">
-        <v>336</v>
-      </c>
-      <c r="I174" s="146" t="s">
+        <v>338</v>
+      </c>
+      <c r="I174" s="150" t="s">
         <v>22</v>
       </c>
       <c r="J174" s="21" t="s">
@@ -7578,20 +7603,20 @@
     </row>
     <row outlineLevel="0" r="175">
       <c r="A175" s="64" t="s"/>
-      <c r="B175" s="135" t="s"/>
+      <c r="B175" s="141" t="s"/>
       <c r="C175" s="29" t="n"/>
       <c r="D175" s="29" t="n"/>
       <c r="E175" s="70" t="s"/>
-      <c r="F175" s="161" t="s">
-        <v>337</v>
-      </c>
-      <c r="G175" s="162" t="s">
-        <v>338</v>
-      </c>
-      <c r="H175" s="163" t="s">
+      <c r="F175" s="164" t="s">
+        <v>339</v>
+      </c>
+      <c r="G175" s="165" t="s">
+        <v>340</v>
+      </c>
+      <c r="H175" s="166" t="s">
         <v>134</v>
       </c>
-      <c r="I175" s="151" t="s">
+      <c r="I175" s="155" t="s">
         <v>22</v>
       </c>
       <c r="J175" s="32" t="s">
@@ -7602,19 +7627,19 @@
       <c r="A176" s="107" t="n">
         <v>25</v>
       </c>
-      <c r="B176" s="144" t="s">
-        <v>339</v>
+      <c r="B176" s="148" t="s">
+        <v>341</v>
       </c>
       <c r="C176" s="12" t="n"/>
       <c r="D176" s="12" t="n"/>
-      <c r="E176" s="164" t="s">
+      <c r="E176" s="167" t="s">
         <v>65</v>
       </c>
       <c r="F176" s="37" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="G176" s="126" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="H176" s="55" t="n"/>
       <c r="I176" s="55" t="s">
@@ -7626,15 +7651,15 @@
     </row>
     <row outlineLevel="0" r="177">
       <c r="A177" s="90" t="s"/>
-      <c r="B177" s="135" t="s"/>
+      <c r="B177" s="141" t="s"/>
       <c r="C177" s="0" t="n"/>
       <c r="D177" s="0" t="n"/>
-      <c r="E177" s="165" t="s"/>
+      <c r="E177" s="168" t="s"/>
       <c r="F177" s="46" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="G177" s="45" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="H177" s="43" t="n"/>
       <c r="I177" s="43" t="s">
@@ -7646,15 +7671,15 @@
     </row>
     <row outlineLevel="0" r="178">
       <c r="A178" s="90" t="s"/>
-      <c r="B178" s="135" t="s"/>
+      <c r="B178" s="141" t="s"/>
       <c r="C178" s="0" t="n"/>
       <c r="D178" s="0" t="n"/>
-      <c r="E178" s="165" t="s"/>
+      <c r="E178" s="168" t="s"/>
       <c r="F178" s="46" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="G178" s="45" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="H178" s="43" t="n"/>
       <c r="I178" s="43" t="s">
@@ -7666,15 +7691,15 @@
     </row>
     <row outlineLevel="0" r="179">
       <c r="A179" s="90" t="s"/>
-      <c r="B179" s="135" t="s"/>
+      <c r="B179" s="141" t="s"/>
       <c r="C179" s="0" t="n"/>
       <c r="D179" s="0" t="n"/>
-      <c r="E179" s="165" t="s"/>
+      <c r="E179" s="168" t="s"/>
       <c r="F179" s="93" t="s">
-        <v>315</v>
-      </c>
-      <c r="G179" s="166" t="s">
-        <v>316</v>
+        <v>317</v>
+      </c>
+      <c r="G179" s="169" t="s">
+        <v>318</v>
       </c>
       <c r="H179" s="43" t="n"/>
       <c r="I179" s="43" t="s">
@@ -7686,19 +7711,19 @@
     </row>
     <row outlineLevel="0" r="180">
       <c r="A180" s="90" t="s"/>
-      <c r="B180" s="135" t="s"/>
+      <c r="B180" s="141" t="s"/>
       <c r="C180" s="0" t="n"/>
       <c r="D180" s="0" t="n"/>
-      <c r="E180" s="165" t="s"/>
-      <c r="F180" s="167" t="s">
-        <v>317</v>
-      </c>
-      <c r="G180" s="168" t="s">
-        <v>277</v>
-      </c>
-      <c r="H180" s="138" t="n"/>
-      <c r="I180" s="138" t="s">
-        <v>342</v>
+      <c r="E180" s="168" t="s"/>
+      <c r="F180" s="170" t="s">
+        <v>319</v>
+      </c>
+      <c r="G180" s="171" t="s">
+        <v>279</v>
+      </c>
+      <c r="H180" s="142" t="n"/>
+      <c r="I180" s="142" t="s">
+        <v>344</v>
       </c>
       <c r="J180" s="47" t="s">
         <v>15</v>
@@ -7706,19 +7731,19 @@
     </row>
     <row outlineLevel="0" r="181">
       <c r="A181" s="90" t="s"/>
-      <c r="B181" s="135" t="s"/>
+      <c r="B181" s="141" t="s"/>
       <c r="C181" s="0" t="n"/>
       <c r="D181" s="0" t="n"/>
-      <c r="E181" s="165" t="s"/>
-      <c r="F181" s="169" t="s">
+      <c r="E181" s="168" t="s"/>
+      <c r="F181" s="172" t="s">
         <v>137</v>
       </c>
-      <c r="G181" s="168" t="s">
-        <v>318</v>
-      </c>
-      <c r="H181" s="138" t="n"/>
-      <c r="I181" s="138" t="s">
-        <v>343</v>
+      <c r="G181" s="171" t="s">
+        <v>320</v>
+      </c>
+      <c r="H181" s="142" t="n"/>
+      <c r="I181" s="142" t="s">
+        <v>345</v>
       </c>
       <c r="J181" s="47" t="s">
         <v>15</v>
@@ -7726,15 +7751,15 @@
     </row>
     <row outlineLevel="0" r="182">
       <c r="A182" s="90" t="s"/>
-      <c r="B182" s="135" t="s"/>
+      <c r="B182" s="141" t="s"/>
       <c r="C182" s="0" t="n"/>
       <c r="D182" s="0" t="n"/>
-      <c r="E182" s="165" t="s"/>
+      <c r="E182" s="168" t="s"/>
       <c r="F182" s="93" t="s">
-        <v>319</v>
-      </c>
-      <c r="G182" s="166" t="s">
-        <v>320</v>
+        <v>321</v>
+      </c>
+      <c r="G182" s="169" t="s">
+        <v>322</v>
       </c>
       <c r="H182" s="43" t="n"/>
       <c r="I182" s="43" t="s">
@@ -7746,15 +7771,15 @@
     </row>
     <row outlineLevel="0" r="183">
       <c r="A183" s="90" t="s"/>
-      <c r="B183" s="135" t="s"/>
+      <c r="B183" s="141" t="s"/>
       <c r="C183" s="0" t="n"/>
       <c r="D183" s="0" t="n"/>
-      <c r="E183" s="165" t="s"/>
+      <c r="E183" s="168" t="s"/>
       <c r="F183" s="93" t="s">
-        <v>344</v>
-      </c>
-      <c r="G183" s="166" t="s">
-        <v>345</v>
+        <v>346</v>
+      </c>
+      <c r="G183" s="169" t="s">
+        <v>347</v>
       </c>
       <c r="H183" s="43" t="n"/>
       <c r="I183" s="43" t="s">
@@ -7766,15 +7791,15 @@
     </row>
     <row outlineLevel="0" r="184">
       <c r="A184" s="90" t="s"/>
-      <c r="B184" s="135" t="s"/>
+      <c r="B184" s="141" t="s"/>
       <c r="C184" s="0" t="n"/>
       <c r="D184" s="0" t="n"/>
-      <c r="E184" s="165" t="s"/>
+      <c r="E184" s="168" t="s"/>
       <c r="F184" s="41" t="s">
         <v>126</v>
       </c>
       <c r="G184" s="42" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="H184" s="43" t="n"/>
       <c r="I184" s="43" t="s">
@@ -7786,15 +7811,15 @@
     </row>
     <row outlineLevel="0" r="185">
       <c r="A185" s="90" t="s"/>
-      <c r="B185" s="135" t="s"/>
+      <c r="B185" s="141" t="s"/>
       <c r="C185" s="29" t="n"/>
       <c r="D185" s="29" t="n"/>
-      <c r="E185" s="165" t="s"/>
+      <c r="E185" s="168" t="s"/>
       <c r="F185" s="46" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="G185" s="45" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="H185" s="43" t="n"/>
       <c r="I185" s="43" t="s">
@@ -7806,15 +7831,15 @@
     </row>
     <row outlineLevel="0" r="186">
       <c r="A186" s="122" t="s"/>
-      <c r="B186" s="135" t="s"/>
+      <c r="B186" s="141" t="s"/>
       <c r="C186" s="29" t="s"/>
       <c r="D186" s="29" t="s"/>
-      <c r="E186" s="165" t="s"/>
+      <c r="E186" s="168" t="s"/>
       <c r="F186" s="66" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="G186" s="50" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="H186" s="59" t="n"/>
       <c r="I186" s="59" t="s">
@@ -7826,21 +7851,21 @@
       <c r="A187" s="61" t="n">
         <v>26</v>
       </c>
-      <c r="B187" s="144" t="s">
-        <v>348</v>
+      <c r="B187" s="148" t="s">
+        <v>350</v>
       </c>
       <c r="C187" s="12" t="n"/>
       <c r="D187" s="12" t="n"/>
       <c r="E187" s="68" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="F187" s="14" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="G187" s="15" t="s">
-        <v>327</v>
-      </c>
-      <c r="H187" s="170" t="n"/>
+        <v>329</v>
+      </c>
+      <c r="H187" s="173" t="n"/>
       <c r="I187" s="12" t="s">
         <v>22</v>
       </c>
@@ -7850,18 +7875,18 @@
     </row>
     <row outlineLevel="0" r="188">
       <c r="A188" s="64" t="s"/>
-      <c r="B188" s="135" t="s"/>
+      <c r="B188" s="141" t="s"/>
       <c r="C188" s="0" t="n"/>
       <c r="D188" s="0" t="n"/>
       <c r="E188" s="70" t="s"/>
       <c r="F188" s="20" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="G188" s="21" t="s">
-        <v>352</v>
-      </c>
-      <c r="H188" s="171" t="s">
-        <v>353</v>
+        <v>354</v>
+      </c>
+      <c r="H188" s="174" t="s">
+        <v>355</v>
       </c>
       <c r="I188" s="0" t="s">
         <v>22</v>
@@ -7872,18 +7897,18 @@
     </row>
     <row outlineLevel="0" r="189">
       <c r="A189" s="64" t="s"/>
-      <c r="B189" s="135" t="s"/>
+      <c r="B189" s="141" t="s"/>
       <c r="C189" s="0" t="n"/>
       <c r="D189" s="0" t="n"/>
       <c r="E189" s="70" t="s"/>
       <c r="F189" s="20" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="G189" s="21" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="H189" s="86" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="I189" s="0" t="s">
         <v>22</v>
@@ -7894,18 +7919,18 @@
     </row>
     <row outlineLevel="0" r="190">
       <c r="A190" s="64" t="s"/>
-      <c r="B190" s="135" t="s"/>
+      <c r="B190" s="141" t="s"/>
       <c r="C190" s="29" t="n"/>
       <c r="D190" s="29" t="n"/>
       <c r="E190" s="70" t="s"/>
       <c r="F190" s="71" t="s">
+        <v>359</v>
+      </c>
+      <c r="G190" s="32" t="s">
         <v>357</v>
       </c>
-      <c r="G190" s="32" t="s">
-        <v>355</v>
-      </c>
       <c r="H190" s="72" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="I190" s="29" t="s">
         <v>22</v>
@@ -7918,22 +7943,22 @@
       <c r="A191" s="61" t="n">
         <v>27</v>
       </c>
-      <c r="B191" s="172" t="s">
-        <v>358</v>
-      </c>
-      <c r="C191" s="173" t="n"/>
+      <c r="B191" s="175" t="s">
+        <v>360</v>
+      </c>
+      <c r="C191" s="176" t="n"/>
       <c r="D191" s="12" t="s"/>
-      <c r="E191" s="164" t="s">
+      <c r="E191" s="167" t="s">
         <v>65</v>
       </c>
       <c r="F191" s="37" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="G191" s="38" t="s">
-        <v>355</v>
-      </c>
-      <c r="H191" s="174" t="s">
-        <v>360</v>
+        <v>357</v>
+      </c>
+      <c r="H191" s="177" t="s">
+        <v>362</v>
       </c>
       <c r="I191" s="63" t="s">
         <v>22</v>
@@ -7942,18 +7967,18 @@
     </row>
     <row outlineLevel="0" r="192">
       <c r="A192" s="64" t="s"/>
-      <c r="B192" s="175" t="s"/>
-      <c r="C192" s="176" t="s"/>
-      <c r="D192" s="176" t="s"/>
-      <c r="E192" s="165" t="s"/>
+      <c r="B192" s="178" t="s"/>
+      <c r="C192" s="179" t="s"/>
+      <c r="D192" s="179" t="s"/>
+      <c r="E192" s="168" t="s"/>
       <c r="F192" s="46" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="G192" s="45" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="H192" s="47" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="I192" s="41" t="s">
         <v>22</v>
@@ -7964,18 +7989,18 @@
     </row>
     <row outlineLevel="0" r="193">
       <c r="A193" s="64" t="s"/>
-      <c r="B193" s="175" t="s"/>
+      <c r="B193" s="178" t="s"/>
       <c r="C193" s="29" t="s"/>
       <c r="D193" s="29" t="s"/>
-      <c r="E193" s="165" t="s"/>
+      <c r="E193" s="168" t="s"/>
       <c r="F193" s="66" t="s">
+        <v>359</v>
+      </c>
+      <c r="G193" s="50" t="s">
         <v>357</v>
       </c>
-      <c r="G193" s="50" t="s">
-        <v>355</v>
-      </c>
       <c r="H193" s="96" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="I193" s="52" t="s">
         <v>22</v>
@@ -7988,19 +8013,19 @@
       <c r="A194" s="61" t="n">
         <v>28</v>
       </c>
-      <c r="B194" s="144" t="s">
-        <v>362</v>
+      <c r="B194" s="148" t="s">
+        <v>364</v>
       </c>
       <c r="C194" s="12" t="n"/>
       <c r="D194" s="12" t="n"/>
       <c r="E194" s="68" t="s">
         <v>65</v>
       </c>
-      <c r="F194" s="177" t="s">
-        <v>363</v>
-      </c>
-      <c r="G194" s="178" t="s">
-        <v>364</v>
+      <c r="F194" s="180" t="s">
+        <v>365</v>
+      </c>
+      <c r="G194" s="181" t="s">
+        <v>366</v>
       </c>
       <c r="H194" s="16" t="n"/>
       <c r="I194" s="12" t="s">
@@ -8012,15 +8037,15 @@
     </row>
     <row outlineLevel="0" r="195">
       <c r="A195" s="64" t="s"/>
-      <c r="B195" s="135" t="s"/>
+      <c r="B195" s="141" t="s"/>
       <c r="C195" s="0" t="n"/>
       <c r="D195" s="0" t="n"/>
       <c r="E195" s="70" t="s"/>
       <c r="F195" s="20" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="G195" s="21" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="H195" s="22" t="n"/>
       <c r="I195" s="0" t="s">
@@ -8032,15 +8057,15 @@
     </row>
     <row outlineLevel="0" r="196">
       <c r="A196" s="64" t="s"/>
-      <c r="B196" s="135" t="s"/>
+      <c r="B196" s="141" t="s"/>
       <c r="C196" s="29" t="n"/>
       <c r="D196" s="29" t="n"/>
       <c r="E196" s="70" t="s"/>
       <c r="F196" s="71" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="G196" s="32" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="H196" s="33" t="n"/>
       <c r="I196" s="29" t="s">
@@ -8054,21 +8079,21 @@
       <c r="A197" s="61" t="n">
         <v>29</v>
       </c>
-      <c r="B197" s="179" t="s">
-        <v>369</v>
-      </c>
-      <c r="C197" s="180" t="n"/>
-      <c r="D197" s="180" t="n"/>
+      <c r="B197" s="182" t="s">
+        <v>371</v>
+      </c>
+      <c r="C197" s="183" t="n"/>
+      <c r="D197" s="183" t="n"/>
       <c r="E197" s="68" t="s">
         <v>65</v>
       </c>
-      <c r="F197" s="181" t="s">
-        <v>370</v>
-      </c>
-      <c r="G197" s="182" t="s">
-        <v>371</v>
-      </c>
-      <c r="H197" s="183" t="n"/>
+      <c r="F197" s="184" t="s">
+        <v>372</v>
+      </c>
+      <c r="G197" s="185" t="s">
+        <v>373</v>
+      </c>
+      <c r="H197" s="186" t="n"/>
       <c r="I197" s="12" t="n"/>
       <c r="J197" s="15" t="s">
         <v>15</v>
@@ -8076,18 +8101,18 @@
     </row>
     <row outlineLevel="0" r="198">
       <c r="A198" s="64" t="s"/>
-      <c r="B198" s="184" t="s"/>
+      <c r="B198" s="187" t="s"/>
       <c r="C198" s="115" t="n"/>
       <c r="D198" s="115" t="n"/>
       <c r="E198" s="70" t="s"/>
-      <c r="F198" s="185" t="s">
-        <v>372</v>
-      </c>
-      <c r="G198" s="186" t="s">
-        <v>373</v>
-      </c>
-      <c r="H198" s="187" t="s">
+      <c r="F198" s="188" t="s">
         <v>374</v>
+      </c>
+      <c r="G198" s="189" t="s">
+        <v>375</v>
+      </c>
+      <c r="H198" s="190" t="s">
+        <v>376</v>
       </c>
       <c r="I198" s="0" t="n"/>
       <c r="J198" s="21" t="s">
@@ -8096,18 +8121,18 @@
     </row>
     <row outlineLevel="0" r="199">
       <c r="A199" s="64" t="s"/>
-      <c r="B199" s="184" t="s"/>
+      <c r="B199" s="187" t="s"/>
       <c r="C199" s="115" t="n"/>
       <c r="D199" s="115" t="n"/>
       <c r="E199" s="70" t="s"/>
-      <c r="F199" s="185" t="s">
-        <v>375</v>
-      </c>
-      <c r="G199" s="188" t="s">
-        <v>376</v>
-      </c>
-      <c r="H199" s="187" t="s">
+      <c r="F199" s="188" t="s">
         <v>377</v>
+      </c>
+      <c r="G199" s="191" t="s">
+        <v>378</v>
+      </c>
+      <c r="H199" s="190" t="s">
+        <v>379</v>
       </c>
       <c r="I199" s="0" t="n"/>
       <c r="J199" s="21" t="s">
@@ -8116,15 +8141,15 @@
     </row>
     <row outlineLevel="0" r="200">
       <c r="A200" s="64" t="s"/>
-      <c r="B200" s="184" t="s"/>
+      <c r="B200" s="187" t="s"/>
       <c r="C200" s="0" t="n"/>
       <c r="D200" s="0" t="n"/>
       <c r="E200" s="70" t="s"/>
       <c r="F200" s="20" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="G200" s="24" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="H200" s="22" t="n"/>
       <c r="I200" s="0" t="n"/>
@@ -8134,15 +8159,15 @@
     </row>
     <row outlineLevel="0" r="201">
       <c r="A201" s="64" t="s"/>
-      <c r="B201" s="184" t="s"/>
+      <c r="B201" s="187" t="s"/>
       <c r="C201" s="0" t="n"/>
       <c r="D201" s="0" t="n"/>
       <c r="E201" s="70" t="s"/>
       <c r="F201" s="20" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="G201" s="24" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="H201" s="22" t="n"/>
       <c r="I201" s="0" t="n"/>
@@ -8152,15 +8177,15 @@
     </row>
     <row outlineLevel="0" r="202">
       <c r="A202" s="64" t="s"/>
-      <c r="B202" s="184" t="s"/>
+      <c r="B202" s="187" t="s"/>
       <c r="C202" s="0" t="n"/>
       <c r="D202" s="0" t="n"/>
       <c r="E202" s="70" t="s"/>
       <c r="F202" s="20" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="G202" s="21" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="H202" s="22" t="n"/>
       <c r="I202" s="0" t="n"/>
@@ -8170,7 +8195,7 @@
     </row>
     <row outlineLevel="0" r="203">
       <c r="A203" s="64" t="s"/>
-      <c r="B203" s="184" t="s"/>
+      <c r="B203" s="187" t="s"/>
       <c r="C203" s="0" t="n"/>
       <c r="D203" s="0" t="n"/>
       <c r="E203" s="70" t="s"/>
@@ -8178,7 +8203,7 @@
         <v>181</v>
       </c>
       <c r="G203" s="21" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="H203" s="22" t="n"/>
       <c r="I203" s="0" t="n"/>
@@ -8188,7 +8213,7 @@
     </row>
     <row outlineLevel="0" r="204">
       <c r="A204" s="64" t="s"/>
-      <c r="B204" s="184" t="s"/>
+      <c r="B204" s="187" t="s"/>
       <c r="C204" s="29" t="n"/>
       <c r="D204" s="29" t="n"/>
       <c r="E204" s="70" t="s"/>
@@ -8196,7 +8221,7 @@
         <v>203</v>
       </c>
       <c r="G204" s="32" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="H204" s="33" t="n"/>
       <c r="I204" s="29" t="n"/>
@@ -8208,8 +8233,8 @@
       <c r="A205" s="61" t="n">
         <v>30</v>
       </c>
-      <c r="B205" s="189" t="s">
-        <v>386</v>
+      <c r="B205" s="192" t="s">
+        <v>388</v>
       </c>
       <c r="C205" s="12" t="n"/>
       <c r="D205" s="12" t="n"/>
@@ -8217,10 +8242,10 @@
         <v>65</v>
       </c>
       <c r="F205" s="69" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="G205" s="15" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="H205" s="16" t="n"/>
       <c r="I205" s="12" t="n"/>
@@ -8230,15 +8255,15 @@
     </row>
     <row outlineLevel="0" r="206">
       <c r="A206" s="64" t="s"/>
-      <c r="B206" s="190" t="s"/>
+      <c r="B206" s="193" t="s"/>
       <c r="C206" s="0" t="n"/>
       <c r="D206" s="0" t="n"/>
       <c r="E206" s="70" t="s"/>
       <c r="F206" s="20" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="G206" s="24" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="H206" s="22" t="n"/>
       <c r="I206" s="0" t="n"/>
@@ -8248,15 +8273,15 @@
     </row>
     <row outlineLevel="0" r="207">
       <c r="A207" s="64" t="s"/>
-      <c r="B207" s="190" t="s"/>
+      <c r="B207" s="193" t="s"/>
       <c r="C207" s="0" t="n"/>
       <c r="D207" s="0" t="n"/>
       <c r="E207" s="70" t="s"/>
       <c r="F207" s="20" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="G207" s="21" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="H207" s="22" t="n"/>
       <c r="I207" s="0" t="n"/>
@@ -8266,15 +8291,15 @@
     </row>
     <row outlineLevel="0" r="208">
       <c r="A208" s="64" t="s"/>
-      <c r="B208" s="190" t="s"/>
+      <c r="B208" s="193" t="s"/>
       <c r="C208" s="0" t="n"/>
       <c r="D208" s="0" t="n"/>
       <c r="E208" s="70" t="s"/>
       <c r="F208" s="20" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="G208" s="21" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="H208" s="22" t="n"/>
       <c r="I208" s="0" t="n"/>
@@ -8284,7 +8309,7 @@
     </row>
     <row outlineLevel="0" r="209">
       <c r="A209" s="64" t="s"/>
-      <c r="B209" s="190" t="s"/>
+      <c r="B209" s="193" t="s"/>
       <c r="C209" s="0" t="n"/>
       <c r="D209" s="0" t="n"/>
       <c r="E209" s="70" t="s"/>
@@ -8292,7 +8317,7 @@
         <v>126</v>
       </c>
       <c r="G209" s="21" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="H209" s="22" t="n"/>
       <c r="I209" s="0" t="n"/>
@@ -8302,15 +8327,15 @@
     </row>
     <row outlineLevel="0" r="210">
       <c r="A210" s="64" t="s"/>
-      <c r="B210" s="190" t="s"/>
+      <c r="B210" s="193" t="s"/>
       <c r="C210" s="0" t="n"/>
       <c r="D210" s="0" t="n"/>
       <c r="E210" s="70" t="s"/>
       <c r="F210" s="23" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="G210" s="21" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="H210" s="22" t="n"/>
       <c r="I210" s="0" t="n"/>
@@ -8320,15 +8345,15 @@
     </row>
     <row outlineLevel="0" r="211">
       <c r="A211" s="64" t="s"/>
-      <c r="B211" s="190" t="s"/>
+      <c r="B211" s="193" t="s"/>
       <c r="C211" s="29" t="n"/>
       <c r="D211" s="29" t="n"/>
       <c r="E211" s="70" t="s"/>
       <c r="F211" s="71" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="G211" s="32" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="H211" s="33" t="n"/>
       <c r="I211" s="29" t="n"/>
@@ -8340,8 +8365,8 @@
       <c r="A212" s="61" t="n">
         <v>31</v>
       </c>
-      <c r="B212" s="191" t="s">
-        <v>400</v>
+      <c r="B212" s="194" t="s">
+        <v>402</v>
       </c>
       <c r="C212" s="12" t="n"/>
       <c r="D212" s="12" t="n"/>
@@ -8349,10 +8374,10 @@
         <v>65</v>
       </c>
       <c r="F212" s="14" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="G212" s="73" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="H212" s="16" t="n"/>
       <c r="I212" s="12" t="n"/>
@@ -8362,15 +8387,15 @@
     </row>
     <row outlineLevel="0" r="213">
       <c r="A213" s="64" t="s"/>
-      <c r="B213" s="192" t="s"/>
+      <c r="B213" s="195" t="s"/>
       <c r="C213" s="0" t="n"/>
       <c r="D213" s="0" t="n"/>
       <c r="E213" s="70" t="s"/>
       <c r="F213" s="23" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="G213" s="24" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="H213" s="22" t="n"/>
       <c r="I213" s="0" t="n"/>
@@ -8380,15 +8405,15 @@
     </row>
     <row outlineLevel="0" r="214">
       <c r="A214" s="64" t="s"/>
-      <c r="B214" s="192" t="s"/>
+      <c r="B214" s="195" t="s"/>
       <c r="C214" s="0" t="n"/>
       <c r="D214" s="0" t="n"/>
       <c r="E214" s="70" t="s"/>
       <c r="F214" s="20" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="G214" s="24" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="H214" s="22" t="n"/>
       <c r="I214" s="0" t="n"/>
@@ -8398,15 +8423,15 @@
     </row>
     <row outlineLevel="0" r="215">
       <c r="A215" s="64" t="s"/>
-      <c r="B215" s="192" t="s"/>
+      <c r="B215" s="195" t="s"/>
       <c r="C215" s="0" t="n"/>
       <c r="D215" s="0" t="n"/>
       <c r="E215" s="70" t="s"/>
       <c r="F215" s="23" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="G215" s="21" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="H215" s="22" t="n"/>
       <c r="I215" s="0" t="n"/>
@@ -8416,15 +8441,15 @@
     </row>
     <row outlineLevel="0" r="216">
       <c r="A216" s="64" t="s"/>
-      <c r="B216" s="192" t="s"/>
+      <c r="B216" s="195" t="s"/>
       <c r="C216" s="0" t="n"/>
       <c r="D216" s="0" t="n"/>
       <c r="E216" s="70" t="s"/>
       <c r="F216" s="20" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="G216" s="24" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="H216" s="22" t="n"/>
       <c r="I216" s="0" t="n"/>
@@ -8434,7 +8459,7 @@
     </row>
     <row outlineLevel="0" r="217">
       <c r="A217" s="64" t="s"/>
-      <c r="B217" s="192" t="s"/>
+      <c r="B217" s="195" t="s"/>
       <c r="C217" s="0" t="n"/>
       <c r="D217" s="0" t="n"/>
       <c r="E217" s="70" t="s"/>
@@ -8442,7 +8467,7 @@
         <v>126</v>
       </c>
       <c r="G217" s="21" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="H217" s="22" t="n"/>
       <c r="I217" s="0" t="n"/>
@@ -8452,15 +8477,15 @@
     </row>
     <row outlineLevel="0" r="218">
       <c r="A218" s="64" t="s"/>
-      <c r="B218" s="192" t="s"/>
+      <c r="B218" s="195" t="s"/>
       <c r="C218" s="29" t="n"/>
       <c r="D218" s="29" t="n"/>
       <c r="E218" s="70" t="s"/>
       <c r="F218" s="31" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="G218" s="32" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="H218" s="33" t="n"/>
       <c r="I218" s="29" t="n"/>
@@ -8469,22 +8494,22 @@
       </c>
     </row>
     <row outlineLevel="0" r="219">
-      <c r="A219" s="193" t="n">
+      <c r="A219" s="196" t="n">
         <v>32</v>
       </c>
-      <c r="B219" s="194" t="s">
-        <v>411</v>
+      <c r="B219" s="197" t="s">
+        <v>413</v>
       </c>
       <c r="C219" s="12" t="n"/>
       <c r="D219" s="12" t="n"/>
-      <c r="E219" s="195" t="s">
+      <c r="E219" s="198" t="s">
         <v>65</v>
       </c>
       <c r="F219" s="14" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="G219" s="73" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="H219" s="16" t="n"/>
       <c r="I219" s="12" t="n"/>
@@ -8494,15 +8519,15 @@
     </row>
     <row outlineLevel="0" r="220">
       <c r="A220" s="64" t="s"/>
-      <c r="B220" s="192" t="s"/>
+      <c r="B220" s="195" t="s"/>
       <c r="C220" s="0" t="n"/>
       <c r="D220" s="0" t="n"/>
-      <c r="E220" s="165" t="s"/>
+      <c r="E220" s="168" t="s"/>
       <c r="F220" s="23" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="G220" s="24" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="H220" s="22" t="n"/>
       <c r="I220" s="0" t="n"/>
@@ -8512,15 +8537,15 @@
     </row>
     <row outlineLevel="0" r="221">
       <c r="A221" s="64" t="s"/>
-      <c r="B221" s="192" t="s"/>
+      <c r="B221" s="195" t="s"/>
       <c r="C221" s="0" t="n"/>
       <c r="D221" s="0" t="n"/>
-      <c r="E221" s="165" t="s"/>
+      <c r="E221" s="168" t="s"/>
       <c r="F221" s="20" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="G221" s="21" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="H221" s="22" t="n"/>
       <c r="I221" s="0" t="n"/>
@@ -8530,15 +8555,15 @@
     </row>
     <row outlineLevel="0" r="222">
       <c r="A222" s="64" t="s"/>
-      <c r="B222" s="192" t="s"/>
+      <c r="B222" s="195" t="s"/>
       <c r="C222" s="0" t="n"/>
       <c r="D222" s="0" t="n"/>
-      <c r="E222" s="165" t="s"/>
+      <c r="E222" s="168" t="s"/>
       <c r="F222" s="23" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="G222" s="21" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="H222" s="22" t="n"/>
       <c r="I222" s="0" t="n"/>
@@ -8547,16 +8572,16 @@
       </c>
     </row>
     <row outlineLevel="0" r="223">
-      <c r="A223" s="196" t="s"/>
-      <c r="B223" s="197" t="s"/>
+      <c r="A223" s="199" t="s"/>
+      <c r="B223" s="200" t="s"/>
       <c r="C223" s="29" t="n"/>
       <c r="D223" s="29" t="n"/>
-      <c r="E223" s="198" t="s"/>
+      <c r="E223" s="201" t="s"/>
       <c r="F223" s="71" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="G223" s="32" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="H223" s="33" t="n"/>
       <c r="I223" s="29" t="n"/>
@@ -8565,38 +8590,38 @@
       </c>
     </row>
     <row outlineLevel="0" r="224">
-      <c r="A224" s="199" t="n">
+      <c r="A224" s="202" t="n">
         <v>33</v>
       </c>
       <c r="B224" s="10" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="C224" s="12" t="n"/>
       <c r="D224" s="12" t="n"/>
       <c r="E224" s="73" t="n"/>
       <c r="F224" s="69" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="G224" s="73" t="s">
-        <v>418</v>
-      </c>
-      <c r="H224" s="170" t="n"/>
+        <v>420</v>
+      </c>
+      <c r="H224" s="173" t="n"/>
       <c r="I224" s="14" t="n"/>
       <c r="J224" s="15" t="s">
         <v>15</v>
       </c>
     </row>
     <row outlineLevel="0" r="225">
-      <c r="A225" s="200" t="s"/>
+      <c r="A225" s="203" t="s"/>
       <c r="B225" s="17" t="s"/>
       <c r="C225" s="0" t="n"/>
       <c r="D225" s="0" t="n"/>
       <c r="E225" s="24" t="n"/>
       <c r="F225" s="23" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="G225" s="21" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="H225" s="86" t="n"/>
       <c r="I225" s="20" t="n"/>
@@ -8605,16 +8630,16 @@
       </c>
     </row>
     <row outlineLevel="0" r="226">
-      <c r="A226" s="200" t="s"/>
+      <c r="A226" s="203" t="s"/>
       <c r="B226" s="17" t="s"/>
       <c r="C226" s="0" t="n"/>
       <c r="D226" s="0" t="n"/>
       <c r="E226" s="24" t="n"/>
       <c r="F226" s="23" t="s">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="G226" s="21" t="s">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="H226" s="86" t="n"/>
       <c r="I226" s="20" t="n"/>
@@ -8623,16 +8648,16 @@
       </c>
     </row>
     <row outlineLevel="0" r="227">
-      <c r="A227" s="201" t="s"/>
+      <c r="A227" s="204" t="s"/>
       <c r="B227" s="27" t="s"/>
       <c r="C227" s="29" t="n"/>
       <c r="D227" s="29" t="n"/>
       <c r="E227" s="75" t="n"/>
       <c r="F227" s="31" t="s">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="G227" s="75" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="H227" s="72" t="n"/>
       <c r="I227" s="71" t="n"/>
@@ -8641,108 +8666,108 @@
   </sheetData>
   <mergeCells count="103">
     <mergeCell ref="E2:E8"/>
-    <mergeCell ref="E205:E211"/>
-    <mergeCell ref="E139:E145"/>
-    <mergeCell ref="E67:E70"/>
+    <mergeCell ref="E30:E32"/>
+    <mergeCell ref="E212:E218"/>
+    <mergeCell ref="E71:E76"/>
     <mergeCell ref="E162:E171"/>
-    <mergeCell ref="E54:E66"/>
+    <mergeCell ref="E85:E103"/>
     <mergeCell ref="E146:E152"/>
     <mergeCell ref="E194:E196"/>
+    <mergeCell ref="E46:E53"/>
     <mergeCell ref="E33:E41"/>
-    <mergeCell ref="E27:E29"/>
-    <mergeCell ref="E71:E76"/>
-    <mergeCell ref="E153:E161"/>
     <mergeCell ref="E127:E133"/>
+    <mergeCell ref="E205:E211"/>
+    <mergeCell ref="E77:E81"/>
     <mergeCell ref="B224:B227"/>
-    <mergeCell ref="B46:B53"/>
-    <mergeCell ref="B162:B171"/>
-    <mergeCell ref="B30:B32"/>
-    <mergeCell ref="B85:B103"/>
+    <mergeCell ref="B19:B21"/>
+    <mergeCell ref="B121:B126"/>
+    <mergeCell ref="B153:B161"/>
     <mergeCell ref="B22:B26"/>
+    <mergeCell ref="B71:B76"/>
     <mergeCell ref="B104:B116"/>
-    <mergeCell ref="B194:B196"/>
-    <mergeCell ref="B139:B145"/>
+    <mergeCell ref="B197:B204"/>
     <mergeCell ref="B127:B133"/>
+    <mergeCell ref="B42:B45"/>
     <mergeCell ref="A9:A18"/>
-    <mergeCell ref="A54:A66"/>
+    <mergeCell ref="A42:A45"/>
+    <mergeCell ref="A117:A120"/>
+    <mergeCell ref="A46:A53"/>
+    <mergeCell ref="A212:A218"/>
+    <mergeCell ref="A153:A161"/>
     <mergeCell ref="A146:A152"/>
-    <mergeCell ref="A121:A126"/>
-    <mergeCell ref="A134:A138"/>
-    <mergeCell ref="A212:A218"/>
+    <mergeCell ref="A2:A8"/>
     <mergeCell ref="A176:A186"/>
-    <mergeCell ref="A194:A196"/>
-    <mergeCell ref="A127:A133"/>
-    <mergeCell ref="A197:A204"/>
+    <mergeCell ref="A30:A32"/>
     <mergeCell ref="D185:D186"/>
-    <mergeCell ref="E176:E186"/>
     <mergeCell ref="E187:E190"/>
     <mergeCell ref="E191:E193"/>
+    <mergeCell ref="E176:E186"/>
     <mergeCell ref="C191:D193"/>
     <mergeCell ref="C185:C186"/>
+    <mergeCell ref="A77:A81"/>
+    <mergeCell ref="A197:A204"/>
+    <mergeCell ref="A82:A84"/>
+    <mergeCell ref="A33:A41"/>
+    <mergeCell ref="A205:A211"/>
+    <mergeCell ref="A172:A175"/>
+    <mergeCell ref="A224:A227"/>
+    <mergeCell ref="A134:A138"/>
+    <mergeCell ref="B212:B218"/>
+    <mergeCell ref="B46:B53"/>
+    <mergeCell ref="B82:B84"/>
+    <mergeCell ref="B77:B81"/>
+    <mergeCell ref="B85:B103"/>
+    <mergeCell ref="B134:B138"/>
+    <mergeCell ref="B176:B186"/>
+    <mergeCell ref="B139:B145"/>
+    <mergeCell ref="B30:B32"/>
+    <mergeCell ref="B205:B211"/>
+    <mergeCell ref="B33:B41"/>
+    <mergeCell ref="B146:B152"/>
+    <mergeCell ref="B187:B190"/>
+    <mergeCell ref="B117:B120"/>
+    <mergeCell ref="B194:B196"/>
+    <mergeCell ref="B191:B193"/>
+    <mergeCell ref="A194:A196"/>
+    <mergeCell ref="A139:A145"/>
+    <mergeCell ref="A22:A26"/>
+    <mergeCell ref="A219:A223"/>
+    <mergeCell ref="A104:A116"/>
+    <mergeCell ref="A127:A133"/>
+    <mergeCell ref="A54:A66"/>
     <mergeCell ref="A27:A29"/>
-    <mergeCell ref="A67:A70"/>
-    <mergeCell ref="A42:A45"/>
-    <mergeCell ref="A82:A84"/>
-    <mergeCell ref="A162:A171"/>
-    <mergeCell ref="A224:A227"/>
-    <mergeCell ref="A219:A223"/>
-    <mergeCell ref="A139:A145"/>
-    <mergeCell ref="B191:B193"/>
-    <mergeCell ref="B67:B70"/>
-    <mergeCell ref="B19:B21"/>
-    <mergeCell ref="B82:B84"/>
-    <mergeCell ref="B9:B18"/>
-    <mergeCell ref="B77:B81"/>
-    <mergeCell ref="B146:B152"/>
-    <mergeCell ref="B205:B211"/>
-    <mergeCell ref="B54:B66"/>
-    <mergeCell ref="B197:B204"/>
-    <mergeCell ref="B172:B175"/>
-    <mergeCell ref="B33:B41"/>
-    <mergeCell ref="B153:B161"/>
-    <mergeCell ref="B71:B76"/>
-    <mergeCell ref="B219:B223"/>
-    <mergeCell ref="B2:B8"/>
-    <mergeCell ref="A187:A190"/>
-    <mergeCell ref="A2:A8"/>
-    <mergeCell ref="A205:A211"/>
-    <mergeCell ref="A22:A26"/>
-    <mergeCell ref="A46:A53"/>
-    <mergeCell ref="A172:A175"/>
-    <mergeCell ref="A85:A103"/>
-    <mergeCell ref="A71:A76"/>
+    <mergeCell ref="E22:E26"/>
+    <mergeCell ref="E27:E29"/>
+    <mergeCell ref="E172:E175"/>
+    <mergeCell ref="E219:E223"/>
+    <mergeCell ref="E121:E126"/>
+    <mergeCell ref="E104:E116"/>
+    <mergeCell ref="E67:E70"/>
+    <mergeCell ref="E153:E161"/>
     <mergeCell ref="E9:E18"/>
     <mergeCell ref="E19:E21"/>
-    <mergeCell ref="E172:E175"/>
-    <mergeCell ref="E212:E218"/>
-    <mergeCell ref="E134:E138"/>
-    <mergeCell ref="E85:E103"/>
-    <mergeCell ref="E46:E53"/>
-    <mergeCell ref="E219:E223"/>
-    <mergeCell ref="E30:E32"/>
-    <mergeCell ref="E104:E116"/>
+    <mergeCell ref="E54:E66"/>
+    <mergeCell ref="E139:E145"/>
     <mergeCell ref="E42:E45"/>
-    <mergeCell ref="E77:E81"/>
-    <mergeCell ref="E22:E26"/>
     <mergeCell ref="E117:E120"/>
     <mergeCell ref="E197:E204"/>
-    <mergeCell ref="E121:E126"/>
+    <mergeCell ref="E134:E138"/>
+    <mergeCell ref="A121:A126"/>
+    <mergeCell ref="A71:A76"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A85:A103"/>
+    <mergeCell ref="A67:A70"/>
     <mergeCell ref="A191:A193"/>
-    <mergeCell ref="A117:A120"/>
-    <mergeCell ref="A104:A116"/>
-    <mergeCell ref="A19:A21"/>
-    <mergeCell ref="A77:A81"/>
-    <mergeCell ref="A153:A161"/>
-    <mergeCell ref="A30:A32"/>
-    <mergeCell ref="A33:A41"/>
-    <mergeCell ref="B212:B218"/>
-    <mergeCell ref="B121:B126"/>
-    <mergeCell ref="B187:B190"/>
+    <mergeCell ref="A162:A171"/>
+    <mergeCell ref="A187:A190"/>
+    <mergeCell ref="B162:B171"/>
+    <mergeCell ref="B2:B8"/>
     <mergeCell ref="B27:B29"/>
-    <mergeCell ref="B176:B186"/>
-    <mergeCell ref="B117:B120"/>
-    <mergeCell ref="B42:B45"/>
-    <mergeCell ref="B134:B138"/>
+    <mergeCell ref="B219:B223"/>
+    <mergeCell ref="B67:B70"/>
+    <mergeCell ref="B172:B175"/>
+    <mergeCell ref="B9:B18"/>
+    <mergeCell ref="B54:B66"/>
   </mergeCells>
   <pageMargins bottom="0.790000021457672" footer="0.19680555164814" header="0.19680555164814" left="0.790000021457672" right="0.790000021457672" top="0.790000021457672"/>
 </worksheet>

--- a/Cases.xlsx
+++ b/Cases.xlsx
@@ -1535,18 +1535,7 @@
       <t xml:space="preserve"> </t>
     </r>
   </si>
-  <si>
-    <t>Слово HelloWorld вводится как Hello world</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <rFont val="XO Thames"/>
-        <sz val="12"/>
-      </rPr>
-      <t>Слово HelloWorld вводится как Hello world</t>
-    </r>
-  </si>
+  <si/>
   <si>
     <t>Проверка раздела News</t>
   </si>
@@ -2620,7 +2609,7 @@
       <sz val="12"/>
     </font>
   </fonts>
-  <fills count="21">
+  <fills count="22">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2709,12 +2698,17 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0"/>
+        <fgColor theme="9" tint="0.4"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="1F497D" tint="0"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0"/>
       </patternFill>
     </fill>
     <fill>
@@ -3164,7 +3158,7 @@
   <cellStyleXfs count="1">
     <xf applyFont="true" borderId="0" fillId="0" fontId="1" quotePrefix="false"/>
   </cellStyleXfs>
-  <cellXfs count="205">
+  <cellXfs count="208">
     <xf applyFont="true" borderId="0" fillId="0" fontId="1" quotePrefix="false"/>
     <xf applyAlignment="true" applyFill="true" applyFont="true" borderId="0" fillId="2" fontId="1" quotePrefix="false">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
@@ -3507,8 +3501,14 @@
     <xf applyAlignment="true" applyBorder="true" applyFill="true" applyFont="true" borderId="7" fillId="19" fontId="1" quotePrefix="false">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="22" fillId="18" fontId="1" quotePrefix="false"/>
-    <xf applyAlignment="true" applyFill="true" applyFont="true" borderId="0" fillId="18" fontId="1" quotePrefix="false">
+    <xf applyAlignment="true" applyBorder="true" applyFill="true" applyFont="true" borderId="7" fillId="20" fontId="1" quotePrefix="false">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFill="true" applyFont="true" borderId="8" fillId="20" fontId="1" quotePrefix="false">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="22" fillId="20" fontId="1" quotePrefix="false"/>
+    <xf applyAlignment="true" applyFill="true" applyFont="true" borderId="0" fillId="20" fontId="1" quotePrefix="false">
       <alignment wrapText="true"/>
     </xf>
     <xf applyAlignment="true" applyBorder="true" applyFill="true" applyFont="true" borderId="7" fillId="15" fontId="1" quotePrefix="false">
@@ -3541,24 +3541,27 @@
     <xf applyAlignment="true" applyBorder="true" applyFill="true" applyFont="true" borderId="7" fillId="13" fontId="1" quotePrefix="false">
       <alignment wrapText="true"/>
     </xf>
-    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="9" fillId="18" fontId="1" quotePrefix="false"/>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="9" fillId="20" fontId="1" quotePrefix="false"/>
     <xf applyAlignment="true" applyBorder="true" applyFont="true" borderId="11" fillId="0" fontId="1" quotePrefix="false">
       <alignment wrapText="true"/>
     </xf>
     <xf applyBorder="true" applyFill="true" applyFont="true" borderId="8" fillId="15" fontId="1" quotePrefix="false"/>
-    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="8" fillId="18" fontId="1" quotePrefix="false"/>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="8" fillId="20" fontId="1" quotePrefix="false"/>
     <xf applyAlignment="true" applyBorder="true" applyFill="true" applyFont="true" borderId="10" fillId="15" fontId="1" quotePrefix="false">
       <alignment wrapText="true"/>
     </xf>
-    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="12" fillId="18" fontId="1" quotePrefix="false"/>
-    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="13" fillId="18" fontId="1" quotePrefix="false"/>
-    <xf applyAlignment="true" applyBorder="true" applyFill="true" applyFont="true" borderId="11" fillId="18" fontId="1" quotePrefix="false">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="12" fillId="20" fontId="1" quotePrefix="false"/>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="13" fillId="20" fontId="1" quotePrefix="false"/>
+    <xf applyAlignment="true" applyBorder="true" applyFill="true" applyFont="true" borderId="11" fillId="20" fontId="1" quotePrefix="false">
       <alignment wrapText="true"/>
     </xf>
     <xf applyAlignment="true" applyBorder="true" applyFont="true" borderId="9" fillId="0" fontId="1" quotePrefix="false">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="7" fillId="18" fontId="1" quotePrefix="false"/>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="7" fillId="20" fontId="1" quotePrefix="false"/>
+    <xf applyAlignment="true" applyBorder="true" applyFill="true" applyFont="true" borderId="9" fillId="20" fontId="1" quotePrefix="false">
+      <alignment wrapText="true"/>
+    </xf>
     <xf applyAlignment="true" applyBorder="true" applyFill="true" applyFont="true" borderId="10" fillId="12" fontId="1" quotePrefix="false">
       <alignment wrapText="true"/>
     </xf>
@@ -3576,7 +3579,7 @@
       <alignment wrapText="true"/>
     </xf>
     <xf applyBorder="true" applyFill="true" applyFont="true" borderId="20" fillId="13" fontId="1" quotePrefix="false"/>
-    <xf applyAlignment="true" applyBorder="true" applyFill="true" applyFont="true" borderId="21" fillId="18" fontId="1" quotePrefix="false">
+    <xf applyAlignment="true" applyBorder="true" applyFill="true" applyFont="true" borderId="21" fillId="20" fontId="1" quotePrefix="false">
       <alignment wrapText="true"/>
     </xf>
     <xf applyBorder="true" applyFill="true" applyFont="true" borderId="20" fillId="14" fontId="1" quotePrefix="false"/>
@@ -3631,16 +3634,16 @@
     <xf applyAlignment="true" applyBorder="true" applyFill="true" applyFont="true" borderId="7" fillId="14" fontId="4" quotePrefix="false">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFill="true" applyFont="true" borderId="4" fillId="20" fontId="1" quotePrefix="false">
+    <xf applyAlignment="true" applyBorder="true" applyFill="true" applyFont="true" borderId="4" fillId="21" fontId="1" quotePrefix="false">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFill="true" applyFont="true" borderId="7" fillId="20" fontId="1" quotePrefix="false">
+    <xf applyAlignment="true" applyBorder="true" applyFill="true" applyFont="true" borderId="7" fillId="21" fontId="1" quotePrefix="false">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf applyAlignment="true" applyBorder="true" applyFont="true" borderId="1" fillId="0" fontId="1" quotePrefix="false">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFill="true" applyFont="true" borderId="1" fillId="20" fontId="1" quotePrefix="false">
+    <xf applyAlignment="true" applyBorder="true" applyFill="true" applyFont="true" borderId="1" fillId="21" fontId="1" quotePrefix="false">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf applyAlignment="true" applyBorder="true" applyFont="true" borderId="3" fillId="0" fontId="1" quotePrefix="false">
@@ -3649,7 +3652,7 @@
     <xf applyAlignment="true" applyBorder="true" applyFont="true" borderId="10" fillId="0" fontId="1" quotePrefix="false">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFill="true" applyFont="true" borderId="10" fillId="20" fontId="1" quotePrefix="false">
+    <xf applyAlignment="true" applyBorder="true" applyFill="true" applyFont="true" borderId="10" fillId="21" fontId="1" quotePrefix="false">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf applyAlignment="true" applyBorder="true" applyFont="true" borderId="12" fillId="0" fontId="1" quotePrefix="false">
@@ -6724,7 +6727,7 @@
         <v>245</v>
       </c>
       <c r="H133" s="139" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="I133" s="29" t="s">
         <v>22</v>
@@ -6738,7 +6741,7 @@
         <v>19</v>
       </c>
       <c r="B134" s="140" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C134" s="35" t="n"/>
       <c r="D134" s="35" t="n"/>
@@ -6746,10 +6749,10 @@
         <v>65</v>
       </c>
       <c r="F134" s="37" t="s">
+        <v>257</v>
+      </c>
+      <c r="G134" s="38" t="s">
         <v>258</v>
-      </c>
-      <c r="G134" s="38" t="s">
-        <v>259</v>
       </c>
       <c r="H134" s="55" t="n"/>
       <c r="I134" s="12" t="s">
@@ -6765,15 +6768,15 @@
       <c r="C135" s="0" t="n"/>
       <c r="D135" s="0" t="n"/>
       <c r="E135" s="65" t="s"/>
-      <c r="F135" s="134" t="s">
+      <c r="F135" s="142" t="s">
+        <v>259</v>
+      </c>
+      <c r="G135" s="143" t="s">
         <v>260</v>
       </c>
-      <c r="G135" s="135" t="s">
+      <c r="H135" s="144" t="n"/>
+      <c r="I135" s="145" t="s">
         <v>261</v>
-      </c>
-      <c r="H135" s="142" t="n"/>
-      <c r="I135" s="143" t="s">
-        <v>262</v>
       </c>
       <c r="J135" s="21" t="s">
         <v>15</v>
@@ -6786,10 +6789,10 @@
       <c r="D136" s="0" t="n"/>
       <c r="E136" s="65" t="s"/>
       <c r="F136" s="20" t="s">
+        <v>262</v>
+      </c>
+      <c r="G136" s="21" t="s">
         <v>263</v>
-      </c>
-      <c r="G136" s="21" t="s">
-        <v>264</v>
       </c>
       <c r="H136" s="43" t="n"/>
       <c r="I136" s="0" t="s">
@@ -6805,11 +6808,11 @@
       <c r="C137" s="0" t="n"/>
       <c r="D137" s="0" t="n"/>
       <c r="E137" s="65" t="s"/>
-      <c r="F137" s="144" t="s">
+      <c r="F137" s="146" t="s">
+        <v>264</v>
+      </c>
+      <c r="G137" s="147" t="s">
         <v>265</v>
-      </c>
-      <c r="G137" s="145" t="s">
-        <v>266</v>
       </c>
       <c r="H137" s="43" t="n"/>
       <c r="I137" s="0" t="s">
@@ -6825,11 +6828,11 @@
       <c r="C138" s="58" t="n"/>
       <c r="D138" s="58" t="n"/>
       <c r="E138" s="65" t="s"/>
-      <c r="F138" s="146" t="s">
+      <c r="F138" s="148" t="s">
+        <v>266</v>
+      </c>
+      <c r="G138" s="149" t="s">
         <v>267</v>
-      </c>
-      <c r="G138" s="147" t="s">
-        <v>268</v>
       </c>
       <c r="H138" s="59" t="n"/>
       <c r="I138" s="29" t="s">
@@ -6843,8 +6846,8 @@
       <c r="A139" s="61" t="n">
         <v>20</v>
       </c>
-      <c r="B139" s="148" t="s">
-        <v>269</v>
+      <c r="B139" s="150" t="s">
+        <v>268</v>
       </c>
       <c r="C139" s="12" t="n"/>
       <c r="D139" s="12" t="n"/>
@@ -6852,13 +6855,13 @@
         <v>65</v>
       </c>
       <c r="F139" s="14" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="G139" s="15" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="H139" s="16" t="n"/>
-      <c r="I139" s="149" t="s">
+      <c r="I139" s="151" t="s">
         <v>14</v>
       </c>
       <c r="J139" s="15" t="s">
@@ -6872,13 +6875,13 @@
       <c r="D140" s="0" t="n"/>
       <c r="E140" s="70" t="s"/>
       <c r="F140" s="20" t="s">
+        <v>270</v>
+      </c>
+      <c r="G140" s="21" t="s">
         <v>271</v>
       </c>
-      <c r="G140" s="21" t="s">
-        <v>272</v>
-      </c>
       <c r="H140" s="22" t="n"/>
-      <c r="I140" s="150" t="s">
+      <c r="I140" s="152" t="s">
         <v>22</v>
       </c>
       <c r="J140" s="21" t="s">
@@ -6891,16 +6894,16 @@
       <c r="C141" s="0" t="n"/>
       <c r="D141" s="0" t="n"/>
       <c r="E141" s="70" t="s"/>
-      <c r="F141" s="151" t="s">
+      <c r="F141" s="153" t="s">
+        <v>272</v>
+      </c>
+      <c r="G141" s="125" t="s">
         <v>273</v>
-      </c>
-      <c r="G141" s="125" t="s">
-        <v>274</v>
       </c>
       <c r="H141" s="83" t="s">
         <v>134</v>
       </c>
-      <c r="I141" s="152" t="s">
+      <c r="I141" s="154" t="s">
         <v>22</v>
       </c>
       <c r="J141" s="21" t="s">
@@ -6913,15 +6916,15 @@
       <c r="C142" s="0" t="n"/>
       <c r="D142" s="0" t="n"/>
       <c r="E142" s="70" t="s"/>
-      <c r="F142" s="153" t="s">
+      <c r="F142" s="155" t="s">
+        <v>274</v>
+      </c>
+      <c r="G142" s="143" t="s">
         <v>275</v>
       </c>
-      <c r="G142" s="135" t="s">
+      <c r="H142" s="156" t="n"/>
+      <c r="I142" s="145" t="s">
         <v>276</v>
-      </c>
-      <c r="H142" s="154" t="n"/>
-      <c r="I142" s="143" t="s">
-        <v>277</v>
       </c>
       <c r="J142" s="21" t="s">
         <v>15</v>
@@ -6933,15 +6936,15 @@
       <c r="C143" s="0" t="n"/>
       <c r="D143" s="0" t="n"/>
       <c r="E143" s="70" t="s"/>
-      <c r="F143" s="153" t="s">
+      <c r="F143" s="155" t="s">
+        <v>277</v>
+      </c>
+      <c r="G143" s="143" t="s">
         <v>278</v>
       </c>
-      <c r="G143" s="135" t="s">
-        <v>279</v>
-      </c>
-      <c r="H143" s="154" t="n"/>
-      <c r="I143" s="143" t="s">
-        <v>277</v>
+      <c r="H143" s="156" t="n"/>
+      <c r="I143" s="145" t="s">
+        <v>276</v>
       </c>
       <c r="J143" s="21" t="s">
         <v>15</v>
@@ -6954,13 +6957,13 @@
       <c r="D144" s="0" t="n"/>
       <c r="E144" s="70" t="s"/>
       <c r="F144" s="23" t="s">
+        <v>279</v>
+      </c>
+      <c r="G144" s="24" t="s">
         <v>280</v>
       </c>
-      <c r="G144" s="24" t="s">
-        <v>281</v>
-      </c>
       <c r="H144" s="22" t="n"/>
-      <c r="I144" s="150" t="s">
+      <c r="I144" s="152" t="s">
         <v>22</v>
       </c>
       <c r="J144" s="21" t="s">
@@ -6974,13 +6977,13 @@
       <c r="D145" s="29" t="n"/>
       <c r="E145" s="70" t="s"/>
       <c r="F145" s="31" t="s">
+        <v>281</v>
+      </c>
+      <c r="G145" s="32" t="s">
         <v>282</v>
       </c>
-      <c r="G145" s="32" t="s">
-        <v>283</v>
-      </c>
       <c r="H145" s="33" t="n"/>
-      <c r="I145" s="155" t="s">
+      <c r="I145" s="157" t="s">
         <v>22</v>
       </c>
       <c r="J145" s="32" t="s">
@@ -6991,8 +6994,8 @@
       <c r="A146" s="61" t="n">
         <v>21</v>
       </c>
-      <c r="B146" s="148" t="s">
-        <v>284</v>
+      <c r="B146" s="150" t="s">
+        <v>283</v>
       </c>
       <c r="C146" s="12" t="n"/>
       <c r="D146" s="12" t="n"/>
@@ -7000,13 +7003,13 @@
         <v>65</v>
       </c>
       <c r="F146" s="14" t="s">
+        <v>284</v>
+      </c>
+      <c r="G146" s="73" t="s">
         <v>285</v>
       </c>
-      <c r="G146" s="73" t="s">
-        <v>286</v>
-      </c>
       <c r="H146" s="16" t="n"/>
-      <c r="I146" s="149" t="s">
+      <c r="I146" s="151" t="s">
         <v>22</v>
       </c>
       <c r="J146" s="15" t="s">
@@ -7020,13 +7023,13 @@
       <c r="D147" s="0" t="n"/>
       <c r="E147" s="70" t="s"/>
       <c r="F147" s="20" t="s">
+        <v>286</v>
+      </c>
+      <c r="G147" s="21" t="s">
         <v>287</v>
       </c>
-      <c r="G147" s="21" t="s">
-        <v>288</v>
-      </c>
       <c r="H147" s="22" t="n"/>
-      <c r="I147" s="150" t="s">
+      <c r="I147" s="152" t="s">
         <v>22</v>
       </c>
       <c r="J147" s="21" t="s">
@@ -7039,14 +7042,14 @@
       <c r="C148" s="0" t="n"/>
       <c r="D148" s="0" t="n"/>
       <c r="E148" s="70" t="s"/>
-      <c r="F148" s="144" t="s">
+      <c r="F148" s="146" t="s">
+        <v>288</v>
+      </c>
+      <c r="G148" s="158" t="s">
         <v>289</v>
       </c>
-      <c r="G148" s="156" t="s">
-        <v>290</v>
-      </c>
       <c r="H148" s="22" t="n"/>
-      <c r="I148" s="150" t="s">
+      <c r="I148" s="152" t="s">
         <v>22</v>
       </c>
       <c r="J148" s="21" t="s">
@@ -7059,14 +7062,14 @@
       <c r="C149" s="0" t="n"/>
       <c r="D149" s="0" t="n"/>
       <c r="E149" s="70" t="s"/>
-      <c r="F149" s="144" t="s">
+      <c r="F149" s="146" t="s">
+        <v>290</v>
+      </c>
+      <c r="G149" s="158" t="s">
         <v>291</v>
       </c>
-      <c r="G149" s="156" t="s">
-        <v>292</v>
-      </c>
       <c r="H149" s="22" t="n"/>
-      <c r="I149" s="150" t="s">
+      <c r="I149" s="152" t="s">
         <v>22</v>
       </c>
       <c r="J149" s="21" t="s">
@@ -7080,13 +7083,13 @@
       <c r="D150" s="0" t="n"/>
       <c r="E150" s="70" t="s"/>
       <c r="F150" s="20" t="s">
+        <v>292</v>
+      </c>
+      <c r="G150" s="21" t="s">
         <v>293</v>
       </c>
-      <c r="G150" s="21" t="s">
-        <v>294</v>
-      </c>
       <c r="H150" s="22" t="n"/>
-      <c r="I150" s="150" t="s">
+      <c r="I150" s="152" t="s">
         <v>22</v>
       </c>
       <c r="J150" s="21" t="s">
@@ -7099,15 +7102,15 @@
       <c r="C151" s="0" t="n"/>
       <c r="D151" s="0" t="n"/>
       <c r="E151" s="70" t="s"/>
-      <c r="F151" s="144" t="s">
+      <c r="F151" s="146" t="s">
+        <v>294</v>
+      </c>
+      <c r="G151" s="159" t="s">
         <v>295</v>
       </c>
-      <c r="G151" s="157" t="s">
+      <c r="H151" s="156" t="n"/>
+      <c r="I151" s="145" t="s">
         <v>296</v>
-      </c>
-      <c r="H151" s="154" t="n"/>
-      <c r="I151" s="143" t="s">
-        <v>297</v>
       </c>
       <c r="J151" s="21" t="s">
         <v>15</v>
@@ -7119,15 +7122,15 @@
       <c r="C152" s="29" t="n"/>
       <c r="D152" s="29" t="n"/>
       <c r="E152" s="70" t="s"/>
-      <c r="F152" s="158" t="s">
+      <c r="F152" s="160" t="s">
+        <v>297</v>
+      </c>
+      <c r="G152" s="161" t="s">
         <v>298</v>
       </c>
-      <c r="G152" s="159" t="s">
-        <v>299</v>
-      </c>
-      <c r="H152" s="160" t="n"/>
-      <c r="I152" s="161" t="s">
-        <v>297</v>
+      <c r="H152" s="162" t="n"/>
+      <c r="I152" s="163" t="s">
+        <v>296</v>
       </c>
       <c r="J152" s="32" t="s">
         <v>15</v>
@@ -7137,8 +7140,8 @@
       <c r="A153" s="61" t="n">
         <v>22</v>
       </c>
-      <c r="B153" s="148" t="s">
-        <v>300</v>
+      <c r="B153" s="150" t="s">
+        <v>299</v>
       </c>
       <c r="C153" s="12" t="n"/>
       <c r="D153" s="12" t="n"/>
@@ -7146,13 +7149,13 @@
         <v>65</v>
       </c>
       <c r="F153" s="14" t="s">
+        <v>300</v>
+      </c>
+      <c r="G153" s="73" t="s">
         <v>301</v>
       </c>
-      <c r="G153" s="73" t="s">
-        <v>302</v>
-      </c>
       <c r="H153" s="16" t="n"/>
-      <c r="I153" s="149" t="s">
+      <c r="I153" s="151" t="s">
         <v>22</v>
       </c>
       <c r="J153" s="15" t="s">
@@ -7166,13 +7169,13 @@
       <c r="D154" s="0" t="n"/>
       <c r="E154" s="70" t="s"/>
       <c r="F154" s="20" t="s">
+        <v>302</v>
+      </c>
+      <c r="G154" s="21" t="s">
         <v>303</v>
       </c>
-      <c r="G154" s="21" t="s">
-        <v>304</v>
-      </c>
       <c r="H154" s="22" t="n"/>
-      <c r="I154" s="150" t="s">
+      <c r="I154" s="152" t="s">
         <v>22</v>
       </c>
       <c r="J154" s="21" t="s">
@@ -7186,15 +7189,15 @@
       <c r="D155" s="0" t="n"/>
       <c r="E155" s="70" t="s"/>
       <c r="F155" s="81" t="s">
+        <v>304</v>
+      </c>
+      <c r="G155" s="125" t="s">
         <v>305</v>
-      </c>
-      <c r="G155" s="125" t="s">
-        <v>306</v>
       </c>
       <c r="H155" s="83" t="s">
         <v>134</v>
       </c>
-      <c r="I155" s="152" t="s">
+      <c r="I155" s="154" t="s">
         <v>22</v>
       </c>
       <c r="J155" s="21" t="s">
@@ -7207,15 +7210,15 @@
       <c r="C156" s="0" t="n"/>
       <c r="D156" s="0" t="n"/>
       <c r="E156" s="70" t="s"/>
-      <c r="F156" s="153" t="s">
+      <c r="F156" s="155" t="s">
+        <v>274</v>
+      </c>
+      <c r="G156" s="143" t="s">
         <v>275</v>
       </c>
-      <c r="G156" s="135" t="s">
+      <c r="H156" s="156" t="n"/>
+      <c r="I156" s="145" t="s">
         <v>276</v>
-      </c>
-      <c r="H156" s="154" t="n"/>
-      <c r="I156" s="143" t="s">
-        <v>277</v>
       </c>
       <c r="J156" s="21" t="s">
         <v>15</v>
@@ -7227,15 +7230,15 @@
       <c r="C157" s="0" t="n"/>
       <c r="D157" s="0" t="n"/>
       <c r="E157" s="70" t="s"/>
-      <c r="F157" s="153" t="s">
+      <c r="F157" s="155" t="s">
+        <v>277</v>
+      </c>
+      <c r="G157" s="143" t="s">
         <v>278</v>
       </c>
-      <c r="G157" s="135" t="s">
-        <v>279</v>
-      </c>
-      <c r="H157" s="154" t="n"/>
-      <c r="I157" s="143" t="s">
-        <v>277</v>
+      <c r="H157" s="156" t="n"/>
+      <c r="I157" s="145" t="s">
+        <v>276</v>
       </c>
       <c r="J157" s="21" t="s">
         <v>15</v>
@@ -7248,13 +7251,13 @@
       <c r="D158" s="0" t="n"/>
       <c r="E158" s="70" t="s"/>
       <c r="F158" s="20" t="s">
+        <v>306</v>
+      </c>
+      <c r="G158" s="21" t="s">
         <v>307</v>
       </c>
-      <c r="G158" s="21" t="s">
-        <v>308</v>
-      </c>
       <c r="H158" s="22" t="n"/>
-      <c r="I158" s="150" t="s">
+      <c r="I158" s="152" t="s">
         <v>22</v>
       </c>
       <c r="J158" s="21" t="s">
@@ -7268,13 +7271,13 @@
       <c r="D159" s="0" t="n"/>
       <c r="E159" s="70" t="s"/>
       <c r="F159" s="20" t="s">
+        <v>308</v>
+      </c>
+      <c r="G159" s="21" t="s">
         <v>309</v>
       </c>
-      <c r="G159" s="21" t="s">
-        <v>310</v>
-      </c>
       <c r="H159" s="22" t="n"/>
-      <c r="I159" s="150" t="s">
+      <c r="I159" s="152" t="s">
         <v>22</v>
       </c>
       <c r="J159" s="21" t="s">
@@ -7291,10 +7294,10 @@
         <v>144</v>
       </c>
       <c r="G160" s="21" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="H160" s="22" t="n"/>
-      <c r="I160" s="150" t="s">
+      <c r="I160" s="152" t="s">
         <v>22</v>
       </c>
       <c r="J160" s="21" t="s">
@@ -7308,13 +7311,13 @@
       <c r="D161" s="29" t="n"/>
       <c r="E161" s="70" t="s"/>
       <c r="F161" s="31" t="s">
+        <v>311</v>
+      </c>
+      <c r="G161" s="32" t="s">
         <v>312</v>
       </c>
-      <c r="G161" s="32" t="s">
-        <v>313</v>
-      </c>
       <c r="H161" s="33" t="n"/>
-      <c r="I161" s="155" t="s">
+      <c r="I161" s="157" t="s">
         <v>22</v>
       </c>
       <c r="J161" s="32" t="s">
@@ -7325,8 +7328,8 @@
       <c r="A162" s="61" t="n">
         <v>23</v>
       </c>
-      <c r="B162" s="148" t="s">
-        <v>314</v>
+      <c r="B162" s="150" t="s">
+        <v>313</v>
       </c>
       <c r="C162" s="12" t="n"/>
       <c r="D162" s="12" t="n"/>
@@ -7334,10 +7337,10 @@
         <v>65</v>
       </c>
       <c r="F162" s="14" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="G162" s="15" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="H162" s="16" t="n"/>
       <c r="I162" s="12" t="s">
@@ -7354,10 +7357,10 @@
       <c r="D163" s="0" t="n"/>
       <c r="E163" s="70" t="s"/>
       <c r="F163" s="20" t="s">
+        <v>302</v>
+      </c>
+      <c r="G163" s="21" t="s">
         <v>303</v>
-      </c>
-      <c r="G163" s="21" t="s">
-        <v>304</v>
       </c>
       <c r="H163" s="22" t="n"/>
       <c r="I163" s="0" t="s">
@@ -7374,10 +7377,10 @@
       <c r="D164" s="0" t="n"/>
       <c r="E164" s="70" t="s"/>
       <c r="F164" s="81" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="G164" s="125" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="H164" s="83" t="s">
         <v>134</v>
@@ -7395,11 +7398,11 @@
       <c r="C165" s="0" t="n"/>
       <c r="D165" s="0" t="n"/>
       <c r="E165" s="70" t="s"/>
-      <c r="F165" s="144" t="s">
+      <c r="F165" s="146" t="s">
+        <v>316</v>
+      </c>
+      <c r="G165" s="147" t="s">
         <v>317</v>
-      </c>
-      <c r="G165" s="145" t="s">
-        <v>318</v>
       </c>
       <c r="H165" s="22" t="n"/>
       <c r="I165" s="0" t="s">
@@ -7416,14 +7419,14 @@
       <c r="D166" s="0" t="n"/>
       <c r="E166" s="70" t="s"/>
       <c r="F166" s="23" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="G166" s="21" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="H166" s="22" t="n"/>
       <c r="I166" s="0" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="J166" s="21" t="s">
         <v>15</v>
@@ -7439,11 +7442,11 @@
         <v>137</v>
       </c>
       <c r="G167" s="21" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="H167" s="22" t="n"/>
-      <c r="I167" s="150" t="s">
-        <v>277</v>
+      <c r="I167" s="152" t="s">
+        <v>276</v>
       </c>
       <c r="J167" s="21" t="s">
         <v>15</v>
@@ -7455,14 +7458,14 @@
       <c r="C168" s="0" t="n"/>
       <c r="D168" s="0" t="n"/>
       <c r="E168" s="70" t="s"/>
-      <c r="F168" s="144" t="s">
+      <c r="F168" s="146" t="s">
+        <v>320</v>
+      </c>
+      <c r="G168" s="147" t="s">
         <v>321</v>
       </c>
-      <c r="G168" s="145" t="s">
+      <c r="H168" s="164" t="s">
         <v>322</v>
-      </c>
-      <c r="H168" s="162" t="s">
-        <v>323</v>
       </c>
       <c r="I168" s="0" t="s">
         <v>22</v>
@@ -7477,20 +7480,20 @@
       <c r="C169" s="0" t="n"/>
       <c r="D169" s="0" t="n"/>
       <c r="E169" s="70" t="s"/>
-      <c r="F169" s="163" t="s">
+      <c r="F169" s="165" t="s">
+        <v>323</v>
+      </c>
+      <c r="G169" s="159" t="s">
         <v>324</v>
       </c>
-      <c r="G169" s="157" t="s">
+      <c r="H169" s="166" t="s">
         <v>325</v>
       </c>
-      <c r="H169" s="136" t="s">
+      <c r="I169" s="152" t="s">
         <v>326</v>
       </c>
-      <c r="I169" s="150" t="s">
+      <c r="J169" s="21" t="s">
         <v>327</v>
-      </c>
-      <c r="J169" s="21" t="s">
-        <v>328</v>
       </c>
     </row>
     <row outlineLevel="0" r="170">
@@ -7503,7 +7506,7 @@
         <v>126</v>
       </c>
       <c r="G170" s="24" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="H170" s="22" t="n"/>
       <c r="I170" s="0" t="s">
@@ -7520,10 +7523,10 @@
       <c r="D171" s="29" t="n"/>
       <c r="E171" s="70" t="s"/>
       <c r="F171" s="71" t="s">
+        <v>329</v>
+      </c>
+      <c r="G171" s="32" t="s">
         <v>330</v>
-      </c>
-      <c r="G171" s="32" t="s">
-        <v>331</v>
       </c>
       <c r="H171" s="33" t="n"/>
       <c r="I171" s="29" t="s">
@@ -7537,8 +7540,8 @@
       <c r="A172" s="61" t="n">
         <v>24</v>
       </c>
-      <c r="B172" s="148" t="s">
-        <v>332</v>
+      <c r="B172" s="150" t="s">
+        <v>331</v>
       </c>
       <c r="C172" s="12" t="n"/>
       <c r="D172" s="12" t="n"/>
@@ -7546,13 +7549,13 @@
         <v>65</v>
       </c>
       <c r="F172" s="14" t="s">
+        <v>332</v>
+      </c>
+      <c r="G172" s="15" t="s">
         <v>333</v>
       </c>
-      <c r="G172" s="15" t="s">
-        <v>334</v>
-      </c>
       <c r="H172" s="16" t="n"/>
-      <c r="I172" s="149" t="s">
+      <c r="I172" s="151" t="s">
         <v>22</v>
       </c>
       <c r="J172" s="15" t="s">
@@ -7566,13 +7569,13 @@
       <c r="D173" s="0" t="n"/>
       <c r="E173" s="70" t="s"/>
       <c r="F173" s="20" t="s">
+        <v>334</v>
+      </c>
+      <c r="G173" s="21" t="s">
         <v>335</v>
       </c>
-      <c r="G173" s="21" t="s">
-        <v>336</v>
-      </c>
       <c r="H173" s="22" t="n"/>
-      <c r="I173" s="150" t="s">
+      <c r="I173" s="152" t="s">
         <v>22</v>
       </c>
       <c r="J173" s="21" t="s">
@@ -7586,15 +7589,15 @@
       <c r="D174" s="0" t="n"/>
       <c r="E174" s="70" t="s"/>
       <c r="F174" s="81" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="G174" s="125" t="s">
         <v>145</v>
       </c>
       <c r="H174" s="83" t="s">
-        <v>338</v>
-      </c>
-      <c r="I174" s="150" t="s">
+        <v>337</v>
+      </c>
+      <c r="I174" s="152" t="s">
         <v>22</v>
       </c>
       <c r="J174" s="21" t="s">
@@ -7607,16 +7610,16 @@
       <c r="C175" s="29" t="n"/>
       <c r="D175" s="29" t="n"/>
       <c r="E175" s="70" t="s"/>
-      <c r="F175" s="164" t="s">
+      <c r="F175" s="167" t="s">
+        <v>338</v>
+      </c>
+      <c r="G175" s="168" t="s">
         <v>339</v>
       </c>
-      <c r="G175" s="165" t="s">
-        <v>340</v>
-      </c>
-      <c r="H175" s="166" t="s">
+      <c r="H175" s="169" t="s">
         <v>134</v>
       </c>
-      <c r="I175" s="155" t="s">
+      <c r="I175" s="157" t="s">
         <v>22</v>
       </c>
       <c r="J175" s="32" t="s">
@@ -7627,19 +7630,19 @@
       <c r="A176" s="107" t="n">
         <v>25</v>
       </c>
-      <c r="B176" s="148" t="s">
-        <v>341</v>
+      <c r="B176" s="150" t="s">
+        <v>340</v>
       </c>
       <c r="C176" s="12" t="n"/>
       <c r="D176" s="12" t="n"/>
-      <c r="E176" s="167" t="s">
+      <c r="E176" s="170" t="s">
         <v>65</v>
       </c>
       <c r="F176" s="37" t="s">
+        <v>341</v>
+      </c>
+      <c r="G176" s="126" t="s">
         <v>342</v>
-      </c>
-      <c r="G176" s="126" t="s">
-        <v>343</v>
       </c>
       <c r="H176" s="55" t="n"/>
       <c r="I176" s="55" t="s">
@@ -7654,12 +7657,12 @@
       <c r="B177" s="141" t="s"/>
       <c r="C177" s="0" t="n"/>
       <c r="D177" s="0" t="n"/>
-      <c r="E177" s="168" t="s"/>
+      <c r="E177" s="171" t="s"/>
       <c r="F177" s="46" t="s">
+        <v>302</v>
+      </c>
+      <c r="G177" s="45" t="s">
         <v>303</v>
-      </c>
-      <c r="G177" s="45" t="s">
-        <v>304</v>
       </c>
       <c r="H177" s="43" t="n"/>
       <c r="I177" s="43" t="s">
@@ -7674,12 +7677,12 @@
       <c r="B178" s="141" t="s"/>
       <c r="C178" s="0" t="n"/>
       <c r="D178" s="0" t="n"/>
-      <c r="E178" s="168" t="s"/>
+      <c r="E178" s="171" t="s"/>
       <c r="F178" s="46" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="G178" s="45" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="H178" s="43" t="n"/>
       <c r="I178" s="43" t="s">
@@ -7694,12 +7697,12 @@
       <c r="B179" s="141" t="s"/>
       <c r="C179" s="0" t="n"/>
       <c r="D179" s="0" t="n"/>
-      <c r="E179" s="168" t="s"/>
+      <c r="E179" s="171" t="s"/>
       <c r="F179" s="93" t="s">
+        <v>316</v>
+      </c>
+      <c r="G179" s="172" t="s">
         <v>317</v>
-      </c>
-      <c r="G179" s="169" t="s">
-        <v>318</v>
       </c>
       <c r="H179" s="43" t="n"/>
       <c r="I179" s="43" t="s">
@@ -7714,16 +7717,16 @@
       <c r="B180" s="141" t="s"/>
       <c r="C180" s="0" t="n"/>
       <c r="D180" s="0" t="n"/>
-      <c r="E180" s="168" t="s"/>
-      <c r="F180" s="170" t="s">
-        <v>319</v>
-      </c>
-      <c r="G180" s="171" t="s">
-        <v>279</v>
-      </c>
-      <c r="H180" s="142" t="n"/>
-      <c r="I180" s="142" t="s">
-        <v>344</v>
+      <c r="E180" s="171" t="s"/>
+      <c r="F180" s="173" t="s">
+        <v>318</v>
+      </c>
+      <c r="G180" s="174" t="s">
+        <v>278</v>
+      </c>
+      <c r="H180" s="144" t="n"/>
+      <c r="I180" s="144" t="s">
+        <v>343</v>
       </c>
       <c r="J180" s="47" t="s">
         <v>15</v>
@@ -7734,16 +7737,16 @@
       <c r="B181" s="141" t="s"/>
       <c r="C181" s="0" t="n"/>
       <c r="D181" s="0" t="n"/>
-      <c r="E181" s="168" t="s"/>
-      <c r="F181" s="172" t="s">
+      <c r="E181" s="171" t="s"/>
+      <c r="F181" s="175" t="s">
         <v>137</v>
       </c>
-      <c r="G181" s="171" t="s">
-        <v>320</v>
-      </c>
-      <c r="H181" s="142" t="n"/>
-      <c r="I181" s="142" t="s">
-        <v>345</v>
+      <c r="G181" s="174" t="s">
+        <v>319</v>
+      </c>
+      <c r="H181" s="144" t="n"/>
+      <c r="I181" s="144" t="s">
+        <v>344</v>
       </c>
       <c r="J181" s="47" t="s">
         <v>15</v>
@@ -7754,12 +7757,12 @@
       <c r="B182" s="141" t="s"/>
       <c r="C182" s="0" t="n"/>
       <c r="D182" s="0" t="n"/>
-      <c r="E182" s="168" t="s"/>
+      <c r="E182" s="171" t="s"/>
       <c r="F182" s="93" t="s">
+        <v>320</v>
+      </c>
+      <c r="G182" s="172" t="s">
         <v>321</v>
-      </c>
-      <c r="G182" s="169" t="s">
-        <v>322</v>
       </c>
       <c r="H182" s="43" t="n"/>
       <c r="I182" s="43" t="s">
@@ -7774,12 +7777,12 @@
       <c r="B183" s="141" t="s"/>
       <c r="C183" s="0" t="n"/>
       <c r="D183" s="0" t="n"/>
-      <c r="E183" s="168" t="s"/>
+      <c r="E183" s="171" t="s"/>
       <c r="F183" s="93" t="s">
+        <v>345</v>
+      </c>
+      <c r="G183" s="172" t="s">
         <v>346</v>
-      </c>
-      <c r="G183" s="169" t="s">
-        <v>347</v>
       </c>
       <c r="H183" s="43" t="n"/>
       <c r="I183" s="43" t="s">
@@ -7794,12 +7797,12 @@
       <c r="B184" s="141" t="s"/>
       <c r="C184" s="0" t="n"/>
       <c r="D184" s="0" t="n"/>
-      <c r="E184" s="168" t="s"/>
+      <c r="E184" s="171" t="s"/>
       <c r="F184" s="41" t="s">
         <v>126</v>
       </c>
       <c r="G184" s="42" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="H184" s="43" t="n"/>
       <c r="I184" s="43" t="s">
@@ -7814,12 +7817,12 @@
       <c r="B185" s="141" t="s"/>
       <c r="C185" s="29" t="n"/>
       <c r="D185" s="29" t="n"/>
-      <c r="E185" s="168" t="s"/>
+      <c r="E185" s="171" t="s"/>
       <c r="F185" s="46" t="s">
+        <v>329</v>
+      </c>
+      <c r="G185" s="45" t="s">
         <v>330</v>
-      </c>
-      <c r="G185" s="45" t="s">
-        <v>331</v>
       </c>
       <c r="H185" s="43" t="n"/>
       <c r="I185" s="43" t="s">
@@ -7834,12 +7837,12 @@
       <c r="B186" s="141" t="s"/>
       <c r="C186" s="29" t="s"/>
       <c r="D186" s="29" t="s"/>
-      <c r="E186" s="168" t="s"/>
+      <c r="E186" s="171" t="s"/>
       <c r="F186" s="66" t="s">
+        <v>347</v>
+      </c>
+      <c r="G186" s="50" t="s">
         <v>348</v>
-      </c>
-      <c r="G186" s="50" t="s">
-        <v>349</v>
       </c>
       <c r="H186" s="59" t="n"/>
       <c r="I186" s="59" t="s">
@@ -7851,21 +7854,21 @@
       <c r="A187" s="61" t="n">
         <v>26</v>
       </c>
-      <c r="B187" s="148" t="s">
-        <v>350</v>
+      <c r="B187" s="150" t="s">
+        <v>349</v>
       </c>
       <c r="C187" s="12" t="n"/>
       <c r="D187" s="12" t="n"/>
       <c r="E187" s="68" t="s">
+        <v>350</v>
+      </c>
+      <c r="F187" s="14" t="s">
         <v>351</v>
       </c>
-      <c r="F187" s="14" t="s">
-        <v>352</v>
-      </c>
       <c r="G187" s="15" t="s">
-        <v>329</v>
-      </c>
-      <c r="H187" s="173" t="n"/>
+        <v>328</v>
+      </c>
+      <c r="H187" s="176" t="n"/>
       <c r="I187" s="12" t="s">
         <v>22</v>
       </c>
@@ -7880,13 +7883,13 @@
       <c r="D188" s="0" t="n"/>
       <c r="E188" s="70" t="s"/>
       <c r="F188" s="20" t="s">
+        <v>352</v>
+      </c>
+      <c r="G188" s="21" t="s">
         <v>353</v>
       </c>
-      <c r="G188" s="21" t="s">
+      <c r="H188" s="177" t="s">
         <v>354</v>
-      </c>
-      <c r="H188" s="174" t="s">
-        <v>355</v>
       </c>
       <c r="I188" s="0" t="s">
         <v>22</v>
@@ -7902,13 +7905,13 @@
       <c r="D189" s="0" t="n"/>
       <c r="E189" s="70" t="s"/>
       <c r="F189" s="20" t="s">
+        <v>355</v>
+      </c>
+      <c r="G189" s="21" t="s">
         <v>356</v>
       </c>
-      <c r="G189" s="21" t="s">
+      <c r="H189" s="86" t="s">
         <v>357</v>
-      </c>
-      <c r="H189" s="86" t="s">
-        <v>358</v>
       </c>
       <c r="I189" s="0" t="s">
         <v>22</v>
@@ -7924,13 +7927,13 @@
       <c r="D190" s="29" t="n"/>
       <c r="E190" s="70" t="s"/>
       <c r="F190" s="71" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="G190" s="32" t="s">
+        <v>356</v>
+      </c>
+      <c r="H190" s="72" t="s">
         <v>357</v>
-      </c>
-      <c r="H190" s="72" t="s">
-        <v>358</v>
       </c>
       <c r="I190" s="29" t="s">
         <v>22</v>
@@ -7943,22 +7946,22 @@
       <c r="A191" s="61" t="n">
         <v>27</v>
       </c>
-      <c r="B191" s="175" t="s">
+      <c r="B191" s="178" t="s">
+        <v>359</v>
+      </c>
+      <c r="C191" s="179" t="n"/>
+      <c r="D191" s="12" t="s"/>
+      <c r="E191" s="170" t="s">
+        <v>65</v>
+      </c>
+      <c r="F191" s="37" t="s">
         <v>360</v>
       </c>
-      <c r="C191" s="176" t="n"/>
-      <c r="D191" s="12" t="s"/>
-      <c r="E191" s="167" t="s">
-        <v>65</v>
-      </c>
-      <c r="F191" s="37" t="s">
+      <c r="G191" s="38" t="s">
+        <v>356</v>
+      </c>
+      <c r="H191" s="180" t="s">
         <v>361</v>
-      </c>
-      <c r="G191" s="38" t="s">
-        <v>357</v>
-      </c>
-      <c r="H191" s="177" t="s">
-        <v>362</v>
       </c>
       <c r="I191" s="63" t="s">
         <v>22</v>
@@ -7967,18 +7970,18 @@
     </row>
     <row outlineLevel="0" r="192">
       <c r="A192" s="64" t="s"/>
-      <c r="B192" s="178" t="s"/>
-      <c r="C192" s="179" t="s"/>
-      <c r="D192" s="179" t="s"/>
-      <c r="E192" s="168" t="s"/>
+      <c r="B192" s="181" t="s"/>
+      <c r="C192" s="182" t="s"/>
+      <c r="D192" s="182" t="s"/>
+      <c r="E192" s="171" t="s"/>
       <c r="F192" s="46" t="s">
+        <v>355</v>
+      </c>
+      <c r="G192" s="45" t="s">
         <v>356</v>
       </c>
-      <c r="G192" s="45" t="s">
-        <v>357</v>
-      </c>
       <c r="H192" s="47" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="I192" s="41" t="s">
         <v>22</v>
@@ -7989,18 +7992,18 @@
     </row>
     <row outlineLevel="0" r="193">
       <c r="A193" s="64" t="s"/>
-      <c r="B193" s="178" t="s"/>
+      <c r="B193" s="181" t="s"/>
       <c r="C193" s="29" t="s"/>
       <c r="D193" s="29" t="s"/>
-      <c r="E193" s="168" t="s"/>
+      <c r="E193" s="171" t="s"/>
       <c r="F193" s="66" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="G193" s="50" t="s">
+        <v>356</v>
+      </c>
+      <c r="H193" s="96" t="s">
         <v>357</v>
-      </c>
-      <c r="H193" s="96" t="s">
-        <v>358</v>
       </c>
       <c r="I193" s="52" t="s">
         <v>22</v>
@@ -8013,19 +8016,19 @@
       <c r="A194" s="61" t="n">
         <v>28</v>
       </c>
-      <c r="B194" s="148" t="s">
-        <v>364</v>
+      <c r="B194" s="150" t="s">
+        <v>363</v>
       </c>
       <c r="C194" s="12" t="n"/>
       <c r="D194" s="12" t="n"/>
       <c r="E194" s="68" t="s">
         <v>65</v>
       </c>
-      <c r="F194" s="180" t="s">
+      <c r="F194" s="183" t="s">
+        <v>364</v>
+      </c>
+      <c r="G194" s="184" t="s">
         <v>365</v>
-      </c>
-      <c r="G194" s="181" t="s">
-        <v>366</v>
       </c>
       <c r="H194" s="16" t="n"/>
       <c r="I194" s="12" t="s">
@@ -8042,10 +8045,10 @@
       <c r="D195" s="0" t="n"/>
       <c r="E195" s="70" t="s"/>
       <c r="F195" s="20" t="s">
+        <v>366</v>
+      </c>
+      <c r="G195" s="21" t="s">
         <v>367</v>
-      </c>
-      <c r="G195" s="21" t="s">
-        <v>368</v>
       </c>
       <c r="H195" s="22" t="n"/>
       <c r="I195" s="0" t="s">
@@ -8062,10 +8065,10 @@
       <c r="D196" s="29" t="n"/>
       <c r="E196" s="70" t="s"/>
       <c r="F196" s="71" t="s">
+        <v>368</v>
+      </c>
+      <c r="G196" s="32" t="s">
         <v>369</v>
-      </c>
-      <c r="G196" s="32" t="s">
-        <v>370</v>
       </c>
       <c r="H196" s="33" t="n"/>
       <c r="I196" s="29" t="s">
@@ -8079,21 +8082,21 @@
       <c r="A197" s="61" t="n">
         <v>29</v>
       </c>
-      <c r="B197" s="182" t="s">
-        <v>371</v>
-      </c>
-      <c r="C197" s="183" t="n"/>
-      <c r="D197" s="183" t="n"/>
+      <c r="B197" s="185" t="s">
+        <v>370</v>
+      </c>
+      <c r="C197" s="186" t="n"/>
+      <c r="D197" s="186" t="n"/>
       <c r="E197" s="68" t="s">
         <v>65</v>
       </c>
-      <c r="F197" s="184" t="s">
+      <c r="F197" s="187" t="s">
+        <v>371</v>
+      </c>
+      <c r="G197" s="188" t="s">
         <v>372</v>
       </c>
-      <c r="G197" s="185" t="s">
-        <v>373</v>
-      </c>
-      <c r="H197" s="186" t="n"/>
+      <c r="H197" s="189" t="n"/>
       <c r="I197" s="12" t="n"/>
       <c r="J197" s="15" t="s">
         <v>15</v>
@@ -8101,18 +8104,18 @@
     </row>
     <row outlineLevel="0" r="198">
       <c r="A198" s="64" t="s"/>
-      <c r="B198" s="187" t="s"/>
+      <c r="B198" s="190" t="s"/>
       <c r="C198" s="115" t="n"/>
       <c r="D198" s="115" t="n"/>
       <c r="E198" s="70" t="s"/>
-      <c r="F198" s="188" t="s">
+      <c r="F198" s="191" t="s">
+        <v>373</v>
+      </c>
+      <c r="G198" s="192" t="s">
         <v>374</v>
       </c>
-      <c r="G198" s="189" t="s">
+      <c r="H198" s="193" t="s">
         <v>375</v>
-      </c>
-      <c r="H198" s="190" t="s">
-        <v>376</v>
       </c>
       <c r="I198" s="0" t="n"/>
       <c r="J198" s="21" t="s">
@@ -8121,18 +8124,18 @@
     </row>
     <row outlineLevel="0" r="199">
       <c r="A199" s="64" t="s"/>
-      <c r="B199" s="187" t="s"/>
+      <c r="B199" s="190" t="s"/>
       <c r="C199" s="115" t="n"/>
       <c r="D199" s="115" t="n"/>
       <c r="E199" s="70" t="s"/>
-      <c r="F199" s="188" t="s">
+      <c r="F199" s="191" t="s">
+        <v>376</v>
+      </c>
+      <c r="G199" s="194" t="s">
         <v>377</v>
       </c>
-      <c r="G199" s="191" t="s">
+      <c r="H199" s="193" t="s">
         <v>378</v>
-      </c>
-      <c r="H199" s="190" t="s">
-        <v>379</v>
       </c>
       <c r="I199" s="0" t="n"/>
       <c r="J199" s="21" t="s">
@@ -8141,15 +8144,15 @@
     </row>
     <row outlineLevel="0" r="200">
       <c r="A200" s="64" t="s"/>
-      <c r="B200" s="187" t="s"/>
+      <c r="B200" s="190" t="s"/>
       <c r="C200" s="0" t="n"/>
       <c r="D200" s="0" t="n"/>
       <c r="E200" s="70" t="s"/>
       <c r="F200" s="20" t="s">
+        <v>379</v>
+      </c>
+      <c r="G200" s="24" t="s">
         <v>380</v>
-      </c>
-      <c r="G200" s="24" t="s">
-        <v>381</v>
       </c>
       <c r="H200" s="22" t="n"/>
       <c r="I200" s="0" t="n"/>
@@ -8159,15 +8162,15 @@
     </row>
     <row outlineLevel="0" r="201">
       <c r="A201" s="64" t="s"/>
-      <c r="B201" s="187" t="s"/>
+      <c r="B201" s="190" t="s"/>
       <c r="C201" s="0" t="n"/>
       <c r="D201" s="0" t="n"/>
       <c r="E201" s="70" t="s"/>
       <c r="F201" s="20" t="s">
+        <v>381</v>
+      </c>
+      <c r="G201" s="24" t="s">
         <v>382</v>
-      </c>
-      <c r="G201" s="24" t="s">
-        <v>383</v>
       </c>
       <c r="H201" s="22" t="n"/>
       <c r="I201" s="0" t="n"/>
@@ -8177,15 +8180,15 @@
     </row>
     <row outlineLevel="0" r="202">
       <c r="A202" s="64" t="s"/>
-      <c r="B202" s="187" t="s"/>
+      <c r="B202" s="190" t="s"/>
       <c r="C202" s="0" t="n"/>
       <c r="D202" s="0" t="n"/>
       <c r="E202" s="70" t="s"/>
       <c r="F202" s="20" t="s">
+        <v>383</v>
+      </c>
+      <c r="G202" s="21" t="s">
         <v>384</v>
-      </c>
-      <c r="G202" s="21" t="s">
-        <v>385</v>
       </c>
       <c r="H202" s="22" t="n"/>
       <c r="I202" s="0" t="n"/>
@@ -8195,7 +8198,7 @@
     </row>
     <row outlineLevel="0" r="203">
       <c r="A203" s="64" t="s"/>
-      <c r="B203" s="187" t="s"/>
+      <c r="B203" s="190" t="s"/>
       <c r="C203" s="0" t="n"/>
       <c r="D203" s="0" t="n"/>
       <c r="E203" s="70" t="s"/>
@@ -8203,7 +8206,7 @@
         <v>181</v>
       </c>
       <c r="G203" s="21" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="H203" s="22" t="n"/>
       <c r="I203" s="0" t="n"/>
@@ -8213,7 +8216,7 @@
     </row>
     <row outlineLevel="0" r="204">
       <c r="A204" s="64" t="s"/>
-      <c r="B204" s="187" t="s"/>
+      <c r="B204" s="190" t="s"/>
       <c r="C204" s="29" t="n"/>
       <c r="D204" s="29" t="n"/>
       <c r="E204" s="70" t="s"/>
@@ -8221,7 +8224,7 @@
         <v>203</v>
       </c>
       <c r="G204" s="32" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="H204" s="33" t="n"/>
       <c r="I204" s="29" t="n"/>
@@ -8233,8 +8236,8 @@
       <c r="A205" s="61" t="n">
         <v>30</v>
       </c>
-      <c r="B205" s="192" t="s">
-        <v>388</v>
+      <c r="B205" s="195" t="s">
+        <v>387</v>
       </c>
       <c r="C205" s="12" t="n"/>
       <c r="D205" s="12" t="n"/>
@@ -8242,10 +8245,10 @@
         <v>65</v>
       </c>
       <c r="F205" s="69" t="s">
+        <v>388</v>
+      </c>
+      <c r="G205" s="15" t="s">
         <v>389</v>
-      </c>
-      <c r="G205" s="15" t="s">
-        <v>390</v>
       </c>
       <c r="H205" s="16" t="n"/>
       <c r="I205" s="12" t="n"/>
@@ -8255,15 +8258,15 @@
     </row>
     <row outlineLevel="0" r="206">
       <c r="A206" s="64" t="s"/>
-      <c r="B206" s="193" t="s"/>
+      <c r="B206" s="196" t="s"/>
       <c r="C206" s="0" t="n"/>
       <c r="D206" s="0" t="n"/>
       <c r="E206" s="70" t="s"/>
       <c r="F206" s="20" t="s">
+        <v>390</v>
+      </c>
+      <c r="G206" s="24" t="s">
         <v>391</v>
-      </c>
-      <c r="G206" s="24" t="s">
-        <v>392</v>
       </c>
       <c r="H206" s="22" t="n"/>
       <c r="I206" s="0" t="n"/>
@@ -8273,15 +8276,15 @@
     </row>
     <row outlineLevel="0" r="207">
       <c r="A207" s="64" t="s"/>
-      <c r="B207" s="193" t="s"/>
+      <c r="B207" s="196" t="s"/>
       <c r="C207" s="0" t="n"/>
       <c r="D207" s="0" t="n"/>
       <c r="E207" s="70" t="s"/>
       <c r="F207" s="20" t="s">
+        <v>392</v>
+      </c>
+      <c r="G207" s="21" t="s">
         <v>393</v>
-      </c>
-      <c r="G207" s="21" t="s">
-        <v>394</v>
       </c>
       <c r="H207" s="22" t="n"/>
       <c r="I207" s="0" t="n"/>
@@ -8291,15 +8294,15 @@
     </row>
     <row outlineLevel="0" r="208">
       <c r="A208" s="64" t="s"/>
-      <c r="B208" s="193" t="s"/>
+      <c r="B208" s="196" t="s"/>
       <c r="C208" s="0" t="n"/>
       <c r="D208" s="0" t="n"/>
       <c r="E208" s="70" t="s"/>
       <c r="F208" s="20" t="s">
+        <v>394</v>
+      </c>
+      <c r="G208" s="21" t="s">
         <v>395</v>
-      </c>
-      <c r="G208" s="21" t="s">
-        <v>396</v>
       </c>
       <c r="H208" s="22" t="n"/>
       <c r="I208" s="0" t="n"/>
@@ -8309,7 +8312,7 @@
     </row>
     <row outlineLevel="0" r="209">
       <c r="A209" s="64" t="s"/>
-      <c r="B209" s="193" t="s"/>
+      <c r="B209" s="196" t="s"/>
       <c r="C209" s="0" t="n"/>
       <c r="D209" s="0" t="n"/>
       <c r="E209" s="70" t="s"/>
@@ -8317,7 +8320,7 @@
         <v>126</v>
       </c>
       <c r="G209" s="21" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="H209" s="22" t="n"/>
       <c r="I209" s="0" t="n"/>
@@ -8327,15 +8330,15 @@
     </row>
     <row outlineLevel="0" r="210">
       <c r="A210" s="64" t="s"/>
-      <c r="B210" s="193" t="s"/>
+      <c r="B210" s="196" t="s"/>
       <c r="C210" s="0" t="n"/>
       <c r="D210" s="0" t="n"/>
       <c r="E210" s="70" t="s"/>
       <c r="F210" s="23" t="s">
+        <v>397</v>
+      </c>
+      <c r="G210" s="21" t="s">
         <v>398</v>
-      </c>
-      <c r="G210" s="21" t="s">
-        <v>399</v>
       </c>
       <c r="H210" s="22" t="n"/>
       <c r="I210" s="0" t="n"/>
@@ -8345,15 +8348,15 @@
     </row>
     <row outlineLevel="0" r="211">
       <c r="A211" s="64" t="s"/>
-      <c r="B211" s="193" t="s"/>
+      <c r="B211" s="196" t="s"/>
       <c r="C211" s="29" t="n"/>
       <c r="D211" s="29" t="n"/>
       <c r="E211" s="70" t="s"/>
       <c r="F211" s="71" t="s">
+        <v>399</v>
+      </c>
+      <c r="G211" s="32" t="s">
         <v>400</v>
-      </c>
-      <c r="G211" s="32" t="s">
-        <v>401</v>
       </c>
       <c r="H211" s="33" t="n"/>
       <c r="I211" s="29" t="n"/>
@@ -8365,8 +8368,8 @@
       <c r="A212" s="61" t="n">
         <v>31</v>
       </c>
-      <c r="B212" s="194" t="s">
-        <v>402</v>
+      <c r="B212" s="197" t="s">
+        <v>401</v>
       </c>
       <c r="C212" s="12" t="n"/>
       <c r="D212" s="12" t="n"/>
@@ -8374,10 +8377,10 @@
         <v>65</v>
       </c>
       <c r="F212" s="14" t="s">
+        <v>402</v>
+      </c>
+      <c r="G212" s="73" t="s">
         <v>403</v>
-      </c>
-      <c r="G212" s="73" t="s">
-        <v>404</v>
       </c>
       <c r="H212" s="16" t="n"/>
       <c r="I212" s="12" t="n"/>
@@ -8387,15 +8390,15 @@
     </row>
     <row outlineLevel="0" r="213">
       <c r="A213" s="64" t="s"/>
-      <c r="B213" s="195" t="s"/>
+      <c r="B213" s="198" t="s"/>
       <c r="C213" s="0" t="n"/>
       <c r="D213" s="0" t="n"/>
       <c r="E213" s="70" t="s"/>
       <c r="F213" s="23" t="s">
+        <v>404</v>
+      </c>
+      <c r="G213" s="24" t="s">
         <v>405</v>
-      </c>
-      <c r="G213" s="24" t="s">
-        <v>406</v>
       </c>
       <c r="H213" s="22" t="n"/>
       <c r="I213" s="0" t="n"/>
@@ -8405,15 +8408,15 @@
     </row>
     <row outlineLevel="0" r="214">
       <c r="A214" s="64" t="s"/>
-      <c r="B214" s="195" t="s"/>
+      <c r="B214" s="198" t="s"/>
       <c r="C214" s="0" t="n"/>
       <c r="D214" s="0" t="n"/>
       <c r="E214" s="70" t="s"/>
       <c r="F214" s="20" t="s">
+        <v>406</v>
+      </c>
+      <c r="G214" s="24" t="s">
         <v>407</v>
-      </c>
-      <c r="G214" s="24" t="s">
-        <v>408</v>
       </c>
       <c r="H214" s="22" t="n"/>
       <c r="I214" s="0" t="n"/>
@@ -8423,15 +8426,15 @@
     </row>
     <row outlineLevel="0" r="215">
       <c r="A215" s="64" t="s"/>
-      <c r="B215" s="195" t="s"/>
+      <c r="B215" s="198" t="s"/>
       <c r="C215" s="0" t="n"/>
       <c r="D215" s="0" t="n"/>
       <c r="E215" s="70" t="s"/>
       <c r="F215" s="23" t="s">
+        <v>408</v>
+      </c>
+      <c r="G215" s="21" t="s">
         <v>409</v>
-      </c>
-      <c r="G215" s="21" t="s">
-        <v>410</v>
       </c>
       <c r="H215" s="22" t="n"/>
       <c r="I215" s="0" t="n"/>
@@ -8441,15 +8444,15 @@
     </row>
     <row outlineLevel="0" r="216">
       <c r="A216" s="64" t="s"/>
-      <c r="B216" s="195" t="s"/>
+      <c r="B216" s="198" t="s"/>
       <c r="C216" s="0" t="n"/>
       <c r="D216" s="0" t="n"/>
       <c r="E216" s="70" t="s"/>
       <c r="F216" s="20" t="s">
+        <v>410</v>
+      </c>
+      <c r="G216" s="24" t="s">
         <v>411</v>
-      </c>
-      <c r="G216" s="24" t="s">
-        <v>412</v>
       </c>
       <c r="H216" s="22" t="n"/>
       <c r="I216" s="0" t="n"/>
@@ -8459,7 +8462,7 @@
     </row>
     <row outlineLevel="0" r="217">
       <c r="A217" s="64" t="s"/>
-      <c r="B217" s="195" t="s"/>
+      <c r="B217" s="198" t="s"/>
       <c r="C217" s="0" t="n"/>
       <c r="D217" s="0" t="n"/>
       <c r="E217" s="70" t="s"/>
@@ -8467,7 +8470,7 @@
         <v>126</v>
       </c>
       <c r="G217" s="21" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="H217" s="22" t="n"/>
       <c r="I217" s="0" t="n"/>
@@ -8477,15 +8480,15 @@
     </row>
     <row outlineLevel="0" r="218">
       <c r="A218" s="64" t="s"/>
-      <c r="B218" s="195" t="s"/>
+      <c r="B218" s="198" t="s"/>
       <c r="C218" s="29" t="n"/>
       <c r="D218" s="29" t="n"/>
       <c r="E218" s="70" t="s"/>
       <c r="F218" s="31" t="s">
+        <v>397</v>
+      </c>
+      <c r="G218" s="32" t="s">
         <v>398</v>
-      </c>
-      <c r="G218" s="32" t="s">
-        <v>399</v>
       </c>
       <c r="H218" s="33" t="n"/>
       <c r="I218" s="29" t="n"/>
@@ -8494,22 +8497,22 @@
       </c>
     </row>
     <row outlineLevel="0" r="219">
-      <c r="A219" s="196" t="n">
+      <c r="A219" s="199" t="n">
         <v>32</v>
       </c>
-      <c r="B219" s="197" t="s">
-        <v>413</v>
+      <c r="B219" s="200" t="s">
+        <v>412</v>
       </c>
       <c r="C219" s="12" t="n"/>
       <c r="D219" s="12" t="n"/>
-      <c r="E219" s="198" t="s">
+      <c r="E219" s="201" t="s">
         <v>65</v>
       </c>
       <c r="F219" s="14" t="s">
+        <v>402</v>
+      </c>
+      <c r="G219" s="73" t="s">
         <v>403</v>
-      </c>
-      <c r="G219" s="73" t="s">
-        <v>404</v>
       </c>
       <c r="H219" s="16" t="n"/>
       <c r="I219" s="12" t="n"/>
@@ -8519,15 +8522,15 @@
     </row>
     <row outlineLevel="0" r="220">
       <c r="A220" s="64" t="s"/>
-      <c r="B220" s="195" t="s"/>
+      <c r="B220" s="198" t="s"/>
       <c r="C220" s="0" t="n"/>
       <c r="D220" s="0" t="n"/>
-      <c r="E220" s="168" t="s"/>
+      <c r="E220" s="171" t="s"/>
       <c r="F220" s="23" t="s">
+        <v>404</v>
+      </c>
+      <c r="G220" s="24" t="s">
         <v>405</v>
-      </c>
-      <c r="G220" s="24" t="s">
-        <v>406</v>
       </c>
       <c r="H220" s="22" t="n"/>
       <c r="I220" s="0" t="n"/>
@@ -8537,15 +8540,15 @@
     </row>
     <row outlineLevel="0" r="221">
       <c r="A221" s="64" t="s"/>
-      <c r="B221" s="195" t="s"/>
+      <c r="B221" s="198" t="s"/>
       <c r="C221" s="0" t="n"/>
       <c r="D221" s="0" t="n"/>
-      <c r="E221" s="168" t="s"/>
+      <c r="E221" s="171" t="s"/>
       <c r="F221" s="20" t="s">
+        <v>413</v>
+      </c>
+      <c r="G221" s="21" t="s">
         <v>414</v>
-      </c>
-      <c r="G221" s="21" t="s">
-        <v>415</v>
       </c>
       <c r="H221" s="22" t="n"/>
       <c r="I221" s="0" t="n"/>
@@ -8555,15 +8558,15 @@
     </row>
     <row outlineLevel="0" r="222">
       <c r="A222" s="64" t="s"/>
-      <c r="B222" s="195" t="s"/>
+      <c r="B222" s="198" t="s"/>
       <c r="C222" s="0" t="n"/>
       <c r="D222" s="0" t="n"/>
-      <c r="E222" s="168" t="s"/>
+      <c r="E222" s="171" t="s"/>
       <c r="F222" s="23" t="s">
+        <v>408</v>
+      </c>
+      <c r="G222" s="21" t="s">
         <v>409</v>
-      </c>
-      <c r="G222" s="21" t="s">
-        <v>410</v>
       </c>
       <c r="H222" s="22" t="n"/>
       <c r="I222" s="0" t="n"/>
@@ -8572,16 +8575,16 @@
       </c>
     </row>
     <row outlineLevel="0" r="223">
-      <c r="A223" s="199" t="s"/>
-      <c r="B223" s="200" t="s"/>
+      <c r="A223" s="202" t="s"/>
+      <c r="B223" s="203" t="s"/>
       <c r="C223" s="29" t="n"/>
       <c r="D223" s="29" t="n"/>
-      <c r="E223" s="201" t="s"/>
+      <c r="E223" s="204" t="s"/>
       <c r="F223" s="71" t="s">
+        <v>415</v>
+      </c>
+      <c r="G223" s="32" t="s">
         <v>416</v>
-      </c>
-      <c r="G223" s="32" t="s">
-        <v>417</v>
       </c>
       <c r="H223" s="33" t="n"/>
       <c r="I223" s="29" t="n"/>
@@ -8590,38 +8593,38 @@
       </c>
     </row>
     <row outlineLevel="0" r="224">
-      <c r="A224" s="202" t="n">
+      <c r="A224" s="205" t="n">
         <v>33</v>
       </c>
       <c r="B224" s="10" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="C224" s="12" t="n"/>
       <c r="D224" s="12" t="n"/>
       <c r="E224" s="73" t="n"/>
       <c r="F224" s="69" t="s">
+        <v>418</v>
+      </c>
+      <c r="G224" s="73" t="s">
         <v>419</v>
       </c>
-      <c r="G224" s="73" t="s">
-        <v>420</v>
-      </c>
-      <c r="H224" s="173" t="n"/>
+      <c r="H224" s="176" t="n"/>
       <c r="I224" s="14" t="n"/>
       <c r="J224" s="15" t="s">
         <v>15</v>
       </c>
     </row>
     <row outlineLevel="0" r="225">
-      <c r="A225" s="203" t="s"/>
+      <c r="A225" s="206" t="s"/>
       <c r="B225" s="17" t="s"/>
       <c r="C225" s="0" t="n"/>
       <c r="D225" s="0" t="n"/>
       <c r="E225" s="24" t="n"/>
       <c r="F225" s="23" t="s">
+        <v>420</v>
+      </c>
+      <c r="G225" s="21" t="s">
         <v>421</v>
-      </c>
-      <c r="G225" s="21" t="s">
-        <v>422</v>
       </c>
       <c r="H225" s="86" t="n"/>
       <c r="I225" s="20" t="n"/>
@@ -8630,16 +8633,16 @@
       </c>
     </row>
     <row outlineLevel="0" r="226">
-      <c r="A226" s="203" t="s"/>
+      <c r="A226" s="206" t="s"/>
       <c r="B226" s="17" t="s"/>
       <c r="C226" s="0" t="n"/>
       <c r="D226" s="0" t="n"/>
       <c r="E226" s="24" t="n"/>
       <c r="F226" s="23" t="s">
+        <v>422</v>
+      </c>
+      <c r="G226" s="21" t="s">
         <v>423</v>
-      </c>
-      <c r="G226" s="21" t="s">
-        <v>424</v>
       </c>
       <c r="H226" s="86" t="n"/>
       <c r="I226" s="20" t="n"/>
@@ -8648,16 +8651,16 @@
       </c>
     </row>
     <row outlineLevel="0" r="227">
-      <c r="A227" s="204" t="s"/>
+      <c r="A227" s="207" t="s"/>
       <c r="B227" s="27" t="s"/>
       <c r="C227" s="29" t="n"/>
       <c r="D227" s="29" t="n"/>
       <c r="E227" s="75" t="n"/>
       <c r="F227" s="31" t="s">
+        <v>424</v>
+      </c>
+      <c r="G227" s="75" t="s">
         <v>425</v>
-      </c>
-      <c r="G227" s="75" t="s">
-        <v>426</v>
       </c>
       <c r="H227" s="72" t="n"/>
       <c r="I227" s="71" t="n"/>
@@ -8666,108 +8669,108 @@
   </sheetData>
   <mergeCells count="103">
     <mergeCell ref="E2:E8"/>
-    <mergeCell ref="E30:E32"/>
-    <mergeCell ref="E212:E218"/>
+    <mergeCell ref="E9:E18"/>
+    <mergeCell ref="E219:E223"/>
+    <mergeCell ref="E77:E81"/>
+    <mergeCell ref="E162:E171"/>
     <mergeCell ref="E71:E76"/>
-    <mergeCell ref="E162:E171"/>
-    <mergeCell ref="E85:E103"/>
     <mergeCell ref="E146:E152"/>
     <mergeCell ref="E194:E196"/>
-    <mergeCell ref="E46:E53"/>
+    <mergeCell ref="E67:E70"/>
     <mergeCell ref="E33:E41"/>
-    <mergeCell ref="E127:E133"/>
+    <mergeCell ref="E85:E103"/>
     <mergeCell ref="E205:E211"/>
-    <mergeCell ref="E77:E81"/>
+    <mergeCell ref="E139:E145"/>
     <mergeCell ref="B224:B227"/>
+    <mergeCell ref="B82:B84"/>
+    <mergeCell ref="B2:B8"/>
+    <mergeCell ref="B187:B190"/>
+    <mergeCell ref="B71:B76"/>
     <mergeCell ref="B19:B21"/>
+    <mergeCell ref="B104:B116"/>
+    <mergeCell ref="B205:B211"/>
     <mergeCell ref="B121:B126"/>
-    <mergeCell ref="B153:B161"/>
-    <mergeCell ref="B22:B26"/>
-    <mergeCell ref="B71:B76"/>
-    <mergeCell ref="B104:B116"/>
-    <mergeCell ref="B197:B204"/>
-    <mergeCell ref="B127:B133"/>
-    <mergeCell ref="B42:B45"/>
+    <mergeCell ref="B9:B18"/>
     <mergeCell ref="A9:A18"/>
-    <mergeCell ref="A42:A45"/>
-    <mergeCell ref="A117:A120"/>
-    <mergeCell ref="A46:A53"/>
+    <mergeCell ref="A82:A84"/>
+    <mergeCell ref="A71:A76"/>
+    <mergeCell ref="A104:A116"/>
+    <mergeCell ref="A153:A161"/>
+    <mergeCell ref="A191:A193"/>
+    <mergeCell ref="A146:A152"/>
+    <mergeCell ref="A139:A145"/>
     <mergeCell ref="A212:A218"/>
-    <mergeCell ref="A153:A161"/>
-    <mergeCell ref="A146:A152"/>
-    <mergeCell ref="A2:A8"/>
-    <mergeCell ref="A176:A186"/>
-    <mergeCell ref="A30:A32"/>
+    <mergeCell ref="A162:A171"/>
     <mergeCell ref="D185:D186"/>
-    <mergeCell ref="E187:E190"/>
     <mergeCell ref="E191:E193"/>
     <mergeCell ref="E176:E186"/>
+    <mergeCell ref="E187:E190"/>
     <mergeCell ref="C191:D193"/>
     <mergeCell ref="C185:C186"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A30:A32"/>
+    <mergeCell ref="A33:A41"/>
+    <mergeCell ref="A187:A190"/>
+    <mergeCell ref="A22:A26"/>
+    <mergeCell ref="A127:A133"/>
+    <mergeCell ref="A121:A126"/>
+    <mergeCell ref="A117:A120"/>
+    <mergeCell ref="B172:B175"/>
+    <mergeCell ref="B42:B45"/>
+    <mergeCell ref="B77:B81"/>
+    <mergeCell ref="B54:B66"/>
+    <mergeCell ref="B67:B70"/>
+    <mergeCell ref="B33:B41"/>
+    <mergeCell ref="B134:B138"/>
+    <mergeCell ref="B127:B133"/>
+    <mergeCell ref="B22:B26"/>
+    <mergeCell ref="B139:B145"/>
+    <mergeCell ref="B146:B152"/>
+    <mergeCell ref="B176:B186"/>
+    <mergeCell ref="B162:B171"/>
+    <mergeCell ref="B27:B29"/>
+    <mergeCell ref="B197:B204"/>
+    <mergeCell ref="B212:B218"/>
+    <mergeCell ref="A2:A8"/>
+    <mergeCell ref="A134:A138"/>
+    <mergeCell ref="A219:A223"/>
+    <mergeCell ref="A224:A227"/>
+    <mergeCell ref="A67:A70"/>
+    <mergeCell ref="A176:A186"/>
+    <mergeCell ref="A42:A45"/>
     <mergeCell ref="A77:A81"/>
-    <mergeCell ref="A197:A204"/>
-    <mergeCell ref="A82:A84"/>
-    <mergeCell ref="A33:A41"/>
-    <mergeCell ref="A205:A211"/>
-    <mergeCell ref="A172:A175"/>
-    <mergeCell ref="A224:A227"/>
-    <mergeCell ref="A134:A138"/>
-    <mergeCell ref="B212:B218"/>
-    <mergeCell ref="B46:B53"/>
-    <mergeCell ref="B82:B84"/>
-    <mergeCell ref="B77:B81"/>
-    <mergeCell ref="B85:B103"/>
-    <mergeCell ref="B134:B138"/>
-    <mergeCell ref="B176:B186"/>
-    <mergeCell ref="B139:B145"/>
-    <mergeCell ref="B30:B32"/>
-    <mergeCell ref="B205:B211"/>
-    <mergeCell ref="B33:B41"/>
-    <mergeCell ref="B146:B152"/>
-    <mergeCell ref="B187:B190"/>
-    <mergeCell ref="B117:B120"/>
-    <mergeCell ref="B194:B196"/>
-    <mergeCell ref="B191:B193"/>
-    <mergeCell ref="A194:A196"/>
-    <mergeCell ref="A139:A145"/>
-    <mergeCell ref="A22:A26"/>
-    <mergeCell ref="A219:A223"/>
-    <mergeCell ref="A104:A116"/>
-    <mergeCell ref="A127:A133"/>
-    <mergeCell ref="A54:A66"/>
-    <mergeCell ref="A27:A29"/>
+    <mergeCell ref="E19:E21"/>
+    <mergeCell ref="E30:E32"/>
+    <mergeCell ref="E172:E175"/>
+    <mergeCell ref="E153:E161"/>
+    <mergeCell ref="E134:E138"/>
+    <mergeCell ref="E104:E116"/>
+    <mergeCell ref="E54:E66"/>
+    <mergeCell ref="E212:E218"/>
     <mergeCell ref="E22:E26"/>
     <mergeCell ref="E27:E29"/>
-    <mergeCell ref="E172:E175"/>
-    <mergeCell ref="E219:E223"/>
-    <mergeCell ref="E121:E126"/>
-    <mergeCell ref="E104:E116"/>
-    <mergeCell ref="E67:E70"/>
-    <mergeCell ref="E153:E161"/>
-    <mergeCell ref="E9:E18"/>
-    <mergeCell ref="E19:E21"/>
-    <mergeCell ref="E54:E66"/>
-    <mergeCell ref="E139:E145"/>
+    <mergeCell ref="E46:E53"/>
+    <mergeCell ref="E127:E133"/>
     <mergeCell ref="E42:E45"/>
     <mergeCell ref="E117:E120"/>
     <mergeCell ref="E197:E204"/>
-    <mergeCell ref="E134:E138"/>
-    <mergeCell ref="A121:A126"/>
-    <mergeCell ref="A71:A76"/>
-    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="E121:E126"/>
+    <mergeCell ref="A46:A53"/>
+    <mergeCell ref="A27:A29"/>
     <mergeCell ref="A85:A103"/>
-    <mergeCell ref="A67:A70"/>
-    <mergeCell ref="A191:A193"/>
-    <mergeCell ref="A162:A171"/>
-    <mergeCell ref="A187:A190"/>
-    <mergeCell ref="B162:B171"/>
-    <mergeCell ref="B2:B8"/>
-    <mergeCell ref="B27:B29"/>
+    <mergeCell ref="A54:A66"/>
+    <mergeCell ref="A197:A204"/>
+    <mergeCell ref="A172:A175"/>
+    <mergeCell ref="A205:A211"/>
+    <mergeCell ref="A194:A196"/>
+    <mergeCell ref="B153:B161"/>
+    <mergeCell ref="B191:B193"/>
     <mergeCell ref="B219:B223"/>
-    <mergeCell ref="B67:B70"/>
-    <mergeCell ref="B172:B175"/>
-    <mergeCell ref="B9:B18"/>
-    <mergeCell ref="B54:B66"/>
+    <mergeCell ref="B194:B196"/>
+    <mergeCell ref="B46:B53"/>
+    <mergeCell ref="B117:B120"/>
+    <mergeCell ref="B85:B103"/>
+    <mergeCell ref="B30:B32"/>
   </mergeCells>
   <pageMargins bottom="0.790000021457672" footer="0.19680555164814" header="0.19680555164814" left="0.790000021457672" right="0.790000021457672" top="0.790000021457672"/>
 </worksheet>

--- a/Cases.xlsx
+++ b/Cases.xlsx
@@ -1535,7 +1535,6 @@
       <t xml:space="preserve"> </t>
     </r>
   </si>
-  <si/>
   <si>
     <t>Проверка раздела News</t>
   </si>
@@ -2283,6 +2282,15 @@
   <si>
     <r>
       <rPr>
+        <rFont val="XO Thames"/>
+        <sz val="12"/>
+      </rPr>
+      <t>Доделать. В процессе.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
         <rFont val="Courier"/>
         <sz val="11"/>
       </rPr>
@@ -2554,6 +2562,9 @@
   </si>
   <si>
     <t>Переход в раздел About успешный</t>
+  </si>
+  <si>
+    <t>Доделать. В процессе.</t>
   </si>
   <si>
     <t>Перейти по ссылке в Privace Policy</t>
@@ -3158,7 +3169,7 @@
   <cellStyleXfs count="1">
     <xf applyFont="true" borderId="0" fillId="0" fontId="1" quotePrefix="false"/>
   </cellStyleXfs>
-  <cellXfs count="208">
+  <cellXfs count="209">
     <xf applyFont="true" borderId="0" fillId="0" fontId="1" quotePrefix="false"/>
     <xf applyAlignment="true" applyFill="true" applyFont="true" borderId="0" fillId="2" fontId="1" quotePrefix="false">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
@@ -3612,7 +3623,7 @@
     <xf applyBorder="true" applyFont="true" borderId="2" fillId="0" fontId="0" quotePrefix="false"/>
     <xf applyBorder="true" applyFont="true" borderId="4" fillId="0" fontId="2" quotePrefix="false"/>
     <xf applyBorder="true" applyFont="true" borderId="5" fillId="0" fontId="2" quotePrefix="false"/>
-    <xf applyBorder="true" applyFont="true" borderId="6" fillId="0" fontId="2" quotePrefix="false"/>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="6" fillId="20" fontId="1" quotePrefix="false"/>
     <xf applyAlignment="true" applyBorder="true" applyFill="true" applyFont="true" borderId="7" fillId="13" fontId="3" quotePrefix="false">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
@@ -3660,6 +3671,9 @@
     </xf>
     <xf applyAlignment="true" applyBorder="true" applyFont="true" borderId="33" fillId="0" fontId="1" quotePrefix="false">
       <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFill="true" applyFont="true" borderId="6" fillId="20" fontId="1" quotePrefix="false">
+      <alignment wrapText="true"/>
     </xf>
     <xf applyAlignment="true" applyBorder="true" applyFont="true" borderId="9" fillId="0" fontId="1" quotePrefix="false">
       <alignment horizontal="right" vertical="center"/>
@@ -6684,9 +6698,7 @@
       <c r="G131" s="135" t="s">
         <v>245</v>
       </c>
-      <c r="H131" s="136" t="s">
-        <v>255</v>
-      </c>
+      <c r="H131" s="136" t="n"/>
       <c r="I131" s="0" t="s">
         <v>22</v>
       </c>
@@ -6726,9 +6738,7 @@
       <c r="G133" s="138" t="s">
         <v>245</v>
       </c>
-      <c r="H133" s="139" t="s">
-        <v>255</v>
-      </c>
+      <c r="H133" s="139" t="n"/>
       <c r="I133" s="29" t="s">
         <v>22</v>
       </c>
@@ -6741,7 +6751,7 @@
         <v>19</v>
       </c>
       <c r="B134" s="140" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C134" s="35" t="n"/>
       <c r="D134" s="35" t="n"/>
@@ -6749,10 +6759,10 @@
         <v>65</v>
       </c>
       <c r="F134" s="37" t="s">
+        <v>256</v>
+      </c>
+      <c r="G134" s="38" t="s">
         <v>257</v>
-      </c>
-      <c r="G134" s="38" t="s">
-        <v>258</v>
       </c>
       <c r="H134" s="55" t="n"/>
       <c r="I134" s="12" t="s">
@@ -6769,14 +6779,14 @@
       <c r="D135" s="0" t="n"/>
       <c r="E135" s="65" t="s"/>
       <c r="F135" s="142" t="s">
+        <v>258</v>
+      </c>
+      <c r="G135" s="143" t="s">
         <v>259</v>
-      </c>
-      <c r="G135" s="143" t="s">
-        <v>260</v>
       </c>
       <c r="H135" s="144" t="n"/>
       <c r="I135" s="145" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="J135" s="21" t="s">
         <v>15</v>
@@ -6789,10 +6799,10 @@
       <c r="D136" s="0" t="n"/>
       <c r="E136" s="65" t="s"/>
       <c r="F136" s="20" t="s">
+        <v>261</v>
+      </c>
+      <c r="G136" s="21" t="s">
         <v>262</v>
-      </c>
-      <c r="G136" s="21" t="s">
-        <v>263</v>
       </c>
       <c r="H136" s="43" t="n"/>
       <c r="I136" s="0" t="s">
@@ -6809,10 +6819,10 @@
       <c r="D137" s="0" t="n"/>
       <c r="E137" s="65" t="s"/>
       <c r="F137" s="146" t="s">
+        <v>263</v>
+      </c>
+      <c r="G137" s="147" t="s">
         <v>264</v>
-      </c>
-      <c r="G137" s="147" t="s">
-        <v>265</v>
       </c>
       <c r="H137" s="43" t="n"/>
       <c r="I137" s="0" t="s">
@@ -6829,10 +6839,10 @@
       <c r="D138" s="58" t="n"/>
       <c r="E138" s="65" t="s"/>
       <c r="F138" s="148" t="s">
+        <v>265</v>
+      </c>
+      <c r="G138" s="149" t="s">
         <v>266</v>
-      </c>
-      <c r="G138" s="149" t="s">
-        <v>267</v>
       </c>
       <c r="H138" s="59" t="n"/>
       <c r="I138" s="29" t="s">
@@ -6847,7 +6857,7 @@
         <v>20</v>
       </c>
       <c r="B139" s="150" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C139" s="12" t="n"/>
       <c r="D139" s="12" t="n"/>
@@ -6855,10 +6865,10 @@
         <v>65</v>
       </c>
       <c r="F139" s="14" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="G139" s="15" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H139" s="16" t="n"/>
       <c r="I139" s="151" t="s">
@@ -6875,10 +6885,10 @@
       <c r="D140" s="0" t="n"/>
       <c r="E140" s="70" t="s"/>
       <c r="F140" s="20" t="s">
+        <v>269</v>
+      </c>
+      <c r="G140" s="21" t="s">
         <v>270</v>
-      </c>
-      <c r="G140" s="21" t="s">
-        <v>271</v>
       </c>
       <c r="H140" s="22" t="n"/>
       <c r="I140" s="152" t="s">
@@ -6895,10 +6905,10 @@
       <c r="D141" s="0" t="n"/>
       <c r="E141" s="70" t="s"/>
       <c r="F141" s="153" t="s">
+        <v>271</v>
+      </c>
+      <c r="G141" s="125" t="s">
         <v>272</v>
-      </c>
-      <c r="G141" s="125" t="s">
-        <v>273</v>
       </c>
       <c r="H141" s="83" t="s">
         <v>134</v>
@@ -6917,14 +6927,14 @@
       <c r="D142" s="0" t="n"/>
       <c r="E142" s="70" t="s"/>
       <c r="F142" s="155" t="s">
+        <v>273</v>
+      </c>
+      <c r="G142" s="143" t="s">
         <v>274</v>
-      </c>
-      <c r="G142" s="143" t="s">
-        <v>275</v>
       </c>
       <c r="H142" s="156" t="n"/>
       <c r="I142" s="145" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="J142" s="21" t="s">
         <v>15</v>
@@ -6937,14 +6947,14 @@
       <c r="D143" s="0" t="n"/>
       <c r="E143" s="70" t="s"/>
       <c r="F143" s="155" t="s">
+        <v>276</v>
+      </c>
+      <c r="G143" s="143" t="s">
         <v>277</v>
-      </c>
-      <c r="G143" s="143" t="s">
-        <v>278</v>
       </c>
       <c r="H143" s="156" t="n"/>
       <c r="I143" s="145" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="J143" s="21" t="s">
         <v>15</v>
@@ -6957,10 +6967,10 @@
       <c r="D144" s="0" t="n"/>
       <c r="E144" s="70" t="s"/>
       <c r="F144" s="23" t="s">
+        <v>278</v>
+      </c>
+      <c r="G144" s="24" t="s">
         <v>279</v>
-      </c>
-      <c r="G144" s="24" t="s">
-        <v>280</v>
       </c>
       <c r="H144" s="22" t="n"/>
       <c r="I144" s="152" t="s">
@@ -6977,10 +6987,10 @@
       <c r="D145" s="29" t="n"/>
       <c r="E145" s="70" t="s"/>
       <c r="F145" s="31" t="s">
+        <v>280</v>
+      </c>
+      <c r="G145" s="32" t="s">
         <v>281</v>
-      </c>
-      <c r="G145" s="32" t="s">
-        <v>282</v>
       </c>
       <c r="H145" s="33" t="n"/>
       <c r="I145" s="157" t="s">
@@ -6995,7 +7005,7 @@
         <v>21</v>
       </c>
       <c r="B146" s="150" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C146" s="12" t="n"/>
       <c r="D146" s="12" t="n"/>
@@ -7003,10 +7013,10 @@
         <v>65</v>
       </c>
       <c r="F146" s="14" t="s">
+        <v>283</v>
+      </c>
+      <c r="G146" s="73" t="s">
         <v>284</v>
-      </c>
-      <c r="G146" s="73" t="s">
-        <v>285</v>
       </c>
       <c r="H146" s="16" t="n"/>
       <c r="I146" s="151" t="s">
@@ -7023,10 +7033,10 @@
       <c r="D147" s="0" t="n"/>
       <c r="E147" s="70" t="s"/>
       <c r="F147" s="20" t="s">
+        <v>285</v>
+      </c>
+      <c r="G147" s="21" t="s">
         <v>286</v>
-      </c>
-      <c r="G147" s="21" t="s">
-        <v>287</v>
       </c>
       <c r="H147" s="22" t="n"/>
       <c r="I147" s="152" t="s">
@@ -7043,10 +7053,10 @@
       <c r="D148" s="0" t="n"/>
       <c r="E148" s="70" t="s"/>
       <c r="F148" s="146" t="s">
+        <v>287</v>
+      </c>
+      <c r="G148" s="158" t="s">
         <v>288</v>
-      </c>
-      <c r="G148" s="158" t="s">
-        <v>289</v>
       </c>
       <c r="H148" s="22" t="n"/>
       <c r="I148" s="152" t="s">
@@ -7063,10 +7073,10 @@
       <c r="D149" s="0" t="n"/>
       <c r="E149" s="70" t="s"/>
       <c r="F149" s="146" t="s">
+        <v>289</v>
+      </c>
+      <c r="G149" s="158" t="s">
         <v>290</v>
-      </c>
-      <c r="G149" s="158" t="s">
-        <v>291</v>
       </c>
       <c r="H149" s="22" t="n"/>
       <c r="I149" s="152" t="s">
@@ -7083,10 +7093,10 @@
       <c r="D150" s="0" t="n"/>
       <c r="E150" s="70" t="s"/>
       <c r="F150" s="20" t="s">
+        <v>291</v>
+      </c>
+      <c r="G150" s="21" t="s">
         <v>292</v>
-      </c>
-      <c r="G150" s="21" t="s">
-        <v>293</v>
       </c>
       <c r="H150" s="22" t="n"/>
       <c r="I150" s="152" t="s">
@@ -7103,14 +7113,14 @@
       <c r="D151" s="0" t="n"/>
       <c r="E151" s="70" t="s"/>
       <c r="F151" s="146" t="s">
+        <v>293</v>
+      </c>
+      <c r="G151" s="159" t="s">
         <v>294</v>
-      </c>
-      <c r="G151" s="159" t="s">
-        <v>295</v>
       </c>
       <c r="H151" s="156" t="n"/>
       <c r="I151" s="145" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="J151" s="21" t="s">
         <v>15</v>
@@ -7123,14 +7133,14 @@
       <c r="D152" s="29" t="n"/>
       <c r="E152" s="70" t="s"/>
       <c r="F152" s="160" t="s">
+        <v>296</v>
+      </c>
+      <c r="G152" s="161" t="s">
         <v>297</v>
-      </c>
-      <c r="G152" s="161" t="s">
-        <v>298</v>
       </c>
       <c r="H152" s="162" t="n"/>
       <c r="I152" s="163" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="J152" s="32" t="s">
         <v>15</v>
@@ -7141,7 +7151,7 @@
         <v>22</v>
       </c>
       <c r="B153" s="150" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C153" s="12" t="n"/>
       <c r="D153" s="12" t="n"/>
@@ -7149,10 +7159,10 @@
         <v>65</v>
       </c>
       <c r="F153" s="14" t="s">
+        <v>299</v>
+      </c>
+      <c r="G153" s="73" t="s">
         <v>300</v>
-      </c>
-      <c r="G153" s="73" t="s">
-        <v>301</v>
       </c>
       <c r="H153" s="16" t="n"/>
       <c r="I153" s="151" t="s">
@@ -7169,10 +7179,10 @@
       <c r="D154" s="0" t="n"/>
       <c r="E154" s="70" t="s"/>
       <c r="F154" s="20" t="s">
+        <v>301</v>
+      </c>
+      <c r="G154" s="21" t="s">
         <v>302</v>
-      </c>
-      <c r="G154" s="21" t="s">
-        <v>303</v>
       </c>
       <c r="H154" s="22" t="n"/>
       <c r="I154" s="152" t="s">
@@ -7189,10 +7199,10 @@
       <c r="D155" s="0" t="n"/>
       <c r="E155" s="70" t="s"/>
       <c r="F155" s="81" t="s">
+        <v>303</v>
+      </c>
+      <c r="G155" s="125" t="s">
         <v>304</v>
-      </c>
-      <c r="G155" s="125" t="s">
-        <v>305</v>
       </c>
       <c r="H155" s="83" t="s">
         <v>134</v>
@@ -7211,14 +7221,14 @@
       <c r="D156" s="0" t="n"/>
       <c r="E156" s="70" t="s"/>
       <c r="F156" s="155" t="s">
+        <v>273</v>
+      </c>
+      <c r="G156" s="143" t="s">
         <v>274</v>
-      </c>
-      <c r="G156" s="143" t="s">
-        <v>275</v>
       </c>
       <c r="H156" s="156" t="n"/>
       <c r="I156" s="145" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="J156" s="21" t="s">
         <v>15</v>
@@ -7231,14 +7241,14 @@
       <c r="D157" s="0" t="n"/>
       <c r="E157" s="70" t="s"/>
       <c r="F157" s="155" t="s">
+        <v>276</v>
+      </c>
+      <c r="G157" s="143" t="s">
         <v>277</v>
-      </c>
-      <c r="G157" s="143" t="s">
-        <v>278</v>
       </c>
       <c r="H157" s="156" t="n"/>
       <c r="I157" s="145" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="J157" s="21" t="s">
         <v>15</v>
@@ -7251,10 +7261,10 @@
       <c r="D158" s="0" t="n"/>
       <c r="E158" s="70" t="s"/>
       <c r="F158" s="20" t="s">
+        <v>305</v>
+      </c>
+      <c r="G158" s="21" t="s">
         <v>306</v>
-      </c>
-      <c r="G158" s="21" t="s">
-        <v>307</v>
       </c>
       <c r="H158" s="22" t="n"/>
       <c r="I158" s="152" t="s">
@@ -7271,10 +7281,10 @@
       <c r="D159" s="0" t="n"/>
       <c r="E159" s="70" t="s"/>
       <c r="F159" s="20" t="s">
+        <v>307</v>
+      </c>
+      <c r="G159" s="21" t="s">
         <v>308</v>
-      </c>
-      <c r="G159" s="21" t="s">
-        <v>309</v>
       </c>
       <c r="H159" s="22" t="n"/>
       <c r="I159" s="152" t="s">
@@ -7294,7 +7304,7 @@
         <v>144</v>
       </c>
       <c r="G160" s="21" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="H160" s="22" t="n"/>
       <c r="I160" s="152" t="s">
@@ -7311,10 +7321,10 @@
       <c r="D161" s="29" t="n"/>
       <c r="E161" s="70" t="s"/>
       <c r="F161" s="31" t="s">
+        <v>310</v>
+      </c>
+      <c r="G161" s="32" t="s">
         <v>311</v>
-      </c>
-      <c r="G161" s="32" t="s">
-        <v>312</v>
       </c>
       <c r="H161" s="33" t="n"/>
       <c r="I161" s="157" t="s">
@@ -7329,7 +7339,7 @@
         <v>23</v>
       </c>
       <c r="B162" s="150" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C162" s="12" t="n"/>
       <c r="D162" s="12" t="n"/>
@@ -7337,10 +7347,10 @@
         <v>65</v>
       </c>
       <c r="F162" s="14" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="G162" s="15" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="H162" s="16" t="n"/>
       <c r="I162" s="12" t="s">
@@ -7357,10 +7367,10 @@
       <c r="D163" s="0" t="n"/>
       <c r="E163" s="70" t="s"/>
       <c r="F163" s="20" t="s">
+        <v>301</v>
+      </c>
+      <c r="G163" s="21" t="s">
         <v>302</v>
-      </c>
-      <c r="G163" s="21" t="s">
-        <v>303</v>
       </c>
       <c r="H163" s="22" t="n"/>
       <c r="I163" s="0" t="s">
@@ -7377,10 +7387,10 @@
       <c r="D164" s="0" t="n"/>
       <c r="E164" s="70" t="s"/>
       <c r="F164" s="81" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="G164" s="125" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="H164" s="83" t="s">
         <v>134</v>
@@ -7399,10 +7409,10 @@
       <c r="D165" s="0" t="n"/>
       <c r="E165" s="70" t="s"/>
       <c r="F165" s="146" t="s">
+        <v>315</v>
+      </c>
+      <c r="G165" s="147" t="s">
         <v>316</v>
-      </c>
-      <c r="G165" s="147" t="s">
-        <v>317</v>
       </c>
       <c r="H165" s="22" t="n"/>
       <c r="I165" s="0" t="s">
@@ -7419,14 +7429,14 @@
       <c r="D166" s="0" t="n"/>
       <c r="E166" s="70" t="s"/>
       <c r="F166" s="23" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="G166" s="21" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="H166" s="22" t="n"/>
       <c r="I166" s="0" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="J166" s="21" t="s">
         <v>15</v>
@@ -7442,11 +7452,11 @@
         <v>137</v>
       </c>
       <c r="G167" s="21" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="H167" s="22" t="n"/>
       <c r="I167" s="152" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="J167" s="21" t="s">
         <v>15</v>
@@ -7459,13 +7469,13 @@
       <c r="D168" s="0" t="n"/>
       <c r="E168" s="70" t="s"/>
       <c r="F168" s="146" t="s">
+        <v>319</v>
+      </c>
+      <c r="G168" s="147" t="s">
         <v>320</v>
       </c>
-      <c r="G168" s="147" t="s">
+      <c r="H168" s="164" t="s">
         <v>321</v>
-      </c>
-      <c r="H168" s="164" t="s">
-        <v>322</v>
       </c>
       <c r="I168" s="0" t="s">
         <v>22</v>
@@ -7481,19 +7491,19 @@
       <c r="D169" s="0" t="n"/>
       <c r="E169" s="70" t="s"/>
       <c r="F169" s="165" t="s">
+        <v>322</v>
+      </c>
+      <c r="G169" s="159" t="s">
         <v>323</v>
       </c>
-      <c r="G169" s="159" t="s">
+      <c r="H169" s="166" t="s">
         <v>324</v>
       </c>
-      <c r="H169" s="166" t="s">
+      <c r="I169" s="152" t="s">
         <v>325</v>
       </c>
-      <c r="I169" s="152" t="s">
+      <c r="J169" s="21" t="s">
         <v>326</v>
-      </c>
-      <c r="J169" s="21" t="s">
-        <v>327</v>
       </c>
     </row>
     <row outlineLevel="0" r="170">
@@ -7506,7 +7516,7 @@
         <v>126</v>
       </c>
       <c r="G170" s="24" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="H170" s="22" t="n"/>
       <c r="I170" s="0" t="s">
@@ -7523,10 +7533,10 @@
       <c r="D171" s="29" t="n"/>
       <c r="E171" s="70" t="s"/>
       <c r="F171" s="71" t="s">
+        <v>328</v>
+      </c>
+      <c r="G171" s="32" t="s">
         <v>329</v>
-      </c>
-      <c r="G171" s="32" t="s">
-        <v>330</v>
       </c>
       <c r="H171" s="33" t="n"/>
       <c r="I171" s="29" t="s">
@@ -7541,7 +7551,7 @@
         <v>24</v>
       </c>
       <c r="B172" s="150" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="C172" s="12" t="n"/>
       <c r="D172" s="12" t="n"/>
@@ -7549,10 +7559,10 @@
         <v>65</v>
       </c>
       <c r="F172" s="14" t="s">
+        <v>331</v>
+      </c>
+      <c r="G172" s="15" t="s">
         <v>332</v>
-      </c>
-      <c r="G172" s="15" t="s">
-        <v>333</v>
       </c>
       <c r="H172" s="16" t="n"/>
       <c r="I172" s="151" t="s">
@@ -7569,10 +7579,10 @@
       <c r="D173" s="0" t="n"/>
       <c r="E173" s="70" t="s"/>
       <c r="F173" s="20" t="s">
+        <v>333</v>
+      </c>
+      <c r="G173" s="21" t="s">
         <v>334</v>
-      </c>
-      <c r="G173" s="21" t="s">
-        <v>335</v>
       </c>
       <c r="H173" s="22" t="n"/>
       <c r="I173" s="152" t="s">
@@ -7589,13 +7599,13 @@
       <c r="D174" s="0" t="n"/>
       <c r="E174" s="70" t="s"/>
       <c r="F174" s="81" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="G174" s="125" t="s">
         <v>145</v>
       </c>
       <c r="H174" s="83" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="I174" s="152" t="s">
         <v>22</v>
@@ -7611,10 +7621,10 @@
       <c r="D175" s="29" t="n"/>
       <c r="E175" s="70" t="s"/>
       <c r="F175" s="167" t="s">
+        <v>337</v>
+      </c>
+      <c r="G175" s="168" t="s">
         <v>338</v>
-      </c>
-      <c r="G175" s="168" t="s">
-        <v>339</v>
       </c>
       <c r="H175" s="169" t="s">
         <v>134</v>
@@ -7631,7 +7641,7 @@
         <v>25</v>
       </c>
       <c r="B176" s="150" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C176" s="12" t="n"/>
       <c r="D176" s="12" t="n"/>
@@ -7639,10 +7649,10 @@
         <v>65</v>
       </c>
       <c r="F176" s="37" t="s">
+        <v>340</v>
+      </c>
+      <c r="G176" s="126" t="s">
         <v>341</v>
-      </c>
-      <c r="G176" s="126" t="s">
-        <v>342</v>
       </c>
       <c r="H176" s="55" t="n"/>
       <c r="I176" s="55" t="s">
@@ -7659,10 +7669,10 @@
       <c r="D177" s="0" t="n"/>
       <c r="E177" s="171" t="s"/>
       <c r="F177" s="46" t="s">
+        <v>301</v>
+      </c>
+      <c r="G177" s="45" t="s">
         <v>302</v>
-      </c>
-      <c r="G177" s="45" t="s">
-        <v>303</v>
       </c>
       <c r="H177" s="43" t="n"/>
       <c r="I177" s="43" t="s">
@@ -7679,10 +7689,10 @@
       <c r="D178" s="0" t="n"/>
       <c r="E178" s="171" t="s"/>
       <c r="F178" s="46" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="G178" s="45" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="H178" s="43" t="n"/>
       <c r="I178" s="43" t="s">
@@ -7699,10 +7709,10 @@
       <c r="D179" s="0" t="n"/>
       <c r="E179" s="171" t="s"/>
       <c r="F179" s="93" t="s">
+        <v>315</v>
+      </c>
+      <c r="G179" s="172" t="s">
         <v>316</v>
-      </c>
-      <c r="G179" s="172" t="s">
-        <v>317</v>
       </c>
       <c r="H179" s="43" t="n"/>
       <c r="I179" s="43" t="s">
@@ -7719,14 +7729,14 @@
       <c r="D180" s="0" t="n"/>
       <c r="E180" s="171" t="s"/>
       <c r="F180" s="173" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="G180" s="174" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="H180" s="144" t="n"/>
       <c r="I180" s="144" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="J180" s="47" t="s">
         <v>15</v>
@@ -7742,11 +7752,11 @@
         <v>137</v>
       </c>
       <c r="G181" s="174" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="H181" s="144" t="n"/>
       <c r="I181" s="144" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="J181" s="47" t="s">
         <v>15</v>
@@ -7759,10 +7769,10 @@
       <c r="D182" s="0" t="n"/>
       <c r="E182" s="171" t="s"/>
       <c r="F182" s="93" t="s">
+        <v>319</v>
+      </c>
+      <c r="G182" s="172" t="s">
         <v>320</v>
-      </c>
-      <c r="G182" s="172" t="s">
-        <v>321</v>
       </c>
       <c r="H182" s="43" t="n"/>
       <c r="I182" s="43" t="s">
@@ -7779,10 +7789,10 @@
       <c r="D183" s="0" t="n"/>
       <c r="E183" s="171" t="s"/>
       <c r="F183" s="93" t="s">
+        <v>344</v>
+      </c>
+      <c r="G183" s="172" t="s">
         <v>345</v>
-      </c>
-      <c r="G183" s="172" t="s">
-        <v>346</v>
       </c>
       <c r="H183" s="43" t="n"/>
       <c r="I183" s="43" t="s">
@@ -7802,7 +7812,7 @@
         <v>126</v>
       </c>
       <c r="G184" s="42" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="H184" s="43" t="n"/>
       <c r="I184" s="43" t="s">
@@ -7819,10 +7829,10 @@
       <c r="D185" s="29" t="n"/>
       <c r="E185" s="171" t="s"/>
       <c r="F185" s="46" t="s">
+        <v>328</v>
+      </c>
+      <c r="G185" s="45" t="s">
         <v>329</v>
-      </c>
-      <c r="G185" s="45" t="s">
-        <v>330</v>
       </c>
       <c r="H185" s="43" t="n"/>
       <c r="I185" s="43" t="s">
@@ -7839,10 +7849,10 @@
       <c r="D186" s="29" t="s"/>
       <c r="E186" s="171" t="s"/>
       <c r="F186" s="66" t="s">
+        <v>346</v>
+      </c>
+      <c r="G186" s="50" t="s">
         <v>347</v>
-      </c>
-      <c r="G186" s="50" t="s">
-        <v>348</v>
       </c>
       <c r="H186" s="59" t="n"/>
       <c r="I186" s="59" t="s">
@@ -7855,18 +7865,18 @@
         <v>26</v>
       </c>
       <c r="B187" s="150" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="C187" s="12" t="n"/>
       <c r="D187" s="12" t="n"/>
       <c r="E187" s="68" t="s">
+        <v>349</v>
+      </c>
+      <c r="F187" s="14" t="s">
         <v>350</v>
       </c>
-      <c r="F187" s="14" t="s">
-        <v>351</v>
-      </c>
       <c r="G187" s="15" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="H187" s="176" t="n"/>
       <c r="I187" s="12" t="s">
@@ -7883,13 +7893,13 @@
       <c r="D188" s="0" t="n"/>
       <c r="E188" s="70" t="s"/>
       <c r="F188" s="20" t="s">
+        <v>351</v>
+      </c>
+      <c r="G188" s="21" t="s">
         <v>352</v>
       </c>
-      <c r="G188" s="21" t="s">
+      <c r="H188" s="177" t="s">
         <v>353</v>
-      </c>
-      <c r="H188" s="177" t="s">
-        <v>354</v>
       </c>
       <c r="I188" s="0" t="s">
         <v>22</v>
@@ -7905,13 +7915,13 @@
       <c r="D189" s="0" t="n"/>
       <c r="E189" s="70" t="s"/>
       <c r="F189" s="20" t="s">
+        <v>354</v>
+      </c>
+      <c r="G189" s="21" t="s">
         <v>355</v>
       </c>
-      <c r="G189" s="21" t="s">
+      <c r="H189" s="86" t="s">
         <v>356</v>
-      </c>
-      <c r="H189" s="86" t="s">
-        <v>357</v>
       </c>
       <c r="I189" s="0" t="s">
         <v>22</v>
@@ -7927,13 +7937,13 @@
       <c r="D190" s="29" t="n"/>
       <c r="E190" s="70" t="s"/>
       <c r="F190" s="71" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="G190" s="32" t="s">
+        <v>355</v>
+      </c>
+      <c r="H190" s="72" t="s">
         <v>356</v>
-      </c>
-      <c r="H190" s="72" t="s">
-        <v>357</v>
       </c>
       <c r="I190" s="29" t="s">
         <v>22</v>
@@ -7947,7 +7957,7 @@
         <v>27</v>
       </c>
       <c r="B191" s="178" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="C191" s="179" t="n"/>
       <c r="D191" s="12" t="s"/>
@@ -7955,13 +7965,13 @@
         <v>65</v>
       </c>
       <c r="F191" s="37" t="s">
+        <v>359</v>
+      </c>
+      <c r="G191" s="38" t="s">
+        <v>355</v>
+      </c>
+      <c r="H191" s="180" t="s">
         <v>360</v>
-      </c>
-      <c r="G191" s="38" t="s">
-        <v>356</v>
-      </c>
-      <c r="H191" s="180" t="s">
-        <v>361</v>
       </c>
       <c r="I191" s="63" t="s">
         <v>22</v>
@@ -7975,13 +7985,13 @@
       <c r="D192" s="182" t="s"/>
       <c r="E192" s="171" t="s"/>
       <c r="F192" s="46" t="s">
+        <v>354</v>
+      </c>
+      <c r="G192" s="45" t="s">
         <v>355</v>
       </c>
-      <c r="G192" s="45" t="s">
-        <v>356</v>
-      </c>
       <c r="H192" s="47" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="I192" s="41" t="s">
         <v>22</v>
@@ -7997,13 +8007,13 @@
       <c r="D193" s="29" t="s"/>
       <c r="E193" s="171" t="s"/>
       <c r="F193" s="66" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="G193" s="50" t="s">
+        <v>355</v>
+      </c>
+      <c r="H193" s="96" t="s">
         <v>356</v>
-      </c>
-      <c r="H193" s="96" t="s">
-        <v>357</v>
       </c>
       <c r="I193" s="52" t="s">
         <v>22</v>
@@ -8017,7 +8027,7 @@
         <v>28</v>
       </c>
       <c r="B194" s="150" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="C194" s="12" t="n"/>
       <c r="D194" s="12" t="n"/>
@@ -8025,10 +8035,10 @@
         <v>65</v>
       </c>
       <c r="F194" s="183" t="s">
+        <v>363</v>
+      </c>
+      <c r="G194" s="184" t="s">
         <v>364</v>
-      </c>
-      <c r="G194" s="184" t="s">
-        <v>365</v>
       </c>
       <c r="H194" s="16" t="n"/>
       <c r="I194" s="12" t="s">
@@ -8045,10 +8055,10 @@
       <c r="D195" s="0" t="n"/>
       <c r="E195" s="70" t="s"/>
       <c r="F195" s="20" t="s">
+        <v>365</v>
+      </c>
+      <c r="G195" s="21" t="s">
         <v>366</v>
-      </c>
-      <c r="G195" s="21" t="s">
-        <v>367</v>
       </c>
       <c r="H195" s="22" t="n"/>
       <c r="I195" s="0" t="s">
@@ -8065,10 +8075,10 @@
       <c r="D196" s="29" t="n"/>
       <c r="E196" s="70" t="s"/>
       <c r="F196" s="71" t="s">
+        <v>367</v>
+      </c>
+      <c r="G196" s="32" t="s">
         <v>368</v>
-      </c>
-      <c r="G196" s="32" t="s">
-        <v>369</v>
       </c>
       <c r="H196" s="33" t="n"/>
       <c r="I196" s="29" t="s">
@@ -8083,7 +8093,7 @@
         <v>29</v>
       </c>
       <c r="B197" s="185" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C197" s="186" t="n"/>
       <c r="D197" s="186" t="n"/>
@@ -8091,12 +8101,14 @@
         <v>65</v>
       </c>
       <c r="F197" s="187" t="s">
+        <v>370</v>
+      </c>
+      <c r="G197" s="188" t="s">
         <v>371</v>
       </c>
-      <c r="G197" s="188" t="s">
+      <c r="H197" s="189" t="s">
         <v>372</v>
       </c>
-      <c r="H197" s="189" t="n"/>
       <c r="I197" s="12" t="n"/>
       <c r="J197" s="15" t="s">
         <v>15</v>
@@ -8250,7 +8262,9 @@
       <c r="G205" s="15" t="s">
         <v>389</v>
       </c>
-      <c r="H205" s="16" t="n"/>
+      <c r="H205" s="189" t="s">
+        <v>372</v>
+      </c>
       <c r="I205" s="12" t="n"/>
       <c r="J205" s="15" t="s">
         <v>15</v>
@@ -8382,7 +8396,9 @@
       <c r="G212" s="73" t="s">
         <v>403</v>
       </c>
-      <c r="H212" s="16" t="n"/>
+      <c r="H212" s="189" t="s">
+        <v>372</v>
+      </c>
       <c r="I212" s="12" t="n"/>
       <c r="J212" s="15" t="s">
         <v>15</v>
@@ -8514,7 +8530,9 @@
       <c r="G219" s="73" t="s">
         <v>403</v>
       </c>
-      <c r="H219" s="16" t="n"/>
+      <c r="H219" s="189" t="s">
+        <v>372</v>
+      </c>
       <c r="I219" s="12" t="n"/>
       <c r="J219" s="15" t="s">
         <v>15</v>
@@ -8608,23 +8626,25 @@
       <c r="G224" s="73" t="s">
         <v>419</v>
       </c>
-      <c r="H224" s="176" t="n"/>
+      <c r="H224" s="206" t="s">
+        <v>420</v>
+      </c>
       <c r="I224" s="14" t="n"/>
       <c r="J224" s="15" t="s">
         <v>15</v>
       </c>
     </row>
     <row outlineLevel="0" r="225">
-      <c r="A225" s="206" t="s"/>
+      <c r="A225" s="207" t="s"/>
       <c r="B225" s="17" t="s"/>
       <c r="C225" s="0" t="n"/>
       <c r="D225" s="0" t="n"/>
       <c r="E225" s="24" t="n"/>
       <c r="F225" s="23" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="G225" s="21" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="H225" s="86" t="n"/>
       <c r="I225" s="20" t="n"/>
@@ -8633,16 +8653,16 @@
       </c>
     </row>
     <row outlineLevel="0" r="226">
-      <c r="A226" s="206" t="s"/>
+      <c r="A226" s="207" t="s"/>
       <c r="B226" s="17" t="s"/>
       <c r="C226" s="0" t="n"/>
       <c r="D226" s="0" t="n"/>
       <c r="E226" s="24" t="n"/>
       <c r="F226" s="23" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="G226" s="21" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="H226" s="86" t="n"/>
       <c r="I226" s="20" t="n"/>
@@ -8651,16 +8671,16 @@
       </c>
     </row>
     <row outlineLevel="0" r="227">
-      <c r="A227" s="207" t="s"/>
+      <c r="A227" s="208" t="s"/>
       <c r="B227" s="27" t="s"/>
       <c r="C227" s="29" t="n"/>
       <c r="D227" s="29" t="n"/>
       <c r="E227" s="75" t="n"/>
       <c r="F227" s="31" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="G227" s="75" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="H227" s="72" t="n"/>
       <c r="I227" s="71" t="n"/>
@@ -8669,108 +8689,108 @@
   </sheetData>
   <mergeCells count="103">
     <mergeCell ref="E2:E8"/>
-    <mergeCell ref="E9:E18"/>
-    <mergeCell ref="E219:E223"/>
+    <mergeCell ref="E22:E26"/>
+    <mergeCell ref="E153:E161"/>
     <mergeCell ref="E77:E81"/>
     <mergeCell ref="E162:E171"/>
     <mergeCell ref="E71:E76"/>
     <mergeCell ref="E146:E152"/>
     <mergeCell ref="E194:E196"/>
-    <mergeCell ref="E67:E70"/>
+    <mergeCell ref="E54:E66"/>
     <mergeCell ref="E33:E41"/>
     <mergeCell ref="E85:E103"/>
     <mergeCell ref="E205:E211"/>
-    <mergeCell ref="E139:E145"/>
+    <mergeCell ref="E127:E133"/>
     <mergeCell ref="B224:B227"/>
-    <mergeCell ref="B82:B84"/>
+    <mergeCell ref="B77:B81"/>
+    <mergeCell ref="B191:B193"/>
+    <mergeCell ref="B162:B171"/>
+    <mergeCell ref="B9:B18"/>
+    <mergeCell ref="B104:B116"/>
+    <mergeCell ref="B71:B76"/>
+    <mergeCell ref="B139:B145"/>
     <mergeCell ref="B2:B8"/>
-    <mergeCell ref="B187:B190"/>
-    <mergeCell ref="B71:B76"/>
-    <mergeCell ref="B19:B21"/>
-    <mergeCell ref="B104:B116"/>
-    <mergeCell ref="B205:B211"/>
-    <mergeCell ref="B121:B126"/>
-    <mergeCell ref="B9:B18"/>
+    <mergeCell ref="B85:B103"/>
     <mergeCell ref="A9:A18"/>
-    <mergeCell ref="A82:A84"/>
-    <mergeCell ref="A71:A76"/>
-    <mergeCell ref="A104:A116"/>
+    <mergeCell ref="A33:A41"/>
+    <mergeCell ref="A27:A29"/>
+    <mergeCell ref="A67:A70"/>
+    <mergeCell ref="A191:A193"/>
+    <mergeCell ref="A172:A175"/>
+    <mergeCell ref="A146:A152"/>
+    <mergeCell ref="A134:A138"/>
     <mergeCell ref="A153:A161"/>
-    <mergeCell ref="A191:A193"/>
-    <mergeCell ref="A146:A152"/>
-    <mergeCell ref="A139:A145"/>
-    <mergeCell ref="A212:A218"/>
-    <mergeCell ref="A162:A171"/>
+    <mergeCell ref="A205:A211"/>
     <mergeCell ref="D185:D186"/>
-    <mergeCell ref="E191:E193"/>
     <mergeCell ref="E176:E186"/>
     <mergeCell ref="E187:E190"/>
+    <mergeCell ref="E191:E193"/>
     <mergeCell ref="C191:D193"/>
     <mergeCell ref="C185:C186"/>
+    <mergeCell ref="A46:A53"/>
+    <mergeCell ref="A162:A171"/>
+    <mergeCell ref="A187:A190"/>
+    <mergeCell ref="A194:A196"/>
+    <mergeCell ref="A219:A223"/>
+    <mergeCell ref="A176:A186"/>
+    <mergeCell ref="A197:A204"/>
+    <mergeCell ref="A104:A116"/>
+    <mergeCell ref="B219:B223"/>
+    <mergeCell ref="B19:B21"/>
+    <mergeCell ref="B54:B66"/>
+    <mergeCell ref="B27:B29"/>
+    <mergeCell ref="B33:B41"/>
+    <mergeCell ref="B30:B32"/>
+    <mergeCell ref="B146:B152"/>
+    <mergeCell ref="B121:B126"/>
+    <mergeCell ref="B82:B84"/>
+    <mergeCell ref="B127:B133"/>
+    <mergeCell ref="B176:B186"/>
+    <mergeCell ref="B134:B138"/>
+    <mergeCell ref="B153:B161"/>
+    <mergeCell ref="B46:B53"/>
+    <mergeCell ref="B205:B211"/>
+    <mergeCell ref="B172:B175"/>
+    <mergeCell ref="A139:A145"/>
+    <mergeCell ref="A117:A120"/>
+    <mergeCell ref="A224:A227"/>
+    <mergeCell ref="A121:A126"/>
+    <mergeCell ref="A85:A103"/>
+    <mergeCell ref="A212:A218"/>
+    <mergeCell ref="A71:A76"/>
     <mergeCell ref="A19:A21"/>
-    <mergeCell ref="A30:A32"/>
-    <mergeCell ref="A33:A41"/>
-    <mergeCell ref="A187:A190"/>
-    <mergeCell ref="A22:A26"/>
-    <mergeCell ref="A127:A133"/>
-    <mergeCell ref="A121:A126"/>
-    <mergeCell ref="A117:A120"/>
-    <mergeCell ref="B172:B175"/>
-    <mergeCell ref="B42:B45"/>
-    <mergeCell ref="B77:B81"/>
-    <mergeCell ref="B54:B66"/>
-    <mergeCell ref="B67:B70"/>
-    <mergeCell ref="B33:B41"/>
-    <mergeCell ref="B134:B138"/>
-    <mergeCell ref="B127:B133"/>
-    <mergeCell ref="B22:B26"/>
-    <mergeCell ref="B139:B145"/>
-    <mergeCell ref="B146:B152"/>
-    <mergeCell ref="B176:B186"/>
-    <mergeCell ref="B162:B171"/>
-    <mergeCell ref="B27:B29"/>
-    <mergeCell ref="B197:B204"/>
-    <mergeCell ref="B212:B218"/>
-    <mergeCell ref="A2:A8"/>
-    <mergeCell ref="A134:A138"/>
-    <mergeCell ref="A219:A223"/>
-    <mergeCell ref="A224:A227"/>
-    <mergeCell ref="A67:A70"/>
-    <mergeCell ref="A176:A186"/>
-    <mergeCell ref="A42:A45"/>
-    <mergeCell ref="A77:A81"/>
+    <mergeCell ref="E27:E29"/>
+    <mergeCell ref="E9:E18"/>
+    <mergeCell ref="E172:E175"/>
+    <mergeCell ref="E212:E218"/>
+    <mergeCell ref="E121:E126"/>
+    <mergeCell ref="E104:E116"/>
+    <mergeCell ref="E46:E53"/>
+    <mergeCell ref="E219:E223"/>
     <mergeCell ref="E19:E21"/>
     <mergeCell ref="E30:E32"/>
-    <mergeCell ref="E172:E175"/>
-    <mergeCell ref="E153:E161"/>
-    <mergeCell ref="E134:E138"/>
-    <mergeCell ref="E104:E116"/>
-    <mergeCell ref="E54:E66"/>
-    <mergeCell ref="E212:E218"/>
-    <mergeCell ref="E22:E26"/>
-    <mergeCell ref="E27:E29"/>
-    <mergeCell ref="E46:E53"/>
-    <mergeCell ref="E127:E133"/>
+    <mergeCell ref="E67:E70"/>
+    <mergeCell ref="E139:E145"/>
     <mergeCell ref="E42:E45"/>
     <mergeCell ref="E117:E120"/>
     <mergeCell ref="E197:E204"/>
-    <mergeCell ref="E121:E126"/>
-    <mergeCell ref="A46:A53"/>
-    <mergeCell ref="A27:A29"/>
-    <mergeCell ref="A85:A103"/>
+    <mergeCell ref="E134:E138"/>
+    <mergeCell ref="A82:A84"/>
+    <mergeCell ref="A77:A81"/>
     <mergeCell ref="A54:A66"/>
-    <mergeCell ref="A197:A204"/>
-    <mergeCell ref="A172:A175"/>
-    <mergeCell ref="A205:A211"/>
-    <mergeCell ref="A194:A196"/>
-    <mergeCell ref="B153:B161"/>
-    <mergeCell ref="B191:B193"/>
-    <mergeCell ref="B219:B223"/>
+    <mergeCell ref="A42:A45"/>
+    <mergeCell ref="A30:A32"/>
+    <mergeCell ref="A127:A133"/>
+    <mergeCell ref="A22:A26"/>
+    <mergeCell ref="A2:A8"/>
+    <mergeCell ref="B187:B190"/>
+    <mergeCell ref="B212:B218"/>
     <mergeCell ref="B194:B196"/>
-    <mergeCell ref="B46:B53"/>
+    <mergeCell ref="B197:B204"/>
+    <mergeCell ref="B42:B45"/>
     <mergeCell ref="B117:B120"/>
-    <mergeCell ref="B85:B103"/>
-    <mergeCell ref="B30:B32"/>
+    <mergeCell ref="B67:B70"/>
+    <mergeCell ref="B22:B26"/>
   </mergeCells>
   <pageMargins bottom="0.790000021457672" footer="0.19680555164814" header="0.19680555164814" left="0.790000021457672" right="0.790000021457672" top="0.790000021457672"/>
 </worksheet>
